--- a/Android/ExcelData/PCSkillTable.xlsx
+++ b/Android/ExcelData/PCSkillTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22A015E-1A11-4D65-8037-A477C866BE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D53435C-5E34-4CC7-8354-BC0D3D82B226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="44010" yWindow="420" windowWidth="23625" windowHeight="20445" activeTab="1" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -2461,7 +2461,13 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>NPC_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="3">
         <row r="1">
           <cell r="A1" t="str">
@@ -5830,8 +5836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D77A34-98F9-4133-B549-FB86B9DF331B}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16:G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5839,7 +5845,7 @@
     <col min="1" max="1" width="17.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" customWidth="1"/>
-    <col min="4" max="4" width="26.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="48.375" customWidth="1"/>
     <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.625" customWidth="1"/>
@@ -6454,8 +6460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00F7AA3-FB12-454D-93A6-31450B9003EC}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6695,7 +6701,7 @@
         <v>100</v>
       </c>
       <c r="M5" s="7">
-        <v>100008</v>
+        <v>100001</v>
       </c>
       <c r="N5" s="7">
         <v>0</v>
@@ -6716,17 +6722,17 @@
         <v>200002</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F6" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E6,'!참조_ENUM'!$B$3:$B$76,0))</f>
-        <v>자신 선택</v>
+        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -6748,13 +6754,13 @@
         <v>100</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>100001</v>
       </c>
       <c r="N6" s="7">
-        <v>500001</v>
+        <v>0</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="7">
@@ -6801,7 +6807,7 @@
         <v>112</v>
       </c>
       <c r="M7" s="7">
-        <v>100008</v>
+        <v>100001</v>
       </c>
       <c r="N7" s="7">
         <v>0</v>
@@ -6854,7 +6860,7 @@
         <v>100</v>
       </c>
       <c r="M8" s="7">
-        <v>100008</v>
+        <v>100001</v>
       </c>
       <c r="N8" s="7">
         <v>0</v>
@@ -6872,20 +6878,20 @@
         <v>200005</v>
       </c>
       <c r="B9" s="7">
-        <v>200004</v>
+        <v>200005</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F9" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E9,'!참조_ENUM'!$B$3:$B$76,0))</f>
-        <v>자신 선택</v>
+        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
       <c r="G9" s="7">
         <v>0</v>
@@ -6907,13 +6913,13 @@
         <v>100</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
+        <v>100001</v>
       </c>
       <c r="N9" s="7">
-        <v>500001</v>
+        <v>0</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="7">
@@ -6925,7 +6931,7 @@
         <v>200006</v>
       </c>
       <c r="B10" s="7">
-        <v>200005</v>
+        <v>200006</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>141</v>
@@ -6960,7 +6966,7 @@
         <v>100</v>
       </c>
       <c r="M10" s="7">
-        <v>100008</v>
+        <v>100001</v>
       </c>
       <c r="N10" s="7">
         <v>0</v>
@@ -6978,7 +6984,7 @@
         <v>200007</v>
       </c>
       <c r="B11" s="7">
-        <v>200006</v>
+        <v>200007</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>143</v>
@@ -7031,7 +7037,7 @@
         <v>200008</v>
       </c>
       <c r="B12" s="7">
-        <v>200006</v>
+        <v>200007</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>145</v>
@@ -7718,7 +7724,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Android/ExcelData/PCSkillTable.xlsx
+++ b/Android/ExcelData/PCSkillTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D53435C-5E34-4CC7-8354-BC0D3D82B226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB69545-968B-4CA1-A76C-32FA021CCA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44010" yWindow="420" windowWidth="23625" windowHeight="20445" activeTab="1" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="41340" yWindow="1845" windowWidth="23625" windowHeight="17160" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -1509,7 +1509,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="193">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1632,14 +1632,6 @@
   </si>
   <si>
     <t>스킬 설명 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 설명 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 설명 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1695,10 +1687,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>루시아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>projectile_speed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1938,277 +1926,327 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>발사체 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이펙트 지속시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill 09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반복 일회성 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료 일회성 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반복 주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repeat_interval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repeat_pc_onetime_ids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finish_pc_onetime_ids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Normal_Melee_Impact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_NormalHeal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Duration_Poison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Duration_Stun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/Left/SkillEffect_Duration_Silence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중첩 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_overlapable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Duration_DamageReduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Duration_Bind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Duration_Freeze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Frozen_Break</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나/범위/근접공격/데미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나/회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가까운적/중독</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/Left/SkillEffect_Normal_Fireball</t>
+  </si>
+  <si>
+    <t>가까운적/원거리공격/데미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가까운아군/회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_BuffLight</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/Left/SkillEffect_Missile</t>
+  </si>
+  <si>
+    <t>적진영 중앙/데미지/다수공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_AllRound</t>
+  </si>
+  <si>
+    <t>아군 전체/회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가까운적/다수공격/원거리공격/데미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군 전체/피해감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적군전체/중독</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack 01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack 02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack 03</t>
+  </si>
+  <si>
+    <t>attack 04</t>
+  </si>
+  <si>
+    <t>attack 05</t>
+  </si>
+  <si>
+    <t>attack 06</t>
+  </si>
+  <si>
+    <t>attack 07</t>
+  </si>
+  <si>
+    <t>attack 08</t>
+  </si>
+  <si>
+    <t>attack 09</t>
+  </si>
+  <si>
+    <t>attack 10</t>
+  </si>
+  <si>
+    <t>attack 11</t>
+  </si>
+  <si>
+    <t>attack 12</t>
+  </si>
+  <si>
+    <t>attack 13</t>
+  </si>
+  <si>
+    <t>attack 14</t>
+  </si>
+  <si>
+    <t>스킬 설명 3</t>
+  </si>
+  <si>
+    <t>스킬 설명 5</t>
+  </si>
+  <si>
     <t>스킬 설명 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 설명 7</t>
   </si>
   <si>
     <t>스킬 설명 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발사체 속도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이펙트 지속시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect_duration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill 09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>스킬 설명 9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반복 일회성 효과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종료 일회성 효과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반복 주기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>repeat_interval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>repeat_pc_onetime_ids</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>finish_pc_onetime_ids</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill 11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 설명 10</t>
   </si>
   <si>
     <t>스킬 설명 11</t>
+  </si>
+  <si>
+    <t>스킬 설명 12</t>
+  </si>
+  <si>
+    <t>스킬 설명 13</t>
+  </si>
+  <si>
+    <t>스킬 설명 14</t>
+  </si>
+  <si>
+    <t>근딜/나/공버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근딜/근접공격/대미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탱/일반/근접공격/데미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탱/스킬1/근접공격/데미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탱/스킬2/나/힐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근딜/일반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원딜/일반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원딜/스킬2/범위공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원딜/스킬1/대미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원서폿/일반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원서폿/스킬1/전체방어증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원서폿/스킬2/대미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원힐/일반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원힐/스킬1/전체 공격 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원힐/스킬2/대미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/Left/SkillEffect_Normal_Fireball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_BuffLight</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>skill 12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>skill 13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체공격 / 빙결</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체공격 / 침묵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체공격 / 결박</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Normal_Melee_Impact</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_NormalHeal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Duration_Poison</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Duration_Stun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/Left/SkillEffect_Duration_Silence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중첩 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_overlapable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Duration_DamageReduce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Duration_Bind</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Duration_Freeze</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Frozen_Break</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나/범위/근접공격/데미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나/회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가까운적/중독</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/Left/SkillEffect_Normal_Fireball</t>
-  </si>
-  <si>
-    <t>가까운적/원거리공격/데미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가까운아군/회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_BuffLight</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/Left/SkillEffect_Missile</t>
-  </si>
-  <si>
-    <t>적진영 중앙/데미지/다수공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_AllRound</t>
-  </si>
-  <si>
-    <t>아군 전체/회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가까운적/다수공격/원거리공격/데미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아군 전체/피해감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적군전체/중독</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack 01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack 02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack 03</t>
-  </si>
-  <si>
-    <t>attack 04</t>
-  </si>
-  <si>
-    <t>attack 05</t>
-  </si>
-  <si>
-    <t>attack 06</t>
-  </si>
-  <si>
-    <t>attack 07</t>
-  </si>
-  <si>
-    <t>attack 08</t>
-  </si>
-  <si>
-    <t>attack 09</t>
-  </si>
-  <si>
-    <t>attack 10</t>
-  </si>
-  <si>
-    <t>attack 11</t>
-  </si>
-  <si>
-    <t>attack 12</t>
-  </si>
-  <si>
-    <t>attack 13</t>
-  </si>
-  <si>
-    <t>attack 14</t>
-  </si>
-  <si>
-    <t>스킬 설명 3</t>
-  </si>
-  <si>
-    <t>스킬 설명 5</t>
-  </si>
-  <si>
-    <t>스킬 설명 6</t>
-  </si>
-  <si>
-    <t>스킬 설명 7</t>
-  </si>
-  <si>
-    <t>스킬 설명 8</t>
-  </si>
-  <si>
-    <t>스킬 설명 9</t>
-  </si>
-  <si>
-    <t>스킬 설명 10</t>
-  </si>
-  <si>
-    <t>스킬 설명 11</t>
-  </si>
-  <si>
-    <t>스킬 설명 12</t>
-  </si>
-  <si>
-    <t>스킬 설명 13</t>
-  </si>
-  <si>
-    <t>스킬 설명 14</t>
+  </si>
+  <si>
+    <t>skill 14</t>
+  </si>
+  <si>
+    <t>skill 15</t>
+  </si>
+  <si>
+    <t>스킬 설명 2</t>
+  </si>
+  <si>
+    <t>스킬 설명 15</t>
   </si>
 </sst>
 </file>
@@ -2273,7 +2311,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2306,7 +2344,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2351,7 +2395,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2412,10 +2456,31 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2461,13 +2526,7 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>NPC_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3">
         <row r="1">
           <cell r="A1" t="str">
@@ -3688,6 +3747,28 @@
           </cell>
           <cell r="C10" t="str">
             <v>빙결</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>ATK_UP</v>
+          </cell>
+          <cell r="B11">
+            <v>106</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>공격력 증가</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>DEF_UP</v>
+          </cell>
+          <cell r="B12">
+            <v>107</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>방어력 증가</v>
           </cell>
         </row>
       </sheetData>
@@ -4164,8 +4245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCF2545-5B22-48B7-AA3A-4E88E574D583}">
   <dimension ref="A1:AE76"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AC10" sqref="AC10"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4853,6 +4934,18 @@
         <f>'[1]@stat'!$C11</f>
         <v>크리티컬 파워를 기준으로 계산을 하기 위한 수치</v>
       </c>
+      <c r="U10" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$A11</f>
+        <v>ATK_UP</v>
+      </c>
+      <c r="V10" s="4">
+        <f>'[1]@duration_effect_type'!$B11</f>
+        <v>106</v>
+      </c>
+      <c r="W10" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$C11</f>
+        <v>공격력 증가</v>
+      </c>
       <c r="AC10" s="4" t="str">
         <f>'[1]@projectile_type'!$A11</f>
         <v>ALL_ROUND</v>
@@ -4890,6 +4983,18 @@
       <c r="G11" s="4" t="str">
         <f>'[1]@stat'!$C12</f>
         <v>명중률을 기준으로 계산을 하기 위한 수치</v>
+      </c>
+      <c r="U11" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$A12</f>
+        <v>DEF_UP</v>
+      </c>
+      <c r="V11" s="4">
+        <f>'[1]@duration_effect_type'!$B12</f>
+        <v>107</v>
+      </c>
+      <c r="W11" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$C12</f>
+        <v>방어력 증가</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.3">
@@ -5834,16 +5939,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D77A34-98F9-4133-B549-FB86B9DF331B}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" customWidth="1"/>
     <col min="4" max="4" width="14.625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="48.375" customWidth="1"/>
@@ -5853,7 +5958,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -5861,13 +5966,13 @@
         <v>24</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>27</v>
@@ -5876,7 +5981,7 @@
         <v>26</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -5907,13 +6012,13 @@
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>28</v>
@@ -5922,532 +6027,601 @@
         <v>25</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="21">
+      <c r="A5" s="25">
         <v>100001</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="21" t="s">
+      <c r="B5" s="25" t="str">
+        <f>VLOOKUP(A5,pc_skill_data!$B:$C,2,)</f>
+        <v>탱/일반/근접공격/데미지</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="26">
         <v>2</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21" t="s">
-        <v>56</v>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="21">
+      <c r="A6" s="25">
         <v>100002</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="21" t="s">
+      <c r="B6" s="25" t="str">
+        <f>VLOOKUP(A6,pc_skill_data!$B:$C,2,)</f>
+        <v>탱/스킬1/근접공격/데미지</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="26">
         <v>2</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="25">
+        <v>100003</v>
+      </c>
+      <c r="B7" s="25" t="str">
+        <f>VLOOKUP(A7,pc_skill_data!$B:$C,2,)</f>
+        <v>탱/스킬2/나/힐</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="26">
+        <v>2</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="25">
+        <v>100004</v>
+      </c>
+      <c r="B8" s="25" t="str">
+        <f>VLOOKUP(A8,pc_skill_data!$B:$C,2,)</f>
+        <v>근딜/일반</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21" t="s">
+      <c r="D8" s="26">
+        <v>2</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="25">
+        <v>100005</v>
+      </c>
+      <c r="B9" s="25" t="str">
+        <f>VLOOKUP(A9,pc_skill_data!$B:$C,2,)</f>
+        <v>근딜/나/공버프</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="26">
+        <v>2</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="25">
+        <v>100006</v>
+      </c>
+      <c r="B10" s="25" t="str">
+        <f>VLOOKUP(A10,pc_skill_data!$B:$C,2,)</f>
+        <v>근딜/근접공격/대미지</v>
+      </c>
+      <c r="C10" s="25" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="21">
-        <v>100003</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="20">
+      <c r="D10" s="26">
         <v>2</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="21">
-        <v>100004</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="20">
+      <c r="E10" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="25">
+        <v>100007</v>
+      </c>
+      <c r="B11" s="25" t="str">
+        <f>VLOOKUP(A11,pc_skill_data!$B:$C,2,)</f>
+        <v>원딜/일반</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="26">
         <v>2</v>
       </c>
-      <c r="E8" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="21">
-        <v>100006</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="20">
+      <c r="E11" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="25">
+        <v>100008</v>
+      </c>
+      <c r="B12" s="25" t="str">
+        <f>VLOOKUP(A12,pc_skill_data!$B:$C,2,)</f>
+        <v>원딜/스킬1/대미지</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="26">
         <v>2</v>
       </c>
-      <c r="E9" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
-        <v>100008</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" s="20">
+      <c r="E12" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="25">
+        <v>100009</v>
+      </c>
+      <c r="B13" s="25" t="str">
+        <f>VLOOKUP(A13,pc_skill_data!$B:$C,2,)</f>
+        <v>원딜/스킬2/범위공격</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="26">
         <v>2</v>
       </c>
-      <c r="E10" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="21">
-        <v>100009</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="D11" s="20">
+      <c r="E13" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="25">
+        <v>100010</v>
+      </c>
+      <c r="B14" s="25" t="str">
+        <f>VLOOKUP(A14,pc_skill_data!$B:$C,2,)</f>
+        <v>원서폿/일반</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="26">
         <v>2</v>
       </c>
-      <c r="E11" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="21">
-        <v>100010</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="D12" s="20">
+      <c r="E14" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="25">
+        <v>100011</v>
+      </c>
+      <c r="B15" s="25" t="str">
+        <f>VLOOKUP(A15,pc_skill_data!$B:$C,2,)</f>
+        <v>원서폿/스킬1/전체방어증가</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="D15" s="26">
         <v>2</v>
       </c>
-      <c r="E12" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="21">
-        <v>100011</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" s="20">
+      <c r="E15" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="25">
+        <v>100012</v>
+      </c>
+      <c r="B16" s="25" t="str">
+        <f>VLOOKUP(A16,pc_skill_data!$B:$C,2,)</f>
+        <v>원서폿/스킬2/대미지</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="D16" s="26">
         <v>2</v>
       </c>
-      <c r="E13" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="21">
-        <v>100012</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="D14" s="20">
+      <c r="E16" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="25">
+        <v>100013</v>
+      </c>
+      <c r="B17" s="25" t="str">
+        <f>VLOOKUP(A17,pc_skill_data!$B:$C,2,)</f>
+        <v>원힐/일반</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="D17" s="26">
         <v>2</v>
       </c>
-      <c r="E14" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="21">
-        <v>100013</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="D15" s="20">
-        <v>2</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>200001</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D16" s="7">
-        <v>2</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>200002</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D17" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4" t="s">
-        <v>104</v>
+      <c r="E17" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>200003</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>46</v>
+      <c r="A18" s="25">
+        <v>100014</v>
+      </c>
+      <c r="B18" s="25" t="str">
+        <f>VLOOKUP(A18,pc_skill_data!$B:$C,2,)</f>
+        <v>원힐/스킬1/전체 공격 증가</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="D18" s="7">
         <v>2</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>171</v>
+      <c r="E18" s="25" t="s">
+        <v>169</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>200004</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>46</v>
+      <c r="A19" s="25">
+        <v>100015</v>
+      </c>
+      <c r="B19" s="25" t="str">
+        <f>VLOOKUP(A19,pc_skill_data!$B:$C,2,)</f>
+        <v>원힐/스킬2/대미지</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="D19" s="7">
         <v>2.5</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>34</v>
+      <c r="E19" s="25" t="s">
+        <v>192</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
-        <v>200005</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>46</v>
+        <v>200003</v>
+      </c>
+      <c r="B20" s="25" t="str">
+        <f>VLOOKUP(A20,pc_skill_data!$B:$C,2,)</f>
+        <v>나/범위/근접공격/데미지</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="D20" s="7">
         <v>2</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
-        <v>200006</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>46</v>
+        <v>200004</v>
+      </c>
+      <c r="B21" s="25" t="str">
+        <f>VLOOKUP(A21,pc_skill_data!$B:$C,2,)</f>
+        <v>나/범위/근접공격/데미지</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="D21" s="7">
         <v>2.5</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>173</v>
+        <v>32</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
-        <v>200007</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>46</v>
+        <v>200005</v>
+      </c>
+      <c r="B22" s="25" t="str">
+        <f>VLOOKUP(A22,pc_skill_data!$B:$C,2,)</f>
+        <v>나/타겟/나/피해감소</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="D22" s="7">
         <v>2</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
-        <v>200008</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>46</v>
+        <v>200006</v>
+      </c>
+      <c r="B23" s="25" t="str">
+        <f>VLOOKUP(A23,pc_skill_data!$B:$C,2,)</f>
+        <v>나/범위/근접공격/데미지</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="D23" s="7">
         <v>2.5</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
-        <v>200009</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>46</v>
+        <v>200007</v>
+      </c>
+      <c r="B24" s="25" t="str">
+        <f>VLOOKUP(A24,pc_skill_data!$B:$C,2,)</f>
+        <v>나/회복</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="D24" s="7">
         <v>2</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
-        <v>200010</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>46</v>
+        <v>200008</v>
+      </c>
+      <c r="B25" s="25" t="str">
+        <f>VLOOKUP(A25,pc_skill_data!$B:$C,2,)</f>
+        <v>가까운아군/회복</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="D25" s="7">
         <v>2.5</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
-        <v>200011</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>46</v>
+        <v>200009</v>
+      </c>
+      <c r="B26" s="25" t="str">
+        <f>VLOOKUP(A26,pc_skill_data!$B:$C,2,)</f>
+        <v>가까운적/원거리공격/데미지</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="D26" s="7">
         <v>2</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
-        <v>200012</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>46</v>
+        <v>200010</v>
+      </c>
+      <c r="B27" s="25" t="str">
+        <f>VLOOKUP(A27,pc_skill_data!$B:$C,2,)</f>
+        <v>적진영 중앙/데미지/다수공격</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="D27" s="7">
         <v>2.5</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
-        <v>200013</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>46</v>
+        <v>200011</v>
+      </c>
+      <c r="B28" s="25" t="str">
+        <f>VLOOKUP(A28,pc_skill_data!$B:$C,2,)</f>
+        <v>가까운적/원거리공격/데미지</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="D28" s="7">
         <v>2</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
-        <v>200014</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>46</v>
+        <v>200012</v>
+      </c>
+      <c r="B29" s="25" t="str">
+        <f>VLOOKUP(A29,pc_skill_data!$B:$C,2,)</f>
+        <v>가까운적/다수공격/원거리공격/데미지</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="D29" s="7">
         <v>2.5</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>200013</v>
+      </c>
+      <c r="B30" s="25" t="str">
+        <f>VLOOKUP(A30,pc_skill_data!$B:$C,2,)</f>
+        <v>가까운적/원거리공격/데미지</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" s="7">
+        <v>2</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>200014</v>
+      </c>
+      <c r="B31" s="25" t="str">
+        <f>VLOOKUP(A31,pc_skill_data!$B:$C,2,)</f>
+        <v>아군 전체/피해감소</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D31" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -6458,10 +6632,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00F7AA3-FB12-454D-93A6-31450B9003EC}">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A3" sqref="A3"/>
+      <selection pane="topRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6476,7 +6654,7 @@
     <col min="8" max="8" width="9.125" customWidth="1"/>
     <col min="9" max="9" width="17.875" customWidth="1"/>
     <col min="10" max="10" width="28.125" customWidth="1"/>
-    <col min="11" max="11" width="9.25" customWidth="1"/>
+    <col min="11" max="11" width="16.375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
     <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.25" bestFit="1" customWidth="1"/>
@@ -6487,7 +6665,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -6513,7 +6691,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
@@ -6528,31 +6706,31 @@
         <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="Q2" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="15" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6566,7 +6744,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>13</v>
@@ -6581,7 +6759,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J3" s="13" t="s">
         <v>4</v>
@@ -6590,13 +6768,13 @@
         <v>8</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O3" s="13" t="s">
         <v>4</v>
@@ -6619,7 +6797,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>14</v>
@@ -6634,1057 +6812,1762 @@
         <v>16</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="P4" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
-        <v>200001</v>
-      </c>
-      <c r="B5" s="7">
-        <v>200001</v>
+      <c r="A5" s="20">
+        <v>100001</v>
+      </c>
+      <c r="B5" s="20">
+        <v>100001</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="7">
+        <v>172</v>
+      </c>
+      <c r="D5" s="20">
         <v>1</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="20">
         <v>6</v>
       </c>
       <c r="F5" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E5,'!참조_ENUM'!$B$3:$B$76,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
+      <c r="G5" s="20">
+        <v>0</v>
+      </c>
+      <c r="H5" s="20">
         <v>1</v>
       </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="str">
+      <c r="I5" s="20">
+        <v>0</v>
+      </c>
+      <c r="J5" s="21" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I5,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>NONE</v>
       </c>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7">
+      <c r="K5" s="20">
+        <v>0</v>
+      </c>
+      <c r="L5" s="20">
         <v>100</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5">
         <v>100001</v>
       </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="7">
-        <v>0</v>
-      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
-        <v>200002</v>
-      </c>
-      <c r="B6" s="7">
-        <v>200002</v>
+      <c r="A6" s="20">
+        <v>100002</v>
+      </c>
+      <c r="B6" s="20">
+        <v>100002</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" s="7">
+        <v>173</v>
+      </c>
+      <c r="D6" s="20">
         <v>1</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="20">
         <v>6</v>
       </c>
       <c r="F6" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E6,'!참조_ENUM'!$B$3:$B$76,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
+      <c r="G6" s="20">
+        <v>0</v>
+      </c>
+      <c r="H6" s="20">
         <v>1</v>
       </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="str">
+      <c r="I6" s="20">
+        <v>0</v>
+      </c>
+      <c r="J6" s="21" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I6,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>NONE</v>
       </c>
-      <c r="K6" s="7">
-        <v>0</v>
-      </c>
-      <c r="L6" s="7">
+      <c r="K6" s="20">
+        <v>0</v>
+      </c>
+      <c r="L6" s="20">
         <v>100</v>
       </c>
-      <c r="M6" s="7">
-        <v>100001</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="7">
-        <v>0</v>
+      <c r="M6">
+        <v>100002</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
-        <v>200003</v>
-      </c>
-      <c r="B7" s="7">
-        <v>200003</v>
+      <c r="A7" s="20">
+        <v>100003</v>
+      </c>
+      <c r="B7" s="20">
+        <v>100003</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D7" s="7">
+        <v>174</v>
+      </c>
+      <c r="D7" s="20">
+        <v>0</v>
+      </c>
+      <c r="E7" s="20">
         <v>1</v>
-      </c>
-      <c r="E7" s="7">
-        <v>6</v>
       </c>
       <c r="F7" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E7,'!참조_ENUM'!$B$3:$B$76,0))</f>
-        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7">
+        <v>자신 선택</v>
+      </c>
+      <c r="G7" s="20">
+        <v>0</v>
+      </c>
+      <c r="H7" s="20">
         <v>1</v>
       </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="str">
+      <c r="I7" s="20">
+        <v>0</v>
+      </c>
+      <c r="J7" s="21" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I7,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>NONE</v>
       </c>
-      <c r="K7" s="7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M7" s="7">
-        <v>100001</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="7">
-        <v>0</v>
+      <c r="K7" s="20">
+        <v>0</v>
+      </c>
+      <c r="L7" s="20">
+        <v>100</v>
+      </c>
+      <c r="M7">
+        <v>100003</v>
+      </c>
+      <c r="P7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
-        <v>200004</v>
-      </c>
-      <c r="B8" s="7">
-        <v>200004</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8" s="7">
+      <c r="A8" s="20">
+        <v>100101</v>
+      </c>
+      <c r="B8" s="20">
+        <v>100004</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" s="20">
         <v>1</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="20">
         <v>6</v>
       </c>
       <c r="F8" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E8,'!참조_ENUM'!$B$3:$B$76,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
+      <c r="G8" s="20">
+        <v>0</v>
+      </c>
+      <c r="H8" s="20">
         <v>1</v>
       </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="str">
+      <c r="I8" s="20">
+        <v>0</v>
+      </c>
+      <c r="J8" s="21" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I8,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>NONE</v>
       </c>
-      <c r="K8" s="7">
-        <v>0</v>
-      </c>
-      <c r="L8" s="7">
+      <c r="K8" s="20">
+        <v>0</v>
+      </c>
+      <c r="L8" s="20">
         <v>100</v>
       </c>
-      <c r="M8" s="7">
-        <v>100001</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="7">
-        <v>0</v>
+      <c r="M8">
+        <v>100004</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
-        <v>200005</v>
-      </c>
-      <c r="B9" s="7">
-        <v>200005</v>
+      <c r="A9" s="20">
+        <v>100102</v>
+      </c>
+      <c r="B9" s="20">
+        <v>100005</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="7">
+        <v>170</v>
+      </c>
+      <c r="D9" s="20">
+        <v>0</v>
+      </c>
+      <c r="E9" s="20">
         <v>1</v>
-      </c>
-      <c r="E9" s="7">
-        <v>6</v>
       </c>
       <c r="F9" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E9,'!참조_ENUM'!$B$3:$B$76,0))</f>
-        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7">
+        <v>자신 선택</v>
+      </c>
+      <c r="G9" s="20">
+        <v>0</v>
+      </c>
+      <c r="H9" s="20">
         <v>1</v>
       </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7" t="str">
+      <c r="I9" s="20">
+        <v>0</v>
+      </c>
+      <c r="J9" s="21" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I9,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>NONE</v>
       </c>
-      <c r="K9" s="7">
-        <v>0</v>
-      </c>
-      <c r="L9" s="7">
+      <c r="K9" s="20">
+        <v>0</v>
+      </c>
+      <c r="L9" s="20">
         <v>100</v>
       </c>
-      <c r="M9" s="7">
-        <v>100001</v>
-      </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="7">
-        <v>0</v>
+      <c r="M9">
+        <v>100005</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
-        <v>200006</v>
-      </c>
-      <c r="B10" s="7">
-        <v>200006</v>
+      <c r="A10" s="20">
+        <v>100103</v>
+      </c>
+      <c r="B10" s="20">
+        <v>100006</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D10" s="7">
+        <v>171</v>
+      </c>
+      <c r="D10" s="20">
         <v>1</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="20">
         <v>6</v>
       </c>
       <c r="F10" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E10,'!참조_ENUM'!$B$3:$B$76,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
-      <c r="G10" s="7">
-        <v>0</v>
-      </c>
-      <c r="H10" s="7">
+      <c r="G10" s="20">
+        <v>0</v>
+      </c>
+      <c r="H10" s="20">
         <v>1</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="str">
+      <c r="I10" s="20">
+        <v>0</v>
+      </c>
+      <c r="J10" s="21" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I10,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>NONE</v>
       </c>
-      <c r="K10" s="7">
-        <v>0</v>
-      </c>
-      <c r="L10" s="7">
+      <c r="K10" s="20">
+        <v>0</v>
+      </c>
+      <c r="L10" s="20">
         <v>100</v>
       </c>
-      <c r="M10" s="7">
-        <v>100001</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="7">
-        <v>0</v>
+      <c r="M10">
+        <v>100006</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
-        <v>200007</v>
-      </c>
-      <c r="B11" s="7">
-        <v>200007</v>
+      <c r="A11" s="20">
+        <v>100201</v>
+      </c>
+      <c r="B11" s="20">
+        <v>100007</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7">
+        <v>176</v>
+      </c>
+      <c r="D11" s="20">
         <v>1</v>
+      </c>
+      <c r="E11" s="20">
+        <v>6</v>
       </c>
       <c r="F11" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E11,'!참조_ENUM'!$B$3:$B$76,0))</f>
-        <v>자신 선택</v>
-      </c>
-      <c r="G11" s="7">
-        <v>0</v>
-      </c>
-      <c r="H11" s="7">
+        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
+      </c>
+      <c r="G11" s="20">
+        <v>0</v>
+      </c>
+      <c r="H11" s="20">
         <v>1</v>
       </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="str">
+      <c r="I11" s="20">
+        <v>2</v>
+      </c>
+      <c r="J11" s="21" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I11,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="K11" s="7">
-        <v>0</v>
-      </c>
-      <c r="L11" s="7">
+        <v>투사체를 타겟의 몸에 던진다</v>
+      </c>
+      <c r="K11" s="20">
+        <v>0</v>
+      </c>
+      <c r="L11" s="20">
         <v>100</v>
       </c>
-      <c r="M11" s="7">
-        <v>100002</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="7">
-        <v>0</v>
+      <c r="M11">
+        <v>100007</v>
+      </c>
+      <c r="P11" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q11" s="21">
+        <v>0.3</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
-        <v>200008</v>
-      </c>
-      <c r="B12" s="7">
-        <v>200007</v>
+      <c r="A12" s="20">
+        <v>100202</v>
+      </c>
+      <c r="B12" s="20">
+        <v>100008</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="D12" s="7">
+        <v>178</v>
+      </c>
+      <c r="D12" s="20">
         <v>1</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="20">
         <v>6</v>
       </c>
       <c r="F12" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E12,'!참조_ENUM'!$B$3:$B$76,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
-      <c r="G12" s="7">
-        <v>0</v>
-      </c>
-      <c r="H12" s="7">
+      <c r="G12" s="20">
+        <v>0</v>
+      </c>
+      <c r="H12" s="20">
         <v>1</v>
       </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="str">
+      <c r="I12" s="20">
+        <v>2</v>
+      </c>
+      <c r="J12" s="21" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I12,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="K12" s="7">
-        <v>0</v>
-      </c>
-      <c r="L12" s="7">
+        <v>투사체를 타겟의 몸에 던진다</v>
+      </c>
+      <c r="K12" s="20">
+        <v>0</v>
+      </c>
+      <c r="L12" s="20">
         <v>100</v>
       </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7">
-        <v>500002</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="7">
-        <v>0</v>
+      <c r="M12">
+        <v>100008</v>
+      </c>
+      <c r="P12" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q12" s="21">
+        <v>0.3</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
-        <v>200009</v>
-      </c>
-      <c r="B13" s="7">
-        <v>200007</v>
+      <c r="A13" s="20">
+        <v>100203</v>
+      </c>
+      <c r="B13" s="20">
+        <v>100009</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D13" s="7">
+        <v>177</v>
+      </c>
+      <c r="D13" s="20">
         <v>1</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="20">
         <v>6</v>
       </c>
       <c r="F13" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E13,'!참조_ENUM'!$B$3:$B$76,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
-      <c r="G13" s="7">
-        <v>0</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
+      <c r="G13" s="20">
+        <v>0</v>
+      </c>
+      <c r="H13" s="20">
+        <v>3</v>
+      </c>
+      <c r="I13" s="20">
         <v>2</v>
       </c>
-      <c r="J13" s="7" t="str">
+      <c r="J13" s="21" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I13,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>투사체를 타겟의 몸에 던진다</v>
       </c>
-      <c r="K13" s="7">
-        <v>0</v>
-      </c>
-      <c r="L13" s="7">
+      <c r="K13" s="20">
+        <v>0</v>
+      </c>
+      <c r="L13" s="20">
         <v>100</v>
       </c>
-      <c r="M13" s="7">
-        <v>100008</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q13" s="7">
+      <c r="M13">
+        <v>100009</v>
+      </c>
+      <c r="P13" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q13" s="21">
         <v>0.3</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
-        <v>200010</v>
-      </c>
-      <c r="B14" s="7">
-        <v>200008</v>
+      <c r="A14" s="20">
+        <v>100301</v>
+      </c>
+      <c r="B14" s="20">
+        <v>100010</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7">
-        <v>4</v>
+        <v>179</v>
+      </c>
+      <c r="D14" s="20">
+        <v>1</v>
+      </c>
+      <c r="E14" s="20">
+        <v>6</v>
       </c>
       <c r="F14" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E14,'!참조_ENUM'!$B$3:$B$76,0))</f>
-        <v>자신을 제외한 가장 가까운 아군 선택</v>
-      </c>
-      <c r="G14" s="7">
-        <v>0</v>
-      </c>
-      <c r="H14" s="7">
+        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
+      </c>
+      <c r="G14" s="20">
+        <v>0</v>
+      </c>
+      <c r="H14" s="20">
         <v>1</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="20">
         <v>2</v>
       </c>
-      <c r="J14" s="7" t="str">
+      <c r="J14" s="21" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I14,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>투사체를 타겟의 몸에 던진다</v>
       </c>
-      <c r="K14" s="7">
-        <v>0</v>
-      </c>
-      <c r="L14" s="7">
+      <c r="K14" s="20">
+        <v>0</v>
+      </c>
+      <c r="L14" s="20">
         <v>100</v>
       </c>
-      <c r="M14" s="7">
-        <v>100002</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q14" s="7">
-        <v>1</v>
+      <c r="M14">
+        <v>100010</v>
+      </c>
+      <c r="P14" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q14" s="21">
+        <v>0.3</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
-        <v>200011</v>
-      </c>
-      <c r="B15" s="7">
-        <v>200008</v>
+      <c r="A15" s="20">
+        <v>100302</v>
+      </c>
+      <c r="B15" s="20">
+        <v>100011</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0</v>
-      </c>
-      <c r="E15" s="7">
-        <v>1</v>
+        <v>180</v>
+      </c>
+      <c r="D15" s="20">
+        <v>0</v>
+      </c>
+      <c r="E15" s="20">
+        <v>6</v>
       </c>
       <c r="F15" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E15,'!참조_ENUM'!$B$3:$B$76,0))</f>
-        <v>자신 선택</v>
-      </c>
-      <c r="G15" s="7">
-        <v>0</v>
-      </c>
-      <c r="H15" s="7">
+        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
+      </c>
+      <c r="G15" s="20">
+        <v>0</v>
+      </c>
+      <c r="H15" s="20">
         <v>1</v>
       </c>
-      <c r="I15" s="7">
-        <v>0</v>
-      </c>
-      <c r="J15" s="7" t="str">
+      <c r="I15" s="20">
+        <v>0</v>
+      </c>
+      <c r="J15" s="21" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I15,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>NONE</v>
       </c>
-      <c r="K15" s="7">
-        <v>0</v>
-      </c>
-      <c r="L15" s="7">
+      <c r="K15" s="20">
+        <v>0</v>
+      </c>
+      <c r="L15" s="20">
         <v>100</v>
       </c>
-      <c r="M15" s="7">
-        <v>0</v>
-      </c>
-      <c r="N15" s="7">
-        <v>500001</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="7">
-        <v>0</v>
+      <c r="M15">
+        <v>100011</v>
+      </c>
+      <c r="P15" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q15" s="27">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
-        <v>200012</v>
-      </c>
-      <c r="B16" s="7">
-        <v>200009</v>
+      <c r="A16" s="20">
+        <v>100303</v>
+      </c>
+      <c r="B16" s="20">
+        <v>100012</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D16" s="7">
+        <v>181</v>
+      </c>
+      <c r="D16" s="20">
         <v>1</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="20">
         <v>6</v>
       </c>
       <c r="F16" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E16,'!참조_ENUM'!$B$3:$B$76,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
-      <c r="G16" s="7">
-        <v>0</v>
-      </c>
-      <c r="H16" s="7">
+      <c r="G16" s="20">
+        <v>0</v>
+      </c>
+      <c r="H16" s="20">
         <v>1</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="20">
         <v>2</v>
       </c>
-      <c r="J16" s="7" t="str">
+      <c r="J16" s="21" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I16,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>투사체를 타겟의 몸에 던진다</v>
       </c>
-      <c r="K16" s="7">
-        <v>0</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M16" s="7">
-        <v>100008</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q16" s="7">
+      <c r="K16" s="20">
+        <v>0</v>
+      </c>
+      <c r="L16" s="20">
+        <v>100</v>
+      </c>
+      <c r="M16">
+        <v>100012</v>
+      </c>
+      <c r="P16" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q16" s="21">
         <v>0.3</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
-        <v>200013</v>
-      </c>
-      <c r="B17" s="7">
-        <v>200010</v>
+      <c r="A17" s="20">
+        <v>100401</v>
+      </c>
+      <c r="B17" s="20">
+        <v>100013</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D17" s="7">
+        <v>182</v>
+      </c>
+      <c r="D17" s="20">
         <v>1</v>
       </c>
-      <c r="E17" s="7">
-        <v>2</v>
+      <c r="E17" s="20">
+        <v>6</v>
       </c>
       <c r="F17" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E17,'!참조_ENUM'!$B$3:$B$76,0))</f>
-        <v>전체 선택</v>
-      </c>
-      <c r="G17" s="7">
-        <v>0</v>
-      </c>
-      <c r="H17" s="7">
-        <v>5</v>
-      </c>
-      <c r="I17" s="7">
-        <v>21</v>
-      </c>
-      <c r="J17" s="7" t="str">
+        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
+      </c>
+      <c r="G17" s="20">
+        <v>0</v>
+      </c>
+      <c r="H17" s="20">
+        <v>1</v>
+      </c>
+      <c r="I17" s="20">
+        <v>2</v>
+      </c>
+      <c r="J17" s="21" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I17,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>전체 선택(진영의 중앙)</v>
-      </c>
-      <c r="K17" s="7">
-        <v>0</v>
-      </c>
-      <c r="L17" s="7">
+        <v>투사체를 타겟의 몸에 던진다</v>
+      </c>
+      <c r="K17" s="20">
+        <v>0</v>
+      </c>
+      <c r="L17" s="20">
         <v>100</v>
       </c>
-      <c r="M17" s="7">
-        <v>100006</v>
-      </c>
-      <c r="N17" s="7">
-        <v>500006</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q17" s="7">
-        <v>1</v>
+      <c r="M17">
+        <v>100013</v>
+      </c>
+      <c r="P17" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q17" s="21">
+        <v>0.3</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
-        <v>200014</v>
-      </c>
-      <c r="B18" s="7">
-        <v>200010</v>
+      <c r="A18" s="20">
+        <v>100402</v>
+      </c>
+      <c r="B18" s="20">
+        <v>100014</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="D18" s="7">
-        <v>0</v>
-      </c>
-      <c r="E18" s="7">
-        <v>2</v>
+        <v>183</v>
+      </c>
+      <c r="D18" s="20">
+        <v>0</v>
+      </c>
+      <c r="E18" s="20">
+        <v>6</v>
       </c>
       <c r="F18" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E18,'!참조_ENUM'!$B$3:$B$76,0))</f>
-        <v>전체 선택</v>
-      </c>
-      <c r="G18" s="7">
-        <v>0</v>
-      </c>
-      <c r="H18" s="7">
-        <v>5</v>
-      </c>
-      <c r="I18" s="7">
-        <v>2</v>
-      </c>
-      <c r="J18" s="7" t="str">
+        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
+      </c>
+      <c r="G18" s="20">
+        <v>0</v>
+      </c>
+      <c r="H18" s="20">
+        <v>1</v>
+      </c>
+      <c r="I18" s="20">
+        <v>0</v>
+      </c>
+      <c r="J18" s="21" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I18,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>투사체를 타겟의 몸에 던진다</v>
-      </c>
-      <c r="K18" s="7">
-        <v>0</v>
-      </c>
-      <c r="L18" s="7">
+        <v>NONE</v>
+      </c>
+      <c r="K18" s="20">
+        <v>0</v>
+      </c>
+      <c r="L18" s="20">
         <v>100</v>
       </c>
-      <c r="M18" s="7">
-        <v>100002</v>
-      </c>
-      <c r="N18" s="7">
-        <v>0</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q18" s="7">
+      <c r="M18">
+        <v>100014</v>
+      </c>
+      <c r="P18" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q18" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
-        <v>200015</v>
-      </c>
-      <c r="B19" s="7">
-        <v>200011</v>
+      <c r="A19" s="20">
+        <v>100403</v>
+      </c>
+      <c r="B19" s="20">
+        <v>100015</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D19" s="7">
+        <v>184</v>
+      </c>
+      <c r="D19" s="20">
         <v>1</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="20">
         <v>6</v>
       </c>
       <c r="F19" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E19,'!참조_ENUM'!$B$3:$B$76,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
-      <c r="G19" s="7">
-        <v>0</v>
-      </c>
-      <c r="H19" s="7">
+      <c r="G19" s="20">
+        <v>0</v>
+      </c>
+      <c r="H19" s="20">
         <v>1</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="20">
         <v>2</v>
       </c>
-      <c r="J19" s="7" t="str">
+      <c r="J19" s="21" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I19,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>투사체를 타겟의 몸에 던진다</v>
       </c>
-      <c r="K19" s="7">
-        <v>0</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>100008</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q19" s="7">
+      <c r="K19" s="20">
+        <v>0</v>
+      </c>
+      <c r="L19" s="20">
+        <v>100</v>
+      </c>
+      <c r="M19">
+        <v>100015</v>
+      </c>
+      <c r="P19" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q19" s="21">
         <v>0.3</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
-        <v>200016</v>
-      </c>
-      <c r="B20" s="7">
-        <v>200012</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D20" s="7">
+    <row r="20" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="21">
+        <v>200001</v>
+      </c>
+      <c r="B20" s="21">
+        <v>200001</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" s="21">
         <v>1</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="21">
         <v>6</v>
       </c>
-      <c r="F20" s="12" t="str">
+      <c r="F20" s="22" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E20,'!참조_ENUM'!$B$3:$B$76,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
-      <c r="G20" s="7">
-        <v>0</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2</v>
-      </c>
-      <c r="J20" s="7" t="str">
+      <c r="G20" s="21">
+        <v>0</v>
+      </c>
+      <c r="H20" s="21">
+        <v>1</v>
+      </c>
+      <c r="I20" s="21">
+        <v>0</v>
+      </c>
+      <c r="J20" s="21" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I20,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>투사체를 타겟의 몸에 던진다</v>
-      </c>
-      <c r="K20" s="7">
-        <v>0</v>
-      </c>
-      <c r="L20" s="7">
+        <v>NONE</v>
+      </c>
+      <c r="K20" s="21">
+        <v>0</v>
+      </c>
+      <c r="L20" s="21">
         <v>100</v>
       </c>
-      <c r="M20" s="7">
-        <v>100008</v>
-      </c>
-      <c r="N20" s="7">
-        <v>500003</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="P20" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q20" s="7">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
-        <v>200017</v>
-      </c>
-      <c r="B21" s="7">
-        <v>200013</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D21" s="7">
+      <c r="M20" s="21">
+        <v>100001</v>
+      </c>
+      <c r="N20" s="21">
+        <v>0</v>
+      </c>
+      <c r="O20" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="21">
+        <v>200002</v>
+      </c>
+      <c r="B21" s="21">
+        <v>200002</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" s="21">
         <v>1</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="21">
         <v>6</v>
       </c>
-      <c r="F21" s="12" t="str">
+      <c r="F21" s="22" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E21,'!참조_ENUM'!$B$3:$B$76,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
-      <c r="G21" s="7">
-        <v>0</v>
-      </c>
-      <c r="H21" s="7">
+      <c r="G21" s="21">
+        <v>0</v>
+      </c>
+      <c r="H21" s="21">
         <v>1</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="21">
+        <v>0</v>
+      </c>
+      <c r="J21" s="21" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I21,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="K21" s="21">
+        <v>0</v>
+      </c>
+      <c r="L21" s="21">
+        <v>100</v>
+      </c>
+      <c r="M21" s="21">
+        <v>100001</v>
+      </c>
+      <c r="N21" s="21">
+        <v>0</v>
+      </c>
+      <c r="O21" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="21">
+        <v>200003</v>
+      </c>
+      <c r="B22" s="21">
+        <v>200003</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22" s="21">
+        <v>1</v>
+      </c>
+      <c r="E22" s="21">
+        <v>6</v>
+      </c>
+      <c r="F22" s="22" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E22,'!참조_ENUM'!$B$3:$B$76,0))</f>
+        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
+      </c>
+      <c r="G22" s="21">
+        <v>0</v>
+      </c>
+      <c r="H22" s="21">
+        <v>1</v>
+      </c>
+      <c r="I22" s="21">
+        <v>0</v>
+      </c>
+      <c r="J22" s="21" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I22,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="K22" s="21">
+        <v>0</v>
+      </c>
+      <c r="L22" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="M22" s="21">
+        <v>100001</v>
+      </c>
+      <c r="N22" s="21">
+        <v>0</v>
+      </c>
+      <c r="O22" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="21">
+        <v>200004</v>
+      </c>
+      <c r="B23" s="21">
+        <v>200004</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" s="21">
+        <v>1</v>
+      </c>
+      <c r="E23" s="21">
+        <v>6</v>
+      </c>
+      <c r="F23" s="22" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E23,'!참조_ENUM'!$B$3:$B$76,0))</f>
+        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
+      </c>
+      <c r="G23" s="21">
+        <v>0</v>
+      </c>
+      <c r="H23" s="21">
+        <v>1</v>
+      </c>
+      <c r="I23" s="21">
+        <v>0</v>
+      </c>
+      <c r="J23" s="21" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I23,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="K23" s="21">
+        <v>0</v>
+      </c>
+      <c r="L23" s="21">
+        <v>100</v>
+      </c>
+      <c r="M23" s="21">
+        <v>100001</v>
+      </c>
+      <c r="N23" s="21">
+        <v>0</v>
+      </c>
+      <c r="O23" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="21">
+        <v>200005</v>
+      </c>
+      <c r="B24" s="21">
+        <v>200005</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="21">
+        <v>1</v>
+      </c>
+      <c r="E24" s="21">
+        <v>6</v>
+      </c>
+      <c r="F24" s="22" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E24,'!참조_ENUM'!$B$3:$B$76,0))</f>
+        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
+      </c>
+      <c r="G24" s="21">
+        <v>0</v>
+      </c>
+      <c r="H24" s="21">
+        <v>1</v>
+      </c>
+      <c r="I24" s="21">
+        <v>0</v>
+      </c>
+      <c r="J24" s="21" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I24,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="K24" s="21">
+        <v>0</v>
+      </c>
+      <c r="L24" s="21">
+        <v>100</v>
+      </c>
+      <c r="M24" s="21">
+        <v>100001</v>
+      </c>
+      <c r="N24" s="21">
+        <v>0</v>
+      </c>
+      <c r="O24" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="21">
+        <v>200006</v>
+      </c>
+      <c r="B25" s="21">
+        <v>200006</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="D25" s="21">
+        <v>1</v>
+      </c>
+      <c r="E25" s="21">
+        <v>6</v>
+      </c>
+      <c r="F25" s="22" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E25,'!참조_ENUM'!$B$3:$B$76,0))</f>
+        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
+      </c>
+      <c r="G25" s="21">
+        <v>0</v>
+      </c>
+      <c r="H25" s="21">
+        <v>1</v>
+      </c>
+      <c r="I25" s="21">
+        <v>0</v>
+      </c>
+      <c r="J25" s="21" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I25,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="K25" s="21">
+        <v>0</v>
+      </c>
+      <c r="L25" s="21">
+        <v>100</v>
+      </c>
+      <c r="M25" s="21">
+        <v>100001</v>
+      </c>
+      <c r="N25" s="21">
+        <v>0</v>
+      </c>
+      <c r="O25" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="21">
+        <v>200007</v>
+      </c>
+      <c r="B26" s="21">
+        <v>200007</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" s="21">
+        <v>0</v>
+      </c>
+      <c r="E26" s="21">
+        <v>1</v>
+      </c>
+      <c r="F26" s="22" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E26,'!참조_ENUM'!$B$3:$B$76,0))</f>
+        <v>자신 선택</v>
+      </c>
+      <c r="G26" s="21">
+        <v>0</v>
+      </c>
+      <c r="H26" s="21">
+        <v>1</v>
+      </c>
+      <c r="I26" s="21">
+        <v>0</v>
+      </c>
+      <c r="J26" s="21" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I26,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="K26" s="21">
+        <v>0</v>
+      </c>
+      <c r="L26" s="21">
+        <v>100</v>
+      </c>
+      <c r="M26" s="21">
+        <v>100002</v>
+      </c>
+      <c r="N26" s="21">
+        <v>0</v>
+      </c>
+      <c r="O26" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="21">
+        <v>200008</v>
+      </c>
+      <c r="B27" s="21">
+        <v>200007</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="D27" s="21">
+        <v>1</v>
+      </c>
+      <c r="E27" s="21">
+        <v>6</v>
+      </c>
+      <c r="F27" s="22" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E27,'!참조_ENUM'!$B$3:$B$76,0))</f>
+        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
+      </c>
+      <c r="G27" s="21">
+        <v>0</v>
+      </c>
+      <c r="H27" s="21">
+        <v>1</v>
+      </c>
+      <c r="I27" s="21">
+        <v>0</v>
+      </c>
+      <c r="J27" s="21" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I27,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="K27" s="21">
+        <v>0</v>
+      </c>
+      <c r="L27" s="21">
+        <v>100</v>
+      </c>
+      <c r="M27" s="21">
+        <v>0</v>
+      </c>
+      <c r="N27" s="21">
+        <v>500002</v>
+      </c>
+      <c r="O27" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="21">
+        <v>200009</v>
+      </c>
+      <c r="B28" s="21">
+        <v>200007</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D28" s="21">
+        <v>1</v>
+      </c>
+      <c r="E28" s="21">
+        <v>6</v>
+      </c>
+      <c r="F28" s="22" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E28,'!참조_ENUM'!$B$3:$B$76,0))</f>
+        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
+      </c>
+      <c r="G28" s="21">
+        <v>0</v>
+      </c>
+      <c r="H28" s="21">
+        <v>1</v>
+      </c>
+      <c r="I28" s="21">
         <v>2</v>
       </c>
-      <c r="J21" s="7" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I21,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+      <c r="J28" s="21" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I28,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>투사체를 타겟의 몸에 던진다</v>
       </c>
-      <c r="K21" s="7">
-        <v>0</v>
-      </c>
-      <c r="L21" s="7">
+      <c r="K28" s="21">
+        <v>0</v>
+      </c>
+      <c r="L28" s="21">
         <v>100</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M28" s="21">
         <v>100008</v>
       </c>
-      <c r="N21" s="7">
-        <v>0</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q21" s="7">
+      <c r="N28" s="21">
+        <v>0</v>
+      </c>
+      <c r="O28" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="P28" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q28" s="21">
         <v>0.3</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
+    <row r="29" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="21">
+        <v>200010</v>
+      </c>
+      <c r="B29" s="21">
+        <v>200008</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D29" s="21">
+        <v>0</v>
+      </c>
+      <c r="E29" s="21">
+        <v>4</v>
+      </c>
+      <c r="F29" s="22" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E29,'!참조_ENUM'!$B$3:$B$76,0))</f>
+        <v>자신을 제외한 가장 가까운 아군 선택</v>
+      </c>
+      <c r="G29" s="21">
+        <v>0</v>
+      </c>
+      <c r="H29" s="21">
+        <v>1</v>
+      </c>
+      <c r="I29" s="21">
+        <v>2</v>
+      </c>
+      <c r="J29" s="21" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I29,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>투사체를 타겟의 몸에 던진다</v>
+      </c>
+      <c r="K29" s="21">
+        <v>0</v>
+      </c>
+      <c r="L29" s="21">
+        <v>100</v>
+      </c>
+      <c r="M29" s="21">
+        <v>100002</v>
+      </c>
+      <c r="N29" s="21">
+        <v>0</v>
+      </c>
+      <c r="O29" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="P29" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q29" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="21">
+        <v>200011</v>
+      </c>
+      <c r="B30" s="21">
+        <v>200008</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="21">
+        <v>0</v>
+      </c>
+      <c r="E30" s="21">
+        <v>1</v>
+      </c>
+      <c r="F30" s="22" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E30,'!참조_ENUM'!$B$3:$B$76,0))</f>
+        <v>자신 선택</v>
+      </c>
+      <c r="G30" s="21">
+        <v>0</v>
+      </c>
+      <c r="H30" s="21">
+        <v>1</v>
+      </c>
+      <c r="I30" s="21">
+        <v>0</v>
+      </c>
+      <c r="J30" s="21" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I30,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="K30" s="21">
+        <v>0</v>
+      </c>
+      <c r="L30" s="21">
+        <v>100</v>
+      </c>
+      <c r="M30" s="21">
+        <v>0</v>
+      </c>
+      <c r="N30" s="21">
+        <v>500001</v>
+      </c>
+      <c r="O30" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="21">
+        <v>200012</v>
+      </c>
+      <c r="B31" s="21">
+        <v>200009</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="21">
+        <v>1</v>
+      </c>
+      <c r="E31" s="21">
+        <v>6</v>
+      </c>
+      <c r="F31" s="22" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E31,'!참조_ENUM'!$B$3:$B$76,0))</f>
+        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
+      </c>
+      <c r="G31" s="21">
+        <v>0</v>
+      </c>
+      <c r="H31" s="21">
+        <v>1</v>
+      </c>
+      <c r="I31" s="21">
+        <v>2</v>
+      </c>
+      <c r="J31" s="21" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I31,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>투사체를 타겟의 몸에 던진다</v>
+      </c>
+      <c r="K31" s="21">
+        <v>0</v>
+      </c>
+      <c r="L31" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="M31" s="21">
+        <v>100008</v>
+      </c>
+      <c r="N31" s="21">
+        <v>0</v>
+      </c>
+      <c r="O31" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="P31" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q31" s="21">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="21">
+        <v>200013</v>
+      </c>
+      <c r="B32" s="21">
+        <v>200010</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D32" s="21">
+        <v>1</v>
+      </c>
+      <c r="E32" s="21">
+        <v>2</v>
+      </c>
+      <c r="F32" s="22" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E32,'!참조_ENUM'!$B$3:$B$76,0))</f>
+        <v>전체 선택</v>
+      </c>
+      <c r="G32" s="21">
+        <v>0</v>
+      </c>
+      <c r="H32" s="21">
+        <v>5</v>
+      </c>
+      <c r="I32" s="21">
+        <v>21</v>
+      </c>
+      <c r="J32" s="21" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I32,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>전체 선택(진영의 중앙)</v>
+      </c>
+      <c r="K32" s="21">
+        <v>0</v>
+      </c>
+      <c r="L32" s="21">
+        <v>100</v>
+      </c>
+      <c r="M32" s="21">
+        <v>100006</v>
+      </c>
+      <c r="N32" s="21">
+        <v>500006</v>
+      </c>
+      <c r="O32" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="P32" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q32" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="21">
+        <v>200014</v>
+      </c>
+      <c r="B33" s="21">
+        <v>200010</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D33" s="21">
+        <v>0</v>
+      </c>
+      <c r="E33" s="21">
+        <v>2</v>
+      </c>
+      <c r="F33" s="22" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E33,'!참조_ENUM'!$B$3:$B$76,0))</f>
+        <v>전체 선택</v>
+      </c>
+      <c r="G33" s="21">
+        <v>0</v>
+      </c>
+      <c r="H33" s="21">
+        <v>5</v>
+      </c>
+      <c r="I33" s="21">
+        <v>2</v>
+      </c>
+      <c r="J33" s="21" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I33,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>투사체를 타겟의 몸에 던진다</v>
+      </c>
+      <c r="K33" s="21">
+        <v>0</v>
+      </c>
+      <c r="L33" s="21">
+        <v>100</v>
+      </c>
+      <c r="M33" s="21">
+        <v>100002</v>
+      </c>
+      <c r="N33" s="21">
+        <v>0</v>
+      </c>
+      <c r="O33" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="P33" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q33" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="21">
+        <v>200015</v>
+      </c>
+      <c r="B34" s="21">
+        <v>200011</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D34" s="21">
+        <v>1</v>
+      </c>
+      <c r="E34" s="21">
+        <v>6</v>
+      </c>
+      <c r="F34" s="22" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E34,'!참조_ENUM'!$B$3:$B$76,0))</f>
+        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
+      </c>
+      <c r="G34" s="21">
+        <v>0</v>
+      </c>
+      <c r="H34" s="21">
+        <v>1</v>
+      </c>
+      <c r="I34" s="21">
+        <v>2</v>
+      </c>
+      <c r="J34" s="21" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I34,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>투사체를 타겟의 몸에 던진다</v>
+      </c>
+      <c r="K34" s="21">
+        <v>0</v>
+      </c>
+      <c r="L34" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="M34" s="21">
+        <v>100008</v>
+      </c>
+      <c r="N34" s="21">
+        <v>0</v>
+      </c>
+      <c r="O34" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="P34" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q34" s="21">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="21">
+        <v>200016</v>
+      </c>
+      <c r="B35" s="21">
+        <v>200012</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="D35" s="21">
+        <v>1</v>
+      </c>
+      <c r="E35" s="21">
+        <v>6</v>
+      </c>
+      <c r="F35" s="22" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E35,'!참조_ENUM'!$B$3:$B$76,0))</f>
+        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
+      </c>
+      <c r="G35" s="21">
+        <v>0</v>
+      </c>
+      <c r="H35" s="21">
+        <v>3</v>
+      </c>
+      <c r="I35" s="21">
+        <v>2</v>
+      </c>
+      <c r="J35" s="21" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I35,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>투사체를 타겟의 몸에 던진다</v>
+      </c>
+      <c r="K35" s="21">
+        <v>0</v>
+      </c>
+      <c r="L35" s="21">
+        <v>100</v>
+      </c>
+      <c r="M35" s="21">
+        <v>100008</v>
+      </c>
+      <c r="N35" s="21">
+        <v>500003</v>
+      </c>
+      <c r="O35" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="P35" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q35" s="21">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="21">
+        <v>200017</v>
+      </c>
+      <c r="B36" s="21">
+        <v>200013</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D36" s="21">
+        <v>1</v>
+      </c>
+      <c r="E36" s="21">
+        <v>6</v>
+      </c>
+      <c r="F36" s="22" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E36,'!참조_ENUM'!$B$3:$B$76,0))</f>
+        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
+      </c>
+      <c r="G36" s="21">
+        <v>0</v>
+      </c>
+      <c r="H36" s="21">
+        <v>1</v>
+      </c>
+      <c r="I36" s="21">
+        <v>2</v>
+      </c>
+      <c r="J36" s="21" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I36,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>투사체를 타겟의 몸에 던진다</v>
+      </c>
+      <c r="K36" s="21">
+        <v>0</v>
+      </c>
+      <c r="L36" s="21">
+        <v>100</v>
+      </c>
+      <c r="M36" s="21">
+        <v>100008</v>
+      </c>
+      <c r="N36" s="21">
+        <v>0</v>
+      </c>
+      <c r="O36" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="P36" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q36" s="21">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="21">
         <v>200018</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B37" s="21">
         <v>200014</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="D22" s="7">
-        <v>0</v>
-      </c>
-      <c r="E22" s="7">
+      <c r="C37" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="D37" s="21">
+        <v>0</v>
+      </c>
+      <c r="E37" s="21">
         <v>2</v>
       </c>
-      <c r="F22" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E22,'!참조_ENUM'!$B$3:$B$76,0))</f>
+      <c r="F37" s="22" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E37,'!참조_ENUM'!$B$3:$B$76,0))</f>
         <v>전체 선택</v>
       </c>
-      <c r="G22" s="7">
-        <v>0</v>
-      </c>
-      <c r="H22" s="7">
+      <c r="G37" s="21">
+        <v>0</v>
+      </c>
+      <c r="H37" s="21">
         <v>5</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I37" s="21">
         <v>2</v>
       </c>
-      <c r="J22" s="7" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I22,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+      <c r="J37" s="21" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I37,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>투사체를 타겟의 몸에 던진다</v>
       </c>
-      <c r="K22" s="7">
-        <v>0</v>
-      </c>
-      <c r="L22" s="7">
+      <c r="K37" s="21">
+        <v>0</v>
+      </c>
+      <c r="L37" s="21">
         <v>100</v>
       </c>
-      <c r="M22" s="7">
-        <v>0</v>
-      </c>
-      <c r="N22" s="7">
+      <c r="M37" s="21">
+        <v>0</v>
+      </c>
+      <c r="N37" s="21">
         <v>500001</v>
       </c>
-      <c r="O22" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="P22" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q22" s="7">
+      <c r="O37" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="P37" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q37" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
+    <row r="38" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="21">
         <v>200019</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B38" s="21">
         <v>200014</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D23" s="7">
+      <c r="C38" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" s="21">
         <v>1</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E38" s="21">
         <v>2</v>
       </c>
-      <c r="F23" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E23,'!참조_ENUM'!$B$3:$B$76,0))</f>
+      <c r="F38" s="22" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E38,'!참조_ENUM'!$B$3:$B$76,0))</f>
         <v>전체 선택</v>
       </c>
-      <c r="G23" s="7">
-        <v>0</v>
-      </c>
-      <c r="H23" s="7">
+      <c r="G38" s="21">
+        <v>0</v>
+      </c>
+      <c r="H38" s="21">
         <v>5</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I38" s="21">
         <v>2</v>
       </c>
-      <c r="J23" s="7" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I23,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+      <c r="J38" s="21" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I38,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>투사체를 타겟의 몸에 던진다</v>
       </c>
-      <c r="K23" s="7">
-        <v>0</v>
-      </c>
-      <c r="L23" s="7">
+      <c r="K38" s="21">
+        <v>0</v>
+      </c>
+      <c r="L38" s="21">
         <v>100</v>
       </c>
-      <c r="M23" s="7">
-        <v>0</v>
-      </c>
-      <c r="N23" s="7">
+      <c r="M38" s="21">
+        <v>0</v>
+      </c>
+      <c r="N38" s="21">
         <v>500002</v>
       </c>
-      <c r="O23" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="P23" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q23" s="7">
+      <c r="O38" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="P38" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q38" s="21">
         <v>1</v>
       </c>
     </row>
@@ -7694,24 +8577,24 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DD704491-CCCB-4D5C-8D3F-E47F3013819F}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$B$3:$B$76</xm:f>
           </x14:formula1>
-          <xm:sqref>E5:E23</xm:sqref>
+          <xm:sqref>E20:E38</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{530F6EDD-802B-4331-BDD5-5BEF855C0144}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$N$3:$N$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D5:D23</xm:sqref>
+          <xm:sqref>D20:D38</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1DEB94FF-AEF2-4DF6-830C-4FB179451F8A}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$AD$3:$AD$10</xm:f>
           </x14:formula1>
-          <xm:sqref>I5:I23</xm:sqref>
+          <xm:sqref>I20:I38</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7721,10 +8604,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BD63B1-FF99-405E-A3D0-90C5E747D8DE}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7741,7 +8624,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -7751,40 +8634,40 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -7792,13 +8675,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>4</v>
@@ -7807,7 +8690,7 @@
         <v>8</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H3" s="13" t="s">
         <v>4</v>
@@ -7827,40 +8710,40 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="K4" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -7892,13 +8775,13 @@
         <v>공격력을 기준으로 절대값 계산을 하기 위한 수치</v>
       </c>
       <c r="I5" s="4">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="L5" s="7">
         <v>1</v>
@@ -7909,11 +8792,11 @@
         <v>100002</v>
       </c>
       <c r="B6" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B6,'!참조_ENUM'!$R$3:$R$5,0))</f>
-        <v>체력 회복</v>
+        <v>데미지를 준다</v>
       </c>
       <c r="D6" s="7">
         <v>12</v>
@@ -7939,7 +8822,7 @@
         <v>0.1</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="L6" s="7">
         <v>1</v>
@@ -7950,11 +8833,11 @@
         <v>100003</v>
       </c>
       <c r="B7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B7,'!참조_ENUM'!$R$3:$R$5,0))</f>
-        <v>데미지를 준다</v>
+        <v>체력 회복</v>
       </c>
       <c r="D7" s="7">
         <v>12</v>
@@ -7967,20 +8850,20 @@
         <v>0</v>
       </c>
       <c r="G7" s="7">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H7" s="12" t="str">
         <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G7,'!참조_ENUM'!$F$3:$F$13,0))</f>
-        <v>공격력을 기준으로 절대값 계산을 하기 위한 수치</v>
+        <v>최대 체력을 기준으로 계산을 하기 위한 수치</v>
       </c>
       <c r="I7" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="L7" s="7">
         <v>1</v>
@@ -8021,7 +8904,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="L8" s="7">
         <v>1</v>
@@ -8101,7 +8984,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="L10" s="7">
         <v>1</v>
@@ -8142,7 +9025,7 @@
         <v>0.3</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="L11" s="7">
         <v>1.5</v>
@@ -8183,11 +9066,39 @@
         <v>1</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="L12" s="7">
         <v>1</v>
       </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8205,7 +9116,7 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$R$3:$R$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B5:B12</xm:sqref>
+          <xm:sqref>B5:B19</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{313F4E1E-DD72-4BA8-832D-BEE9A5897A8D}">
           <x14:formula1>
@@ -8221,10 +9132,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E85B499-5762-4179-9193-75E156FB948B}">
-  <dimension ref="A1:U10"/>
+  <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8247,74 +9158,74 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="R2" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="U2" s="17" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="33" x14ac:dyDescent="0.3">
@@ -8322,13 +9233,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>4</v>
@@ -8340,16 +9251,16 @@
         <v>0</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>8</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>4</v>
@@ -8358,7 +9269,7 @@
         <v>8</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O3" s="13" t="s">
         <v>4</v>
@@ -8384,67 +9295,67 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="R4" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="U4" s="19" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -8455,7 +9366,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$W$3:$W$9,MATCH(B5,'!참조_ENUM'!$V$3:$V$9,0))</f>
+        <f>INDEX('!참조_ENUM'!$W$3:$W$11,MATCH(B5,'!참조_ENUM'!$V$3:$V$11,0))</f>
         <v>피해 감소</v>
       </c>
       <c r="D5" s="4">
@@ -8507,7 +9418,7 @@
         <v>10000</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="T5" s="4">
         <v>0</v>
@@ -8524,7 +9435,7 @@
         <v>101</v>
       </c>
       <c r="C6" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$W$3:$W$9,MATCH(B6,'!참조_ENUM'!$V$3:$V$9,0))</f>
+        <f>INDEX('!참조_ENUM'!$W$3:$W$11,MATCH(B6,'!참조_ENUM'!$V$3:$V$11,0))</f>
         <v>중독</v>
       </c>
       <c r="D6" s="4">
@@ -8576,7 +9487,7 @@
         <v>3000</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="T6" s="4">
         <v>0</v>
@@ -8593,7 +9504,7 @@
         <v>102</v>
       </c>
       <c r="C7" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$W$3:$W$9,MATCH(B7,'!참조_ENUM'!$V$3:$V$9,0))</f>
+        <f>INDEX('!참조_ENUM'!$W$3:$W$11,MATCH(B7,'!참조_ENUM'!$V$3:$V$11,0))</f>
         <v>기절</v>
       </c>
       <c r="D7" s="4">
@@ -8645,7 +9556,7 @@
         <v>3000</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="T7" s="4">
         <v>0</v>
@@ -8662,7 +9573,7 @@
         <v>103</v>
       </c>
       <c r="C8" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$W$3:$W$9,MATCH(B8,'!참조_ENUM'!$V$3:$V$9,0))</f>
+        <f>INDEX('!참조_ENUM'!$W$3:$W$11,MATCH(B8,'!참조_ENUM'!$V$3:$V$11,0))</f>
         <v>침묵</v>
       </c>
       <c r="D8" s="4">
@@ -8714,7 +9625,7 @@
         <v>3000</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="T8" s="4">
         <v>0</v>
@@ -8731,7 +9642,7 @@
         <v>104</v>
       </c>
       <c r="C9" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$W$3:$W$9,MATCH(B9,'!참조_ENUM'!$V$3:$V$9,0))</f>
+        <f>INDEX('!참조_ENUM'!$W$3:$W$11,MATCH(B9,'!참조_ENUM'!$V$3:$V$11,0))</f>
         <v>결박</v>
       </c>
       <c r="D9" s="4">
@@ -8783,7 +9694,7 @@
         <v>3000</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="T9" s="4">
         <v>0</v>
@@ -8800,7 +9711,7 @@
         <v>105</v>
       </c>
       <c r="C10" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$W$3:$W$9,MATCH(B10,'!참조_ENUM'!$V$3:$V$9,0))</f>
+        <f>INDEX('!참조_ENUM'!$W$3:$W$11,MATCH(B10,'!참조_ENUM'!$V$3:$V$11,0))</f>
         <v>빙결</v>
       </c>
       <c r="D10" s="4">
@@ -8852,19 +9763,349 @@
         <v>3000</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="T10" s="4">
         <v>0</v>
       </c>
       <c r="U10" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="20">
+        <v>200001</v>
+      </c>
+      <c r="B11" s="7">
+        <v>106</v>
+      </c>
+      <c r="C11" s="12" t="str">
+        <f>INDEX('!참조_ENUM'!$W$3:$W$11,MATCH(B11,'!참조_ENUM'!$V$3:$V$11,0))</f>
+        <v>공격력 증가</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="12" t="str">
+        <f>INDEX('!참조_ENUM'!$AA$3:$AA$6,MATCH(D11,'!참조_ENUM'!$Z$3:$Z$6,0))</f>
+        <v>시간 지속</v>
+      </c>
+      <c r="F11" s="28">
+        <v>3</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="28">
+        <v>0</v>
+      </c>
+      <c r="K11" s="20">
+        <v>12</v>
+      </c>
+      <c r="L11" s="7" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(K11,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>타겟의 몸에서 즉시 효과 발동</v>
+      </c>
+      <c r="M11" s="20">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="12" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(N11,'!참조_ENUM'!$F$3:$F$13,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="P11" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="R11" s="4">
+        <v>10000</v>
+      </c>
+      <c r="T11" s="4">
+        <v>0</v>
+      </c>
+      <c r="U11" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="20">
+        <v>200002</v>
+      </c>
+      <c r="B12" s="7">
+        <v>107</v>
+      </c>
+      <c r="C12" s="12" t="str">
+        <f>INDEX('!참조_ENUM'!$W$3:$W$11,MATCH(B12,'!참조_ENUM'!$V$3:$V$11,0))</f>
+        <v>방어력 증가</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="12" t="str">
+        <f>INDEX('!참조_ENUM'!$AA$3:$AA$6,MATCH(D12,'!참조_ENUM'!$Z$3:$Z$6,0))</f>
+        <v>시간 지속</v>
+      </c>
+      <c r="F12" s="28">
+        <v>3</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="28">
+        <v>0</v>
+      </c>
+      <c r="K12" s="20">
+        <v>12</v>
+      </c>
+      <c r="L12" s="7" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(K12,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>타겟의 몸에서 즉시 효과 발동</v>
+      </c>
+      <c r="M12" s="20">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="12" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(N12,'!참조_ENUM'!$F$3:$F$13,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="P12" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="R12" s="4">
+        <v>10000</v>
+      </c>
+      <c r="T12" s="4">
+        <v>0</v>
+      </c>
+      <c r="U12" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="20">
+        <v>200003</v>
+      </c>
+      <c r="B13" s="7">
+        <v>102</v>
+      </c>
+      <c r="C13" s="12" t="str">
+        <f>INDEX('!참조_ENUM'!$W$3:$W$11,MATCH(B13,'!참조_ENUM'!$V$3:$V$11,0))</f>
+        <v>기절</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="12" t="str">
+        <f>INDEX('!참조_ENUM'!$AA$3:$AA$6,MATCH(D13,'!참조_ENUM'!$Z$3:$Z$6,0))</f>
+        <v>시간 지속</v>
+      </c>
+      <c r="F13" s="28">
+        <v>3</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="28">
+        <v>0</v>
+      </c>
+      <c r="K13" s="20">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(K13,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>타겟의 몸에서 즉시 효과 발동</v>
+      </c>
+      <c r="M13" s="20">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="12" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(N13,'!참조_ENUM'!$F$3:$F$13,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="P13" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="R13" s="4">
+        <v>10000</v>
+      </c>
+      <c r="T13" s="4">
+        <v>0</v>
+      </c>
+      <c r="U13" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" s="20">
+        <v>200004</v>
+      </c>
+      <c r="B14" s="7">
+        <v>102</v>
+      </c>
+      <c r="C14" s="12" t="str">
+        <f>INDEX('!참조_ENUM'!$W$3:$W$11,MATCH(B14,'!참조_ENUM'!$V$3:$V$11,0))</f>
+        <v>기절</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="12" t="str">
+        <f>INDEX('!참조_ENUM'!$AA$3:$AA$6,MATCH(D14,'!참조_ENUM'!$Z$3:$Z$6,0))</f>
+        <v>시간 지속</v>
+      </c>
+      <c r="F14" s="28">
+        <v>3</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="28">
+        <v>0</v>
+      </c>
+      <c r="K14" s="20">
+        <v>12</v>
+      </c>
+      <c r="L14" s="7" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(K14,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>타겟의 몸에서 즉시 효과 발동</v>
+      </c>
+      <c r="M14" s="20">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="12" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(N14,'!참조_ENUM'!$F$3:$F$13,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="P14" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="R14" s="4">
+        <v>10000</v>
+      </c>
+      <c r="T14" s="4">
+        <v>0</v>
+      </c>
+      <c r="U14" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="20">
+        <v>200005</v>
+      </c>
+      <c r="B15" s="7">
+        <v>102</v>
+      </c>
+      <c r="C15" s="12" t="str">
+        <f>INDEX('!참조_ENUM'!$W$3:$W$11,MATCH(B15,'!참조_ENUM'!$V$3:$V$11,0))</f>
+        <v>기절</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="12" t="str">
+        <f>INDEX('!참조_ENUM'!$AA$3:$AA$6,MATCH(D15,'!참조_ENUM'!$Z$3:$Z$6,0))</f>
+        <v>시간 지속</v>
+      </c>
+      <c r="F15" s="28">
+        <v>3</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="28">
+        <v>0</v>
+      </c>
+      <c r="K15" s="20">
+        <v>12</v>
+      </c>
+      <c r="L15" s="7" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(K15,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>타겟의 몸에서 즉시 효과 발동</v>
+      </c>
+      <c r="M15" s="20">
+        <v>0</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
+      <c r="O15" s="12" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(N15,'!참조_ENUM'!$F$3:$F$13,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="P15" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="R15" s="4">
+        <v>10000</v>
+      </c>
+      <c r="T15" s="4">
+        <v>0</v>
+      </c>
+      <c r="U15" s="4" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U5:U10" xr:uid="{07BC0E4E-0AB0-4FFB-BDF5-D6D183214701}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U5:U15" xr:uid="{07BC0E4E-0AB0-4FFB-BDF5-D6D183214701}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8877,13 +10118,13 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$Z$3:$Z$6</xm:f>
           </x14:formula1>
-          <xm:sqref>D5:D10</xm:sqref>
+          <xm:sqref>D5:D15</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BADD3DF7-84B7-4DA0-ABC0-BBC36C154738}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$F$3:$F$13</xm:f>
           </x14:formula1>
-          <xm:sqref>N5:N10</xm:sqref>
+          <xm:sqref>N5:N15</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FF72D07A-16DC-43C4-B0B9-3814909F4C5D}">
           <x14:formula1>
@@ -8893,9 +10134,9 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4698ABB8-E6C1-495A-910B-F6779A72B140}">
           <x14:formula1>
-            <xm:f>'!참조_ENUM'!$V$3:$V$9</xm:f>
+            <xm:f>'!참조_ENUM'!$V$3:$V$11</xm:f>
           </x14:formula1>
-          <xm:sqref>B5:B10</xm:sqref>
+          <xm:sqref>B5:B15</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Android/ExcelData/PCSkillTable.xlsx
+++ b/Android/ExcelData/PCSkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB69545-968B-4CA1-A76C-32FA021CCA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C153057-7D57-40AD-91E8-83933936810B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41340" yWindow="1845" windowWidth="23625" windowHeight="17160" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="12960" yWindow="1080" windowWidth="23625" windowHeight="17160" activeTab="2" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -2456,7 +2456,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2477,10 +2477,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2526,7 +2526,13 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>NPC_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="3">
         <row r="1">
           <cell r="A1" t="str">
@@ -2634,35 +2640,35 @@
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>LEADER_HIGH_PRIORITY</v>
+            <v>LOWEST_LIFE_VALUE</v>
           </cell>
           <cell r="B12">
-            <v>1001</v>
+            <v>3001</v>
           </cell>
           <cell r="C12" t="str">
-            <v>리더 선택</v>
+            <v>남은 체력이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>HIGHEST_LIFE_VALUE</v>
+            <v>LOWEST_ATTACK</v>
           </cell>
           <cell r="B13">
-            <v>2001</v>
+            <v>3003</v>
           </cell>
           <cell r="C13" t="str">
-            <v>남은 체력이 가장 많은 타겟 선택</v>
+            <v>공격력이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>HIGHEST_LIFE_RATE</v>
+            <v>LOWEST_DEFENSE</v>
           </cell>
           <cell r="B14">
-            <v>2002</v>
+            <v>3004</v>
           </cell>
           <cell r="C14" t="str">
-            <v>남은 체력 비율이 가장 높은 타겟 선택</v>
+            <v>방어력이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="15">
@@ -2689,672 +2695,683 @@
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>HIGHEST_ACCURACY</v>
+            <v>APPROACH</v>
           </cell>
           <cell r="B17">
-            <v>2006</v>
+            <v>9999</v>
           </cell>
           <cell r="C17" t="str">
-            <v>명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
+            <v>가장 가까운 상대 타겟 선택(화면상에서 적에게 접근하기 위한 용도)</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>HIGHEST_EVASION</v>
+            <v>LEADER_HIGH_PRIORITY</v>
           </cell>
           <cell r="B18">
-            <v>2007</v>
+            <v>1001</v>
           </cell>
           <cell r="C18" t="str">
-            <v>회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
+            <v>리더 선택</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>HIGHEST_LIFE_VALUE_HUMAN</v>
+            <v>HIGHEST_LIFE_VALUE</v>
           </cell>
           <cell r="B19">
-            <v>2008</v>
+            <v>2001</v>
           </cell>
           <cell r="C19" t="str">
-            <v>남은 체력이 가장 높은 인간 종족 선택</v>
+            <v>남은 체력이 가장 많은 타겟 선택</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>HIGHEST_LIFE_VALUE_ELF</v>
+            <v>HIGHEST_LIFE_RATE</v>
           </cell>
           <cell r="B20">
-            <v>2009</v>
+            <v>2002</v>
           </cell>
           <cell r="C20" t="str">
-            <v>남은 체력이 가장 높은 엘프 종족 선택</v>
+            <v>남은 체력 비율이 가장 높은 타겟 선택</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>HIGHEST_LIFE_VALUE_WEREBEAST</v>
+            <v>HIGHEST_ACCURACY</v>
           </cell>
           <cell r="B21">
-            <v>2010</v>
+            <v>2006</v>
           </cell>
           <cell r="C21" t="str">
-            <v>남은 체력이 가장 높은 수인 종족 선택</v>
+            <v>명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>HIGHEST_LIFE_VALUE_ANDROID</v>
+            <v>HIGHEST_EVASION</v>
           </cell>
           <cell r="B22">
-            <v>2011</v>
+            <v>2007</v>
           </cell>
           <cell r="C22" t="str">
-            <v>남은 체력이 가장 높은 안드로이드 선택</v>
+            <v>회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>HIGHEST_LIFE_VALUE_DEVIL</v>
+            <v>HIGHEST_LIFE_VALUE_HUMAN</v>
           </cell>
           <cell r="B23">
-            <v>2012</v>
+            <v>2008</v>
           </cell>
           <cell r="C23" t="str">
-            <v>남은 체력이 가장 높은 악마 선택</v>
+            <v>남은 체력이 가장 높은 인간 종족 선택</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>HIGHEST_LIFE_VALUE_ANGEL</v>
+            <v>HIGHEST_LIFE_VALUE_ELF</v>
           </cell>
           <cell r="B24">
-            <v>2013</v>
+            <v>2009</v>
           </cell>
           <cell r="C24" t="str">
-            <v>남은 체력이 가장 높은 천사 선택</v>
+            <v>남은 체력이 가장 높은 엘프 종족 선택</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>HIGHEST_LIFE_VALUE_WITHOUT_ME</v>
+            <v>HIGHEST_LIFE_VALUE_WEREBEAST</v>
           </cell>
           <cell r="B25">
-            <v>2014</v>
+            <v>2010</v>
           </cell>
           <cell r="C25" t="str">
-            <v>자신을 제외한 체력이 가장 높은 타겟 선택</v>
+            <v>남은 체력이 가장 높은 수인 종족 선택</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v>HIGHEST_LIFE_RATE_WITHOUT_ME</v>
+            <v>HIGHEST_LIFE_VALUE_ANDROID</v>
           </cell>
           <cell r="B26">
-            <v>2015</v>
+            <v>2011</v>
           </cell>
           <cell r="C26" t="str">
-            <v>자신을 제외한 체력 비율이 가장 높은 타겟 선택</v>
+            <v>남은 체력이 가장 높은 안드로이드 선택</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>HIGHEST_ATTACK_WITHOUT_ME</v>
+            <v>HIGHEST_LIFE_VALUE_DEVIL</v>
           </cell>
           <cell r="B27">
-            <v>2016</v>
+            <v>2012</v>
           </cell>
           <cell r="C27" t="str">
-            <v>자신을 제외한 공격력이 가장 높은 타겟 선택</v>
+            <v>남은 체력이 가장 높은 악마 선택</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>HIGHEST_DEFENSE_WITHOUT_ME</v>
+            <v>HIGHEST_LIFE_VALUE_ANGEL</v>
           </cell>
           <cell r="B28">
-            <v>2017</v>
+            <v>2013</v>
           </cell>
           <cell r="C28" t="str">
-            <v>자신을 제외한 방어력이 가장 높은 타겟 선택</v>
+            <v>남은 체력이 가장 높은 천사 선택</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>HIGHEST_RAPIDITY_WITHOUT_ME</v>
+            <v>HIGHEST_LIFE_VALUE_WITHOUT_ME</v>
           </cell>
           <cell r="B29">
-            <v>2018</v>
+            <v>2014</v>
           </cell>
           <cell r="C29" t="str">
-            <v>자신을 제외한 공속이 가장 높은 타겟 선택</v>
+            <v>자신을 제외한 체력이 가장 높은 타겟 선택</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>HIGHEST_ACCURACY_WITHOUT_ME</v>
+            <v>HIGHEST_LIFE_RATE_WITHOUT_ME</v>
           </cell>
           <cell r="B30">
-            <v>2019</v>
+            <v>2015</v>
           </cell>
           <cell r="C30" t="str">
-            <v>자신을 제외한 명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
+            <v>자신을 제외한 체력 비율이 가장 높은 타겟 선택</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>HIGHEST_EVASION_WITHOUT_ME</v>
+            <v>HIGHEST_ATTACK_WITHOUT_ME</v>
           </cell>
           <cell r="B31">
-            <v>2020</v>
+            <v>2016</v>
           </cell>
           <cell r="C31" t="str">
-            <v>자신을 제외한 회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
+            <v>자신을 제외한 공격력이 가장 높은 타겟 선택</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>LOWEST_LIFE_VALUE</v>
+            <v>HIGHEST_DEFENSE_WITHOUT_ME</v>
           </cell>
           <cell r="B32">
-            <v>3001</v>
+            <v>2017</v>
           </cell>
           <cell r="C32" t="str">
-            <v>남은 체력이 가장 낮은 타겟 선택</v>
+            <v>자신을 제외한 방어력이 가장 높은 타겟 선택</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>LOWEST_LIFE_RATE</v>
+            <v>HIGHEST_RAPIDITY_WITHOUT_ME</v>
           </cell>
           <cell r="B33">
-            <v>3002</v>
+            <v>2018</v>
           </cell>
           <cell r="C33" t="str">
-            <v>남은 체력 비율이 가장 낮은 타겟 선택</v>
+            <v>자신을 제외한 공속이 가장 높은 타겟 선택</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>LOWEST_ATTACK</v>
+            <v>HIGHEST_ACCURACY_WITHOUT_ME</v>
           </cell>
           <cell r="B34">
-            <v>3003</v>
+            <v>2019</v>
           </cell>
           <cell r="C34" t="str">
-            <v>공격력이 가장 낮은 타겟 선택</v>
+            <v>자신을 제외한 명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35" t="str">
-            <v>LOWEST_DEFENSE</v>
+            <v>HIGHEST_EVASION_WITHOUT_ME</v>
           </cell>
           <cell r="B35">
-            <v>3004</v>
+            <v>2020</v>
           </cell>
           <cell r="C35" t="str">
-            <v>방어력이 가장 낮은 타겟 선택</v>
+            <v>자신을 제외한 회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36" t="str">
-            <v>LOWEST_ACCUM_RAPIDITY_POINT</v>
+            <v>LOWEST_LIFE_RATE</v>
           </cell>
           <cell r="B36">
-            <v>3005</v>
+            <v>3002</v>
           </cell>
           <cell r="C36" t="str">
-            <v>속도게이지가 가장 낮은 타겟 선택</v>
+            <v>남은 체력 비율이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>LOWEST_ACCURACY</v>
+            <v>LOWEST_ACCUM_RAPIDITY_POINT</v>
           </cell>
           <cell r="B37">
-            <v>3006</v>
+            <v>3005</v>
           </cell>
           <cell r="C37" t="str">
-            <v>명중률이 가장 낮은 타겟 선택</v>
+            <v>속도게이지가 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38" t="str">
-            <v>LOWEST_EVASION</v>
+            <v>LOWEST_ACCURACY</v>
           </cell>
           <cell r="B38">
-            <v>3007</v>
+            <v>3006</v>
           </cell>
           <cell r="C38" t="str">
-            <v>회피율이 가장 낮은 타겟 선택</v>
+            <v>명중률이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39" t="str">
-            <v>LOWEST_LIFE_VALUE_HUMAN</v>
+            <v>LOWEST_EVASION</v>
           </cell>
           <cell r="B39">
-            <v>3008</v>
+            <v>3007</v>
           </cell>
           <cell r="C39" t="str">
-            <v>남은 체력이 가장 낮은 인간 종족 선택</v>
+            <v>회피율이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40" t="str">
-            <v>LOWEST_LIFE_VALUE_ELF</v>
+            <v>LOWEST_LIFE_VALUE_HUMAN</v>
           </cell>
           <cell r="B40">
-            <v>3009</v>
+            <v>3008</v>
           </cell>
           <cell r="C40" t="str">
-            <v>남은 체력이 가장 낮은 엘프 종족 선택</v>
+            <v>남은 체력이 가장 낮은 인간 종족 선택</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41" t="str">
-            <v>LOWEST_LIFE_VALUE_WEREBEAST</v>
+            <v>LOWEST_LIFE_VALUE_ELF</v>
           </cell>
           <cell r="B41">
-            <v>3010</v>
+            <v>3009</v>
           </cell>
           <cell r="C41" t="str">
-            <v>남은 체력이 가장 낮은 수인 종족 선택</v>
+            <v>남은 체력이 가장 낮은 엘프 종족 선택</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42" t="str">
-            <v>LOWEST_LIFE_VALUE_ANDROID</v>
+            <v>LOWEST_LIFE_VALUE_WEREBEAST</v>
           </cell>
           <cell r="B42">
-            <v>3011</v>
+            <v>3010</v>
           </cell>
           <cell r="C42" t="str">
-            <v>남은 체력이 가장 낮은 안드로이드 선택</v>
+            <v>남은 체력이 가장 낮은 수인 종족 선택</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43" t="str">
-            <v>LOWEST_LIFE_VALUE_DEVIL</v>
+            <v>LOWEST_LIFE_VALUE_ANDROID</v>
           </cell>
           <cell r="B43">
-            <v>3012</v>
+            <v>3011</v>
           </cell>
           <cell r="C43" t="str">
-            <v>남은 체력이 가장 낮은 악마 종족 선택</v>
+            <v>남은 체력이 가장 낮은 안드로이드 선택</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44" t="str">
-            <v>LOWEST_LIFE_VALUE_ANGEL</v>
+            <v>LOWEST_LIFE_VALUE_DEVIL</v>
           </cell>
           <cell r="B44">
-            <v>3013</v>
+            <v>3012</v>
           </cell>
           <cell r="C44" t="str">
-            <v>남은 체력이 가장 낮은 천사 종족 선택</v>
+            <v>남은 체력이 가장 낮은 악마 종족 선택</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45" t="str">
-            <v>LOWEST_LIFE_VALUE_WITHOUT_ME</v>
+            <v>LOWEST_LIFE_VALUE_ANGEL</v>
           </cell>
           <cell r="B45">
-            <v>3014</v>
+            <v>3013</v>
           </cell>
           <cell r="C45" t="str">
-            <v>자신을 제외한 남은 체력이 가장 낮은 타겟 선택</v>
+            <v>남은 체력이 가장 낮은 천사 종족 선택</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46" t="str">
-            <v>LOWEST_LIFE_RATE_WITHOUT_ME</v>
+            <v>LOWEST_LIFE_VALUE_WITHOUT_ME</v>
           </cell>
           <cell r="B46">
-            <v>3015</v>
+            <v>3014</v>
           </cell>
           <cell r="C46" t="str">
-            <v>자신을 제외한 남은 체력 비율이 가장 낮은 타겟 선택</v>
+            <v>자신을 제외한 남은 체력이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47" t="str">
-            <v>LOWEST_ATTACK_WITHOUT_ME</v>
+            <v>LOWEST_LIFE_RATE_WITHOUT_ME</v>
           </cell>
           <cell r="B47">
-            <v>3016</v>
+            <v>3015</v>
           </cell>
           <cell r="C47" t="str">
-            <v>자신을 제외한 공격력이 가장 낮은 타겟 선택</v>
+            <v>자신을 제외한 남은 체력 비율이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48" t="str">
-            <v>LOWEST_DEFENSE_WITHOUT_ME</v>
+            <v>LOWEST_ATTACK_WITHOUT_ME</v>
           </cell>
           <cell r="B48">
-            <v>3017</v>
+            <v>3016</v>
           </cell>
           <cell r="C48" t="str">
-            <v>자신을 제외한 방어력이 가장 낮은 타겟 선택</v>
+            <v>자신을 제외한 공격력이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49" t="str">
-            <v>LOWEST_RAPIDITY_WITHOUT_ME</v>
+            <v>LOWEST_DEFENSE_WITHOUT_ME</v>
           </cell>
           <cell r="B49">
-            <v>3018</v>
+            <v>3017</v>
           </cell>
           <cell r="C49" t="str">
-            <v>자신을 제외한 공속이 가장 낮은 타겟 선택</v>
+            <v>자신을 제외한 방어력이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50" t="str">
-            <v>LOWEST_ACCURACY_WITHOUT_ME</v>
+            <v>LOWEST_RAPIDITY_WITHOUT_ME</v>
           </cell>
           <cell r="B50">
-            <v>3019</v>
+            <v>3018</v>
           </cell>
           <cell r="C50" t="str">
-            <v>자신을 제외한 명중률이 가장 낮은 타겟 선택</v>
+            <v>자신을 제외한 공속이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51" t="str">
-            <v>LOWEST_EVASION_WITHOUT_ME</v>
+            <v>LOWEST_ACCURACY_WITHOUT_ME</v>
           </cell>
           <cell r="B51">
-            <v>3020</v>
+            <v>3019</v>
           </cell>
           <cell r="C51" t="str">
-            <v>자신을 제외한 회피율이 가장 낮은 타겟 선택</v>
+            <v>자신을 제외한 명중률이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52" t="str">
-            <v>LOWEST_LIFE_VALUE_WITH_ME</v>
+            <v>LOWEST_EVASION_WITHOUT_ME</v>
           </cell>
           <cell r="B52">
-            <v>3021</v>
+            <v>3020</v>
           </cell>
           <cell r="C52" t="str">
-            <v>자신을 포함한 남은 체력이 가장 낮은 타겟 선택</v>
+            <v>자신을 제외한 회피율이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53" t="str">
-            <v>LOWEST_LIFE_RATE_WITH_ME</v>
+            <v>LOWEST_LIFE_VALUE_WITH_ME</v>
           </cell>
           <cell r="B53">
-            <v>3022</v>
+            <v>3021</v>
           </cell>
           <cell r="C53" t="str">
-            <v>자신을 포함한 남은 체력 비율이 가장 낮은 타겟 선택</v>
+            <v>자신을 포함한 남은 체력이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54" t="str">
-            <v>LOWEST_ATTACK_WITH_ME</v>
+            <v>LOWEST_LIFE_RATE_WITH_ME</v>
           </cell>
           <cell r="B54">
-            <v>3023</v>
+            <v>3022</v>
           </cell>
           <cell r="C54" t="str">
-            <v>자신을 포함한 공격력이 가장 낮은 타겟 선택</v>
+            <v>자신을 포함한 남은 체력 비율이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55" t="str">
-            <v>LOWEST_DEFENSE_WITH_ME</v>
+            <v>LOWEST_ATTACK_WITH_ME</v>
           </cell>
           <cell r="B55">
-            <v>3024</v>
+            <v>3023</v>
           </cell>
           <cell r="C55" t="str">
-            <v>자신을 포함한 방어력이 가장 낮은 타겟 선택</v>
+            <v>자신을 포함한 공격력이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56" t="str">
-            <v>LOWEST_RAPIDITY_WITH_ME</v>
+            <v>LOWEST_DEFENSE_WITH_ME</v>
           </cell>
           <cell r="B56">
-            <v>3025</v>
+            <v>3024</v>
           </cell>
           <cell r="C56" t="str">
-            <v>자신을 포함한 공속이 가장 낮은 타겟 선택</v>
+            <v>자신을 포함한 방어력이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57" t="str">
-            <v>LOWEST_ACCURACY_WITH_ME</v>
+            <v>LOWEST_RAPIDITY_WITH_ME</v>
           </cell>
           <cell r="B57">
-            <v>3026</v>
+            <v>3025</v>
           </cell>
           <cell r="C57" t="str">
-            <v>자신을 포함한 명중률이 가장 낮은 타겟 선택</v>
+            <v>자신을 포함한 공속이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58" t="str">
-            <v>LOWEST_EVASION_WITH_ME</v>
+            <v>LOWEST_ACCURACY_WITH_ME</v>
           </cell>
           <cell r="B58">
-            <v>3027</v>
+            <v>3026</v>
           </cell>
           <cell r="C58" t="str">
-            <v>자신을 포함한 회피율이 가장 낮은 타겟 선택</v>
+            <v>자신을 포함한 명중률이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59" t="str">
-            <v>WEAK_ELEMENT</v>
+            <v>LOWEST_EVASION_WITH_ME</v>
           </cell>
           <cell r="B59">
-            <v>4001</v>
+            <v>3027</v>
           </cell>
           <cell r="C59" t="str">
-            <v>자신보다 약한 속성 타겟 선택 (상성 시스템이 있을 경우)</v>
+            <v>자신을 포함한 회피율이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60" t="str">
-            <v>STRONG_ELEMENT</v>
+            <v>WEAK_ELEMENT</v>
           </cell>
           <cell r="B60">
-            <v>4002</v>
+            <v>4001</v>
           </cell>
           <cell r="C60" t="str">
-            <v>자신보다 강한 속성 타겟 선택 (상성 시스템이 있을 경우)</v>
+            <v>자신보다 약한 속성 타겟 선택 (상성 시스템이 있을 경우)</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61" t="str">
-            <v>GAIN_BUFF_DURATION</v>
+            <v>STRONG_ELEMENT</v>
           </cell>
           <cell r="B61">
-            <v>5001</v>
+            <v>4002</v>
           </cell>
           <cell r="C61" t="str">
-            <v>버프 효과가 있는 타겟 선택</v>
+            <v>자신보다 강한 속성 타겟 선택 (상성 시스템이 있을 경우)</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62" t="str">
-            <v>GAIN_BUFF_DURATION_ATTACK_INC</v>
+            <v>GAIN_BUFF_DURATION</v>
           </cell>
           <cell r="B62">
-            <v>5002</v>
+            <v>5001</v>
           </cell>
           <cell r="C62" t="str">
-            <v>버프 효과 중 공격력 증가 효과가 있는 타겟 선택</v>
+            <v>버프 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63" t="str">
-            <v>GAIN_BUFF_DURATION_DEFENSE_INC</v>
+            <v>GAIN_BUFF_DURATION_ATTACK_INC</v>
           </cell>
           <cell r="B63">
-            <v>5003</v>
+            <v>5002</v>
           </cell>
           <cell r="C63" t="str">
-            <v>버프 효과 중 방어력 증가 효과가 있는 타겟 선택</v>
+            <v>버프 효과 중 공격력 증가 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64" t="str">
-            <v>GAIN_BUFF_DURATION_RAPIDITY_INC</v>
+            <v>GAIN_BUFF_DURATION_DEFENSE_INC</v>
           </cell>
           <cell r="B64">
-            <v>5004</v>
+            <v>5003</v>
           </cell>
           <cell r="C64" t="str">
-            <v>버프 효과 중 공속 증가 효과가 있는 타겟 선택</v>
+            <v>버프 효과 중 방어력 증가 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65" t="str">
-            <v>GAIN_BUFF_DURATION_EVASION_INC</v>
+            <v>GAIN_BUFF_DURATION_RAPIDITY_INC</v>
           </cell>
           <cell r="B65">
-            <v>5005</v>
+            <v>5004</v>
           </cell>
           <cell r="C65" t="str">
-            <v>버프 효과 중 회피율 증가 효과가 있는 타겟 선택</v>
+            <v>버프 효과 중 공속 증가 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66" t="str">
-            <v>GAIN_BUFF_DURATION_CRITICAL_RATE_INC</v>
+            <v>GAIN_BUFF_DURATION_EVASION_INC</v>
           </cell>
           <cell r="B66">
-            <v>5006</v>
+            <v>5005</v>
           </cell>
           <cell r="C66" t="str">
-            <v>버프 효과 중 치명타 확률 증가 효과가 있는 타겟 선택</v>
+            <v>버프 효과 중 회피율 증가 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67" t="str">
-            <v>GAIN_BUFF_DURATION_CRITICAL_DAMAGE_INC</v>
+            <v>GAIN_BUFF_DURATION_CRITICAL_RATE_INC</v>
           </cell>
           <cell r="B67">
-            <v>5007</v>
+            <v>5006</v>
           </cell>
           <cell r="C67" t="str">
-            <v>버프 효과 중 치명타 피해량 증가 효과가 있는 타겟 선택</v>
+            <v>버프 효과 중 치명타 확률 증가 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68" t="str">
-            <v>GAIN_DEBUFF_DURATION</v>
+            <v>GAIN_BUFF_DURATION_CRITICAL_DAMAGE_INC</v>
           </cell>
           <cell r="B68">
-            <v>6001</v>
+            <v>5007</v>
           </cell>
           <cell r="C68" t="str">
-            <v>디버프 효과가 있는 타겟 선택</v>
+            <v>버프 효과 중 치명타 피해량 증가 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69" t="str">
-            <v>GAIN_DEBUFF_DURATION_ATTACK_DEC</v>
+            <v>GAIN_DEBUFF_DURATION</v>
           </cell>
           <cell r="B69">
-            <v>6002</v>
+            <v>6001</v>
           </cell>
           <cell r="C69" t="str">
-            <v>디버프 효과 중 공격력 감소 효과가 있는 타겟 선택</v>
+            <v>디버프 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70" t="str">
-            <v>GAIN_DEBUFF_DURATION_DEFENSE_DEC</v>
+            <v>GAIN_DEBUFF_DURATION_ATTACK_DEC</v>
           </cell>
           <cell r="B70">
-            <v>6003</v>
+            <v>6002</v>
           </cell>
           <cell r="C70" t="str">
-            <v>디버프 효과 중 방어력 감소 효과가 있는 타겟 선택</v>
+            <v>디버프 효과 중 공격력 감소 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71" t="str">
-            <v>GAIN_DEBUFF_DURATION_BURN</v>
+            <v>GAIN_DEBUFF_DURATION_DEFENSE_DEC</v>
           </cell>
           <cell r="B71">
-            <v>6004</v>
+            <v>6003</v>
           </cell>
           <cell r="C71" t="str">
-            <v>디버프 효과 중 화상 효과가 있는 타겟 선택</v>
+            <v>디버프 효과 중 방어력 감소 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72" t="str">
-            <v>GAIN_DEBUFF_DURATION_BLEEDING</v>
+            <v>GAIN_DEBUFF_DURATION_BURN</v>
           </cell>
           <cell r="B72">
-            <v>6005</v>
+            <v>6004</v>
           </cell>
           <cell r="C72" t="str">
-            <v>디버프 효과 중 출혈 효과가 있는 타겟 선택</v>
+            <v>디버프 효과 중 화상 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73" t="str">
-            <v>GAIN_DEBUFF_DURATION_POISON</v>
+            <v>GAIN_DEBUFF_DURATION_BLEEDING</v>
           </cell>
           <cell r="B73">
-            <v>6006</v>
+            <v>6005</v>
           </cell>
           <cell r="C73" t="str">
-            <v>디버프 효과 중 중독 효과가 있는 타겟 선택</v>
+            <v>디버프 효과 중 출혈 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74" t="str">
-            <v>GAIN_DEBUFF_DURATION_RAPIDITY_DEC</v>
+            <v>GAIN_DEBUFF_DURATION_POISON</v>
           </cell>
           <cell r="B74">
-            <v>6007</v>
+            <v>6006</v>
           </cell>
           <cell r="C74" t="str">
-            <v>디버프 효과 중 공속 감소 효과가 있는 타겟 선택</v>
+            <v>디버프 효과 중 중독 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75" t="str">
-            <v>GAIN_DEBUFF_DURATION_SLEEP</v>
+            <v>GAIN_DEBUFF_DURATION_RAPIDITY_DEC</v>
           </cell>
           <cell r="B75">
-            <v>6008</v>
+            <v>6007</v>
           </cell>
           <cell r="C75" t="str">
-            <v>디버프 효과 중 수면 효과가 있는 타겟 선택</v>
+            <v>디버프 효과 중 공속 감소 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76" t="str">
-            <v>GAIN_DEBUFF_DURATION_FATAL_WOUNDS</v>
+            <v>GAIN_DEBUFF_DURATION_SLEEP</v>
           </cell>
           <cell r="B76">
-            <v>6009</v>
+            <v>6008</v>
           </cell>
           <cell r="C76" t="str">
-            <v>디버프 효과 중 치명상 효과가 있는 타겟 선택</v>
+            <v>디버프 효과 중 수면 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77" t="str">
+            <v>GAIN_DEBUFF_DURATION_FATAL_WOUNDS</v>
+          </cell>
+          <cell r="B77">
+            <v>6009</v>
+          </cell>
+          <cell r="C77" t="str">
+            <v>디버프 효과 중 치명상 효과가 있는 타겟 선택</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78" t="str">
             <v>GAIN_DEBUFF_DURATION_ACCURACY_DEC</v>
           </cell>
-          <cell r="B77">
+          <cell r="B78">
             <v>6010</v>
           </cell>
-          <cell r="C77" t="str">
+          <cell r="C78" t="str">
             <v>디버프 효과 중 명중률 감소 효과가 있는 타겟 선택</v>
           </cell>
         </row>
@@ -4243,10 +4260,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCF2545-5B22-48B7-AA3A-4E88E574D583}">
-  <dimension ref="A1:AE76"/>
+  <dimension ref="A1:AE77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75:C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4962,15 +4979,15 @@
     <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="str">
         <f>'[1]@target_rule'!$A12</f>
-        <v>LEADER_HIGH_PRIORITY</v>
+        <v>LOWEST_LIFE_VALUE</v>
       </c>
       <c r="B11" s="4">
         <f>'[1]@target_rule'!$B12</f>
-        <v>1001</v>
+        <v>3001</v>
       </c>
       <c r="C11" s="4" t="str">
         <f>'[1]@target_rule'!$C12</f>
-        <v>리더 선택</v>
+        <v>남은 체력이 가장 낮은 타겟 선택</v>
       </c>
       <c r="E11" s="4" t="str">
         <f>'[1]@stat'!$A12</f>
@@ -5000,15 +5017,15 @@
     <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="str">
         <f>'[1]@target_rule'!$A13</f>
-        <v>HIGHEST_LIFE_VALUE</v>
+        <v>LOWEST_ATTACK</v>
       </c>
       <c r="B12" s="4">
         <f>'[1]@target_rule'!$B13</f>
-        <v>2001</v>
+        <v>3003</v>
       </c>
       <c r="C12" s="4" t="str">
         <f>'[1]@target_rule'!$C13</f>
-        <v>남은 체력이 가장 많은 타겟 선택</v>
+        <v>공격력이 가장 낮은 타겟 선택</v>
       </c>
       <c r="E12" s="4" t="str">
         <f>'[1]@stat'!$A13</f>
@@ -5026,15 +5043,15 @@
     <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="str">
         <f>'[1]@target_rule'!$A14</f>
-        <v>HIGHEST_LIFE_RATE</v>
+        <v>LOWEST_DEFENSE</v>
       </c>
       <c r="B13" s="4">
         <f>'[1]@target_rule'!$B14</f>
-        <v>2002</v>
+        <v>3004</v>
       </c>
       <c r="C13" s="4" t="str">
         <f>'[1]@target_rule'!$C14</f>
-        <v>남은 체력 비율이 가장 높은 타겟 선택</v>
+        <v>방어력이 가장 낮은 타겟 선택</v>
       </c>
       <c r="E13" s="4" t="str">
         <f>'[1]@stat'!$A14</f>
@@ -5080,854 +5097,868 @@
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="str">
         <f>'[1]@target_rule'!$A17</f>
-        <v>HIGHEST_ACCURACY</v>
+        <v>APPROACH</v>
       </c>
       <c r="B16" s="4">
         <f>'[1]@target_rule'!$B17</f>
-        <v>2006</v>
+        <v>9999</v>
       </c>
       <c r="C16" s="4" t="str">
         <f>'[1]@target_rule'!$C17</f>
-        <v>명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
+        <v>가장 가까운 상대 타겟 선택(화면상에서 적에게 접근하기 위한 용도)</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="str">
         <f>'[1]@target_rule'!$A18</f>
-        <v>HIGHEST_EVASION</v>
+        <v>LEADER_HIGH_PRIORITY</v>
       </c>
       <c r="B17" s="4">
         <f>'[1]@target_rule'!$B18</f>
-        <v>2007</v>
+        <v>1001</v>
       </c>
       <c r="C17" s="4" t="str">
         <f>'[1]@target_rule'!$C18</f>
-        <v>회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
+        <v>리더 선택</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="str">
         <f>'[1]@target_rule'!$A19</f>
-        <v>HIGHEST_LIFE_VALUE_HUMAN</v>
+        <v>HIGHEST_LIFE_VALUE</v>
       </c>
       <c r="B18" s="4">
         <f>'[1]@target_rule'!$B19</f>
-        <v>2008</v>
+        <v>2001</v>
       </c>
       <c r="C18" s="4" t="str">
         <f>'[1]@target_rule'!$C19</f>
-        <v>남은 체력이 가장 높은 인간 종족 선택</v>
+        <v>남은 체력이 가장 많은 타겟 선택</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="str">
         <f>'[1]@target_rule'!$A20</f>
-        <v>HIGHEST_LIFE_VALUE_ELF</v>
+        <v>HIGHEST_LIFE_RATE</v>
       </c>
       <c r="B19" s="4">
         <f>'[1]@target_rule'!$B20</f>
-        <v>2009</v>
+        <v>2002</v>
       </c>
       <c r="C19" s="4" t="str">
         <f>'[1]@target_rule'!$C20</f>
-        <v>남은 체력이 가장 높은 엘프 종족 선택</v>
+        <v>남은 체력 비율이 가장 높은 타겟 선택</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="str">
         <f>'[1]@target_rule'!$A21</f>
-        <v>HIGHEST_LIFE_VALUE_WEREBEAST</v>
+        <v>HIGHEST_ACCURACY</v>
       </c>
       <c r="B20" s="4">
         <f>'[1]@target_rule'!$B21</f>
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="C20" s="4" t="str">
         <f>'[1]@target_rule'!$C21</f>
-        <v>남은 체력이 가장 높은 수인 종족 선택</v>
+        <v>명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="str">
         <f>'[1]@target_rule'!$A22</f>
-        <v>HIGHEST_LIFE_VALUE_ANDROID</v>
+        <v>HIGHEST_EVASION</v>
       </c>
       <c r="B21" s="4">
         <f>'[1]@target_rule'!$B22</f>
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="C21" s="4" t="str">
         <f>'[1]@target_rule'!$C22</f>
-        <v>남은 체력이 가장 높은 안드로이드 선택</v>
+        <v>회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="str">
         <f>'[1]@target_rule'!$A23</f>
-        <v>HIGHEST_LIFE_VALUE_DEVIL</v>
+        <v>HIGHEST_LIFE_VALUE_HUMAN</v>
       </c>
       <c r="B22" s="4">
         <f>'[1]@target_rule'!$B23</f>
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="C22" s="4" t="str">
         <f>'[1]@target_rule'!$C23</f>
-        <v>남은 체력이 가장 높은 악마 선택</v>
+        <v>남은 체력이 가장 높은 인간 종족 선택</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="str">
         <f>'[1]@target_rule'!$A24</f>
-        <v>HIGHEST_LIFE_VALUE_ANGEL</v>
+        <v>HIGHEST_LIFE_VALUE_ELF</v>
       </c>
       <c r="B23" s="4">
         <f>'[1]@target_rule'!$B24</f>
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="C23" s="4" t="str">
         <f>'[1]@target_rule'!$C24</f>
-        <v>남은 체력이 가장 높은 천사 선택</v>
+        <v>남은 체력이 가장 높은 엘프 종족 선택</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="str">
         <f>'[1]@target_rule'!$A25</f>
-        <v>HIGHEST_LIFE_VALUE_WITHOUT_ME</v>
+        <v>HIGHEST_LIFE_VALUE_WEREBEAST</v>
       </c>
       <c r="B24" s="4">
         <f>'[1]@target_rule'!$B25</f>
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="C24" s="4" t="str">
         <f>'[1]@target_rule'!$C25</f>
-        <v>자신을 제외한 체력이 가장 높은 타겟 선택</v>
+        <v>남은 체력이 가장 높은 수인 종족 선택</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="str">
         <f>'[1]@target_rule'!$A26</f>
-        <v>HIGHEST_LIFE_RATE_WITHOUT_ME</v>
+        <v>HIGHEST_LIFE_VALUE_ANDROID</v>
       </c>
       <c r="B25" s="4">
         <f>'[1]@target_rule'!$B26</f>
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="C25" s="4" t="str">
         <f>'[1]@target_rule'!$C26</f>
-        <v>자신을 제외한 체력 비율이 가장 높은 타겟 선택</v>
+        <v>남은 체력이 가장 높은 안드로이드 선택</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="str">
         <f>'[1]@target_rule'!$A27</f>
-        <v>HIGHEST_ATTACK_WITHOUT_ME</v>
+        <v>HIGHEST_LIFE_VALUE_DEVIL</v>
       </c>
       <c r="B26" s="4">
         <f>'[1]@target_rule'!$B27</f>
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C26" s="4" t="str">
         <f>'[1]@target_rule'!$C27</f>
-        <v>자신을 제외한 공격력이 가장 높은 타겟 선택</v>
+        <v>남은 체력이 가장 높은 악마 선택</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="str">
         <f>'[1]@target_rule'!$A28</f>
-        <v>HIGHEST_DEFENSE_WITHOUT_ME</v>
+        <v>HIGHEST_LIFE_VALUE_ANGEL</v>
       </c>
       <c r="B27" s="4">
         <f>'[1]@target_rule'!$B28</f>
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="C27" s="4" t="str">
         <f>'[1]@target_rule'!$C28</f>
-        <v>자신을 제외한 방어력이 가장 높은 타겟 선택</v>
+        <v>남은 체력이 가장 높은 천사 선택</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="str">
         <f>'[1]@target_rule'!$A29</f>
-        <v>HIGHEST_RAPIDITY_WITHOUT_ME</v>
+        <v>HIGHEST_LIFE_VALUE_WITHOUT_ME</v>
       </c>
       <c r="B28" s="4">
         <f>'[1]@target_rule'!$B29</f>
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="C28" s="4" t="str">
         <f>'[1]@target_rule'!$C29</f>
-        <v>자신을 제외한 공속이 가장 높은 타겟 선택</v>
+        <v>자신을 제외한 체력이 가장 높은 타겟 선택</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="str">
         <f>'[1]@target_rule'!$A30</f>
-        <v>HIGHEST_ACCURACY_WITHOUT_ME</v>
+        <v>HIGHEST_LIFE_RATE_WITHOUT_ME</v>
       </c>
       <c r="B29" s="4">
         <f>'[1]@target_rule'!$B30</f>
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="C29" s="4" t="str">
         <f>'[1]@target_rule'!$C30</f>
-        <v>자신을 제외한 명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
+        <v>자신을 제외한 체력 비율이 가장 높은 타겟 선택</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="str">
         <f>'[1]@target_rule'!$A31</f>
-        <v>HIGHEST_EVASION_WITHOUT_ME</v>
+        <v>HIGHEST_ATTACK_WITHOUT_ME</v>
       </c>
       <c r="B30" s="4">
         <f>'[1]@target_rule'!$B31</f>
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C30" s="4" t="str">
         <f>'[1]@target_rule'!$C31</f>
-        <v>자신을 제외한 회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
+        <v>자신을 제외한 공격력이 가장 높은 타겟 선택</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="str">
         <f>'[1]@target_rule'!$A32</f>
-        <v>LOWEST_LIFE_VALUE</v>
+        <v>HIGHEST_DEFENSE_WITHOUT_ME</v>
       </c>
       <c r="B31" s="4">
         <f>'[1]@target_rule'!$B32</f>
-        <v>3001</v>
+        <v>2017</v>
       </c>
       <c r="C31" s="4" t="str">
         <f>'[1]@target_rule'!$C32</f>
-        <v>남은 체력이 가장 낮은 타겟 선택</v>
+        <v>자신을 제외한 방어력이 가장 높은 타겟 선택</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="str">
         <f>'[1]@target_rule'!$A33</f>
-        <v>LOWEST_LIFE_RATE</v>
+        <v>HIGHEST_RAPIDITY_WITHOUT_ME</v>
       </c>
       <c r="B32" s="4">
         <f>'[1]@target_rule'!$B33</f>
-        <v>3002</v>
+        <v>2018</v>
       </c>
       <c r="C32" s="4" t="str">
         <f>'[1]@target_rule'!$C33</f>
-        <v>남은 체력 비율이 가장 낮은 타겟 선택</v>
+        <v>자신을 제외한 공속이 가장 높은 타겟 선택</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="str">
         <f>'[1]@target_rule'!$A34</f>
-        <v>LOWEST_ATTACK</v>
+        <v>HIGHEST_ACCURACY_WITHOUT_ME</v>
       </c>
       <c r="B33" s="4">
         <f>'[1]@target_rule'!$B34</f>
-        <v>3003</v>
+        <v>2019</v>
       </c>
       <c r="C33" s="4" t="str">
         <f>'[1]@target_rule'!$C34</f>
-        <v>공격력이 가장 낮은 타겟 선택</v>
+        <v>자신을 제외한 명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="str">
         <f>'[1]@target_rule'!$A35</f>
-        <v>LOWEST_DEFENSE</v>
+        <v>HIGHEST_EVASION_WITHOUT_ME</v>
       </c>
       <c r="B34" s="4">
         <f>'[1]@target_rule'!$B35</f>
-        <v>3004</v>
+        <v>2020</v>
       </c>
       <c r="C34" s="4" t="str">
         <f>'[1]@target_rule'!$C35</f>
-        <v>방어력이 가장 낮은 타겟 선택</v>
+        <v>자신을 제외한 회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="str">
         <f>'[1]@target_rule'!$A36</f>
-        <v>LOWEST_ACCUM_RAPIDITY_POINT</v>
+        <v>LOWEST_LIFE_RATE</v>
       </c>
       <c r="B35" s="4">
         <f>'[1]@target_rule'!$B36</f>
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="C35" s="4" t="str">
         <f>'[1]@target_rule'!$C36</f>
-        <v>속도게이지가 가장 낮은 타겟 선택</v>
+        <v>남은 체력 비율이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="str">
         <f>'[1]@target_rule'!$A37</f>
-        <v>LOWEST_ACCURACY</v>
+        <v>LOWEST_ACCUM_RAPIDITY_POINT</v>
       </c>
       <c r="B36" s="4">
         <f>'[1]@target_rule'!$B37</f>
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="C36" s="4" t="str">
         <f>'[1]@target_rule'!$C37</f>
-        <v>명중률이 가장 낮은 타겟 선택</v>
+        <v>속도게이지가 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="str">
         <f>'[1]@target_rule'!$A38</f>
-        <v>LOWEST_EVASION</v>
+        <v>LOWEST_ACCURACY</v>
       </c>
       <c r="B37" s="4">
         <f>'[1]@target_rule'!$B38</f>
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="C37" s="4" t="str">
         <f>'[1]@target_rule'!$C38</f>
-        <v>회피율이 가장 낮은 타겟 선택</v>
+        <v>명중률이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="str">
         <f>'[1]@target_rule'!$A39</f>
-        <v>LOWEST_LIFE_VALUE_HUMAN</v>
+        <v>LOWEST_EVASION</v>
       </c>
       <c r="B38" s="4">
         <f>'[1]@target_rule'!$B39</f>
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="C38" s="4" t="str">
         <f>'[1]@target_rule'!$C39</f>
-        <v>남은 체력이 가장 낮은 인간 종족 선택</v>
+        <v>회피율이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="str">
         <f>'[1]@target_rule'!$A40</f>
-        <v>LOWEST_LIFE_VALUE_ELF</v>
+        <v>LOWEST_LIFE_VALUE_HUMAN</v>
       </c>
       <c r="B39" s="4">
         <f>'[1]@target_rule'!$B40</f>
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="C39" s="4" t="str">
         <f>'[1]@target_rule'!$C40</f>
-        <v>남은 체력이 가장 낮은 엘프 종족 선택</v>
+        <v>남은 체력이 가장 낮은 인간 종족 선택</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="str">
         <f>'[1]@target_rule'!$A41</f>
-        <v>LOWEST_LIFE_VALUE_WEREBEAST</v>
+        <v>LOWEST_LIFE_VALUE_ELF</v>
       </c>
       <c r="B40" s="4">
         <f>'[1]@target_rule'!$B41</f>
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="C40" s="4" t="str">
         <f>'[1]@target_rule'!$C41</f>
-        <v>남은 체력이 가장 낮은 수인 종족 선택</v>
+        <v>남은 체력이 가장 낮은 엘프 종족 선택</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="str">
         <f>'[1]@target_rule'!$A42</f>
-        <v>LOWEST_LIFE_VALUE_ANDROID</v>
+        <v>LOWEST_LIFE_VALUE_WEREBEAST</v>
       </c>
       <c r="B41" s="4">
         <f>'[1]@target_rule'!$B42</f>
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="C41" s="4" t="str">
         <f>'[1]@target_rule'!$C42</f>
-        <v>남은 체력이 가장 낮은 안드로이드 선택</v>
+        <v>남은 체력이 가장 낮은 수인 종족 선택</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="str">
         <f>'[1]@target_rule'!$A43</f>
-        <v>LOWEST_LIFE_VALUE_DEVIL</v>
+        <v>LOWEST_LIFE_VALUE_ANDROID</v>
       </c>
       <c r="B42" s="4">
         <f>'[1]@target_rule'!$B43</f>
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="C42" s="4" t="str">
         <f>'[1]@target_rule'!$C43</f>
-        <v>남은 체력이 가장 낮은 악마 종족 선택</v>
+        <v>남은 체력이 가장 낮은 안드로이드 선택</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="str">
         <f>'[1]@target_rule'!$A44</f>
-        <v>LOWEST_LIFE_VALUE_ANGEL</v>
+        <v>LOWEST_LIFE_VALUE_DEVIL</v>
       </c>
       <c r="B43" s="4">
         <f>'[1]@target_rule'!$B44</f>
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="C43" s="4" t="str">
         <f>'[1]@target_rule'!$C44</f>
-        <v>남은 체력이 가장 낮은 천사 종족 선택</v>
+        <v>남은 체력이 가장 낮은 악마 종족 선택</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="str">
         <f>'[1]@target_rule'!$A45</f>
-        <v>LOWEST_LIFE_VALUE_WITHOUT_ME</v>
+        <v>LOWEST_LIFE_VALUE_ANGEL</v>
       </c>
       <c r="B44" s="4">
         <f>'[1]@target_rule'!$B45</f>
-        <v>3014</v>
+        <v>3013</v>
       </c>
       <c r="C44" s="4" t="str">
         <f>'[1]@target_rule'!$C45</f>
-        <v>자신을 제외한 남은 체력이 가장 낮은 타겟 선택</v>
+        <v>남은 체력이 가장 낮은 천사 종족 선택</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="str">
         <f>'[1]@target_rule'!$A46</f>
-        <v>LOWEST_LIFE_RATE_WITHOUT_ME</v>
+        <v>LOWEST_LIFE_VALUE_WITHOUT_ME</v>
       </c>
       <c r="B45" s="4">
         <f>'[1]@target_rule'!$B46</f>
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="C45" s="4" t="str">
         <f>'[1]@target_rule'!$C46</f>
-        <v>자신을 제외한 남은 체력 비율이 가장 낮은 타겟 선택</v>
+        <v>자신을 제외한 남은 체력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="str">
         <f>'[1]@target_rule'!$A47</f>
-        <v>LOWEST_ATTACK_WITHOUT_ME</v>
+        <v>LOWEST_LIFE_RATE_WITHOUT_ME</v>
       </c>
       <c r="B46" s="4">
         <f>'[1]@target_rule'!$B47</f>
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="C46" s="4" t="str">
         <f>'[1]@target_rule'!$C47</f>
-        <v>자신을 제외한 공격력이 가장 낮은 타겟 선택</v>
+        <v>자신을 제외한 남은 체력 비율이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="str">
         <f>'[1]@target_rule'!$A48</f>
-        <v>LOWEST_DEFENSE_WITHOUT_ME</v>
+        <v>LOWEST_ATTACK_WITHOUT_ME</v>
       </c>
       <c r="B47" s="4">
         <f>'[1]@target_rule'!$B48</f>
-        <v>3017</v>
+        <v>3016</v>
       </c>
       <c r="C47" s="4" t="str">
         <f>'[1]@target_rule'!$C48</f>
-        <v>자신을 제외한 방어력이 가장 낮은 타겟 선택</v>
+        <v>자신을 제외한 공격력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="str">
         <f>'[1]@target_rule'!$A49</f>
-        <v>LOWEST_RAPIDITY_WITHOUT_ME</v>
+        <v>LOWEST_DEFENSE_WITHOUT_ME</v>
       </c>
       <c r="B48" s="4">
         <f>'[1]@target_rule'!$B49</f>
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="C48" s="4" t="str">
         <f>'[1]@target_rule'!$C49</f>
-        <v>자신을 제외한 공속이 가장 낮은 타겟 선택</v>
+        <v>자신을 제외한 방어력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="str">
         <f>'[1]@target_rule'!$A50</f>
-        <v>LOWEST_ACCURACY_WITHOUT_ME</v>
+        <v>LOWEST_RAPIDITY_WITHOUT_ME</v>
       </c>
       <c r="B49" s="4">
         <f>'[1]@target_rule'!$B50</f>
-        <v>3019</v>
+        <v>3018</v>
       </c>
       <c r="C49" s="4" t="str">
         <f>'[1]@target_rule'!$C50</f>
-        <v>자신을 제외한 명중률이 가장 낮은 타겟 선택</v>
+        <v>자신을 제외한 공속이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="str">
         <f>'[1]@target_rule'!$A51</f>
-        <v>LOWEST_EVASION_WITHOUT_ME</v>
+        <v>LOWEST_ACCURACY_WITHOUT_ME</v>
       </c>
       <c r="B50" s="4">
         <f>'[1]@target_rule'!$B51</f>
-        <v>3020</v>
+        <v>3019</v>
       </c>
       <c r="C50" s="4" t="str">
         <f>'[1]@target_rule'!$C51</f>
-        <v>자신을 제외한 회피율이 가장 낮은 타겟 선택</v>
+        <v>자신을 제외한 명중률이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="str">
         <f>'[1]@target_rule'!$A52</f>
-        <v>LOWEST_LIFE_VALUE_WITH_ME</v>
+        <v>LOWEST_EVASION_WITHOUT_ME</v>
       </c>
       <c r="B51" s="4">
         <f>'[1]@target_rule'!$B52</f>
-        <v>3021</v>
+        <v>3020</v>
       </c>
       <c r="C51" s="4" t="str">
         <f>'[1]@target_rule'!$C52</f>
-        <v>자신을 포함한 남은 체력이 가장 낮은 타겟 선택</v>
+        <v>자신을 제외한 회피율이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="str">
         <f>'[1]@target_rule'!$A53</f>
-        <v>LOWEST_LIFE_RATE_WITH_ME</v>
+        <v>LOWEST_LIFE_VALUE_WITH_ME</v>
       </c>
       <c r="B52" s="4">
         <f>'[1]@target_rule'!$B53</f>
-        <v>3022</v>
+        <v>3021</v>
       </c>
       <c r="C52" s="4" t="str">
         <f>'[1]@target_rule'!$C53</f>
-        <v>자신을 포함한 남은 체력 비율이 가장 낮은 타겟 선택</v>
+        <v>자신을 포함한 남은 체력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="str">
         <f>'[1]@target_rule'!$A54</f>
-        <v>LOWEST_ATTACK_WITH_ME</v>
+        <v>LOWEST_LIFE_RATE_WITH_ME</v>
       </c>
       <c r="B53" s="4">
         <f>'[1]@target_rule'!$B54</f>
-        <v>3023</v>
+        <v>3022</v>
       </c>
       <c r="C53" s="4" t="str">
         <f>'[1]@target_rule'!$C54</f>
-        <v>자신을 포함한 공격력이 가장 낮은 타겟 선택</v>
+        <v>자신을 포함한 남은 체력 비율이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="str">
         <f>'[1]@target_rule'!$A55</f>
-        <v>LOWEST_DEFENSE_WITH_ME</v>
+        <v>LOWEST_ATTACK_WITH_ME</v>
       </c>
       <c r="B54" s="4">
         <f>'[1]@target_rule'!$B55</f>
-        <v>3024</v>
+        <v>3023</v>
       </c>
       <c r="C54" s="4" t="str">
         <f>'[1]@target_rule'!$C55</f>
-        <v>자신을 포함한 방어력이 가장 낮은 타겟 선택</v>
+        <v>자신을 포함한 공격력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="str">
         <f>'[1]@target_rule'!$A56</f>
-        <v>LOWEST_RAPIDITY_WITH_ME</v>
+        <v>LOWEST_DEFENSE_WITH_ME</v>
       </c>
       <c r="B55" s="4">
         <f>'[1]@target_rule'!$B56</f>
-        <v>3025</v>
+        <v>3024</v>
       </c>
       <c r="C55" s="4" t="str">
         <f>'[1]@target_rule'!$C56</f>
-        <v>자신을 포함한 공속이 가장 낮은 타겟 선택</v>
+        <v>자신을 포함한 방어력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="str">
         <f>'[1]@target_rule'!$A57</f>
-        <v>LOWEST_ACCURACY_WITH_ME</v>
+        <v>LOWEST_RAPIDITY_WITH_ME</v>
       </c>
       <c r="B56" s="4">
         <f>'[1]@target_rule'!$B57</f>
-        <v>3026</v>
+        <v>3025</v>
       </c>
       <c r="C56" s="4" t="str">
         <f>'[1]@target_rule'!$C57</f>
-        <v>자신을 포함한 명중률이 가장 낮은 타겟 선택</v>
+        <v>자신을 포함한 공속이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="str">
         <f>'[1]@target_rule'!$A58</f>
-        <v>LOWEST_EVASION_WITH_ME</v>
+        <v>LOWEST_ACCURACY_WITH_ME</v>
       </c>
       <c r="B57" s="4">
         <f>'[1]@target_rule'!$B58</f>
-        <v>3027</v>
+        <v>3026</v>
       </c>
       <c r="C57" s="4" t="str">
         <f>'[1]@target_rule'!$C58</f>
-        <v>자신을 포함한 회피율이 가장 낮은 타겟 선택</v>
+        <v>자신을 포함한 명중률이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="str">
         <f>'[1]@target_rule'!$A59</f>
-        <v>WEAK_ELEMENT</v>
+        <v>LOWEST_EVASION_WITH_ME</v>
       </c>
       <c r="B58" s="4">
         <f>'[1]@target_rule'!$B59</f>
-        <v>4001</v>
+        <v>3027</v>
       </c>
       <c r="C58" s="4" t="str">
         <f>'[1]@target_rule'!$C59</f>
-        <v>자신보다 약한 속성 타겟 선택 (상성 시스템이 있을 경우)</v>
+        <v>자신을 포함한 회피율이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="str">
         <f>'[1]@target_rule'!$A60</f>
-        <v>STRONG_ELEMENT</v>
+        <v>WEAK_ELEMENT</v>
       </c>
       <c r="B59" s="4">
         <f>'[1]@target_rule'!$B60</f>
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="C59" s="4" t="str">
         <f>'[1]@target_rule'!$C60</f>
-        <v>자신보다 강한 속성 타겟 선택 (상성 시스템이 있을 경우)</v>
+        <v>자신보다 약한 속성 타겟 선택 (상성 시스템이 있을 경우)</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="str">
         <f>'[1]@target_rule'!$A61</f>
-        <v>GAIN_BUFF_DURATION</v>
+        <v>STRONG_ELEMENT</v>
       </c>
       <c r="B60" s="4">
         <f>'[1]@target_rule'!$B61</f>
-        <v>5001</v>
+        <v>4002</v>
       </c>
       <c r="C60" s="4" t="str">
         <f>'[1]@target_rule'!$C61</f>
-        <v>버프 효과가 있는 타겟 선택</v>
+        <v>자신보다 강한 속성 타겟 선택 (상성 시스템이 있을 경우)</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="str">
         <f>'[1]@target_rule'!$A62</f>
-        <v>GAIN_BUFF_DURATION_ATTACK_INC</v>
+        <v>GAIN_BUFF_DURATION</v>
       </c>
       <c r="B61" s="4">
         <f>'[1]@target_rule'!$B62</f>
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="C61" s="4" t="str">
         <f>'[1]@target_rule'!$C62</f>
-        <v>버프 효과 중 공격력 증가 효과가 있는 타겟 선택</v>
+        <v>버프 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="str">
         <f>'[1]@target_rule'!$A63</f>
-        <v>GAIN_BUFF_DURATION_DEFENSE_INC</v>
+        <v>GAIN_BUFF_DURATION_ATTACK_INC</v>
       </c>
       <c r="B62" s="4">
         <f>'[1]@target_rule'!$B63</f>
-        <v>5003</v>
+        <v>5002</v>
       </c>
       <c r="C62" s="4" t="str">
         <f>'[1]@target_rule'!$C63</f>
-        <v>버프 효과 중 방어력 증가 효과가 있는 타겟 선택</v>
+        <v>버프 효과 중 공격력 증가 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="str">
         <f>'[1]@target_rule'!$A64</f>
-        <v>GAIN_BUFF_DURATION_RAPIDITY_INC</v>
+        <v>GAIN_BUFF_DURATION_DEFENSE_INC</v>
       </c>
       <c r="B63" s="4">
         <f>'[1]@target_rule'!$B64</f>
-        <v>5004</v>
+        <v>5003</v>
       </c>
       <c r="C63" s="4" t="str">
         <f>'[1]@target_rule'!$C64</f>
-        <v>버프 효과 중 공속 증가 효과가 있는 타겟 선택</v>
+        <v>버프 효과 중 방어력 증가 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="str">
         <f>'[1]@target_rule'!$A65</f>
-        <v>GAIN_BUFF_DURATION_EVASION_INC</v>
+        <v>GAIN_BUFF_DURATION_RAPIDITY_INC</v>
       </c>
       <c r="B64" s="4">
         <f>'[1]@target_rule'!$B65</f>
-        <v>5005</v>
+        <v>5004</v>
       </c>
       <c r="C64" s="4" t="str">
         <f>'[1]@target_rule'!$C65</f>
-        <v>버프 효과 중 회피율 증가 효과가 있는 타겟 선택</v>
+        <v>버프 효과 중 공속 증가 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="str">
         <f>'[1]@target_rule'!$A66</f>
-        <v>GAIN_BUFF_DURATION_CRITICAL_RATE_INC</v>
+        <v>GAIN_BUFF_DURATION_EVASION_INC</v>
       </c>
       <c r="B65" s="4">
         <f>'[1]@target_rule'!$B66</f>
-        <v>5006</v>
+        <v>5005</v>
       </c>
       <c r="C65" s="4" t="str">
         <f>'[1]@target_rule'!$C66</f>
-        <v>버프 효과 중 치명타 확률 증가 효과가 있는 타겟 선택</v>
+        <v>버프 효과 중 회피율 증가 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="str">
         <f>'[1]@target_rule'!$A67</f>
-        <v>GAIN_BUFF_DURATION_CRITICAL_DAMAGE_INC</v>
+        <v>GAIN_BUFF_DURATION_CRITICAL_RATE_INC</v>
       </c>
       <c r="B66" s="4">
         <f>'[1]@target_rule'!$B67</f>
-        <v>5007</v>
+        <v>5006</v>
       </c>
       <c r="C66" s="4" t="str">
         <f>'[1]@target_rule'!$C67</f>
-        <v>버프 효과 중 치명타 피해량 증가 효과가 있는 타겟 선택</v>
+        <v>버프 효과 중 치명타 확률 증가 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="str">
         <f>'[1]@target_rule'!$A68</f>
-        <v>GAIN_DEBUFF_DURATION</v>
+        <v>GAIN_BUFF_DURATION_CRITICAL_DAMAGE_INC</v>
       </c>
       <c r="B67" s="4">
         <f>'[1]@target_rule'!$B68</f>
-        <v>6001</v>
+        <v>5007</v>
       </c>
       <c r="C67" s="4" t="str">
         <f>'[1]@target_rule'!$C68</f>
-        <v>디버프 효과가 있는 타겟 선택</v>
+        <v>버프 효과 중 치명타 피해량 증가 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="str">
         <f>'[1]@target_rule'!$A69</f>
-        <v>GAIN_DEBUFF_DURATION_ATTACK_DEC</v>
+        <v>GAIN_DEBUFF_DURATION</v>
       </c>
       <c r="B68" s="4">
         <f>'[1]@target_rule'!$B69</f>
-        <v>6002</v>
+        <v>6001</v>
       </c>
       <c r="C68" s="4" t="str">
         <f>'[1]@target_rule'!$C69</f>
-        <v>디버프 효과 중 공격력 감소 효과가 있는 타겟 선택</v>
+        <v>디버프 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="str">
         <f>'[1]@target_rule'!$A70</f>
-        <v>GAIN_DEBUFF_DURATION_DEFENSE_DEC</v>
+        <v>GAIN_DEBUFF_DURATION_ATTACK_DEC</v>
       </c>
       <c r="B69" s="4">
         <f>'[1]@target_rule'!$B70</f>
-        <v>6003</v>
+        <v>6002</v>
       </c>
       <c r="C69" s="4" t="str">
         <f>'[1]@target_rule'!$C70</f>
-        <v>디버프 효과 중 방어력 감소 효과가 있는 타겟 선택</v>
+        <v>디버프 효과 중 공격력 감소 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="str">
         <f>'[1]@target_rule'!$A71</f>
-        <v>GAIN_DEBUFF_DURATION_BURN</v>
+        <v>GAIN_DEBUFF_DURATION_DEFENSE_DEC</v>
       </c>
       <c r="B70" s="4">
         <f>'[1]@target_rule'!$B71</f>
-        <v>6004</v>
+        <v>6003</v>
       </c>
       <c r="C70" s="4" t="str">
         <f>'[1]@target_rule'!$C71</f>
-        <v>디버프 효과 중 화상 효과가 있는 타겟 선택</v>
+        <v>디버프 효과 중 방어력 감소 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="str">
         <f>'[1]@target_rule'!$A72</f>
-        <v>GAIN_DEBUFF_DURATION_BLEEDING</v>
+        <v>GAIN_DEBUFF_DURATION_BURN</v>
       </c>
       <c r="B71" s="4">
         <f>'[1]@target_rule'!$B72</f>
-        <v>6005</v>
+        <v>6004</v>
       </c>
       <c r="C71" s="4" t="str">
         <f>'[1]@target_rule'!$C72</f>
-        <v>디버프 효과 중 출혈 효과가 있는 타겟 선택</v>
+        <v>디버프 효과 중 화상 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="str">
         <f>'[1]@target_rule'!$A73</f>
-        <v>GAIN_DEBUFF_DURATION_POISON</v>
+        <v>GAIN_DEBUFF_DURATION_BLEEDING</v>
       </c>
       <c r="B72" s="4">
         <f>'[1]@target_rule'!$B73</f>
-        <v>6006</v>
+        <v>6005</v>
       </c>
       <c r="C72" s="4" t="str">
         <f>'[1]@target_rule'!$C73</f>
-        <v>디버프 효과 중 중독 효과가 있는 타겟 선택</v>
+        <v>디버프 효과 중 출혈 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="str">
         <f>'[1]@target_rule'!$A74</f>
-        <v>GAIN_DEBUFF_DURATION_RAPIDITY_DEC</v>
+        <v>GAIN_DEBUFF_DURATION_POISON</v>
       </c>
       <c r="B73" s="4">
         <f>'[1]@target_rule'!$B74</f>
-        <v>6007</v>
+        <v>6006</v>
       </c>
       <c r="C73" s="4" t="str">
         <f>'[1]@target_rule'!$C74</f>
-        <v>디버프 효과 중 공속 감소 효과가 있는 타겟 선택</v>
+        <v>디버프 효과 중 중독 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="str">
         <f>'[1]@target_rule'!$A75</f>
-        <v>GAIN_DEBUFF_DURATION_SLEEP</v>
+        <v>GAIN_DEBUFF_DURATION_RAPIDITY_DEC</v>
       </c>
       <c r="B74" s="4">
         <f>'[1]@target_rule'!$B75</f>
-        <v>6008</v>
+        <v>6007</v>
       </c>
       <c r="C74" s="4" t="str">
         <f>'[1]@target_rule'!$C75</f>
-        <v>디버프 효과 중 수면 효과가 있는 타겟 선택</v>
+        <v>디버프 효과 중 공속 감소 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="str">
         <f>'[1]@target_rule'!$A76</f>
-        <v>GAIN_DEBUFF_DURATION_FATAL_WOUNDS</v>
+        <v>GAIN_DEBUFF_DURATION_SLEEP</v>
       </c>
       <c r="B75" s="4">
         <f>'[1]@target_rule'!$B76</f>
-        <v>6009</v>
+        <v>6008</v>
       </c>
       <c r="C75" s="4" t="str">
         <f>'[1]@target_rule'!$C76</f>
-        <v>디버프 효과 중 치명상 효과가 있는 타겟 선택</v>
+        <v>디버프 효과 중 수면 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="str">
         <f>'[1]@target_rule'!$A77</f>
-        <v>GAIN_DEBUFF_DURATION_ACCURACY_DEC</v>
+        <v>GAIN_DEBUFF_DURATION_FATAL_WOUNDS</v>
       </c>
       <c r="B76" s="4">
         <f>'[1]@target_rule'!$B77</f>
-        <v>6010</v>
+        <v>6009</v>
       </c>
       <c r="C76" s="4" t="str">
         <f>'[1]@target_rule'!$C77</f>
+        <v>디버프 효과 중 치명상 효과가 있는 타겟 선택</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="str">
+        <f>'[1]@target_rule'!$A78</f>
+        <v>GAIN_DEBUFF_DURATION_ACCURACY_DEC</v>
+      </c>
+      <c r="B77" s="4">
+        <f>'[1]@target_rule'!$B78</f>
+        <v>6010</v>
+      </c>
+      <c r="C77" s="4" t="str">
+        <f>'[1]@target_rule'!$C78</f>
         <v>디버프 효과 중 명중률 감소 효과가 있는 타겟 선택</v>
       </c>
     </row>
@@ -5942,7 +5973,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6031,7 +6062,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="25">
+      <c r="A5" s="20">
         <v>100001</v>
       </c>
       <c r="B5" s="25" t="str">
@@ -6053,7 +6084,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="25">
+      <c r="A6" s="20">
         <v>100002</v>
       </c>
       <c r="B6" s="25" t="str">
@@ -6075,7 +6106,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="25">
+      <c r="A7" s="20">
         <v>100003</v>
       </c>
       <c r="B7" s="25" t="str">
@@ -6097,8 +6128,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="25">
-        <v>100004</v>
+      <c r="A8" s="20">
+        <v>100101</v>
       </c>
       <c r="B8" s="25" t="str">
         <f>VLOOKUP(A8,pc_skill_data!$B:$C,2,)</f>
@@ -6119,8 +6150,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="25">
-        <v>100005</v>
+      <c r="A9" s="20">
+        <v>100102</v>
       </c>
       <c r="B9" s="25" t="str">
         <f>VLOOKUP(A9,pc_skill_data!$B:$C,2,)</f>
@@ -6141,8 +6172,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="25">
-        <v>100006</v>
+      <c r="A10" s="20">
+        <v>100103</v>
       </c>
       <c r="B10" s="25" t="str">
         <f>VLOOKUP(A10,pc_skill_data!$B:$C,2,)</f>
@@ -6163,8 +6194,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="25">
-        <v>100007</v>
+      <c r="A11" s="20">
+        <v>100201</v>
       </c>
       <c r="B11" s="25" t="str">
         <f>VLOOKUP(A11,pc_skill_data!$B:$C,2,)</f>
@@ -6185,8 +6216,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="25">
-        <v>100008</v>
+      <c r="A12" s="20">
+        <v>100202</v>
       </c>
       <c r="B12" s="25" t="str">
         <f>VLOOKUP(A12,pc_skill_data!$B:$C,2,)</f>
@@ -6207,8 +6238,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="25">
-        <v>100009</v>
+      <c r="A13" s="20">
+        <v>100203</v>
       </c>
       <c r="B13" s="25" t="str">
         <f>VLOOKUP(A13,pc_skill_data!$B:$C,2,)</f>
@@ -6229,8 +6260,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="25">
-        <v>100010</v>
+      <c r="A14" s="20">
+        <v>100301</v>
       </c>
       <c r="B14" s="25" t="str">
         <f>VLOOKUP(A14,pc_skill_data!$B:$C,2,)</f>
@@ -6251,8 +6282,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="25">
-        <v>100011</v>
+      <c r="A15" s="20">
+        <v>100302</v>
       </c>
       <c r="B15" s="25" t="str">
         <f>VLOOKUP(A15,pc_skill_data!$B:$C,2,)</f>
@@ -6273,8 +6304,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="25">
-        <v>100012</v>
+      <c r="A16" s="20">
+        <v>100303</v>
       </c>
       <c r="B16" s="25" t="str">
         <f>VLOOKUP(A16,pc_skill_data!$B:$C,2,)</f>
@@ -6295,8 +6326,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="25">
-        <v>100013</v>
+      <c r="A17" s="20">
+        <v>100401</v>
       </c>
       <c r="B17" s="25" t="str">
         <f>VLOOKUP(A17,pc_skill_data!$B:$C,2,)</f>
@@ -6317,8 +6348,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="25">
-        <v>100014</v>
+      <c r="A18" s="20">
+        <v>100402</v>
       </c>
       <c r="B18" s="25" t="str">
         <f>VLOOKUP(A18,pc_skill_data!$B:$C,2,)</f>
@@ -6339,8 +6370,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="25">
-        <v>100015</v>
+      <c r="A19" s="20">
+        <v>100403</v>
       </c>
       <c r="B19" s="25" t="str">
         <f>VLOOKUP(A19,pc_skill_data!$B:$C,2,)</f>
@@ -6634,12 +6665,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00F7AA3-FB12-454D-93A6-31450B9003EC}">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="D3" sqref="D3"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6856,7 +6887,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E5,'!참조_ENUM'!$B$3:$B$76,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E5,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
       <c r="G5" s="20">
@@ -6899,7 +6930,7 @@
         <v>6</v>
       </c>
       <c r="F6" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E6,'!참조_ENUM'!$B$3:$B$76,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E6,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
       <c r="G6" s="20">
@@ -6942,7 +6973,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E7,'!참조_ENUM'!$B$3:$B$76,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E7,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>자신 선택</v>
       </c>
       <c r="G7" s="20">
@@ -6979,7 +7010,7 @@
         <v>100101</v>
       </c>
       <c r="B8" s="20">
-        <v>100004</v>
+        <v>100101</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>175</v>
@@ -6991,7 +7022,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E8,'!참조_ENUM'!$B$3:$B$76,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E8,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
       <c r="G8" s="20">
@@ -7022,7 +7053,7 @@
         <v>100102</v>
       </c>
       <c r="B9" s="20">
-        <v>100005</v>
+        <v>100102</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>170</v>
@@ -7034,7 +7065,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E9,'!참조_ENUM'!$B$3:$B$76,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E9,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>자신 선택</v>
       </c>
       <c r="G9" s="20">
@@ -7065,7 +7096,7 @@
         <v>100103</v>
       </c>
       <c r="B10" s="20">
-        <v>100006</v>
+        <v>100103</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>171</v>
@@ -7077,7 +7108,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E10,'!참조_ENUM'!$B$3:$B$76,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E10,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
       <c r="G10" s="20">
@@ -7108,7 +7139,7 @@
         <v>100201</v>
       </c>
       <c r="B11" s="20">
-        <v>100007</v>
+        <v>100201</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>176</v>
@@ -7120,7 +7151,7 @@
         <v>6</v>
       </c>
       <c r="F11" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E11,'!참조_ENUM'!$B$3:$B$76,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E11,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
       <c r="G11" s="20">
@@ -7157,7 +7188,7 @@
         <v>100202</v>
       </c>
       <c r="B12" s="20">
-        <v>100008</v>
+        <v>100202</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>178</v>
@@ -7169,7 +7200,7 @@
         <v>6</v>
       </c>
       <c r="F12" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E12,'!참조_ENUM'!$B$3:$B$76,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E12,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
       <c r="G12" s="20">
@@ -7206,7 +7237,7 @@
         <v>100203</v>
       </c>
       <c r="B13" s="20">
-        <v>100009</v>
+        <v>100203</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>177</v>
@@ -7218,7 +7249,7 @@
         <v>6</v>
       </c>
       <c r="F13" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E13,'!참조_ENUM'!$B$3:$B$76,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E13,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
       <c r="G13" s="20">
@@ -7255,7 +7286,7 @@
         <v>100301</v>
       </c>
       <c r="B14" s="20">
-        <v>100010</v>
+        <v>100301</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>179</v>
@@ -7267,7 +7298,7 @@
         <v>6</v>
       </c>
       <c r="F14" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E14,'!참조_ENUM'!$B$3:$B$76,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E14,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
       <c r="G14" s="20">
@@ -7304,7 +7335,7 @@
         <v>100302</v>
       </c>
       <c r="B15" s="20">
-        <v>100011</v>
+        <v>100302</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>180</v>
@@ -7316,7 +7347,7 @@
         <v>6</v>
       </c>
       <c r="F15" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E15,'!참조_ENUM'!$B$3:$B$76,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E15,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
       <c r="G15" s="20">
@@ -7353,7 +7384,7 @@
         <v>100303</v>
       </c>
       <c r="B16" s="20">
-        <v>100012</v>
+        <v>100303</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>181</v>
@@ -7365,7 +7396,7 @@
         <v>6</v>
       </c>
       <c r="F16" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E16,'!참조_ENUM'!$B$3:$B$76,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E16,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
       <c r="G16" s="20">
@@ -7402,7 +7433,7 @@
         <v>100401</v>
       </c>
       <c r="B17" s="20">
-        <v>100013</v>
+        <v>100401</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>182</v>
@@ -7414,7 +7445,7 @@
         <v>6</v>
       </c>
       <c r="F17" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E17,'!참조_ENUM'!$B$3:$B$76,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E17,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
       <c r="G17" s="20">
@@ -7451,7 +7482,7 @@
         <v>100402</v>
       </c>
       <c r="B18" s="20">
-        <v>100014</v>
+        <v>100402</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>183</v>
@@ -7463,7 +7494,7 @@
         <v>6</v>
       </c>
       <c r="F18" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E18,'!참조_ENUM'!$B$3:$B$76,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E18,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
       <c r="G18" s="20">
@@ -7500,7 +7531,7 @@
         <v>100403</v>
       </c>
       <c r="B19" s="20">
-        <v>100015</v>
+        <v>100403</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>184</v>
@@ -7512,7 +7543,7 @@
         <v>6</v>
       </c>
       <c r="F19" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E19,'!참조_ENUM'!$B$3:$B$76,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E19,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
       <c r="G19" s="20">
@@ -7561,7 +7592,7 @@
         <v>6</v>
       </c>
       <c r="F20" s="22" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E20,'!참조_ENUM'!$B$3:$B$76,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E20,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
       <c r="G20" s="21">
@@ -7614,7 +7645,7 @@
         <v>6</v>
       </c>
       <c r="F21" s="22" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E21,'!참조_ENUM'!$B$3:$B$76,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E21,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
       <c r="G21" s="21">
@@ -7667,7 +7698,7 @@
         <v>6</v>
       </c>
       <c r="F22" s="22" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E22,'!참조_ENUM'!$B$3:$B$76,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E22,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
       <c r="G22" s="21">
@@ -7720,7 +7751,7 @@
         <v>6</v>
       </c>
       <c r="F23" s="22" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E23,'!참조_ENUM'!$B$3:$B$76,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E23,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
       <c r="G23" s="21">
@@ -7773,7 +7804,7 @@
         <v>6</v>
       </c>
       <c r="F24" s="22" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E24,'!참조_ENUM'!$B$3:$B$76,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E24,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
       <c r="G24" s="21">
@@ -7826,7 +7857,7 @@
         <v>6</v>
       </c>
       <c r="F25" s="22" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E25,'!참조_ENUM'!$B$3:$B$76,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E25,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
       <c r="G25" s="21">
@@ -7879,7 +7910,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="22" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E26,'!참조_ENUM'!$B$3:$B$76,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E26,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>자신 선택</v>
       </c>
       <c r="G26" s="21">
@@ -7932,7 +7963,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="22" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E27,'!참조_ENUM'!$B$3:$B$76,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E27,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
       <c r="G27" s="21">
@@ -7985,7 +8016,7 @@
         <v>6</v>
       </c>
       <c r="F28" s="22" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E28,'!참조_ENUM'!$B$3:$B$76,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E28,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
       <c r="G28" s="21">
@@ -8040,7 +8071,7 @@
         <v>4</v>
       </c>
       <c r="F29" s="22" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E29,'!참조_ENUM'!$B$3:$B$76,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E29,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>자신을 제외한 가장 가까운 아군 선택</v>
       </c>
       <c r="G29" s="21">
@@ -8095,7 +8126,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="22" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E30,'!참조_ENUM'!$B$3:$B$76,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E30,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>자신 선택</v>
       </c>
       <c r="G30" s="21">
@@ -8148,7 +8179,7 @@
         <v>6</v>
       </c>
       <c r="F31" s="22" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E31,'!참조_ENUM'!$B$3:$B$76,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E31,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
       <c r="G31" s="21">
@@ -8203,7 +8234,7 @@
         <v>2</v>
       </c>
       <c r="F32" s="22" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E32,'!참조_ENUM'!$B$3:$B$76,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E32,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>전체 선택</v>
       </c>
       <c r="G32" s="21">
@@ -8258,7 +8289,7 @@
         <v>2</v>
       </c>
       <c r="F33" s="22" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E33,'!참조_ENUM'!$B$3:$B$76,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E33,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>전체 선택</v>
       </c>
       <c r="G33" s="21">
@@ -8313,7 +8344,7 @@
         <v>6</v>
       </c>
       <c r="F34" s="22" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E34,'!참조_ENUM'!$B$3:$B$76,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E34,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
       <c r="G34" s="21">
@@ -8368,7 +8399,7 @@
         <v>6</v>
       </c>
       <c r="F35" s="22" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E35,'!참조_ENUM'!$B$3:$B$76,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E35,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
       <c r="G35" s="21">
@@ -8423,7 +8454,7 @@
         <v>6</v>
       </c>
       <c r="F36" s="22" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E36,'!참조_ENUM'!$B$3:$B$76,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E36,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
       <c r="G36" s="21">
@@ -8478,7 +8509,7 @@
         <v>2</v>
       </c>
       <c r="F37" s="22" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E37,'!참조_ENUM'!$B$3:$B$76,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E37,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>전체 선택</v>
       </c>
       <c r="G37" s="21">
@@ -8533,7 +8564,7 @@
         <v>2</v>
       </c>
       <c r="F38" s="22" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$76,MATCH(E38,'!참조_ENUM'!$B$3:$B$76,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E38,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>전체 선택</v>
       </c>
       <c r="G38" s="21">
@@ -8578,12 +8609,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DD704491-CCCB-4D5C-8D3F-E47F3013819F}">
-          <x14:formula1>
-            <xm:f>'!참조_ENUM'!$B$3:$B$76</xm:f>
-          </x14:formula1>
-          <xm:sqref>E20:E38</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{530F6EDD-802B-4331-BDD5-5BEF855C0144}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$N$3:$N$4</xm:f>
@@ -8595,6 +8620,12 @@
             <xm:f>'!참조_ENUM'!$AD$3:$AD$10</xm:f>
           </x14:formula1>
           <xm:sqref>I20:I38</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DD704491-CCCB-4D5C-8D3F-E47F3013819F}">
+          <x14:formula1>
+            <xm:f>'!참조_ENUM'!$B$3:$B$77</xm:f>
+          </x14:formula1>
+          <xm:sqref>E20:E38</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Android/ExcelData/PCSkillTable.xlsx
+++ b/Android/ExcelData/PCSkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C153057-7D57-40AD-91E8-83933936810B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96083AA3-43BA-4DEA-82CE-8D5E3FA5DA43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12960" yWindow="1080" windowWidth="23625" windowHeight="17160" activeTab="2" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -6665,12 +6665,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00F7AA3-FB12-454D-93A6-31450B9003EC}">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="D3" sqref="D3"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7272,7 +7272,7 @@
         <v>100</v>
       </c>
       <c r="M13">
-        <v>100009</v>
+        <v>100001</v>
       </c>
       <c r="P13" t="s">
         <v>134</v>
@@ -7321,7 +7321,7 @@
         <v>100</v>
       </c>
       <c r="M14">
-        <v>100010</v>
+        <v>100001</v>
       </c>
       <c r="P14" t="s">
         <v>134</v>
@@ -7370,7 +7370,7 @@
         <v>100</v>
       </c>
       <c r="M15">
-        <v>100011</v>
+        <v>100001</v>
       </c>
       <c r="P15" t="s">
         <v>137</v>
@@ -7419,7 +7419,7 @@
         <v>100</v>
       </c>
       <c r="M16">
-        <v>100012</v>
+        <v>100001</v>
       </c>
       <c r="P16" t="s">
         <v>134</v>
@@ -7468,7 +7468,7 @@
         <v>100</v>
       </c>
       <c r="M17">
-        <v>100013</v>
+        <v>100001</v>
       </c>
       <c r="P17" t="s">
         <v>134</v>
@@ -7517,7 +7517,7 @@
         <v>100</v>
       </c>
       <c r="M18">
-        <v>100014</v>
+        <v>100001</v>
       </c>
       <c r="P18" t="s">
         <v>137</v>
@@ -7566,7 +7566,7 @@
         <v>100</v>
       </c>
       <c r="M19">
-        <v>100015</v>
+        <v>100001</v>
       </c>
       <c r="P19" t="s">
         <v>134</v>
@@ -9165,8 +9165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E85B499-5762-4179-9193-75E156FB948B}">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Android/ExcelData/PCSkillTable.xlsx
+++ b/Android/ExcelData/PCSkillTable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96083AA3-43BA-4DEA-82CE-8D5E3FA5DA43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A372A7BA-C864-4845-9235-2C91EEBBAE4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
@@ -1509,7 +1509,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="163">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1600,10 +1600,6 @@
   </si>
   <si>
     <t>skill 02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나/타겟/나/피해감소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1723,13 +1719,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1_Melee_1</t>
-  </si>
-  <si>
-    <t>1_skill_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Player_Character_Skill_Onetime_Data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1986,18 +1975,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Duration_Poison</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Duration_Stun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/Left/SkillEffect_Duration_Silence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>중첩 가능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2010,82 +1987,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Duration_Bind</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Duration_Freeze</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Frozen_Break</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>나/범위/근접공격/데미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>buff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>나/회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가까운적/중독</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Assets/AssetResources/Prefabs/Effects/Skill/Left/SkillEffect_Normal_Fireball</t>
   </si>
   <si>
-    <t>가까운적/원거리공격/데미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가까운아군/회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_BuffLight</t>
   </si>
   <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/Left/SkillEffect_Missile</t>
-  </si>
-  <si>
-    <t>적진영 중앙/데미지/다수공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_AllRound</t>
-  </si>
-  <si>
-    <t>아군 전체/회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가까운적/다수공격/원거리공격/데미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아군 전체/피해감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적군전체/중독</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>attack 01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2094,42 +2013,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>attack 03</t>
-  </si>
-  <si>
-    <t>attack 04</t>
-  </si>
-  <si>
-    <t>attack 05</t>
-  </si>
-  <si>
-    <t>attack 06</t>
-  </si>
-  <si>
-    <t>attack 07</t>
-  </si>
-  <si>
-    <t>attack 08</t>
-  </si>
-  <si>
-    <t>attack 09</t>
-  </si>
-  <si>
-    <t>attack 10</t>
-  </si>
-  <si>
-    <t>attack 11</t>
-  </si>
-  <si>
-    <t>attack 12</t>
-  </si>
-  <si>
-    <t>attack 13</t>
-  </si>
-  <si>
-    <t>attack 14</t>
-  </si>
-  <si>
     <t>스킬 설명 3</t>
   </si>
   <si>
@@ -2163,74 +2046,22 @@
     <t>스킬 설명 14</t>
   </si>
   <si>
-    <t>근딜/나/공버프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>근딜/근접공격/대미지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>탱/일반/근접공격/데미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탱/스킬1/근접공격/데미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탱/스킬2/나/힐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근딜/일반</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>원딜/일반</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>원딜/스킬2/범위공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원딜/스킬1/대미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>원서폿/일반</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>원서폿/스킬1/전체방어증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원서폿/스킬2/대미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>원힐/일반</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>원힐/스킬1/전체 공격 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원힐/스킬2/대미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/Left/SkillEffect_Normal_Fireball</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_BuffLight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>skill 12</t>
   </si>
   <si>
@@ -2247,6 +2078,70 @@
   </si>
   <si>
     <t>스킬 설명 15</t>
+  </si>
+  <si>
+    <t>탱/스킬2/나/힐(10%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탱/일반/근접공격/데미지(스킬 대미지 100%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탱/스킬1/근접공격/데미지(스킬 대미지 110%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근딜/일반 (스킬 대미지 100%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근딜/나/공버프 (20%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원딜/스킬1/대미지 (스킬 대미지 120%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원딜/스킬2/범위공격 (스킬 대미지 80%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원서폿/스킬1/전체방어증가 (10%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원서폿/스킬2/대미지 (스킬 대미지 120%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원힐/스킬1/전체 공격 증가 (10%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원힐/스킬2/대미지 (스킬 대미지 120%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Duration_Attack_Up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근딜/근접공격/공격(스킬 대미지 120%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Duration_Defense_Up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원딜/스킬2/대미지 (스킬 대미지 120%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원딜/대미지/공격력 감소(15%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2311,7 +2206,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2354,8 +2249,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -2389,13 +2290,359 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2429,9 +2676,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2462,15 +2706,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2480,8 +2715,218 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3786,6 +4231,28 @@
           </cell>
           <cell r="C12" t="str">
             <v>방어력 증가</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>ATK_DOWN</v>
+          </cell>
+          <cell r="B13">
+            <v>108</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>공격력 감소</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>DEF_DOWN</v>
+          </cell>
+          <cell r="B14">
+            <v>109</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>방어력 감소</v>
           </cell>
         </row>
       </sheetData>
@@ -4262,8 +4729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCF2545-5B22-48B7-AA3A-4E88E574D583}">
   <dimension ref="A1:AE77"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75:C77"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9:W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4456,15 +4923,15 @@
         <f>'[1]@effect'!$C4</f>
         <v>NONE</v>
       </c>
-      <c r="M3" s="16" t="str">
+      <c r="M3" s="15" t="str">
         <f>'[1]@target_type'!$A4</f>
         <v>MY_TEAM</v>
       </c>
-      <c r="N3" s="16">
+      <c r="N3" s="15">
         <f>'[1]@target_type'!$B4</f>
         <v>0</v>
       </c>
-      <c r="O3" s="16" t="str">
+      <c r="O3" s="15" t="str">
         <f>'[1]@target_type'!$C4</f>
         <v>아군</v>
       </c>
@@ -4554,15 +5021,15 @@
         <f>'[1]@effect'!$C5</f>
         <v>대미지 만큼 현재 체력 감소</v>
       </c>
-      <c r="M4" s="16" t="str">
+      <c r="M4" s="15" t="str">
         <f>'[1]@target_type'!$A5</f>
         <v>ENEMY_TEAM</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="15">
         <f>'[1]@target_type'!$B5</f>
         <v>1</v>
       </c>
-      <c r="O4" s="16" t="str">
+      <c r="O4" s="15" t="str">
         <f>'[1]@target_type'!$C5</f>
         <v>적군</v>
       </c>
@@ -5039,6 +5506,18 @@
         <f>'[1]@stat'!$C13</f>
         <v>회피율을 기준으로 계산을 하기 위한 수치</v>
       </c>
+      <c r="U12" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$A13</f>
+        <v>ATK_DOWN</v>
+      </c>
+      <c r="V12" s="4">
+        <f>'[1]@duration_effect_type'!$B13</f>
+        <v>108</v>
+      </c>
+      <c r="W12" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$C13</f>
+        <v>공격력 감소</v>
+      </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="str">
@@ -5064,6 +5543,18 @@
       <c r="G13" s="4" t="str">
         <f>'[1]@stat'!$C14</f>
         <v>피해량을 기준으로 계산을 하기 위한 수치</v>
+      </c>
+      <c r="U13" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$A14</f>
+        <v>DEF_DOWN</v>
+      </c>
+      <c r="V13" s="4">
+        <f>'[1]@duration_effect_type'!$B14</f>
+        <v>109</v>
+      </c>
+      <c r="W13" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$C14</f>
+        <v>방어력 감소</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
@@ -5970,10 +6461,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D77A34-98F9-4133-B549-FB86B9DF331B}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5989,30 +6480,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -6038,621 +6529,423 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="27">
+        <v>100001</v>
+      </c>
+      <c r="B5" s="53" t="str">
+        <f>VLOOKUP(A5,pc_skill_data!$B:$C,2,)</f>
+        <v>탱/일반/근접공격/데미지(스킬 대미지 100%)</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="54">
+        <v>2</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="53"/>
+      <c r="G5" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="33">
+        <v>100002</v>
+      </c>
+      <c r="B6" s="21" t="str">
+        <f>VLOOKUP(A6,pc_skill_data!$B:$C,2,)</f>
+        <v>탱/스킬1/근접공격/데미지(스킬 대미지 110%)</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="22">
+        <v>2</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="35">
+        <v>100003</v>
+      </c>
+      <c r="B7" s="57" t="str">
+        <f>VLOOKUP(A7,pc_skill_data!$B:$C,2,)</f>
+        <v>탱/스킬2/나/힐(10%)</v>
+      </c>
+      <c r="C7" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="20">
-        <v>100001</v>
-      </c>
-      <c r="B5" s="25" t="str">
-        <f>VLOOKUP(A5,pc_skill_data!$B:$C,2,)</f>
-        <v>탱/일반/근접공격/데미지</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="26">
+      <c r="D7" s="58">
         <v>2</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E7" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="57"/>
+      <c r="G7" s="59" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="27">
+        <v>100101</v>
+      </c>
+      <c r="B8" s="53" t="str">
+        <f>VLOOKUP(A8,pc_skill_data!$B:$C,2,)</f>
+        <v>근딜/일반 (스킬 대미지 100%)</v>
+      </c>
+      <c r="C8" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="20">
-        <v>100002</v>
-      </c>
-      <c r="B6" s="25" t="str">
-        <f>VLOOKUP(A6,pc_skill_data!$B:$C,2,)</f>
-        <v>탱/스킬1/근접공격/데미지</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="26">
+      <c r="D8" s="54">
         <v>2</v>
       </c>
-      <c r="E6" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="20">
-        <v>100003</v>
-      </c>
-      <c r="B7" s="25" t="str">
-        <f>VLOOKUP(A7,pc_skill_data!$B:$C,2,)</f>
-        <v>탱/스킬2/나/힐</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="26">
+      <c r="E8" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="53"/>
+      <c r="G8" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="33">
+        <v>100102</v>
+      </c>
+      <c r="B9" s="21" t="str">
+        <f>VLOOKUP(A9,pc_skill_data!$B:$C,2,)</f>
+        <v>근딜/근접공격/공격(스킬 대미지 120%)</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="22">
         <v>2</v>
       </c>
-      <c r="E7" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="20">
-        <v>100101</v>
-      </c>
-      <c r="B8" s="25" t="str">
-        <f>VLOOKUP(A8,pc_skill_data!$B:$C,2,)</f>
-        <v>근딜/일반</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="26">
-        <v>2</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="20">
-        <v>100102</v>
-      </c>
-      <c r="B9" s="25" t="str">
-        <f>VLOOKUP(A9,pc_skill_data!$B:$C,2,)</f>
-        <v>근딜/나/공버프</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="26">
-        <v>2</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="20">
+      <c r="E9" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="56" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="35">
         <v>100103</v>
       </c>
-      <c r="B10" s="25" t="str">
+      <c r="B10" s="57" t="str">
         <f>VLOOKUP(A10,pc_skill_data!$B:$C,2,)</f>
         <v>근딜/근접공격/대미지</v>
       </c>
-      <c r="C10" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="26">
+      <c r="C10" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="58">
         <v>2</v>
       </c>
-      <c r="E10" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25" t="s">
-        <v>54</v>
+      <c r="E10" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="F10" s="57"/>
+      <c r="G10" s="59" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="20">
+      <c r="A11" s="27">
         <v>100201</v>
       </c>
-      <c r="B11" s="25" t="str">
+      <c r="B11" s="53" t="str">
         <f>VLOOKUP(A11,pc_skill_data!$B:$C,2,)</f>
         <v>원딜/일반</v>
       </c>
-      <c r="C11" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11" s="26">
+      <c r="C11" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="54">
         <v>2</v>
       </c>
-      <c r="E11" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25" t="s">
-        <v>100</v>
+      <c r="E11" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" s="53"/>
+      <c r="G11" s="55" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="20">
+      <c r="A12" s="33">
         <v>100202</v>
       </c>
-      <c r="B12" s="25" t="str">
+      <c r="B12" s="21" t="str">
         <f>VLOOKUP(A12,pc_skill_data!$B:$C,2,)</f>
-        <v>원딜/스킬1/대미지</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="D12" s="26">
+        <v>원딜/스킬1/대미지 (스킬 대미지 120%)</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="22">
         <v>2</v>
       </c>
-      <c r="E12" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="20">
+      <c r="E12" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="35">
         <v>100203</v>
       </c>
-      <c r="B13" s="25" t="str">
+      <c r="B13" s="57" t="str">
         <f>VLOOKUP(A13,pc_skill_data!$B:$C,2,)</f>
-        <v>원딜/스킬2/범위공격</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13" s="26">
+        <v>원딜/스킬2/범위공격 (스킬 대미지 80%)</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="58">
         <v>2</v>
       </c>
-      <c r="E13" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25" t="s">
-        <v>100</v>
+      <c r="E13" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="57"/>
+      <c r="G13" s="59" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="20">
+      <c r="A14" s="27">
         <v>100301</v>
       </c>
-      <c r="B14" s="25" t="str">
+      <c r="B14" s="53" t="str">
         <f>VLOOKUP(A14,pc_skill_data!$B:$C,2,)</f>
         <v>원서폿/일반</v>
       </c>
-      <c r="C14" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="D14" s="26">
+      <c r="C14" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" s="54">
         <v>2</v>
       </c>
-      <c r="E14" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25" t="s">
-        <v>100</v>
+      <c r="E14" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" s="53"/>
+      <c r="G14" s="55" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="20">
+      <c r="A15" s="33">
         <v>100302</v>
       </c>
-      <c r="B15" s="25" t="str">
+      <c r="B15" s="21" t="str">
         <f>VLOOKUP(A15,pc_skill_data!$B:$C,2,)</f>
-        <v>원서폿/스킬1/전체방어증가</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="D15" s="26">
+        <v>원서폿/스킬1/전체방어증가 (10%)</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="22">
         <v>2</v>
       </c>
-      <c r="E15" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="20">
+      <c r="E15" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="56" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="33">
         <v>100303</v>
       </c>
-      <c r="B16" s="25" t="str">
+      <c r="B16" s="77" t="str">
         <f>VLOOKUP(A16,pc_skill_data!$B:$C,2,)</f>
-        <v>원서폿/스킬2/대미지</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="D16" s="26">
+        <v>원서폿/스킬2/대미지 (스킬 대미지 120%)</v>
+      </c>
+      <c r="C16" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="78">
         <v>2</v>
       </c>
-      <c r="E16" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25" t="s">
-        <v>100</v>
+      <c r="E16" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" s="77"/>
+      <c r="G16" s="79" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="20">
+      <c r="A17" s="42">
         <v>100401</v>
       </c>
-      <c r="B17" s="25" t="str">
+      <c r="B17" s="53" t="str">
         <f>VLOOKUP(A17,pc_skill_data!$B:$C,2,)</f>
         <v>원힐/일반</v>
       </c>
-      <c r="C17" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="D17" s="26">
+      <c r="C17" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" s="54">
         <v>2</v>
       </c>
-      <c r="E17" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25" t="s">
-        <v>100</v>
+      <c r="E17" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17" s="53"/>
+      <c r="G17" s="55" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="20">
+      <c r="A18" s="45">
         <v>100402</v>
       </c>
-      <c r="B18" s="25" t="str">
+      <c r="B18" s="21" t="str">
         <f>VLOOKUP(A18,pc_skill_data!$B:$C,2,)</f>
-        <v>원힐/스킬1/전체 공격 증가</v>
+        <v>원힐/스킬1/전체 공격 증가 (10%)</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="D18" s="7">
         <v>2</v>
       </c>
-      <c r="E18" s="25" t="s">
-        <v>169</v>
+      <c r="E18" s="21" t="s">
+        <v>136</v>
       </c>
       <c r="F18" s="4"/>
-      <c r="G18" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="20">
+      <c r="G18" s="80" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="47">
         <v>100403</v>
       </c>
-      <c r="B19" s="25" t="str">
+      <c r="B19" s="57" t="str">
         <f>VLOOKUP(A19,pc_skill_data!$B:$C,2,)</f>
-        <v>원힐/스킬2/대미지</v>
-      </c>
-      <c r="C19" s="4" t="s">
+        <v>원힐/스킬2/대미지 (스킬 대미지 120%)</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="E19" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="7">
+      <c r="F19" s="48"/>
+      <c r="G19" s="81" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="42">
+        <v>100501</v>
+      </c>
+      <c r="B20" s="53" t="str">
+        <f>VLOOKUP(A20,pc_skill_data!$B:$C,2,)</f>
+        <v>원딜/일반</v>
+      </c>
+      <c r="C20" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="54">
+        <v>2</v>
+      </c>
+      <c r="E20" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" s="53"/>
+      <c r="G20" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="45">
+        <v>100502</v>
+      </c>
+      <c r="B21" s="21" t="str">
+        <f>VLOOKUP(A21,pc_skill_data!$B:$C,2,)</f>
+        <v>원딜/대미지/공격력 감소(15%)</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" s="7">
+        <v>2</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="47">
+        <v>100503</v>
+      </c>
+      <c r="B22" s="57" t="str">
+        <f>VLOOKUP(A22,pc_skill_data!$B:$C,2,)</f>
+        <v>원딜/스킬2/대미지 (스킬 대미지 120%)</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" s="37">
         <v>2.5</v>
       </c>
-      <c r="E19" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
-        <v>200003</v>
-      </c>
-      <c r="B20" s="25" t="str">
-        <f>VLOOKUP(A20,pc_skill_data!$B:$C,2,)</f>
-        <v>나/범위/근접공격/데미지</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <v>200004</v>
-      </c>
-      <c r="B21" s="25" t="str">
-        <f>VLOOKUP(A21,pc_skill_data!$B:$C,2,)</f>
-        <v>나/범위/근접공격/데미지</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
-        <v>200005</v>
-      </c>
-      <c r="B22" s="25" t="str">
-        <f>VLOOKUP(A22,pc_skill_data!$B:$C,2,)</f>
-        <v>나/타겟/나/피해감소</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D22" s="7">
-        <v>2</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
-        <v>200006</v>
-      </c>
-      <c r="B23" s="25" t="str">
-        <f>VLOOKUP(A23,pc_skill_data!$B:$C,2,)</f>
-        <v>나/범위/근접공격/데미지</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D23" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
-        <v>200007</v>
-      </c>
-      <c r="B24" s="25" t="str">
-        <f>VLOOKUP(A24,pc_skill_data!$B:$C,2,)</f>
-        <v>나/회복</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D24" s="7">
-        <v>2</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
-        <v>200008</v>
-      </c>
-      <c r="B25" s="25" t="str">
-        <f>VLOOKUP(A25,pc_skill_data!$B:$C,2,)</f>
-        <v>가까운아군/회복</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D25" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
-        <v>200009</v>
-      </c>
-      <c r="B26" s="25" t="str">
-        <f>VLOOKUP(A26,pc_skill_data!$B:$C,2,)</f>
-        <v>가까운적/원거리공격/데미지</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D26" s="7">
-        <v>2</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
-        <v>200010</v>
-      </c>
-      <c r="B27" s="25" t="str">
-        <f>VLOOKUP(A27,pc_skill_data!$B:$C,2,)</f>
-        <v>적진영 중앙/데미지/다수공격</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D27" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
-        <v>200011</v>
-      </c>
-      <c r="B28" s="25" t="str">
-        <f>VLOOKUP(A28,pc_skill_data!$B:$C,2,)</f>
-        <v>가까운적/원거리공격/데미지</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D28" s="7">
-        <v>2</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
-        <v>200012</v>
-      </c>
-      <c r="B29" s="25" t="str">
-        <f>VLOOKUP(A29,pc_skill_data!$B:$C,2,)</f>
-        <v>가까운적/다수공격/원거리공격/데미지</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D29" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
-        <v>200013</v>
-      </c>
-      <c r="B30" s="25" t="str">
-        <f>VLOOKUP(A30,pc_skill_data!$B:$C,2,)</f>
-        <v>가까운적/원거리공격/데미지</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D30" s="7">
-        <v>2</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
-        <v>200014</v>
-      </c>
-      <c r="B31" s="25" t="str">
-        <f>VLOOKUP(A31,pc_skill_data!$B:$C,2,)</f>
-        <v>아군 전체/피해감소</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D31" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4" t="s">
-        <v>101</v>
+      <c r="E22" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="F22" s="48"/>
+      <c r="G22" s="81" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -6663,21 +6956,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00F7AA3-FB12-454D-93A6-31450B9003EC}">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="D3" sqref="D3"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M30" sqref="M30"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.625" customWidth="1"/>
+    <col min="3" max="3" width="41.75" customWidth="1"/>
     <col min="4" max="4" width="12.125" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="6" width="59" style="9" customWidth="1"/>
@@ -6696,7 +6989,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -6722,7 +7015,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
@@ -6737,1899 +7030,1170 @@
         <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="14" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="M4" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N4" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" s="15" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="13" t="s">
+      <c r="O4" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="P4" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="J3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="P3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>106</v>
+      <c r="Q4" s="24" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="20">
+      <c r="A5" s="27">
         <v>100001</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="28">
         <v>100001</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="D5" s="20">
+      <c r="C5" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="28">
         <v>1</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="28">
         <v>6</v>
       </c>
-      <c r="F5" s="12" t="str">
+      <c r="F5" s="87" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E5,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
-      <c r="G5" s="20">
-        <v>0</v>
-      </c>
-      <c r="H5" s="20">
+      <c r="G5" s="28">
+        <v>0</v>
+      </c>
+      <c r="H5" s="28">
         <v>1</v>
       </c>
-      <c r="I5" s="20">
-        <v>0</v>
-      </c>
-      <c r="J5" s="21" t="str">
+      <c r="I5" s="28">
+        <v>0</v>
+      </c>
+      <c r="J5" s="30" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I5,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>NONE</v>
       </c>
-      <c r="K5" s="20">
-        <v>0</v>
-      </c>
-      <c r="L5" s="20">
+      <c r="K5" s="28">
+        <v>0</v>
+      </c>
+      <c r="L5" s="28">
         <v>100</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="31">
         <v>100001</v>
       </c>
+      <c r="N5" s="31">
+        <v>0</v>
+      </c>
+      <c r="O5" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="32">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="20">
+      <c r="A6" s="33">
         <v>100002</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="19">
         <v>100002</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D6" s="20">
+        <v>149</v>
+      </c>
+      <c r="D6" s="19">
         <v>1</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="19">
         <v>6</v>
       </c>
-      <c r="F6" s="12" t="str">
+      <c r="F6" s="88" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E6,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
-      <c r="G6" s="20">
-        <v>0</v>
-      </c>
-      <c r="H6" s="20">
+      <c r="G6" s="19">
+        <v>0</v>
+      </c>
+      <c r="H6" s="19">
         <v>1</v>
       </c>
-      <c r="I6" s="20">
-        <v>0</v>
-      </c>
-      <c r="J6" s="21" t="str">
+      <c r="I6" s="19">
+        <v>0</v>
+      </c>
+      <c r="J6" s="20" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I6,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>NONE</v>
       </c>
-      <c r="K6" s="20">
-        <v>0</v>
-      </c>
-      <c r="L6" s="20">
+      <c r="K6" s="19">
+        <v>0</v>
+      </c>
+      <c r="L6" s="19">
         <v>100</v>
       </c>
       <c r="M6">
         <v>100002</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="20">
+      <c r="N6" s="50">
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q6" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="35">
         <v>100003</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="36">
         <v>100003</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D7" s="20">
-        <v>0</v>
-      </c>
-      <c r="E7" s="20">
+      <c r="C7" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="36">
+        <v>0</v>
+      </c>
+      <c r="E7" s="36">
         <v>1</v>
       </c>
-      <c r="F7" s="12" t="str">
+      <c r="F7" s="89" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E7,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>자신 선택</v>
       </c>
-      <c r="G7" s="20">
-        <v>0</v>
-      </c>
-      <c r="H7" s="20">
+      <c r="G7" s="36">
+        <v>0</v>
+      </c>
+      <c r="H7" s="36">
         <v>1</v>
       </c>
-      <c r="I7" s="20">
-        <v>0</v>
-      </c>
-      <c r="J7" s="21" t="str">
+      <c r="I7" s="36">
+        <v>0</v>
+      </c>
+      <c r="J7" s="38" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I7,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>NONE</v>
       </c>
-      <c r="K7" s="20">
-        <v>0</v>
-      </c>
-      <c r="L7" s="20">
+      <c r="K7" s="36">
+        <v>0</v>
+      </c>
+      <c r="L7" s="36">
         <v>100</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="39">
         <v>100003</v>
       </c>
-      <c r="P7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q7">
+      <c r="N7" s="39">
+        <v>0</v>
+      </c>
+      <c r="O7" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="27">
+        <v>100101</v>
+      </c>
+      <c r="B8" s="28">
+        <v>100101</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="28">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="20">
-        <v>100101</v>
-      </c>
-      <c r="B8" s="20">
-        <v>100101</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="D8" s="20">
-        <v>1</v>
-      </c>
-      <c r="E8" s="20">
+      <c r="E8" s="28">
         <v>6</v>
       </c>
-      <c r="F8" s="12" t="str">
+      <c r="F8" s="87" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E8,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
-      <c r="G8" s="20">
-        <v>0</v>
-      </c>
-      <c r="H8" s="20">
+      <c r="G8" s="28">
+        <v>0</v>
+      </c>
+      <c r="H8" s="28">
         <v>1</v>
       </c>
-      <c r="I8" s="20">
-        <v>0</v>
-      </c>
-      <c r="J8" s="21" t="str">
+      <c r="I8" s="28">
+        <v>0</v>
+      </c>
+      <c r="J8" s="30" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I8,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>NONE</v>
       </c>
-      <c r="K8" s="20">
-        <v>0</v>
-      </c>
-      <c r="L8" s="20">
-        <v>100</v>
-      </c>
-      <c r="M8">
+      <c r="K8" s="28">
+        <v>0</v>
+      </c>
+      <c r="L8" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="M8" s="31">
         <v>100004</v>
       </c>
+      <c r="N8" s="31">
+        <v>0</v>
+      </c>
+      <c r="O8" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="32">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="20">
+      <c r="A9" s="33">
         <v>100102</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="19">
         <v>100102</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D9" s="20">
-        <v>0</v>
-      </c>
-      <c r="E9" s="20">
+        <v>159</v>
+      </c>
+      <c r="D9" s="19">
         <v>1</v>
       </c>
-      <c r="F9" s="12" t="str">
+      <c r="E9" s="19">
+        <v>6</v>
+      </c>
+      <c r="F9" s="88" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E9,'!참조_ENUM'!$B$3:$B$77,0))</f>
-        <v>자신 선택</v>
-      </c>
-      <c r="G9" s="20">
-        <v>0</v>
-      </c>
-      <c r="H9" s="20">
+        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
+      </c>
+      <c r="G9" s="19">
+        <v>0</v>
+      </c>
+      <c r="H9" s="19">
         <v>1</v>
       </c>
-      <c r="I9" s="20">
-        <v>0</v>
-      </c>
-      <c r="J9" s="21" t="str">
+      <c r="I9" s="19">
+        <v>0</v>
+      </c>
+      <c r="J9" s="20" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I9,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>NONE</v>
       </c>
-      <c r="K9" s="20">
-        <v>0</v>
-      </c>
-      <c r="L9" s="20">
+      <c r="K9" s="19">
+        <v>0</v>
+      </c>
+      <c r="L9" s="19">
         <v>100</v>
       </c>
       <c r="M9">
         <v>100005</v>
       </c>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q9" s="34">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="20">
+      <c r="A10" s="33">
         <v>100103</v>
       </c>
-      <c r="B10" s="20">
-        <v>100103</v>
+      <c r="B10" s="19">
+        <v>100102</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="D10" s="20">
+        <v>151</v>
+      </c>
+      <c r="D10" s="19">
+        <v>0</v>
+      </c>
+      <c r="E10" s="19">
         <v>1</v>
       </c>
-      <c r="E10" s="20">
-        <v>6</v>
-      </c>
-      <c r="F10" s="12" t="str">
+      <c r="F10" s="88" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E10,'!참조_ENUM'!$B$3:$B$77,0))</f>
-        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
-      </c>
-      <c r="G10" s="20">
-        <v>0</v>
-      </c>
-      <c r="H10" s="20">
+        <v>자신 선택</v>
+      </c>
+      <c r="G10" s="19">
+        <v>0</v>
+      </c>
+      <c r="H10" s="19">
         <v>1</v>
       </c>
-      <c r="I10" s="20">
-        <v>0</v>
-      </c>
-      <c r="J10" s="21" t="str">
+      <c r="I10" s="19">
+        <v>0</v>
+      </c>
+      <c r="J10" s="20" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I10,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>NONE</v>
       </c>
-      <c r="K10" s="20">
-        <v>0</v>
-      </c>
-      <c r="L10" s="20">
+      <c r="K10" s="19">
+        <v>0</v>
+      </c>
+      <c r="L10" s="19">
         <v>100</v>
       </c>
       <c r="M10">
-        <v>100006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="20">
-        <v>100201</v>
-      </c>
-      <c r="B11" s="20">
-        <v>100201</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D11" s="20">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <v>500002</v>
+      </c>
+      <c r="O10" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q10" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="33">
+        <v>100104</v>
+      </c>
+      <c r="B11" s="19">
+        <v>100103</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="19">
         <v>1</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="19">
         <v>6</v>
       </c>
-      <c r="F11" s="12" t="str">
+      <c r="F11" s="90" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E11,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
-      <c r="G11" s="20">
-        <v>0</v>
-      </c>
-      <c r="H11" s="20">
+      <c r="G11" s="19">
+        <v>0</v>
+      </c>
+      <c r="H11" s="19">
         <v>1</v>
       </c>
-      <c r="I11" s="20">
-        <v>2</v>
-      </c>
-      <c r="J11" s="21" t="str">
+      <c r="I11" s="19">
+        <v>0</v>
+      </c>
+      <c r="J11" s="61" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I11,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>투사체를 타겟의 몸에 던진다</v>
-      </c>
-      <c r="K11" s="20">
-        <v>0</v>
-      </c>
-      <c r="L11" s="20">
-        <v>100</v>
-      </c>
-      <c r="M11">
-        <v>100007</v>
-      </c>
-      <c r="P11" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q11" s="21">
-        <v>0.3</v>
+        <v>NONE</v>
+      </c>
+      <c r="K11" s="19">
+        <v>0</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="M11" s="62">
+        <v>100006</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q11" s="34">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="20">
-        <v>100202</v>
-      </c>
-      <c r="B12" s="20">
-        <v>100202</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="D12" s="20">
+      <c r="A12" s="63">
+        <v>100201</v>
+      </c>
+      <c r="B12" s="64">
+        <v>100201</v>
+      </c>
+      <c r="C12" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="64">
         <v>1</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="64">
         <v>6</v>
       </c>
-      <c r="F12" s="12" t="str">
+      <c r="F12" s="91" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E12,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
-      <c r="G12" s="20">
-        <v>0</v>
-      </c>
-      <c r="H12" s="20">
+      <c r="G12" s="64">
+        <v>0</v>
+      </c>
+      <c r="H12" s="64">
         <v>1</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="64">
         <v>2</v>
       </c>
-      <c r="J12" s="21" t="str">
+      <c r="J12" s="65" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I12,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>투사체를 타겟의 몸에 던진다</v>
       </c>
-      <c r="K12" s="20">
-        <v>0</v>
-      </c>
-      <c r="L12" s="20">
+      <c r="K12" s="64">
+        <v>0</v>
+      </c>
+      <c r="L12" s="64">
         <v>100</v>
       </c>
-      <c r="M12">
-        <v>100008</v>
-      </c>
-      <c r="P12" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q12" s="21">
+      <c r="M12" s="31">
+        <v>100007</v>
+      </c>
+      <c r="N12" s="31">
+        <v>0</v>
+      </c>
+      <c r="O12" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="P12" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q12" s="66">
         <v>0.3</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="20">
-        <v>100203</v>
-      </c>
-      <c r="B13" s="20">
-        <v>100203</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D13" s="20">
+      <c r="A13" s="67">
+        <v>100202</v>
+      </c>
+      <c r="B13" s="6">
+        <v>100202</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="6">
         <v>1</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="6">
         <v>6</v>
       </c>
-      <c r="F13" s="12" t="str">
+      <c r="F13" s="92" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E13,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
-      <c r="G13" s="20">
-        <v>0</v>
-      </c>
-      <c r="H13" s="20">
-        <v>3</v>
-      </c>
-      <c r="I13" s="20">
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>1</v>
+      </c>
+      <c r="I13" s="6">
         <v>2</v>
       </c>
-      <c r="J13" s="21" t="str">
+      <c r="J13" s="23" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I13,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>투사체를 타겟의 몸에 던진다</v>
       </c>
-      <c r="K13" s="20">
-        <v>0</v>
-      </c>
-      <c r="L13" s="20">
+      <c r="K13" s="6">
+        <v>0</v>
+      </c>
+      <c r="L13" s="6">
         <v>100</v>
       </c>
       <c r="M13">
-        <v>100001</v>
+        <v>100008</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" t="s">
+        <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q13" s="21">
+        <v>122</v>
+      </c>
+      <c r="Q13" s="68">
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="20">
-        <v>100301</v>
-      </c>
-      <c r="B14" s="20">
-        <v>100301</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="D14" s="20">
+    <row r="14" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="69">
+        <v>100203</v>
+      </c>
+      <c r="B14" s="70">
+        <v>100203</v>
+      </c>
+      <c r="C14" s="70" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" s="70">
         <v>1</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="70">
         <v>6</v>
       </c>
-      <c r="F14" s="12" t="str">
+      <c r="F14" s="93" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E14,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
-      <c r="G14" s="20">
-        <v>0</v>
-      </c>
-      <c r="H14" s="20">
-        <v>1</v>
-      </c>
-      <c r="I14" s="20">
+      <c r="G14" s="70">
+        <v>0</v>
+      </c>
+      <c r="H14" s="70">
+        <v>3</v>
+      </c>
+      <c r="I14" s="70">
         <v>2</v>
       </c>
-      <c r="J14" s="21" t="str">
+      <c r="J14" s="71" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I14,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>투사체를 타겟의 몸에 던진다</v>
       </c>
-      <c r="K14" s="20">
-        <v>0</v>
-      </c>
-      <c r="L14" s="20">
+      <c r="K14" s="70">
+        <v>0</v>
+      </c>
+      <c r="L14" s="70">
         <v>100</v>
       </c>
-      <c r="M14">
-        <v>100001</v>
-      </c>
-      <c r="P14" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q14" s="21">
+      <c r="M14" s="39">
+        <v>100009</v>
+      </c>
+      <c r="N14" s="39">
+        <v>0</v>
+      </c>
+      <c r="O14" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="P14" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q14" s="72">
         <v>0.3</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="20">
-        <v>100302</v>
-      </c>
-      <c r="B15" s="20">
-        <v>100302</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="D15" s="20">
-        <v>0</v>
-      </c>
-      <c r="E15" s="20">
+      <c r="A15" s="27">
+        <v>100301</v>
+      </c>
+      <c r="B15" s="28">
+        <v>100301</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="28">
+        <v>1</v>
+      </c>
+      <c r="E15" s="28">
         <v>6</v>
       </c>
-      <c r="F15" s="12" t="str">
+      <c r="F15" s="87" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E15,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
-      <c r="G15" s="20">
-        <v>0</v>
-      </c>
-      <c r="H15" s="20">
+      <c r="G15" s="28">
+        <v>0</v>
+      </c>
+      <c r="H15" s="28">
         <v>1</v>
       </c>
-      <c r="I15" s="20">
-        <v>0</v>
-      </c>
-      <c r="J15" s="21" t="str">
+      <c r="I15" s="28">
+        <v>2</v>
+      </c>
+      <c r="J15" s="30" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I15,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="K15" s="20">
-        <v>0</v>
-      </c>
-      <c r="L15" s="20">
+        <v>투사체를 타겟의 몸에 던진다</v>
+      </c>
+      <c r="K15" s="28">
+        <v>0</v>
+      </c>
+      <c r="L15" s="28">
         <v>100</v>
       </c>
-      <c r="M15">
-        <v>100001</v>
-      </c>
-      <c r="P15" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q15" s="27">
-        <v>1</v>
+      <c r="M15" s="31">
+        <v>100010</v>
+      </c>
+      <c r="N15" s="51">
+        <v>0</v>
+      </c>
+      <c r="O15" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="P15" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q15" s="73">
+        <v>0.3</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="20">
-        <v>100303</v>
-      </c>
-      <c r="B16" s="20">
-        <v>100303</v>
+      <c r="A16" s="33">
+        <v>100302</v>
+      </c>
+      <c r="B16" s="19">
+        <v>100302</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="D16" s="20">
-        <v>1</v>
-      </c>
-      <c r="E16" s="20">
-        <v>6</v>
-      </c>
-      <c r="F16" s="12" t="str">
+        <v>154</v>
+      </c>
+      <c r="D16" s="19">
+        <v>0</v>
+      </c>
+      <c r="E16" s="19">
+        <v>2</v>
+      </c>
+      <c r="F16" s="88" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E16,'!참조_ENUM'!$B$3:$B$77,0))</f>
-        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
-      </c>
-      <c r="G16" s="20">
-        <v>0</v>
-      </c>
-      <c r="H16" s="20">
-        <v>1</v>
-      </c>
-      <c r="I16" s="20">
+        <v>전체 선택</v>
+      </c>
+      <c r="G16" s="19">
+        <v>0</v>
+      </c>
+      <c r="H16" s="19">
+        <v>5</v>
+      </c>
+      <c r="I16" s="19">
         <v>2</v>
       </c>
-      <c r="J16" s="21" t="str">
+      <c r="J16" s="20" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I16,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>투사체를 타겟의 몸에 던진다</v>
       </c>
-      <c r="K16" s="20">
-        <v>0</v>
-      </c>
-      <c r="L16" s="20">
+      <c r="K16" s="19">
+        <v>0</v>
+      </c>
+      <c r="L16" s="19">
         <v>100</v>
       </c>
       <c r="M16">
-        <v>100001</v>
+        <v>0</v>
+      </c>
+      <c r="N16" s="50">
+        <v>500003</v>
+      </c>
+      <c r="O16" t="s">
+        <v>121</v>
       </c>
       <c r="P16" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q16" s="21">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="20">
-        <v>100401</v>
-      </c>
-      <c r="B17" s="20">
-        <v>100401</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="D17" s="20">
+        <v>123</v>
+      </c>
+      <c r="Q16" s="68">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="35">
+        <v>100303</v>
+      </c>
+      <c r="B17" s="36">
+        <v>100303</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" s="36">
         <v>1</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="36">
         <v>6</v>
       </c>
-      <c r="F17" s="12" t="str">
+      <c r="F17" s="89" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E17,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
-      <c r="G17" s="20">
-        <v>0</v>
-      </c>
-      <c r="H17" s="20">
+      <c r="G17" s="36">
+        <v>0</v>
+      </c>
+      <c r="H17" s="36">
         <v>1</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="36">
         <v>2</v>
       </c>
-      <c r="J17" s="21" t="str">
+      <c r="J17" s="38" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I17,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>투사체를 타겟의 몸에 던진다</v>
       </c>
-      <c r="K17" s="20">
-        <v>0</v>
-      </c>
-      <c r="L17" s="20">
+      <c r="K17" s="36">
+        <v>0</v>
+      </c>
+      <c r="L17" s="36">
         <v>100</v>
       </c>
-      <c r="M17">
-        <v>100001</v>
-      </c>
-      <c r="P17" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q17" s="21">
+      <c r="M17" s="39">
+        <v>100011</v>
+      </c>
+      <c r="N17" s="52">
+        <v>0</v>
+      </c>
+      <c r="O17" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="P17" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q17" s="74">
         <v>0.3</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="20">
-        <v>100402</v>
-      </c>
-      <c r="B18" s="20">
-        <v>100402</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="D18" s="20">
-        <v>0</v>
-      </c>
-      <c r="E18" s="20">
+      <c r="A18" s="19">
+        <v>100401</v>
+      </c>
+      <c r="B18" s="19">
+        <v>100401</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="19">
+        <v>1</v>
+      </c>
+      <c r="E18" s="19">
         <v>6</v>
       </c>
-      <c r="F18" s="12" t="str">
+      <c r="F18" s="94" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E18,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
-      <c r="G18" s="20">
-        <v>0</v>
-      </c>
-      <c r="H18" s="20">
+      <c r="G18" s="19">
+        <v>0</v>
+      </c>
+      <c r="H18" s="19">
         <v>1</v>
       </c>
-      <c r="I18" s="20">
-        <v>0</v>
-      </c>
-      <c r="J18" s="21" t="str">
+      <c r="I18" s="19">
+        <v>2</v>
+      </c>
+      <c r="J18" s="26" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I18,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="K18" s="20">
-        <v>0</v>
-      </c>
-      <c r="L18" s="20">
+        <v>투사체를 타겟의 몸에 던진다</v>
+      </c>
+      <c r="K18" s="19">
+        <v>0</v>
+      </c>
+      <c r="L18" s="19">
         <v>100</v>
       </c>
-      <c r="M18">
-        <v>100001</v>
+      <c r="M18" s="50">
+        <v>100012</v>
+      </c>
+      <c r="N18" s="50">
+        <v>0</v>
+      </c>
+      <c r="O18" t="s">
+        <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q18" s="27">
-        <v>1</v>
+        <v>122</v>
+      </c>
+      <c r="Q18" s="26">
+        <v>0.3</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="20">
-        <v>100403</v>
-      </c>
-      <c r="B19" s="20">
-        <v>100403</v>
+      <c r="A19" s="19">
+        <v>100402</v>
+      </c>
+      <c r="B19" s="19">
+        <v>100402</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="D19" s="20">
-        <v>1</v>
-      </c>
-      <c r="E19" s="20">
-        <v>6</v>
-      </c>
-      <c r="F19" s="12" t="str">
+        <v>156</v>
+      </c>
+      <c r="D19" s="19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="19">
+        <v>2</v>
+      </c>
+      <c r="F19" s="88" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E19,'!참조_ENUM'!$B$3:$B$77,0))</f>
-        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
-      </c>
-      <c r="G19" s="20">
-        <v>0</v>
-      </c>
-      <c r="H19" s="20">
-        <v>1</v>
-      </c>
-      <c r="I19" s="20">
+        <v>전체 선택</v>
+      </c>
+      <c r="G19" s="19">
+        <v>0</v>
+      </c>
+      <c r="H19" s="19">
+        <v>5</v>
+      </c>
+      <c r="I19" s="19">
         <v>2</v>
       </c>
-      <c r="J19" s="21" t="str">
+      <c r="J19" s="20" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I19,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>투사체를 타겟의 몸에 던진다</v>
       </c>
-      <c r="K19" s="20">
-        <v>0</v>
-      </c>
-      <c r="L19" s="20">
+      <c r="K19" s="19">
+        <v>0</v>
+      </c>
+      <c r="L19" s="19">
         <v>100</v>
       </c>
       <c r="M19">
-        <v>100001</v>
+        <v>0</v>
+      </c>
+      <c r="N19" s="50">
+        <v>500004</v>
+      </c>
+      <c r="O19" t="s">
+        <v>121</v>
       </c>
       <c r="P19" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q19" s="21">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21">
-        <v>200001</v>
-      </c>
-      <c r="B20" s="21">
-        <v>200001</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="D20" s="21">
+        <v>123</v>
+      </c>
+      <c r="Q19" s="23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="19">
+        <v>100403</v>
+      </c>
+      <c r="B20" s="19">
+        <v>100403</v>
+      </c>
+      <c r="C20" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="D20" s="19">
         <v>1</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="19">
         <v>6</v>
       </c>
-      <c r="F20" s="22" t="str">
+      <c r="F20" s="90" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E20,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
-      <c r="G20" s="21">
-        <v>0</v>
-      </c>
-      <c r="H20" s="21">
+      <c r="G20" s="19">
+        <v>0</v>
+      </c>
+      <c r="H20" s="19">
         <v>1</v>
       </c>
-      <c r="I20" s="21">
-        <v>0</v>
-      </c>
-      <c r="J20" s="21" t="str">
+      <c r="I20" s="19">
+        <v>2</v>
+      </c>
+      <c r="J20" s="61" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I20,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="K20" s="21">
-        <v>0</v>
-      </c>
-      <c r="L20" s="21">
+        <v>투사체를 타겟의 몸에 던진다</v>
+      </c>
+      <c r="K20" s="19">
+        <v>0</v>
+      </c>
+      <c r="L20" s="19">
         <v>100</v>
       </c>
-      <c r="M20" s="21">
-        <v>100001</v>
-      </c>
-      <c r="N20" s="21">
-        <v>0</v>
-      </c>
-      <c r="O20" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="21">
-        <v>200002</v>
-      </c>
-      <c r="B21" s="21">
-        <v>200002</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="D21" s="21">
+      <c r="M20" s="50">
+        <v>100013</v>
+      </c>
+      <c r="N20" s="50">
+        <v>0</v>
+      </c>
+      <c r="O20" t="s">
+        <v>90</v>
+      </c>
+      <c r="P20" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="61">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="42">
+        <v>100501</v>
+      </c>
+      <c r="B21" s="29">
+        <v>100501</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="29">
         <v>1</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="29">
         <v>6</v>
       </c>
-      <c r="F21" s="22" t="str">
+      <c r="F21" s="87" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E21,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
-      <c r="G21" s="21">
-        <v>0</v>
-      </c>
-      <c r="H21" s="21">
+      <c r="G21" s="29">
+        <v>0</v>
+      </c>
+      <c r="H21" s="29">
         <v>1</v>
       </c>
-      <c r="I21" s="21">
-        <v>0</v>
-      </c>
-      <c r="J21" s="21" t="str">
+      <c r="I21" s="29">
+        <v>2</v>
+      </c>
+      <c r="J21" s="30" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I21,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="K21" s="21">
-        <v>0</v>
-      </c>
-      <c r="L21" s="21">
+        <v>투사체를 타겟의 몸에 던진다</v>
+      </c>
+      <c r="K21" s="29">
+        <v>0</v>
+      </c>
+      <c r="L21" s="29">
         <v>100</v>
       </c>
-      <c r="M21" s="21">
-        <v>100001</v>
-      </c>
-      <c r="N21" s="21">
-        <v>0</v>
-      </c>
-      <c r="O21" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="21">
-        <v>200003</v>
-      </c>
-      <c r="B22" s="21">
-        <v>200003</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="D22" s="21">
+      <c r="M21" s="43">
+        <v>100014</v>
+      </c>
+      <c r="N21" s="43">
+        <v>0</v>
+      </c>
+      <c r="O21" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="P21" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q21" s="73">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="45">
+        <v>100502</v>
+      </c>
+      <c r="B22" s="7">
+        <v>100502</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D22" s="7">
         <v>1</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="7">
         <v>6</v>
       </c>
-      <c r="F22" s="22" t="str">
+      <c r="F22" s="88" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E22,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
-      <c r="G22" s="21">
-        <v>0</v>
-      </c>
-      <c r="H22" s="21">
+      <c r="G22" s="7">
+        <v>0</v>
+      </c>
+      <c r="H22" s="7">
         <v>1</v>
       </c>
-      <c r="I22" s="21">
-        <v>0</v>
-      </c>
-      <c r="J22" s="21" t="str">
+      <c r="I22" s="7">
+        <v>2</v>
+      </c>
+      <c r="J22" s="20" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I22,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="K22" s="21">
-        <v>0</v>
-      </c>
-      <c r="L22" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="M22" s="21">
-        <v>100001</v>
-      </c>
-      <c r="N22" s="21">
-        <v>0</v>
-      </c>
-      <c r="O22" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21">
-        <v>200004</v>
-      </c>
-      <c r="B23" s="21">
-        <v>200004</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="D23" s="21">
+        <v>투사체를 타겟의 몸에 던진다</v>
+      </c>
+      <c r="K22" s="7">
+        <v>0</v>
+      </c>
+      <c r="L22" s="7">
+        <v>100</v>
+      </c>
+      <c r="M22" s="43">
+        <v>100014</v>
+      </c>
+      <c r="N22" s="4">
+        <v>500005</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="P22" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q22" s="82">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="47">
+        <v>100503</v>
+      </c>
+      <c r="B23" s="37">
+        <v>100503</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23" s="37">
         <v>1</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="37">
         <v>6</v>
       </c>
-      <c r="F23" s="22" t="str">
+      <c r="F23" s="89" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E23,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
-      <c r="G23" s="21">
-        <v>0</v>
-      </c>
-      <c r="H23" s="21">
+      <c r="G23" s="37">
+        <v>0</v>
+      </c>
+      <c r="H23" s="37">
         <v>1</v>
       </c>
-      <c r="I23" s="21">
-        <v>0</v>
-      </c>
-      <c r="J23" s="21" t="str">
+      <c r="I23" s="37">
+        <v>2</v>
+      </c>
+      <c r="J23" s="38" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I23,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="K23" s="21">
-        <v>0</v>
-      </c>
-      <c r="L23" s="21">
+        <v>투사체를 타겟의 몸에 던진다</v>
+      </c>
+      <c r="K23" s="37">
+        <v>0</v>
+      </c>
+      <c r="L23" s="37">
         <v>100</v>
       </c>
-      <c r="M23" s="21">
-        <v>100001</v>
-      </c>
-      <c r="N23" s="21">
-        <v>0</v>
-      </c>
-      <c r="O23" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="21">
-        <v>200005</v>
-      </c>
-      <c r="B24" s="21">
-        <v>200005</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="21">
-        <v>1</v>
-      </c>
-      <c r="E24" s="21">
-        <v>6</v>
-      </c>
-      <c r="F24" s="22" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E24,'!참조_ENUM'!$B$3:$B$77,0))</f>
-        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
-      </c>
-      <c r="G24" s="21">
-        <v>0</v>
-      </c>
-      <c r="H24" s="21">
-        <v>1</v>
-      </c>
-      <c r="I24" s="21">
-        <v>0</v>
-      </c>
-      <c r="J24" s="21" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I24,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="K24" s="21">
-        <v>0</v>
-      </c>
-      <c r="L24" s="21">
-        <v>100</v>
-      </c>
-      <c r="M24" s="21">
-        <v>100001</v>
-      </c>
-      <c r="N24" s="21">
-        <v>0</v>
-      </c>
-      <c r="O24" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="21">
-        <v>200006</v>
-      </c>
-      <c r="B25" s="21">
-        <v>200006</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="D25" s="21">
-        <v>1</v>
-      </c>
-      <c r="E25" s="21">
-        <v>6</v>
-      </c>
-      <c r="F25" s="22" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E25,'!참조_ENUM'!$B$3:$B$77,0))</f>
-        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
-      </c>
-      <c r="G25" s="21">
-        <v>0</v>
-      </c>
-      <c r="H25" s="21">
-        <v>1</v>
-      </c>
-      <c r="I25" s="21">
-        <v>0</v>
-      </c>
-      <c r="J25" s="21" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I25,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="K25" s="21">
-        <v>0</v>
-      </c>
-      <c r="L25" s="21">
-        <v>100</v>
-      </c>
-      <c r="M25" s="21">
-        <v>100001</v>
-      </c>
-      <c r="N25" s="21">
-        <v>0</v>
-      </c>
-      <c r="O25" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="21">
-        <v>200007</v>
-      </c>
-      <c r="B26" s="21">
-        <v>200007</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="D26" s="21">
-        <v>0</v>
-      </c>
-      <c r="E26" s="21">
-        <v>1</v>
-      </c>
-      <c r="F26" s="22" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E26,'!참조_ENUM'!$B$3:$B$77,0))</f>
-        <v>자신 선택</v>
-      </c>
-      <c r="G26" s="21">
-        <v>0</v>
-      </c>
-      <c r="H26" s="21">
-        <v>1</v>
-      </c>
-      <c r="I26" s="21">
-        <v>0</v>
-      </c>
-      <c r="J26" s="21" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I26,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="K26" s="21">
-        <v>0</v>
-      </c>
-      <c r="L26" s="21">
-        <v>100</v>
-      </c>
-      <c r="M26" s="21">
-        <v>100002</v>
-      </c>
-      <c r="N26" s="21">
-        <v>0</v>
-      </c>
-      <c r="O26" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="21">
-        <v>200008</v>
-      </c>
-      <c r="B27" s="21">
-        <v>200007</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="D27" s="21">
-        <v>1</v>
-      </c>
-      <c r="E27" s="21">
-        <v>6</v>
-      </c>
-      <c r="F27" s="22" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E27,'!참조_ENUM'!$B$3:$B$77,0))</f>
-        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
-      </c>
-      <c r="G27" s="21">
-        <v>0</v>
-      </c>
-      <c r="H27" s="21">
-        <v>1</v>
-      </c>
-      <c r="I27" s="21">
-        <v>0</v>
-      </c>
-      <c r="J27" s="21" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I27,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="K27" s="21">
-        <v>0</v>
-      </c>
-      <c r="L27" s="21">
-        <v>100</v>
-      </c>
-      <c r="M27" s="21">
-        <v>0</v>
-      </c>
-      <c r="N27" s="21">
-        <v>500002</v>
-      </c>
-      <c r="O27" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="21">
-        <v>200009</v>
-      </c>
-      <c r="B28" s="21">
-        <v>200007</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="D28" s="21">
-        <v>1</v>
-      </c>
-      <c r="E28" s="21">
-        <v>6</v>
-      </c>
-      <c r="F28" s="22" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E28,'!참조_ENUM'!$B$3:$B$77,0))</f>
-        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
-      </c>
-      <c r="G28" s="21">
-        <v>0</v>
-      </c>
-      <c r="H28" s="21">
-        <v>1</v>
-      </c>
-      <c r="I28" s="21">
-        <v>2</v>
-      </c>
-      <c r="J28" s="21" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I28,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>투사체를 타겟의 몸에 던진다</v>
-      </c>
-      <c r="K28" s="21">
-        <v>0</v>
-      </c>
-      <c r="L28" s="21">
-        <v>100</v>
-      </c>
-      <c r="M28" s="21">
-        <v>100008</v>
-      </c>
-      <c r="N28" s="21">
-        <v>0</v>
-      </c>
-      <c r="O28" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="P28" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q28" s="21">
+      <c r="M23" s="48">
+        <v>100015</v>
+      </c>
+      <c r="N23" s="48">
+        <v>0</v>
+      </c>
+      <c r="O23" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="P23" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q23" s="74">
         <v>0.3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="21">
-        <v>200010</v>
-      </c>
-      <c r="B29" s="21">
-        <v>200008</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="D29" s="21">
-        <v>0</v>
-      </c>
-      <c r="E29" s="21">
-        <v>4</v>
-      </c>
-      <c r="F29" s="22" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E29,'!참조_ENUM'!$B$3:$B$77,0))</f>
-        <v>자신을 제외한 가장 가까운 아군 선택</v>
-      </c>
-      <c r="G29" s="21">
-        <v>0</v>
-      </c>
-      <c r="H29" s="21">
-        <v>1</v>
-      </c>
-      <c r="I29" s="21">
-        <v>2</v>
-      </c>
-      <c r="J29" s="21" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I29,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>투사체를 타겟의 몸에 던진다</v>
-      </c>
-      <c r="K29" s="21">
-        <v>0</v>
-      </c>
-      <c r="L29" s="21">
-        <v>100</v>
-      </c>
-      <c r="M29" s="21">
-        <v>100002</v>
-      </c>
-      <c r="N29" s="21">
-        <v>0</v>
-      </c>
-      <c r="O29" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="P29" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q29" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="21">
-        <v>200011</v>
-      </c>
-      <c r="B30" s="21">
-        <v>200008</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="21">
-        <v>0</v>
-      </c>
-      <c r="E30" s="21">
-        <v>1</v>
-      </c>
-      <c r="F30" s="22" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E30,'!참조_ENUM'!$B$3:$B$77,0))</f>
-        <v>자신 선택</v>
-      </c>
-      <c r="G30" s="21">
-        <v>0</v>
-      </c>
-      <c r="H30" s="21">
-        <v>1</v>
-      </c>
-      <c r="I30" s="21">
-        <v>0</v>
-      </c>
-      <c r="J30" s="21" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I30,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="K30" s="21">
-        <v>0</v>
-      </c>
-      <c r="L30" s="21">
-        <v>100</v>
-      </c>
-      <c r="M30" s="21">
-        <v>0</v>
-      </c>
-      <c r="N30" s="21">
-        <v>500001</v>
-      </c>
-      <c r="O30" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="21">
-        <v>200012</v>
-      </c>
-      <c r="B31" s="21">
-        <v>200009</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="D31" s="21">
-        <v>1</v>
-      </c>
-      <c r="E31" s="21">
-        <v>6</v>
-      </c>
-      <c r="F31" s="22" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E31,'!참조_ENUM'!$B$3:$B$77,0))</f>
-        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
-      </c>
-      <c r="G31" s="21">
-        <v>0</v>
-      </c>
-      <c r="H31" s="21">
-        <v>1</v>
-      </c>
-      <c r="I31" s="21">
-        <v>2</v>
-      </c>
-      <c r="J31" s="21" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I31,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>투사체를 타겟의 몸에 던진다</v>
-      </c>
-      <c r="K31" s="21">
-        <v>0</v>
-      </c>
-      <c r="L31" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="M31" s="21">
-        <v>100008</v>
-      </c>
-      <c r="N31" s="21">
-        <v>0</v>
-      </c>
-      <c r="O31" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="P31" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q31" s="21">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="21">
-        <v>200013</v>
-      </c>
-      <c r="B32" s="21">
-        <v>200010</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="D32" s="21">
-        <v>1</v>
-      </c>
-      <c r="E32" s="21">
-        <v>2</v>
-      </c>
-      <c r="F32" s="22" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E32,'!참조_ENUM'!$B$3:$B$77,0))</f>
-        <v>전체 선택</v>
-      </c>
-      <c r="G32" s="21">
-        <v>0</v>
-      </c>
-      <c r="H32" s="21">
-        <v>5</v>
-      </c>
-      <c r="I32" s="21">
-        <v>21</v>
-      </c>
-      <c r="J32" s="21" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I32,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>전체 선택(진영의 중앙)</v>
-      </c>
-      <c r="K32" s="21">
-        <v>0</v>
-      </c>
-      <c r="L32" s="21">
-        <v>100</v>
-      </c>
-      <c r="M32" s="21">
-        <v>100006</v>
-      </c>
-      <c r="N32" s="21">
-        <v>500006</v>
-      </c>
-      <c r="O32" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="P32" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q32" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="21">
-        <v>200014</v>
-      </c>
-      <c r="B33" s="21">
-        <v>200010</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="D33" s="21">
-        <v>0</v>
-      </c>
-      <c r="E33" s="21">
-        <v>2</v>
-      </c>
-      <c r="F33" s="22" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E33,'!참조_ENUM'!$B$3:$B$77,0))</f>
-        <v>전체 선택</v>
-      </c>
-      <c r="G33" s="21">
-        <v>0</v>
-      </c>
-      <c r="H33" s="21">
-        <v>5</v>
-      </c>
-      <c r="I33" s="21">
-        <v>2</v>
-      </c>
-      <c r="J33" s="21" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I33,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>투사체를 타겟의 몸에 던진다</v>
-      </c>
-      <c r="K33" s="21">
-        <v>0</v>
-      </c>
-      <c r="L33" s="21">
-        <v>100</v>
-      </c>
-      <c r="M33" s="21">
-        <v>100002</v>
-      </c>
-      <c r="N33" s="21">
-        <v>0</v>
-      </c>
-      <c r="O33" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="P33" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q33" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="21">
-        <v>200015</v>
-      </c>
-      <c r="B34" s="21">
-        <v>200011</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="D34" s="21">
-        <v>1</v>
-      </c>
-      <c r="E34" s="21">
-        <v>6</v>
-      </c>
-      <c r="F34" s="22" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E34,'!참조_ENUM'!$B$3:$B$77,0))</f>
-        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
-      </c>
-      <c r="G34" s="21">
-        <v>0</v>
-      </c>
-      <c r="H34" s="21">
-        <v>1</v>
-      </c>
-      <c r="I34" s="21">
-        <v>2</v>
-      </c>
-      <c r="J34" s="21" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I34,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>투사체를 타겟의 몸에 던진다</v>
-      </c>
-      <c r="K34" s="21">
-        <v>0</v>
-      </c>
-      <c r="L34" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="M34" s="21">
-        <v>100008</v>
-      </c>
-      <c r="N34" s="21">
-        <v>0</v>
-      </c>
-      <c r="O34" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="P34" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q34" s="21">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="21">
-        <v>200016</v>
-      </c>
-      <c r="B35" s="21">
-        <v>200012</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="D35" s="21">
-        <v>1</v>
-      </c>
-      <c r="E35" s="21">
-        <v>6</v>
-      </c>
-      <c r="F35" s="22" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E35,'!참조_ENUM'!$B$3:$B$77,0))</f>
-        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
-      </c>
-      <c r="G35" s="21">
-        <v>0</v>
-      </c>
-      <c r="H35" s="21">
-        <v>3</v>
-      </c>
-      <c r="I35" s="21">
-        <v>2</v>
-      </c>
-      <c r="J35" s="21" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I35,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>투사체를 타겟의 몸에 던진다</v>
-      </c>
-      <c r="K35" s="21">
-        <v>0</v>
-      </c>
-      <c r="L35" s="21">
-        <v>100</v>
-      </c>
-      <c r="M35" s="21">
-        <v>100008</v>
-      </c>
-      <c r="N35" s="21">
-        <v>500003</v>
-      </c>
-      <c r="O35" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="P35" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q35" s="21">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="21">
-        <v>200017</v>
-      </c>
-      <c r="B36" s="21">
-        <v>200013</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="D36" s="21">
-        <v>1</v>
-      </c>
-      <c r="E36" s="21">
-        <v>6</v>
-      </c>
-      <c r="F36" s="22" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E36,'!참조_ENUM'!$B$3:$B$77,0))</f>
-        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
-      </c>
-      <c r="G36" s="21">
-        <v>0</v>
-      </c>
-      <c r="H36" s="21">
-        <v>1</v>
-      </c>
-      <c r="I36" s="21">
-        <v>2</v>
-      </c>
-      <c r="J36" s="21" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I36,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>투사체를 타겟의 몸에 던진다</v>
-      </c>
-      <c r="K36" s="21">
-        <v>0</v>
-      </c>
-      <c r="L36" s="21">
-        <v>100</v>
-      </c>
-      <c r="M36" s="21">
-        <v>100008</v>
-      </c>
-      <c r="N36" s="21">
-        <v>0</v>
-      </c>
-      <c r="O36" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="P36" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q36" s="21">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="21">
-        <v>200018</v>
-      </c>
-      <c r="B37" s="21">
-        <v>200014</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="D37" s="21">
-        <v>0</v>
-      </c>
-      <c r="E37" s="21">
-        <v>2</v>
-      </c>
-      <c r="F37" s="22" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E37,'!참조_ENUM'!$B$3:$B$77,0))</f>
-        <v>전체 선택</v>
-      </c>
-      <c r="G37" s="21">
-        <v>0</v>
-      </c>
-      <c r="H37" s="21">
-        <v>5</v>
-      </c>
-      <c r="I37" s="21">
-        <v>2</v>
-      </c>
-      <c r="J37" s="21" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I37,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>투사체를 타겟의 몸에 던진다</v>
-      </c>
-      <c r="K37" s="21">
-        <v>0</v>
-      </c>
-      <c r="L37" s="21">
-        <v>100</v>
-      </c>
-      <c r="M37" s="21">
-        <v>0</v>
-      </c>
-      <c r="N37" s="21">
-        <v>500001</v>
-      </c>
-      <c r="O37" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="P37" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q37" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="21">
-        <v>200019</v>
-      </c>
-      <c r="B38" s="21">
-        <v>200014</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="D38" s="21">
-        <v>1</v>
-      </c>
-      <c r="E38" s="21">
-        <v>2</v>
-      </c>
-      <c r="F38" s="22" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E38,'!참조_ENUM'!$B$3:$B$77,0))</f>
-        <v>전체 선택</v>
-      </c>
-      <c r="G38" s="21">
-        <v>0</v>
-      </c>
-      <c r="H38" s="21">
-        <v>5</v>
-      </c>
-      <c r="I38" s="21">
-        <v>2</v>
-      </c>
-      <c r="J38" s="21" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I38,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>투사체를 타겟의 몸에 던진다</v>
-      </c>
-      <c r="K38" s="21">
-        <v>0</v>
-      </c>
-      <c r="L38" s="21">
-        <v>100</v>
-      </c>
-      <c r="M38" s="21">
-        <v>0</v>
-      </c>
-      <c r="N38" s="21">
-        <v>500002</v>
-      </c>
-      <c r="O38" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="P38" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q38" s="21">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{530F6EDD-802B-4331-BDD5-5BEF855C0144}">
-          <x14:formula1>
-            <xm:f>'!참조_ENUM'!$N$3:$N$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>D20:D38</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1DEB94FF-AEF2-4DF6-830C-4FB179451F8A}">
-          <x14:formula1>
-            <xm:f>'!참조_ENUM'!$AD$3:$AD$10</xm:f>
-          </x14:formula1>
-          <xm:sqref>I20:I38</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DD704491-CCCB-4D5C-8D3F-E47F3013819F}">
-          <x14:formula1>
-            <xm:f>'!참조_ENUM'!$B$3:$B$77</xm:f>
-          </x14:formula1>
-          <xm:sqref>E20:E38</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -8638,7 +8202,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C5" sqref="C5:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8655,7 +8219,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -8665,174 +8229,174 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C4" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="D4" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I4" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J4" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="K4" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>106</v>
+      <c r="L4" s="24" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+      <c r="A5" s="42">
         <v>100001</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="29">
         <v>1</v>
       </c>
-      <c r="C5" s="12" t="str">
+      <c r="C5" s="87" t="str">
         <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B5,'!참조_ENUM'!$R$3:$R$5,0))</f>
         <v>데미지를 준다</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="29">
         <v>12</v>
       </c>
-      <c r="E5" s="7" t="str">
+      <c r="E5" s="83" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D5,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>타겟의 몸에서 즉시 효과 발동</v>
       </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
-        <v>100</v>
-      </c>
-      <c r="H5" s="12" t="str">
+      <c r="F5" s="29">
+        <v>0</v>
+      </c>
+      <c r="G5" s="29">
+        <v>101</v>
+      </c>
+      <c r="H5" s="87" t="str">
         <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G5,'!참조_ENUM'!$F$3:$F$13,0))</f>
-        <v>공격력을 기준으로 절대값 계산을 하기 위한 수치</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="L5" s="7">
+        <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
+      </c>
+      <c r="I5" s="43">
+        <v>0</v>
+      </c>
+      <c r="J5" s="29">
         <v>1</v>
       </c>
+      <c r="K5" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="L5" s="44">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+      <c r="A6" s="45">
         <v>100002</v>
       </c>
       <c r="B6" s="7">
         <v>1</v>
       </c>
-      <c r="C6" s="12" t="str">
+      <c r="C6" s="88" t="str">
         <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B6,'!참조_ENUM'!$R$3:$R$5,0))</f>
         <v>데미지를 준다</v>
       </c>
       <c r="D6" s="7">
         <v>12</v>
       </c>
-      <c r="E6" s="7" t="str">
+      <c r="E6" s="84" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D6,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>타겟의 몸에서 즉시 효과 발동</v>
       </c>
@@ -8840,122 +8404,122 @@
         <v>0</v>
       </c>
       <c r="G6" s="7">
-        <v>300</v>
-      </c>
-      <c r="H6" s="12" t="str">
+        <v>101</v>
+      </c>
+      <c r="H6" s="88" t="str">
         <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G6,'!참조_ENUM'!$F$3:$F$13,0))</f>
-        <v>최대 체력을 기준으로 계산을 하기 위한 수치</v>
+        <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
       </c>
       <c r="I6" s="4">
         <v>0</v>
       </c>
       <c r="J6" s="7">
-        <v>0.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="L6" s="7">
+        <v>114</v>
+      </c>
+      <c r="L6" s="46">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+    <row r="7" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="47">
         <v>100003</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="37">
         <v>2</v>
       </c>
-      <c r="C7" s="12" t="str">
+      <c r="C7" s="89" t="str">
         <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B7,'!참조_ENUM'!$R$3:$R$5,0))</f>
         <v>체력 회복</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="37">
         <v>12</v>
       </c>
-      <c r="E7" s="7" t="str">
+      <c r="E7" s="85" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D7,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>타겟의 몸에서 즉시 효과 발동</v>
       </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7">
+      <c r="F7" s="37">
+        <v>0</v>
+      </c>
+      <c r="G7" s="37">
         <v>300</v>
       </c>
-      <c r="H7" s="12" t="str">
+      <c r="H7" s="89" t="str">
         <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G7,'!참조_ENUM'!$F$3:$F$13,0))</f>
         <v>최대 체력을 기준으로 계산을 하기 위한 수치</v>
       </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7">
+      <c r="I7" s="48">
+        <v>0</v>
+      </c>
+      <c r="J7" s="37">
         <v>0.1</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="L7" s="7">
+      <c r="K7" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="L7" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+      <c r="A8" s="42">
         <v>100004</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="29">
         <v>1</v>
       </c>
-      <c r="C8" s="12" t="str">
+      <c r="C8" s="87" t="str">
         <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B8,'!참조_ENUM'!$R$3:$R$5,0))</f>
         <v>데미지를 준다</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="29">
         <v>12</v>
       </c>
-      <c r="E8" s="7" t="str">
+      <c r="E8" s="83" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D8,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>타겟의 몸에서 즉시 효과 발동</v>
       </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7">
-        <v>100</v>
-      </c>
-      <c r="H8" s="12" t="str">
+      <c r="F8" s="29">
+        <v>0</v>
+      </c>
+      <c r="G8" s="29">
+        <v>101</v>
+      </c>
+      <c r="H8" s="87" t="str">
         <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G8,'!참조_ENUM'!$F$3:$F$13,0))</f>
-        <v>공격력을 기준으로 절대값 계산을 하기 위한 수치</v>
-      </c>
-      <c r="I8" s="4">
-        <v>20</v>
-      </c>
-      <c r="J8" s="7">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="L8" s="7">
+        <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
+      </c>
+      <c r="I8" s="43">
+        <v>0</v>
+      </c>
+      <c r="J8" s="29">
         <v>1</v>
       </c>
+      <c r="K8" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="L8" s="44">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+      <c r="A9" s="45">
         <v>100005</v>
       </c>
       <c r="B9" s="7">
         <v>1</v>
       </c>
-      <c r="C9" s="12" t="str">
+      <c r="C9" s="88" t="str">
         <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B9,'!참조_ENUM'!$R$3:$R$5,0))</f>
         <v>데미지를 준다</v>
       </c>
       <c r="D9" s="7">
         <v>12</v>
       </c>
-      <c r="E9" s="7" t="str">
+      <c r="E9" s="84" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D9,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>타겟의 몸에서 즉시 효과 발동</v>
       </c>
@@ -8963,120 +8527,122 @@
         <v>0</v>
       </c>
       <c r="G9" s="7">
-        <v>300</v>
-      </c>
-      <c r="H9" s="12" t="str">
+        <v>101</v>
+      </c>
+      <c r="H9" s="88" t="str">
         <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G9,'!참조_ENUM'!$F$3:$F$13,0))</f>
-        <v>최대 체력을 기준으로 계산을 하기 위한 수치</v>
+        <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
       </c>
       <c r="I9" s="4">
         <v>0</v>
       </c>
       <c r="J9" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="L9" s="46">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+    <row r="10" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="47">
         <v>100006</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="12" t="str">
+      <c r="C10" s="89" t="str">
         <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B10,'!참조_ENUM'!$R$3:$R$5,0))</f>
         <v>데미지를 준다</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="37">
         <v>12</v>
       </c>
-      <c r="E10" s="7" t="str">
+      <c r="E10" s="85" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D10,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>타겟의 몸에서 즉시 효과 발동</v>
       </c>
-      <c r="F10" s="7">
-        <v>0</v>
-      </c>
-      <c r="G10" s="7">
+      <c r="F10" s="37">
+        <v>0</v>
+      </c>
+      <c r="G10" s="37">
         <v>101</v>
       </c>
-      <c r="H10" s="12" t="str">
+      <c r="H10" s="89" t="str">
         <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G10,'!참조_ENUM'!$F$3:$F$13,0))</f>
         <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
       </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="L10" s="7">
+      <c r="I10" s="48">
+        <v>0</v>
+      </c>
+      <c r="J10" s="37">
+        <v>1.2</v>
+      </c>
+      <c r="K10" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="L10" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
+      <c r="A11" s="42">
         <v>100007</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="29">
         <v>1</v>
       </c>
-      <c r="C11" s="12" t="str">
+      <c r="C11" s="87" t="str">
         <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B11,'!참조_ENUM'!$R$3:$R$5,0))</f>
         <v>데미지를 준다</v>
       </c>
-      <c r="D11" s="7">
-        <v>11</v>
-      </c>
-      <c r="E11" s="7" t="str">
+      <c r="D11" s="29">
+        <v>12</v>
+      </c>
+      <c r="E11" s="83" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D11,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>타겟의 발 밑에서 즉시 효과 발동</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11" s="7">
+        <v>타겟의 몸에서 즉시 효과 발동</v>
+      </c>
+      <c r="F11" s="29">
+        <v>0</v>
+      </c>
+      <c r="G11" s="29">
         <v>101</v>
       </c>
-      <c r="H11" s="12" t="str">
+      <c r="H11" s="87" t="str">
         <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G11,'!참조_ENUM'!$F$3:$F$13,0))</f>
         <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
       </c>
-      <c r="I11" s="4">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="L11" s="7">
-        <v>1.5</v>
+      <c r="I11" s="43">
+        <v>0</v>
+      </c>
+      <c r="J11" s="29">
+        <v>1</v>
+      </c>
+      <c r="K11" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="L11" s="44">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
+      <c r="A12" s="45">
         <v>100008</v>
       </c>
       <c r="B12" s="7">
         <v>1</v>
       </c>
-      <c r="C12" s="12" t="str">
+      <c r="C12" s="88" t="str">
         <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B12,'!참조_ENUM'!$R$3:$R$5,0))</f>
         <v>데미지를 준다</v>
       </c>
       <c r="D12" s="7">
         <v>12</v>
       </c>
-      <c r="E12" s="7" t="str">
+      <c r="E12" s="84" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D12,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>타겟의 몸에서 즉시 효과 발동</v>
       </c>
@@ -9086,7 +8652,7 @@
       <c r="G12" s="7">
         <v>101</v>
       </c>
-      <c r="H12" s="12" t="str">
+      <c r="H12" s="88" t="str">
         <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G12,'!참조_ENUM'!$F$3:$F$13,0))</f>
         <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
       </c>
@@ -9094,42 +8660,301 @@
         <v>0</v>
       </c>
       <c r="J12" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="L12" s="46">
         <v>1</v>
       </c>
-      <c r="K12" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="L12" s="7">
+    </row>
+    <row r="13" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="75">
+        <v>100009</v>
+      </c>
+      <c r="B13" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
+      <c r="C13" s="90" t="str">
+        <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B13,'!참조_ENUM'!$R$3:$R$5,0))</f>
+        <v>데미지를 준다</v>
+      </c>
+      <c r="D13" s="60">
+        <v>12</v>
+      </c>
+      <c r="E13" s="86" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D13,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>타겟의 몸에서 즉시 효과 발동</v>
+      </c>
+      <c r="F13" s="60">
+        <v>0</v>
+      </c>
+      <c r="G13" s="60">
+        <v>101</v>
+      </c>
+      <c r="H13" s="90" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G13,'!참조_ENUM'!$F$3:$F$13,0))</f>
+        <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
+      </c>
+      <c r="I13" s="62">
+        <v>0</v>
+      </c>
+      <c r="J13" s="60">
+        <v>0.8</v>
+      </c>
+      <c r="K13" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="L13" s="76">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
+      <c r="A14" s="42">
+        <v>100010</v>
+      </c>
+      <c r="B14" s="29">
+        <v>1</v>
+      </c>
+      <c r="C14" s="87" t="str">
+        <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B14,'!참조_ENUM'!$R$3:$R$5,0))</f>
+        <v>데미지를 준다</v>
+      </c>
+      <c r="D14" s="29">
+        <v>12</v>
+      </c>
+      <c r="E14" s="83" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D14,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>타겟의 몸에서 즉시 효과 발동</v>
+      </c>
+      <c r="F14" s="29">
+        <v>0</v>
+      </c>
+      <c r="G14" s="29">
+        <v>101</v>
+      </c>
+      <c r="H14" s="87" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G14,'!참조_ENUM'!$F$3:$F$13,0))</f>
+        <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
+      </c>
+      <c r="I14" s="43">
+        <v>0</v>
+      </c>
+      <c r="J14" s="29">
+        <v>1</v>
+      </c>
+      <c r="K14" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="L14" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="47">
+        <v>100011</v>
+      </c>
+      <c r="B15" s="37">
+        <v>1</v>
+      </c>
+      <c r="C15" s="89" t="str">
+        <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B15,'!참조_ENUM'!$R$3:$R$5,0))</f>
+        <v>데미지를 준다</v>
+      </c>
+      <c r="D15" s="37">
+        <v>12</v>
+      </c>
+      <c r="E15" s="85" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D15,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>타겟의 몸에서 즉시 효과 발동</v>
+      </c>
+      <c r="F15" s="37">
+        <v>0</v>
+      </c>
+      <c r="G15" s="37">
+        <v>101</v>
+      </c>
+      <c r="H15" s="89" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G15,'!참조_ENUM'!$F$3:$F$13,0))</f>
+        <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
+      </c>
+      <c r="I15" s="48">
+        <v>0</v>
+      </c>
+      <c r="J15" s="37">
+        <v>1.2</v>
+      </c>
+      <c r="K15" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="L15" s="49">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
+      <c r="A16" s="42">
+        <v>100012</v>
+      </c>
+      <c r="B16" s="29">
+        <v>1</v>
+      </c>
+      <c r="C16" s="87" t="str">
+        <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B16,'!참조_ENUM'!$R$3:$R$5,0))</f>
+        <v>데미지를 준다</v>
+      </c>
+      <c r="D16" s="29">
+        <v>12</v>
+      </c>
+      <c r="E16" s="83" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D16,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>타겟의 몸에서 즉시 효과 발동</v>
+      </c>
+      <c r="F16" s="29">
+        <v>0</v>
+      </c>
+      <c r="G16" s="29">
+        <v>101</v>
+      </c>
+      <c r="H16" s="87" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G16,'!참조_ENUM'!$F$3:$F$13,0))</f>
+        <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
+      </c>
+      <c r="I16" s="43">
+        <v>0</v>
+      </c>
+      <c r="J16" s="29">
+        <v>1</v>
+      </c>
+      <c r="K16" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="L16" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="47">
+        <v>100013</v>
+      </c>
+      <c r="B17" s="37">
+        <v>1</v>
+      </c>
+      <c r="C17" s="89" t="str">
+        <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B17,'!참조_ENUM'!$R$3:$R$5,0))</f>
+        <v>데미지를 준다</v>
+      </c>
+      <c r="D17" s="37">
+        <v>12</v>
+      </c>
+      <c r="E17" s="85" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D17,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>타겟의 몸에서 즉시 효과 발동</v>
+      </c>
+      <c r="F17" s="37">
+        <v>0</v>
+      </c>
+      <c r="G17" s="37">
+        <v>101</v>
+      </c>
+      <c r="H17" s="89" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G17,'!참조_ENUM'!$F$3:$F$13,0))</f>
+        <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
+      </c>
+      <c r="I17" s="48">
+        <v>0</v>
+      </c>
+      <c r="J17" s="37">
+        <v>1.2</v>
+      </c>
+      <c r="K17" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="L17" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="42">
+        <v>100014</v>
+      </c>
+      <c r="B18" s="29">
+        <v>1</v>
+      </c>
+      <c r="C18" s="87" t="str">
+        <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B18,'!참조_ENUM'!$R$3:$R$5,0))</f>
+        <v>데미지를 준다</v>
+      </c>
+      <c r="D18" s="29">
+        <v>12</v>
+      </c>
+      <c r="E18" s="83" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D18,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>타겟의 몸에서 즉시 효과 발동</v>
+      </c>
+      <c r="F18" s="29">
+        <v>0</v>
+      </c>
+      <c r="G18" s="29">
+        <v>101</v>
+      </c>
+      <c r="H18" s="87" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G18,'!참조_ENUM'!$F$3:$F$13,0))</f>
+        <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
+      </c>
+      <c r="I18" s="43">
+        <v>0</v>
+      </c>
+      <c r="J18" s="29">
+        <v>1</v>
+      </c>
+      <c r="K18" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="L18" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="47">
+        <v>100015</v>
+      </c>
+      <c r="B19" s="37">
+        <v>1</v>
+      </c>
+      <c r="C19" s="89" t="str">
+        <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B19,'!참조_ENUM'!$R$3:$R$5,0))</f>
+        <v>데미지를 준다</v>
+      </c>
+      <c r="D19" s="37">
+        <v>12</v>
+      </c>
+      <c r="E19" s="85" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D19,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>타겟의 몸에서 즉시 효과 발동</v>
+      </c>
+      <c r="F19" s="37">
+        <v>0</v>
+      </c>
+      <c r="G19" s="37">
+        <v>101</v>
+      </c>
+      <c r="H19" s="89" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G19,'!참조_ENUM'!$F$3:$F$13,0))</f>
+        <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
+      </c>
+      <c r="I19" s="48">
+        <v>0</v>
+      </c>
+      <c r="J19" s="37">
+        <v>1.2</v>
+      </c>
+      <c r="K19" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="L19" s="49">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9141,7 +8966,7 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$F$3:$F$13</xm:f>
           </x14:formula1>
-          <xm:sqref>G5:G12</xm:sqref>
+          <xm:sqref>G5:G19</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8C92E819-2566-4A2E-BB43-DD2CB1F67832}">
           <x14:formula1>
@@ -9153,7 +8978,7 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$AD$3:$AD$10</xm:f>
           </x14:formula1>
-          <xm:sqref>D5:D12</xm:sqref>
+          <xm:sqref>D5:D19</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9163,10 +8988,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E85B499-5762-4179-9193-75E156FB948B}">
-  <dimension ref="A1:U15"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9189,204 +9014,204 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="U2" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="33" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="E3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="U2" s="17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="O3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="P3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="T3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="R3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="S3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="T3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="U3" s="18" t="s">
+      <c r="U3" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="U4" s="19" t="s">
-        <v>123</v>
+        <v>103</v>
+      </c>
+      <c r="U4" s="18" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -9396,14 +9221,14 @@
       <c r="B5" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$W$3:$W$11,MATCH(B5,'!참조_ENUM'!$V$3:$V$11,0))</f>
+      <c r="C5" s="11" t="str">
+        <f>INDEX('!참조_ENUM'!$W$3:$W$13,MATCH(B5,'!참조_ENUM'!$V$3:$V$13,0))</f>
         <v>피해 감소</v>
       </c>
       <c r="D5" s="4">
         <v>2</v>
       </c>
-      <c r="E5" s="12" t="str">
+      <c r="E5" s="11" t="str">
         <f>INDEX('!참조_ENUM'!$AA$3:$AA$6,MATCH(D5,'!참조_ENUM'!$Z$3:$Z$6,0))</f>
         <v>피격 횟수 제한</v>
       </c>
@@ -9435,7 +9260,7 @@
       <c r="N5" s="7">
         <v>900</v>
       </c>
-      <c r="O5" s="12" t="str">
+      <c r="O5" s="11" t="str">
         <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(N5,'!참조_ENUM'!$F$3:$F$13,0))</f>
         <v>피해량을 기준으로 계산을 하기 위한 수치</v>
       </c>
@@ -9449,7 +9274,7 @@
         <v>10000</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="T5" s="4">
         <v>0</v>
@@ -9463,62 +9288,62 @@
         <v>500002</v>
       </c>
       <c r="B6" s="7">
-        <v>101</v>
-      </c>
-      <c r="C6" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$W$3:$W$11,MATCH(B6,'!참조_ENUM'!$V$3:$V$11,0))</f>
-        <v>중독</v>
+        <v>106</v>
+      </c>
+      <c r="C6" s="11" t="str">
+        <f>INDEX('!참조_ENUM'!$W$3:$W$13,MATCH(B6,'!참조_ENUM'!$V$3:$V$13,0))</f>
+        <v>공격력 증가</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
       </c>
-      <c r="E6" s="12" t="str">
+      <c r="E6" s="11" t="str">
         <f>INDEX('!참조_ENUM'!$AA$3:$AA$6,MATCH(D6,'!참조_ENUM'!$Z$3:$Z$6,0))</f>
         <v>시간 지속</v>
       </c>
       <c r="F6" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
       </c>
       <c r="H6" s="4">
-        <v>100005</v>
+        <v>0</v>
       </c>
       <c r="I6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="4">
         <v>0</v>
       </c>
       <c r="K6" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(K6,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>타겟의 몸에서 즉시 효과 발동</v>
+        <v>타겟의 발 밑에서 즉시 효과 발동</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="12" t="str">
+        <v>101</v>
+      </c>
+      <c r="O6" s="11" t="str">
         <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(N6,'!참조_ENUM'!$F$3:$F$13,0))</f>
-        <v>NONE</v>
+        <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
       </c>
       <c r="P6" s="4">
         <v>0</v>
       </c>
       <c r="Q6" s="7">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R6" s="4">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="T6" s="4">
         <v>0</v>
@@ -9532,21 +9357,21 @@
         <v>500003</v>
       </c>
       <c r="B7" s="7">
-        <v>102</v>
-      </c>
-      <c r="C7" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$W$3:$W$11,MATCH(B7,'!참조_ENUM'!$V$3:$V$11,0))</f>
-        <v>기절</v>
+        <v>107</v>
+      </c>
+      <c r="C7" s="11" t="str">
+        <f>INDEX('!참조_ENUM'!$W$3:$W$13,MATCH(B7,'!참조_ENUM'!$V$3:$V$13,0))</f>
+        <v>방어력 증가</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
       </c>
-      <c r="E7" s="12" t="str">
+      <c r="E7" s="11" t="str">
         <f>INDEX('!참조_ENUM'!$AA$3:$AA$6,MATCH(D7,'!참조_ENUM'!$Z$3:$Z$6,0))</f>
         <v>시간 지속</v>
       </c>
       <c r="F7" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
@@ -9561,39 +9386,39 @@
         <v>0</v>
       </c>
       <c r="K7" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(K7,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>타겟의 머리에서 즉시 효과 발동</v>
+        <v>타겟의 발 밑에서 즉시 효과 발동</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="12" t="str">
+        <v>200</v>
+      </c>
+      <c r="O7" s="11" t="str">
         <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(N7,'!참조_ENUM'!$F$3:$F$13,0))</f>
-        <v>NONE</v>
+        <v>방어력을 기준으로 계산을 하기 위한 수치</v>
       </c>
       <c r="P7" s="4">
         <v>0</v>
       </c>
       <c r="Q7" s="7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="R7" s="4">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="T7" s="4">
         <v>0</v>
       </c>
       <c r="U7" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -9601,21 +9426,21 @@
         <v>500004</v>
       </c>
       <c r="B8" s="7">
-        <v>103</v>
-      </c>
-      <c r="C8" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$W$3:$W$11,MATCH(B8,'!참조_ENUM'!$V$3:$V$11,0))</f>
-        <v>침묵</v>
+        <v>106</v>
+      </c>
+      <c r="C8" s="11" t="str">
+        <f>INDEX('!참조_ENUM'!$W$3:$W$13,MATCH(B8,'!참조_ENUM'!$V$3:$V$13,0))</f>
+        <v>공격력 증가</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
       </c>
-      <c r="E8" s="12" t="str">
+      <c r="E8" s="11" t="str">
         <f>INDEX('!참조_ENUM'!$AA$3:$AA$6,MATCH(D8,'!참조_ENUM'!$Z$3:$Z$6,0))</f>
         <v>시간 지속</v>
       </c>
       <c r="F8" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G8" s="4">
         <v>0</v>
@@ -9630,39 +9455,39 @@
         <v>0</v>
       </c>
       <c r="K8" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L8" s="7" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(K8,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>타겟의 머리에서 즉시 효과 발동</v>
+        <v>타겟의 발 밑에서 즉시 효과 발동</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="12" t="str">
+        <v>101</v>
+      </c>
+      <c r="O8" s="11" t="str">
         <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(N8,'!참조_ENUM'!$F$3:$F$13,0))</f>
-        <v>NONE</v>
+        <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
       </c>
       <c r="P8" s="4">
         <v>0</v>
       </c>
       <c r="Q8" s="7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="R8" s="4">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="T8" s="4">
         <v>0</v>
       </c>
       <c r="U8" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
@@ -9670,21 +9495,21 @@
         <v>500005</v>
       </c>
       <c r="B9" s="7">
-        <v>104</v>
-      </c>
-      <c r="C9" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$W$3:$W$11,MATCH(B9,'!참조_ENUM'!$V$3:$V$11,0))</f>
-        <v>결박</v>
+        <v>108</v>
+      </c>
+      <c r="C9" s="11" t="str">
+        <f>INDEX('!참조_ENUM'!$W$3:$W$13,MATCH(B9,'!참조_ENUM'!$V$3:$V$13,0))</f>
+        <v>공격력 감소</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
       </c>
-      <c r="E9" s="12" t="str">
+      <c r="E9" s="11" t="str">
         <f>INDEX('!참조_ENUM'!$AA$3:$AA$6,MATCH(D9,'!참조_ENUM'!$Z$3:$Z$6,0))</f>
         <v>시간 지속</v>
       </c>
       <c r="F9" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
@@ -9709,29 +9534,29 @@
         <v>0</v>
       </c>
       <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="12" t="str">
+        <v>101</v>
+      </c>
+      <c r="O9" s="11" t="str">
         <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(N9,'!참조_ENUM'!$F$3:$F$13,0))</f>
-        <v>NONE</v>
+        <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
       </c>
       <c r="P9" s="4">
         <v>0</v>
       </c>
       <c r="Q9" s="7">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="R9" s="4">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="T9" s="4">
         <v>0</v>
       </c>
       <c r="U9" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
@@ -9741,14 +9566,14 @@
       <c r="B10" s="7">
         <v>105</v>
       </c>
-      <c r="C10" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$W$3:$W$11,MATCH(B10,'!참조_ENUM'!$V$3:$V$11,0))</f>
+      <c r="C10" s="11" t="str">
+        <f>INDEX('!참조_ENUM'!$W$3:$W$13,MATCH(B10,'!참조_ENUM'!$V$3:$V$13,0))</f>
         <v>빙결</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
       </c>
-      <c r="E10" s="12" t="str">
+      <c r="E10" s="11" t="str">
         <f>INDEX('!참조_ENUM'!$AA$3:$AA$6,MATCH(D10,'!참조_ENUM'!$Z$3:$Z$6,0))</f>
         <v>시간 지속</v>
       </c>
@@ -9780,7 +9605,7 @@
       <c r="N10" s="7">
         <v>0</v>
       </c>
-      <c r="O10" s="12" t="str">
+      <c r="O10" s="11" t="str">
         <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(N10,'!참조_ENUM'!$F$3:$F$13,0))</f>
         <v>NONE</v>
       </c>
@@ -9794,349 +9619,19 @@
         <v>3000</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="T10" s="4">
         <v>0</v>
       </c>
       <c r="U10" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="20">
-        <v>200001</v>
-      </c>
-      <c r="B11" s="7">
-        <v>106</v>
-      </c>
-      <c r="C11" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$W$3:$W$11,MATCH(B11,'!참조_ENUM'!$V$3:$V$11,0))</f>
-        <v>공격력 증가</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1</v>
-      </c>
-      <c r="E11" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$AA$3:$AA$6,MATCH(D11,'!참조_ENUM'!$Z$3:$Z$6,0))</f>
-        <v>시간 지속</v>
-      </c>
-      <c r="F11" s="28">
-        <v>3</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0</v>
-      </c>
-      <c r="J11" s="28">
-        <v>0</v>
-      </c>
-      <c r="K11" s="20">
-        <v>12</v>
-      </c>
-      <c r="L11" s="7" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(K11,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>타겟의 몸에서 즉시 효과 발동</v>
-      </c>
-      <c r="M11" s="20">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(N11,'!참조_ENUM'!$F$3:$F$13,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="P11" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="20">
-        <v>0.2</v>
-      </c>
-      <c r="R11" s="4">
-        <v>10000</v>
-      </c>
-      <c r="T11" s="4">
-        <v>0</v>
-      </c>
-      <c r="U11" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="20">
-        <v>200002</v>
-      </c>
-      <c r="B12" s="7">
-        <v>107</v>
-      </c>
-      <c r="C12" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$W$3:$W$11,MATCH(B12,'!참조_ENUM'!$V$3:$V$11,0))</f>
-        <v>방어력 증가</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-      <c r="E12" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$AA$3:$AA$6,MATCH(D12,'!참조_ENUM'!$Z$3:$Z$6,0))</f>
-        <v>시간 지속</v>
-      </c>
-      <c r="F12" s="28">
-        <v>3</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0</v>
-      </c>
-      <c r="J12" s="28">
-        <v>0</v>
-      </c>
-      <c r="K12" s="20">
-        <v>12</v>
-      </c>
-      <c r="L12" s="7" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(K12,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>타겟의 몸에서 즉시 효과 발동</v>
-      </c>
-      <c r="M12" s="20">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(N12,'!참조_ENUM'!$F$3:$F$13,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="P12" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="20">
-        <v>0.2</v>
-      </c>
-      <c r="R12" s="4">
-        <v>10000</v>
-      </c>
-      <c r="T12" s="4">
-        <v>0</v>
-      </c>
-      <c r="U12" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="20">
-        <v>200003</v>
-      </c>
-      <c r="B13" s="7">
-        <v>102</v>
-      </c>
-      <c r="C13" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$W$3:$W$11,MATCH(B13,'!참조_ENUM'!$V$3:$V$11,0))</f>
-        <v>기절</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1</v>
-      </c>
-      <c r="E13" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$AA$3:$AA$6,MATCH(D13,'!참조_ENUM'!$Z$3:$Z$6,0))</f>
-        <v>시간 지속</v>
-      </c>
-      <c r="F13" s="28">
-        <v>3</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0</v>
-      </c>
-      <c r="H13" s="4">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0</v>
-      </c>
-      <c r="J13" s="28">
-        <v>0</v>
-      </c>
-      <c r="K13" s="20">
-        <v>12</v>
-      </c>
-      <c r="L13" s="7" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(K13,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>타겟의 몸에서 즉시 효과 발동</v>
-      </c>
-      <c r="M13" s="20">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(N13,'!참조_ENUM'!$F$3:$F$13,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="P13" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="20">
-        <v>0.2</v>
-      </c>
-      <c r="R13" s="4">
-        <v>10000</v>
-      </c>
-      <c r="T13" s="4">
-        <v>0</v>
-      </c>
-      <c r="U13" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="20">
-        <v>200004</v>
-      </c>
-      <c r="B14" s="7">
-        <v>102</v>
-      </c>
-      <c r="C14" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$W$3:$W$11,MATCH(B14,'!참조_ENUM'!$V$3:$V$11,0))</f>
-        <v>기절</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1</v>
-      </c>
-      <c r="E14" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$AA$3:$AA$6,MATCH(D14,'!참조_ENUM'!$Z$3:$Z$6,0))</f>
-        <v>시간 지속</v>
-      </c>
-      <c r="F14" s="28">
-        <v>3</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0</v>
-      </c>
-      <c r="H14" s="4">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4">
-        <v>0</v>
-      </c>
-      <c r="J14" s="28">
-        <v>0</v>
-      </c>
-      <c r="K14" s="20">
-        <v>12</v>
-      </c>
-      <c r="L14" s="7" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(K14,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>타겟의 몸에서 즉시 효과 발동</v>
-      </c>
-      <c r="M14" s="20">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(N14,'!참조_ENUM'!$F$3:$F$13,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="P14" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="20">
-        <v>0.2</v>
-      </c>
-      <c r="R14" s="4">
-        <v>10000</v>
-      </c>
-      <c r="T14" s="4">
-        <v>0</v>
-      </c>
-      <c r="U14" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="20">
-        <v>200005</v>
-      </c>
-      <c r="B15" s="7">
-        <v>102</v>
-      </c>
-      <c r="C15" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$W$3:$W$11,MATCH(B15,'!참조_ENUM'!$V$3:$V$11,0))</f>
-        <v>기절</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1</v>
-      </c>
-      <c r="E15" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$AA$3:$AA$6,MATCH(D15,'!참조_ENUM'!$Z$3:$Z$6,0))</f>
-        <v>시간 지속</v>
-      </c>
-      <c r="F15" s="28">
-        <v>3</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4">
-        <v>0</v>
-      </c>
-      <c r="J15" s="28">
-        <v>0</v>
-      </c>
-      <c r="K15" s="20">
-        <v>12</v>
-      </c>
-      <c r="L15" s="7" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(K15,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>타겟의 몸에서 즉시 효과 발동</v>
-      </c>
-      <c r="M15" s="20">
-        <v>0</v>
-      </c>
-      <c r="N15" s="7">
-        <v>0</v>
-      </c>
-      <c r="O15" s="12" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(N15,'!참조_ENUM'!$F$3:$F$13,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="P15" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="20">
-        <v>0.2</v>
-      </c>
-      <c r="R15" s="4">
-        <v>10000</v>
-      </c>
-      <c r="T15" s="4">
-        <v>0</v>
-      </c>
-      <c r="U15" s="4" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U5:U15" xr:uid="{07BC0E4E-0AB0-4FFB-BDF5-D6D183214701}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U5:U10" xr:uid="{07BC0E4E-0AB0-4FFB-BDF5-D6D183214701}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10149,13 +9644,13 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$Z$3:$Z$6</xm:f>
           </x14:formula1>
-          <xm:sqref>D5:D15</xm:sqref>
+          <xm:sqref>D5:D10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BADD3DF7-84B7-4DA0-ABC0-BBC36C154738}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$F$3:$F$13</xm:f>
           </x14:formula1>
-          <xm:sqref>N5:N15</xm:sqref>
+          <xm:sqref>N5:N10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FF72D07A-16DC-43C4-B0B9-3814909F4C5D}">
           <x14:formula1>
@@ -10165,9 +9660,9 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4698ABB8-E6C1-495A-910B-F6779A72B140}">
           <x14:formula1>
-            <xm:f>'!참조_ENUM'!$V$3:$V$11</xm:f>
+            <xm:f>'!참조_ENUM'!$V$3:$V$13</xm:f>
           </x14:formula1>
-          <xm:sqref>B5:B15</xm:sqref>
+          <xm:sqref>B5:B10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Android/ExcelData/PCSkillTable.xlsx
+++ b/Android/ExcelData/PCSkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A372A7BA-C864-4845-9235-2C91EEBBAE4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667C0994-0FD8-428E-BA1F-356C4BD6DBA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1509,7 +1510,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="166">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2142,6 +2143,15 @@
   <si>
     <t>원딜/대미지/공격력 감소(15%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 타입</t>
+  </si>
+  <si>
+    <t>ENUM:SKILL_TYPE:NONE</t>
+  </si>
+  <si>
+    <t>Skill_Type</t>
   </si>
 </sst>
 </file>
@@ -2642,7 +2652,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2927,6 +2937,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2971,13 +2999,7 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>NPC_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3">
         <row r="1">
           <cell r="A1" t="str">
@@ -4425,6 +4447,96 @@
         </row>
       </sheetData>
       <sheetData sheetId="14"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="@pc_npc"/>
+      <sheetName val="@skill_type"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SKILL_TYPE</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>type</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>value</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>comment</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>NORMAL_ATTACK</v>
+          </cell>
+          <cell r="B5">
+            <v>1</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>일반 공격</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>SKILL_01</v>
+          </cell>
+          <cell r="B6">
+            <v>2</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>스킬 공격 1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>SKILL_02</v>
+          </cell>
+          <cell r="B7">
+            <v>3</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>스킬 공격 2</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>SPECIAL_SKILL</v>
+          </cell>
+          <cell r="B8">
+            <v>4</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>궁극기</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4727,10 +4839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCF2545-5B22-48B7-AA3A-4E88E574D583}">
-  <dimension ref="A1:AE77"/>
+  <dimension ref="A1:AI77"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9:W13"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AC30" sqref="AC30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4752,9 +4864,12 @@
     <col min="27" max="27" width="21.875" customWidth="1"/>
     <col min="29" max="29" width="28.625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="38" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'[1]@target_rule'!$A$1</f>
         <v>TARGET_RULE_TYPE</v>
@@ -4787,8 +4902,12 @@
         <f>'[1]@projectile_type'!$A$1</f>
         <v>PROJECTILE_TYPE</v>
       </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AG1" t="str">
+        <f>'[2]@skill_type'!$A$1</f>
+        <v>SKILL_TYPE</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="str">
         <f>'[1]@target_rule'!$A3</f>
         <v>type</v>
@@ -4885,8 +5004,20 @@
         <f>'[1]@projectile_type'!$C3</f>
         <v>comment</v>
       </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AG2" s="5" t="str">
+        <f>'[2]@skill_type'!$A3</f>
+        <v>type</v>
+      </c>
+      <c r="AH2" s="5" t="str">
+        <f>'[2]@skill_type'!$B3</f>
+        <v>value</v>
+      </c>
+      <c r="AI2" s="1" t="str">
+        <f>'[2]@skill_type'!$C3</f>
+        <v>comment</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="str">
         <f>'[1]@target_rule'!$A4</f>
         <v>RANDOM</v>
@@ -4983,8 +5114,20 @@
         <f>'[1]@projectile_type'!$C4</f>
         <v>NONE</v>
       </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AG3" s="4" t="str">
+        <f>'[2]@skill_type'!$A4</f>
+        <v>NONE</v>
+      </c>
+      <c r="AH3" s="4">
+        <f>'[2]@skill_type'!$B4</f>
+        <v>0</v>
+      </c>
+      <c r="AI3" s="4" t="str">
+        <f>'[2]@skill_type'!$C4</f>
+        <v>NONE</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="str">
         <f>'[1]@target_rule'!$A5</f>
         <v>SELF</v>
@@ -5081,8 +5224,20 @@
         <f>'[1]@projectile_type'!$C5</f>
         <v>투사체를 타겟의 발 밑에 던진다</v>
       </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AG4" s="4" t="str">
+        <f>'[2]@skill_type'!$A5</f>
+        <v>NORMAL_ATTACK</v>
+      </c>
+      <c r="AH4" s="4">
+        <f>'[2]@skill_type'!$B5</f>
+        <v>1</v>
+      </c>
+      <c r="AI4" s="4" t="str">
+        <f>'[2]@skill_type'!$C5</f>
+        <v>일반 공격</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="str">
         <f>'[1]@target_rule'!$A6</f>
         <v>ALL</v>
@@ -5167,8 +5322,20 @@
         <f>'[1]@projectile_type'!$C6</f>
         <v>투사체를 타겟의 몸에 던진다</v>
       </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AG5" s="4" t="str">
+        <f>'[2]@skill_type'!$A6</f>
+        <v>SKILL_01</v>
+      </c>
+      <c r="AH5" s="4">
+        <f>'[2]@skill_type'!$B6</f>
+        <v>2</v>
+      </c>
+      <c r="AI5" s="4" t="str">
+        <f>'[2]@skill_type'!$C6</f>
+        <v>스킬 공격 1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="str">
         <f>'[1]@target_rule'!$A7</f>
         <v>ALL_WITHOUT_ME</v>
@@ -5242,8 +5409,20 @@
         <f>'[1]@projectile_type'!$C7</f>
         <v>투사체를 타겟의 머리에 던진다</v>
       </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AG6" s="4" t="str">
+        <f>'[2]@skill_type'!$A7</f>
+        <v>SKILL_02</v>
+      </c>
+      <c r="AH6" s="4">
+        <f>'[2]@skill_type'!$B7</f>
+        <v>3</v>
+      </c>
+      <c r="AI6" s="4" t="str">
+        <f>'[2]@skill_type'!$C7</f>
+        <v>스킬 공격 2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="str">
         <f>'[1]@target_rule'!$A8</f>
         <v>ALLY_WITHOUT_ME_NEAREST</v>
@@ -5292,8 +5471,20 @@
         <f>'[1]@projectile_type'!$C8</f>
         <v>타겟의 발 밑에서 즉시 효과 발동</v>
       </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AG7" s="4" t="str">
+        <f>'[2]@skill_type'!$A8</f>
+        <v>SPECIAL_SKILL</v>
+      </c>
+      <c r="AH7" s="4">
+        <f>'[2]@skill_type'!$B8</f>
+        <v>4</v>
+      </c>
+      <c r="AI7" s="4" t="str">
+        <f>'[2]@skill_type'!$C8</f>
+        <v>궁극기</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="str">
         <f>'[1]@target_rule'!$A9</f>
         <v>ALLY_WITHOUT_ME_FURTHEST</v>
@@ -5343,7 +5534,7 @@
         <v>타겟의 몸에서 즉시 효과 발동</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="str">
         <f>'[1]@target_rule'!$A10</f>
         <v>NEAREST</v>
@@ -5393,7 +5584,7 @@
         <v>타겟의 머리에서 즉시 효과 발동</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="str">
         <f>'[1]@target_rule'!$A11</f>
         <v>FURTHEST</v>
@@ -5443,7 +5634,7 @@
         <v>전체 선택(진영의 중앙)</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="str">
         <f>'[1]@target_rule'!$A12</f>
         <v>LOWEST_LIFE_VALUE</v>
@@ -5481,7 +5672,7 @@
         <v>방어력 증가</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="str">
         <f>'[1]@target_rule'!$A13</f>
         <v>LOWEST_ATTACK</v>
@@ -5519,7 +5710,7 @@
         <v>공격력 감소</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="str">
         <f>'[1]@target_rule'!$A14</f>
         <v>LOWEST_DEFENSE</v>
@@ -5557,7 +5748,7 @@
         <v>방어력 감소</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="str">
         <f>'[1]@target_rule'!$A15</f>
         <v>HIGHEST_ATTACK</v>
@@ -5571,7 +5762,7 @@
         <v>공격력이 가장 높은 타겟 선택</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="str">
         <f>'[1]@target_rule'!$A16</f>
         <v>HIGHEST_DEFENSE</v>
@@ -5585,7 +5776,7 @@
         <v>방어력이 가장 높은 타겟 선택</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="str">
         <f>'[1]@target_rule'!$A17</f>
         <v>APPROACH</v>
@@ -6461,10 +6652,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D77A34-98F9-4133-B549-FB86B9DF331B}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6473,17 +6664,18 @@
     <col min="2" max="2" width="36.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" customWidth="1"/>
     <col min="4" max="4" width="14.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.375" customWidth="1"/>
-    <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.625" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="48.375" customWidth="1"/>
+    <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -6496,17 +6688,20 @@
       <c r="D2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -6520,7 +6715,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>4</v>
+        <v>164</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>4</v>
@@ -6528,8 +6723,11 @@
       <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="24" t="s">
         <v>21</v>
       </c>
@@ -6543,16 +6741,19 @@
         <v>51</v>
       </c>
       <c r="E4" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="G4" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="H4" s="24" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="27">
         <v>100001</v>
       </c>
@@ -6566,15 +6767,18 @@
       <c r="D5" s="54">
         <v>2</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="95">
+        <v>1</v>
+      </c>
+      <c r="F5" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="53"/>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="53"/>
+      <c r="H5" s="55" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="33">
         <v>100002</v>
       </c>
@@ -6588,15 +6792,18 @@
       <c r="D6" s="22">
         <v>2</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="96">
+        <v>2</v>
+      </c>
+      <c r="F6" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="56" t="s">
+      <c r="G6" s="21"/>
+      <c r="H6" s="56" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="35">
         <v>100003</v>
       </c>
@@ -6610,15 +6817,18 @@
       <c r="D7" s="58">
         <v>2</v>
       </c>
-      <c r="E7" s="57" t="s">
+      <c r="E7" s="97">
+        <v>3</v>
+      </c>
+      <c r="F7" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="F7" s="57"/>
-      <c r="G7" s="59" t="s">
+      <c r="G7" s="57"/>
+      <c r="H7" s="59" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="27">
         <v>100101</v>
       </c>
@@ -6632,15 +6842,18 @@
       <c r="D8" s="54">
         <v>2</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="95">
+        <v>1</v>
+      </c>
+      <c r="F8" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="53"/>
-      <c r="G8" s="55" t="s">
+      <c r="G8" s="53"/>
+      <c r="H8" s="55" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="33">
         <v>100102</v>
       </c>
@@ -6654,15 +6867,18 @@
       <c r="D9" s="22">
         <v>2</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="96">
+        <v>2</v>
+      </c>
+      <c r="F9" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="56" t="s">
+      <c r="G9" s="21"/>
+      <c r="H9" s="56" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="35">
         <v>100103</v>
       </c>
@@ -6676,15 +6892,18 @@
       <c r="D10" s="58">
         <v>2</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="97">
+        <v>3</v>
+      </c>
+      <c r="F10" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="F10" s="57"/>
-      <c r="G10" s="59" t="s">
+      <c r="G10" s="57"/>
+      <c r="H10" s="59" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="27">
         <v>100201</v>
       </c>
@@ -6698,15 +6917,18 @@
       <c r="D11" s="54">
         <v>2</v>
       </c>
-      <c r="E11" s="53" t="s">
+      <c r="E11" s="95">
+        <v>1</v>
+      </c>
+      <c r="F11" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="F11" s="53"/>
-      <c r="G11" s="55" t="s">
+      <c r="G11" s="53"/>
+      <c r="H11" s="55" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="33">
         <v>100202</v>
       </c>
@@ -6720,15 +6942,18 @@
       <c r="D12" s="22">
         <v>2</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="96">
+        <v>2</v>
+      </c>
+      <c r="F12" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="56" t="s">
+      <c r="G12" s="21"/>
+      <c r="H12" s="56" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="35">
         <v>100203</v>
       </c>
@@ -6742,15 +6967,18 @@
       <c r="D13" s="58">
         <v>2</v>
       </c>
-      <c r="E13" s="57" t="s">
+      <c r="E13" s="97">
+        <v>3</v>
+      </c>
+      <c r="F13" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="F13" s="57"/>
-      <c r="G13" s="59" t="s">
+      <c r="G13" s="57"/>
+      <c r="H13" s="59" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="27">
         <v>100301</v>
       </c>
@@ -6764,15 +6992,18 @@
       <c r="D14" s="54">
         <v>2</v>
       </c>
-      <c r="E14" s="53" t="s">
+      <c r="E14" s="95">
+        <v>1</v>
+      </c>
+      <c r="F14" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="F14" s="53"/>
-      <c r="G14" s="55" t="s">
+      <c r="G14" s="53"/>
+      <c r="H14" s="55" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="33">
         <v>100302</v>
       </c>
@@ -6786,15 +7017,18 @@
       <c r="D15" s="22">
         <v>2</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="96">
+        <v>2</v>
+      </c>
+      <c r="F15" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="56" t="s">
+      <c r="G15" s="21"/>
+      <c r="H15" s="56" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="33">
         <v>100303</v>
       </c>
@@ -6808,15 +7042,18 @@
       <c r="D16" s="78">
         <v>2</v>
       </c>
-      <c r="E16" s="77" t="s">
+      <c r="E16" s="98">
+        <v>3</v>
+      </c>
+      <c r="F16" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="F16" s="77"/>
-      <c r="G16" s="79" t="s">
+      <c r="G16" s="77"/>
+      <c r="H16" s="79" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="42">
         <v>100401</v>
       </c>
@@ -6830,15 +7067,18 @@
       <c r="D17" s="54">
         <v>2</v>
       </c>
-      <c r="E17" s="53" t="s">
+      <c r="E17" s="95">
+        <v>1</v>
+      </c>
+      <c r="F17" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="F17" s="53"/>
-      <c r="G17" s="55" t="s">
+      <c r="G17" s="53"/>
+      <c r="H17" s="55" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="45">
         <v>100402</v>
       </c>
@@ -6852,15 +7092,18 @@
       <c r="D18" s="7">
         <v>2</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="99">
+        <v>2</v>
+      </c>
+      <c r="F18" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="80" t="s">
+      <c r="G18" s="4"/>
+      <c r="H18" s="80" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="47">
         <v>100403</v>
       </c>
@@ -6874,15 +7117,18 @@
       <c r="D19" s="37">
         <v>2.5</v>
       </c>
-      <c r="E19" s="57" t="s">
+      <c r="E19" s="100">
+        <v>3</v>
+      </c>
+      <c r="F19" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="F19" s="48"/>
-      <c r="G19" s="81" t="s">
+      <c r="G19" s="48"/>
+      <c r="H19" s="81" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="42">
         <v>100501</v>
       </c>
@@ -6896,15 +7142,18 @@
       <c r="D20" s="54">
         <v>2</v>
       </c>
-      <c r="E20" s="53" t="s">
+      <c r="E20" s="95">
+        <v>1</v>
+      </c>
+      <c r="F20" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="F20" s="53"/>
-      <c r="G20" s="55" t="s">
+      <c r="G20" s="53"/>
+      <c r="H20" s="55" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="45">
         <v>100502</v>
       </c>
@@ -6918,15 +7167,18 @@
       <c r="D21" s="7">
         <v>2</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="99">
+        <v>2</v>
+      </c>
+      <c r="F21" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="55" t="s">
+      <c r="G21" s="4"/>
+      <c r="H21" s="55" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="47">
         <v>100503</v>
       </c>
@@ -6940,17 +7192,32 @@
       <c r="D22" s="37">
         <v>2.5</v>
       </c>
-      <c r="E22" s="57" t="s">
+      <c r="E22" s="100">
+        <v>3</v>
+      </c>
+      <c r="F22" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="F22" s="48"/>
-      <c r="G22" s="81" t="s">
+      <c r="G22" s="48"/>
+      <c r="H22" s="81" t="s">
         <v>97</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4C786C54-CC5B-4545-99A0-6CDFA127AF9A}">
+          <x14:formula1>
+            <xm:f>'!참조_ENUM'!$AH$3:$AH$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>E5</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -8990,8 +9257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E85B499-5762-4179-9193-75E156FB948B}">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Android/ExcelData/PCSkillTable.xlsx
+++ b/Android/ExcelData/PCSkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667C0994-0FD8-428E-BA1F-356C4BD6DBA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1CE2A6-C69E-4EB6-86DC-7D7EF58B0522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -217,7 +217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L4" authorId="0" shapeId="0" xr:uid="{4E8A52B8-B210-4A7B-BC9C-F6B17053F781}">
+    <comment ref="N4" authorId="0" shapeId="0" xr:uid="{93AC76E1-6E8A-4B72-B4BE-FD7A4A091CB9}">
       <text>
         <r>
           <rPr>
@@ -228,18 +228,12 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>힛</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
+          <t>기준이 되는 타겟은 포함하지 않는 갯수</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P4" authorId="0" shapeId="0" xr:uid="{4E8A52B8-B210-4A7B-BC9C-F6B17053F781}">
+      <text>
         <r>
           <rPr>
             <b/>
@@ -249,7 +243,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>횟수에</t>
+          <t>힛</t>
         </r>
         <r>
           <rPr>
@@ -270,7 +264,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>따라</t>
+          <t>횟수에</t>
         </r>
         <r>
           <rPr>
@@ -291,7 +285,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>비중</t>
+          <t>따라</t>
         </r>
         <r>
           <rPr>
@@ -312,8 +306,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>조절
-총</t>
+          <t>비중</t>
         </r>
         <r>
           <rPr>
@@ -334,7 +327,8 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>합이</t>
+          <t>조절
+총</t>
         </r>
         <r>
           <rPr>
@@ -344,7 +338,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> 100</t>
+          <t xml:space="preserve"> </t>
         </r>
         <r>
           <rPr>
@@ -355,7 +349,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>이</t>
+          <t>합이</t>
         </r>
         <r>
           <rPr>
@@ -365,7 +359,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> 100</t>
         </r>
         <r>
           <rPr>
@@ -376,7 +370,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>되어야</t>
+          <t>이</t>
         </r>
         <r>
           <rPr>
@@ -397,7 +391,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>한다</t>
+          <t>되어야</t>
         </r>
         <r>
           <rPr>
@@ -407,8 +401,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">.
-</t>
+          <t xml:space="preserve"> </t>
         </r>
         <r>
           <rPr>
@@ -419,7 +412,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>실제</t>
+          <t>한다</t>
         </r>
         <r>
           <rPr>
@@ -429,7 +422,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">.
+</t>
         </r>
         <r>
           <rPr>
@@ -440,7 +434,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>애니메이션의</t>
+          <t>실제</t>
         </r>
         <r>
           <rPr>
@@ -461,7 +455,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>이벤트</t>
+          <t>애니메이션의</t>
         </r>
         <r>
           <rPr>
@@ -482,7 +476,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>횟수보다</t>
+          <t>이벤트</t>
         </r>
         <r>
           <rPr>
@@ -503,7 +497,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>배열의</t>
+          <t>횟수보다</t>
         </r>
         <r>
           <rPr>
@@ -524,7 +518,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>수가</t>
+          <t>배열의</t>
         </r>
         <r>
           <rPr>
@@ -545,7 +539,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>많으면</t>
+          <t>수가</t>
         </r>
         <r>
           <rPr>
@@ -566,7 +560,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>안된다</t>
+          <t>많으면</t>
         </r>
         <r>
           <rPr>
@@ -576,11 +570,32 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>안된다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>.</t>
         </r>
       </text>
     </comment>
-    <comment ref="P4" authorId="0" shapeId="0" xr:uid="{A402B58C-B420-4345-8EC5-0136DD80EAAE}">
+    <comment ref="T4" authorId="0" shapeId="0" xr:uid="{A402B58C-B420-4345-8EC5-0136DD80EAAE}">
       <text>
         <r>
           <rPr>
@@ -1510,7 +1525,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="175">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2152,6 +2167,42 @@
   </si>
   <si>
     <t>Skill_Type</t>
+  </si>
+  <si>
+    <t>세컨 타겟 룰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENUM:SECOND_TARGET_RULE_TYPE:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>second_target_rule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세컨 타겟 룰(기획)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#second_target_rule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세컨 타겟 카운트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>second_target_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세컨 타겟 반경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>second_target_radius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2652,7 +2703,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2938,16 +2989,25 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2984,6 +3044,7 @@
       <sheetName val="@position"/>
       <sheetName val="@npc"/>
       <sheetName val="@target_rule"/>
+      <sheetName val="@second_target_rule"/>
       <sheetName val="@effect"/>
       <sheetName val="@stat"/>
       <sheetName val="@team_type"/>
@@ -3846,7 +3907,7 @@
       <sheetData sheetId="4">
         <row r="1">
           <cell r="A1" t="str">
-            <v>EFFECT_TYPE</v>
+            <v>SECOND_TARGET_RULE_TYPE</v>
           </cell>
         </row>
         <row r="3">
@@ -3873,43 +3934,31 @@
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>DAMAGE</v>
+            <v>AROUND_SPLASH</v>
           </cell>
           <cell r="B5">
             <v>1</v>
           </cell>
           <cell r="C5" t="str">
-            <v>대미지 만큼 현재 체력 감소</v>
+            <v>타겟을 중심으로 지정 반경내에 감지되는 타겟 검사</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>NEXT_DAMAGE_REDUCT</v>
+            <v>BACK_SPLASH</v>
           </cell>
           <cell r="B6">
             <v>2</v>
           </cell>
           <cell r="C6" t="str">
-            <v>다음 피해의 데미지를 감소</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>HP_RECOVERY</v>
-          </cell>
-          <cell r="B7">
-            <v>3</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>대상의 현재 HP를 회복. 
-MAX HP를 초과할 수 없다</v>
+            <v>타겟 뒤로 지정 반경내에 감지되는 타겟 검사</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
         <row r="1">
           <cell r="A1" t="str">
-            <v>STAT_MULTIPLE_TYPE</v>
+            <v>EFFECT_TYPE</v>
           </cell>
         </row>
         <row r="3">
@@ -3936,6 +3985,69 @@
         </row>
         <row r="5">
           <cell r="A5" t="str">
+            <v>DAMAGE</v>
+          </cell>
+          <cell r="B5">
+            <v>1</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>대미지 만큼 현재 체력 감소</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>NEXT_DAMAGE_REDUCT</v>
+          </cell>
+          <cell r="B6">
+            <v>2</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>다음 피해의 데미지를 감소</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>HP_RECOVERY</v>
+          </cell>
+          <cell r="B7">
+            <v>3</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>대상의 현재 HP를 회복. 
+MAX HP를 초과할 수 없다</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>STAT_MULTIPLE_TYPE</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>type</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>value</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>comment</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
             <v>ATTACK_VALUE</v>
           </cell>
           <cell r="B5">
@@ -4045,10 +4157,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
-      <sheetData sheetId="9">
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10">
         <row r="1">
           <cell r="A1" t="str">
             <v>TARGET_TYPE</v>
@@ -4085,64 +4197,13 @@
           </cell>
           <cell r="C5" t="str">
             <v>적군</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="10">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ONETIME_EFFECT_TYPE</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>type</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>value</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>comment</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>NONE</v>
-          </cell>
-          <cell r="B4">
-            <v>0</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>NONE</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>DAMAGE</v>
-          </cell>
-          <cell r="B5">
-            <v>1</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>데미지를 준다</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>LIFE_RECOVERY</v>
-          </cell>
-          <cell r="B6">
-            <v>2</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>체력 회복</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="11">
         <row r="1">
           <cell r="A1" t="str">
-            <v>DURATION_EFFECT_TYPE</v>
+            <v>ONETIME_EFFECT_TYPE</v>
           </cell>
         </row>
         <row r="3">
@@ -4169,119 +4230,31 @@
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>DAMAGE_REDUCE</v>
+            <v>DAMAGE</v>
           </cell>
           <cell r="B5">
             <v>1</v>
           </cell>
           <cell r="C5" t="str">
-            <v>피해 감소</v>
+            <v>데미지를 준다</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>POISON</v>
+            <v>LIFE_RECOVERY</v>
           </cell>
           <cell r="B6">
-            <v>101</v>
+            <v>2</v>
           </cell>
           <cell r="C6" t="str">
-            <v>중독</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>STUN</v>
-          </cell>
-          <cell r="B7">
-            <v>102</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>기절</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>SILENCE</v>
-          </cell>
-          <cell r="B8">
-            <v>103</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>침묵</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>BIND</v>
-          </cell>
-          <cell r="B9">
-            <v>104</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>결박</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>FREEZE</v>
-          </cell>
-          <cell r="B10">
-            <v>105</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>빙결</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>ATK_UP</v>
-          </cell>
-          <cell r="B11">
-            <v>106</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>공격력 증가</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>DEF_UP</v>
-          </cell>
-          <cell r="B12">
-            <v>107</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>방어력 증가</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>ATK_DOWN</v>
-          </cell>
-          <cell r="B13">
-            <v>108</v>
-          </cell>
-          <cell r="C13" t="str">
-            <v>공격력 감소</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>DEF_DOWN</v>
-          </cell>
-          <cell r="B14">
-            <v>109</v>
-          </cell>
-          <cell r="C14" t="str">
-            <v>방어력 감소</v>
+            <v>체력 회복</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="12">
         <row r="1">
           <cell r="A1" t="str">
-            <v>PERSISTENCE_TYPE</v>
+            <v>DURATION_EFFECT_TYPE</v>
           </cell>
         </row>
         <row r="3">
@@ -4308,42 +4281,119 @@
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>TIME</v>
+            <v>DAMAGE_REDUCE</v>
           </cell>
           <cell r="B5">
             <v>1</v>
           </cell>
           <cell r="C5" t="str">
-            <v>시간 지속</v>
+            <v>피해 감소</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>HITTED</v>
+            <v>POISON</v>
           </cell>
           <cell r="B6">
-            <v>2</v>
+            <v>101</v>
           </cell>
           <cell r="C6" t="str">
-            <v>피격 횟수 제한</v>
+            <v>중독</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>ATTACK</v>
+            <v>STUN</v>
           </cell>
           <cell r="B7">
-            <v>3</v>
+            <v>102</v>
           </cell>
           <cell r="C7" t="str">
-            <v>공격 횟수 제한</v>
+            <v>기절</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>SILENCE</v>
+          </cell>
+          <cell r="B8">
+            <v>103</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>침묵</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>BIND</v>
+          </cell>
+          <cell r="B9">
+            <v>104</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>결박</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>FREEZE</v>
+          </cell>
+          <cell r="B10">
+            <v>105</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>빙결</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>ATK_UP</v>
+          </cell>
+          <cell r="B11">
+            <v>106</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>공격력 증가</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>DEF_UP</v>
+          </cell>
+          <cell r="B12">
+            <v>107</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>방어력 증가</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>ATK_DOWN</v>
+          </cell>
+          <cell r="B13">
+            <v>108</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>공격력 감소</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>DEF_DOWN</v>
+          </cell>
+          <cell r="B14">
+            <v>109</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>방어력 감소</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="13">
         <row r="1">
           <cell r="A1" t="str">
-            <v>PROJECTILE_TYPE</v>
+            <v>PERSISTENCE_TYPE</v>
           </cell>
         </row>
         <row r="3">
@@ -4370,6 +4420,68 @@
         </row>
         <row r="5">
           <cell r="A5" t="str">
+            <v>TIME</v>
+          </cell>
+          <cell r="B5">
+            <v>1</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>시간 지속</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>HITTED</v>
+          </cell>
+          <cell r="B6">
+            <v>2</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>피격 횟수 제한</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>ATTACK</v>
+          </cell>
+          <cell r="B7">
+            <v>3</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>공격 횟수 제한</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="14">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>PROJECTILE_TYPE</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>type</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>value</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>comment</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
             <v>THROW_FOOT</v>
           </cell>
           <cell r="B5">
@@ -4446,7 +4558,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4839,10 +4951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCF2545-5B22-48B7-AA3A-4E88E574D583}">
-  <dimension ref="A1:AI77"/>
+  <dimension ref="A1:AM77"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AC30" sqref="AC30"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AK2" sqref="AK2:AM5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4867,9 +4979,11 @@
     <col min="33" max="33" width="17.75" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="6.375" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="24.125" customWidth="1"/>
+    <col min="39" max="39" width="48.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'[1]@target_rule'!$A$1</f>
         <v>TARGET_RULE_TYPE</v>
@@ -4906,8 +5020,12 @@
         <f>'[2]@skill_type'!$A$1</f>
         <v>SKILL_TYPE</v>
       </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AK1" t="str">
+        <f>'[1]@second_target_rule'!$A$1</f>
+        <v>SECOND_TARGET_RULE_TYPE</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="str">
         <f>'[1]@target_rule'!$A3</f>
         <v>type</v>
@@ -5016,8 +5134,20 @@
         <f>'[2]@skill_type'!$C3</f>
         <v>comment</v>
       </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AK2" s="5" t="str">
+        <f>'[1]@second_target_rule'!$A3</f>
+        <v>type</v>
+      </c>
+      <c r="AL2" s="5" t="str">
+        <f>'[1]@second_target_rule'!$B3</f>
+        <v>value</v>
+      </c>
+      <c r="AM2" s="1" t="str">
+        <f>'[1]@second_target_rule'!$C3</f>
+        <v>comment</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="str">
         <f>'[1]@target_rule'!$A4</f>
         <v>RANDOM</v>
@@ -5126,8 +5256,20 @@
         <f>'[2]@skill_type'!$C4</f>
         <v>NONE</v>
       </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AK3" s="4" t="str">
+        <f>'[1]@second_target_rule'!$A4</f>
+        <v>NONE</v>
+      </c>
+      <c r="AL3" s="4">
+        <f>'[1]@second_target_rule'!$B4</f>
+        <v>0</v>
+      </c>
+      <c r="AM3" s="4" t="str">
+        <f>'[1]@second_target_rule'!$C4</f>
+        <v>NONE</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="str">
         <f>'[1]@target_rule'!$A5</f>
         <v>SELF</v>
@@ -5236,8 +5378,20 @@
         <f>'[2]@skill_type'!$C5</f>
         <v>일반 공격</v>
       </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AK4" s="4" t="str">
+        <f>'[1]@second_target_rule'!$A5</f>
+        <v>AROUND_SPLASH</v>
+      </c>
+      <c r="AL4" s="4">
+        <f>'[1]@second_target_rule'!$B5</f>
+        <v>1</v>
+      </c>
+      <c r="AM4" s="4" t="str">
+        <f>'[1]@second_target_rule'!$C5</f>
+        <v>타겟을 중심으로 지정 반경내에 감지되는 타겟 검사</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="str">
         <f>'[1]@target_rule'!$A6</f>
         <v>ALL</v>
@@ -5334,8 +5488,20 @@
         <f>'[2]@skill_type'!$C6</f>
         <v>스킬 공격 1</v>
       </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AK5" s="4" t="str">
+        <f>'[1]@second_target_rule'!$A6</f>
+        <v>BACK_SPLASH</v>
+      </c>
+      <c r="AL5" s="4">
+        <f>'[1]@second_target_rule'!$B6</f>
+        <v>2</v>
+      </c>
+      <c r="AM5" s="4" t="str">
+        <f>'[1]@second_target_rule'!$C6</f>
+        <v>타겟 뒤로 지정 반경내에 감지되는 타겟 검사</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="str">
         <f>'[1]@target_rule'!$A7</f>
         <v>ALL_WITHOUT_ME</v>
@@ -5422,7 +5588,7 @@
         <v>스킬 공격 2</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="str">
         <f>'[1]@target_rule'!$A8</f>
         <v>ALLY_WITHOUT_ME_NEAREST</v>
@@ -5484,7 +5650,7 @@
         <v>궁극기</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="str">
         <f>'[1]@target_rule'!$A9</f>
         <v>ALLY_WITHOUT_ME_FURTHEST</v>
@@ -5534,7 +5700,7 @@
         <v>타겟의 몸에서 즉시 효과 발동</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="str">
         <f>'[1]@target_rule'!$A10</f>
         <v>NEAREST</v>
@@ -5584,7 +5750,7 @@
         <v>타겟의 머리에서 즉시 효과 발동</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="str">
         <f>'[1]@target_rule'!$A11</f>
         <v>FURTHEST</v>
@@ -5634,7 +5800,7 @@
         <v>전체 선택(진영의 중앙)</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="str">
         <f>'[1]@target_rule'!$A12</f>
         <v>LOWEST_LIFE_VALUE</v>
@@ -5672,7 +5838,7 @@
         <v>방어력 증가</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="str">
         <f>'[1]@target_rule'!$A13</f>
         <v>LOWEST_ATTACK</v>
@@ -5710,7 +5876,7 @@
         <v>공격력 감소</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="str">
         <f>'[1]@target_rule'!$A14</f>
         <v>LOWEST_DEFENSE</v>
@@ -5748,7 +5914,7 @@
         <v>방어력 감소</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="str">
         <f>'[1]@target_rule'!$A15</f>
         <v>HIGHEST_ATTACK</v>
@@ -5762,7 +5928,7 @@
         <v>공격력이 가장 높은 타겟 선택</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="str">
         <f>'[1]@target_rule'!$A16</f>
         <v>HIGHEST_DEFENSE</v>
@@ -5776,7 +5942,7 @@
         <v>방어력이 가장 높은 타겟 선택</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="str">
         <f>'[1]@target_rule'!$A17</f>
         <v>APPROACH</v>
@@ -6654,7 +6820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D77A34-98F9-4133-B549-FB86B9DF331B}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -6767,7 +6933,7 @@
       <c r="D5" s="54">
         <v>2</v>
       </c>
-      <c r="E5" s="95">
+      <c r="E5" s="53">
         <v>1</v>
       </c>
       <c r="F5" s="53" t="s">
@@ -6792,7 +6958,7 @@
       <c r="D6" s="22">
         <v>2</v>
       </c>
-      <c r="E6" s="96">
+      <c r="E6" s="21">
         <v>2</v>
       </c>
       <c r="F6" s="21" t="s">
@@ -6817,7 +6983,7 @@
       <c r="D7" s="58">
         <v>2</v>
       </c>
-      <c r="E7" s="97">
+      <c r="E7" s="57">
         <v>3</v>
       </c>
       <c r="F7" s="57" t="s">
@@ -6842,7 +7008,7 @@
       <c r="D8" s="54">
         <v>2</v>
       </c>
-      <c r="E8" s="95">
+      <c r="E8" s="53">
         <v>1</v>
       </c>
       <c r="F8" s="53" t="s">
@@ -6867,7 +7033,7 @@
       <c r="D9" s="22">
         <v>2</v>
       </c>
-      <c r="E9" s="96">
+      <c r="E9" s="21">
         <v>2</v>
       </c>
       <c r="F9" s="21" t="s">
@@ -6892,7 +7058,7 @@
       <c r="D10" s="58">
         <v>2</v>
       </c>
-      <c r="E10" s="97">
+      <c r="E10" s="57">
         <v>3</v>
       </c>
       <c r="F10" s="57" t="s">
@@ -6917,7 +7083,7 @@
       <c r="D11" s="54">
         <v>2</v>
       </c>
-      <c r="E11" s="95">
+      <c r="E11" s="53">
         <v>1</v>
       </c>
       <c r="F11" s="53" t="s">
@@ -6942,7 +7108,7 @@
       <c r="D12" s="22">
         <v>2</v>
       </c>
-      <c r="E12" s="96">
+      <c r="E12" s="21">
         <v>2</v>
       </c>
       <c r="F12" s="21" t="s">
@@ -6967,7 +7133,7 @@
       <c r="D13" s="58">
         <v>2</v>
       </c>
-      <c r="E13" s="97">
+      <c r="E13" s="57">
         <v>3</v>
       </c>
       <c r="F13" s="57" t="s">
@@ -6992,7 +7158,7 @@
       <c r="D14" s="54">
         <v>2</v>
       </c>
-      <c r="E14" s="95">
+      <c r="E14" s="53">
         <v>1</v>
       </c>
       <c r="F14" s="53" t="s">
@@ -7017,7 +7183,7 @@
       <c r="D15" s="22">
         <v>2</v>
       </c>
-      <c r="E15" s="96">
+      <c r="E15" s="21">
         <v>2</v>
       </c>
       <c r="F15" s="21" t="s">
@@ -7042,7 +7208,7 @@
       <c r="D16" s="78">
         <v>2</v>
       </c>
-      <c r="E16" s="98">
+      <c r="E16" s="77">
         <v>3</v>
       </c>
       <c r="F16" s="77" t="s">
@@ -7067,7 +7233,7 @@
       <c r="D17" s="54">
         <v>2</v>
       </c>
-      <c r="E17" s="95">
+      <c r="E17" s="53">
         <v>1</v>
       </c>
       <c r="F17" s="53" t="s">
@@ -7092,7 +7258,7 @@
       <c r="D18" s="7">
         <v>2</v>
       </c>
-      <c r="E18" s="99">
+      <c r="E18" s="4">
         <v>2</v>
       </c>
       <c r="F18" s="21" t="s">
@@ -7117,7 +7283,7 @@
       <c r="D19" s="37">
         <v>2.5</v>
       </c>
-      <c r="E19" s="100">
+      <c r="E19" s="48">
         <v>3</v>
       </c>
       <c r="F19" s="57" t="s">
@@ -7142,7 +7308,7 @@
       <c r="D20" s="54">
         <v>2</v>
       </c>
-      <c r="E20" s="95">
+      <c r="E20" s="53">
         <v>1</v>
       </c>
       <c r="F20" s="53" t="s">
@@ -7167,7 +7333,7 @@
       <c r="D21" s="7">
         <v>2</v>
       </c>
-      <c r="E21" s="99">
+      <c r="E21" s="4">
         <v>2</v>
       </c>
       <c r="F21" s="21" t="s">
@@ -7192,7 +7358,7 @@
       <c r="D22" s="37">
         <v>2.5</v>
       </c>
-      <c r="E22" s="100">
+      <c r="E22" s="48">
         <v>3</v>
       </c>
       <c r="F22" s="57" t="s">
@@ -7223,39 +7389,39 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00F7AA3-FB12-454D-93A6-31450B9003EC}">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A24" sqref="A24:XFD42"/>
+      <selection pane="bottomRight" activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.75" customWidth="1"/>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="21.625" customWidth="1"/>
+    <col min="5" max="5" width="18.875" customWidth="1"/>
     <col min="6" max="6" width="59" style="9" customWidth="1"/>
     <col min="7" max="7" width="9.75" customWidth="1"/>
     <col min="8" max="8" width="9.125" customWidth="1"/>
     <col min="9" max="9" width="17.875" customWidth="1"/>
     <col min="10" max="10" width="28.125" customWidth="1"/>
     <col min="11" max="11" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18" customWidth="1"/>
-    <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.875" customWidth="1"/>
-    <col min="16" max="16" width="69.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.375" customWidth="1"/>
+    <col min="16" max="16" width="18" customWidth="1"/>
+    <col min="17" max="17" width="19" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.875" customWidth="1"/>
+    <col min="20" max="20" width="69.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="95" t="s">
         <v>46</v>
       </c>
       <c r="B1" s="6"/>
@@ -7270,8 +7436,12 @@
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+    </row>
+    <row r="2" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -7306,25 +7476,37 @@
         <v>101</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="14" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
@@ -7359,25 +7541,37 @@
         <v>8</v>
       </c>
       <c r="L3" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="Q3" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="R3" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="S3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="T3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="U3" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="24" t="s">
         <v>2</v>
       </c>
@@ -7412,25 +7606,37 @@
         <v>43</v>
       </c>
       <c r="L4" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="P4" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="M4" s="24" t="s">
+      <c r="Q4" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="N4" s="24" t="s">
+      <c r="R4" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="O4" s="24" t="s">
+      <c r="S4" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="P4" s="24" t="s">
+      <c r="T4" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="Q4" s="24" t="s">
+      <c r="U4" s="24" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27">
         <v>100001</v>
       </c>
@@ -7466,24 +7672,37 @@
       <c r="K5" s="28">
         <v>0</v>
       </c>
-      <c r="L5" s="28">
+      <c r="L5" s="96">
+        <v>0</v>
+      </c>
+      <c r="M5" s="96" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L5,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="N5" s="96">
+        <v>0</v>
+      </c>
+      <c r="O5" s="96">
+        <v>0</v>
+      </c>
+      <c r="P5" s="28">
         <v>100</v>
       </c>
-      <c r="M5" s="31">
+      <c r="Q5" s="31">
         <v>100001</v>
       </c>
-      <c r="N5" s="31">
-        <v>0</v>
-      </c>
-      <c r="O5" s="31" t="s">
+      <c r="R5" s="31">
+        <v>0</v>
+      </c>
+      <c r="S5" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T5" s="31"/>
+      <c r="U5" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="33">
         <v>100002</v>
       </c>
@@ -7519,23 +7738,36 @@
       <c r="K6" s="19">
         <v>0</v>
       </c>
-      <c r="L6" s="19">
+      <c r="L6" s="97">
+        <v>0</v>
+      </c>
+      <c r="M6" s="97" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L6,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="N6" s="97">
+        <v>0</v>
+      </c>
+      <c r="O6" s="97">
+        <v>0</v>
+      </c>
+      <c r="P6" s="19">
         <v>100</v>
       </c>
-      <c r="M6">
+      <c r="Q6">
         <v>100002</v>
       </c>
-      <c r="N6" s="50">
-        <v>0</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="R6" s="50">
+        <v>0</v>
+      </c>
+      <c r="S6" t="s">
         <v>120</v>
       </c>
-      <c r="Q6" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U6" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="35">
         <v>100003</v>
       </c>
@@ -7571,24 +7803,37 @@
       <c r="K7" s="36">
         <v>0</v>
       </c>
-      <c r="L7" s="36">
+      <c r="L7" s="98">
+        <v>0</v>
+      </c>
+      <c r="M7" s="98" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L7,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="N7" s="98">
+        <v>0</v>
+      </c>
+      <c r="O7" s="98">
+        <v>0</v>
+      </c>
+      <c r="P7" s="36">
         <v>100</v>
       </c>
-      <c r="M7" s="39">
+      <c r="Q7" s="39">
         <v>100003</v>
       </c>
-      <c r="N7" s="39">
-        <v>0</v>
-      </c>
-      <c r="O7" s="39" t="s">
+      <c r="R7" s="39">
+        <v>0</v>
+      </c>
+      <c r="S7" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T7" s="39"/>
+      <c r="U7" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="27">
         <v>100101</v>
       </c>
@@ -7624,24 +7869,37 @@
       <c r="K8" s="28">
         <v>0</v>
       </c>
-      <c r="L8" s="28" t="s">
+      <c r="L8" s="96">
+        <v>0</v>
+      </c>
+      <c r="M8" s="96" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L8,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="N8" s="96">
+        <v>0</v>
+      </c>
+      <c r="O8" s="96">
+        <v>0</v>
+      </c>
+      <c r="P8" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="M8" s="31">
+      <c r="Q8" s="31">
         <v>100004</v>
       </c>
-      <c r="N8" s="31">
-        <v>0</v>
-      </c>
-      <c r="O8" s="31" t="s">
+      <c r="R8" s="31">
+        <v>0</v>
+      </c>
+      <c r="S8" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T8" s="31"/>
+      <c r="U8" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="33">
         <v>100102</v>
       </c>
@@ -7677,23 +7935,36 @@
       <c r="K9" s="19">
         <v>0</v>
       </c>
-      <c r="L9" s="19">
+      <c r="L9" s="97">
+        <v>0</v>
+      </c>
+      <c r="M9" s="97" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L9,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="N9" s="97">
+        <v>0</v>
+      </c>
+      <c r="O9" s="97">
+        <v>0</v>
+      </c>
+      <c r="P9" s="19">
         <v>100</v>
       </c>
-      <c r="M9">
+      <c r="Q9">
         <v>100005</v>
       </c>
-      <c r="N9" s="4">
-        <v>0</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="R9" s="4">
+        <v>0</v>
+      </c>
+      <c r="S9" t="s">
         <v>120</v>
       </c>
-      <c r="Q9" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="U9" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="33">
         <v>100103</v>
       </c>
@@ -7729,23 +8000,36 @@
       <c r="K10" s="19">
         <v>0</v>
       </c>
-      <c r="L10" s="19">
+      <c r="L10" s="97">
+        <v>0</v>
+      </c>
+      <c r="M10" s="97" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L10,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="N10" s="97">
+        <v>0</v>
+      </c>
+      <c r="O10" s="97">
+        <v>0</v>
+      </c>
+      <c r="P10" s="19">
         <v>100</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10" s="4">
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10" s="4">
         <v>500002</v>
       </c>
-      <c r="O10" t="s">
+      <c r="S10" t="s">
         <v>121</v>
       </c>
-      <c r="Q10" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U10" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="33">
         <v>100104</v>
       </c>
@@ -7781,23 +8065,36 @@
       <c r="K11" s="19">
         <v>0</v>
       </c>
-      <c r="L11" s="19" t="s">
+      <c r="L11" s="97">
+        <v>0</v>
+      </c>
+      <c r="M11" s="97" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L11,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="N11" s="97">
+        <v>0</v>
+      </c>
+      <c r="O11" s="97">
+        <v>0</v>
+      </c>
+      <c r="P11" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="M11" s="62">
+      <c r="Q11" s="62">
         <v>100006</v>
       </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11" t="s">
         <v>120</v>
       </c>
-      <c r="Q11" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="U11" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="63">
         <v>100201</v>
       </c>
@@ -7833,26 +8130,39 @@
       <c r="K12" s="64">
         <v>0</v>
       </c>
-      <c r="L12" s="64">
+      <c r="L12" s="99">
+        <v>0</v>
+      </c>
+      <c r="M12" s="99" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L12,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="N12" s="99">
+        <v>0</v>
+      </c>
+      <c r="O12" s="99">
+        <v>0</v>
+      </c>
+      <c r="P12" s="64">
         <v>100</v>
       </c>
-      <c r="M12" s="31">
+      <c r="Q12" s="31">
         <v>100007</v>
       </c>
-      <c r="N12" s="31">
-        <v>0</v>
-      </c>
-      <c r="O12" s="31" t="s">
+      <c r="R12" s="31">
+        <v>0</v>
+      </c>
+      <c r="S12" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="P12" s="31" t="s">
+      <c r="T12" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="Q12" s="66">
+      <c r="U12" s="66">
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="67">
         <v>100202</v>
       </c>
@@ -7888,26 +8198,39 @@
       <c r="K13" s="6">
         <v>0</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="95">
+        <v>0</v>
+      </c>
+      <c r="M13" s="95" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L13,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="N13" s="95">
+        <v>0</v>
+      </c>
+      <c r="O13" s="95">
+        <v>0</v>
+      </c>
+      <c r="P13" s="6">
         <v>100</v>
       </c>
-      <c r="M13">
+      <c r="Q13">
         <v>100008</v>
       </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13" t="s">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13" t="s">
         <v>90</v>
       </c>
-      <c r="P13" t="s">
+      <c r="T13" t="s">
         <v>122</v>
       </c>
-      <c r="Q13" s="68">
+      <c r="U13" s="68">
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="69">
         <v>100203</v>
       </c>
@@ -7943,26 +8266,39 @@
       <c r="K14" s="70">
         <v>0</v>
       </c>
-      <c r="L14" s="70">
+      <c r="L14" s="100">
+        <v>0</v>
+      </c>
+      <c r="M14" s="100" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L14,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="N14" s="100">
+        <v>0</v>
+      </c>
+      <c r="O14" s="100">
+        <v>0</v>
+      </c>
+      <c r="P14" s="70">
         <v>100</v>
       </c>
-      <c r="M14" s="39">
+      <c r="Q14" s="39">
         <v>100009</v>
       </c>
-      <c r="N14" s="39">
-        <v>0</v>
-      </c>
-      <c r="O14" s="39" t="s">
+      <c r="R14" s="39">
+        <v>0</v>
+      </c>
+      <c r="S14" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="P14" s="39" t="s">
+      <c r="T14" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="Q14" s="72">
+      <c r="U14" s="72">
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="27">
         <v>100301</v>
       </c>
@@ -7998,26 +8334,39 @@
       <c r="K15" s="28">
         <v>0</v>
       </c>
-      <c r="L15" s="28">
+      <c r="L15" s="96">
+        <v>0</v>
+      </c>
+      <c r="M15" s="96" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L15,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="N15" s="96">
+        <v>0</v>
+      </c>
+      <c r="O15" s="96">
+        <v>0</v>
+      </c>
+      <c r="P15" s="28">
         <v>100</v>
       </c>
-      <c r="M15" s="31">
+      <c r="Q15" s="31">
         <v>100010</v>
       </c>
-      <c r="N15" s="51">
-        <v>0</v>
-      </c>
-      <c r="O15" s="31" t="s">
+      <c r="R15" s="51">
+        <v>0</v>
+      </c>
+      <c r="S15" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="P15" s="31" t="s">
+      <c r="T15" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="Q15" s="73">
+      <c r="U15" s="73">
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="33">
         <v>100302</v>
       </c>
@@ -8053,26 +8402,39 @@
       <c r="K16" s="19">
         <v>0</v>
       </c>
-      <c r="L16" s="19">
+      <c r="L16" s="97">
+        <v>0</v>
+      </c>
+      <c r="M16" s="97" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L16,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="N16" s="97">
+        <v>0</v>
+      </c>
+      <c r="O16" s="97">
+        <v>0</v>
+      </c>
+      <c r="P16" s="19">
         <v>100</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16" s="50">
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16" s="50">
         <v>500003</v>
       </c>
-      <c r="O16" t="s">
+      <c r="S16" t="s">
         <v>121</v>
       </c>
-      <c r="P16" t="s">
+      <c r="T16" t="s">
         <v>123</v>
       </c>
-      <c r="Q16" s="68">
+      <c r="U16" s="68">
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="35">
         <v>100303</v>
       </c>
@@ -8108,26 +8470,39 @@
       <c r="K17" s="36">
         <v>0</v>
       </c>
-      <c r="L17" s="36">
+      <c r="L17" s="98">
+        <v>0</v>
+      </c>
+      <c r="M17" s="98" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L17,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="N17" s="98">
+        <v>0</v>
+      </c>
+      <c r="O17" s="98">
+        <v>0</v>
+      </c>
+      <c r="P17" s="36">
         <v>100</v>
       </c>
-      <c r="M17" s="39">
+      <c r="Q17" s="39">
         <v>100011</v>
       </c>
-      <c r="N17" s="52">
-        <v>0</v>
-      </c>
-      <c r="O17" s="39" t="s">
+      <c r="R17" s="52">
+        <v>0</v>
+      </c>
+      <c r="S17" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="P17" s="39" t="s">
+      <c r="T17" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="Q17" s="74">
+      <c r="U17" s="74">
         <v>0.3</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19">
         <v>100401</v>
       </c>
@@ -8163,26 +8538,39 @@
       <c r="K18" s="19">
         <v>0</v>
       </c>
-      <c r="L18" s="19">
+      <c r="L18" s="97">
+        <v>0</v>
+      </c>
+      <c r="M18" s="97" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L18,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="N18" s="97">
+        <v>0</v>
+      </c>
+      <c r="O18" s="97">
+        <v>0</v>
+      </c>
+      <c r="P18" s="19">
         <v>100</v>
       </c>
-      <c r="M18" s="50">
+      <c r="Q18" s="50">
         <v>100012</v>
       </c>
-      <c r="N18" s="50">
-        <v>0</v>
-      </c>
-      <c r="O18" t="s">
+      <c r="R18" s="50">
+        <v>0</v>
+      </c>
+      <c r="S18" t="s">
         <v>90</v>
       </c>
-      <c r="P18" t="s">
+      <c r="T18" t="s">
         <v>122</v>
       </c>
-      <c r="Q18" s="26">
+      <c r="U18" s="26">
         <v>0.3</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
         <v>100402</v>
       </c>
@@ -8218,26 +8606,39 @@
       <c r="K19" s="19">
         <v>0</v>
       </c>
-      <c r="L19" s="19">
+      <c r="L19" s="97">
+        <v>0</v>
+      </c>
+      <c r="M19" s="97" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L19,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="N19" s="97">
+        <v>0</v>
+      </c>
+      <c r="O19" s="97">
+        <v>0</v>
+      </c>
+      <c r="P19" s="19">
         <v>100</v>
       </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19" s="50">
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19" s="50">
         <v>500004</v>
       </c>
-      <c r="O19" t="s">
+      <c r="S19" t="s">
         <v>121</v>
       </c>
-      <c r="P19" t="s">
+      <c r="T19" t="s">
         <v>123</v>
       </c>
-      <c r="Q19" s="23">
+      <c r="U19" s="23">
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="19">
         <v>100403</v>
       </c>
@@ -8273,26 +8674,39 @@
       <c r="K20" s="19">
         <v>0</v>
       </c>
-      <c r="L20" s="19">
+      <c r="L20" s="97">
+        <v>0</v>
+      </c>
+      <c r="M20" s="97" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L20,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="N20" s="97">
+        <v>0</v>
+      </c>
+      <c r="O20" s="97">
+        <v>0</v>
+      </c>
+      <c r="P20" s="19">
         <v>100</v>
       </c>
-      <c r="M20" s="50">
+      <c r="Q20" s="50">
         <v>100013</v>
       </c>
-      <c r="N20" s="50">
-        <v>0</v>
-      </c>
-      <c r="O20" t="s">
+      <c r="R20" s="50">
+        <v>0</v>
+      </c>
+      <c r="S20" t="s">
         <v>90</v>
       </c>
-      <c r="P20" t="s">
+      <c r="T20" t="s">
         <v>122</v>
       </c>
-      <c r="Q20" s="61">
+      <c r="U20" s="61">
         <v>0.3</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="42">
         <v>100501</v>
       </c>
@@ -8328,26 +8742,39 @@
       <c r="K21" s="29">
         <v>0</v>
       </c>
-      <c r="L21" s="29">
+      <c r="L21" s="101">
+        <v>0</v>
+      </c>
+      <c r="M21" s="101" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L21,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="N21" s="101">
+        <v>0</v>
+      </c>
+      <c r="O21" s="101">
+        <v>0</v>
+      </c>
+      <c r="P21" s="29">
         <v>100</v>
       </c>
-      <c r="M21" s="43">
+      <c r="Q21" s="43">
         <v>100014</v>
       </c>
-      <c r="N21" s="43">
-        <v>0</v>
-      </c>
-      <c r="O21" s="43" t="s">
+      <c r="R21" s="43">
+        <v>0</v>
+      </c>
+      <c r="S21" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="P21" s="43" t="s">
+      <c r="T21" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="Q21" s="73">
+      <c r="U21" s="73">
         <v>0.3</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="45">
         <v>100502</v>
       </c>
@@ -8383,26 +8810,39 @@
       <c r="K22" s="7">
         <v>0</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="102">
+        <v>0</v>
+      </c>
+      <c r="M22" s="102" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L22,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="N22" s="102">
+        <v>0</v>
+      </c>
+      <c r="O22" s="102">
+        <v>0</v>
+      </c>
+      <c r="P22" s="7">
         <v>100</v>
       </c>
-      <c r="M22" s="43">
+      <c r="Q22" s="43">
         <v>100014</v>
       </c>
-      <c r="N22" s="4">
+      <c r="R22" s="4">
         <v>500005</v>
       </c>
-      <c r="O22" s="4" t="s">
+      <c r="S22" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="P22" s="43" t="s">
+      <c r="T22" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="Q22" s="82">
+      <c r="U22" s="82">
         <v>0.3</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="47">
         <v>100503</v>
       </c>
@@ -8438,22 +8878,35 @@
       <c r="K23" s="37">
         <v>0</v>
       </c>
-      <c r="L23" s="37">
+      <c r="L23" s="103">
+        <v>0</v>
+      </c>
+      <c r="M23" s="103" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L23,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="N23" s="103">
+        <v>0</v>
+      </c>
+      <c r="O23" s="103">
+        <v>0</v>
+      </c>
+      <c r="P23" s="37">
         <v>100</v>
       </c>
-      <c r="M23" s="48">
+      <c r="Q23" s="48">
         <v>100015</v>
       </c>
-      <c r="N23" s="48">
-        <v>0</v>
-      </c>
-      <c r="O23" s="48" t="s">
+      <c r="R23" s="48">
+        <v>0</v>
+      </c>
+      <c r="S23" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="P23" s="48" t="s">
+      <c r="T23" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="Q23" s="74">
+      <c r="U23" s="74">
         <v>0.3</v>
       </c>
     </row>
@@ -8461,6 +8914,18 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{110C5FF2-D44D-4540-8ADA-377E88D78987}">
+          <x14:formula1>
+            <xm:f>'!참조_ENUM'!$AL$3:$AL$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>L5:L23</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 

--- a/Android/ExcelData/PCSkillTable.xlsx
+++ b/Android/ExcelData/PCSkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1CE2A6-C69E-4EB6-86DC-7D7EF58B0522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762FEAC7-6E4C-4692-A0C5-CB183570EE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
@@ -2189,19 +2189,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>세컨 타겟 카운트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>second_target_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>세컨 타겟 반경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>second_target_radius</t>
+    <t>second_target_range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 세컨 타겟 카운트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_second_target_count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2703,7 +2703,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2989,31 +2989,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3056,11 +3038,12 @@
       <sheetName val="@persistence_type"/>
       <sheetName val="@projectile_type"/>
       <sheetName val="@inequality_type"/>
+      <sheetName val="@skill_type"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3">
         <row r="1">
           <cell r="A1" t="str">
@@ -4157,9 +4140,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
       <sheetData sheetId="10">
         <row r="1">
           <cell r="A1" t="str">
@@ -4558,7 +4541,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="15"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4572,83 +4556,9 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="@pc_npc"/>
-      <sheetName val="@skill_type"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>SKILL_TYPE</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>type</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>value</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>comment</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>NONE</v>
-          </cell>
-          <cell r="B4">
-            <v>0</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>NONE</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>NORMAL_ATTACK</v>
-          </cell>
-          <cell r="B5">
-            <v>1</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>일반 공격</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>SKILL_01</v>
-          </cell>
-          <cell r="B6">
-            <v>2</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>스킬 공격 1</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>SKILL_02</v>
-          </cell>
-          <cell r="B7">
-            <v>3</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>스킬 공격 2</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>SPECIAL_SKILL</v>
-          </cell>
-          <cell r="B8">
-            <v>4</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>궁극기</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5016,9 +4926,9 @@
         <f>'[1]@projectile_type'!$A$1</f>
         <v>PROJECTILE_TYPE</v>
       </c>
-      <c r="AG1" t="str">
-        <f>'[2]@skill_type'!$A$1</f>
-        <v>SKILL_TYPE</v>
+      <c r="AG1" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="AK1" t="str">
         <f>'[1]@second_target_rule'!$A$1</f>
@@ -5122,17 +5032,17 @@
         <f>'[1]@projectile_type'!$C3</f>
         <v>comment</v>
       </c>
-      <c r="AG2" s="5" t="str">
-        <f>'[2]@skill_type'!$A3</f>
-        <v>type</v>
-      </c>
-      <c r="AH2" s="5" t="str">
-        <f>'[2]@skill_type'!$B3</f>
-        <v>value</v>
-      </c>
-      <c r="AI2" s="1" t="str">
-        <f>'[2]@skill_type'!$C3</f>
-        <v>comment</v>
+      <c r="AG2" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AH2" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AI2" s="1" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="AK2" s="5" t="str">
         <f>'[1]@second_target_rule'!$A3</f>
@@ -5244,17 +5154,17 @@
         <f>'[1]@projectile_type'!$C4</f>
         <v>NONE</v>
       </c>
-      <c r="AG3" s="4" t="str">
-        <f>'[2]@skill_type'!$A4</f>
-        <v>NONE</v>
-      </c>
-      <c r="AH3" s="4">
-        <f>'[2]@skill_type'!$B4</f>
-        <v>0</v>
-      </c>
-      <c r="AI3" s="4" t="str">
-        <f>'[2]@skill_type'!$C4</f>
-        <v>NONE</v>
+      <c r="AG3" s="4" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AH3" s="4" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AI3" s="4" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="AK3" s="4" t="str">
         <f>'[1]@second_target_rule'!$A4</f>
@@ -5366,17 +5276,17 @@
         <f>'[1]@projectile_type'!$C5</f>
         <v>투사체를 타겟의 발 밑에 던진다</v>
       </c>
-      <c r="AG4" s="4" t="str">
-        <f>'[2]@skill_type'!$A5</f>
-        <v>NORMAL_ATTACK</v>
-      </c>
-      <c r="AH4" s="4">
-        <f>'[2]@skill_type'!$B5</f>
-        <v>1</v>
-      </c>
-      <c r="AI4" s="4" t="str">
-        <f>'[2]@skill_type'!$C5</f>
-        <v>일반 공격</v>
+      <c r="AG4" s="4" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AH4" s="4" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AI4" s="4" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="AK4" s="4" t="str">
         <f>'[1]@second_target_rule'!$A5</f>
@@ -5476,17 +5386,17 @@
         <f>'[1]@projectile_type'!$C6</f>
         <v>투사체를 타겟의 몸에 던진다</v>
       </c>
-      <c r="AG5" s="4" t="str">
-        <f>'[2]@skill_type'!$A6</f>
-        <v>SKILL_01</v>
-      </c>
-      <c r="AH5" s="4">
-        <f>'[2]@skill_type'!$B6</f>
-        <v>2</v>
-      </c>
-      <c r="AI5" s="4" t="str">
-        <f>'[2]@skill_type'!$C6</f>
-        <v>스킬 공격 1</v>
+      <c r="AG5" s="4" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AH5" s="4" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AI5" s="4" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="AK5" s="4" t="str">
         <f>'[1]@second_target_rule'!$A6</f>
@@ -5575,17 +5485,17 @@
         <f>'[1]@projectile_type'!$C7</f>
         <v>투사체를 타겟의 머리에 던진다</v>
       </c>
-      <c r="AG6" s="4" t="str">
-        <f>'[2]@skill_type'!$A7</f>
-        <v>SKILL_02</v>
-      </c>
-      <c r="AH6" s="4">
-        <f>'[2]@skill_type'!$B7</f>
-        <v>3</v>
-      </c>
-      <c r="AI6" s="4" t="str">
-        <f>'[2]@skill_type'!$C7</f>
-        <v>스킬 공격 2</v>
+      <c r="AG6" s="4" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AH6" s="4" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AI6" s="4" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.3">
@@ -5637,17 +5547,17 @@
         <f>'[1]@projectile_type'!$C8</f>
         <v>타겟의 발 밑에서 즉시 효과 발동</v>
       </c>
-      <c r="AG7" s="4" t="str">
-        <f>'[2]@skill_type'!$A8</f>
-        <v>SPECIAL_SKILL</v>
-      </c>
-      <c r="AH7" s="4">
-        <f>'[2]@skill_type'!$B8</f>
-        <v>4</v>
-      </c>
-      <c r="AI7" s="4" t="str">
-        <f>'[2]@skill_type'!$C8</f>
-        <v>궁극기</v>
+      <c r="AG7" s="4" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AH7" s="4" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AI7" s="4" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.3">
@@ -7395,7 +7305,7 @@
       <pane xSplit="3" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P13" sqref="P13"/>
+      <selection pane="bottomRight" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7421,7 +7331,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
+      <c r="A1" t="s">
         <v>46</v>
       </c>
       <c r="B1" s="6"/>
@@ -7482,10 +7392,10 @@
         <v>169</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>87</v>
@@ -7612,10 +7522,10 @@
         <v>170</v>
       </c>
       <c r="N4" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="O4" s="24" t="s">
         <v>172</v>
-      </c>
-      <c r="O4" s="24" t="s">
-        <v>174</v>
       </c>
       <c r="P4" s="24" t="s">
         <v>86</v>
@@ -7672,17 +7582,17 @@
       <c r="K5" s="28">
         <v>0</v>
       </c>
-      <c r="L5" s="96">
-        <v>0</v>
-      </c>
-      <c r="M5" s="96" t="str">
+      <c r="L5" s="95">
+        <v>0</v>
+      </c>
+      <c r="M5" s="95" t="str">
         <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L5,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="N5" s="96">
-        <v>0</v>
-      </c>
-      <c r="O5" s="96">
+      <c r="N5" s="95">
+        <v>0</v>
+      </c>
+      <c r="O5" s="95">
         <v>0</v>
       </c>
       <c r="P5" s="28">
@@ -7738,17 +7648,17 @@
       <c r="K6" s="19">
         <v>0</v>
       </c>
-      <c r="L6" s="97">
-        <v>0</v>
-      </c>
-      <c r="M6" s="97" t="str">
+      <c r="L6" s="96">
+        <v>0</v>
+      </c>
+      <c r="M6" s="96" t="str">
         <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L6,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="N6" s="97">
-        <v>0</v>
-      </c>
-      <c r="O6" s="97">
+      <c r="N6" s="96">
+        <v>0</v>
+      </c>
+      <c r="O6" s="96">
         <v>0</v>
       </c>
       <c r="P6" s="19">
@@ -7803,17 +7713,17 @@
       <c r="K7" s="36">
         <v>0</v>
       </c>
-      <c r="L7" s="98">
-        <v>0</v>
-      </c>
-      <c r="M7" s="98" t="str">
+      <c r="L7" s="97">
+        <v>0</v>
+      </c>
+      <c r="M7" s="97" t="str">
         <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L7,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="N7" s="98">
-        <v>0</v>
-      </c>
-      <c r="O7" s="98">
+      <c r="N7" s="97">
+        <v>0</v>
+      </c>
+      <c r="O7" s="97">
         <v>0</v>
       </c>
       <c r="P7" s="36">
@@ -7869,17 +7779,17 @@
       <c r="K8" s="28">
         <v>0</v>
       </c>
-      <c r="L8" s="96">
-        <v>0</v>
-      </c>
-      <c r="M8" s="96" t="str">
+      <c r="L8" s="95">
+        <v>0</v>
+      </c>
+      <c r="M8" s="95" t="str">
         <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L8,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="N8" s="96">
-        <v>0</v>
-      </c>
-      <c r="O8" s="96">
+      <c r="N8" s="95">
+        <v>0</v>
+      </c>
+      <c r="O8" s="95">
         <v>0</v>
       </c>
       <c r="P8" s="28" t="s">
@@ -7935,17 +7845,17 @@
       <c r="K9" s="19">
         <v>0</v>
       </c>
-      <c r="L9" s="97">
-        <v>0</v>
-      </c>
-      <c r="M9" s="97" t="str">
+      <c r="L9" s="96">
+        <v>0</v>
+      </c>
+      <c r="M9" s="96" t="str">
         <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L9,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="N9" s="97">
-        <v>0</v>
-      </c>
-      <c r="O9" s="97">
+      <c r="N9" s="96">
+        <v>0</v>
+      </c>
+      <c r="O9" s="96">
         <v>0</v>
       </c>
       <c r="P9" s="19">
@@ -8000,17 +7910,17 @@
       <c r="K10" s="19">
         <v>0</v>
       </c>
-      <c r="L10" s="97">
-        <v>0</v>
-      </c>
-      <c r="M10" s="97" t="str">
+      <c r="L10" s="96">
+        <v>0</v>
+      </c>
+      <c r="M10" s="96" t="str">
         <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L10,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="N10" s="97">
-        <v>0</v>
-      </c>
-      <c r="O10" s="97">
+      <c r="N10" s="96">
+        <v>0</v>
+      </c>
+      <c r="O10" s="96">
         <v>0</v>
       </c>
       <c r="P10" s="19">
@@ -8065,17 +7975,17 @@
       <c r="K11" s="19">
         <v>0</v>
       </c>
-      <c r="L11" s="97">
-        <v>0</v>
-      </c>
-      <c r="M11" s="97" t="str">
+      <c r="L11" s="96">
+        <v>0</v>
+      </c>
+      <c r="M11" s="96" t="str">
         <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L11,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="N11" s="97">
-        <v>0</v>
-      </c>
-      <c r="O11" s="97">
+      <c r="N11" s="96">
+        <v>0</v>
+      </c>
+      <c r="O11" s="96">
         <v>0</v>
       </c>
       <c r="P11" s="19" t="s">
@@ -8130,17 +8040,17 @@
       <c r="K12" s="64">
         <v>0</v>
       </c>
-      <c r="L12" s="99">
-        <v>0</v>
-      </c>
-      <c r="M12" s="99" t="str">
+      <c r="L12" s="31">
+        <v>0</v>
+      </c>
+      <c r="M12" s="31" t="str">
         <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L12,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="N12" s="99">
-        <v>0</v>
-      </c>
-      <c r="O12" s="99">
+      <c r="N12" s="31">
+        <v>0</v>
+      </c>
+      <c r="O12" s="31">
         <v>0</v>
       </c>
       <c r="P12" s="64">
@@ -8198,17 +8108,17 @@
       <c r="K13" s="6">
         <v>0</v>
       </c>
-      <c r="L13" s="95">
-        <v>0</v>
-      </c>
-      <c r="M13" s="95" t="str">
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" t="str">
         <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L13,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="N13" s="95">
-        <v>0</v>
-      </c>
-      <c r="O13" s="95">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" s="6">
@@ -8266,17 +8176,17 @@
       <c r="K14" s="70">
         <v>0</v>
       </c>
-      <c r="L14" s="100">
-        <v>0</v>
-      </c>
-      <c r="M14" s="100" t="str">
+      <c r="L14" s="39">
+        <v>0</v>
+      </c>
+      <c r="M14" s="39" t="str">
         <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L14,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="N14" s="100">
-        <v>0</v>
-      </c>
-      <c r="O14" s="100">
+      <c r="N14" s="39">
+        <v>0</v>
+      </c>
+      <c r="O14" s="39">
         <v>0</v>
       </c>
       <c r="P14" s="70">
@@ -8334,17 +8244,17 @@
       <c r="K15" s="28">
         <v>0</v>
       </c>
-      <c r="L15" s="96">
-        <v>0</v>
-      </c>
-      <c r="M15" s="96" t="str">
+      <c r="L15" s="95">
+        <v>0</v>
+      </c>
+      <c r="M15" s="95" t="str">
         <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L15,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="N15" s="96">
-        <v>0</v>
-      </c>
-      <c r="O15" s="96">
+      <c r="N15" s="95">
+        <v>0</v>
+      </c>
+      <c r="O15" s="95">
         <v>0</v>
       </c>
       <c r="P15" s="28">
@@ -8402,17 +8312,17 @@
       <c r="K16" s="19">
         <v>0</v>
       </c>
-      <c r="L16" s="97">
-        <v>0</v>
-      </c>
-      <c r="M16" s="97" t="str">
+      <c r="L16" s="96">
+        <v>0</v>
+      </c>
+      <c r="M16" s="96" t="str">
         <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L16,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="N16" s="97">
-        <v>0</v>
-      </c>
-      <c r="O16" s="97">
+      <c r="N16" s="96">
+        <v>0</v>
+      </c>
+      <c r="O16" s="96">
         <v>0</v>
       </c>
       <c r="P16" s="19">
@@ -8470,17 +8380,17 @@
       <c r="K17" s="36">
         <v>0</v>
       </c>
-      <c r="L17" s="98">
-        <v>0</v>
-      </c>
-      <c r="M17" s="98" t="str">
+      <c r="L17" s="97">
+        <v>0</v>
+      </c>
+      <c r="M17" s="97" t="str">
         <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L17,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="N17" s="98">
-        <v>0</v>
-      </c>
-      <c r="O17" s="98">
+      <c r="N17" s="97">
+        <v>0</v>
+      </c>
+      <c r="O17" s="97">
         <v>0</v>
       </c>
       <c r="P17" s="36">
@@ -8538,17 +8448,17 @@
       <c r="K18" s="19">
         <v>0</v>
       </c>
-      <c r="L18" s="97">
-        <v>0</v>
-      </c>
-      <c r="M18" s="97" t="str">
+      <c r="L18" s="96">
+        <v>0</v>
+      </c>
+      <c r="M18" s="96" t="str">
         <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L18,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="N18" s="97">
-        <v>0</v>
-      </c>
-      <c r="O18" s="97">
+      <c r="N18" s="96">
+        <v>0</v>
+      </c>
+      <c r="O18" s="96">
         <v>0</v>
       </c>
       <c r="P18" s="19">
@@ -8606,17 +8516,17 @@
       <c r="K19" s="19">
         <v>0</v>
       </c>
-      <c r="L19" s="97">
-        <v>0</v>
-      </c>
-      <c r="M19" s="97" t="str">
+      <c r="L19" s="96">
+        <v>0</v>
+      </c>
+      <c r="M19" s="96" t="str">
         <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L19,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="N19" s="97">
-        <v>0</v>
-      </c>
-      <c r="O19" s="97">
+      <c r="N19" s="96">
+        <v>0</v>
+      </c>
+      <c r="O19" s="96">
         <v>0</v>
       </c>
       <c r="P19" s="19">
@@ -8674,17 +8584,17 @@
       <c r="K20" s="19">
         <v>0</v>
       </c>
-      <c r="L20" s="97">
-        <v>0</v>
-      </c>
-      <c r="M20" s="97" t="str">
+      <c r="L20" s="96">
+        <v>0</v>
+      </c>
+      <c r="M20" s="96" t="str">
         <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L20,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="N20" s="97">
-        <v>0</v>
-      </c>
-      <c r="O20" s="97">
+      <c r="N20" s="96">
+        <v>0</v>
+      </c>
+      <c r="O20" s="96">
         <v>0</v>
       </c>
       <c r="P20" s="19">
@@ -8742,17 +8652,17 @@
       <c r="K21" s="29">
         <v>0</v>
       </c>
-      <c r="L21" s="101">
-        <v>0</v>
-      </c>
-      <c r="M21" s="101" t="str">
+      <c r="L21" s="43">
+        <v>0</v>
+      </c>
+      <c r="M21" s="43" t="str">
         <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L21,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="N21" s="101">
-        <v>0</v>
-      </c>
-      <c r="O21" s="101">
+      <c r="N21" s="43">
+        <v>0</v>
+      </c>
+      <c r="O21" s="43">
         <v>0</v>
       </c>
       <c r="P21" s="29">
@@ -8810,17 +8720,17 @@
       <c r="K22" s="7">
         <v>0</v>
       </c>
-      <c r="L22" s="102">
-        <v>0</v>
-      </c>
-      <c r="M22" s="102" t="str">
+      <c r="L22" s="4">
+        <v>0</v>
+      </c>
+      <c r="M22" s="4" t="str">
         <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L22,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="N22" s="102">
-        <v>0</v>
-      </c>
-      <c r="O22" s="102">
+      <c r="N22" s="4">
+        <v>0</v>
+      </c>
+      <c r="O22" s="4">
         <v>0</v>
       </c>
       <c r="P22" s="7">
@@ -8878,17 +8788,17 @@
       <c r="K23" s="37">
         <v>0</v>
       </c>
-      <c r="L23" s="103">
-        <v>0</v>
-      </c>
-      <c r="M23" s="103" t="str">
+      <c r="L23" s="48">
+        <v>0</v>
+      </c>
+      <c r="M23" s="48" t="str">
         <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L23,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="N23" s="103">
-        <v>0</v>
-      </c>
-      <c r="O23" s="103">
+      <c r="N23" s="48">
+        <v>0</v>
+      </c>
+      <c r="O23" s="48">
         <v>0</v>
       </c>
       <c r="P23" s="37">

--- a/Android/ExcelData/PCSkillTable.xlsx
+++ b/Android/ExcelData/PCSkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762FEAC7-6E4C-4692-A0C5-CB183570EE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CA9331-113C-46F1-8C3C-91A9E5C1DC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -1525,7 +1525,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="178">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2202,6 +2202,18 @@
   </si>
   <si>
     <t>max_second_target_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Duration_Attack_Down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 효과 일회성 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>second_effect_onetime_ids</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2317,7 +2329,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -2365,33 +2377,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -2419,39 +2405,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -2478,42 +2435,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -2610,68 +2534,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -2703,7 +2565,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2761,9 +2623,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2773,19 +2632,19 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2794,20 +2653,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2815,124 +2677,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1">
@@ -2941,61 +2722,55 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3039,11 +2814,12 @@
       <sheetName val="@projectile_type"/>
       <sheetName val="@inequality_type"/>
       <sheetName val="@skill_type"/>
+      <sheetName val="@item_type"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3">
         <row r="1">
           <cell r="A1" t="str">
@@ -4140,9 +3916,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
       <sheetData sheetId="10">
         <row r="1">
           <cell r="A1" t="str">
@@ -4541,8 +4317,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6804,361 +6581,361 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="22" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="27">
+      <c r="A5" s="24">
         <v>100001</v>
       </c>
-      <c r="B5" s="53" t="str">
+      <c r="B5" s="39" t="str">
         <f>VLOOKUP(A5,pc_skill_data!$B:$C,2,)</f>
         <v>탱/일반/근접공격/데미지(스킬 대미지 100%)</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="54">
+      <c r="D5" s="40">
         <v>2</v>
       </c>
-      <c r="E5" s="53">
+      <c r="E5" s="39">
         <v>1</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="53"/>
-      <c r="H5" s="55" t="s">
+      <c r="G5" s="39"/>
+      <c r="H5" s="41" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="33">
+      <c r="A6" s="27">
         <v>100002</v>
       </c>
-      <c r="B6" s="21" t="str">
+      <c r="B6" s="20" t="str">
         <f>VLOOKUP(A6,pc_skill_data!$B:$C,2,)</f>
         <v>탱/스킬1/근접공격/데미지(스킬 대미지 110%)</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="21">
         <v>2</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="20">
         <v>2</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="56" t="s">
+      <c r="G6" s="20"/>
+      <c r="H6" s="42" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="35">
+      <c r="A7" s="28">
         <v>100003</v>
       </c>
-      <c r="B7" s="57" t="str">
+      <c r="B7" s="43" t="str">
         <f>VLOOKUP(A7,pc_skill_data!$B:$C,2,)</f>
         <v>탱/스킬2/나/힐(10%)</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="58">
+      <c r="D7" s="44">
         <v>2</v>
       </c>
-      <c r="E7" s="57">
+      <c r="E7" s="43">
         <v>3</v>
       </c>
-      <c r="F7" s="57" t="s">
+      <c r="F7" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="G7" s="57"/>
-      <c r="H7" s="59" t="s">
+      <c r="G7" s="43"/>
+      <c r="H7" s="45" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="27">
+      <c r="A8" s="24">
         <v>100101</v>
       </c>
-      <c r="B8" s="53" t="str">
+      <c r="B8" s="39" t="str">
         <f>VLOOKUP(A8,pc_skill_data!$B:$C,2,)</f>
         <v>근딜/일반 (스킬 대미지 100%)</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="54">
+      <c r="D8" s="40">
         <v>2</v>
       </c>
-      <c r="E8" s="53">
+      <c r="E8" s="39">
         <v>1</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="F8" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="53"/>
-      <c r="H8" s="55" t="s">
+      <c r="G8" s="39"/>
+      <c r="H8" s="41" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="33">
+      <c r="A9" s="27">
         <v>100102</v>
       </c>
-      <c r="B9" s="21" t="str">
+      <c r="B9" s="20" t="str">
         <f>VLOOKUP(A9,pc_skill_data!$B:$C,2,)</f>
         <v>근딜/근접공격/공격(스킬 대미지 120%)</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="21">
         <v>2</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="20">
         <v>2</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="56" t="s">
+      <c r="G9" s="20"/>
+      <c r="H9" s="42" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="35">
+      <c r="A10" s="28">
         <v>100103</v>
       </c>
-      <c r="B10" s="57" t="str">
+      <c r="B10" s="43" t="str">
         <f>VLOOKUP(A10,pc_skill_data!$B:$C,2,)</f>
         <v>근딜/근접공격/대미지</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="58">
+      <c r="D10" s="44">
         <v>2</v>
       </c>
-      <c r="E10" s="57">
+      <c r="E10" s="43">
         <v>3</v>
       </c>
-      <c r="F10" s="57" t="s">
+      <c r="F10" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="G10" s="57"/>
-      <c r="H10" s="59" t="s">
+      <c r="G10" s="43"/>
+      <c r="H10" s="45" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="27">
+      <c r="A11" s="24">
         <v>100201</v>
       </c>
-      <c r="B11" s="53" t="str">
+      <c r="B11" s="39" t="str">
         <f>VLOOKUP(A11,pc_skill_data!$B:$C,2,)</f>
         <v>원딜/일반</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="54">
+      <c r="D11" s="40">
         <v>2</v>
       </c>
-      <c r="E11" s="53">
+      <c r="E11" s="39">
         <v>1</v>
       </c>
-      <c r="F11" s="53" t="s">
+      <c r="F11" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="G11" s="53"/>
-      <c r="H11" s="55" t="s">
+      <c r="G11" s="39"/>
+      <c r="H11" s="41" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="33">
+      <c r="A12" s="27">
         <v>100202</v>
       </c>
-      <c r="B12" s="21" t="str">
+      <c r="B12" s="20" t="str">
         <f>VLOOKUP(A12,pc_skill_data!$B:$C,2,)</f>
         <v>원딜/스킬1/대미지 (스킬 대미지 120%)</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="21">
         <v>2</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="20">
         <v>2</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="56" t="s">
+      <c r="G12" s="20"/>
+      <c r="H12" s="42" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="35">
+      <c r="A13" s="28">
         <v>100203</v>
       </c>
-      <c r="B13" s="57" t="str">
+      <c r="B13" s="43" t="str">
         <f>VLOOKUP(A13,pc_skill_data!$B:$C,2,)</f>
         <v>원딜/스킬2/범위공격 (스킬 대미지 80%)</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="D13" s="58">
+      <c r="D13" s="44">
         <v>2</v>
       </c>
-      <c r="E13" s="57">
+      <c r="E13" s="43">
         <v>3</v>
       </c>
-      <c r="F13" s="57" t="s">
+      <c r="F13" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="G13" s="57"/>
-      <c r="H13" s="59" t="s">
+      <c r="G13" s="43"/>
+      <c r="H13" s="45" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="27">
+      <c r="A14" s="24">
         <v>100301</v>
       </c>
-      <c r="B14" s="53" t="str">
+      <c r="B14" s="39" t="str">
         <f>VLOOKUP(A14,pc_skill_data!$B:$C,2,)</f>
         <v>원서폿/일반</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="D14" s="54">
+      <c r="D14" s="40">
         <v>2</v>
       </c>
-      <c r="E14" s="53">
+      <c r="E14" s="39">
         <v>1</v>
       </c>
-      <c r="F14" s="53" t="s">
+      <c r="F14" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="G14" s="53"/>
-      <c r="H14" s="55" t="s">
+      <c r="G14" s="39"/>
+      <c r="H14" s="41" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="33">
+      <c r="A15" s="27">
         <v>100302</v>
       </c>
-      <c r="B15" s="21" t="str">
+      <c r="B15" s="20" t="str">
         <f>VLOOKUP(A15,pc_skill_data!$B:$C,2,)</f>
         <v>원서폿/스킬1/전체방어증가 (10%)</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="21">
         <v>2</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="20">
         <v>2</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="56" t="s">
+      <c r="G15" s="20"/>
+      <c r="H15" s="42" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="33">
+      <c r="A16" s="27">
         <v>100303</v>
       </c>
-      <c r="B16" s="77" t="str">
+      <c r="B16" s="50" t="str">
         <f>VLOOKUP(A16,pc_skill_data!$B:$C,2,)</f>
         <v>원서폿/스킬2/대미지 (스킬 대미지 120%)</v>
       </c>
-      <c r="C16" s="77" t="s">
+      <c r="C16" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="D16" s="78">
+      <c r="D16" s="51">
         <v>2</v>
       </c>
-      <c r="E16" s="77">
+      <c r="E16" s="50">
         <v>3</v>
       </c>
-      <c r="F16" s="77" t="s">
+      <c r="F16" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="G16" s="77"/>
-      <c r="H16" s="79" t="s">
+      <c r="G16" s="50"/>
+      <c r="H16" s="52" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="42">
+      <c r="A17" s="31">
         <v>100401</v>
       </c>
-      <c r="B17" s="53" t="str">
+      <c r="B17" s="39" t="str">
         <f>VLOOKUP(A17,pc_skill_data!$B:$C,2,)</f>
         <v>원힐/일반</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="D17" s="54">
+      <c r="D17" s="40">
         <v>2</v>
       </c>
-      <c r="E17" s="53">
+      <c r="E17" s="39">
         <v>1</v>
       </c>
-      <c r="F17" s="53" t="s">
+      <c r="F17" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="G17" s="53"/>
-      <c r="H17" s="55" t="s">
+      <c r="G17" s="39"/>
+      <c r="H17" s="41" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="45">
+      <c r="A18" s="34">
         <v>100402</v>
       </c>
-      <c r="B18" s="21" t="str">
+      <c r="B18" s="20" t="str">
         <f>VLOOKUP(A18,pc_skill_data!$B:$C,2,)</f>
         <v>원힐/스킬1/전체 공격 증가 (10%)</v>
       </c>
@@ -7171,69 +6948,69 @@
       <c r="E18" s="4">
         <v>2</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="20" t="s">
         <v>136</v>
       </c>
       <c r="G18" s="4"/>
-      <c r="H18" s="80" t="s">
+      <c r="H18" s="53" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="47">
+      <c r="A19" s="36">
         <v>100403</v>
       </c>
-      <c r="B19" s="57" t="str">
+      <c r="B19" s="43" t="str">
         <f>VLOOKUP(A19,pc_skill_data!$B:$C,2,)</f>
         <v>원힐/스킬2/대미지 (스킬 대미지 120%)</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="D19" s="37">
+      <c r="D19" s="29">
         <v>2.5</v>
       </c>
-      <c r="E19" s="48">
+      <c r="E19" s="37">
         <v>3</v>
       </c>
-      <c r="F19" s="57" t="s">
+      <c r="F19" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="G19" s="48"/>
-      <c r="H19" s="81" t="s">
+      <c r="G19" s="37"/>
+      <c r="H19" s="54" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="42">
+      <c r="A20" s="31">
         <v>100501</v>
       </c>
-      <c r="B20" s="53" t="str">
+      <c r="B20" s="39" t="str">
         <f>VLOOKUP(A20,pc_skill_data!$B:$C,2,)</f>
         <v>원딜/일반</v>
       </c>
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="D20" s="54">
+      <c r="D20" s="40">
         <v>2</v>
       </c>
-      <c r="E20" s="53">
+      <c r="E20" s="39">
         <v>1</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="G20" s="53"/>
-      <c r="H20" s="55" t="s">
+      <c r="G20" s="39"/>
+      <c r="H20" s="41" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="45">
+      <c r="A21" s="34">
         <v>100502</v>
       </c>
-      <c r="B21" s="21" t="str">
+      <c r="B21" s="20" t="str">
         <f>VLOOKUP(A21,pc_skill_data!$B:$C,2,)</f>
         <v>원딜/대미지/공격력 감소(15%)</v>
       </c>
@@ -7246,36 +7023,36 @@
       <c r="E21" s="4">
         <v>2</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="20" t="s">
         <v>136</v>
       </c>
       <c r="G21" s="4"/>
-      <c r="H21" s="55" t="s">
+      <c r="H21" s="41" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="47">
+      <c r="A22" s="36">
         <v>100503</v>
       </c>
-      <c r="B22" s="57" t="str">
+      <c r="B22" s="43" t="str">
         <f>VLOOKUP(A22,pc_skill_data!$B:$C,2,)</f>
         <v>원딜/스킬2/대미지 (스킬 대미지 120%)</v>
       </c>
-      <c r="C22" s="48" t="s">
+      <c r="C22" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="D22" s="37">
+      <c r="D22" s="29">
         <v>2.5</v>
       </c>
-      <c r="E22" s="48">
+      <c r="E22" s="37">
         <v>3</v>
       </c>
-      <c r="F22" s="57" t="s">
+      <c r="F22" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="G22" s="48"/>
-      <c r="H22" s="81" t="s">
+      <c r="G22" s="37"/>
+      <c r="H22" s="54" t="s">
         <v>97</v>
       </c>
     </row>
@@ -7301,11 +7078,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00F7AA3-FB12-454D-93A6-31450B9003EC}">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N5" sqref="N5"/>
+      <selection pane="bottomRight" activeCell="R12" sqref="R11:R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7482,590 +7259,594 @@
       </c>
     </row>
     <row r="4" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="K4" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="24" t="s">
+      <c r="L4" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="M4" s="24" t="s">
+      <c r="M4" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="N4" s="24" t="s">
+      <c r="N4" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="O4" s="24" t="s">
+      <c r="O4" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="P4" s="24" t="s">
+      <c r="P4" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="Q4" s="24" t="s">
+      <c r="Q4" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="R4" s="24" t="s">
+      <c r="R4" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="S4" s="24" t="s">
+      <c r="S4" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="T4" s="24" t="s">
+      <c r="T4" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="U4" s="24" t="s">
+      <c r="U4" s="22" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27">
+      <c r="A5" s="31">
         <v>100001</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="25">
         <v>100001</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="25">
         <v>1</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="25">
         <v>6</v>
       </c>
-      <c r="F5" s="87" t="str">
+      <c r="F5" s="59" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E5,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
-      <c r="G5" s="28">
-        <v>0</v>
-      </c>
-      <c r="H5" s="28">
+      <c r="G5" s="25">
+        <v>0</v>
+      </c>
+      <c r="H5" s="25">
         <v>1</v>
       </c>
-      <c r="I5" s="28">
-        <v>0</v>
-      </c>
-      <c r="J5" s="30" t="str">
+      <c r="I5" s="25">
+        <v>0</v>
+      </c>
+      <c r="J5" s="26" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I5,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>NONE</v>
       </c>
-      <c r="K5" s="28">
-        <v>0</v>
-      </c>
-      <c r="L5" s="95">
-        <v>0</v>
-      </c>
-      <c r="M5" s="95" t="str">
+      <c r="K5" s="25">
+        <v>0</v>
+      </c>
+      <c r="L5" s="32">
+        <v>0</v>
+      </c>
+      <c r="M5" s="32" t="str">
         <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L5,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="N5" s="95">
-        <v>0</v>
-      </c>
-      <c r="O5" s="95">
-        <v>0</v>
-      </c>
-      <c r="P5" s="28">
+      <c r="N5" s="32">
+        <v>0</v>
+      </c>
+      <c r="O5" s="32">
+        <v>0</v>
+      </c>
+      <c r="P5" s="25">
         <v>100</v>
       </c>
-      <c r="Q5" s="31">
+      <c r="Q5" s="32">
         <v>100001</v>
       </c>
-      <c r="R5" s="31">
-        <v>0</v>
-      </c>
-      <c r="S5" s="31" t="s">
+      <c r="R5" s="32">
+        <v>0</v>
+      </c>
+      <c r="S5" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="T5" s="31"/>
-      <c r="U5" s="32">
+      <c r="T5" s="32"/>
+      <c r="U5" s="63">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33">
+      <c r="A6" s="34">
         <v>100002</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="7">
         <v>100002</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="7">
         <v>1</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="7">
         <v>6</v>
       </c>
-      <c r="F6" s="88" t="str">
+      <c r="F6" s="60" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E6,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
-      <c r="G6" s="19">
-        <v>0</v>
-      </c>
-      <c r="H6" s="19">
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
         <v>1</v>
       </c>
-      <c r="I6" s="19">
-        <v>0</v>
-      </c>
-      <c r="J6" s="20" t="str">
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="19" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I6,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>NONE</v>
       </c>
-      <c r="K6" s="19">
-        <v>0</v>
-      </c>
-      <c r="L6" s="96">
-        <v>0</v>
-      </c>
-      <c r="M6" s="96" t="str">
+      <c r="K6" s="7">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4" t="str">
         <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L6,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="N6" s="96">
-        <v>0</v>
-      </c>
-      <c r="O6" s="96">
-        <v>0</v>
-      </c>
-      <c r="P6" s="19">
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="7">
         <v>100</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="4">
         <v>100002</v>
       </c>
-      <c r="R6" s="50">
-        <v>0</v>
-      </c>
-      <c r="S6" t="s">
+      <c r="R6" s="4">
+        <v>0</v>
+      </c>
+      <c r="S6" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="U6" s="34">
+      <c r="T6" s="4"/>
+      <c r="U6" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="35">
+      <c r="A7" s="36">
         <v>100003</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="29">
         <v>100003</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="D7" s="36">
-        <v>0</v>
-      </c>
-      <c r="E7" s="36">
+      <c r="D7" s="29">
+        <v>0</v>
+      </c>
+      <c r="E7" s="29">
         <v>1</v>
       </c>
-      <c r="F7" s="89" t="str">
+      <c r="F7" s="61" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E7,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>자신 선택</v>
       </c>
-      <c r="G7" s="36">
-        <v>0</v>
-      </c>
-      <c r="H7" s="36">
+      <c r="G7" s="29">
+        <v>0</v>
+      </c>
+      <c r="H7" s="29">
         <v>1</v>
       </c>
-      <c r="I7" s="36">
-        <v>0</v>
-      </c>
-      <c r="J7" s="38" t="str">
+      <c r="I7" s="29">
+        <v>0</v>
+      </c>
+      <c r="J7" s="30" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I7,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>NONE</v>
       </c>
-      <c r="K7" s="36">
-        <v>0</v>
-      </c>
-      <c r="L7" s="97">
-        <v>0</v>
-      </c>
-      <c r="M7" s="97" t="str">
+      <c r="K7" s="29">
+        <v>0</v>
+      </c>
+      <c r="L7" s="37">
+        <v>0</v>
+      </c>
+      <c r="M7" s="37" t="str">
         <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L7,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="N7" s="97">
-        <v>0</v>
-      </c>
-      <c r="O7" s="97">
-        <v>0</v>
-      </c>
-      <c r="P7" s="36">
+      <c r="N7" s="37">
+        <v>0</v>
+      </c>
+      <c r="O7" s="37">
+        <v>0</v>
+      </c>
+      <c r="P7" s="29">
         <v>100</v>
       </c>
-      <c r="Q7" s="39">
+      <c r="Q7" s="37">
         <v>100003</v>
       </c>
-      <c r="R7" s="39">
-        <v>0</v>
-      </c>
-      <c r="S7" s="39" t="s">
+      <c r="R7" s="37">
+        <v>0</v>
+      </c>
+      <c r="S7" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="T7" s="39"/>
-      <c r="U7" s="40">
+      <c r="T7" s="37"/>
+      <c r="U7" s="65">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27">
+      <c r="A8" s="31">
         <v>100101</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="25">
         <v>100101</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="25">
         <v>1</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="25">
         <v>6</v>
       </c>
-      <c r="F8" s="87" t="str">
+      <c r="F8" s="59" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E8,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
-      <c r="G8" s="28">
-        <v>0</v>
-      </c>
-      <c r="H8" s="28">
+      <c r="G8" s="25">
+        <v>0</v>
+      </c>
+      <c r="H8" s="25">
         <v>1</v>
       </c>
-      <c r="I8" s="28">
-        <v>0</v>
-      </c>
-      <c r="J8" s="30" t="str">
+      <c r="I8" s="25">
+        <v>0</v>
+      </c>
+      <c r="J8" s="26" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I8,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>NONE</v>
       </c>
-      <c r="K8" s="28">
-        <v>0</v>
-      </c>
-      <c r="L8" s="95">
-        <v>0</v>
-      </c>
-      <c r="M8" s="95" t="str">
+      <c r="K8" s="25">
+        <v>0</v>
+      </c>
+      <c r="L8" s="32">
+        <v>0</v>
+      </c>
+      <c r="M8" s="32" t="str">
         <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L8,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="N8" s="95">
-        <v>0</v>
-      </c>
-      <c r="O8" s="95">
-        <v>0</v>
-      </c>
-      <c r="P8" s="28" t="s">
+      <c r="N8" s="32">
+        <v>0</v>
+      </c>
+      <c r="O8" s="32">
+        <v>0</v>
+      </c>
+      <c r="P8" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="Q8" s="31">
+      <c r="Q8" s="32">
         <v>100004</v>
       </c>
-      <c r="R8" s="31">
-        <v>0</v>
-      </c>
-      <c r="S8" s="31" t="s">
+      <c r="R8" s="32">
+        <v>0</v>
+      </c>
+      <c r="S8" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="T8" s="31"/>
-      <c r="U8" s="32">
+      <c r="T8" s="32"/>
+      <c r="U8" s="63">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33">
+      <c r="A9" s="34">
         <v>100102</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="7">
         <v>100102</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="7">
         <v>1</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="7">
         <v>6</v>
       </c>
-      <c r="F9" s="88" t="str">
+      <c r="F9" s="60" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E9,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
-      <c r="G9" s="19">
-        <v>0</v>
-      </c>
-      <c r="H9" s="19">
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7">
         <v>1</v>
       </c>
-      <c r="I9" s="19">
-        <v>0</v>
-      </c>
-      <c r="J9" s="20" t="str">
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="19" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I9,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>NONE</v>
       </c>
-      <c r="K9" s="19">
-        <v>0</v>
-      </c>
-      <c r="L9" s="96">
-        <v>0</v>
-      </c>
-      <c r="M9" s="96" t="str">
+      <c r="K9" s="7">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4" t="str">
         <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L9,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="N9" s="96">
-        <v>0</v>
-      </c>
-      <c r="O9" s="96">
-        <v>0</v>
-      </c>
-      <c r="P9" s="19">
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="7">
         <v>100</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="4">
         <v>100005</v>
       </c>
       <c r="R9" s="4">
         <v>0</v>
       </c>
-      <c r="S9" t="s">
+      <c r="S9" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="U9" s="34">
+      <c r="T9" s="4"/>
+      <c r="U9" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="33">
+      <c r="A10" s="34">
         <v>100103</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="7">
         <v>100102</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D10" s="19">
-        <v>0</v>
-      </c>
-      <c r="E10" s="19">
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
         <v>1</v>
       </c>
-      <c r="F10" s="88" t="str">
+      <c r="F10" s="60" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E10,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>자신 선택</v>
       </c>
-      <c r="G10" s="19">
-        <v>0</v>
-      </c>
-      <c r="H10" s="19">
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7">
         <v>1</v>
       </c>
-      <c r="I10" s="19">
-        <v>0</v>
-      </c>
-      <c r="J10" s="20" t="str">
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="19" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I10,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>NONE</v>
       </c>
-      <c r="K10" s="19">
-        <v>0</v>
-      </c>
-      <c r="L10" s="96">
-        <v>0</v>
-      </c>
-      <c r="M10" s="96" t="str">
+      <c r="K10" s="7">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4" t="str">
         <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L10,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="N10" s="96">
-        <v>0</v>
-      </c>
-      <c r="O10" s="96">
-        <v>0</v>
-      </c>
-      <c r="P10" s="19">
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="7">
         <v>100</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="4">
         <v>0</v>
       </c>
       <c r="R10" s="4">
         <v>500002</v>
       </c>
-      <c r="S10" t="s">
+      <c r="S10" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="U10" s="34">
+      <c r="T10" s="4"/>
+      <c r="U10" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="33">
+      <c r="A11" s="36">
         <v>100104</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="29">
         <v>100103</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="29">
         <v>1</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="29">
         <v>6</v>
       </c>
-      <c r="F11" s="90" t="str">
+      <c r="F11" s="61" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E11,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
-      <c r="G11" s="19">
-        <v>0</v>
-      </c>
-      <c r="H11" s="19">
+      <c r="G11" s="29">
+        <v>0</v>
+      </c>
+      <c r="H11" s="29">
         <v>1</v>
       </c>
-      <c r="I11" s="19">
-        <v>0</v>
-      </c>
-      <c r="J11" s="61" t="str">
+      <c r="I11" s="29">
+        <v>0</v>
+      </c>
+      <c r="J11" s="30" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I11,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>NONE</v>
       </c>
-      <c r="K11" s="19">
-        <v>0</v>
-      </c>
-      <c r="L11" s="96">
-        <v>0</v>
-      </c>
-      <c r="M11" s="96" t="str">
+      <c r="K11" s="29">
+        <v>0</v>
+      </c>
+      <c r="L11" s="37">
+        <v>0</v>
+      </c>
+      <c r="M11" s="37" t="str">
         <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L11,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="N11" s="96">
-        <v>0</v>
-      </c>
-      <c r="O11" s="96">
-        <v>0</v>
-      </c>
-      <c r="P11" s="19" t="s">
+      <c r="N11" s="37">
+        <v>0</v>
+      </c>
+      <c r="O11" s="37">
+        <v>0</v>
+      </c>
+      <c r="P11" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="Q11" s="62">
+      <c r="Q11" s="37">
         <v>100006</v>
       </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11" t="s">
+      <c r="R11" s="37">
+        <v>0</v>
+      </c>
+      <c r="S11" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="U11" s="34">
+      <c r="T11" s="37"/>
+      <c r="U11" s="65">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="63">
+      <c r="A12" s="31">
         <v>100201</v>
       </c>
-      <c r="B12" s="64">
+      <c r="B12" s="25">
         <v>100201</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="D12" s="64">
+      <c r="D12" s="25">
         <v>1</v>
       </c>
-      <c r="E12" s="64">
+      <c r="E12" s="25">
         <v>6</v>
       </c>
-      <c r="F12" s="91" t="str">
+      <c r="F12" s="59" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E12,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
-      <c r="G12" s="64">
-        <v>0</v>
-      </c>
-      <c r="H12" s="64">
+      <c r="G12" s="25">
+        <v>0</v>
+      </c>
+      <c r="H12" s="25">
         <v>1</v>
       </c>
-      <c r="I12" s="64">
+      <c r="I12" s="25">
         <v>2</v>
       </c>
-      <c r="J12" s="65" t="str">
+      <c r="J12" s="26" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I12,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>투사체를 타겟의 몸에 던진다</v>
       </c>
-      <c r="K12" s="64">
-        <v>0</v>
-      </c>
-      <c r="L12" s="31">
-        <v>0</v>
-      </c>
-      <c r="M12" s="31" t="str">
+      <c r="K12" s="25">
+        <v>0</v>
+      </c>
+      <c r="L12" s="32">
+        <v>0</v>
+      </c>
+      <c r="M12" s="32" t="str">
         <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L12,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="N12" s="31">
-        <v>0</v>
-      </c>
-      <c r="O12" s="31">
-        <v>0</v>
-      </c>
-      <c r="P12" s="64">
+      <c r="N12" s="32">
+        <v>0</v>
+      </c>
+      <c r="O12" s="32">
+        <v>0</v>
+      </c>
+      <c r="P12" s="25">
         <v>100</v>
       </c>
-      <c r="Q12" s="31">
+      <c r="Q12" s="32">
         <v>100007</v>
       </c>
-      <c r="R12" s="31">
-        <v>0</v>
-      </c>
-      <c r="S12" s="31" t="s">
+      <c r="R12" s="32">
+        <v>0</v>
+      </c>
+      <c r="S12" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="T12" s="31" t="s">
+      <c r="T12" s="32" t="s">
         <v>122</v>
       </c>
       <c r="U12" s="66">
@@ -8073,619 +7854,619 @@
       </c>
     </row>
     <row r="13" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="67">
+      <c r="A13" s="34">
         <v>100202</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="7">
         <v>100202</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="7">
         <v>1</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="7">
         <v>6</v>
       </c>
-      <c r="F13" s="92" t="str">
+      <c r="F13" s="60" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E13,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
-      <c r="G13" s="6">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6">
+      <c r="G13" s="7">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
         <v>1</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="7">
         <v>2</v>
       </c>
-      <c r="J13" s="23" t="str">
+      <c r="J13" s="19" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I13,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>투사체를 타겟의 몸에 던진다</v>
       </c>
-      <c r="K13" s="6">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13" t="str">
+      <c r="K13" s="7">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4" t="str">
         <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L13,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" s="6">
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+      <c r="P13" s="7">
         <v>100</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="4">
         <v>100008</v>
       </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13" t="s">
+      <c r="R13" s="4">
+        <v>0</v>
+      </c>
+      <c r="S13" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="T13" t="s">
+      <c r="T13" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="U13" s="68">
+      <c r="U13" s="67">
         <v>0.3</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="69">
+      <c r="A14" s="36">
         <v>100203</v>
       </c>
-      <c r="B14" s="70">
+      <c r="B14" s="29">
         <v>100203</v>
       </c>
-      <c r="C14" s="70" t="s">
+      <c r="C14" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="D14" s="70">
+      <c r="D14" s="29">
         <v>1</v>
       </c>
-      <c r="E14" s="70">
+      <c r="E14" s="29">
         <v>6</v>
       </c>
-      <c r="F14" s="93" t="str">
+      <c r="F14" s="61" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E14,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
-      <c r="G14" s="70">
-        <v>0</v>
-      </c>
-      <c r="H14" s="70">
+      <c r="G14" s="29">
+        <v>0</v>
+      </c>
+      <c r="H14" s="29">
         <v>3</v>
       </c>
-      <c r="I14" s="70">
+      <c r="I14" s="29">
         <v>2</v>
       </c>
-      <c r="J14" s="71" t="str">
+      <c r="J14" s="30" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I14,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>투사체를 타겟의 몸에 던진다</v>
       </c>
-      <c r="K14" s="70">
-        <v>0</v>
-      </c>
-      <c r="L14" s="39">
-        <v>0</v>
-      </c>
-      <c r="M14" s="39" t="str">
+      <c r="K14" s="29">
+        <v>0</v>
+      </c>
+      <c r="L14" s="37">
+        <v>0</v>
+      </c>
+      <c r="M14" s="37" t="str">
         <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L14,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="N14" s="39">
-        <v>0</v>
-      </c>
-      <c r="O14" s="39">
-        <v>0</v>
-      </c>
-      <c r="P14" s="70">
+      <c r="N14" s="37">
+        <v>0</v>
+      </c>
+      <c r="O14" s="37">
+        <v>0</v>
+      </c>
+      <c r="P14" s="29">
         <v>100</v>
       </c>
-      <c r="Q14" s="39">
+      <c r="Q14" s="37">
         <v>100009</v>
       </c>
-      <c r="R14" s="39">
-        <v>0</v>
-      </c>
-      <c r="S14" s="39" t="s">
+      <c r="R14" s="37">
+        <v>0</v>
+      </c>
+      <c r="S14" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="T14" s="39" t="s">
+      <c r="T14" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="U14" s="72">
+      <c r="U14" s="68">
         <v>0.3</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27">
+      <c r="A15" s="31">
         <v>100301</v>
       </c>
-      <c r="B15" s="28">
+      <c r="B15" s="25">
         <v>100301</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="25">
         <v>1</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="25">
         <v>6</v>
       </c>
-      <c r="F15" s="87" t="str">
+      <c r="F15" s="59" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E15,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
-      <c r="G15" s="28">
-        <v>0</v>
-      </c>
-      <c r="H15" s="28">
+      <c r="G15" s="25">
+        <v>0</v>
+      </c>
+      <c r="H15" s="25">
         <v>1</v>
       </c>
-      <c r="I15" s="28">
+      <c r="I15" s="25">
         <v>2</v>
       </c>
-      <c r="J15" s="30" t="str">
+      <c r="J15" s="26" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I15,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>투사체를 타겟의 몸에 던진다</v>
       </c>
-      <c r="K15" s="28">
-        <v>0</v>
-      </c>
-      <c r="L15" s="95">
-        <v>0</v>
-      </c>
-      <c r="M15" s="95" t="str">
+      <c r="K15" s="25">
+        <v>0</v>
+      </c>
+      <c r="L15" s="32">
+        <v>0</v>
+      </c>
+      <c r="M15" s="32" t="str">
         <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L15,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="N15" s="95">
-        <v>0</v>
-      </c>
-      <c r="O15" s="95">
-        <v>0</v>
-      </c>
-      <c r="P15" s="28">
+      <c r="N15" s="32">
+        <v>0</v>
+      </c>
+      <c r="O15" s="32">
+        <v>0</v>
+      </c>
+      <c r="P15" s="25">
         <v>100</v>
       </c>
-      <c r="Q15" s="31">
+      <c r="Q15" s="32">
         <v>100010</v>
       </c>
-      <c r="R15" s="51">
-        <v>0</v>
-      </c>
-      <c r="S15" s="31" t="s">
+      <c r="R15" s="32">
+        <v>0</v>
+      </c>
+      <c r="S15" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="T15" s="31" t="s">
+      <c r="T15" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="U15" s="73">
+      <c r="U15" s="66">
         <v>0.3</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33">
+      <c r="A16" s="34">
         <v>100302</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="7">
         <v>100302</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="D16" s="19">
-        <v>0</v>
-      </c>
-      <c r="E16" s="19">
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7">
         <v>2</v>
       </c>
-      <c r="F16" s="88" t="str">
+      <c r="F16" s="60" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E16,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>전체 선택</v>
       </c>
-      <c r="G16" s="19">
-        <v>0</v>
-      </c>
-      <c r="H16" s="19">
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
         <v>5</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="7">
         <v>2</v>
       </c>
-      <c r="J16" s="20" t="str">
+      <c r="J16" s="19" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I16,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>투사체를 타겟의 몸에 던진다</v>
       </c>
-      <c r="K16" s="19">
-        <v>0</v>
-      </c>
-      <c r="L16" s="96">
-        <v>0</v>
-      </c>
-      <c r="M16" s="96" t="str">
+      <c r="K16" s="7">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4" t="str">
         <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L16,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="N16" s="96">
-        <v>0</v>
-      </c>
-      <c r="O16" s="96">
-        <v>0</v>
-      </c>
-      <c r="P16" s="19">
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0</v>
+      </c>
+      <c r="P16" s="7">
         <v>100</v>
       </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16" s="50">
+      <c r="Q16" s="4">
+        <v>0</v>
+      </c>
+      <c r="R16" s="4">
         <v>500003</v>
       </c>
-      <c r="S16" t="s">
+      <c r="S16" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="T16" t="s">
+      <c r="T16" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="U16" s="68">
+      <c r="U16" s="67">
         <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="35">
+      <c r="A17" s="36">
         <v>100303</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="29">
         <v>100303</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="D17" s="36">
+      <c r="D17" s="29">
         <v>1</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="29">
         <v>6</v>
       </c>
-      <c r="F17" s="89" t="str">
+      <c r="F17" s="61" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E17,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
-      <c r="G17" s="36">
-        <v>0</v>
-      </c>
-      <c r="H17" s="36">
+      <c r="G17" s="29">
+        <v>0</v>
+      </c>
+      <c r="H17" s="29">
         <v>1</v>
       </c>
-      <c r="I17" s="36">
+      <c r="I17" s="29">
         <v>2</v>
       </c>
-      <c r="J17" s="38" t="str">
+      <c r="J17" s="30" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I17,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>투사체를 타겟의 몸에 던진다</v>
       </c>
-      <c r="K17" s="36">
-        <v>0</v>
-      </c>
-      <c r="L17" s="97">
-        <v>0</v>
-      </c>
-      <c r="M17" s="97" t="str">
+      <c r="K17" s="29">
+        <v>0</v>
+      </c>
+      <c r="L17" s="37">
+        <v>0</v>
+      </c>
+      <c r="M17" s="37" t="str">
         <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L17,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="N17" s="97">
-        <v>0</v>
-      </c>
-      <c r="O17" s="97">
-        <v>0</v>
-      </c>
-      <c r="P17" s="36">
+      <c r="N17" s="37">
+        <v>0</v>
+      </c>
+      <c r="O17" s="37">
+        <v>0</v>
+      </c>
+      <c r="P17" s="29">
         <v>100</v>
       </c>
-      <c r="Q17" s="39">
+      <c r="Q17" s="37">
         <v>100011</v>
       </c>
-      <c r="R17" s="52">
-        <v>0</v>
-      </c>
-      <c r="S17" s="39" t="s">
+      <c r="R17" s="37">
+        <v>0</v>
+      </c>
+      <c r="S17" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="T17" s="39" t="s">
+      <c r="T17" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="U17" s="74">
+      <c r="U17" s="68">
         <v>0.3</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19">
+      <c r="A18" s="31">
         <v>100401</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="25">
         <v>100401</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="25">
         <v>1</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="25">
         <v>6</v>
       </c>
-      <c r="F18" s="94" t="str">
+      <c r="F18" s="59" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E18,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
-      <c r="G18" s="19">
-        <v>0</v>
-      </c>
-      <c r="H18" s="19">
+      <c r="G18" s="25">
+        <v>0</v>
+      </c>
+      <c r="H18" s="25">
         <v>1</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="25">
         <v>2</v>
       </c>
       <c r="J18" s="26" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I18,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>투사체를 타겟의 몸에 던진다</v>
       </c>
-      <c r="K18" s="19">
-        <v>0</v>
-      </c>
-      <c r="L18" s="96">
-        <v>0</v>
-      </c>
-      <c r="M18" s="96" t="str">
+      <c r="K18" s="25">
+        <v>0</v>
+      </c>
+      <c r="L18" s="32">
+        <v>0</v>
+      </c>
+      <c r="M18" s="32" t="str">
         <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L18,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="N18" s="96">
-        <v>0</v>
-      </c>
-      <c r="O18" s="96">
-        <v>0</v>
-      </c>
-      <c r="P18" s="19">
+      <c r="N18" s="32">
+        <v>0</v>
+      </c>
+      <c r="O18" s="32">
+        <v>0</v>
+      </c>
+      <c r="P18" s="25">
         <v>100</v>
       </c>
-      <c r="Q18" s="50">
+      <c r="Q18" s="32">
         <v>100012</v>
       </c>
-      <c r="R18" s="50">
-        <v>0</v>
-      </c>
-      <c r="S18" t="s">
+      <c r="R18" s="32">
+        <v>0</v>
+      </c>
+      <c r="S18" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="T18" t="s">
+      <c r="T18" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="U18" s="26">
+      <c r="U18" s="66">
         <v>0.3</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19">
+      <c r="A19" s="34">
         <v>100402</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="7">
         <v>100402</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="D19" s="19">
-        <v>0</v>
-      </c>
-      <c r="E19" s="19">
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7">
         <v>2</v>
       </c>
-      <c r="F19" s="88" t="str">
+      <c r="F19" s="60" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E19,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>전체 선택</v>
       </c>
-      <c r="G19" s="19">
-        <v>0</v>
-      </c>
-      <c r="H19" s="19">
+      <c r="G19" s="7">
+        <v>0</v>
+      </c>
+      <c r="H19" s="7">
         <v>5</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="7">
         <v>2</v>
       </c>
-      <c r="J19" s="20" t="str">
+      <c r="J19" s="19" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I19,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>투사체를 타겟의 몸에 던진다</v>
       </c>
-      <c r="K19" s="19">
-        <v>0</v>
-      </c>
-      <c r="L19" s="96">
-        <v>0</v>
-      </c>
-      <c r="M19" s="96" t="str">
+      <c r="K19" s="7">
+        <v>0</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4" t="str">
         <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L19,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="N19" s="96">
-        <v>0</v>
-      </c>
-      <c r="O19" s="96">
-        <v>0</v>
-      </c>
-      <c r="P19" s="19">
+      <c r="N19" s="4">
+        <v>0</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0</v>
+      </c>
+      <c r="P19" s="7">
         <v>100</v>
       </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19" s="50">
+      <c r="Q19" s="4">
+        <v>0</v>
+      </c>
+      <c r="R19" s="4">
         <v>500004</v>
       </c>
-      <c r="S19" t="s">
+      <c r="S19" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="T19" t="s">
+      <c r="T19" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="U19" s="23">
+      <c r="U19" s="67">
         <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="19">
+      <c r="A20" s="36">
         <v>100403</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="29">
         <v>100403</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="29">
         <v>1</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="29">
         <v>6</v>
       </c>
-      <c r="F20" s="90" t="str">
+      <c r="F20" s="61" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E20,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
-      <c r="G20" s="19">
-        <v>0</v>
-      </c>
-      <c r="H20" s="19">
+      <c r="G20" s="29">
+        <v>0</v>
+      </c>
+      <c r="H20" s="29">
         <v>1</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="29">
         <v>2</v>
       </c>
-      <c r="J20" s="61" t="str">
+      <c r="J20" s="30" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I20,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>투사체를 타겟의 몸에 던진다</v>
       </c>
-      <c r="K20" s="19">
-        <v>0</v>
-      </c>
-      <c r="L20" s="96">
-        <v>0</v>
-      </c>
-      <c r="M20" s="96" t="str">
+      <c r="K20" s="29">
+        <v>0</v>
+      </c>
+      <c r="L20" s="37">
+        <v>0</v>
+      </c>
+      <c r="M20" s="37" t="str">
         <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L20,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="N20" s="96">
-        <v>0</v>
-      </c>
-      <c r="O20" s="96">
-        <v>0</v>
-      </c>
-      <c r="P20" s="19">
+      <c r="N20" s="37">
+        <v>0</v>
+      </c>
+      <c r="O20" s="37">
+        <v>0</v>
+      </c>
+      <c r="P20" s="29">
         <v>100</v>
       </c>
-      <c r="Q20" s="50">
+      <c r="Q20" s="37">
         <v>100013</v>
       </c>
-      <c r="R20" s="50">
-        <v>0</v>
-      </c>
-      <c r="S20" t="s">
+      <c r="R20" s="37">
+        <v>0</v>
+      </c>
+      <c r="S20" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="T20" t="s">
+      <c r="T20" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="U20" s="61">
+      <c r="U20" s="68">
         <v>0.3</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="42">
+    <row r="21" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="31">
         <v>100501</v>
       </c>
-      <c r="B21" s="29">
+      <c r="B21" s="25">
         <v>100501</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="D21" s="29">
+      <c r="D21" s="25">
         <v>1</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="25">
         <v>6</v>
       </c>
-      <c r="F21" s="87" t="str">
+      <c r="F21" s="59" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E21,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
-      <c r="G21" s="29">
-        <v>0</v>
-      </c>
-      <c r="H21" s="29">
+      <c r="G21" s="25">
+        <v>0</v>
+      </c>
+      <c r="H21" s="25">
         <v>1</v>
       </c>
-      <c r="I21" s="29">
+      <c r="I21" s="25">
         <v>2</v>
       </c>
-      <c r="J21" s="30" t="str">
+      <c r="J21" s="26" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I21,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>투사체를 타겟의 몸에 던진다</v>
       </c>
-      <c r="K21" s="29">
-        <v>0</v>
-      </c>
-      <c r="L21" s="43">
-        <v>0</v>
-      </c>
-      <c r="M21" s="43" t="str">
+      <c r="K21" s="25">
+        <v>0</v>
+      </c>
+      <c r="L21" s="32">
+        <v>0</v>
+      </c>
+      <c r="M21" s="32" t="str">
         <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L21,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="N21" s="43">
-        <v>0</v>
-      </c>
-      <c r="O21" s="43">
-        <v>0</v>
-      </c>
-      <c r="P21" s="29">
+      <c r="N21" s="32">
+        <v>0</v>
+      </c>
+      <c r="O21" s="32">
+        <v>0</v>
+      </c>
+      <c r="P21" s="25">
         <v>100</v>
       </c>
-      <c r="Q21" s="43">
+      <c r="Q21" s="32">
         <v>100014</v>
       </c>
-      <c r="R21" s="43">
-        <v>0</v>
-      </c>
-      <c r="S21" s="43" t="s">
+      <c r="R21" s="32">
+        <v>0</v>
+      </c>
+      <c r="S21" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="T21" s="43" t="s">
+      <c r="T21" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="U21" s="73">
+      <c r="U21" s="66">
         <v>0.3</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="45">
+      <c r="A22" s="34">
         <v>100502</v>
       </c>
       <c r="B22" s="7">
@@ -8700,7 +8481,7 @@
       <c r="E22" s="7">
         <v>6</v>
       </c>
-      <c r="F22" s="88" t="str">
+      <c r="F22" s="60" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E22,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
@@ -8713,7 +8494,7 @@
       <c r="I22" s="7">
         <v>2</v>
       </c>
-      <c r="J22" s="20" t="str">
+      <c r="J22" s="19" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I22,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>투사체를 타겟의 몸에 던진다</v>
       </c>
@@ -8736,7 +8517,7 @@
       <c r="P22" s="7">
         <v>100</v>
       </c>
-      <c r="Q22" s="43">
+      <c r="Q22" s="4">
         <v>100014</v>
       </c>
       <c r="R22" s="4">
@@ -8745,78 +8526,78 @@
       <c r="S22" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="T22" s="43" t="s">
+      <c r="T22" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="U22" s="82">
+      <c r="U22" s="67">
         <v>0.3</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="47">
+      <c r="A23" s="36">
         <v>100503</v>
       </c>
-      <c r="B23" s="37">
+      <c r="B23" s="29">
         <v>100503</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="D23" s="37">
+      <c r="D23" s="29">
         <v>1</v>
       </c>
-      <c r="E23" s="37">
+      <c r="E23" s="29">
         <v>6</v>
       </c>
-      <c r="F23" s="89" t="str">
+      <c r="F23" s="61" t="str">
         <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E23,'!참조_ENUM'!$B$3:$B$77,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
-      <c r="G23" s="37">
-        <v>0</v>
-      </c>
-      <c r="H23" s="37">
+      <c r="G23" s="29">
+        <v>0</v>
+      </c>
+      <c r="H23" s="29">
         <v>1</v>
       </c>
-      <c r="I23" s="37">
+      <c r="I23" s="29">
         <v>2</v>
       </c>
-      <c r="J23" s="38" t="str">
+      <c r="J23" s="30" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I23,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>투사체를 타겟의 몸에 던진다</v>
       </c>
-      <c r="K23" s="37">
-        <v>0</v>
-      </c>
-      <c r="L23" s="48">
-        <v>0</v>
-      </c>
-      <c r="M23" s="48" t="str">
+      <c r="K23" s="29">
+        <v>0</v>
+      </c>
+      <c r="L23" s="37">
+        <v>0</v>
+      </c>
+      <c r="M23" s="37" t="str">
         <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L23,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="N23" s="48">
-        <v>0</v>
-      </c>
-      <c r="O23" s="48">
-        <v>0</v>
-      </c>
-      <c r="P23" s="37">
+      <c r="N23" s="37">
+        <v>0</v>
+      </c>
+      <c r="O23" s="37">
+        <v>0</v>
+      </c>
+      <c r="P23" s="29">
         <v>100</v>
       </c>
-      <c r="Q23" s="48">
+      <c r="Q23" s="37">
         <v>100015</v>
       </c>
-      <c r="R23" s="48">
-        <v>0</v>
-      </c>
-      <c r="S23" s="48" t="s">
+      <c r="R23" s="37">
+        <v>0</v>
+      </c>
+      <c r="S23" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="T23" s="48" t="s">
+      <c r="T23" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="U23" s="74">
+      <c r="U23" s="68">
         <v>0.3</v>
       </c>
     </row>
@@ -8841,10 +8622,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BD63B1-FF99-405E-A3D0-90C5E747D8DE}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8852,14 +8633,15 @@
     <col min="1" max="1" width="26.125" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="26.125" customWidth="1"/>
     <col min="6" max="6" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.375" customWidth="1"/>
-    <col min="8" max="8" width="45.25" customWidth="1"/>
-    <col min="9" max="9" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="67.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.375" customWidth="1"/>
+    <col min="8" max="8" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="45.25" customWidth="1"/>
+    <col min="10" max="10" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="67.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -8868,8 +8650,9 @@
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
@@ -8889,25 +8672,28 @@
         <v>101</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
@@ -8927,674 +8713,737 @@
         <v>8</v>
       </c>
       <c r="G3" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="I3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="L3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="M3" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="24" t="s">
+    <row r="4" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="H4" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="I4" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="J4" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="K4" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="L4" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="L4" s="24" t="s">
+      <c r="M4" s="22" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="42">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="31">
         <v>100001</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="25">
         <v>1</v>
       </c>
-      <c r="C5" s="87" t="str">
+      <c r="C5" s="59" t="str">
         <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B5,'!참조_ENUM'!$R$3:$R$5,0))</f>
         <v>데미지를 준다</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="25">
         <v>12</v>
       </c>
-      <c r="E5" s="83" t="str">
+      <c r="E5" s="55" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D5,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>타겟의 몸에서 즉시 효과 발동</v>
       </c>
-      <c r="F5" s="29">
-        <v>0</v>
-      </c>
-      <c r="G5" s="29">
+      <c r="F5" s="25">
+        <v>0</v>
+      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25">
         <v>101</v>
       </c>
-      <c r="H5" s="87" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G5,'!참조_ENUM'!$F$3:$F$13,0))</f>
+      <c r="I5" s="59" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(H5,'!참조_ENUM'!$F$3:$F$13,0))</f>
         <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
       </c>
-      <c r="I5" s="43">
-        <v>0</v>
-      </c>
-      <c r="J5" s="29">
+      <c r="J5" s="32">
+        <v>0</v>
+      </c>
+      <c r="K5" s="25">
         <v>1</v>
       </c>
-      <c r="K5" s="43" t="s">
+      <c r="L5" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="L5" s="44">
+      <c r="M5" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="34">
         <v>100002</v>
       </c>
       <c r="B6" s="7">
         <v>1</v>
       </c>
-      <c r="C6" s="88" t="str">
+      <c r="C6" s="60" t="str">
         <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B6,'!참조_ENUM'!$R$3:$R$5,0))</f>
         <v>데미지를 준다</v>
       </c>
       <c r="D6" s="7">
         <v>12</v>
       </c>
-      <c r="E6" s="84" t="str">
+      <c r="E6" s="56" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D6,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>타겟의 몸에서 즉시 효과 발동</v>
       </c>
       <c r="F6" s="7">
         <v>0</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="7"/>
+      <c r="H6" s="7">
         <v>101</v>
       </c>
-      <c r="H6" s="88" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G6,'!참조_ENUM'!$F$3:$F$13,0))</f>
+      <c r="I6" s="60" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(H6,'!참조_ENUM'!$F$3:$F$13,0))</f>
         <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
       </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7">
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="L6" s="46">
+      <c r="M6" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="47">
+    <row r="7" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="36">
         <v>100003</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="29">
         <v>2</v>
       </c>
-      <c r="C7" s="89" t="str">
+      <c r="C7" s="61" t="str">
         <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B7,'!참조_ENUM'!$R$3:$R$5,0))</f>
         <v>체력 회복</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="29">
         <v>12</v>
       </c>
-      <c r="E7" s="85" t="str">
+      <c r="E7" s="57" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D7,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>타겟의 몸에서 즉시 효과 발동</v>
       </c>
-      <c r="F7" s="37">
-        <v>0</v>
-      </c>
-      <c r="G7" s="37">
+      <c r="F7" s="29">
+        <v>0</v>
+      </c>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29">
         <v>300</v>
       </c>
-      <c r="H7" s="89" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G7,'!참조_ENUM'!$F$3:$F$13,0))</f>
+      <c r="I7" s="61" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(H7,'!참조_ENUM'!$F$3:$F$13,0))</f>
         <v>최대 체력을 기준으로 계산을 하기 위한 수치</v>
       </c>
-      <c r="I7" s="48">
-        <v>0</v>
-      </c>
       <c r="J7" s="37">
+        <v>0</v>
+      </c>
+      <c r="K7" s="29">
         <v>0.1</v>
       </c>
-      <c r="K7" s="48" t="s">
+      <c r="L7" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="L7" s="49">
+      <c r="M7" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="42">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="31">
         <v>100004</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="25">
         <v>1</v>
       </c>
-      <c r="C8" s="87" t="str">
+      <c r="C8" s="59" t="str">
         <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B8,'!참조_ENUM'!$R$3:$R$5,0))</f>
         <v>데미지를 준다</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="25">
         <v>12</v>
       </c>
-      <c r="E8" s="83" t="str">
+      <c r="E8" s="55" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D8,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>타겟의 몸에서 즉시 효과 발동</v>
       </c>
-      <c r="F8" s="29">
-        <v>0</v>
-      </c>
-      <c r="G8" s="29">
+      <c r="F8" s="25">
+        <v>0</v>
+      </c>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25">
         <v>101</v>
       </c>
-      <c r="H8" s="87" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G8,'!참조_ENUM'!$F$3:$F$13,0))</f>
+      <c r="I8" s="59" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(H8,'!참조_ENUM'!$F$3:$F$13,0))</f>
         <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
       </c>
-      <c r="I8" s="43">
-        <v>0</v>
-      </c>
-      <c r="J8" s="29">
+      <c r="J8" s="32">
+        <v>0</v>
+      </c>
+      <c r="K8" s="25">
         <v>1</v>
       </c>
-      <c r="K8" s="43" t="s">
+      <c r="L8" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="L8" s="44">
+      <c r="M8" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="34">
         <v>100005</v>
       </c>
       <c r="B9" s="7">
         <v>1</v>
       </c>
-      <c r="C9" s="88" t="str">
+      <c r="C9" s="60" t="str">
         <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B9,'!참조_ENUM'!$R$3:$R$5,0))</f>
         <v>데미지를 준다</v>
       </c>
       <c r="D9" s="7">
         <v>12</v>
       </c>
-      <c r="E9" s="84" t="str">
+      <c r="E9" s="56" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D9,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>타겟의 몸에서 즉시 효과 발동</v>
       </c>
       <c r="F9" s="7">
         <v>0</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="7"/>
+      <c r="H9" s="7">
         <v>101</v>
       </c>
-      <c r="H9" s="88" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G9,'!참조_ENUM'!$F$3:$F$13,0))</f>
+      <c r="I9" s="60" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(H9,'!참조_ENUM'!$F$3:$F$13,0))</f>
         <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
       </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7">
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="L9" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="L9" s="46">
+      <c r="M9" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="47">
+    <row r="10" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="36">
         <v>100006</v>
       </c>
-      <c r="B10" s="37">
+      <c r="B10" s="29">
         <v>1</v>
       </c>
-      <c r="C10" s="89" t="str">
+      <c r="C10" s="61" t="str">
         <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B10,'!참조_ENUM'!$R$3:$R$5,0))</f>
         <v>데미지를 준다</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D10" s="29">
         <v>12</v>
       </c>
-      <c r="E10" s="85" t="str">
+      <c r="E10" s="57" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D10,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>타겟의 몸에서 즉시 효과 발동</v>
       </c>
-      <c r="F10" s="37">
-        <v>0</v>
-      </c>
-      <c r="G10" s="37">
+      <c r="F10" s="29">
+        <v>0</v>
+      </c>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29">
         <v>101</v>
       </c>
-      <c r="H10" s="89" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G10,'!참조_ENUM'!$F$3:$F$13,0))</f>
+      <c r="I10" s="61" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(H10,'!참조_ENUM'!$F$3:$F$13,0))</f>
         <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
       </c>
-      <c r="I10" s="48">
-        <v>0</v>
-      </c>
       <c r="J10" s="37">
+        <v>0</v>
+      </c>
+      <c r="K10" s="29">
         <v>1.2</v>
       </c>
-      <c r="K10" s="48" t="s">
+      <c r="L10" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="L10" s="49">
+      <c r="M10" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="42">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="31">
         <v>100007</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="25">
         <v>1</v>
       </c>
-      <c r="C11" s="87" t="str">
+      <c r="C11" s="59" t="str">
         <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B11,'!참조_ENUM'!$R$3:$R$5,0))</f>
         <v>데미지를 준다</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="25">
         <v>12</v>
       </c>
-      <c r="E11" s="83" t="str">
+      <c r="E11" s="55" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D11,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>타겟의 몸에서 즉시 효과 발동</v>
       </c>
-      <c r="F11" s="29">
-        <v>0</v>
-      </c>
-      <c r="G11" s="29">
+      <c r="F11" s="25">
+        <v>0</v>
+      </c>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25">
         <v>101</v>
       </c>
-      <c r="H11" s="87" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G11,'!참조_ENUM'!$F$3:$F$13,0))</f>
+      <c r="I11" s="59" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(H11,'!참조_ENUM'!$F$3:$F$13,0))</f>
         <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
       </c>
-      <c r="I11" s="43">
-        <v>0</v>
-      </c>
-      <c r="J11" s="29">
+      <c r="J11" s="32">
+        <v>0</v>
+      </c>
+      <c r="K11" s="25">
         <v>1</v>
       </c>
-      <c r="K11" s="43" t="s">
+      <c r="L11" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="L11" s="44">
+      <c r="M11" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="34">
         <v>100008</v>
       </c>
       <c r="B12" s="7">
         <v>1</v>
       </c>
-      <c r="C12" s="88" t="str">
+      <c r="C12" s="60" t="str">
         <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B12,'!참조_ENUM'!$R$3:$R$5,0))</f>
         <v>데미지를 준다</v>
       </c>
       <c r="D12" s="7">
         <v>12</v>
       </c>
-      <c r="E12" s="84" t="str">
+      <c r="E12" s="56" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D12,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>타겟의 몸에서 즉시 효과 발동</v>
       </c>
       <c r="F12" s="7">
         <v>0</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="7"/>
+      <c r="H12" s="7">
         <v>101</v>
       </c>
-      <c r="H12" s="88" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G12,'!참조_ENUM'!$F$3:$F$13,0))</f>
+      <c r="I12" s="60" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(H12,'!참조_ENUM'!$F$3:$F$13,0))</f>
         <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
       </c>
-      <c r="I12" s="4">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7">
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="7">
         <v>1.2</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="L12" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="L12" s="46">
+      <c r="M12" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="75">
+    <row r="13" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="48">
         <v>100009</v>
       </c>
-      <c r="B13" s="60">
+      <c r="B13" s="46">
         <v>1</v>
       </c>
-      <c r="C13" s="90" t="str">
+      <c r="C13" s="62" t="str">
         <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B13,'!참조_ENUM'!$R$3:$R$5,0))</f>
         <v>데미지를 준다</v>
       </c>
-      <c r="D13" s="60">
+      <c r="D13" s="46">
         <v>12</v>
       </c>
-      <c r="E13" s="86" t="str">
+      <c r="E13" s="58" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D13,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>타겟의 몸에서 즉시 효과 발동</v>
       </c>
-      <c r="F13" s="60">
-        <v>0</v>
-      </c>
-      <c r="G13" s="60">
+      <c r="F13" s="46">
+        <v>0</v>
+      </c>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46">
         <v>101</v>
       </c>
-      <c r="H13" s="90" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G13,'!참조_ENUM'!$F$3:$F$13,0))</f>
+      <c r="I13" s="62" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(H13,'!참조_ENUM'!$F$3:$F$13,0))</f>
         <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
       </c>
-      <c r="I13" s="62">
-        <v>0</v>
-      </c>
-      <c r="J13" s="60">
+      <c r="J13" s="47">
+        <v>0</v>
+      </c>
+      <c r="K13" s="46">
         <v>0.8</v>
       </c>
-      <c r="K13" s="62" t="s">
+      <c r="L13" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="L13" s="76">
+      <c r="M13" s="49">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="42">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="31">
         <v>100010</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B14" s="25">
         <v>1</v>
       </c>
-      <c r="C14" s="87" t="str">
+      <c r="C14" s="59" t="str">
         <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B14,'!참조_ENUM'!$R$3:$R$5,0))</f>
         <v>데미지를 준다</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="25">
         <v>12</v>
       </c>
-      <c r="E14" s="83" t="str">
+      <c r="E14" s="55" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D14,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>타겟의 몸에서 즉시 효과 발동</v>
       </c>
-      <c r="F14" s="29">
-        <v>0</v>
-      </c>
-      <c r="G14" s="29">
+      <c r="F14" s="25">
+        <v>0</v>
+      </c>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25">
         <v>101</v>
       </c>
-      <c r="H14" s="87" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G14,'!참조_ENUM'!$F$3:$F$13,0))</f>
+      <c r="I14" s="59" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(H14,'!참조_ENUM'!$F$3:$F$13,0))</f>
         <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
       </c>
-      <c r="I14" s="43">
-        <v>0</v>
-      </c>
-      <c r="J14" s="29">
+      <c r="J14" s="32">
+        <v>0</v>
+      </c>
+      <c r="K14" s="25">
         <v>1</v>
       </c>
-      <c r="K14" s="43" t="s">
+      <c r="L14" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="L14" s="44">
+      <c r="M14" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="47">
+    <row r="15" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="36">
         <v>100011</v>
       </c>
-      <c r="B15" s="37">
+      <c r="B15" s="29">
         <v>1</v>
       </c>
-      <c r="C15" s="89" t="str">
+      <c r="C15" s="61" t="str">
         <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B15,'!참조_ENUM'!$R$3:$R$5,0))</f>
         <v>데미지를 준다</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D15" s="29">
         <v>12</v>
       </c>
-      <c r="E15" s="85" t="str">
+      <c r="E15" s="57" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D15,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>타겟의 몸에서 즉시 효과 발동</v>
       </c>
-      <c r="F15" s="37">
-        <v>0</v>
-      </c>
-      <c r="G15" s="37">
+      <c r="F15" s="29">
+        <v>0</v>
+      </c>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29">
         <v>101</v>
       </c>
-      <c r="H15" s="89" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G15,'!참조_ENUM'!$F$3:$F$13,0))</f>
+      <c r="I15" s="61" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(H15,'!참조_ENUM'!$F$3:$F$13,0))</f>
         <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
       </c>
-      <c r="I15" s="48">
-        <v>0</v>
-      </c>
       <c r="J15" s="37">
+        <v>0</v>
+      </c>
+      <c r="K15" s="29">
         <v>1.2</v>
       </c>
-      <c r="K15" s="48" t="s">
+      <c r="L15" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="L15" s="49">
+      <c r="M15" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="42">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="31">
         <v>100012</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B16" s="25">
         <v>1</v>
       </c>
-      <c r="C16" s="87" t="str">
+      <c r="C16" s="59" t="str">
         <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B16,'!참조_ENUM'!$R$3:$R$5,0))</f>
         <v>데미지를 준다</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="25">
         <v>12</v>
       </c>
-      <c r="E16" s="83" t="str">
+      <c r="E16" s="55" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D16,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>타겟의 몸에서 즉시 효과 발동</v>
       </c>
-      <c r="F16" s="29">
-        <v>0</v>
-      </c>
-      <c r="G16" s="29">
+      <c r="F16" s="25">
+        <v>0</v>
+      </c>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25">
         <v>101</v>
       </c>
-      <c r="H16" s="87" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G16,'!참조_ENUM'!$F$3:$F$13,0))</f>
+      <c r="I16" s="59" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(H16,'!참조_ENUM'!$F$3:$F$13,0))</f>
         <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
       </c>
-      <c r="I16" s="43">
-        <v>0</v>
-      </c>
-      <c r="J16" s="29">
+      <c r="J16" s="32">
+        <v>0</v>
+      </c>
+      <c r="K16" s="25">
         <v>1</v>
       </c>
-      <c r="K16" s="43" t="s">
+      <c r="L16" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="L16" s="44">
+      <c r="M16" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="47">
+    <row r="17" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="36">
         <v>100013</v>
       </c>
-      <c r="B17" s="37">
+      <c r="B17" s="29">
         <v>1</v>
       </c>
-      <c r="C17" s="89" t="str">
+      <c r="C17" s="61" t="str">
         <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B17,'!참조_ENUM'!$R$3:$R$5,0))</f>
         <v>데미지를 준다</v>
       </c>
-      <c r="D17" s="37">
+      <c r="D17" s="29">
         <v>12</v>
       </c>
-      <c r="E17" s="85" t="str">
+      <c r="E17" s="57" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D17,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>타겟의 몸에서 즉시 효과 발동</v>
       </c>
-      <c r="F17" s="37">
-        <v>0</v>
-      </c>
-      <c r="G17" s="37">
+      <c r="F17" s="29">
+        <v>0</v>
+      </c>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29">
         <v>101</v>
       </c>
-      <c r="H17" s="89" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G17,'!참조_ENUM'!$F$3:$F$13,0))</f>
+      <c r="I17" s="61" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(H17,'!참조_ENUM'!$F$3:$F$13,0))</f>
         <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
       </c>
-      <c r="I17" s="48">
-        <v>0</v>
-      </c>
       <c r="J17" s="37">
+        <v>0</v>
+      </c>
+      <c r="K17" s="29">
         <v>1.2</v>
       </c>
-      <c r="K17" s="48" t="s">
+      <c r="L17" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="L17" s="49">
+      <c r="M17" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="42">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="31">
         <v>100014</v>
       </c>
-      <c r="B18" s="29">
+      <c r="B18" s="25">
         <v>1</v>
       </c>
-      <c r="C18" s="87" t="str">
+      <c r="C18" s="59" t="str">
         <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B18,'!참조_ENUM'!$R$3:$R$5,0))</f>
         <v>데미지를 준다</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="25">
         <v>12</v>
       </c>
-      <c r="E18" s="83" t="str">
+      <c r="E18" s="55" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D18,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>타겟의 몸에서 즉시 효과 발동</v>
       </c>
-      <c r="F18" s="29">
-        <v>0</v>
-      </c>
-      <c r="G18" s="29">
+      <c r="F18" s="25">
+        <v>0</v>
+      </c>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25">
         <v>101</v>
       </c>
-      <c r="H18" s="87" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G18,'!참조_ENUM'!$F$3:$F$13,0))</f>
+      <c r="I18" s="59" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(H18,'!참조_ENUM'!$F$3:$F$13,0))</f>
         <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
       </c>
-      <c r="I18" s="43">
-        <v>0</v>
-      </c>
-      <c r="J18" s="29">
+      <c r="J18" s="32">
+        <v>0</v>
+      </c>
+      <c r="K18" s="25">
         <v>1</v>
       </c>
-      <c r="K18" s="43" t="s">
+      <c r="L18" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="L18" s="44">
+      <c r="M18" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="47">
+    <row r="19" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="36">
         <v>100015</v>
       </c>
-      <c r="B19" s="37">
+      <c r="B19" s="29">
         <v>1</v>
       </c>
-      <c r="C19" s="89" t="str">
+      <c r="C19" s="61" t="str">
         <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B19,'!참조_ENUM'!$R$3:$R$5,0))</f>
         <v>데미지를 준다</v>
       </c>
-      <c r="D19" s="37">
+      <c r="D19" s="29">
         <v>12</v>
       </c>
-      <c r="E19" s="85" t="str">
+      <c r="E19" s="57" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D19,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>타겟의 몸에서 즉시 효과 발동</v>
       </c>
-      <c r="F19" s="37">
-        <v>0</v>
-      </c>
-      <c r="G19" s="37">
+      <c r="F19" s="29">
+        <v>0</v>
+      </c>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29">
         <v>101</v>
       </c>
-      <c r="H19" s="89" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G19,'!참조_ENUM'!$F$3:$F$13,0))</f>
+      <c r="I19" s="61" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(H19,'!참조_ENUM'!$F$3:$F$13,0))</f>
         <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
       </c>
-      <c r="I19" s="48">
-        <v>0</v>
-      </c>
       <c r="J19" s="37">
+        <v>0</v>
+      </c>
+      <c r="K19" s="29">
         <v>1.2</v>
       </c>
-      <c r="K19" s="48" t="s">
+      <c r="L19" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="L19" s="49">
+      <c r="M19" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="36">
+        <v>100016</v>
+      </c>
+      <c r="B20" s="29">
+        <v>1</v>
+      </c>
+      <c r="C20" s="61" t="str">
+        <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B20,'!참조_ENUM'!$R$3:$R$5,0))</f>
+        <v>데미지를 준다</v>
+      </c>
+      <c r="D20" s="29">
+        <v>12</v>
+      </c>
+      <c r="E20" s="57" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D20,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>타겟의 몸에서 즉시 효과 발동</v>
+      </c>
+      <c r="F20" s="29">
+        <v>0</v>
+      </c>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29">
+        <v>900</v>
+      </c>
+      <c r="I20" s="61" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(H20,'!참조_ENUM'!$F$3:$F$13,0))</f>
+        <v>피해량을 기준으로 계산을 하기 위한 수치</v>
+      </c>
+      <c r="J20" s="37">
+        <v>0</v>
+      </c>
+      <c r="K20" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="L20" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="M20" s="38">
         <v>1</v>
       </c>
     </row>
@@ -9608,19 +9457,19 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$F$3:$F$13</xm:f>
           </x14:formula1>
-          <xm:sqref>G5:G19</xm:sqref>
+          <xm:sqref>H5:H20</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8C92E819-2566-4A2E-BB43-DD2CB1F67832}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$R$3:$R$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B5:B19</xm:sqref>
+          <xm:sqref>B5:B20</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{313F4E1E-DD72-4BA8-832D-BEE9A5897A8D}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$AD$3:$AD$10</xm:f>
           </x14:formula1>
-          <xm:sqref>D5:D19</xm:sqref>
+          <xm:sqref>D5:D20</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9633,7 +9482,7 @@
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10192,7 +10041,7 @@
         <v>5000</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="T9" s="4">
         <v>0</v>

--- a/Android/ExcelData/PCSkillTable.xlsx
+++ b/Android/ExcelData/PCSkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CA9331-113C-46F1-8C3C-91A9E5C1DC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB96FFC0-2ABD-4AB4-B7FB-B395E156DEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -217,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N4" authorId="0" shapeId="0" xr:uid="{93AC76E1-6E8A-4B72-B4BE-FD7A4A091CB9}">
+    <comment ref="O4" authorId="0" shapeId="0" xr:uid="{93AC76E1-6E8A-4B72-B4BE-FD7A4A091CB9}">
       <text>
         <r>
           <rPr>
@@ -232,7 +231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P4" authorId="0" shapeId="0" xr:uid="{4E8A52B8-B210-4A7B-BC9C-F6B17053F781}">
+    <comment ref="Q4" authorId="0" shapeId="0" xr:uid="{4E8A52B8-B210-4A7B-BC9C-F6B17053F781}">
       <text>
         <r>
           <rPr>
@@ -595,7 +594,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T4" authorId="0" shapeId="0" xr:uid="{A402B58C-B420-4345-8EC5-0136DD80EAAE}">
+    <comment ref="U4" authorId="0" shapeId="0" xr:uid="{A402B58C-B420-4345-8EC5-0136DD80EAAE}">
       <text>
         <r>
           <rPr>
@@ -1525,7 +1524,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="185">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1643,14 +1642,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스킬 설명 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>skill 04</t>
-  </si>
-  <si>
-    <t>스킬 설명 4</t>
   </si>
   <si>
     <t>skill 06</t>
@@ -2029,43 +2021,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스킬 설명 3</t>
-  </si>
-  <si>
-    <t>스킬 설명 5</t>
-  </si>
-  <si>
-    <t>스킬 설명 6</t>
-  </si>
-  <si>
-    <t>스킬 설명 7</t>
-  </si>
-  <si>
-    <t>스킬 설명 8</t>
-  </si>
-  <si>
-    <t>스킬 설명 9</t>
-  </si>
-  <si>
-    <t>스킬 설명 10</t>
-  </si>
-  <si>
-    <t>스킬 설명 11</t>
-  </si>
-  <si>
-    <t>스킬 설명 12</t>
-  </si>
-  <si>
     <t>스킬 설명 13</t>
   </si>
   <si>
     <t>스킬 설명 14</t>
   </si>
   <si>
-    <t>근딜/근접공격/대미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>원딜/일반</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2090,32 +2051,9 @@
     <t>skill 15</t>
   </si>
   <si>
-    <t>스킬 설명 2</t>
-  </si>
-  <si>
     <t>스킬 설명 15</t>
   </si>
   <si>
-    <t>탱/스킬2/나/힐(10%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탱/일반/근접공격/데미지(스킬 대미지 100%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탱/스킬1/근접공격/데미지(스킬 대미지 110%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근딜/일반 (스킬 대미지 100%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근딜/나/공버프 (20%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>원딜/스킬1/대미지 (스킬 대미지 120%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2124,18 +2062,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>원서폿/스킬1/전체방어증가 (10%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원서폿/스킬2/대미지 (스킬 대미지 120%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원힐/스킬1/전체 공격 증가 (10%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>원힐/스킬2/대미지 (스킬 대미지 120%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2144,10 +2070,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>근딜/근접공격/공격(스킬 대미지 120%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Duration_Defense_Up</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2214,6 +2136,119 @@
   </si>
   <si>
     <t>second_effect_onetime_ids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신의 체력 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근접 전방 1명 공격 (1히트)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신의 공격력 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근접 전방 1명 공격 (2히트)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리 전방 1명 공격 (즉발형 1히트)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리 전방 1명 공격(즉발형 1히트)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리 전방 1명 공격(투사체형 1히트)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리 전방 1명의 방어력 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리 전방 적을 타겟하고 범위 데미지 (즉발형 6히트) - 주변 스플래쉬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리 전방 적을 타겟하고 범위 데미지 (투사체형 2히트) - 피격자 뒤로 스플래쉬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력이 가장 낮은 아군 체력 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_attack_2</t>
+  </si>
+  <si>
+    <t>1_attack_1</t>
+  </si>
+  <si>
+    <t>탱/일반/근접공격/데미지(공격력 100%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탱/스킬1/자신의 체력 회복(최대 체력 10%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탱/스킬2/근접공격 (공격력 120%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근딜/일반 (공격력 100%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근딜/근접공격/대미지(공격력 130%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_attack_3</t>
+  </si>
+  <si>
+    <t>1_attack_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근딜/나/공격력 증가 버프 (20%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,15,15,15,15,25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/Left/SkillEffect_Pierce_Splash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타겟 범위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target_range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원서폿/스킬2/대미지 (공격력 120%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원서폿/스킬1/전방 방어력 감소(20%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Duration_Defense_Down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원힐/스킬1/체력이 가장 낮은 아군 회복(최대 체력 30%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2329,7 +2364,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -2559,13 +2594,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2755,23 +2829,35 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2927,738 +3013,782 @@
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>LOWEST_LIFE_VALUE</v>
+            <v>NEAREST_ADD_BACK_RANGE</v>
           </cell>
           <cell r="B12">
-            <v>3001</v>
+            <v>8</v>
           </cell>
           <cell r="C12" t="str">
-            <v>남은 체력이 가장 낮은 타겟 선택</v>
+            <v>가장 가까운 적 우선 선택(순번 컬럼 연동하여 순서대로) 후 일정 영역내의 뒤에있는 타겟의 추가 선택</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>LOWEST_ATTACK</v>
+            <v>FURTHEST_ADD_FRONT_RANGE</v>
           </cell>
           <cell r="B13">
-            <v>3003</v>
+            <v>9</v>
           </cell>
           <cell r="C13" t="str">
-            <v>공격력이 가장 낮은 타겟 선택</v>
+            <v>가장 거리가 먼 적 우선 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로) 후 일정 영역내의 앞에 있는 타겟 추가 선택</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>LOWEST_DEFENSE</v>
+            <v>NEAREST_ADD_ARROUND_RANGE</v>
           </cell>
           <cell r="B14">
-            <v>3004</v>
+            <v>10</v>
           </cell>
           <cell r="C14" t="str">
-            <v>방어력이 가장 낮은 타겟 선택</v>
+            <v>가장 가까운 적 우선 선택(순번 컬럼 연동하여 순서대로) 후 일정 영역내의(주변) 타겟의 추가 선택</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>HIGHEST_ATTACK</v>
+            <v>FURTHEST_ADD_ARROUND_RANGE</v>
           </cell>
           <cell r="B15">
-            <v>2003</v>
+            <v>11</v>
           </cell>
           <cell r="C15" t="str">
-            <v>공격력이 가장 높은 타겟 선택</v>
+            <v>가장 거리가 먼 적 우선 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로) 후 일정 영역내의 (주변) 타겟 추가 선택</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>HIGHEST_DEFENSE</v>
+            <v>LOWEST_LIFE_VALUE</v>
           </cell>
           <cell r="B16">
-            <v>2004</v>
+            <v>3001</v>
           </cell>
           <cell r="C16" t="str">
-            <v>방어력이 가장 높은 타겟 선택</v>
+            <v>남은 체력이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>APPROACH</v>
+            <v>LOWEST_ATTACK</v>
           </cell>
           <cell r="B17">
-            <v>9999</v>
+            <v>3003</v>
           </cell>
           <cell r="C17" t="str">
-            <v>가장 가까운 상대 타겟 선택(화면상에서 적에게 접근하기 위한 용도)</v>
+            <v>공격력이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>LEADER_HIGH_PRIORITY</v>
+            <v>LOWEST_DEFENSE</v>
           </cell>
           <cell r="B18">
-            <v>1001</v>
+            <v>3004</v>
           </cell>
           <cell r="C18" t="str">
-            <v>리더 선택</v>
+            <v>방어력이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>HIGHEST_LIFE_VALUE</v>
+            <v>HIGHEST_ATTACK</v>
           </cell>
           <cell r="B19">
-            <v>2001</v>
+            <v>2003</v>
           </cell>
           <cell r="C19" t="str">
-            <v>남은 체력이 가장 많은 타겟 선택</v>
+            <v>공격력이 가장 높은 타겟 선택</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>HIGHEST_LIFE_RATE</v>
+            <v>HIGHEST_DEFENSE</v>
           </cell>
           <cell r="B20">
-            <v>2002</v>
+            <v>2004</v>
           </cell>
           <cell r="C20" t="str">
-            <v>남은 체력 비율이 가장 높은 타겟 선택</v>
+            <v>방어력이 가장 높은 타겟 선택</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>HIGHEST_ACCURACY</v>
+            <v>APPROACH</v>
           </cell>
           <cell r="B21">
-            <v>2006</v>
+            <v>9999</v>
           </cell>
           <cell r="C21" t="str">
-            <v>명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
+            <v>가장 가까운 상대 타겟 선택(화면상에서 적에게 접근하기 위한 용도)</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>HIGHEST_EVASION</v>
+            <v>LEADER_HIGH_PRIORITY</v>
           </cell>
           <cell r="B22">
-            <v>2007</v>
+            <v>1001</v>
           </cell>
           <cell r="C22" t="str">
-            <v>회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
+            <v>리더 선택</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>HIGHEST_LIFE_VALUE_HUMAN</v>
+            <v>HIGHEST_LIFE_VALUE</v>
           </cell>
           <cell r="B23">
-            <v>2008</v>
+            <v>2001</v>
           </cell>
           <cell r="C23" t="str">
-            <v>남은 체력이 가장 높은 인간 종족 선택</v>
+            <v>남은 체력이 가장 많은 타겟 선택</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>HIGHEST_LIFE_VALUE_ELF</v>
+            <v>HIGHEST_LIFE_RATE</v>
           </cell>
           <cell r="B24">
-            <v>2009</v>
+            <v>2002</v>
           </cell>
           <cell r="C24" t="str">
-            <v>남은 체력이 가장 높은 엘프 종족 선택</v>
+            <v>남은 체력 비율이 가장 높은 타겟 선택</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>HIGHEST_LIFE_VALUE_WEREBEAST</v>
+            <v>HIGHEST_ACCURACY</v>
           </cell>
           <cell r="B25">
-            <v>2010</v>
+            <v>2006</v>
           </cell>
           <cell r="C25" t="str">
-            <v>남은 체력이 가장 높은 수인 종족 선택</v>
+            <v>명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v>HIGHEST_LIFE_VALUE_ANDROID</v>
+            <v>HIGHEST_EVASION</v>
           </cell>
           <cell r="B26">
-            <v>2011</v>
+            <v>2007</v>
           </cell>
           <cell r="C26" t="str">
-            <v>남은 체력이 가장 높은 안드로이드 선택</v>
+            <v>회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>HIGHEST_LIFE_VALUE_DEVIL</v>
+            <v>HIGHEST_LIFE_VALUE_HUMAN</v>
           </cell>
           <cell r="B27">
-            <v>2012</v>
+            <v>2008</v>
           </cell>
           <cell r="C27" t="str">
-            <v>남은 체력이 가장 높은 악마 선택</v>
+            <v>남은 체력이 가장 높은 인간 종족 선택</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>HIGHEST_LIFE_VALUE_ANGEL</v>
+            <v>HIGHEST_LIFE_VALUE_ELF</v>
           </cell>
           <cell r="B28">
-            <v>2013</v>
+            <v>2009</v>
           </cell>
           <cell r="C28" t="str">
-            <v>남은 체력이 가장 높은 천사 선택</v>
+            <v>남은 체력이 가장 높은 엘프 종족 선택</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>HIGHEST_LIFE_VALUE_WITHOUT_ME</v>
+            <v>HIGHEST_LIFE_VALUE_WEREBEAST</v>
           </cell>
           <cell r="B29">
-            <v>2014</v>
+            <v>2010</v>
           </cell>
           <cell r="C29" t="str">
-            <v>자신을 제외한 체력이 가장 높은 타겟 선택</v>
+            <v>남은 체력이 가장 높은 수인 종족 선택</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>HIGHEST_LIFE_RATE_WITHOUT_ME</v>
+            <v>HIGHEST_LIFE_VALUE_ANDROID</v>
           </cell>
           <cell r="B30">
-            <v>2015</v>
+            <v>2011</v>
           </cell>
           <cell r="C30" t="str">
-            <v>자신을 제외한 체력 비율이 가장 높은 타겟 선택</v>
+            <v>남은 체력이 가장 높은 안드로이드 선택</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>HIGHEST_ATTACK_WITHOUT_ME</v>
+            <v>HIGHEST_LIFE_VALUE_DEVIL</v>
           </cell>
           <cell r="B31">
-            <v>2016</v>
+            <v>2012</v>
           </cell>
           <cell r="C31" t="str">
-            <v>자신을 제외한 공격력이 가장 높은 타겟 선택</v>
+            <v>남은 체력이 가장 높은 악마 선택</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>HIGHEST_DEFENSE_WITHOUT_ME</v>
+            <v>HIGHEST_LIFE_VALUE_ANGEL</v>
           </cell>
           <cell r="B32">
-            <v>2017</v>
+            <v>2013</v>
           </cell>
           <cell r="C32" t="str">
-            <v>자신을 제외한 방어력이 가장 높은 타겟 선택</v>
+            <v>남은 체력이 가장 높은 천사 선택</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>HIGHEST_RAPIDITY_WITHOUT_ME</v>
+            <v>HIGHEST_LIFE_VALUE_WITHOUT_ME</v>
           </cell>
           <cell r="B33">
-            <v>2018</v>
+            <v>2014</v>
           </cell>
           <cell r="C33" t="str">
-            <v>자신을 제외한 공속이 가장 높은 타겟 선택</v>
+            <v>자신을 제외한 체력이 가장 높은 타겟 선택</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>HIGHEST_ACCURACY_WITHOUT_ME</v>
+            <v>HIGHEST_LIFE_RATE_WITHOUT_ME</v>
           </cell>
           <cell r="B34">
-            <v>2019</v>
+            <v>2015</v>
           </cell>
           <cell r="C34" t="str">
-            <v>자신을 제외한 명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
+            <v>자신을 제외한 체력 비율이 가장 높은 타겟 선택</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35" t="str">
-            <v>HIGHEST_EVASION_WITHOUT_ME</v>
+            <v>HIGHEST_ATTACK_WITHOUT_ME</v>
           </cell>
           <cell r="B35">
-            <v>2020</v>
+            <v>2016</v>
           </cell>
           <cell r="C35" t="str">
-            <v>자신을 제외한 회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
+            <v>자신을 제외한 공격력이 가장 높은 타겟 선택</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36" t="str">
-            <v>LOWEST_LIFE_RATE</v>
+            <v>HIGHEST_DEFENSE_WITHOUT_ME</v>
           </cell>
           <cell r="B36">
-            <v>3002</v>
+            <v>2017</v>
           </cell>
           <cell r="C36" t="str">
-            <v>남은 체력 비율이 가장 낮은 타겟 선택</v>
+            <v>자신을 제외한 방어력이 가장 높은 타겟 선택</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>LOWEST_ACCUM_RAPIDITY_POINT</v>
+            <v>HIGHEST_RAPIDITY_WITHOUT_ME</v>
           </cell>
           <cell r="B37">
-            <v>3005</v>
+            <v>2018</v>
           </cell>
           <cell r="C37" t="str">
-            <v>속도게이지가 가장 낮은 타겟 선택</v>
+            <v>자신을 제외한 공속이 가장 높은 타겟 선택</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38" t="str">
-            <v>LOWEST_ACCURACY</v>
+            <v>HIGHEST_ACCURACY_WITHOUT_ME</v>
           </cell>
           <cell r="B38">
-            <v>3006</v>
+            <v>2019</v>
           </cell>
           <cell r="C38" t="str">
-            <v>명중률이 가장 낮은 타겟 선택</v>
+            <v>자신을 제외한 명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39" t="str">
-            <v>LOWEST_EVASION</v>
+            <v>HIGHEST_EVASION_WITHOUT_ME</v>
           </cell>
           <cell r="B39">
-            <v>3007</v>
+            <v>2020</v>
           </cell>
           <cell r="C39" t="str">
-            <v>회피율이 가장 낮은 타겟 선택</v>
+            <v>자신을 제외한 회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40" t="str">
-            <v>LOWEST_LIFE_VALUE_HUMAN</v>
+            <v>LOWEST_LIFE_RATE</v>
           </cell>
           <cell r="B40">
-            <v>3008</v>
+            <v>3002</v>
           </cell>
           <cell r="C40" t="str">
-            <v>남은 체력이 가장 낮은 인간 종족 선택</v>
+            <v>남은 체력 비율이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41" t="str">
-            <v>LOWEST_LIFE_VALUE_ELF</v>
+            <v>LOWEST_ACCUM_RAPIDITY_POINT</v>
           </cell>
           <cell r="B41">
-            <v>3009</v>
+            <v>3005</v>
           </cell>
           <cell r="C41" t="str">
-            <v>남은 체력이 가장 낮은 엘프 종족 선택</v>
+            <v>속도게이지가 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42" t="str">
-            <v>LOWEST_LIFE_VALUE_WEREBEAST</v>
+            <v>LOWEST_ACCURACY</v>
           </cell>
           <cell r="B42">
-            <v>3010</v>
+            <v>3006</v>
           </cell>
           <cell r="C42" t="str">
-            <v>남은 체력이 가장 낮은 수인 종족 선택</v>
+            <v>명중률이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43" t="str">
-            <v>LOWEST_LIFE_VALUE_ANDROID</v>
+            <v>LOWEST_EVASION</v>
           </cell>
           <cell r="B43">
-            <v>3011</v>
+            <v>3007</v>
           </cell>
           <cell r="C43" t="str">
-            <v>남은 체력이 가장 낮은 안드로이드 선택</v>
+            <v>회피율이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44" t="str">
-            <v>LOWEST_LIFE_VALUE_DEVIL</v>
+            <v>LOWEST_LIFE_VALUE_HUMAN</v>
           </cell>
           <cell r="B44">
-            <v>3012</v>
+            <v>3008</v>
           </cell>
           <cell r="C44" t="str">
-            <v>남은 체력이 가장 낮은 악마 종족 선택</v>
+            <v>남은 체력이 가장 낮은 인간 종족 선택</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45" t="str">
-            <v>LOWEST_LIFE_VALUE_ANGEL</v>
+            <v>LOWEST_LIFE_VALUE_ELF</v>
           </cell>
           <cell r="B45">
-            <v>3013</v>
+            <v>3009</v>
           </cell>
           <cell r="C45" t="str">
-            <v>남은 체력이 가장 낮은 천사 종족 선택</v>
+            <v>남은 체력이 가장 낮은 엘프 종족 선택</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46" t="str">
-            <v>LOWEST_LIFE_VALUE_WITHOUT_ME</v>
+            <v>LOWEST_LIFE_VALUE_WEREBEAST</v>
           </cell>
           <cell r="B46">
-            <v>3014</v>
+            <v>3010</v>
           </cell>
           <cell r="C46" t="str">
-            <v>자신을 제외한 남은 체력이 가장 낮은 타겟 선택</v>
+            <v>남은 체력이 가장 낮은 수인 종족 선택</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47" t="str">
-            <v>LOWEST_LIFE_RATE_WITHOUT_ME</v>
+            <v>LOWEST_LIFE_VALUE_ANDROID</v>
           </cell>
           <cell r="B47">
-            <v>3015</v>
+            <v>3011</v>
           </cell>
           <cell r="C47" t="str">
-            <v>자신을 제외한 남은 체력 비율이 가장 낮은 타겟 선택</v>
+            <v>남은 체력이 가장 낮은 안드로이드 선택</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48" t="str">
-            <v>LOWEST_ATTACK_WITHOUT_ME</v>
+            <v>LOWEST_LIFE_VALUE_DEVIL</v>
           </cell>
           <cell r="B48">
-            <v>3016</v>
+            <v>3012</v>
           </cell>
           <cell r="C48" t="str">
-            <v>자신을 제외한 공격력이 가장 낮은 타겟 선택</v>
+            <v>남은 체력이 가장 낮은 악마 종족 선택</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49" t="str">
-            <v>LOWEST_DEFENSE_WITHOUT_ME</v>
+            <v>LOWEST_LIFE_VALUE_ANGEL</v>
           </cell>
           <cell r="B49">
-            <v>3017</v>
+            <v>3013</v>
           </cell>
           <cell r="C49" t="str">
-            <v>자신을 제외한 방어력이 가장 낮은 타겟 선택</v>
+            <v>남은 체력이 가장 낮은 천사 종족 선택</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50" t="str">
-            <v>LOWEST_RAPIDITY_WITHOUT_ME</v>
+            <v>LOWEST_LIFE_VALUE_WITHOUT_ME</v>
           </cell>
           <cell r="B50">
-            <v>3018</v>
+            <v>3014</v>
           </cell>
           <cell r="C50" t="str">
-            <v>자신을 제외한 공속이 가장 낮은 타겟 선택</v>
+            <v>자신을 제외한 남은 체력이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51" t="str">
-            <v>LOWEST_ACCURACY_WITHOUT_ME</v>
+            <v>LOWEST_LIFE_RATE_WITHOUT_ME</v>
           </cell>
           <cell r="B51">
-            <v>3019</v>
+            <v>3015</v>
           </cell>
           <cell r="C51" t="str">
-            <v>자신을 제외한 명중률이 가장 낮은 타겟 선택</v>
+            <v>자신을 제외한 남은 체력 비율이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52" t="str">
-            <v>LOWEST_EVASION_WITHOUT_ME</v>
+            <v>LOWEST_ATTACK_WITHOUT_ME</v>
           </cell>
           <cell r="B52">
-            <v>3020</v>
+            <v>3016</v>
           </cell>
           <cell r="C52" t="str">
-            <v>자신을 제외한 회피율이 가장 낮은 타겟 선택</v>
+            <v>자신을 제외한 공격력이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53" t="str">
-            <v>LOWEST_LIFE_VALUE_WITH_ME</v>
+            <v>LOWEST_DEFENSE_WITHOUT_ME</v>
           </cell>
           <cell r="B53">
-            <v>3021</v>
+            <v>3017</v>
           </cell>
           <cell r="C53" t="str">
-            <v>자신을 포함한 남은 체력이 가장 낮은 타겟 선택</v>
+            <v>자신을 제외한 방어력이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54" t="str">
-            <v>LOWEST_LIFE_RATE_WITH_ME</v>
+            <v>LOWEST_RAPIDITY_WITHOUT_ME</v>
           </cell>
           <cell r="B54">
-            <v>3022</v>
+            <v>3018</v>
           </cell>
           <cell r="C54" t="str">
-            <v>자신을 포함한 남은 체력 비율이 가장 낮은 타겟 선택</v>
+            <v>자신을 제외한 공속이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55" t="str">
-            <v>LOWEST_ATTACK_WITH_ME</v>
+            <v>LOWEST_ACCURACY_WITHOUT_ME</v>
           </cell>
           <cell r="B55">
-            <v>3023</v>
+            <v>3019</v>
           </cell>
           <cell r="C55" t="str">
-            <v>자신을 포함한 공격력이 가장 낮은 타겟 선택</v>
+            <v>자신을 제외한 명중률이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56" t="str">
-            <v>LOWEST_DEFENSE_WITH_ME</v>
+            <v>LOWEST_EVASION_WITHOUT_ME</v>
           </cell>
           <cell r="B56">
-            <v>3024</v>
+            <v>3020</v>
           </cell>
           <cell r="C56" t="str">
-            <v>자신을 포함한 방어력이 가장 낮은 타겟 선택</v>
+            <v>자신을 제외한 회피율이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57" t="str">
-            <v>LOWEST_RAPIDITY_WITH_ME</v>
+            <v>LOWEST_LIFE_VALUE_WITH_ME</v>
           </cell>
           <cell r="B57">
-            <v>3025</v>
+            <v>3021</v>
           </cell>
           <cell r="C57" t="str">
-            <v>자신을 포함한 공속이 가장 낮은 타겟 선택</v>
+            <v>자신을 포함한 남은 체력이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58" t="str">
-            <v>LOWEST_ACCURACY_WITH_ME</v>
+            <v>LOWEST_LIFE_RATE_WITH_ME</v>
           </cell>
           <cell r="B58">
-            <v>3026</v>
+            <v>3022</v>
           </cell>
           <cell r="C58" t="str">
-            <v>자신을 포함한 명중률이 가장 낮은 타겟 선택</v>
+            <v>자신을 포함한 남은 체력 비율이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59" t="str">
-            <v>LOWEST_EVASION_WITH_ME</v>
+            <v>LOWEST_ATTACK_WITH_ME</v>
           </cell>
           <cell r="B59">
-            <v>3027</v>
+            <v>3023</v>
           </cell>
           <cell r="C59" t="str">
-            <v>자신을 포함한 회피율이 가장 낮은 타겟 선택</v>
+            <v>자신을 포함한 공격력이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60" t="str">
-            <v>WEAK_ELEMENT</v>
+            <v>LOWEST_DEFENSE_WITH_ME</v>
           </cell>
           <cell r="B60">
-            <v>4001</v>
+            <v>3024</v>
           </cell>
           <cell r="C60" t="str">
-            <v>자신보다 약한 속성 타겟 선택 (상성 시스템이 있을 경우)</v>
+            <v>자신을 포함한 방어력이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61" t="str">
-            <v>STRONG_ELEMENT</v>
+            <v>LOWEST_RAPIDITY_WITH_ME</v>
           </cell>
           <cell r="B61">
-            <v>4002</v>
+            <v>3025</v>
           </cell>
           <cell r="C61" t="str">
-            <v>자신보다 강한 속성 타겟 선택 (상성 시스템이 있을 경우)</v>
+            <v>자신을 포함한 공속이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62" t="str">
-            <v>GAIN_BUFF_DURATION</v>
+            <v>LOWEST_ACCURACY_WITH_ME</v>
           </cell>
           <cell r="B62">
-            <v>5001</v>
+            <v>3026</v>
           </cell>
           <cell r="C62" t="str">
-            <v>버프 효과가 있는 타겟 선택</v>
+            <v>자신을 포함한 명중률이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63" t="str">
-            <v>GAIN_BUFF_DURATION_ATTACK_INC</v>
+            <v>LOWEST_EVASION_WITH_ME</v>
           </cell>
           <cell r="B63">
-            <v>5002</v>
+            <v>3027</v>
           </cell>
           <cell r="C63" t="str">
-            <v>버프 효과 중 공격력 증가 효과가 있는 타겟 선택</v>
+            <v>자신을 포함한 회피율이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64" t="str">
-            <v>GAIN_BUFF_DURATION_DEFENSE_INC</v>
+            <v>WEAK_ELEMENT</v>
           </cell>
           <cell r="B64">
-            <v>5003</v>
+            <v>4001</v>
           </cell>
           <cell r="C64" t="str">
-            <v>버프 효과 중 방어력 증가 효과가 있는 타겟 선택</v>
+            <v>자신보다 약한 속성 타겟 선택 (상성 시스템이 있을 경우)</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65" t="str">
-            <v>GAIN_BUFF_DURATION_RAPIDITY_INC</v>
+            <v>STRONG_ELEMENT</v>
           </cell>
           <cell r="B65">
-            <v>5004</v>
+            <v>4002</v>
           </cell>
           <cell r="C65" t="str">
-            <v>버프 효과 중 공속 증가 효과가 있는 타겟 선택</v>
+            <v>자신보다 강한 속성 타겟 선택 (상성 시스템이 있을 경우)</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66" t="str">
-            <v>GAIN_BUFF_DURATION_EVASION_INC</v>
+            <v>GAIN_BUFF_DURATION</v>
           </cell>
           <cell r="B66">
-            <v>5005</v>
+            <v>5001</v>
           </cell>
           <cell r="C66" t="str">
-            <v>버프 효과 중 회피율 증가 효과가 있는 타겟 선택</v>
+            <v>버프 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67" t="str">
-            <v>GAIN_BUFF_DURATION_CRITICAL_RATE_INC</v>
+            <v>GAIN_BUFF_DURATION_ATTACK_INC</v>
           </cell>
           <cell r="B67">
-            <v>5006</v>
+            <v>5002</v>
           </cell>
           <cell r="C67" t="str">
-            <v>버프 효과 중 치명타 확률 증가 효과가 있는 타겟 선택</v>
+            <v>버프 효과 중 공격력 증가 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68" t="str">
-            <v>GAIN_BUFF_DURATION_CRITICAL_DAMAGE_INC</v>
+            <v>GAIN_BUFF_DURATION_DEFENSE_INC</v>
           </cell>
           <cell r="B68">
-            <v>5007</v>
+            <v>5003</v>
           </cell>
           <cell r="C68" t="str">
-            <v>버프 효과 중 치명타 피해량 증가 효과가 있는 타겟 선택</v>
+            <v>버프 효과 중 방어력 증가 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69" t="str">
-            <v>GAIN_DEBUFF_DURATION</v>
+            <v>GAIN_BUFF_DURATION_RAPIDITY_INC</v>
           </cell>
           <cell r="B69">
-            <v>6001</v>
+            <v>5004</v>
           </cell>
           <cell r="C69" t="str">
-            <v>디버프 효과가 있는 타겟 선택</v>
+            <v>버프 효과 중 공속 증가 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70" t="str">
-            <v>GAIN_DEBUFF_DURATION_ATTACK_DEC</v>
+            <v>GAIN_BUFF_DURATION_EVASION_INC</v>
           </cell>
           <cell r="B70">
-            <v>6002</v>
+            <v>5005</v>
           </cell>
           <cell r="C70" t="str">
-            <v>디버프 효과 중 공격력 감소 효과가 있는 타겟 선택</v>
+            <v>버프 효과 중 회피율 증가 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71" t="str">
-            <v>GAIN_DEBUFF_DURATION_DEFENSE_DEC</v>
+            <v>GAIN_BUFF_DURATION_CRITICAL_RATE_INC</v>
           </cell>
           <cell r="B71">
-            <v>6003</v>
+            <v>5006</v>
           </cell>
           <cell r="C71" t="str">
-            <v>디버프 효과 중 방어력 감소 효과가 있는 타겟 선택</v>
+            <v>버프 효과 중 치명타 확률 증가 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72" t="str">
-            <v>GAIN_DEBUFF_DURATION_BURN</v>
+            <v>GAIN_BUFF_DURATION_CRITICAL_DAMAGE_INC</v>
           </cell>
           <cell r="B72">
-            <v>6004</v>
+            <v>5007</v>
           </cell>
           <cell r="C72" t="str">
-            <v>디버프 효과 중 화상 효과가 있는 타겟 선택</v>
+            <v>버프 효과 중 치명타 피해량 증가 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73" t="str">
-            <v>GAIN_DEBUFF_DURATION_BLEEDING</v>
+            <v>GAIN_DEBUFF_DURATION</v>
           </cell>
           <cell r="B73">
-            <v>6005</v>
+            <v>6001</v>
           </cell>
           <cell r="C73" t="str">
-            <v>디버프 효과 중 출혈 효과가 있는 타겟 선택</v>
+            <v>디버프 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74" t="str">
-            <v>GAIN_DEBUFF_DURATION_POISON</v>
+            <v>GAIN_DEBUFF_DURATION_ATTACK_DEC</v>
           </cell>
           <cell r="B74">
-            <v>6006</v>
+            <v>6002</v>
           </cell>
           <cell r="C74" t="str">
-            <v>디버프 효과 중 중독 효과가 있는 타겟 선택</v>
+            <v>디버프 효과 중 공격력 감소 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75" t="str">
-            <v>GAIN_DEBUFF_DURATION_RAPIDITY_DEC</v>
+            <v>GAIN_DEBUFF_DURATION_DEFENSE_DEC</v>
           </cell>
           <cell r="B75">
-            <v>6007</v>
+            <v>6003</v>
           </cell>
           <cell r="C75" t="str">
-            <v>디버프 효과 중 공속 감소 효과가 있는 타겟 선택</v>
+            <v>디버프 효과 중 방어력 감소 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76" t="str">
-            <v>GAIN_DEBUFF_DURATION_SLEEP</v>
+            <v>GAIN_DEBUFF_DURATION_BURN</v>
           </cell>
           <cell r="B76">
-            <v>6008</v>
+            <v>6004</v>
           </cell>
           <cell r="C76" t="str">
-            <v>디버프 효과 중 수면 효과가 있는 타겟 선택</v>
+            <v>디버프 효과 중 화상 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77" t="str">
-            <v>GAIN_DEBUFF_DURATION_FATAL_WOUNDS</v>
+            <v>GAIN_DEBUFF_DURATION_BLEEDING</v>
           </cell>
           <cell r="B77">
-            <v>6009</v>
+            <v>6005</v>
           </cell>
           <cell r="C77" t="str">
-            <v>디버프 효과 중 치명상 효과가 있는 타겟 선택</v>
+            <v>디버프 효과 중 출혈 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78" t="str">
+            <v>GAIN_DEBUFF_DURATION_POISON</v>
+          </cell>
+          <cell r="B78">
+            <v>6006</v>
+          </cell>
+          <cell r="C78" t="str">
+            <v>디버프 효과 중 중독 효과가 있는 타겟 선택</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79" t="str">
+            <v>GAIN_DEBUFF_DURATION_RAPIDITY_DEC</v>
+          </cell>
+          <cell r="B79">
+            <v>6007</v>
+          </cell>
+          <cell r="C79" t="str">
+            <v>디버프 효과 중 공속 감소 효과가 있는 타겟 선택</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80" t="str">
+            <v>GAIN_DEBUFF_DURATION_SLEEP</v>
+          </cell>
+          <cell r="B80">
+            <v>6008</v>
+          </cell>
+          <cell r="C80" t="str">
+            <v>디버프 효과 중 수면 효과가 있는 타겟 선택</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81" t="str">
+            <v>GAIN_DEBUFF_DURATION_FATAL_WOUNDS</v>
+          </cell>
+          <cell r="B81">
+            <v>6009</v>
+          </cell>
+          <cell r="C81" t="str">
+            <v>디버프 효과 중 치명상 효과가 있는 타겟 선택</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82" t="str">
             <v>GAIN_DEBUFF_DURATION_ACCURACY_DEC</v>
           </cell>
-          <cell r="B78">
+          <cell r="B82">
             <v>6010</v>
           </cell>
-          <cell r="C78" t="str">
+          <cell r="C82" t="str">
             <v>디버프 효과 중 명중률 감소 효과가 있는 타겟 선택</v>
           </cell>
         </row>
@@ -4320,22 +4450,6 @@
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
       <sheetData sheetId="17"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="@pc_npc"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4638,10 +4752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCF2545-5B22-48B7-AA3A-4E88E574D583}">
-  <dimension ref="A1:AM77"/>
+  <dimension ref="A1:AM81"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AK2" sqref="AK2:AM5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5490,15 +5604,15 @@
     <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="str">
         <f>'[1]@target_rule'!$A12</f>
-        <v>LOWEST_LIFE_VALUE</v>
+        <v>NEAREST_ADD_BACK_RANGE</v>
       </c>
       <c r="B11" s="4">
         <f>'[1]@target_rule'!$B12</f>
-        <v>3001</v>
+        <v>8</v>
       </c>
       <c r="C11" s="4" t="str">
         <f>'[1]@target_rule'!$C12</f>
-        <v>남은 체력이 가장 낮은 타겟 선택</v>
+        <v>가장 가까운 적 우선 선택(순번 컬럼 연동하여 순서대로) 후 일정 영역내의 뒤에있는 타겟의 추가 선택</v>
       </c>
       <c r="E11" s="4" t="str">
         <f>'[1]@stat'!$A12</f>
@@ -5528,15 +5642,15 @@
     <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="str">
         <f>'[1]@target_rule'!$A13</f>
-        <v>LOWEST_ATTACK</v>
+        <v>FURTHEST_ADD_FRONT_RANGE</v>
       </c>
       <c r="B12" s="4">
         <f>'[1]@target_rule'!$B13</f>
-        <v>3003</v>
+        <v>9</v>
       </c>
       <c r="C12" s="4" t="str">
         <f>'[1]@target_rule'!$C13</f>
-        <v>공격력이 가장 낮은 타겟 선택</v>
+        <v>가장 거리가 먼 적 우선 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로) 후 일정 영역내의 앞에 있는 타겟 추가 선택</v>
       </c>
       <c r="E12" s="4" t="str">
         <f>'[1]@stat'!$A13</f>
@@ -5566,15 +5680,15 @@
     <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="str">
         <f>'[1]@target_rule'!$A14</f>
-        <v>LOWEST_DEFENSE</v>
+        <v>NEAREST_ADD_ARROUND_RANGE</v>
       </c>
       <c r="B13" s="4">
         <f>'[1]@target_rule'!$B14</f>
-        <v>3004</v>
+        <v>10</v>
       </c>
       <c r="C13" s="4" t="str">
         <f>'[1]@target_rule'!$C14</f>
-        <v>방어력이 가장 낮은 타겟 선택</v>
+        <v>가장 가까운 적 우선 선택(순번 컬럼 연동하여 순서대로) 후 일정 영역내의(주변) 타겟의 추가 선택</v>
       </c>
       <c r="E13" s="4" t="str">
         <f>'[1]@stat'!$A14</f>
@@ -5604,896 +5718,952 @@
     <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="str">
         <f>'[1]@target_rule'!$A15</f>
-        <v>HIGHEST_ATTACK</v>
+        <v>FURTHEST_ADD_ARROUND_RANGE</v>
       </c>
       <c r="B14" s="4">
         <f>'[1]@target_rule'!$B15</f>
-        <v>2003</v>
+        <v>11</v>
       </c>
       <c r="C14" s="4" t="str">
         <f>'[1]@target_rule'!$C15</f>
-        <v>공격력이 가장 높은 타겟 선택</v>
+        <v>가장 거리가 먼 적 우선 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로) 후 일정 영역내의 (주변) 타겟 추가 선택</v>
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="str">
         <f>'[1]@target_rule'!$A16</f>
-        <v>HIGHEST_DEFENSE</v>
+        <v>LOWEST_LIFE_VALUE</v>
       </c>
       <c r="B15" s="4">
         <f>'[1]@target_rule'!$B16</f>
-        <v>2004</v>
+        <v>3001</v>
       </c>
       <c r="C15" s="4" t="str">
         <f>'[1]@target_rule'!$C16</f>
-        <v>방어력이 가장 높은 타겟 선택</v>
+        <v>남은 체력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="str">
         <f>'[1]@target_rule'!$A17</f>
-        <v>APPROACH</v>
+        <v>LOWEST_ATTACK</v>
       </c>
       <c r="B16" s="4">
         <f>'[1]@target_rule'!$B17</f>
-        <v>9999</v>
+        <v>3003</v>
       </c>
       <c r="C16" s="4" t="str">
         <f>'[1]@target_rule'!$C17</f>
-        <v>가장 가까운 상대 타겟 선택(화면상에서 적에게 접근하기 위한 용도)</v>
+        <v>공격력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="str">
         <f>'[1]@target_rule'!$A18</f>
-        <v>LEADER_HIGH_PRIORITY</v>
+        <v>LOWEST_DEFENSE</v>
       </c>
       <c r="B17" s="4">
         <f>'[1]@target_rule'!$B18</f>
-        <v>1001</v>
+        <v>3004</v>
       </c>
       <c r="C17" s="4" t="str">
         <f>'[1]@target_rule'!$C18</f>
-        <v>리더 선택</v>
+        <v>방어력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="str">
         <f>'[1]@target_rule'!$A19</f>
-        <v>HIGHEST_LIFE_VALUE</v>
+        <v>HIGHEST_ATTACK</v>
       </c>
       <c r="B18" s="4">
         <f>'[1]@target_rule'!$B19</f>
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="C18" s="4" t="str">
         <f>'[1]@target_rule'!$C19</f>
-        <v>남은 체력이 가장 많은 타겟 선택</v>
+        <v>공격력이 가장 높은 타겟 선택</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="str">
         <f>'[1]@target_rule'!$A20</f>
-        <v>HIGHEST_LIFE_RATE</v>
+        <v>HIGHEST_DEFENSE</v>
       </c>
       <c r="B19" s="4">
         <f>'[1]@target_rule'!$B20</f>
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="C19" s="4" t="str">
         <f>'[1]@target_rule'!$C20</f>
-        <v>남은 체력 비율이 가장 높은 타겟 선택</v>
+        <v>방어력이 가장 높은 타겟 선택</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="str">
         <f>'[1]@target_rule'!$A21</f>
-        <v>HIGHEST_ACCURACY</v>
+        <v>APPROACH</v>
       </c>
       <c r="B20" s="4">
         <f>'[1]@target_rule'!$B21</f>
-        <v>2006</v>
+        <v>9999</v>
       </c>
       <c r="C20" s="4" t="str">
         <f>'[1]@target_rule'!$C21</f>
-        <v>명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
+        <v>가장 가까운 상대 타겟 선택(화면상에서 적에게 접근하기 위한 용도)</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="str">
         <f>'[1]@target_rule'!$A22</f>
-        <v>HIGHEST_EVASION</v>
+        <v>LEADER_HIGH_PRIORITY</v>
       </c>
       <c r="B21" s="4">
         <f>'[1]@target_rule'!$B22</f>
-        <v>2007</v>
+        <v>1001</v>
       </c>
       <c r="C21" s="4" t="str">
         <f>'[1]@target_rule'!$C22</f>
-        <v>회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
+        <v>리더 선택</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="str">
         <f>'[1]@target_rule'!$A23</f>
-        <v>HIGHEST_LIFE_VALUE_HUMAN</v>
+        <v>HIGHEST_LIFE_VALUE</v>
       </c>
       <c r="B22" s="4">
         <f>'[1]@target_rule'!$B23</f>
-        <v>2008</v>
+        <v>2001</v>
       </c>
       <c r="C22" s="4" t="str">
         <f>'[1]@target_rule'!$C23</f>
-        <v>남은 체력이 가장 높은 인간 종족 선택</v>
+        <v>남은 체력이 가장 많은 타겟 선택</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="str">
         <f>'[1]@target_rule'!$A24</f>
-        <v>HIGHEST_LIFE_VALUE_ELF</v>
+        <v>HIGHEST_LIFE_RATE</v>
       </c>
       <c r="B23" s="4">
         <f>'[1]@target_rule'!$B24</f>
-        <v>2009</v>
+        <v>2002</v>
       </c>
       <c r="C23" s="4" t="str">
         <f>'[1]@target_rule'!$C24</f>
-        <v>남은 체력이 가장 높은 엘프 종족 선택</v>
+        <v>남은 체력 비율이 가장 높은 타겟 선택</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="str">
         <f>'[1]@target_rule'!$A25</f>
-        <v>HIGHEST_LIFE_VALUE_WEREBEAST</v>
+        <v>HIGHEST_ACCURACY</v>
       </c>
       <c r="B24" s="4">
         <f>'[1]@target_rule'!$B25</f>
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="C24" s="4" t="str">
         <f>'[1]@target_rule'!$C25</f>
-        <v>남은 체력이 가장 높은 수인 종족 선택</v>
+        <v>명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="str">
         <f>'[1]@target_rule'!$A26</f>
-        <v>HIGHEST_LIFE_VALUE_ANDROID</v>
+        <v>HIGHEST_EVASION</v>
       </c>
       <c r="B25" s="4">
         <f>'[1]@target_rule'!$B26</f>
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="C25" s="4" t="str">
         <f>'[1]@target_rule'!$C26</f>
-        <v>남은 체력이 가장 높은 안드로이드 선택</v>
+        <v>회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="str">
         <f>'[1]@target_rule'!$A27</f>
-        <v>HIGHEST_LIFE_VALUE_DEVIL</v>
+        <v>HIGHEST_LIFE_VALUE_HUMAN</v>
       </c>
       <c r="B26" s="4">
         <f>'[1]@target_rule'!$B27</f>
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="C26" s="4" t="str">
         <f>'[1]@target_rule'!$C27</f>
-        <v>남은 체력이 가장 높은 악마 선택</v>
+        <v>남은 체력이 가장 높은 인간 종족 선택</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="str">
         <f>'[1]@target_rule'!$A28</f>
-        <v>HIGHEST_LIFE_VALUE_ANGEL</v>
+        <v>HIGHEST_LIFE_VALUE_ELF</v>
       </c>
       <c r="B27" s="4">
         <f>'[1]@target_rule'!$B28</f>
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="C27" s="4" t="str">
         <f>'[1]@target_rule'!$C28</f>
-        <v>남은 체력이 가장 높은 천사 선택</v>
+        <v>남은 체력이 가장 높은 엘프 종족 선택</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="str">
         <f>'[1]@target_rule'!$A29</f>
-        <v>HIGHEST_LIFE_VALUE_WITHOUT_ME</v>
+        <v>HIGHEST_LIFE_VALUE_WEREBEAST</v>
       </c>
       <c r="B28" s="4">
         <f>'[1]@target_rule'!$B29</f>
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="C28" s="4" t="str">
         <f>'[1]@target_rule'!$C29</f>
-        <v>자신을 제외한 체력이 가장 높은 타겟 선택</v>
+        <v>남은 체력이 가장 높은 수인 종족 선택</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="str">
         <f>'[1]@target_rule'!$A30</f>
-        <v>HIGHEST_LIFE_RATE_WITHOUT_ME</v>
+        <v>HIGHEST_LIFE_VALUE_ANDROID</v>
       </c>
       <c r="B29" s="4">
         <f>'[1]@target_rule'!$B30</f>
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="C29" s="4" t="str">
         <f>'[1]@target_rule'!$C30</f>
-        <v>자신을 제외한 체력 비율이 가장 높은 타겟 선택</v>
+        <v>남은 체력이 가장 높은 안드로이드 선택</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="str">
         <f>'[1]@target_rule'!$A31</f>
-        <v>HIGHEST_ATTACK_WITHOUT_ME</v>
+        <v>HIGHEST_LIFE_VALUE_DEVIL</v>
       </c>
       <c r="B30" s="4">
         <f>'[1]@target_rule'!$B31</f>
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C30" s="4" t="str">
         <f>'[1]@target_rule'!$C31</f>
-        <v>자신을 제외한 공격력이 가장 높은 타겟 선택</v>
+        <v>남은 체력이 가장 높은 악마 선택</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="str">
         <f>'[1]@target_rule'!$A32</f>
-        <v>HIGHEST_DEFENSE_WITHOUT_ME</v>
+        <v>HIGHEST_LIFE_VALUE_ANGEL</v>
       </c>
       <c r="B31" s="4">
         <f>'[1]@target_rule'!$B32</f>
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="C31" s="4" t="str">
         <f>'[1]@target_rule'!$C32</f>
-        <v>자신을 제외한 방어력이 가장 높은 타겟 선택</v>
+        <v>남은 체력이 가장 높은 천사 선택</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="str">
         <f>'[1]@target_rule'!$A33</f>
-        <v>HIGHEST_RAPIDITY_WITHOUT_ME</v>
+        <v>HIGHEST_LIFE_VALUE_WITHOUT_ME</v>
       </c>
       <c r="B32" s="4">
         <f>'[1]@target_rule'!$B33</f>
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="C32" s="4" t="str">
         <f>'[1]@target_rule'!$C33</f>
-        <v>자신을 제외한 공속이 가장 높은 타겟 선택</v>
+        <v>자신을 제외한 체력이 가장 높은 타겟 선택</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="str">
         <f>'[1]@target_rule'!$A34</f>
-        <v>HIGHEST_ACCURACY_WITHOUT_ME</v>
+        <v>HIGHEST_LIFE_RATE_WITHOUT_ME</v>
       </c>
       <c r="B33" s="4">
         <f>'[1]@target_rule'!$B34</f>
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="C33" s="4" t="str">
         <f>'[1]@target_rule'!$C34</f>
-        <v>자신을 제외한 명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
+        <v>자신을 제외한 체력 비율이 가장 높은 타겟 선택</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="str">
         <f>'[1]@target_rule'!$A35</f>
-        <v>HIGHEST_EVASION_WITHOUT_ME</v>
+        <v>HIGHEST_ATTACK_WITHOUT_ME</v>
       </c>
       <c r="B34" s="4">
         <f>'[1]@target_rule'!$B35</f>
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C34" s="4" t="str">
         <f>'[1]@target_rule'!$C35</f>
-        <v>자신을 제외한 회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
+        <v>자신을 제외한 공격력이 가장 높은 타겟 선택</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="str">
         <f>'[1]@target_rule'!$A36</f>
-        <v>LOWEST_LIFE_RATE</v>
+        <v>HIGHEST_DEFENSE_WITHOUT_ME</v>
       </c>
       <c r="B35" s="4">
         <f>'[1]@target_rule'!$B36</f>
-        <v>3002</v>
+        <v>2017</v>
       </c>
       <c r="C35" s="4" t="str">
         <f>'[1]@target_rule'!$C36</f>
-        <v>남은 체력 비율이 가장 낮은 타겟 선택</v>
+        <v>자신을 제외한 방어력이 가장 높은 타겟 선택</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="str">
         <f>'[1]@target_rule'!$A37</f>
-        <v>LOWEST_ACCUM_RAPIDITY_POINT</v>
+        <v>HIGHEST_RAPIDITY_WITHOUT_ME</v>
       </c>
       <c r="B36" s="4">
         <f>'[1]@target_rule'!$B37</f>
-        <v>3005</v>
+        <v>2018</v>
       </c>
       <c r="C36" s="4" t="str">
         <f>'[1]@target_rule'!$C37</f>
-        <v>속도게이지가 가장 낮은 타겟 선택</v>
+        <v>자신을 제외한 공속이 가장 높은 타겟 선택</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="str">
         <f>'[1]@target_rule'!$A38</f>
-        <v>LOWEST_ACCURACY</v>
+        <v>HIGHEST_ACCURACY_WITHOUT_ME</v>
       </c>
       <c r="B37" s="4">
         <f>'[1]@target_rule'!$B38</f>
-        <v>3006</v>
+        <v>2019</v>
       </c>
       <c r="C37" s="4" t="str">
         <f>'[1]@target_rule'!$C38</f>
-        <v>명중률이 가장 낮은 타겟 선택</v>
+        <v>자신을 제외한 명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="str">
         <f>'[1]@target_rule'!$A39</f>
-        <v>LOWEST_EVASION</v>
+        <v>HIGHEST_EVASION_WITHOUT_ME</v>
       </c>
       <c r="B38" s="4">
         <f>'[1]@target_rule'!$B39</f>
-        <v>3007</v>
+        <v>2020</v>
       </c>
       <c r="C38" s="4" t="str">
         <f>'[1]@target_rule'!$C39</f>
-        <v>회피율이 가장 낮은 타겟 선택</v>
+        <v>자신을 제외한 회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="str">
         <f>'[1]@target_rule'!$A40</f>
-        <v>LOWEST_LIFE_VALUE_HUMAN</v>
+        <v>LOWEST_LIFE_RATE</v>
       </c>
       <c r="B39" s="4">
         <f>'[1]@target_rule'!$B40</f>
-        <v>3008</v>
+        <v>3002</v>
       </c>
       <c r="C39" s="4" t="str">
         <f>'[1]@target_rule'!$C40</f>
-        <v>남은 체력이 가장 낮은 인간 종족 선택</v>
+        <v>남은 체력 비율이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="str">
         <f>'[1]@target_rule'!$A41</f>
-        <v>LOWEST_LIFE_VALUE_ELF</v>
+        <v>LOWEST_ACCUM_RAPIDITY_POINT</v>
       </c>
       <c r="B40" s="4">
         <f>'[1]@target_rule'!$B41</f>
-        <v>3009</v>
+        <v>3005</v>
       </c>
       <c r="C40" s="4" t="str">
         <f>'[1]@target_rule'!$C41</f>
-        <v>남은 체력이 가장 낮은 엘프 종족 선택</v>
+        <v>속도게이지가 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="str">
         <f>'[1]@target_rule'!$A42</f>
-        <v>LOWEST_LIFE_VALUE_WEREBEAST</v>
+        <v>LOWEST_ACCURACY</v>
       </c>
       <c r="B41" s="4">
         <f>'[1]@target_rule'!$B42</f>
-        <v>3010</v>
+        <v>3006</v>
       </c>
       <c r="C41" s="4" t="str">
         <f>'[1]@target_rule'!$C42</f>
-        <v>남은 체력이 가장 낮은 수인 종족 선택</v>
+        <v>명중률이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="str">
         <f>'[1]@target_rule'!$A43</f>
-        <v>LOWEST_LIFE_VALUE_ANDROID</v>
+        <v>LOWEST_EVASION</v>
       </c>
       <c r="B42" s="4">
         <f>'[1]@target_rule'!$B43</f>
-        <v>3011</v>
+        <v>3007</v>
       </c>
       <c r="C42" s="4" t="str">
         <f>'[1]@target_rule'!$C43</f>
-        <v>남은 체력이 가장 낮은 안드로이드 선택</v>
+        <v>회피율이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="str">
         <f>'[1]@target_rule'!$A44</f>
-        <v>LOWEST_LIFE_VALUE_DEVIL</v>
+        <v>LOWEST_LIFE_VALUE_HUMAN</v>
       </c>
       <c r="B43" s="4">
         <f>'[1]@target_rule'!$B44</f>
-        <v>3012</v>
+        <v>3008</v>
       </c>
       <c r="C43" s="4" t="str">
         <f>'[1]@target_rule'!$C44</f>
-        <v>남은 체력이 가장 낮은 악마 종족 선택</v>
+        <v>남은 체력이 가장 낮은 인간 종족 선택</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="str">
         <f>'[1]@target_rule'!$A45</f>
-        <v>LOWEST_LIFE_VALUE_ANGEL</v>
+        <v>LOWEST_LIFE_VALUE_ELF</v>
       </c>
       <c r="B44" s="4">
         <f>'[1]@target_rule'!$B45</f>
-        <v>3013</v>
+        <v>3009</v>
       </c>
       <c r="C44" s="4" t="str">
         <f>'[1]@target_rule'!$C45</f>
-        <v>남은 체력이 가장 낮은 천사 종족 선택</v>
+        <v>남은 체력이 가장 낮은 엘프 종족 선택</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="str">
         <f>'[1]@target_rule'!$A46</f>
-        <v>LOWEST_LIFE_VALUE_WITHOUT_ME</v>
+        <v>LOWEST_LIFE_VALUE_WEREBEAST</v>
       </c>
       <c r="B45" s="4">
         <f>'[1]@target_rule'!$B46</f>
-        <v>3014</v>
+        <v>3010</v>
       </c>
       <c r="C45" s="4" t="str">
         <f>'[1]@target_rule'!$C46</f>
-        <v>자신을 제외한 남은 체력이 가장 낮은 타겟 선택</v>
+        <v>남은 체력이 가장 낮은 수인 종족 선택</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="str">
         <f>'[1]@target_rule'!$A47</f>
-        <v>LOWEST_LIFE_RATE_WITHOUT_ME</v>
+        <v>LOWEST_LIFE_VALUE_ANDROID</v>
       </c>
       <c r="B46" s="4">
         <f>'[1]@target_rule'!$B47</f>
-        <v>3015</v>
+        <v>3011</v>
       </c>
       <c r="C46" s="4" t="str">
         <f>'[1]@target_rule'!$C47</f>
-        <v>자신을 제외한 남은 체력 비율이 가장 낮은 타겟 선택</v>
+        <v>남은 체력이 가장 낮은 안드로이드 선택</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="str">
         <f>'[1]@target_rule'!$A48</f>
-        <v>LOWEST_ATTACK_WITHOUT_ME</v>
+        <v>LOWEST_LIFE_VALUE_DEVIL</v>
       </c>
       <c r="B47" s="4">
         <f>'[1]@target_rule'!$B48</f>
-        <v>3016</v>
+        <v>3012</v>
       </c>
       <c r="C47" s="4" t="str">
         <f>'[1]@target_rule'!$C48</f>
-        <v>자신을 제외한 공격력이 가장 낮은 타겟 선택</v>
+        <v>남은 체력이 가장 낮은 악마 종족 선택</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="str">
         <f>'[1]@target_rule'!$A49</f>
-        <v>LOWEST_DEFENSE_WITHOUT_ME</v>
+        <v>LOWEST_LIFE_VALUE_ANGEL</v>
       </c>
       <c r="B48" s="4">
         <f>'[1]@target_rule'!$B49</f>
-        <v>3017</v>
+        <v>3013</v>
       </c>
       <c r="C48" s="4" t="str">
         <f>'[1]@target_rule'!$C49</f>
-        <v>자신을 제외한 방어력이 가장 낮은 타겟 선택</v>
+        <v>남은 체력이 가장 낮은 천사 종족 선택</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="str">
         <f>'[1]@target_rule'!$A50</f>
-        <v>LOWEST_RAPIDITY_WITHOUT_ME</v>
+        <v>LOWEST_LIFE_VALUE_WITHOUT_ME</v>
       </c>
       <c r="B49" s="4">
         <f>'[1]@target_rule'!$B50</f>
-        <v>3018</v>
+        <v>3014</v>
       </c>
       <c r="C49" s="4" t="str">
         <f>'[1]@target_rule'!$C50</f>
-        <v>자신을 제외한 공속이 가장 낮은 타겟 선택</v>
+        <v>자신을 제외한 남은 체력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="str">
         <f>'[1]@target_rule'!$A51</f>
-        <v>LOWEST_ACCURACY_WITHOUT_ME</v>
+        <v>LOWEST_LIFE_RATE_WITHOUT_ME</v>
       </c>
       <c r="B50" s="4">
         <f>'[1]@target_rule'!$B51</f>
-        <v>3019</v>
+        <v>3015</v>
       </c>
       <c r="C50" s="4" t="str">
         <f>'[1]@target_rule'!$C51</f>
-        <v>자신을 제외한 명중률이 가장 낮은 타겟 선택</v>
+        <v>자신을 제외한 남은 체력 비율이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="str">
         <f>'[1]@target_rule'!$A52</f>
-        <v>LOWEST_EVASION_WITHOUT_ME</v>
+        <v>LOWEST_ATTACK_WITHOUT_ME</v>
       </c>
       <c r="B51" s="4">
         <f>'[1]@target_rule'!$B52</f>
-        <v>3020</v>
+        <v>3016</v>
       </c>
       <c r="C51" s="4" t="str">
         <f>'[1]@target_rule'!$C52</f>
-        <v>자신을 제외한 회피율이 가장 낮은 타겟 선택</v>
+        <v>자신을 제외한 공격력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="str">
         <f>'[1]@target_rule'!$A53</f>
-        <v>LOWEST_LIFE_VALUE_WITH_ME</v>
+        <v>LOWEST_DEFENSE_WITHOUT_ME</v>
       </c>
       <c r="B52" s="4">
         <f>'[1]@target_rule'!$B53</f>
-        <v>3021</v>
+        <v>3017</v>
       </c>
       <c r="C52" s="4" t="str">
         <f>'[1]@target_rule'!$C53</f>
-        <v>자신을 포함한 남은 체력이 가장 낮은 타겟 선택</v>
+        <v>자신을 제외한 방어력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="str">
         <f>'[1]@target_rule'!$A54</f>
-        <v>LOWEST_LIFE_RATE_WITH_ME</v>
+        <v>LOWEST_RAPIDITY_WITHOUT_ME</v>
       </c>
       <c r="B53" s="4">
         <f>'[1]@target_rule'!$B54</f>
-        <v>3022</v>
+        <v>3018</v>
       </c>
       <c r="C53" s="4" t="str">
         <f>'[1]@target_rule'!$C54</f>
-        <v>자신을 포함한 남은 체력 비율이 가장 낮은 타겟 선택</v>
+        <v>자신을 제외한 공속이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="str">
         <f>'[1]@target_rule'!$A55</f>
-        <v>LOWEST_ATTACK_WITH_ME</v>
+        <v>LOWEST_ACCURACY_WITHOUT_ME</v>
       </c>
       <c r="B54" s="4">
         <f>'[1]@target_rule'!$B55</f>
-        <v>3023</v>
+        <v>3019</v>
       </c>
       <c r="C54" s="4" t="str">
         <f>'[1]@target_rule'!$C55</f>
-        <v>자신을 포함한 공격력이 가장 낮은 타겟 선택</v>
+        <v>자신을 제외한 명중률이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="str">
         <f>'[1]@target_rule'!$A56</f>
-        <v>LOWEST_DEFENSE_WITH_ME</v>
+        <v>LOWEST_EVASION_WITHOUT_ME</v>
       </c>
       <c r="B55" s="4">
         <f>'[1]@target_rule'!$B56</f>
-        <v>3024</v>
+        <v>3020</v>
       </c>
       <c r="C55" s="4" t="str">
         <f>'[1]@target_rule'!$C56</f>
-        <v>자신을 포함한 방어력이 가장 낮은 타겟 선택</v>
+        <v>자신을 제외한 회피율이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="str">
         <f>'[1]@target_rule'!$A57</f>
-        <v>LOWEST_RAPIDITY_WITH_ME</v>
+        <v>LOWEST_LIFE_VALUE_WITH_ME</v>
       </c>
       <c r="B56" s="4">
         <f>'[1]@target_rule'!$B57</f>
-        <v>3025</v>
+        <v>3021</v>
       </c>
       <c r="C56" s="4" t="str">
         <f>'[1]@target_rule'!$C57</f>
-        <v>자신을 포함한 공속이 가장 낮은 타겟 선택</v>
+        <v>자신을 포함한 남은 체력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="str">
         <f>'[1]@target_rule'!$A58</f>
-        <v>LOWEST_ACCURACY_WITH_ME</v>
+        <v>LOWEST_LIFE_RATE_WITH_ME</v>
       </c>
       <c r="B57" s="4">
         <f>'[1]@target_rule'!$B58</f>
-        <v>3026</v>
+        <v>3022</v>
       </c>
       <c r="C57" s="4" t="str">
         <f>'[1]@target_rule'!$C58</f>
-        <v>자신을 포함한 명중률이 가장 낮은 타겟 선택</v>
+        <v>자신을 포함한 남은 체력 비율이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="str">
         <f>'[1]@target_rule'!$A59</f>
-        <v>LOWEST_EVASION_WITH_ME</v>
+        <v>LOWEST_ATTACK_WITH_ME</v>
       </c>
       <c r="B58" s="4">
         <f>'[1]@target_rule'!$B59</f>
-        <v>3027</v>
+        <v>3023</v>
       </c>
       <c r="C58" s="4" t="str">
         <f>'[1]@target_rule'!$C59</f>
-        <v>자신을 포함한 회피율이 가장 낮은 타겟 선택</v>
+        <v>자신을 포함한 공격력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="str">
         <f>'[1]@target_rule'!$A60</f>
-        <v>WEAK_ELEMENT</v>
+        <v>LOWEST_DEFENSE_WITH_ME</v>
       </c>
       <c r="B59" s="4">
         <f>'[1]@target_rule'!$B60</f>
-        <v>4001</v>
+        <v>3024</v>
       </c>
       <c r="C59" s="4" t="str">
         <f>'[1]@target_rule'!$C60</f>
-        <v>자신보다 약한 속성 타겟 선택 (상성 시스템이 있을 경우)</v>
+        <v>자신을 포함한 방어력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="str">
         <f>'[1]@target_rule'!$A61</f>
-        <v>STRONG_ELEMENT</v>
+        <v>LOWEST_RAPIDITY_WITH_ME</v>
       </c>
       <c r="B60" s="4">
         <f>'[1]@target_rule'!$B61</f>
-        <v>4002</v>
+        <v>3025</v>
       </c>
       <c r="C60" s="4" t="str">
         <f>'[1]@target_rule'!$C61</f>
-        <v>자신보다 강한 속성 타겟 선택 (상성 시스템이 있을 경우)</v>
+        <v>자신을 포함한 공속이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="str">
         <f>'[1]@target_rule'!$A62</f>
-        <v>GAIN_BUFF_DURATION</v>
+        <v>LOWEST_ACCURACY_WITH_ME</v>
       </c>
       <c r="B61" s="4">
         <f>'[1]@target_rule'!$B62</f>
-        <v>5001</v>
+        <v>3026</v>
       </c>
       <c r="C61" s="4" t="str">
         <f>'[1]@target_rule'!$C62</f>
-        <v>버프 효과가 있는 타겟 선택</v>
+        <v>자신을 포함한 명중률이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="str">
         <f>'[1]@target_rule'!$A63</f>
-        <v>GAIN_BUFF_DURATION_ATTACK_INC</v>
+        <v>LOWEST_EVASION_WITH_ME</v>
       </c>
       <c r="B62" s="4">
         <f>'[1]@target_rule'!$B63</f>
-        <v>5002</v>
+        <v>3027</v>
       </c>
       <c r="C62" s="4" t="str">
         <f>'[1]@target_rule'!$C63</f>
-        <v>버프 효과 중 공격력 증가 효과가 있는 타겟 선택</v>
+        <v>자신을 포함한 회피율이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="str">
         <f>'[1]@target_rule'!$A64</f>
-        <v>GAIN_BUFF_DURATION_DEFENSE_INC</v>
+        <v>WEAK_ELEMENT</v>
       </c>
       <c r="B63" s="4">
         <f>'[1]@target_rule'!$B64</f>
-        <v>5003</v>
+        <v>4001</v>
       </c>
       <c r="C63" s="4" t="str">
         <f>'[1]@target_rule'!$C64</f>
-        <v>버프 효과 중 방어력 증가 효과가 있는 타겟 선택</v>
+        <v>자신보다 약한 속성 타겟 선택 (상성 시스템이 있을 경우)</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="str">
         <f>'[1]@target_rule'!$A65</f>
-        <v>GAIN_BUFF_DURATION_RAPIDITY_INC</v>
+        <v>STRONG_ELEMENT</v>
       </c>
       <c r="B64" s="4">
         <f>'[1]@target_rule'!$B65</f>
-        <v>5004</v>
+        <v>4002</v>
       </c>
       <c r="C64" s="4" t="str">
         <f>'[1]@target_rule'!$C65</f>
-        <v>버프 효과 중 공속 증가 효과가 있는 타겟 선택</v>
+        <v>자신보다 강한 속성 타겟 선택 (상성 시스템이 있을 경우)</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="str">
         <f>'[1]@target_rule'!$A66</f>
-        <v>GAIN_BUFF_DURATION_EVASION_INC</v>
+        <v>GAIN_BUFF_DURATION</v>
       </c>
       <c r="B65" s="4">
         <f>'[1]@target_rule'!$B66</f>
-        <v>5005</v>
+        <v>5001</v>
       </c>
       <c r="C65" s="4" t="str">
         <f>'[1]@target_rule'!$C66</f>
-        <v>버프 효과 중 회피율 증가 효과가 있는 타겟 선택</v>
+        <v>버프 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="str">
         <f>'[1]@target_rule'!$A67</f>
-        <v>GAIN_BUFF_DURATION_CRITICAL_RATE_INC</v>
+        <v>GAIN_BUFF_DURATION_ATTACK_INC</v>
       </c>
       <c r="B66" s="4">
         <f>'[1]@target_rule'!$B67</f>
-        <v>5006</v>
+        <v>5002</v>
       </c>
       <c r="C66" s="4" t="str">
         <f>'[1]@target_rule'!$C67</f>
-        <v>버프 효과 중 치명타 확률 증가 효과가 있는 타겟 선택</v>
+        <v>버프 효과 중 공격력 증가 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="str">
         <f>'[1]@target_rule'!$A68</f>
-        <v>GAIN_BUFF_DURATION_CRITICAL_DAMAGE_INC</v>
+        <v>GAIN_BUFF_DURATION_DEFENSE_INC</v>
       </c>
       <c r="B67" s="4">
         <f>'[1]@target_rule'!$B68</f>
-        <v>5007</v>
+        <v>5003</v>
       </c>
       <c r="C67" s="4" t="str">
         <f>'[1]@target_rule'!$C68</f>
-        <v>버프 효과 중 치명타 피해량 증가 효과가 있는 타겟 선택</v>
+        <v>버프 효과 중 방어력 증가 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="str">
         <f>'[1]@target_rule'!$A69</f>
-        <v>GAIN_DEBUFF_DURATION</v>
+        <v>GAIN_BUFF_DURATION_RAPIDITY_INC</v>
       </c>
       <c r="B68" s="4">
         <f>'[1]@target_rule'!$B69</f>
-        <v>6001</v>
+        <v>5004</v>
       </c>
       <c r="C68" s="4" t="str">
         <f>'[1]@target_rule'!$C69</f>
-        <v>디버프 효과가 있는 타겟 선택</v>
+        <v>버프 효과 중 공속 증가 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="str">
         <f>'[1]@target_rule'!$A70</f>
-        <v>GAIN_DEBUFF_DURATION_ATTACK_DEC</v>
+        <v>GAIN_BUFF_DURATION_EVASION_INC</v>
       </c>
       <c r="B69" s="4">
         <f>'[1]@target_rule'!$B70</f>
-        <v>6002</v>
+        <v>5005</v>
       </c>
       <c r="C69" s="4" t="str">
         <f>'[1]@target_rule'!$C70</f>
-        <v>디버프 효과 중 공격력 감소 효과가 있는 타겟 선택</v>
+        <v>버프 효과 중 회피율 증가 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="str">
         <f>'[1]@target_rule'!$A71</f>
-        <v>GAIN_DEBUFF_DURATION_DEFENSE_DEC</v>
+        <v>GAIN_BUFF_DURATION_CRITICAL_RATE_INC</v>
       </c>
       <c r="B70" s="4">
         <f>'[1]@target_rule'!$B71</f>
-        <v>6003</v>
+        <v>5006</v>
       </c>
       <c r="C70" s="4" t="str">
         <f>'[1]@target_rule'!$C71</f>
-        <v>디버프 효과 중 방어력 감소 효과가 있는 타겟 선택</v>
+        <v>버프 효과 중 치명타 확률 증가 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="str">
         <f>'[1]@target_rule'!$A72</f>
-        <v>GAIN_DEBUFF_DURATION_BURN</v>
+        <v>GAIN_BUFF_DURATION_CRITICAL_DAMAGE_INC</v>
       </c>
       <c r="B71" s="4">
         <f>'[1]@target_rule'!$B72</f>
-        <v>6004</v>
+        <v>5007</v>
       </c>
       <c r="C71" s="4" t="str">
         <f>'[1]@target_rule'!$C72</f>
-        <v>디버프 효과 중 화상 효과가 있는 타겟 선택</v>
+        <v>버프 효과 중 치명타 피해량 증가 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="str">
         <f>'[1]@target_rule'!$A73</f>
-        <v>GAIN_DEBUFF_DURATION_BLEEDING</v>
+        <v>GAIN_DEBUFF_DURATION</v>
       </c>
       <c r="B72" s="4">
         <f>'[1]@target_rule'!$B73</f>
-        <v>6005</v>
+        <v>6001</v>
       </c>
       <c r="C72" s="4" t="str">
         <f>'[1]@target_rule'!$C73</f>
-        <v>디버프 효과 중 출혈 효과가 있는 타겟 선택</v>
+        <v>디버프 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="str">
         <f>'[1]@target_rule'!$A74</f>
-        <v>GAIN_DEBUFF_DURATION_POISON</v>
+        <v>GAIN_DEBUFF_DURATION_ATTACK_DEC</v>
       </c>
       <c r="B73" s="4">
         <f>'[1]@target_rule'!$B74</f>
-        <v>6006</v>
+        <v>6002</v>
       </c>
       <c r="C73" s="4" t="str">
         <f>'[1]@target_rule'!$C74</f>
-        <v>디버프 효과 중 중독 효과가 있는 타겟 선택</v>
+        <v>디버프 효과 중 공격력 감소 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="str">
         <f>'[1]@target_rule'!$A75</f>
-        <v>GAIN_DEBUFF_DURATION_RAPIDITY_DEC</v>
+        <v>GAIN_DEBUFF_DURATION_DEFENSE_DEC</v>
       </c>
       <c r="B74" s="4">
         <f>'[1]@target_rule'!$B75</f>
-        <v>6007</v>
+        <v>6003</v>
       </c>
       <c r="C74" s="4" t="str">
         <f>'[1]@target_rule'!$C75</f>
-        <v>디버프 효과 중 공속 감소 효과가 있는 타겟 선택</v>
+        <v>디버프 효과 중 방어력 감소 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="str">
         <f>'[1]@target_rule'!$A76</f>
-        <v>GAIN_DEBUFF_DURATION_SLEEP</v>
+        <v>GAIN_DEBUFF_DURATION_BURN</v>
       </c>
       <c r="B75" s="4">
         <f>'[1]@target_rule'!$B76</f>
-        <v>6008</v>
+        <v>6004</v>
       </c>
       <c r="C75" s="4" t="str">
         <f>'[1]@target_rule'!$C76</f>
-        <v>디버프 효과 중 수면 효과가 있는 타겟 선택</v>
+        <v>디버프 효과 중 화상 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="str">
         <f>'[1]@target_rule'!$A77</f>
-        <v>GAIN_DEBUFF_DURATION_FATAL_WOUNDS</v>
+        <v>GAIN_DEBUFF_DURATION_BLEEDING</v>
       </c>
       <c r="B76" s="4">
         <f>'[1]@target_rule'!$B77</f>
-        <v>6009</v>
+        <v>6005</v>
       </c>
       <c r="C76" s="4" t="str">
         <f>'[1]@target_rule'!$C77</f>
-        <v>디버프 효과 중 치명상 효과가 있는 타겟 선택</v>
+        <v>디버프 효과 중 출혈 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="str">
         <f>'[1]@target_rule'!$A78</f>
-        <v>GAIN_DEBUFF_DURATION_ACCURACY_DEC</v>
+        <v>GAIN_DEBUFF_DURATION_POISON</v>
       </c>
       <c r="B77" s="4">
         <f>'[1]@target_rule'!$B78</f>
-        <v>6010</v>
+        <v>6006</v>
       </c>
       <c r="C77" s="4" t="str">
         <f>'[1]@target_rule'!$C78</f>
+        <v>디버프 효과 중 중독 효과가 있는 타겟 선택</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="str">
+        <f>'[1]@target_rule'!$A79</f>
+        <v>GAIN_DEBUFF_DURATION_RAPIDITY_DEC</v>
+      </c>
+      <c r="B78" s="4">
+        <f>'[1]@target_rule'!$B79</f>
+        <v>6007</v>
+      </c>
+      <c r="C78" s="4" t="str">
+        <f>'[1]@target_rule'!$C79</f>
+        <v>디버프 효과 중 공속 감소 효과가 있는 타겟 선택</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="str">
+        <f>'[1]@target_rule'!$A80</f>
+        <v>GAIN_DEBUFF_DURATION_SLEEP</v>
+      </c>
+      <c r="B79" s="4">
+        <f>'[1]@target_rule'!$B80</f>
+        <v>6008</v>
+      </c>
+      <c r="C79" s="4" t="str">
+        <f>'[1]@target_rule'!$C80</f>
+        <v>디버프 효과 중 수면 효과가 있는 타겟 선택</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="str">
+        <f>'[1]@target_rule'!$A81</f>
+        <v>GAIN_DEBUFF_DURATION_FATAL_WOUNDS</v>
+      </c>
+      <c r="B80" s="4">
+        <f>'[1]@target_rule'!$B81</f>
+        <v>6009</v>
+      </c>
+      <c r="C80" s="4" t="str">
+        <f>'[1]@target_rule'!$C81</f>
+        <v>디버프 효과 중 치명상 효과가 있는 타겟 선택</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="str">
+        <f>'[1]@target_rule'!$A82</f>
+        <v>GAIN_DEBUFF_DURATION_ACCURACY_DEC</v>
+      </c>
+      <c r="B81" s="4">
+        <f>'[1]@target_rule'!$B82</f>
+        <v>6010</v>
+      </c>
+      <c r="C81" s="4" t="str">
+        <f>'[1]@target_rule'!$C82</f>
         <v>디버프 효과 중 명중률 감소 효과가 있는 타겟 선택</v>
       </c>
     </row>
@@ -6508,7 +6678,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6525,7 +6695,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -6533,16 +6703,16 @@
         <v>23</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>26</v>
@@ -6551,7 +6721,7 @@
         <v>25</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -6568,7 +6738,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>4</v>
@@ -6585,16 +6755,16 @@
         <v>21</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="F4" s="22" t="s">
         <v>27</v>
@@ -6603,7 +6773,7 @@
         <v>24</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -6612,7 +6782,7 @@
       </c>
       <c r="B5" s="39" t="str">
         <f>VLOOKUP(A5,pc_skill_data!$B:$C,2,)</f>
-        <v>탱/일반/근접공격/데미지(스킬 대미지 100%)</v>
+        <v>탱/일반/근접공격/데미지(공격력 100%)</v>
       </c>
       <c r="C5" s="39" t="s">
         <v>19</v>
@@ -6624,11 +6794,11 @@
         <v>1</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>29</v>
+        <v>157</v>
       </c>
       <c r="G5" s="39"/>
       <c r="H5" s="41" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -6637,7 +6807,7 @@
       </c>
       <c r="B6" s="20" t="str">
         <f>VLOOKUP(A6,pc_skill_data!$B:$C,2,)</f>
-        <v>탱/스킬1/근접공격/데미지(스킬 대미지 110%)</v>
+        <v>탱/스킬1/자신의 체력 회복(최대 체력 10%)</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>22</v>
@@ -6649,11 +6819,11 @@
         <v>2</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6662,7 +6832,7 @@
       </c>
       <c r="B7" s="43" t="str">
         <f>VLOOKUP(A7,pc_skill_data!$B:$C,2,)</f>
-        <v>탱/스킬2/나/힐(10%)</v>
+        <v>탱/스킬2/근접공격 (공격력 120%)</v>
       </c>
       <c r="C7" s="43" t="s">
         <v>28</v>
@@ -6674,11 +6844,11 @@
         <v>3</v>
       </c>
       <c r="F7" s="43" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="G7" s="43"/>
       <c r="H7" s="45" t="s">
-        <v>98</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -6687,10 +6857,10 @@
       </c>
       <c r="B8" s="39" t="str">
         <f>VLOOKUP(A8,pc_skill_data!$B:$C,2,)</f>
-        <v>근딜/일반 (스킬 대미지 100%)</v>
+        <v>근딜/일반 (공격력 100%)</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="40">
         <v>2</v>
@@ -6699,11 +6869,11 @@
         <v>1</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="G8" s="39"/>
       <c r="H8" s="41" t="s">
-        <v>97</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -6712,10 +6882,10 @@
       </c>
       <c r="B9" s="20" t="str">
         <f>VLOOKUP(A9,pc_skill_data!$B:$C,2,)</f>
-        <v>근딜/근접공격/공격(스킬 대미지 120%)</v>
+        <v>근딜/나/공격력 증가 버프 (20%)</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9" s="21">
         <v>2</v>
@@ -6724,11 +6894,11 @@
         <v>2</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="42" t="s">
-        <v>98</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6737,10 +6907,10 @@
       </c>
       <c r="B10" s="43" t="str">
         <f>VLOOKUP(A10,pc_skill_data!$B:$C,2,)</f>
-        <v>근딜/근접공격/대미지</v>
+        <v>근딜/근접공격/대미지(공격력 130%)</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D10" s="44">
         <v>2</v>
@@ -6749,11 +6919,11 @@
         <v>3</v>
       </c>
       <c r="F10" s="43" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="G10" s="43"/>
       <c r="H10" s="45" t="s">
-        <v>97</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -6765,7 +6935,7 @@
         <v>원딜/일반</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D11" s="40">
         <v>2</v>
@@ -6774,11 +6944,11 @@
         <v>1</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="G11" s="39"/>
       <c r="H11" s="41" t="s">
-        <v>97</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -6790,7 +6960,7 @@
         <v>원딜/스킬1/대미지 (스킬 대미지 120%)</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D12" s="21">
         <v>2</v>
@@ -6799,11 +6969,11 @@
         <v>2</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="42" t="s">
-        <v>97</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6815,7 +6985,7 @@
         <v>원딜/스킬2/범위공격 (스킬 대미지 80%)</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D13" s="44">
         <v>2</v>
@@ -6824,11 +6994,11 @@
         <v>3</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="G13" s="43"/>
       <c r="H13" s="45" t="s">
-        <v>97</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -6840,7 +7010,7 @@
         <v>원서폿/일반</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="D14" s="40">
         <v>2</v>
@@ -6849,11 +7019,11 @@
         <v>1</v>
       </c>
       <c r="F14" s="39" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="G14" s="39"/>
       <c r="H14" s="41" t="s">
-        <v>97</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -6862,10 +7032,10 @@
       </c>
       <c r="B15" s="20" t="str">
         <f>VLOOKUP(A15,pc_skill_data!$B:$C,2,)</f>
-        <v>원서폿/스킬1/전체방어증가 (10%)</v>
+        <v>원서폿/스킬1/전방 방어력 감소(20%)</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D15" s="21">
         <v>2</v>
@@ -6874,11 +7044,11 @@
         <v>2</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="42" t="s">
-        <v>98</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6887,10 +7057,10 @@
       </c>
       <c r="B16" s="50" t="str">
         <f>VLOOKUP(A16,pc_skill_data!$B:$C,2,)</f>
-        <v>원서폿/스킬2/대미지 (스킬 대미지 120%)</v>
+        <v>원서폿/스킬2/대미지 (공격력 120%)</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D16" s="51">
         <v>2</v>
@@ -6899,11 +7069,11 @@
         <v>3</v>
       </c>
       <c r="F16" s="50" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="G16" s="50"/>
       <c r="H16" s="52" t="s">
-        <v>97</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -6915,7 +7085,7 @@
         <v>원힐/일반</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D17" s="40">
         <v>2</v>
@@ -6924,11 +7094,11 @@
         <v>1</v>
       </c>
       <c r="F17" s="39" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="G17" s="39"/>
       <c r="H17" s="41" t="s">
-        <v>97</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -6937,10 +7107,10 @@
       </c>
       <c r="B18" s="20" t="str">
         <f>VLOOKUP(A18,pc_skill_data!$B:$C,2,)</f>
-        <v>원힐/스킬1/전체 공격 증가 (10%)</v>
+        <v>원힐/스킬1/체력이 가장 낮은 아군 회복(최대 체력 30%)</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D18" s="7">
         <v>2</v>
@@ -6949,11 +7119,11 @@
         <v>2</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="53" t="s">
-        <v>98</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6965,7 +7135,7 @@
         <v>원힐/스킬2/대미지 (스킬 대미지 120%)</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D19" s="29">
         <v>2.5</v>
@@ -6974,11 +7144,11 @@
         <v>3</v>
       </c>
       <c r="F19" s="43" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="G19" s="37"/>
       <c r="H19" s="54" t="s">
-        <v>97</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6990,7 +7160,7 @@
         <v>원딜/일반</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D20" s="40">
         <v>2</v>
@@ -6999,11 +7169,11 @@
         <v>1</v>
       </c>
       <c r="F20" s="39" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="G20" s="39"/>
       <c r="H20" s="41" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -7015,7 +7185,7 @@
         <v>원딜/대미지/공격력 감소(15%)</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D21" s="7">
         <v>2</v>
@@ -7024,11 +7194,11 @@
         <v>2</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="41" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -7040,7 +7210,7 @@
         <v>원딜/스킬2/대미지 (스킬 대미지 120%)</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D22" s="29">
         <v>2.5</v>
@@ -7049,11 +7219,11 @@
         <v>3</v>
       </c>
       <c r="F22" s="43" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="G22" s="37"/>
       <c r="H22" s="54" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -7076,13 +7246,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00F7AA3-FB12-454D-93A6-31450B9003EC}">
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="R12" sqref="R11:R12"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7094,22 +7264,24 @@
     <col min="5" max="5" width="18.875" customWidth="1"/>
     <col min="6" max="6" width="59" style="9" customWidth="1"/>
     <col min="7" max="7" width="9.75" customWidth="1"/>
-    <col min="8" max="8" width="9.125" customWidth="1"/>
-    <col min="9" max="9" width="17.875" customWidth="1"/>
-    <col min="10" max="10" width="28.125" customWidth="1"/>
-    <col min="11" max="11" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.375" customWidth="1"/>
-    <col min="16" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="19" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.875" customWidth="1"/>
-    <col min="20" max="20" width="69.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.125" customWidth="1"/>
+    <col min="10" max="10" width="17.875" customWidth="1"/>
+    <col min="11" max="11" width="28.125" customWidth="1"/>
+    <col min="12" max="12" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.375" customWidth="1"/>
+    <col min="14" max="14" width="22.375" customWidth="1"/>
+    <col min="15" max="16" width="16.375" customWidth="1"/>
+    <col min="17" max="17" width="18" customWidth="1"/>
+    <col min="18" max="18" width="19" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.875" customWidth="1"/>
+    <col min="21" max="21" width="69.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -7127,8 +7299,9 @@
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
-    </row>
-    <row r="2" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S1" s="6"/>
+    </row>
+    <row r="2" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -7139,7 +7312,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
@@ -7154,46 +7327,49 @@
         <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>92</v>
+        <v>179</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>166</v>
+        <v>99</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
@@ -7204,7 +7380,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>13</v>
@@ -7219,46 +7395,49 @@
         <v>0</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="J3" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="K3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="L3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="12" t="s">
-        <v>167</v>
-      </c>
       <c r="M3" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="N3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="12" t="s">
-        <v>0</v>
-      </c>
       <c r="O3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="12" t="s">
-        <v>74</v>
-      </c>
       <c r="Q3" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R3" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S3" s="12" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="T3" s="12" t="s">
         <v>4</v>
       </c>
       <c r="U3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="V3" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="22" t="s">
         <v>2</v>
       </c>
@@ -7269,7 +7448,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>14</v>
@@ -7284,54 +7463,57 @@
         <v>16</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>93</v>
+        <v>180</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>168</v>
+        <v>41</v>
       </c>
       <c r="M4" s="22" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="N4" s="22" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="P4" s="22" t="s">
-        <v>86</v>
+        <v>150</v>
       </c>
       <c r="Q4" s="22" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="R4" s="22" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="S4" s="22" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="T4" s="22" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="U4" s="22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="V4" s="22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="31">
         <v>100001</v>
       </c>
       <c r="B5" s="25">
         <v>100001</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>148</v>
+      <c r="C5" s="64" t="s">
+        <v>169</v>
       </c>
       <c r="D5" s="25">
         <v>1</v>
@@ -7340,7 +7522,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="59" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E5,'!참조_ENUM'!$B$3:$B$77,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E5,'!참조_ENUM'!$B$3:$B$81,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
       <c r="G5" s="25">
@@ -7352,62 +7534,65 @@
       <c r="I5" s="25">
         <v>0</v>
       </c>
-      <c r="J5" s="26" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I5,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+      <c r="J5" s="25">
+        <v>0</v>
+      </c>
+      <c r="K5" s="26" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J5,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>NONE</v>
       </c>
-      <c r="K5" s="25">
-        <v>0</v>
-      </c>
-      <c r="L5" s="32">
-        <v>0</v>
-      </c>
-      <c r="M5" s="32" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L5,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+      <c r="L5" s="25">
+        <v>0</v>
+      </c>
+      <c r="M5" s="32">
+        <v>0</v>
+      </c>
+      <c r="N5" s="32" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M5,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="N5" s="32">
-        <v>0</v>
-      </c>
       <c r="O5" s="32">
         <v>0</v>
       </c>
-      <c r="P5" s="25">
+      <c r="P5" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="25">
         <v>100</v>
       </c>
-      <c r="Q5" s="32">
+      <c r="R5" s="32">
         <v>100001</v>
       </c>
-      <c r="R5" s="32">
-        <v>0</v>
-      </c>
-      <c r="S5" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="T5" s="32"/>
-      <c r="U5" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S5" s="32">
+        <v>0</v>
+      </c>
+      <c r="T5" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="U5" s="32"/>
+      <c r="V5" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="34">
         <v>100002</v>
       </c>
       <c r="B6" s="7">
         <v>100002</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>149</v>
+      <c r="C6" s="65" t="s">
+        <v>170</v>
       </c>
       <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
         <v>1</v>
       </c>
-      <c r="E6" s="7">
-        <v>6</v>
-      </c>
       <c r="F6" s="60" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E6,'!참조_ENUM'!$B$3:$B$77,0))</f>
-        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E6,'!참조_ENUM'!$B$3:$B$81,0))</f>
+        <v>자신 선택</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -7418,62 +7603,65 @@
       <c r="I6" s="7">
         <v>0</v>
       </c>
-      <c r="J6" s="19" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I6,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+      <c r="K6" s="19" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J6,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>NONE</v>
       </c>
-      <c r="K6" s="7">
-        <v>0</v>
-      </c>
-      <c r="L6" s="4">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L6,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+      <c r="L6" s="7">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M6,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="N6" s="4">
-        <v>0</v>
-      </c>
       <c r="O6" s="4">
         <v>0</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
         <v>100</v>
       </c>
-      <c r="Q6" s="4">
-        <v>100002</v>
-      </c>
       <c r="R6" s="4">
-        <v>0</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="T6" s="4"/>
-      <c r="U6" s="64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>100003</v>
+      </c>
+      <c r="S6" s="4">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="U6" s="4"/>
+      <c r="V6" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="36">
         <v>100003</v>
       </c>
       <c r="B7" s="29">
         <v>100003</v>
       </c>
-      <c r="C7" s="29" t="s">
-        <v>147</v>
+      <c r="C7" s="66" t="s">
+        <v>171</v>
       </c>
       <c r="D7" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="29">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F7" s="61" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E7,'!참조_ENUM'!$B$3:$B$77,0))</f>
-        <v>자신 선택</v>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E7,'!참조_ENUM'!$B$3:$B$81,0))</f>
+        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
       <c r="G7" s="29">
         <v>0</v>
@@ -7484,52 +7672,55 @@
       <c r="I7" s="29">
         <v>0</v>
       </c>
-      <c r="J7" s="30" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I7,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+      <c r="J7" s="29">
+        <v>0</v>
+      </c>
+      <c r="K7" s="30" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J7,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>NONE</v>
       </c>
-      <c r="K7" s="29">
-        <v>0</v>
-      </c>
-      <c r="L7" s="37">
-        <v>0</v>
-      </c>
-      <c r="M7" s="37" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L7,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+      <c r="L7" s="29">
+        <v>0</v>
+      </c>
+      <c r="M7" s="37">
+        <v>0</v>
+      </c>
+      <c r="N7" s="37" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M7,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="N7" s="37">
-        <v>0</v>
-      </c>
       <c r="O7" s="37">
         <v>0</v>
       </c>
-      <c r="P7" s="29">
+      <c r="P7" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="29">
         <v>100</v>
       </c>
-      <c r="Q7" s="37">
-        <v>100003</v>
-      </c>
       <c r="R7" s="37">
-        <v>0</v>
-      </c>
-      <c r="S7" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="T7" s="37"/>
-      <c r="U7" s="65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>100002</v>
+      </c>
+      <c r="S7" s="37">
+        <v>0</v>
+      </c>
+      <c r="T7" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="U7" s="37"/>
+      <c r="V7" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="31">
         <v>100101</v>
       </c>
       <c r="B8" s="25">
         <v>100101</v>
       </c>
-      <c r="C8" s="25" t="s">
-        <v>150</v>
+      <c r="C8" s="64" t="s">
+        <v>172</v>
       </c>
       <c r="D8" s="25">
         <v>1</v>
@@ -7538,7 +7729,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="59" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E8,'!참조_ENUM'!$B$3:$B$77,0))</f>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E8,'!참조_ENUM'!$B$3:$B$81,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
       <c r="G8" s="25">
@@ -7550,62 +7741,65 @@
       <c r="I8" s="25">
         <v>0</v>
       </c>
-      <c r="J8" s="26" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I8,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+      <c r="J8" s="25">
+        <v>0</v>
+      </c>
+      <c r="K8" s="26" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J8,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>NONE</v>
       </c>
-      <c r="K8" s="25">
-        <v>0</v>
-      </c>
-      <c r="L8" s="32">
-        <v>0</v>
-      </c>
-      <c r="M8" s="32" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L8,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+      <c r="L8" s="25">
+        <v>0</v>
+      </c>
+      <c r="M8" s="32">
+        <v>0</v>
+      </c>
+      <c r="N8" s="32" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M8,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="N8" s="32">
-        <v>0</v>
-      </c>
       <c r="O8" s="32">
         <v>0</v>
       </c>
-      <c r="P8" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q8" s="32">
+      <c r="P8" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="25">
+        <v>100</v>
+      </c>
+      <c r="R8" s="32">
         <v>100004</v>
       </c>
-      <c r="R8" s="32">
-        <v>0</v>
-      </c>
-      <c r="S8" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="T8" s="32"/>
-      <c r="U8" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S8" s="32">
+        <v>0</v>
+      </c>
+      <c r="T8" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="U8" s="32"/>
+      <c r="V8" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="34">
         <v>100102</v>
       </c>
       <c r="B9" s="7">
         <v>100102</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>159</v>
+      <c r="C9" s="65" t="s">
+        <v>176</v>
       </c>
       <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
         <v>1</v>
       </c>
-      <c r="E9" s="7">
-        <v>6</v>
-      </c>
       <c r="F9" s="60" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E9,'!참조_ENUM'!$B$3:$B$77,0))</f>
-        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
+        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E9,'!참조_ENUM'!$B$3:$B$81,0))</f>
+        <v>자신 선택</v>
       </c>
       <c r="G9" s="7">
         <v>0</v>
@@ -7616,988 +7810,958 @@
       <c r="I9" s="7">
         <v>0</v>
       </c>
-      <c r="J9" s="19" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I9,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+      <c r="K9" s="19" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J9,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>NONE</v>
       </c>
-      <c r="K9" s="7">
-        <v>0</v>
-      </c>
-      <c r="L9" s="4">
-        <v>0</v>
-      </c>
-      <c r="M9" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L9,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+      <c r="L9" s="7">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M9,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="N9" s="4">
-        <v>0</v>
-      </c>
       <c r="O9" s="4">
         <v>0</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="7">
         <v>100</v>
       </c>
-      <c r="Q9" s="4">
-        <v>100005</v>
-      </c>
       <c r="R9" s="4">
         <v>0</v>
       </c>
-      <c r="S9" s="4" t="s">
+      <c r="S9" s="4">
+        <v>500002</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="U9" s="4"/>
+      <c r="V9" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="36">
+        <v>100103</v>
+      </c>
+      <c r="B10" s="29">
+        <v>100103</v>
+      </c>
+      <c r="C10" s="66" t="s">
+        <v>173</v>
+      </c>
+      <c r="D10" s="29">
+        <v>1</v>
+      </c>
+      <c r="E10" s="29">
+        <v>6</v>
+      </c>
+      <c r="F10" s="61" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E10,'!참조_ENUM'!$B$3:$B$81,0))</f>
+        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
+      </c>
+      <c r="G10" s="29">
+        <v>0</v>
+      </c>
+      <c r="H10" s="29">
+        <v>1</v>
+      </c>
+      <c r="I10" s="29">
+        <v>0</v>
+      </c>
+      <c r="J10" s="29">
+        <v>0</v>
+      </c>
+      <c r="K10" s="30" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J10,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="L10" s="29">
+        <v>0</v>
+      </c>
+      <c r="M10" s="37">
+        <v>0</v>
+      </c>
+      <c r="N10" s="37" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M10,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="O10" s="37">
+        <v>0</v>
+      </c>
+      <c r="P10" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="R10" s="37">
+        <v>100006</v>
+      </c>
+      <c r="S10" s="37">
+        <v>0</v>
+      </c>
+      <c r="T10" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="U10" s="37"/>
+      <c r="V10" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="31">
+        <v>100201</v>
+      </c>
+      <c r="B11" s="25">
+        <v>100201</v>
+      </c>
+      <c r="C11" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="25">
+        <v>1</v>
+      </c>
+      <c r="E11" s="25">
+        <v>6</v>
+      </c>
+      <c r="F11" s="59" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E11,'!참조_ENUM'!$B$3:$B$81,0))</f>
+        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
+      </c>
+      <c r="G11" s="25">
+        <v>0</v>
+      </c>
+      <c r="H11" s="25">
+        <v>1</v>
+      </c>
+      <c r="I11" s="25">
+        <v>0</v>
+      </c>
+      <c r="J11" s="25">
+        <v>0</v>
+      </c>
+      <c r="K11" s="26" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J11,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="L11" s="25">
+        <v>0</v>
+      </c>
+      <c r="M11" s="32">
+        <v>0</v>
+      </c>
+      <c r="N11" s="32" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M11,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="O11" s="32">
+        <v>0</v>
+      </c>
+      <c r="P11" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="25">
+        <v>100</v>
+      </c>
+      <c r="R11" s="32">
+        <v>100007</v>
+      </c>
+      <c r="S11" s="32">
+        <v>0</v>
+      </c>
+      <c r="T11" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="U11" s="32"/>
+      <c r="V11" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="34">
+        <v>100202</v>
+      </c>
+      <c r="B12" s="7">
+        <v>100202</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7">
+        <v>6</v>
+      </c>
+      <c r="F12" s="60" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E12,'!참조_ENUM'!$B$3:$B$81,0))</f>
+        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0</v>
+      </c>
+      <c r="K12" s="19" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J12,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M12,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0</v>
+      </c>
+      <c r="P12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>100</v>
+      </c>
+      <c r="R12" s="4">
+        <v>100008</v>
+      </c>
+      <c r="S12" s="4">
+        <v>0</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="U12" s="4"/>
+      <c r="V12" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="36">
+        <v>100203</v>
+      </c>
+      <c r="B13" s="29">
+        <v>100203</v>
+      </c>
+      <c r="C13" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="29">
+        <v>1</v>
+      </c>
+      <c r="E13" s="29">
+        <v>10</v>
+      </c>
+      <c r="F13" s="61" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E13,'!참조_ENUM'!$B$3:$B$81,0))</f>
+        <v>가장 가까운 적 우선 선택(순번 컬럼 연동하여 순서대로) 후 일정 영역내의(주변) 타겟의 추가 선택</v>
+      </c>
+      <c r="G13" s="29">
+        <v>0</v>
+      </c>
+      <c r="H13" s="29">
+        <v>1</v>
+      </c>
+      <c r="I13" s="29">
+        <v>5</v>
+      </c>
+      <c r="J13" s="29">
+        <v>0</v>
+      </c>
+      <c r="K13" s="30" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J13,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="L13" s="29">
+        <v>0</v>
+      </c>
+      <c r="M13" s="37">
+        <v>0</v>
+      </c>
+      <c r="N13" s="37" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M13,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="O13" s="37">
+        <v>0</v>
+      </c>
+      <c r="P13" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="R13" s="37">
+        <v>100009</v>
+      </c>
+      <c r="S13" s="37">
+        <v>0</v>
+      </c>
+      <c r="T13" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="U13" s="37"/>
+      <c r="V13" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="31">
+        <v>100301</v>
+      </c>
+      <c r="B14" s="25">
+        <v>100301</v>
+      </c>
+      <c r="C14" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="25">
+        <v>1</v>
+      </c>
+      <c r="E14" s="25">
+        <v>6</v>
+      </c>
+      <c r="F14" s="59" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E14,'!참조_ENUM'!$B$3:$B$81,0))</f>
+        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
+      </c>
+      <c r="G14" s="25">
+        <v>0</v>
+      </c>
+      <c r="H14" s="25">
+        <v>1</v>
+      </c>
+      <c r="I14" s="25">
+        <v>0</v>
+      </c>
+      <c r="J14" s="25">
+        <v>2</v>
+      </c>
+      <c r="K14" s="26" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J14,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>투사체를 타겟의 몸에 던진다</v>
+      </c>
+      <c r="L14" s="25">
+        <v>0</v>
+      </c>
+      <c r="M14" s="32">
+        <v>0</v>
+      </c>
+      <c r="N14" s="32" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M14,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="O14" s="32">
+        <v>0</v>
+      </c>
+      <c r="P14" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="25">
+        <v>100</v>
+      </c>
+      <c r="R14" s="32">
+        <v>100010</v>
+      </c>
+      <c r="S14" s="32">
+        <v>0</v>
+      </c>
+      <c r="T14" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="U14" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="T9" s="4"/>
-      <c r="U9" s="64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="34">
-        <v>100103</v>
-      </c>
-      <c r="B10" s="7">
-        <v>100102</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7">
+      <c r="V14" s="63">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="34">
+        <v>100302</v>
+      </c>
+      <c r="B15" s="7">
+        <v>100302</v>
+      </c>
+      <c r="C15" s="65" t="s">
+        <v>182</v>
+      </c>
+      <c r="D15" s="7">
         <v>1</v>
       </c>
-      <c r="F10" s="60" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E10,'!참조_ENUM'!$B$3:$B$77,0))</f>
-        <v>자신 선택</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0</v>
-      </c>
-      <c r="H10" s="7">
+      <c r="E15" s="7">
+        <v>6</v>
+      </c>
+      <c r="F15" s="60" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E15,'!참조_ENUM'!$B$3:$B$81,0))</f>
+        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7">
         <v>1</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="19" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I10,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
+        <v>2</v>
+      </c>
+      <c r="K15" s="19" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J15,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>투사체를 타겟의 몸에 던진다</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M15,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="K10" s="7">
-        <v>0</v>
-      </c>
-      <c r="L10" s="4">
-        <v>0</v>
-      </c>
-      <c r="M10" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L10,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+      <c r="O15" s="4">
+        <v>0</v>
+      </c>
+      <c r="P15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>100</v>
+      </c>
+      <c r="R15" s="4">
+        <v>0</v>
+      </c>
+      <c r="S15" s="4">
+        <v>500006</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="V15" s="53">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="36">
+        <v>100303</v>
+      </c>
+      <c r="B16" s="29">
+        <v>100303</v>
+      </c>
+      <c r="C16" s="66" t="s">
+        <v>181</v>
+      </c>
+      <c r="D16" s="29">
+        <v>1</v>
+      </c>
+      <c r="E16" s="29">
+        <v>6</v>
+      </c>
+      <c r="F16" s="61" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E16,'!참조_ENUM'!$B$3:$B$81,0))</f>
+        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
+      </c>
+      <c r="G16" s="29">
+        <v>0</v>
+      </c>
+      <c r="H16" s="29">
+        <v>1</v>
+      </c>
+      <c r="I16" s="29">
+        <v>0</v>
+      </c>
+      <c r="J16" s="29">
+        <v>2</v>
+      </c>
+      <c r="K16" s="30" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J16,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>투사체를 타겟의 몸에 던진다</v>
+      </c>
+      <c r="L16" s="29">
+        <v>0</v>
+      </c>
+      <c r="M16" s="37">
+        <v>0</v>
+      </c>
+      <c r="N16" s="37" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M16,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="N10" s="4">
-        <v>0</v>
-      </c>
-      <c r="O10" s="4">
-        <v>0</v>
-      </c>
-      <c r="P10" s="7">
+      <c r="O16" s="37">
+        <v>0</v>
+      </c>
+      <c r="P16" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="R16" s="37">
+        <v>100011</v>
+      </c>
+      <c r="S16" s="37">
+        <v>0</v>
+      </c>
+      <c r="T16" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="U16" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="V16" s="54">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="31">
+        <v>100401</v>
+      </c>
+      <c r="B17" s="25">
+        <v>100401</v>
+      </c>
+      <c r="C17" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="25">
+        <v>1</v>
+      </c>
+      <c r="E17" s="25">
+        <v>6</v>
+      </c>
+      <c r="F17" s="59" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E17,'!참조_ENUM'!$B$3:$B$81,0))</f>
+        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
+      </c>
+      <c r="G17" s="25">
+        <v>0</v>
+      </c>
+      <c r="H17" s="25">
+        <v>1</v>
+      </c>
+      <c r="I17" s="25">
+        <v>0</v>
+      </c>
+      <c r="J17" s="25">
+        <v>2</v>
+      </c>
+      <c r="K17" s="26" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J17,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>투사체를 타겟의 몸에 던진다</v>
+      </c>
+      <c r="L17" s="25">
+        <v>0</v>
+      </c>
+      <c r="M17" s="32">
+        <v>0</v>
+      </c>
+      <c r="N17" s="32" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M17,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="O17" s="32">
+        <v>0</v>
+      </c>
+      <c r="P17" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="25">
         <v>100</v>
       </c>
-      <c r="Q10" s="4">
-        <v>0</v>
-      </c>
-      <c r="R10" s="4">
-        <v>500002</v>
-      </c>
-      <c r="S10" s="4" t="s">
+      <c r="R17" s="32">
+        <v>100012</v>
+      </c>
+      <c r="S17" s="32">
+        <v>0</v>
+      </c>
+      <c r="T17" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="U17" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="V17" s="63">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="34">
+        <v>100402</v>
+      </c>
+      <c r="B18" s="7">
+        <v>100402</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7">
+        <v>3002</v>
+      </c>
+      <c r="F18" s="60" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E18,'!참조_ENUM'!$B$3:$B$81,0))</f>
+        <v>남은 체력 비율이 가장 낮은 타겟 선택</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7">
+        <v>2</v>
+      </c>
+      <c r="K18" s="19" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J18,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>투사체를 타겟의 몸에 던진다</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M18,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="O18" s="4">
+        <v>0</v>
+      </c>
+      <c r="P18" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>100</v>
+      </c>
+      <c r="R18" s="4">
+        <v>100013</v>
+      </c>
+      <c r="S18" s="4">
+        <v>0</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="U18" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="T10" s="4"/>
-      <c r="U10" s="64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="36">
-        <v>100104</v>
-      </c>
-      <c r="B11" s="29">
-        <v>100103</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="D11" s="29">
+      <c r="V18" s="53">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="36">
+        <v>100403</v>
+      </c>
+      <c r="B19" s="29">
+        <v>100403</v>
+      </c>
+      <c r="C19" s="66" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="29">
         <v>1</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E19" s="29">
         <v>6</v>
       </c>
-      <c r="F11" s="61" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E11,'!참조_ENUM'!$B$3:$B$77,0))</f>
+      <c r="F19" s="61" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E19,'!참조_ENUM'!$B$3:$B$81,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
-      <c r="G11" s="29">
-        <v>0</v>
-      </c>
-      <c r="H11" s="29">
+      <c r="G19" s="29">
+        <v>0</v>
+      </c>
+      <c r="H19" s="29">
         <v>1</v>
       </c>
-      <c r="I11" s="29">
-        <v>0</v>
-      </c>
-      <c r="J11" s="30" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I11,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+      <c r="I19" s="29">
+        <v>0</v>
+      </c>
+      <c r="J19" s="29">
+        <v>2</v>
+      </c>
+      <c r="K19" s="30" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J19,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>투사체를 타겟의 몸에 던진다</v>
+      </c>
+      <c r="L19" s="29">
+        <v>0</v>
+      </c>
+      <c r="M19" s="37">
+        <v>0</v>
+      </c>
+      <c r="N19" s="37" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M19,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="K11" s="29">
-        <v>0</v>
-      </c>
-      <c r="L11" s="37">
-        <v>0</v>
-      </c>
-      <c r="M11" s="37" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L11,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+      <c r="O19" s="37">
+        <v>0</v>
+      </c>
+      <c r="P19" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="29">
+        <v>100</v>
+      </c>
+      <c r="R19" s="37">
+        <v>100014</v>
+      </c>
+      <c r="S19" s="37">
+        <v>0</v>
+      </c>
+      <c r="T19" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="U19" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="V19" s="54">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="31">
+        <v>100501</v>
+      </c>
+      <c r="B20" s="25">
+        <v>100501</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="25">
+        <v>1</v>
+      </c>
+      <c r="E20" s="25">
+        <v>6</v>
+      </c>
+      <c r="F20" s="59" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E20,'!참조_ENUM'!$B$3:$B$81,0))</f>
+        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
+      </c>
+      <c r="G20" s="25">
+        <v>0</v>
+      </c>
+      <c r="H20" s="25">
+        <v>1</v>
+      </c>
+      <c r="I20" s="25">
+        <v>0</v>
+      </c>
+      <c r="J20" s="25">
+        <v>2</v>
+      </c>
+      <c r="K20" s="26" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J20,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>투사체를 타겟의 몸에 던진다</v>
+      </c>
+      <c r="L20" s="25">
+        <v>0</v>
+      </c>
+      <c r="M20" s="32">
+        <v>0</v>
+      </c>
+      <c r="N20" s="32" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M20,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="N11" s="37">
-        <v>0</v>
-      </c>
-      <c r="O11" s="37">
-        <v>0</v>
-      </c>
-      <c r="P11" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q11" s="37">
-        <v>100006</v>
-      </c>
-      <c r="R11" s="37">
-        <v>0</v>
-      </c>
-      <c r="S11" s="37" t="s">
+      <c r="O20" s="32">
+        <v>0</v>
+      </c>
+      <c r="P20" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="25">
+        <v>100</v>
+      </c>
+      <c r="R20" s="32">
+        <v>100015</v>
+      </c>
+      <c r="S20" s="32">
+        <v>0</v>
+      </c>
+      <c r="T20" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="U20" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="T11" s="37"/>
-      <c r="U11" s="65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="31">
-        <v>100201</v>
-      </c>
-      <c r="B12" s="25">
-        <v>100201</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="D12" s="25">
+      <c r="V20" s="63">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="34">
+        <v>100502</v>
+      </c>
+      <c r="B21" s="7">
+        <v>100502</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" s="7">
         <v>1</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E21" s="7">
         <v>6</v>
       </c>
-      <c r="F12" s="59" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E12,'!참조_ENUM'!$B$3:$B$77,0))</f>
+      <c r="F21" s="60" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E21,'!참조_ENUM'!$B$3:$B$81,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
-      <c r="G12" s="25">
-        <v>0</v>
-      </c>
-      <c r="H12" s="25">
+      <c r="G21" s="7">
+        <v>0</v>
+      </c>
+      <c r="H21" s="7">
         <v>1</v>
       </c>
-      <c r="I12" s="25">
+      <c r="I21" s="7">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7">
         <v>2</v>
       </c>
-      <c r="J12" s="26" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I12,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+      <c r="K21" s="19" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J21,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>투사체를 타겟의 몸에 던진다</v>
       </c>
-      <c r="K12" s="25">
-        <v>0</v>
-      </c>
-      <c r="L12" s="32">
-        <v>0</v>
-      </c>
-      <c r="M12" s="32" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L12,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+      <c r="L21" s="7">
+        <v>0</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0</v>
+      </c>
+      <c r="N21" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M21,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="N12" s="32">
-        <v>0</v>
-      </c>
-      <c r="O12" s="32">
-        <v>0</v>
-      </c>
-      <c r="P12" s="25">
+      <c r="O21" s="4">
+        <v>0</v>
+      </c>
+      <c r="P21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="7">
         <v>100</v>
       </c>
-      <c r="Q12" s="32">
-        <v>100007</v>
-      </c>
-      <c r="R12" s="32">
-        <v>0</v>
-      </c>
-      <c r="S12" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="T12" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="U12" s="66">
+      <c r="R21" s="4">
+        <v>100016</v>
+      </c>
+      <c r="S21" s="4">
+        <v>500005</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="V21" s="53">
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="34">
-        <v>100202</v>
-      </c>
-      <c r="B13" s="7">
-        <v>100202</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D13" s="7">
+    <row r="22" spans="1:22" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="36">
+        <v>100503</v>
+      </c>
+      <c r="B22" s="29">
+        <v>100503</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="D22" s="29">
         <v>1</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E22" s="29">
         <v>6</v>
       </c>
-      <c r="F13" s="60" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E13,'!참조_ENUM'!$B$3:$B$77,0))</f>
+      <c r="F22" s="61" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E22,'!참조_ENUM'!$B$3:$B$81,0))</f>
         <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
-      <c r="G13" s="7">
-        <v>0</v>
-      </c>
-      <c r="H13" s="7">
+      <c r="G22" s="29">
+        <v>0</v>
+      </c>
+      <c r="H22" s="29">
         <v>1</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I22" s="29">
+        <v>0</v>
+      </c>
+      <c r="J22" s="29">
         <v>2</v>
       </c>
-      <c r="J13" s="19" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I13,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+      <c r="K22" s="30" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J22,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>투사체를 타겟의 몸에 던진다</v>
       </c>
-      <c r="K13" s="7">
-        <v>0</v>
-      </c>
-      <c r="L13" s="4">
-        <v>0</v>
-      </c>
-      <c r="M13" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L13,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
+      <c r="L22" s="29">
+        <v>0</v>
+      </c>
+      <c r="M22" s="37">
+        <v>0</v>
+      </c>
+      <c r="N22" s="37" t="str">
+        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M22,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
         <v>NONE</v>
       </c>
-      <c r="N13" s="4">
-        <v>0</v>
-      </c>
-      <c r="O13" s="4">
-        <v>0</v>
-      </c>
-      <c r="P13" s="7">
+      <c r="O22" s="37">
+        <v>0</v>
+      </c>
+      <c r="P22" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="29">
         <v>100</v>
       </c>
-      <c r="Q13" s="4">
-        <v>100008</v>
-      </c>
-      <c r="R13" s="4">
-        <v>0</v>
-      </c>
-      <c r="S13" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="T13" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="U13" s="67">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="36">
-        <v>100203</v>
-      </c>
-      <c r="B14" s="29">
-        <v>100203</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="D14" s="29">
-        <v>1</v>
-      </c>
-      <c r="E14" s="29">
-        <v>6</v>
-      </c>
-      <c r="F14" s="61" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E14,'!참조_ENUM'!$B$3:$B$77,0))</f>
-        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
-      </c>
-      <c r="G14" s="29">
-        <v>0</v>
-      </c>
-      <c r="H14" s="29">
-        <v>3</v>
-      </c>
-      <c r="I14" s="29">
-        <v>2</v>
-      </c>
-      <c r="J14" s="30" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I14,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>투사체를 타겟의 몸에 던진다</v>
-      </c>
-      <c r="K14" s="29">
-        <v>0</v>
-      </c>
-      <c r="L14" s="37">
-        <v>0</v>
-      </c>
-      <c r="M14" s="37" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L14,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="N14" s="37">
-        <v>0</v>
-      </c>
-      <c r="O14" s="37">
-        <v>0</v>
-      </c>
-      <c r="P14" s="29">
-        <v>100</v>
-      </c>
-      <c r="Q14" s="37">
-        <v>100009</v>
-      </c>
-      <c r="R14" s="37">
-        <v>0</v>
-      </c>
-      <c r="S14" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="T14" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="U14" s="68">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="31">
-        <v>100301</v>
-      </c>
-      <c r="B15" s="25">
-        <v>100301</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="D15" s="25">
-        <v>1</v>
-      </c>
-      <c r="E15" s="25">
-        <v>6</v>
-      </c>
-      <c r="F15" s="59" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E15,'!참조_ENUM'!$B$3:$B$77,0))</f>
-        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
-      </c>
-      <c r="G15" s="25">
-        <v>0</v>
-      </c>
-      <c r="H15" s="25">
-        <v>1</v>
-      </c>
-      <c r="I15" s="25">
-        <v>2</v>
-      </c>
-      <c r="J15" s="26" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I15,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>투사체를 타겟의 몸에 던진다</v>
-      </c>
-      <c r="K15" s="25">
-        <v>0</v>
-      </c>
-      <c r="L15" s="32">
-        <v>0</v>
-      </c>
-      <c r="M15" s="32" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L15,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="N15" s="32">
-        <v>0</v>
-      </c>
-      <c r="O15" s="32">
-        <v>0</v>
-      </c>
-      <c r="P15" s="25">
-        <v>100</v>
-      </c>
-      <c r="Q15" s="32">
-        <v>100010</v>
-      </c>
-      <c r="R15" s="32">
-        <v>0</v>
-      </c>
-      <c r="S15" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="T15" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="U15" s="66">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="34">
-        <v>100302</v>
-      </c>
-      <c r="B16" s="7">
-        <v>100302</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
-      <c r="E16" s="7">
-        <v>2</v>
-      </c>
-      <c r="F16" s="60" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E16,'!참조_ENUM'!$B$3:$B$77,0))</f>
-        <v>전체 선택</v>
-      </c>
-      <c r="G16" s="7">
-        <v>0</v>
-      </c>
-      <c r="H16" s="7">
-        <v>5</v>
-      </c>
-      <c r="I16" s="7">
-        <v>2</v>
-      </c>
-      <c r="J16" s="19" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I16,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>투사체를 타겟의 몸에 던진다</v>
-      </c>
-      <c r="K16" s="7">
-        <v>0</v>
-      </c>
-      <c r="L16" s="4">
-        <v>0</v>
-      </c>
-      <c r="M16" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L16,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="N16" s="4">
-        <v>0</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0</v>
-      </c>
-      <c r="P16" s="7">
-        <v>100</v>
-      </c>
-      <c r="Q16" s="4">
-        <v>0</v>
-      </c>
-      <c r="R16" s="4">
-        <v>500003</v>
-      </c>
-      <c r="S16" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="T16" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="U16" s="67">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="36">
-        <v>100303</v>
-      </c>
-      <c r="B17" s="29">
-        <v>100303</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="D17" s="29">
-        <v>1</v>
-      </c>
-      <c r="E17" s="29">
-        <v>6</v>
-      </c>
-      <c r="F17" s="61" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E17,'!참조_ENUM'!$B$3:$B$77,0))</f>
-        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
-      </c>
-      <c r="G17" s="29">
-        <v>0</v>
-      </c>
-      <c r="H17" s="29">
-        <v>1</v>
-      </c>
-      <c r="I17" s="29">
-        <v>2</v>
-      </c>
-      <c r="J17" s="30" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I17,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>투사체를 타겟의 몸에 던진다</v>
-      </c>
-      <c r="K17" s="29">
-        <v>0</v>
-      </c>
-      <c r="L17" s="37">
-        <v>0</v>
-      </c>
-      <c r="M17" s="37" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L17,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="N17" s="37">
-        <v>0</v>
-      </c>
-      <c r="O17" s="37">
-        <v>0</v>
-      </c>
-      <c r="P17" s="29">
-        <v>100</v>
-      </c>
-      <c r="Q17" s="37">
-        <v>100011</v>
-      </c>
-      <c r="R17" s="37">
-        <v>0</v>
-      </c>
-      <c r="S17" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="T17" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="U17" s="68">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="31">
-        <v>100401</v>
-      </c>
-      <c r="B18" s="25">
-        <v>100401</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="D18" s="25">
-        <v>1</v>
-      </c>
-      <c r="E18" s="25">
-        <v>6</v>
-      </c>
-      <c r="F18" s="59" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E18,'!참조_ENUM'!$B$3:$B$77,0))</f>
-        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
-      </c>
-      <c r="G18" s="25">
-        <v>0</v>
-      </c>
-      <c r="H18" s="25">
-        <v>1</v>
-      </c>
-      <c r="I18" s="25">
-        <v>2</v>
-      </c>
-      <c r="J18" s="26" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I18,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>투사체를 타겟의 몸에 던진다</v>
-      </c>
-      <c r="K18" s="25">
-        <v>0</v>
-      </c>
-      <c r="L18" s="32">
-        <v>0</v>
-      </c>
-      <c r="M18" s="32" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L18,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="N18" s="32">
-        <v>0</v>
-      </c>
-      <c r="O18" s="32">
-        <v>0</v>
-      </c>
-      <c r="P18" s="25">
-        <v>100</v>
-      </c>
-      <c r="Q18" s="32">
-        <v>100012</v>
-      </c>
-      <c r="R18" s="32">
-        <v>0</v>
-      </c>
-      <c r="S18" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="T18" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="U18" s="66">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="34">
-        <v>100402</v>
-      </c>
-      <c r="B19" s="7">
-        <v>100402</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7">
-        <v>2</v>
-      </c>
-      <c r="F19" s="60" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E19,'!참조_ENUM'!$B$3:$B$77,0))</f>
-        <v>전체 선택</v>
-      </c>
-      <c r="G19" s="7">
-        <v>0</v>
-      </c>
-      <c r="H19" s="7">
-        <v>5</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2</v>
-      </c>
-      <c r="J19" s="19" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I19,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>투사체를 타겟의 몸에 던진다</v>
-      </c>
-      <c r="K19" s="7">
-        <v>0</v>
-      </c>
-      <c r="L19" s="4">
-        <v>0</v>
-      </c>
-      <c r="M19" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L19,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="N19" s="4">
-        <v>0</v>
-      </c>
-      <c r="O19" s="4">
-        <v>0</v>
-      </c>
-      <c r="P19" s="7">
-        <v>100</v>
-      </c>
-      <c r="Q19" s="4">
-        <v>0</v>
-      </c>
-      <c r="R19" s="4">
-        <v>500004</v>
-      </c>
-      <c r="S19" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="T19" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="U19" s="67">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="36">
-        <v>100403</v>
-      </c>
-      <c r="B20" s="29">
-        <v>100403</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="D20" s="29">
-        <v>1</v>
-      </c>
-      <c r="E20" s="29">
-        <v>6</v>
-      </c>
-      <c r="F20" s="61" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E20,'!참조_ENUM'!$B$3:$B$77,0))</f>
-        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
-      </c>
-      <c r="G20" s="29">
-        <v>0</v>
-      </c>
-      <c r="H20" s="29">
-        <v>1</v>
-      </c>
-      <c r="I20" s="29">
-        <v>2</v>
-      </c>
-      <c r="J20" s="30" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I20,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>투사체를 타겟의 몸에 던진다</v>
-      </c>
-      <c r="K20" s="29">
-        <v>0</v>
-      </c>
-      <c r="L20" s="37">
-        <v>0</v>
-      </c>
-      <c r="M20" s="37" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L20,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="N20" s="37">
-        <v>0</v>
-      </c>
-      <c r="O20" s="37">
-        <v>0</v>
-      </c>
-      <c r="P20" s="29">
-        <v>100</v>
-      </c>
-      <c r="Q20" s="37">
-        <v>100013</v>
-      </c>
-      <c r="R20" s="37">
-        <v>0</v>
-      </c>
-      <c r="S20" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="T20" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="U20" s="68">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="31">
-        <v>100501</v>
-      </c>
-      <c r="B21" s="25">
-        <v>100501</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="D21" s="25">
-        <v>1</v>
-      </c>
-      <c r="E21" s="25">
-        <v>6</v>
-      </c>
-      <c r="F21" s="59" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E21,'!참조_ENUM'!$B$3:$B$77,0))</f>
-        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
-      </c>
-      <c r="G21" s="25">
-        <v>0</v>
-      </c>
-      <c r="H21" s="25">
-        <v>1</v>
-      </c>
-      <c r="I21" s="25">
-        <v>2</v>
-      </c>
-      <c r="J21" s="26" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I21,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>투사체를 타겟의 몸에 던진다</v>
-      </c>
-      <c r="K21" s="25">
-        <v>0</v>
-      </c>
-      <c r="L21" s="32">
-        <v>0</v>
-      </c>
-      <c r="M21" s="32" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L21,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="N21" s="32">
-        <v>0</v>
-      </c>
-      <c r="O21" s="32">
-        <v>0</v>
-      </c>
-      <c r="P21" s="25">
-        <v>100</v>
-      </c>
-      <c r="Q21" s="32">
-        <v>100014</v>
-      </c>
-      <c r="R21" s="32">
-        <v>0</v>
-      </c>
-      <c r="S21" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="T21" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="U21" s="66">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="34">
-        <v>100502</v>
-      </c>
-      <c r="B22" s="7">
-        <v>100502</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1</v>
-      </c>
-      <c r="E22" s="7">
-        <v>6</v>
-      </c>
-      <c r="F22" s="60" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E22,'!참조_ENUM'!$B$3:$B$77,0))</f>
-        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
-      </c>
-      <c r="G22" s="7">
-        <v>0</v>
-      </c>
-      <c r="H22" s="7">
-        <v>1</v>
-      </c>
-      <c r="I22" s="7">
-        <v>2</v>
-      </c>
-      <c r="J22" s="19" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I22,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>투사체를 타겟의 몸에 던진다</v>
-      </c>
-      <c r="K22" s="7">
-        <v>0</v>
-      </c>
-      <c r="L22" s="4">
-        <v>0</v>
-      </c>
-      <c r="M22" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L22,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="N22" s="4">
-        <v>0</v>
-      </c>
-      <c r="O22" s="4">
-        <v>0</v>
-      </c>
-      <c r="P22" s="7">
-        <v>100</v>
-      </c>
-      <c r="Q22" s="4">
-        <v>100014</v>
-      </c>
-      <c r="R22" s="4">
-        <v>500005</v>
-      </c>
-      <c r="S22" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="T22" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="U22" s="67">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="36">
-        <v>100503</v>
-      </c>
-      <c r="B23" s="29">
-        <v>100503</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="D23" s="29">
-        <v>1</v>
-      </c>
-      <c r="E23" s="29">
-        <v>6</v>
-      </c>
-      <c r="F23" s="61" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$77,MATCH(E23,'!참조_ENUM'!$B$3:$B$77,0))</f>
-        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
-      </c>
-      <c r="G23" s="29">
-        <v>0</v>
-      </c>
-      <c r="H23" s="29">
-        <v>1</v>
-      </c>
-      <c r="I23" s="29">
-        <v>2</v>
-      </c>
-      <c r="J23" s="30" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(I23,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>투사체를 타겟의 몸에 던진다</v>
-      </c>
-      <c r="K23" s="29">
-        <v>0</v>
-      </c>
-      <c r="L23" s="37">
-        <v>0</v>
-      </c>
-      <c r="M23" s="37" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(L23,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="N23" s="37">
-        <v>0</v>
-      </c>
-      <c r="O23" s="37">
-        <v>0</v>
-      </c>
-      <c r="P23" s="29">
-        <v>100</v>
-      </c>
-      <c r="Q23" s="37">
-        <v>100015</v>
-      </c>
-      <c r="R23" s="37">
-        <v>0</v>
-      </c>
-      <c r="S23" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="T23" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="U23" s="68">
+      <c r="R22" s="37">
+        <v>100017</v>
+      </c>
+      <c r="S22" s="37">
+        <v>0</v>
+      </c>
+      <c r="T22" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="U22" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="V22" s="54">
         <v>0.3</v>
       </c>
     </row>
@@ -8607,12 +8771,30 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{110C5FF2-D44D-4540-8ADA-377E88D78987}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$AL$3:$AL$5</xm:f>
           </x14:formula1>
-          <xm:sqref>L5:L23</xm:sqref>
+          <xm:sqref>M5:M22</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8A7FC9F6-0204-4C88-A1F3-F45CC3ECCE6D}">
+          <x14:formula1>
+            <xm:f>'!참조_ENUM'!$N$3:$N$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>D5:D22</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{31AC146F-178D-4A57-8E92-0A0AB3B1D27F}">
+          <x14:formula1>
+            <xm:f>'!참조_ENUM'!$B$3:$B$81</xm:f>
+          </x14:formula1>
+          <xm:sqref>E5:E22</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E66F2791-2DBF-4E16-81C9-5CE282C2121D}">
+          <x14:formula1>
+            <xm:f>'!참조_ENUM'!$AD$3:$AD$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>J5:J22</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8622,10 +8804,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BD63B1-FF99-405E-A3D0-90C5E747D8DE}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8643,7 +8825,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -8654,43 +8836,43 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="33" x14ac:dyDescent="0.3">
@@ -8698,13 +8880,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>4</v>
@@ -8713,10 +8895,10 @@
         <v>8</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I3" s="12" t="s">
         <v>4</v>
@@ -8736,43 +8918,43 @@
     </row>
     <row r="4" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F4" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="22" t="s">
+      <c r="K4" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" s="22" t="s">
-        <v>39</v>
-      </c>
       <c r="L4" s="22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M4" s="22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -8811,7 +8993,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M5" s="33">
         <v>1</v>
@@ -8850,10 +9032,10 @@
         <v>0</v>
       </c>
       <c r="K6" s="7">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M6" s="35">
         <v>1</v>
@@ -8895,7 +9077,7 @@
         <v>0.1</v>
       </c>
       <c r="L7" s="37" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M7" s="38">
         <v>1</v>
@@ -8937,7 +9119,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M8" s="33">
         <v>1</v>
@@ -8979,7 +9161,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M9" s="35">
         <v>1</v>
@@ -9018,10 +9200,10 @@
         <v>0</v>
       </c>
       <c r="K10" s="29">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="L10" s="37" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M10" s="38">
         <v>1</v>
@@ -9063,7 +9245,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M11" s="33">
         <v>1</v>
@@ -9105,7 +9287,7 @@
         <v>1.2</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M12" s="35">
         <v>1</v>
@@ -9147,7 +9329,7 @@
         <v>0.8</v>
       </c>
       <c r="L13" s="47" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="M13" s="49">
         <v>1</v>
@@ -9189,51 +9371,51 @@
         <v>1</v>
       </c>
       <c r="L14" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M14" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="36">
+      <c r="A15" s="48">
         <v>100011</v>
       </c>
-      <c r="B15" s="29">
+      <c r="B15" s="46">
         <v>1</v>
       </c>
-      <c r="C15" s="61" t="str">
+      <c r="C15" s="62" t="str">
         <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B15,'!참조_ENUM'!$R$3:$R$5,0))</f>
         <v>데미지를 준다</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="46">
         <v>12</v>
       </c>
-      <c r="E15" s="57" t="str">
+      <c r="E15" s="58" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D15,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>타겟의 몸에서 즉시 효과 발동</v>
       </c>
-      <c r="F15" s="29">
-        <v>0</v>
-      </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29">
+      <c r="F15" s="46">
+        <v>0</v>
+      </c>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46">
         <v>101</v>
       </c>
-      <c r="I15" s="61" t="str">
+      <c r="I15" s="62" t="str">
         <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(H15,'!참조_ENUM'!$F$3:$F$13,0))</f>
         <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
       </c>
-      <c r="J15" s="37">
-        <v>0</v>
-      </c>
-      <c r="K15" s="29">
+      <c r="J15" s="47">
+        <v>0</v>
+      </c>
+      <c r="K15" s="46">
         <v>1.2</v>
       </c>
-      <c r="L15" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="M15" s="38">
+      <c r="L15" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="M15" s="49">
         <v>1</v>
       </c>
     </row>
@@ -9273,135 +9455,135 @@
         <v>1</v>
       </c>
       <c r="L16" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M16" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="36">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="34">
         <v>100013</v>
       </c>
-      <c r="B17" s="29">
-        <v>1</v>
-      </c>
-      <c r="C17" s="61" t="str">
+      <c r="B17" s="7">
+        <v>2</v>
+      </c>
+      <c r="C17" s="60" t="str">
         <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B17,'!참조_ENUM'!$R$3:$R$5,0))</f>
-        <v>데미지를 준다</v>
-      </c>
-      <c r="D17" s="29">
+        <v>체력 회복</v>
+      </c>
+      <c r="D17" s="7">
         <v>12</v>
       </c>
-      <c r="E17" s="57" t="str">
+      <c r="E17" s="56" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D17,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>타겟의 몸에서 즉시 효과 발동</v>
       </c>
-      <c r="F17" s="29">
-        <v>0</v>
-      </c>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29">
-        <v>101</v>
-      </c>
-      <c r="I17" s="61" t="str">
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7">
+        <v>300</v>
+      </c>
+      <c r="I17" s="60" t="str">
         <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(H17,'!참조_ENUM'!$F$3:$F$13,0))</f>
-        <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
-      </c>
-      <c r="J17" s="37">
-        <v>0</v>
-      </c>
-      <c r="K17" s="29">
-        <v>1.2</v>
-      </c>
-      <c r="L17" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="M17" s="38">
+        <v>최대 체력을 기준으로 계산을 하기 위한 수치</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M17" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="31">
+    <row r="18" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="36">
         <v>100014</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="29">
         <v>1</v>
       </c>
-      <c r="C18" s="59" t="str">
+      <c r="C18" s="61" t="str">
         <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B18,'!참조_ENUM'!$R$3:$R$5,0))</f>
         <v>데미지를 준다</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="29">
         <v>12</v>
       </c>
-      <c r="E18" s="55" t="str">
+      <c r="E18" s="57" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D18,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>타겟의 몸에서 즉시 효과 발동</v>
       </c>
-      <c r="F18" s="25">
-        <v>0</v>
-      </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25">
+      <c r="F18" s="29">
+        <v>0</v>
+      </c>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29">
         <v>101</v>
       </c>
-      <c r="I18" s="59" t="str">
+      <c r="I18" s="61" t="str">
         <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(H18,'!참조_ENUM'!$F$3:$F$13,0))</f>
         <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
       </c>
-      <c r="J18" s="32">
-        <v>0</v>
-      </c>
-      <c r="K18" s="25">
+      <c r="J18" s="37">
+        <v>0</v>
+      </c>
+      <c r="K18" s="29">
+        <v>1.2</v>
+      </c>
+      <c r="L18" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="M18" s="38">
         <v>1</v>
       </c>
-      <c r="L18" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="M18" s="33">
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="67">
+        <v>100015</v>
+      </c>
+      <c r="B19" s="68">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="36">
-        <v>100015</v>
-      </c>
-      <c r="B19" s="29">
-        <v>1</v>
-      </c>
-      <c r="C19" s="61" t="str">
+      <c r="C19" s="69" t="str">
         <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B19,'!참조_ENUM'!$R$3:$R$5,0))</f>
         <v>데미지를 준다</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="68">
         <v>12</v>
       </c>
-      <c r="E19" s="57" t="str">
+      <c r="E19" s="70" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D19,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
         <v>타겟의 몸에서 즉시 효과 발동</v>
       </c>
-      <c r="F19" s="29">
-        <v>0</v>
-      </c>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29">
+      <c r="F19" s="68">
+        <v>0</v>
+      </c>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68">
         <v>101</v>
       </c>
-      <c r="I19" s="61" t="str">
+      <c r="I19" s="69" t="str">
         <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(H19,'!참조_ENUM'!$F$3:$F$13,0))</f>
         <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
       </c>
-      <c r="J19" s="37">
-        <v>0</v>
-      </c>
-      <c r="K19" s="29">
-        <v>1.2</v>
-      </c>
-      <c r="L19" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="M19" s="38">
+      <c r="J19" s="71">
+        <v>0</v>
+      </c>
+      <c r="K19" s="68">
+        <v>1</v>
+      </c>
+      <c r="L19" s="71" t="s">
+        <v>112</v>
+      </c>
+      <c r="M19" s="72">
         <v>1</v>
       </c>
     </row>
@@ -9428,22 +9610,64 @@
       </c>
       <c r="G20" s="29"/>
       <c r="H20" s="29">
-        <v>900</v>
+        <v>101</v>
       </c>
       <c r="I20" s="61" t="str">
         <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(H20,'!참조_ENUM'!$F$3:$F$13,0))</f>
+        <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
+      </c>
+      <c r="J20" s="37">
+        <v>0</v>
+      </c>
+      <c r="K20" s="29">
+        <v>1.2</v>
+      </c>
+      <c r="L20" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="M20" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="36">
+        <v>100017</v>
+      </c>
+      <c r="B21" s="29">
+        <v>1</v>
+      </c>
+      <c r="C21" s="61" t="str">
+        <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B21,'!참조_ENUM'!$R$3:$R$5,0))</f>
+        <v>데미지를 준다</v>
+      </c>
+      <c r="D21" s="29">
+        <v>12</v>
+      </c>
+      <c r="E21" s="57" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D21,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>타겟의 몸에서 즉시 효과 발동</v>
+      </c>
+      <c r="F21" s="29">
+        <v>0</v>
+      </c>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29">
+        <v>900</v>
+      </c>
+      <c r="I21" s="61" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(H21,'!참조_ENUM'!$F$3:$F$13,0))</f>
         <v>피해량을 기준으로 계산을 하기 위한 수치</v>
       </c>
-      <c r="J20" s="37">
-        <v>0</v>
-      </c>
-      <c r="K20" s="29">
+      <c r="J21" s="37">
+        <v>0</v>
+      </c>
+      <c r="K21" s="29">
         <v>0.2</v>
       </c>
-      <c r="L20" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="M20" s="38">
+      <c r="L21" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="M21" s="38">
         <v>1</v>
       </c>
     </row>
@@ -9457,19 +9681,19 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$F$3:$F$13</xm:f>
           </x14:formula1>
-          <xm:sqref>H5:H20</xm:sqref>
+          <xm:sqref>H5:H21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8C92E819-2566-4A2E-BB43-DD2CB1F67832}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$R$3:$R$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B5:B20</xm:sqref>
+          <xm:sqref>B5:B21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{313F4E1E-DD72-4BA8-832D-BEE9A5897A8D}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$AD$3:$AD$10</xm:f>
           </x14:formula1>
-          <xm:sqref>D5:D20</xm:sqref>
+          <xm:sqref>D5:D21</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9479,10 +9703,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E85B499-5762-4179-9193-75E156FB948B}">
-  <dimension ref="A1:U10"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9505,74 +9729,74 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="R2" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="U2" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="33" x14ac:dyDescent="0.3">
@@ -9580,13 +9804,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>4</v>
@@ -9598,16 +9822,16 @@
         <v>0</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L3" s="12" t="s">
         <v>4</v>
@@ -9616,7 +9840,7 @@
         <v>8</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O3" s="12" t="s">
         <v>4</v>
@@ -9642,67 +9866,67 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="K4" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="R4" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="U4" s="18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -9765,7 +9989,7 @@
         <v>10000</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="T5" s="4">
         <v>0</v>
@@ -9834,7 +10058,7 @@
         <v>10000</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="T6" s="4">
         <v>0</v>
@@ -9903,7 +10127,7 @@
         <v>10000</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="T7" s="4">
         <v>0</v>
@@ -9972,7 +10196,7 @@
         <v>10000</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="T8" s="4">
         <v>0</v>
@@ -10041,7 +10265,7 @@
         <v>5000</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="T9" s="4">
         <v>0</v>
@@ -10055,11 +10279,11 @@
         <v>500006</v>
       </c>
       <c r="B10" s="7">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C10" s="11" t="str">
         <f>INDEX('!참조_ENUM'!$W$3:$W$13,MATCH(B10,'!참조_ENUM'!$V$3:$V$13,0))</f>
-        <v>빙결</v>
+        <v>방어력 감소</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -10069,7 +10293,7 @@
         <v>시간 지속</v>
       </c>
       <c r="F10" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G10" s="4">
         <v>0</v>
@@ -10081,7 +10305,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="4">
-        <v>100007</v>
+        <v>0</v>
       </c>
       <c r="K10" s="7">
         <v>11</v>
@@ -10094,35 +10318,104 @@
         <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O10" s="11" t="str">
         <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(N10,'!참조_ENUM'!$F$3:$F$13,0))</f>
+        <v>방어력을 기준으로 계산을 하기 위한 수치</v>
+      </c>
+      <c r="P10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="R10" s="4">
+        <v>5000</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="T10" s="4">
+        <v>0</v>
+      </c>
+      <c r="U10" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>500007</v>
+      </c>
+      <c r="B11" s="7">
+        <v>105</v>
+      </c>
+      <c r="C11" s="11" t="str">
+        <f>INDEX('!참조_ENUM'!$W$3:$W$13,MATCH(B11,'!참조_ENUM'!$V$3:$V$13,0))</f>
+        <v>빙결</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="11" t="str">
+        <f>INDEX('!참조_ENUM'!$AA$3:$AA$6,MATCH(D11,'!참조_ENUM'!$Z$3:$Z$6,0))</f>
+        <v>시간 지속</v>
+      </c>
+      <c r="F11" s="4">
+        <v>3</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>100007</v>
+      </c>
+      <c r="K11" s="7">
+        <v>11</v>
+      </c>
+      <c r="L11" s="7" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(K11,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>타겟의 발 밑에서 즉시 효과 발동</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="11" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(N11,'!참조_ENUM'!$F$3:$F$13,0))</f>
         <v>NONE</v>
       </c>
-      <c r="P10" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>0</v>
-      </c>
-      <c r="R10" s="4">
+      <c r="P11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>0</v>
+      </c>
+      <c r="R11" s="4">
         <v>3000</v>
       </c>
-      <c r="S10" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="T10" s="4">
-        <v>0</v>
-      </c>
-      <c r="U10" s="4" t="b">
+      <c r="S11" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="T11" s="4">
+        <v>0</v>
+      </c>
+      <c r="U11" s="4" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U5:U10" xr:uid="{07BC0E4E-0AB0-4FFB-BDF5-D6D183214701}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U5:U11" xr:uid="{07BC0E4E-0AB0-4FFB-BDF5-D6D183214701}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10135,25 +10428,25 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$Z$3:$Z$6</xm:f>
           </x14:formula1>
-          <xm:sqref>D5:D10</xm:sqref>
+          <xm:sqref>D5:D11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BADD3DF7-84B7-4DA0-ABC0-BBC36C154738}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$F$3:$F$13</xm:f>
           </x14:formula1>
-          <xm:sqref>N5:N10</xm:sqref>
+          <xm:sqref>N5:N11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FF72D07A-16DC-43C4-B0B9-3814909F4C5D}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$AD$3:$AD$10</xm:f>
           </x14:formula1>
-          <xm:sqref>K5:K10</xm:sqref>
+          <xm:sqref>K5:K11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4698ABB8-E6C1-495A-910B-F6779A72B140}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$V$3:$V$13</xm:f>
           </x14:formula1>
-          <xm:sqref>B5:B10</xm:sqref>
+          <xm:sqref>B5:B11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Android/ExcelData/PCSkillTable.xlsx
+++ b/Android/ExcelData/PCSkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB96FFC0-2ABD-4AB4-B7FB-B395E156DEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D240017-966E-4CE9-B908-DA6C2A29BE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
@@ -594,7 +594,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U4" authorId="0" shapeId="0" xr:uid="{A402B58C-B420-4345-8EC5-0136DD80EAAE}">
+    <comment ref="W4" authorId="0" shapeId="0" xr:uid="{A402B58C-B420-4345-8EC5-0136DD80EAAE}">
       <text>
         <r>
           <rPr>
@@ -1524,7 +1524,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="188">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2021,12 +2021,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스킬 설명 13</t>
-  </si>
-  <si>
-    <t>스킬 설명 14</t>
-  </si>
-  <si>
     <t>원딜/일반</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2051,9 +2045,6 @@
     <t>skill 15</t>
   </si>
   <si>
-    <t>스킬 설명 15</t>
-  </si>
-  <si>
     <t>원딜/스킬1/대미지 (스킬 대미지 120%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2074,14 +2065,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>원딜/스킬2/대미지 (스킬 대미지 120%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원딜/대미지/공격력 감소(15%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스킬 타입</t>
   </si>
   <si>
@@ -2131,14 +2114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2차 효과 일회성 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>second_effect_onetime_ids</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>자신의 체력 회복</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2244,11 +2219,49 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Duration_Defense_Down</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>원힐/스킬1/체력이 가장 낮은 아군 회복(최대 체력 30%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Normal_Melee_Impact</t>
+  </si>
+  <si>
+    <t>debuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Duration_Defence_Down</t>
+  </si>
+  <si>
+    <t>원거리 전방 1명의 공격력 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">원거리 전방 적 타겟 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원딜/스킬2/대미지 (스킬 대미지 130%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원딜/전방/공격력 감소(15%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세컨 타겟용 일회성 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>second_target_onetime_effect_ids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세컨 타겟용 지속성 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>second_target_duration_effect_ids</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2903,9 +2916,15 @@
       <sheetName val="@item_type"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>NPC_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="3">
         <row r="1">
           <cell r="A1" t="str">
@@ -4046,9 +4065,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
       <sheetData sheetId="10">
         <row r="1">
           <cell r="A1" t="str">
@@ -4447,9 +4466,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6678,7 +6697,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6712,7 +6731,7 @@
         <v>38</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>26</v>
@@ -6738,7 +6757,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>4</v>
@@ -6764,7 +6783,7 @@
         <v>49</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F4" s="22" t="s">
         <v>27</v>
@@ -6794,7 +6813,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G5" s="39"/>
       <c r="H5" s="41" t="s">
@@ -6819,7 +6838,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="42" t="s">
@@ -6844,11 +6863,11 @@
         <v>3</v>
       </c>
       <c r="F7" s="43" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G7" s="43"/>
       <c r="H7" s="45" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -6869,11 +6888,11 @@
         <v>1</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G8" s="39"/>
       <c r="H8" s="41" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -6894,11 +6913,11 @@
         <v>2</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="42" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6919,11 +6938,11 @@
         <v>3</v>
       </c>
       <c r="F10" s="43" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="G10" s="43"/>
       <c r="H10" s="45" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -6944,11 +6963,11 @@
         <v>1</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="G11" s="39"/>
       <c r="H11" s="41" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -6969,11 +6988,11 @@
         <v>2</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="42" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6994,11 +7013,11 @@
         <v>3</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G13" s="43"/>
       <c r="H13" s="45" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -7010,7 +7029,7 @@
         <v>원서폿/일반</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D14" s="40">
         <v>2</v>
@@ -7019,11 +7038,11 @@
         <v>1</v>
       </c>
       <c r="F14" s="39" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="G14" s="39"/>
       <c r="H14" s="41" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -7035,7 +7054,7 @@
         <v>원서폿/스킬1/전방 방어력 감소(20%)</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D15" s="21">
         <v>2</v>
@@ -7044,11 +7063,11 @@
         <v>2</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="42" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -7060,7 +7079,7 @@
         <v>원서폿/스킬2/대미지 (공격력 120%)</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D16" s="51">
         <v>2</v>
@@ -7069,11 +7088,11 @@
         <v>3</v>
       </c>
       <c r="F16" s="50" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="G16" s="50"/>
       <c r="H16" s="52" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -7085,7 +7104,7 @@
         <v>원힐/일반</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D17" s="40">
         <v>2</v>
@@ -7094,11 +7113,11 @@
         <v>1</v>
       </c>
       <c r="F17" s="39" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="G17" s="39"/>
       <c r="H17" s="41" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -7119,11 +7138,11 @@
         <v>2</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="53" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -7144,11 +7163,11 @@
         <v>3</v>
       </c>
       <c r="F19" s="43" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="G19" s="37"/>
       <c r="H19" s="54" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -7160,7 +7179,7 @@
         <v>원딜/일반</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D20" s="40">
         <v>2</v>
@@ -7169,11 +7188,11 @@
         <v>1</v>
       </c>
       <c r="F20" s="39" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="G20" s="39"/>
       <c r="H20" s="41" t="s">
-        <v>95</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -7182,7 +7201,7 @@
       </c>
       <c r="B21" s="20" t="str">
         <f>VLOOKUP(A21,pc_skill_data!$B:$C,2,)</f>
-        <v>원딜/대미지/공격력 감소(15%)</v>
+        <v>원딜/전방/공격력 감소(15%)</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>122</v>
@@ -7194,11 +7213,11 @@
         <v>2</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="41" t="s">
-        <v>95</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -7207,7 +7226,7 @@
       </c>
       <c r="B22" s="43" t="str">
         <f>VLOOKUP(A22,pc_skill_data!$B:$C,2,)</f>
-        <v>원딜/스킬2/대미지 (스킬 대미지 120%)</v>
+        <v>원딜/스킬2/대미지 (스킬 대미지 130%)</v>
       </c>
       <c r="C22" s="37" t="s">
         <v>123</v>
@@ -7219,11 +7238,11 @@
         <v>3</v>
       </c>
       <c r="F22" s="43" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="G22" s="37"/>
       <c r="H22" s="54" t="s">
-        <v>95</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -7246,13 +7265,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00F7AA3-FB12-454D-93A6-31450B9003EC}">
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7274,12 +7293,13 @@
     <col min="17" max="17" width="18" customWidth="1"/>
     <col min="18" max="18" width="19" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.875" customWidth="1"/>
-    <col min="21" max="21" width="69.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="19.25" customWidth="1"/>
+    <col min="22" max="22" width="10.875" customWidth="1"/>
+    <col min="23" max="23" width="69.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -7300,8 +7320,10 @@
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
       <c r="S1" s="6"/>
-    </row>
-    <row r="2" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+    </row>
+    <row r="2" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -7327,7 +7349,7 @@
         <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>90</v>
@@ -7339,16 +7361,16 @@
         <v>99</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>85</v>
@@ -7360,16 +7382,22 @@
         <v>71</v>
       </c>
       <c r="T2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
@@ -7407,7 +7435,7 @@
         <v>8</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="N3" s="12" t="s">
         <v>4</v>
@@ -7428,16 +7456,22 @@
         <v>72</v>
       </c>
       <c r="T3" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="V3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="W3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="X3" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="22" t="s">
         <v>2</v>
       </c>
@@ -7463,7 +7497,7 @@
         <v>16</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="J4" s="22" t="s">
         <v>91</v>
@@ -7475,16 +7509,16 @@
         <v>41</v>
       </c>
       <c r="M4" s="22" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="N4" s="22" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="P4" s="22" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="Q4" s="22" t="s">
         <v>84</v>
@@ -7496,16 +7530,22 @@
         <v>74</v>
       </c>
       <c r="T4" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="U4" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="V4" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="U4" s="22" t="s">
+      <c r="W4" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="V4" s="22" t="s">
+      <c r="X4" s="22" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="31">
         <v>100001</v>
       </c>
@@ -7513,7 +7553,7 @@
         <v>100001</v>
       </c>
       <c r="C5" s="64" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D5" s="25">
         <v>1</v>
@@ -7566,15 +7606,21 @@
       <c r="S5" s="32">
         <v>0</v>
       </c>
-      <c r="T5" s="32" t="s">
+      <c r="T5" s="32">
+        <v>0</v>
+      </c>
+      <c r="U5" s="32">
+        <v>0</v>
+      </c>
+      <c r="V5" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="U5" s="32"/>
-      <c r="V5" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W5" s="32"/>
+      <c r="X5" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="34">
         <v>100002</v>
       </c>
@@ -7582,7 +7628,7 @@
         <v>100002</v>
       </c>
       <c r="C6" s="65" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D6" s="7">
         <v>0</v>
@@ -7635,15 +7681,21 @@
       <c r="S6" s="4">
         <v>0</v>
       </c>
-      <c r="T6" s="4" t="s">
+      <c r="T6" s="4">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4">
+        <v>0</v>
+      </c>
+      <c r="V6" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="U6" s="4"/>
-      <c r="V6" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W6" s="4"/>
+      <c r="X6" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="36">
         <v>100003</v>
       </c>
@@ -7651,7 +7703,7 @@
         <v>100003</v>
       </c>
       <c r="C7" s="66" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D7" s="29">
         <v>1</v>
@@ -7704,15 +7756,21 @@
       <c r="S7" s="37">
         <v>0</v>
       </c>
-      <c r="T7" s="37" t="s">
+      <c r="T7" s="37">
+        <v>0</v>
+      </c>
+      <c r="U7" s="37">
+        <v>0</v>
+      </c>
+      <c r="V7" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="U7" s="37"/>
-      <c r="V7" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W7" s="37"/>
+      <c r="X7" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="31">
         <v>100101</v>
       </c>
@@ -7720,7 +7778,7 @@
         <v>100101</v>
       </c>
       <c r="C8" s="64" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D8" s="25">
         <v>1</v>
@@ -7773,15 +7831,21 @@
       <c r="S8" s="32">
         <v>0</v>
       </c>
-      <c r="T8" s="32" t="s">
+      <c r="T8" s="32">
+        <v>0</v>
+      </c>
+      <c r="U8" s="32">
+        <v>0</v>
+      </c>
+      <c r="V8" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="U8" s="32"/>
-      <c r="V8" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W8" s="32"/>
+      <c r="X8" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="34">
         <v>100102</v>
       </c>
@@ -7789,7 +7853,7 @@
         <v>100102</v>
       </c>
       <c r="C9" s="65" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D9" s="7">
         <v>0</v>
@@ -7842,15 +7906,21 @@
       <c r="S9" s="4">
         <v>500002</v>
       </c>
-      <c r="T9" s="4" t="s">
+      <c r="T9" s="4">
+        <v>0</v>
+      </c>
+      <c r="U9" s="4">
+        <v>0</v>
+      </c>
+      <c r="V9" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="U9" s="4"/>
-      <c r="V9" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W9" s="4"/>
+      <c r="X9" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="36">
         <v>100103</v>
       </c>
@@ -7858,7 +7928,7 @@
         <v>100103</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D10" s="29">
         <v>1</v>
@@ -7911,15 +7981,21 @@
       <c r="S10" s="37">
         <v>0</v>
       </c>
-      <c r="T10" s="37" t="s">
+      <c r="T10" s="37">
+        <v>0</v>
+      </c>
+      <c r="U10" s="37">
+        <v>0</v>
+      </c>
+      <c r="V10" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="U10" s="37"/>
-      <c r="V10" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W10" s="37"/>
+      <c r="X10" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="31">
         <v>100201</v>
       </c>
@@ -7927,7 +8003,7 @@
         <v>100201</v>
       </c>
       <c r="C11" s="64" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D11" s="25">
         <v>1</v>
@@ -7980,15 +8056,21 @@
       <c r="S11" s="32">
         <v>0</v>
       </c>
-      <c r="T11" s="32" t="s">
+      <c r="T11" s="32">
+        <v>0</v>
+      </c>
+      <c r="U11" s="32">
+        <v>0</v>
+      </c>
+      <c r="V11" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="U11" s="32"/>
-      <c r="V11" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W11" s="32"/>
+      <c r="X11" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="34">
         <v>100202</v>
       </c>
@@ -7996,7 +8078,7 @@
         <v>100202</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D12" s="7">
         <v>1</v>
@@ -8049,15 +8131,21 @@
       <c r="S12" s="4">
         <v>0</v>
       </c>
-      <c r="T12" s="4" t="s">
+      <c r="T12" s="4">
+        <v>0</v>
+      </c>
+      <c r="U12" s="4">
+        <v>0</v>
+      </c>
+      <c r="V12" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="U12" s="4"/>
-      <c r="V12" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W12" s="4"/>
+      <c r="X12" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="36">
         <v>100203</v>
       </c>
@@ -8065,7 +8153,7 @@
         <v>100203</v>
       </c>
       <c r="C13" s="66" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D13" s="29">
         <v>1</v>
@@ -8081,10 +8169,10 @@
         <v>0</v>
       </c>
       <c r="H13" s="29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I13" s="29">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J13" s="29">
         <v>0</v>
@@ -8110,7 +8198,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="29" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="R13" s="37">
         <v>100009</v>
@@ -8118,15 +8206,21 @@
       <c r="S13" s="37">
         <v>0</v>
       </c>
-      <c r="T13" s="37" t="s">
+      <c r="T13" s="37">
+        <v>0</v>
+      </c>
+      <c r="U13" s="37">
+        <v>0</v>
+      </c>
+      <c r="V13" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="U13" s="37"/>
-      <c r="V13" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W13" s="37"/>
+      <c r="X13" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="31">
         <v>100301</v>
       </c>
@@ -8134,7 +8228,7 @@
         <v>100301</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D14" s="25">
         <v>1</v>
@@ -8187,17 +8281,23 @@
       <c r="S14" s="32">
         <v>0</v>
       </c>
-      <c r="T14" s="32" t="s">
+      <c r="T14" s="32">
+        <v>0</v>
+      </c>
+      <c r="U14" s="32">
+        <v>0</v>
+      </c>
+      <c r="V14" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="U14" s="32" t="s">
+      <c r="W14" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="V14" s="63">
+      <c r="X14" s="63">
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="34">
         <v>100302</v>
       </c>
@@ -8205,7 +8305,7 @@
         <v>100302</v>
       </c>
       <c r="C15" s="65" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D15" s="7">
         <v>1</v>
@@ -8258,17 +8358,23 @@
       <c r="S15" s="4">
         <v>500006</v>
       </c>
-      <c r="T15" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="U15" s="4" t="s">
+      <c r="T15" s="4">
+        <v>0</v>
+      </c>
+      <c r="U15" s="4">
+        <v>0</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W15" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="V15" s="53">
+      <c r="X15" s="53">
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="36">
         <v>100303</v>
       </c>
@@ -8276,7 +8382,7 @@
         <v>100303</v>
       </c>
       <c r="C16" s="66" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D16" s="29">
         <v>1</v>
@@ -8329,17 +8435,23 @@
       <c r="S16" s="37">
         <v>0</v>
       </c>
-      <c r="T16" s="37" t="s">
+      <c r="T16" s="37">
+        <v>0</v>
+      </c>
+      <c r="U16" s="37">
+        <v>0</v>
+      </c>
+      <c r="V16" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="U16" s="37" t="s">
+      <c r="W16" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="V16" s="54">
+      <c r="X16" s="54">
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="31">
         <v>100401</v>
       </c>
@@ -8347,7 +8459,7 @@
         <v>100401</v>
       </c>
       <c r="C17" s="64" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D17" s="25">
         <v>1</v>
@@ -8400,17 +8512,23 @@
       <c r="S17" s="32">
         <v>0</v>
       </c>
-      <c r="T17" s="32" t="s">
+      <c r="T17" s="32">
+        <v>0</v>
+      </c>
+      <c r="U17" s="32">
+        <v>0</v>
+      </c>
+      <c r="V17" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="U17" s="32" t="s">
+      <c r="W17" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="V17" s="63">
+      <c r="X17" s="63">
         <v>0.3</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="34">
         <v>100402</v>
       </c>
@@ -8418,7 +8536,7 @@
         <v>100402</v>
       </c>
       <c r="C18" s="65" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D18" s="7">
         <v>0</v>
@@ -8471,17 +8589,23 @@
       <c r="S18" s="4">
         <v>0</v>
       </c>
-      <c r="T18" s="4" t="s">
+      <c r="T18" s="4">
+        <v>0</v>
+      </c>
+      <c r="U18" s="4">
+        <v>0</v>
+      </c>
+      <c r="V18" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="U18" s="4" t="s">
+      <c r="W18" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="V18" s="53">
+      <c r="X18" s="53">
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="36">
         <v>100403</v>
       </c>
@@ -8489,7 +8613,7 @@
         <v>100403</v>
       </c>
       <c r="C19" s="66" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D19" s="29">
         <v>1</v>
@@ -8542,17 +8666,23 @@
       <c r="S19" s="37">
         <v>0</v>
       </c>
-      <c r="T19" s="37" t="s">
+      <c r="T19" s="37">
+        <v>0</v>
+      </c>
+      <c r="U19" s="37">
+        <v>0</v>
+      </c>
+      <c r="V19" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="U19" s="37" t="s">
+      <c r="W19" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="V19" s="54">
+      <c r="X19" s="54">
         <v>0.3</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="31">
         <v>100501</v>
       </c>
@@ -8560,7 +8690,7 @@
         <v>100501</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D20" s="25">
         <v>1</v>
@@ -8613,17 +8743,23 @@
       <c r="S20" s="32">
         <v>0</v>
       </c>
-      <c r="T20" s="32" t="s">
+      <c r="T20" s="32">
+        <v>0</v>
+      </c>
+      <c r="U20" s="32">
+        <v>0</v>
+      </c>
+      <c r="V20" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="U20" s="32" t="s">
+      <c r="W20" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="V20" s="63">
+      <c r="X20" s="63">
         <v>0.3</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="34">
         <v>100502</v>
       </c>
@@ -8631,7 +8767,7 @@
         <v>100502</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>140</v>
+        <v>183</v>
       </c>
       <c r="D21" s="7">
         <v>1</v>
@@ -8679,22 +8815,28 @@
         <v>100</v>
       </c>
       <c r="R21" s="4">
-        <v>100016</v>
+        <v>0</v>
       </c>
       <c r="S21" s="4">
         <v>500005</v>
       </c>
-      <c r="T21" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="U21" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="V21" s="53">
+      <c r="T21" s="4">
+        <v>0</v>
+      </c>
+      <c r="U21" s="4">
+        <v>0</v>
+      </c>
+      <c r="V21" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W21" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="X21" s="53">
         <v>0.3</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="36">
         <v>100503</v>
       </c>
@@ -8702,7 +8844,7 @@
         <v>100503</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>139</v>
+        <v>182</v>
       </c>
       <c r="D22" s="29">
         <v>1</v>
@@ -8724,30 +8866,30 @@
         <v>0</v>
       </c>
       <c r="J22" s="29">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K22" s="30" t="str">
         <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J22,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>투사체를 타겟의 몸에 던진다</v>
+        <v>타겟의 몸에서 즉시 효과 발동</v>
       </c>
       <c r="L22" s="29">
         <v>0</v>
       </c>
       <c r="M22" s="37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N22" s="37" t="str">
         <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M22,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
-        <v>NONE</v>
+        <v>타겟 뒤로 지정 반경내에 감지되는 타겟 검사</v>
       </c>
       <c r="O22" s="37">
         <v>0</v>
       </c>
       <c r="P22" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="29">
-        <v>100</v>
+        <v>10</v>
+      </c>
+      <c r="Q22" s="29" t="s">
+        <v>102</v>
       </c>
       <c r="R22" s="37">
         <v>100017</v>
@@ -8755,13 +8897,17 @@
       <c r="S22" s="37">
         <v>0</v>
       </c>
-      <c r="T22" s="37" t="s">
+      <c r="T22" s="37">
+        <v>100018</v>
+      </c>
+      <c r="U22" s="37">
+        <v>0</v>
+      </c>
+      <c r="V22" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="U22" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="V22" s="54">
+      <c r="W22" s="37"/>
+      <c r="X22" s="54">
         <v>0.3</v>
       </c>
     </row>
@@ -8804,10 +8950,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BD63B1-FF99-405E-A3D0-90C5E747D8DE}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8815,15 +8961,14 @@
     <col min="1" max="1" width="26.125" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="26.125" customWidth="1"/>
     <col min="6" max="6" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.375" customWidth="1"/>
-    <col min="8" max="8" width="22.375" customWidth="1"/>
-    <col min="9" max="9" width="45.25" customWidth="1"/>
-    <col min="10" max="10" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="67.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.375" customWidth="1"/>
+    <col min="8" max="8" width="45.25" customWidth="1"/>
+    <col min="9" max="9" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="67.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>50</v>
       </c>
@@ -8832,9 +8977,8 @@
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>54</v>
       </c>
@@ -8854,28 +8998,25 @@
         <v>99</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>154</v>
+        <v>31</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="M2" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
@@ -8895,28 +9036,25 @@
         <v>8</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>0</v>
+      <c r="I3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="K3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="22" t="s">
         <v>51</v>
       </c>
@@ -8936,28 +9074,25 @@
         <v>41</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>155</v>
+        <v>33</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="M4" s="22" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="31">
         <v>100001</v>
       </c>
@@ -8978,28 +9113,27 @@
       <c r="F5" s="25">
         <v>0</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25">
+      <c r="G5" s="25">
         <v>101</v>
       </c>
-      <c r="I5" s="59" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(H5,'!참조_ENUM'!$F$3:$F$13,0))</f>
+      <c r="H5" s="59" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G5,'!참조_ENUM'!$F$3:$F$13,0))</f>
         <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
       </c>
-      <c r="J5" s="32">
-        <v>0</v>
-      </c>
-      <c r="K5" s="25">
+      <c r="I5" s="32">
+        <v>0</v>
+      </c>
+      <c r="J5" s="25">
         <v>1</v>
       </c>
-      <c r="L5" s="32" t="s">
+      <c r="K5" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="M5" s="33">
+      <c r="L5" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="34">
         <v>100002</v>
       </c>
@@ -9020,28 +9154,27 @@
       <c r="F6" s="7">
         <v>0</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7">
+      <c r="G6" s="7">
         <v>101</v>
       </c>
-      <c r="I6" s="60" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(H6,'!참조_ENUM'!$F$3:$F$13,0))</f>
+      <c r="H6" s="60" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G6,'!참조_ENUM'!$F$3:$F$13,0))</f>
         <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
       </c>
-      <c r="J6" s="4">
-        <v>0</v>
-      </c>
-      <c r="K6" s="7">
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
         <v>1.2</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="M6" s="35">
+      <c r="L6" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="36">
         <v>100003</v>
       </c>
@@ -9062,28 +9195,27 @@
       <c r="F7" s="29">
         <v>0</v>
       </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29">
+      <c r="G7" s="29">
         <v>300</v>
       </c>
-      <c r="I7" s="61" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(H7,'!참조_ENUM'!$F$3:$F$13,0))</f>
+      <c r="H7" s="61" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G7,'!참조_ENUM'!$F$3:$F$13,0))</f>
         <v>최대 체력을 기준으로 계산을 하기 위한 수치</v>
       </c>
-      <c r="J7" s="37">
-        <v>0</v>
-      </c>
-      <c r="K7" s="29">
+      <c r="I7" s="37">
+        <v>0</v>
+      </c>
+      <c r="J7" s="29">
         <v>0.1</v>
       </c>
-      <c r="L7" s="37" t="s">
+      <c r="K7" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="M7" s="38">
+      <c r="L7" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="31">
         <v>100004</v>
       </c>
@@ -9104,28 +9236,27 @@
       <c r="F8" s="25">
         <v>0</v>
       </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25">
+      <c r="G8" s="25">
         <v>101</v>
       </c>
-      <c r="I8" s="59" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(H8,'!참조_ENUM'!$F$3:$F$13,0))</f>
+      <c r="H8" s="59" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G8,'!참조_ENUM'!$F$3:$F$13,0))</f>
         <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
       </c>
-      <c r="J8" s="32">
-        <v>0</v>
-      </c>
-      <c r="K8" s="25">
+      <c r="I8" s="32">
+        <v>0</v>
+      </c>
+      <c r="J8" s="25">
         <v>1</v>
       </c>
-      <c r="L8" s="32" t="s">
+      <c r="K8" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="M8" s="33">
+      <c r="L8" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="34">
         <v>100005</v>
       </c>
@@ -9146,28 +9277,27 @@
       <c r="F9" s="7">
         <v>0</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7">
+      <c r="G9" s="7">
         <v>101</v>
       </c>
-      <c r="I9" s="60" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(H9,'!참조_ENUM'!$F$3:$F$13,0))</f>
+      <c r="H9" s="60" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G9,'!참조_ENUM'!$F$3:$F$13,0))</f>
         <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
       </c>
-      <c r="J9" s="4">
-        <v>0</v>
-      </c>
-      <c r="K9" s="7">
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="K9" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="M9" s="35">
+      <c r="L9" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="36">
         <v>100006</v>
       </c>
@@ -9188,28 +9318,27 @@
       <c r="F10" s="29">
         <v>0</v>
       </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29">
+      <c r="G10" s="29">
         <v>101</v>
       </c>
-      <c r="I10" s="61" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(H10,'!참조_ENUM'!$F$3:$F$13,0))</f>
+      <c r="H10" s="61" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G10,'!참조_ENUM'!$F$3:$F$13,0))</f>
         <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
       </c>
-      <c r="J10" s="37">
-        <v>0</v>
-      </c>
-      <c r="K10" s="29">
+      <c r="I10" s="37">
+        <v>0</v>
+      </c>
+      <c r="J10" s="29">
         <v>1.3</v>
       </c>
-      <c r="L10" s="37" t="s">
+      <c r="K10" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="M10" s="38">
+      <c r="L10" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="31">
         <v>100007</v>
       </c>
@@ -9230,28 +9359,27 @@
       <c r="F11" s="25">
         <v>0</v>
       </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25">
+      <c r="G11" s="25">
         <v>101</v>
       </c>
-      <c r="I11" s="59" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(H11,'!참조_ENUM'!$F$3:$F$13,0))</f>
+      <c r="H11" s="59" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G11,'!참조_ENUM'!$F$3:$F$13,0))</f>
         <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
       </c>
-      <c r="J11" s="32">
-        <v>0</v>
-      </c>
-      <c r="K11" s="25">
+      <c r="I11" s="32">
+        <v>0</v>
+      </c>
+      <c r="J11" s="25">
         <v>1</v>
       </c>
-      <c r="L11" s="32" t="s">
+      <c r="K11" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="M11" s="33">
+      <c r="L11" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="34">
         <v>100008</v>
       </c>
@@ -9272,28 +9400,27 @@
       <c r="F12" s="7">
         <v>0</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7">
+      <c r="G12" s="7">
         <v>101</v>
       </c>
-      <c r="I12" s="60" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(H12,'!참조_ENUM'!$F$3:$F$13,0))</f>
+      <c r="H12" s="60" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G12,'!참조_ENUM'!$F$3:$F$13,0))</f>
         <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
       </c>
-      <c r="J12" s="4">
-        <v>0</v>
-      </c>
-      <c r="K12" s="7">
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
         <v>1.2</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="K12" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="M12" s="35">
+      <c r="L12" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="48">
         <v>100009</v>
       </c>
@@ -9314,28 +9441,27 @@
       <c r="F13" s="46">
         <v>0</v>
       </c>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46">
+      <c r="G13" s="46">
         <v>101</v>
       </c>
-      <c r="I13" s="62" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(H13,'!참조_ENUM'!$F$3:$F$13,0))</f>
+      <c r="H13" s="62" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G13,'!참조_ENUM'!$F$3:$F$13,0))</f>
         <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
       </c>
-      <c r="J13" s="47">
-        <v>0</v>
-      </c>
-      <c r="K13" s="46">
+      <c r="I13" s="47">
+        <v>0</v>
+      </c>
+      <c r="J13" s="46">
         <v>0.8</v>
       </c>
-      <c r="L13" s="47" t="s">
-        <v>178</v>
-      </c>
-      <c r="M13" s="49">
+      <c r="K13" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="L13" s="49">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="31">
         <v>100010</v>
       </c>
@@ -9356,28 +9482,27 @@
       <c r="F14" s="25">
         <v>0</v>
       </c>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25">
+      <c r="G14" s="25">
         <v>101</v>
       </c>
-      <c r="I14" s="59" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(H14,'!참조_ENUM'!$F$3:$F$13,0))</f>
+      <c r="H14" s="59" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G14,'!참조_ENUM'!$F$3:$F$13,0))</f>
         <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
       </c>
-      <c r="J14" s="32">
-        <v>0</v>
-      </c>
-      <c r="K14" s="25">
+      <c r="I14" s="32">
+        <v>0</v>
+      </c>
+      <c r="J14" s="25">
         <v>1</v>
       </c>
-      <c r="L14" s="32" t="s">
+      <c r="K14" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="M14" s="33">
+      <c r="L14" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="48">
         <v>100011</v>
       </c>
@@ -9398,28 +9523,27 @@
       <c r="F15" s="46">
         <v>0</v>
       </c>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46">
+      <c r="G15" s="46">
         <v>101</v>
       </c>
-      <c r="I15" s="62" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(H15,'!참조_ENUM'!$F$3:$F$13,0))</f>
+      <c r="H15" s="62" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G15,'!참조_ENUM'!$F$3:$F$13,0))</f>
         <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
       </c>
-      <c r="J15" s="47">
-        <v>0</v>
-      </c>
-      <c r="K15" s="46">
+      <c r="I15" s="47">
+        <v>0</v>
+      </c>
+      <c r="J15" s="46">
         <v>1.2</v>
       </c>
-      <c r="L15" s="47" t="s">
+      <c r="K15" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="M15" s="49">
+      <c r="L15" s="49">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="31">
         <v>100012</v>
       </c>
@@ -9440,28 +9564,27 @@
       <c r="F16" s="25">
         <v>0</v>
       </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25">
+      <c r="G16" s="25">
         <v>101</v>
       </c>
-      <c r="I16" s="59" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(H16,'!참조_ENUM'!$F$3:$F$13,0))</f>
+      <c r="H16" s="59" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G16,'!참조_ENUM'!$F$3:$F$13,0))</f>
         <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
       </c>
-      <c r="J16" s="32">
-        <v>0</v>
-      </c>
-      <c r="K16" s="25">
+      <c r="I16" s="32">
+        <v>0</v>
+      </c>
+      <c r="J16" s="25">
         <v>1</v>
       </c>
-      <c r="L16" s="32" t="s">
+      <c r="K16" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="M16" s="33">
+      <c r="L16" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="34">
         <v>100013</v>
       </c>
@@ -9482,28 +9605,27 @@
       <c r="F17" s="7">
         <v>0</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7">
+      <c r="G17" s="7">
         <v>300</v>
       </c>
-      <c r="I17" s="60" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(H17,'!참조_ENUM'!$F$3:$F$13,0))</f>
+      <c r="H17" s="60" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G17,'!참조_ENUM'!$F$3:$F$13,0))</f>
         <v>최대 체력을 기준으로 계산을 하기 위한 수치</v>
       </c>
-      <c r="J17" s="4">
-        <v>0</v>
-      </c>
-      <c r="K17" s="7">
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7">
         <v>0.3</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="K17" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="M17" s="35">
+      <c r="L17" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="36">
         <v>100014</v>
       </c>
@@ -9524,28 +9646,27 @@
       <c r="F18" s="29">
         <v>0</v>
       </c>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29">
+      <c r="G18" s="29">
         <v>101</v>
       </c>
-      <c r="I18" s="61" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(H18,'!참조_ENUM'!$F$3:$F$13,0))</f>
+      <c r="H18" s="61" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G18,'!참조_ENUM'!$F$3:$F$13,0))</f>
         <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
       </c>
-      <c r="J18" s="37">
-        <v>0</v>
-      </c>
-      <c r="K18" s="29">
+      <c r="I18" s="37">
+        <v>0</v>
+      </c>
+      <c r="J18" s="29">
         <v>1.2</v>
       </c>
-      <c r="L18" s="37" t="s">
+      <c r="K18" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="M18" s="38">
+      <c r="L18" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="67">
         <v>100015</v>
       </c>
@@ -9566,28 +9687,27 @@
       <c r="F19" s="68">
         <v>0</v>
       </c>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68">
+      <c r="G19" s="68">
         <v>101</v>
       </c>
-      <c r="I19" s="69" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(H19,'!참조_ENUM'!$F$3:$F$13,0))</f>
+      <c r="H19" s="69" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G19,'!참조_ENUM'!$F$3:$F$13,0))</f>
         <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
       </c>
-      <c r="J19" s="71">
-        <v>0</v>
-      </c>
-      <c r="K19" s="68">
+      <c r="I19" s="71">
+        <v>0</v>
+      </c>
+      <c r="J19" s="68">
         <v>1</v>
       </c>
-      <c r="L19" s="71" t="s">
+      <c r="K19" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="M19" s="72">
+      <c r="L19" s="72">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="36">
         <v>100016</v>
       </c>
@@ -9608,28 +9728,27 @@
       <c r="F20" s="29">
         <v>0</v>
       </c>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29">
+      <c r="G20" s="29">
         <v>101</v>
       </c>
-      <c r="I20" s="61" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(H20,'!참조_ENUM'!$F$3:$F$13,0))</f>
+      <c r="H20" s="61" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G20,'!참조_ENUM'!$F$3:$F$13,0))</f>
         <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
       </c>
-      <c r="J20" s="37">
-        <v>0</v>
-      </c>
-      <c r="K20" s="29">
+      <c r="I20" s="37">
+        <v>0</v>
+      </c>
+      <c r="J20" s="29">
         <v>1.2</v>
       </c>
-      <c r="L20" s="37" t="s">
+      <c r="K20" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="M20" s="38">
+      <c r="L20" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="36">
         <v>100017</v>
       </c>
@@ -9650,24 +9769,64 @@
       <c r="F21" s="29">
         <v>0</v>
       </c>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29">
-        <v>900</v>
-      </c>
-      <c r="I21" s="61" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(H21,'!참조_ENUM'!$F$3:$F$13,0))</f>
-        <v>피해량을 기준으로 계산을 하기 위한 수치</v>
-      </c>
-      <c r="J21" s="37">
-        <v>0</v>
-      </c>
-      <c r="K21" s="29">
-        <v>0.2</v>
-      </c>
-      <c r="L21" s="37" t="s">
+      <c r="G21" s="29">
+        <v>101</v>
+      </c>
+      <c r="H21" s="61" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G21,'!참조_ENUM'!$F$3:$F$13,0))</f>
+        <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
+      </c>
+      <c r="I21" s="37">
+        <v>0</v>
+      </c>
+      <c r="J21" s="29">
+        <v>1.3</v>
+      </c>
+      <c r="K21" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="L21" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="36">
+        <v>100018</v>
+      </c>
+      <c r="B22" s="29">
+        <v>1</v>
+      </c>
+      <c r="C22" s="61" t="str">
+        <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B22,'!참조_ENUM'!$R$3:$R$5,0))</f>
+        <v>데미지를 준다</v>
+      </c>
+      <c r="D22" s="29">
+        <v>12</v>
+      </c>
+      <c r="E22" s="57" t="str">
+        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D22,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
+        <v>타겟의 몸에서 즉시 효과 발동</v>
+      </c>
+      <c r="F22" s="29">
+        <v>0</v>
+      </c>
+      <c r="G22" s="29">
+        <v>101</v>
+      </c>
+      <c r="H22" s="61" t="str">
+        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G22,'!참조_ENUM'!$F$3:$F$13,0))</f>
+        <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
+      </c>
+      <c r="I22" s="37">
+        <v>0</v>
+      </c>
+      <c r="J22" s="29">
+        <v>1.3</v>
+      </c>
+      <c r="K22" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="M21" s="38">
+      <c r="L22" s="38">
         <v>1</v>
       </c>
     </row>
@@ -9681,19 +9840,19 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$F$3:$F$13</xm:f>
           </x14:formula1>
-          <xm:sqref>H5:H21</xm:sqref>
+          <xm:sqref>G5:G22</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8C92E819-2566-4A2E-BB43-DD2CB1F67832}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$R$3:$R$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B5:B21</xm:sqref>
+          <xm:sqref>B5:B22</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{313F4E1E-DD72-4BA8-832D-BEE9A5897A8D}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$AD$3:$AD$10</xm:f>
           </x14:formula1>
-          <xm:sqref>D5:D21</xm:sqref>
+          <xm:sqref>D5:D22</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9706,7 +9865,7 @@
   <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10058,7 +10217,7 @@
         <v>10000</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T6" s="4">
         <v>0</v>
@@ -10127,7 +10286,7 @@
         <v>10000</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="T7" s="4">
         <v>0</v>
@@ -10196,7 +10355,7 @@
         <v>10000</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T8" s="4">
         <v>0</v>
@@ -10265,7 +10424,7 @@
         <v>5000</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="T9" s="4">
         <v>0</v>
@@ -10334,7 +10493,7 @@
         <v>5000</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="T10" s="4">
         <v>0</v>

--- a/Android/ExcelData/PCSkillTable.xlsx
+++ b/Android/ExcelData/PCSkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D240017-966E-4CE9-B908-DA6C2A29BE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A8EDBB-8BDA-48A8-B390-C4D5ABC586C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
@@ -2916,8 +2916,8 @@
       <sheetName val="@item_type"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="1">
           <cell r="A1" t="str">
@@ -4065,9 +4065,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
       <sheetData sheetId="10">
         <row r="1">
           <cell r="A1" t="str">
@@ -4466,9 +4466,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7271,7 +7271,7 @@
       <pane xSplit="3" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="V22" sqref="V22"/>
+      <selection pane="bottomRight" activeCell="W28" sqref="W28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Android/ExcelData/PCSkillTable.xlsx
+++ b/Android/ExcelData/PCSkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A8EDBB-8BDA-48A8-B390-C4D5ABC586C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4123D95-3CA0-4A53-9832-559B6F839886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -1524,7 +1524,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="211">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2263,6 +2263,75 @@
   <si>
     <t>second_target_duration_effect_ids</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</t>
+  </si>
+  <si>
+    <t>1 자신 선택</t>
+  </si>
+  <si>
+    <t>10 가장 가까운 적 우선 선택(순번 컬럼 연동하여 순서대로) 후 일정 영역내의(주변) 타겟의 추가 선택</t>
+  </si>
+  <si>
+    <t>3002 남은 체력 비율이 가장 낮은 타겟 선택</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>2 투사체를 타겟의 몸에 던진다</t>
+  </si>
+  <si>
+    <t>12 타겟의 몸에서 즉시 효과 발동</t>
+  </si>
+  <si>
+    <t>1 타겟 뒤로 지정 반경내에 감지되는 타겟 검사</t>
+  </si>
+  <si>
+    <t>1 데미지를 준다</t>
+  </si>
+  <si>
+    <t>2 체력 회복</t>
+  </si>
+  <si>
+    <t>101 공격력을 기준으로 배율 계산을 하기 위한 수치</t>
+  </si>
+  <si>
+    <t>300 최대 체력을 기준으로 계산을 하기 위한 수치</t>
+  </si>
+  <si>
+    <t>1 피해 감소</t>
+  </si>
+  <si>
+    <t>106 공격력 증가</t>
+  </si>
+  <si>
+    <t>107 방어력 증가</t>
+  </si>
+  <si>
+    <t>108 공격력 감소</t>
+  </si>
+  <si>
+    <t>109 방어력 감소</t>
+  </si>
+  <si>
+    <t>105 빙결</t>
+  </si>
+  <si>
+    <t>2 피격 횟수 제한</t>
+  </si>
+  <si>
+    <t>1 시간 지속</t>
+  </si>
+  <si>
+    <t>11 타겟의 발 밑에서 즉시 효과 발동</t>
+  </si>
+  <si>
+    <t>900 피해량을 기준으로 계산을 하기 위한 수치</t>
+  </si>
+  <si>
+    <t>200 방어력을 기준으로 계산을 하기 위한 수치</t>
   </si>
 </sst>
 </file>
@@ -2652,7 +2721,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2684,9 +2753,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2872,6 +2938,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2897,9 +2972,13 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="@tribe"/>
+      <sheetName val="@stage"/>
       <sheetName val="@position"/>
+      <sheetName val="@role"/>
       <sheetName val="@npc"/>
       <sheetName val="@target_rule"/>
+      <sheetName val="@character_sort"/>
+      <sheetName val="@stage_common"/>
       <sheetName val="@second_target_rule"/>
       <sheetName val="@effect"/>
       <sheetName val="@stat"/>
@@ -2918,14 +2997,10 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>NPC_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
         <row r="1">
           <cell r="A1" t="str">
             <v>TARGET_RULE_TYPE</v>
@@ -2950,7 +3025,7 @@
             <v>0</v>
           </cell>
           <cell r="C4" t="str">
-            <v>임의 타겟 선택</v>
+            <v>0 임의 타겟 선택</v>
           </cell>
         </row>
         <row r="5">
@@ -2961,7 +3036,7 @@
             <v>1</v>
           </cell>
           <cell r="C5" t="str">
-            <v>자신 선택</v>
+            <v>1 자신 선택</v>
           </cell>
         </row>
         <row r="6">
@@ -2972,7 +3047,7 @@
             <v>2</v>
           </cell>
           <cell r="C6" t="str">
-            <v>전체 선택</v>
+            <v>2 전체 선택</v>
           </cell>
         </row>
         <row r="7">
@@ -2983,7 +3058,7 @@
             <v>3</v>
           </cell>
           <cell r="C7" t="str">
-            <v>자신을 제외한 아군 전체 선택</v>
+            <v>3 자신을 제외한 아군 전체 선택</v>
           </cell>
         </row>
         <row r="8">
@@ -2994,7 +3069,7 @@
             <v>4</v>
           </cell>
           <cell r="C8" t="str">
-            <v>자신을 제외한 가장 가까운 아군 선택</v>
+            <v>4 자신을 제외한 가장 가까운 아군 선택</v>
           </cell>
         </row>
         <row r="9">
@@ -3005,7 +3080,7 @@
             <v>5</v>
           </cell>
           <cell r="C9" t="str">
-            <v>자신을 제외한 가장 먼 아군 선택</v>
+            <v>5 자신을 제외한 가장 먼 아군 선택</v>
           </cell>
         </row>
         <row r="10">
@@ -3016,7 +3091,7 @@
             <v>6</v>
           </cell>
           <cell r="C10" t="str">
-            <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
+            <v>6 가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
           </cell>
         </row>
         <row r="11">
@@ -3027,7 +3102,7 @@
             <v>7</v>
           </cell>
           <cell r="C11" t="str">
-            <v>가장 거리가 먼 적 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로)</v>
+            <v>7 가장 거리가 먼 적 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로)</v>
           </cell>
         </row>
         <row r="12">
@@ -3038,7 +3113,7 @@
             <v>8</v>
           </cell>
           <cell r="C12" t="str">
-            <v>가장 가까운 적 우선 선택(순번 컬럼 연동하여 순서대로) 후 일정 영역내의 뒤에있는 타겟의 추가 선택</v>
+            <v>8 가장 가까운 적 우선 선택(순번 컬럼 연동하여 순서대로) 후 일정 영역내의 뒤에있는 타겟의 추가 선택</v>
           </cell>
         </row>
         <row r="13">
@@ -3049,7 +3124,7 @@
             <v>9</v>
           </cell>
           <cell r="C13" t="str">
-            <v>가장 거리가 먼 적 우선 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로) 후 일정 영역내의 앞에 있는 타겟 추가 선택</v>
+            <v>9 가장 거리가 먼 적 우선 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로) 후 일정 영역내의 앞에 있는 타겟 추가 선택</v>
           </cell>
         </row>
         <row r="14">
@@ -3060,7 +3135,7 @@
             <v>10</v>
           </cell>
           <cell r="C14" t="str">
-            <v>가장 가까운 적 우선 선택(순번 컬럼 연동하여 순서대로) 후 일정 영역내의(주변) 타겟의 추가 선택</v>
+            <v>10 가장 가까운 적 우선 선택(순번 컬럼 연동하여 순서대로) 후 일정 영역내의(주변) 타겟의 추가 선택</v>
           </cell>
         </row>
         <row r="15">
@@ -3071,7 +3146,7 @@
             <v>11</v>
           </cell>
           <cell r="C15" t="str">
-            <v>가장 거리가 먼 적 우선 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로) 후 일정 영역내의 (주변) 타겟 추가 선택</v>
+            <v>11 가장 거리가 먼 적 우선 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로) 후 일정 영역내의 (주변) 타겟 추가 선택</v>
           </cell>
         </row>
         <row r="16">
@@ -3082,7 +3157,7 @@
             <v>3001</v>
           </cell>
           <cell r="C16" t="str">
-            <v>남은 체력이 가장 낮은 타겟 선택</v>
+            <v>3001 남은 체력이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="17">
@@ -3093,7 +3168,7 @@
             <v>3003</v>
           </cell>
           <cell r="C17" t="str">
-            <v>공격력이 가장 낮은 타겟 선택</v>
+            <v>3003 공격력이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="18">
@@ -3104,7 +3179,7 @@
             <v>3004</v>
           </cell>
           <cell r="C18" t="str">
-            <v>방어력이 가장 낮은 타겟 선택</v>
+            <v>3004 방어력이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="19">
@@ -3115,7 +3190,7 @@
             <v>2003</v>
           </cell>
           <cell r="C19" t="str">
-            <v>공격력이 가장 높은 타겟 선택</v>
+            <v>2003 공격력이 가장 높은 타겟 선택</v>
           </cell>
         </row>
         <row r="20">
@@ -3126,7 +3201,7 @@
             <v>2004</v>
           </cell>
           <cell r="C20" t="str">
-            <v>방어력이 가장 높은 타겟 선택</v>
+            <v>2004 방어력이 가장 높은 타겟 선택</v>
           </cell>
         </row>
         <row r="21">
@@ -3137,7 +3212,7 @@
             <v>9999</v>
           </cell>
           <cell r="C21" t="str">
-            <v>가장 가까운 상대 타겟 선택(화면상에서 적에게 접근하기 위한 용도)</v>
+            <v>9999 가장 가까운 상대 타겟 선택(화면상에서 적에게 접근하기 위한 용도)</v>
           </cell>
         </row>
         <row r="22">
@@ -3148,7 +3223,7 @@
             <v>1001</v>
           </cell>
           <cell r="C22" t="str">
-            <v>리더 선택</v>
+            <v>1001 리더 선택</v>
           </cell>
         </row>
         <row r="23">
@@ -3159,7 +3234,7 @@
             <v>2001</v>
           </cell>
           <cell r="C23" t="str">
-            <v>남은 체력이 가장 많은 타겟 선택</v>
+            <v>2001 남은 체력이 가장 많은 타겟 선택</v>
           </cell>
         </row>
         <row r="24">
@@ -3170,7 +3245,7 @@
             <v>2002</v>
           </cell>
           <cell r="C24" t="str">
-            <v>남은 체력 비율이 가장 높은 타겟 선택</v>
+            <v>2002 남은 체력 비율이 가장 높은 타겟 선택</v>
           </cell>
         </row>
         <row r="25">
@@ -3181,7 +3256,7 @@
             <v>2006</v>
           </cell>
           <cell r="C25" t="str">
-            <v>명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
+            <v>2006 명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
           </cell>
         </row>
         <row r="26">
@@ -3192,7 +3267,7 @@
             <v>2007</v>
           </cell>
           <cell r="C26" t="str">
-            <v>회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
+            <v>2007 회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
           </cell>
         </row>
         <row r="27">
@@ -3203,7 +3278,7 @@
             <v>2008</v>
           </cell>
           <cell r="C27" t="str">
-            <v>남은 체력이 가장 높은 인간 종족 선택</v>
+            <v>2008 남은 체력이 가장 높은 인간 종족 선택</v>
           </cell>
         </row>
         <row r="28">
@@ -3214,7 +3289,7 @@
             <v>2009</v>
           </cell>
           <cell r="C28" t="str">
-            <v>남은 체력이 가장 높은 엘프 종족 선택</v>
+            <v>2009 남은 체력이 가장 높은 엘프 종족 선택</v>
           </cell>
         </row>
         <row r="29">
@@ -3225,7 +3300,7 @@
             <v>2010</v>
           </cell>
           <cell r="C29" t="str">
-            <v>남은 체력이 가장 높은 수인 종족 선택</v>
+            <v>2010 남은 체력이 가장 높은 수인 종족 선택</v>
           </cell>
         </row>
         <row r="30">
@@ -3236,7 +3311,7 @@
             <v>2011</v>
           </cell>
           <cell r="C30" t="str">
-            <v>남은 체력이 가장 높은 안드로이드 선택</v>
+            <v>2011 남은 체력이 가장 높은 안드로이드 선택</v>
           </cell>
         </row>
         <row r="31">
@@ -3247,7 +3322,7 @@
             <v>2012</v>
           </cell>
           <cell r="C31" t="str">
-            <v>남은 체력이 가장 높은 악마 선택</v>
+            <v>2012 남은 체력이 가장 높은 악마 선택</v>
           </cell>
         </row>
         <row r="32">
@@ -3258,7 +3333,7 @@
             <v>2013</v>
           </cell>
           <cell r="C32" t="str">
-            <v>남은 체력이 가장 높은 천사 선택</v>
+            <v>2013 남은 체력이 가장 높은 천사 선택</v>
           </cell>
         </row>
         <row r="33">
@@ -3269,7 +3344,7 @@
             <v>2014</v>
           </cell>
           <cell r="C33" t="str">
-            <v>자신을 제외한 체력이 가장 높은 타겟 선택</v>
+            <v>2014 자신을 제외한 체력이 가장 높은 타겟 선택</v>
           </cell>
         </row>
         <row r="34">
@@ -3280,7 +3355,7 @@
             <v>2015</v>
           </cell>
           <cell r="C34" t="str">
-            <v>자신을 제외한 체력 비율이 가장 높은 타겟 선택</v>
+            <v>2015 자신을 제외한 체력 비율이 가장 높은 타겟 선택</v>
           </cell>
         </row>
         <row r="35">
@@ -3291,7 +3366,7 @@
             <v>2016</v>
           </cell>
           <cell r="C35" t="str">
-            <v>자신을 제외한 공격력이 가장 높은 타겟 선택</v>
+            <v>2016 자신을 제외한 공격력이 가장 높은 타겟 선택</v>
           </cell>
         </row>
         <row r="36">
@@ -3302,7 +3377,7 @@
             <v>2017</v>
           </cell>
           <cell r="C36" t="str">
-            <v>자신을 제외한 방어력이 가장 높은 타겟 선택</v>
+            <v>2017 자신을 제외한 방어력이 가장 높은 타겟 선택</v>
           </cell>
         </row>
         <row r="37">
@@ -3313,7 +3388,7 @@
             <v>2018</v>
           </cell>
           <cell r="C37" t="str">
-            <v>자신을 제외한 공속이 가장 높은 타겟 선택</v>
+            <v>2018 자신을 제외한 공속이 가장 높은 타겟 선택</v>
           </cell>
         </row>
         <row r="38">
@@ -3324,7 +3399,7 @@
             <v>2019</v>
           </cell>
           <cell r="C38" t="str">
-            <v>자신을 제외한 명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
+            <v>2019 자신을 제외한 명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
           </cell>
         </row>
         <row r="39">
@@ -3335,7 +3410,7 @@
             <v>2020</v>
           </cell>
           <cell r="C39" t="str">
-            <v>자신을 제외한 회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
+            <v>2020 자신을 제외한 회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
           </cell>
         </row>
         <row r="40">
@@ -3346,7 +3421,7 @@
             <v>3002</v>
           </cell>
           <cell r="C40" t="str">
-            <v>남은 체력 비율이 가장 낮은 타겟 선택</v>
+            <v>3002 남은 체력 비율이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="41">
@@ -3357,7 +3432,7 @@
             <v>3005</v>
           </cell>
           <cell r="C41" t="str">
-            <v>속도게이지가 가장 낮은 타겟 선택</v>
+            <v>3005 속도게이지가 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="42">
@@ -3368,7 +3443,7 @@
             <v>3006</v>
           </cell>
           <cell r="C42" t="str">
-            <v>명중률이 가장 낮은 타겟 선택</v>
+            <v>3006 명중률이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="43">
@@ -3379,7 +3454,7 @@
             <v>3007</v>
           </cell>
           <cell r="C43" t="str">
-            <v>회피율이 가장 낮은 타겟 선택</v>
+            <v>3007 회피율이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="44">
@@ -3390,7 +3465,7 @@
             <v>3008</v>
           </cell>
           <cell r="C44" t="str">
-            <v>남은 체력이 가장 낮은 인간 종족 선택</v>
+            <v>3008 남은 체력이 가장 낮은 인간 종족 선택</v>
           </cell>
         </row>
         <row r="45">
@@ -3401,7 +3476,7 @@
             <v>3009</v>
           </cell>
           <cell r="C45" t="str">
-            <v>남은 체력이 가장 낮은 엘프 종족 선택</v>
+            <v>3009 남은 체력이 가장 낮은 엘프 종족 선택</v>
           </cell>
         </row>
         <row r="46">
@@ -3412,7 +3487,7 @@
             <v>3010</v>
           </cell>
           <cell r="C46" t="str">
-            <v>남은 체력이 가장 낮은 수인 종족 선택</v>
+            <v>3010 남은 체력이 가장 낮은 수인 종족 선택</v>
           </cell>
         </row>
         <row r="47">
@@ -3423,7 +3498,7 @@
             <v>3011</v>
           </cell>
           <cell r="C47" t="str">
-            <v>남은 체력이 가장 낮은 안드로이드 선택</v>
+            <v>3011 남은 체력이 가장 낮은 안드로이드 선택</v>
           </cell>
         </row>
         <row r="48">
@@ -3434,7 +3509,7 @@
             <v>3012</v>
           </cell>
           <cell r="C48" t="str">
-            <v>남은 체력이 가장 낮은 악마 종족 선택</v>
+            <v>3012 남은 체력이 가장 낮은 악마 종족 선택</v>
           </cell>
         </row>
         <row r="49">
@@ -3445,7 +3520,7 @@
             <v>3013</v>
           </cell>
           <cell r="C49" t="str">
-            <v>남은 체력이 가장 낮은 천사 종족 선택</v>
+            <v>3013 남은 체력이 가장 낮은 천사 종족 선택</v>
           </cell>
         </row>
         <row r="50">
@@ -3456,7 +3531,7 @@
             <v>3014</v>
           </cell>
           <cell r="C50" t="str">
-            <v>자신을 제외한 남은 체력이 가장 낮은 타겟 선택</v>
+            <v>3014 자신을 제외한 남은 체력이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="51">
@@ -3467,7 +3542,7 @@
             <v>3015</v>
           </cell>
           <cell r="C51" t="str">
-            <v>자신을 제외한 남은 체력 비율이 가장 낮은 타겟 선택</v>
+            <v>3015 자신을 제외한 남은 체력 비율이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="52">
@@ -3478,7 +3553,7 @@
             <v>3016</v>
           </cell>
           <cell r="C52" t="str">
-            <v>자신을 제외한 공격력이 가장 낮은 타겟 선택</v>
+            <v>3016 자신을 제외한 공격력이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="53">
@@ -3489,7 +3564,7 @@
             <v>3017</v>
           </cell>
           <cell r="C53" t="str">
-            <v>자신을 제외한 방어력이 가장 낮은 타겟 선택</v>
+            <v>3017 자신을 제외한 방어력이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="54">
@@ -3500,7 +3575,7 @@
             <v>3018</v>
           </cell>
           <cell r="C54" t="str">
-            <v>자신을 제외한 공속이 가장 낮은 타겟 선택</v>
+            <v>3018 자신을 제외한 공속이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="55">
@@ -3511,7 +3586,7 @@
             <v>3019</v>
           </cell>
           <cell r="C55" t="str">
-            <v>자신을 제외한 명중률이 가장 낮은 타겟 선택</v>
+            <v>3019 자신을 제외한 명중률이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="56">
@@ -3522,7 +3597,7 @@
             <v>3020</v>
           </cell>
           <cell r="C56" t="str">
-            <v>자신을 제외한 회피율이 가장 낮은 타겟 선택</v>
+            <v>3020 자신을 제외한 회피율이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="57">
@@ -3533,7 +3608,7 @@
             <v>3021</v>
           </cell>
           <cell r="C57" t="str">
-            <v>자신을 포함한 남은 체력이 가장 낮은 타겟 선택</v>
+            <v>3021 자신을 포함한 남은 체력이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="58">
@@ -3544,7 +3619,7 @@
             <v>3022</v>
           </cell>
           <cell r="C58" t="str">
-            <v>자신을 포함한 남은 체력 비율이 가장 낮은 타겟 선택</v>
+            <v>3022 자신을 포함한 남은 체력 비율이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="59">
@@ -3555,7 +3630,7 @@
             <v>3023</v>
           </cell>
           <cell r="C59" t="str">
-            <v>자신을 포함한 공격력이 가장 낮은 타겟 선택</v>
+            <v>3023 자신을 포함한 공격력이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="60">
@@ -3566,7 +3641,7 @@
             <v>3024</v>
           </cell>
           <cell r="C60" t="str">
-            <v>자신을 포함한 방어력이 가장 낮은 타겟 선택</v>
+            <v>3024 자신을 포함한 방어력이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="61">
@@ -3577,7 +3652,7 @@
             <v>3025</v>
           </cell>
           <cell r="C61" t="str">
-            <v>자신을 포함한 공속이 가장 낮은 타겟 선택</v>
+            <v>3025 자신을 포함한 공속이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="62">
@@ -3588,7 +3663,7 @@
             <v>3026</v>
           </cell>
           <cell r="C62" t="str">
-            <v>자신을 포함한 명중률이 가장 낮은 타겟 선택</v>
+            <v>3026 자신을 포함한 명중률이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="63">
@@ -3599,7 +3674,7 @@
             <v>3027</v>
           </cell>
           <cell r="C63" t="str">
-            <v>자신을 포함한 회피율이 가장 낮은 타겟 선택</v>
+            <v>3027 자신을 포함한 회피율이 가장 낮은 타겟 선택</v>
           </cell>
         </row>
         <row r="64">
@@ -3610,7 +3685,7 @@
             <v>4001</v>
           </cell>
           <cell r="C64" t="str">
-            <v>자신보다 약한 속성 타겟 선택 (상성 시스템이 있을 경우)</v>
+            <v>4001 자신보다 약한 속성 타겟 선택 (상성 시스템이 있을 경우)</v>
           </cell>
         </row>
         <row r="65">
@@ -3621,7 +3696,7 @@
             <v>4002</v>
           </cell>
           <cell r="C65" t="str">
-            <v>자신보다 강한 속성 타겟 선택 (상성 시스템이 있을 경우)</v>
+            <v>4002 자신보다 강한 속성 타겟 선택 (상성 시스템이 있을 경우)</v>
           </cell>
         </row>
         <row r="66">
@@ -3632,7 +3707,7 @@
             <v>5001</v>
           </cell>
           <cell r="C66" t="str">
-            <v>버프 효과가 있는 타겟 선택</v>
+            <v>5001 버프 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="67">
@@ -3643,7 +3718,7 @@
             <v>5002</v>
           </cell>
           <cell r="C67" t="str">
-            <v>버프 효과 중 공격력 증가 효과가 있는 타겟 선택</v>
+            <v>5002 버프 효과 중 공격력 증가 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="68">
@@ -3654,7 +3729,7 @@
             <v>5003</v>
           </cell>
           <cell r="C68" t="str">
-            <v>버프 효과 중 방어력 증가 효과가 있는 타겟 선택</v>
+            <v>5003 버프 효과 중 방어력 증가 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="69">
@@ -3665,7 +3740,7 @@
             <v>5004</v>
           </cell>
           <cell r="C69" t="str">
-            <v>버프 효과 중 공속 증가 효과가 있는 타겟 선택</v>
+            <v>5004 버프 효과 중 공속 증가 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="70">
@@ -3676,7 +3751,7 @@
             <v>5005</v>
           </cell>
           <cell r="C70" t="str">
-            <v>버프 효과 중 회피율 증가 효과가 있는 타겟 선택</v>
+            <v>5005 버프 효과 중 회피율 증가 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="71">
@@ -3687,7 +3762,7 @@
             <v>5006</v>
           </cell>
           <cell r="C71" t="str">
-            <v>버프 효과 중 치명타 확률 증가 효과가 있는 타겟 선택</v>
+            <v>5006 버프 효과 중 치명타 확률 증가 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="72">
@@ -3698,7 +3773,7 @@
             <v>5007</v>
           </cell>
           <cell r="C72" t="str">
-            <v>버프 효과 중 치명타 피해량 증가 효과가 있는 타겟 선택</v>
+            <v>5007 버프 효과 중 치명타 피해량 증가 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="73">
@@ -3709,7 +3784,7 @@
             <v>6001</v>
           </cell>
           <cell r="C73" t="str">
-            <v>디버프 효과가 있는 타겟 선택</v>
+            <v>6001 디버프 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="74">
@@ -3720,7 +3795,7 @@
             <v>6002</v>
           </cell>
           <cell r="C74" t="str">
-            <v>디버프 효과 중 공격력 감소 효과가 있는 타겟 선택</v>
+            <v>6002 디버프 효과 중 공격력 감소 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="75">
@@ -3731,7 +3806,7 @@
             <v>6003</v>
           </cell>
           <cell r="C75" t="str">
-            <v>디버프 효과 중 방어력 감소 효과가 있는 타겟 선택</v>
+            <v>6003 디버프 효과 중 방어력 감소 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="76">
@@ -3742,7 +3817,7 @@
             <v>6004</v>
           </cell>
           <cell r="C76" t="str">
-            <v>디버프 효과 중 화상 효과가 있는 타겟 선택</v>
+            <v>6004 디버프 효과 중 화상 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="77">
@@ -3753,7 +3828,7 @@
             <v>6005</v>
           </cell>
           <cell r="C77" t="str">
-            <v>디버프 효과 중 출혈 효과가 있는 타겟 선택</v>
+            <v>6005 디버프 효과 중 출혈 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="78">
@@ -3764,7 +3839,7 @@
             <v>6006</v>
           </cell>
           <cell r="C78" t="str">
-            <v>디버프 효과 중 중독 효과가 있는 타겟 선택</v>
+            <v>6006 디버프 효과 중 중독 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="79">
@@ -3775,7 +3850,7 @@
             <v>6007</v>
           </cell>
           <cell r="C79" t="str">
-            <v>디버프 효과 중 공속 감소 효과가 있는 타겟 선택</v>
+            <v>6007 디버프 효과 중 공속 감소 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="80">
@@ -3786,7 +3861,7 @@
             <v>6008</v>
           </cell>
           <cell r="C80" t="str">
-            <v>디버프 효과 중 수면 효과가 있는 타겟 선택</v>
+            <v>6008 디버프 효과 중 수면 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="81">
@@ -3797,7 +3872,7 @@
             <v>6009</v>
           </cell>
           <cell r="C81" t="str">
-            <v>디버프 효과 중 치명상 효과가 있는 타겟 선택</v>
+            <v>6009 디버프 효과 중 치명상 효과가 있는 타겟 선택</v>
           </cell>
         </row>
         <row r="82">
@@ -3808,11 +3883,13 @@
             <v>6010</v>
           </cell>
           <cell r="C82" t="str">
-            <v>디버프 효과 중 명중률 감소 효과가 있는 타겟 선택</v>
+            <v>6010 디버프 효과 중 명중률 감소 효과가 있는 타겟 선택</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4">
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8">
         <row r="1">
           <cell r="A1" t="str">
             <v>SECOND_TARGET_RULE_TYPE</v>
@@ -3848,7 +3925,7 @@
             <v>1</v>
           </cell>
           <cell r="C5" t="str">
-            <v>타겟을 중심으로 지정 반경내에 감지되는 타겟 검사</v>
+            <v>0 타겟을 중심으로 지정 반경내에 감지되는 타겟 검사</v>
           </cell>
         </row>
         <row r="6">
@@ -3859,11 +3936,11 @@
             <v>2</v>
           </cell>
           <cell r="C6" t="str">
-            <v>타겟 뒤로 지정 반경내에 감지되는 타겟 검사</v>
+            <v>1 타겟 뒤로 지정 반경내에 감지되는 타겟 검사</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5">
+      <sheetData sheetId="9">
         <row r="1">
           <cell r="A1" t="str">
             <v>EFFECT_TYPE</v>
@@ -3899,7 +3976,7 @@
             <v>1</v>
           </cell>
           <cell r="C5" t="str">
-            <v>대미지 만큼 현재 체력 감소</v>
+            <v>1 대미지 만큼 현재 체력 감소</v>
           </cell>
         </row>
         <row r="6">
@@ -3910,7 +3987,7 @@
             <v>2</v>
           </cell>
           <cell r="C6" t="str">
-            <v>다음 피해의 데미지를 감소</v>
+            <v>2 다음 피해의 데미지를 감소</v>
           </cell>
         </row>
         <row r="7">
@@ -3921,12 +3998,12 @@
             <v>3</v>
           </cell>
           <cell r="C7" t="str">
-            <v>대상의 현재 HP를 회복. 
+            <v>3 대상의 현재 HP를 회복. 
 MAX HP를 초과할 수 없다</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="6">
+      <sheetData sheetId="10">
         <row r="1">
           <cell r="A1" t="str">
             <v>STAT_MULTIPLE_TYPE</v>
@@ -3962,7 +4039,7 @@
             <v>100</v>
           </cell>
           <cell r="C5" t="str">
-            <v>공격력을 기준으로 절대값 계산을 하기 위한 수치</v>
+            <v>100 공격력을 기준으로 절대값 계산을 하기 위한 수치</v>
           </cell>
         </row>
         <row r="6">
@@ -3973,7 +4050,7 @@
             <v>101</v>
           </cell>
           <cell r="C6" t="str">
-            <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
+            <v>101 공격력을 기준으로 배율 계산을 하기 위한 수치</v>
           </cell>
         </row>
         <row r="7">
@@ -3984,7 +4061,7 @@
             <v>200</v>
           </cell>
           <cell r="C7" t="str">
-            <v>방어력을 기준으로 계산을 하기 위한 수치</v>
+            <v>200 방어력을 기준으로 계산을 하기 위한 수치</v>
           </cell>
         </row>
         <row r="8">
@@ -3995,7 +4072,7 @@
             <v>300</v>
           </cell>
           <cell r="C8" t="str">
-            <v>최대 체력을 기준으로 계산을 하기 위한 수치</v>
+            <v>300 최대 체력을 기준으로 계산을 하기 위한 수치</v>
           </cell>
         </row>
         <row r="9">
@@ -4006,7 +4083,7 @@
             <v>400</v>
           </cell>
           <cell r="C9" t="str">
-            <v>현재 체력을 기준으로 계산을 하기 위한 수치</v>
+            <v>400 현재 체력을 기준으로 계산을 하기 위한 수치</v>
           </cell>
         </row>
         <row r="10">
@@ -4017,7 +4094,7 @@
             <v>500</v>
           </cell>
           <cell r="C10" t="str">
-            <v>크리티컬 확률을 기준으로 계산을 하기 위한 수치</v>
+            <v>500 크리티컬 확률을 기준으로 계산을 하기 위한 수치</v>
           </cell>
         </row>
         <row r="11">
@@ -4028,7 +4105,7 @@
             <v>600</v>
           </cell>
           <cell r="C11" t="str">
-            <v>크리티컬 파워를 기준으로 계산을 하기 위한 수치</v>
+            <v>600 크리티컬 파워를 기준으로 계산을 하기 위한 수치</v>
           </cell>
         </row>
         <row r="12">
@@ -4039,7 +4116,7 @@
             <v>700</v>
           </cell>
           <cell r="C12" t="str">
-            <v>명중률을 기준으로 계산을 하기 위한 수치</v>
+            <v>700 명중률을 기준으로 계산을 하기 위한 수치</v>
           </cell>
         </row>
         <row r="13">
@@ -4050,7 +4127,7 @@
             <v>800</v>
           </cell>
           <cell r="C13" t="str">
-            <v>회피율을 기준으로 계산을 하기 위한 수치</v>
+            <v>800 회피율을 기준으로 계산을 하기 위한 수치</v>
           </cell>
         </row>
         <row r="14">
@@ -4061,14 +4138,14 @@
             <v>900</v>
           </cell>
           <cell r="C14" t="str">
-            <v>피해량을 기준으로 계산을 하기 위한 수치</v>
+            <v>900 피해량을 기준으로 계산을 하기 위한 수치</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10">
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14">
         <row r="1">
           <cell r="A1" t="str">
             <v>TARGET_TYPE</v>
@@ -4093,7 +4170,7 @@
             <v>0</v>
           </cell>
           <cell r="C4" t="str">
-            <v>아군</v>
+            <v>0 아군</v>
           </cell>
         </row>
         <row r="5">
@@ -4104,11 +4181,11 @@
             <v>1</v>
           </cell>
           <cell r="C5" t="str">
-            <v>적군</v>
+            <v>1 적군</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="11">
+      <sheetData sheetId="15">
         <row r="1">
           <cell r="A1" t="str">
             <v>ONETIME_EFFECT_TYPE</v>
@@ -4144,7 +4221,7 @@
             <v>1</v>
           </cell>
           <cell r="C5" t="str">
-            <v>데미지를 준다</v>
+            <v>1 데미지를 준다</v>
           </cell>
         </row>
         <row r="6">
@@ -4155,11 +4232,11 @@
             <v>2</v>
           </cell>
           <cell r="C6" t="str">
-            <v>체력 회복</v>
+            <v>2 체력 회복</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="12">
+      <sheetData sheetId="16">
         <row r="1">
           <cell r="A1" t="str">
             <v>DURATION_EFFECT_TYPE</v>
@@ -4195,7 +4272,7 @@
             <v>1</v>
           </cell>
           <cell r="C5" t="str">
-            <v>피해 감소</v>
+            <v>1 피해 감소</v>
           </cell>
         </row>
         <row r="6">
@@ -4206,7 +4283,7 @@
             <v>101</v>
           </cell>
           <cell r="C6" t="str">
-            <v>중독</v>
+            <v>101 중독</v>
           </cell>
         </row>
         <row r="7">
@@ -4217,7 +4294,7 @@
             <v>102</v>
           </cell>
           <cell r="C7" t="str">
-            <v>기절</v>
+            <v>102 기절</v>
           </cell>
         </row>
         <row r="8">
@@ -4228,7 +4305,7 @@
             <v>103</v>
           </cell>
           <cell r="C8" t="str">
-            <v>침묵</v>
+            <v>103 침묵</v>
           </cell>
         </row>
         <row r="9">
@@ -4239,7 +4316,7 @@
             <v>104</v>
           </cell>
           <cell r="C9" t="str">
-            <v>결박</v>
+            <v>104 결박</v>
           </cell>
         </row>
         <row r="10">
@@ -4250,7 +4327,7 @@
             <v>105</v>
           </cell>
           <cell r="C10" t="str">
-            <v>빙결</v>
+            <v>105 빙결</v>
           </cell>
         </row>
         <row r="11">
@@ -4261,7 +4338,7 @@
             <v>106</v>
           </cell>
           <cell r="C11" t="str">
-            <v>공격력 증가</v>
+            <v>106 공격력 증가</v>
           </cell>
         </row>
         <row r="12">
@@ -4272,7 +4349,7 @@
             <v>107</v>
           </cell>
           <cell r="C12" t="str">
-            <v>방어력 증가</v>
+            <v>107 방어력 증가</v>
           </cell>
         </row>
         <row r="13">
@@ -4283,7 +4360,7 @@
             <v>108</v>
           </cell>
           <cell r="C13" t="str">
-            <v>공격력 감소</v>
+            <v>108 공격력 감소</v>
           </cell>
         </row>
         <row r="14">
@@ -4294,11 +4371,11 @@
             <v>109</v>
           </cell>
           <cell r="C14" t="str">
-            <v>방어력 감소</v>
+            <v>109 방어력 감소</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="13">
+      <sheetData sheetId="17">
         <row r="1">
           <cell r="A1" t="str">
             <v>PERSISTENCE_TYPE</v>
@@ -4334,7 +4411,7 @@
             <v>1</v>
           </cell>
           <cell r="C5" t="str">
-            <v>시간 지속</v>
+            <v>1 시간 지속</v>
           </cell>
         </row>
         <row r="6">
@@ -4345,7 +4422,7 @@
             <v>2</v>
           </cell>
           <cell r="C6" t="str">
-            <v>피격 횟수 제한</v>
+            <v>2 피격 횟수 제한</v>
           </cell>
         </row>
         <row r="7">
@@ -4356,11 +4433,11 @@
             <v>3</v>
           </cell>
           <cell r="C7" t="str">
-            <v>공격 횟수 제한</v>
+            <v>3 공격 횟수 제한</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="14">
+      <sheetData sheetId="18">
         <row r="1">
           <cell r="A1" t="str">
             <v>PROJECTILE_TYPE</v>
@@ -4396,7 +4473,7 @@
             <v>1</v>
           </cell>
           <cell r="C5" t="str">
-            <v>투사체를 타겟의 발 밑에 던진다</v>
+            <v>1 투사체를 타겟의 발 밑에 던진다</v>
           </cell>
         </row>
         <row r="6">
@@ -4407,7 +4484,7 @@
             <v>2</v>
           </cell>
           <cell r="C6" t="str">
-            <v>투사체를 타겟의 몸에 던진다</v>
+            <v>2 투사체를 타겟의 몸에 던진다</v>
           </cell>
         </row>
         <row r="7">
@@ -4418,7 +4495,7 @@
             <v>3</v>
           </cell>
           <cell r="C7" t="str">
-            <v>투사체를 타겟의 머리에 던진다</v>
+            <v>3 투사체를 타겟의 머리에 던진다</v>
           </cell>
         </row>
         <row r="8">
@@ -4429,7 +4506,7 @@
             <v>11</v>
           </cell>
           <cell r="C8" t="str">
-            <v>타겟의 발 밑에서 즉시 효과 발동</v>
+            <v>11 타겟의 발 밑에서 즉시 효과 발동</v>
           </cell>
         </row>
         <row r="9">
@@ -4440,7 +4517,7 @@
             <v>12</v>
           </cell>
           <cell r="C9" t="str">
-            <v>타겟의 몸에서 즉시 효과 발동</v>
+            <v>12 타겟의 몸에서 즉시 효과 발동</v>
           </cell>
         </row>
         <row r="10">
@@ -4451,7 +4528,7 @@
             <v>13</v>
           </cell>
           <cell r="C10" t="str">
-            <v>타겟의 머리에서 즉시 효과 발동</v>
+            <v>13 타겟의 머리에서 즉시 효과 발동</v>
           </cell>
         </row>
         <row r="11">
@@ -4462,13 +4539,13 @@
             <v>21</v>
           </cell>
           <cell r="C11" t="str">
-            <v>전체 선택(진영의 중앙)</v>
+            <v>21 전체 선택(진영의 중앙)</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4773,8 +4850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCF2545-5B22-48B7-AA3A-4E88E574D583}">
   <dimension ref="A1:AM81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4978,7 +5055,7 @@
       </c>
       <c r="C3" s="4" t="str">
         <f>'[1]@target_rule'!$C4</f>
-        <v>임의 타겟 선택</v>
+        <v>0 임의 타겟 선택</v>
       </c>
       <c r="E3" s="4" t="str">
         <f>'[1]@stat'!$A4</f>
@@ -5004,17 +5081,17 @@
         <f>'[1]@effect'!$C4</f>
         <v>NONE</v>
       </c>
-      <c r="M3" s="15" t="str">
+      <c r="M3" s="14" t="str">
         <f>'[1]@target_type'!$A4</f>
         <v>MY_TEAM</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="14">
         <f>'[1]@target_type'!$B4</f>
         <v>0</v>
       </c>
-      <c r="O3" s="15" t="str">
+      <c r="O3" s="14" t="str">
         <f>'[1]@target_type'!$C4</f>
-        <v>아군</v>
+        <v>0 아군</v>
       </c>
       <c r="Q3" s="4" t="str">
         <f>'[1]@onetime_effect_type'!$A4</f>
@@ -5100,7 +5177,7 @@
       </c>
       <c r="C4" s="4" t="str">
         <f>'[1]@target_rule'!$C5</f>
-        <v>자신 선택</v>
+        <v>1 자신 선택</v>
       </c>
       <c r="E4" s="4" t="str">
         <f>'[1]@stat'!$A5</f>
@@ -5112,7 +5189,7 @@
       </c>
       <c r="G4" s="4" t="str">
         <f>'[1]@stat'!$C5</f>
-        <v>공격력을 기준으로 절대값 계산을 하기 위한 수치</v>
+        <v>100 공격력을 기준으로 절대값 계산을 하기 위한 수치</v>
       </c>
       <c r="I4" s="4" t="str">
         <f>'[1]@effect'!$A5</f>
@@ -5124,19 +5201,19 @@
       </c>
       <c r="K4" s="4" t="str">
         <f>'[1]@effect'!$C5</f>
-        <v>대미지 만큼 현재 체력 감소</v>
-      </c>
-      <c r="M4" s="15" t="str">
+        <v>1 대미지 만큼 현재 체력 감소</v>
+      </c>
+      <c r="M4" s="14" t="str">
         <f>'[1]@target_type'!$A5</f>
         <v>ENEMY_TEAM</v>
       </c>
-      <c r="N4" s="15">
+      <c r="N4" s="14">
         <f>'[1]@target_type'!$B5</f>
         <v>1</v>
       </c>
-      <c r="O4" s="15" t="str">
+      <c r="O4" s="14" t="str">
         <f>'[1]@target_type'!$C5</f>
-        <v>적군</v>
+        <v>1 적군</v>
       </c>
       <c r="Q4" s="4" t="str">
         <f>'[1]@onetime_effect_type'!$A5</f>
@@ -5148,7 +5225,7 @@
       </c>
       <c r="S4" s="4" t="str">
         <f>'[1]@onetime_effect_type'!$C5</f>
-        <v>데미지를 준다</v>
+        <v>1 데미지를 준다</v>
       </c>
       <c r="U4" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A5</f>
@@ -5160,7 +5237,7 @@
       </c>
       <c r="W4" s="4" t="str">
         <f>'[1]@duration_effect_type'!$C5</f>
-        <v>피해 감소</v>
+        <v>1 피해 감소</v>
       </c>
       <c r="Y4" s="4" t="str">
         <f>'[1]@persistence_type'!$A5</f>
@@ -5172,7 +5249,7 @@
       </c>
       <c r="AA4" s="4" t="str">
         <f>'[1]@persistence_type'!$C5</f>
-        <v>시간 지속</v>
+        <v>1 시간 지속</v>
       </c>
       <c r="AC4" s="4" t="str">
         <f>'[1]@projectile_type'!$A5</f>
@@ -5184,7 +5261,7 @@
       </c>
       <c r="AE4" s="4" t="str">
         <f>'[1]@projectile_type'!$C5</f>
-        <v>투사체를 타겟의 발 밑에 던진다</v>
+        <v>1 투사체를 타겟의 발 밑에 던진다</v>
       </c>
       <c r="AG4" s="4" t="e">
         <f>#REF!</f>
@@ -5208,7 +5285,7 @@
       </c>
       <c r="AM4" s="4" t="str">
         <f>'[1]@second_target_rule'!$C5</f>
-        <v>타겟을 중심으로 지정 반경내에 감지되는 타겟 검사</v>
+        <v>0 타겟을 중심으로 지정 반경내에 감지되는 타겟 검사</v>
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.3">
@@ -5222,7 +5299,7 @@
       </c>
       <c r="C5" s="4" t="str">
         <f>'[1]@target_rule'!$C6</f>
-        <v>전체 선택</v>
+        <v>2 전체 선택</v>
       </c>
       <c r="E5" s="4" t="str">
         <f>'[1]@stat'!$A6</f>
@@ -5234,7 +5311,7 @@
       </c>
       <c r="G5" s="4" t="str">
         <f>'[1]@stat'!$C6</f>
-        <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
+        <v>101 공격력을 기준으로 배율 계산을 하기 위한 수치</v>
       </c>
       <c r="I5" s="4" t="str">
         <f>'[1]@effect'!$A6</f>
@@ -5246,7 +5323,7 @@
       </c>
       <c r="K5" s="4" t="str">
         <f>'[1]@effect'!$C6</f>
-        <v>다음 피해의 데미지를 감소</v>
+        <v>2 다음 피해의 데미지를 감소</v>
       </c>
       <c r="Q5" s="4" t="str">
         <f>'[1]@onetime_effect_type'!$A6</f>
@@ -5258,7 +5335,7 @@
       </c>
       <c r="S5" s="4" t="str">
         <f>'[1]@onetime_effect_type'!$C6</f>
-        <v>체력 회복</v>
+        <v>2 체력 회복</v>
       </c>
       <c r="U5" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A6</f>
@@ -5270,7 +5347,7 @@
       </c>
       <c r="W5" s="4" t="str">
         <f>'[1]@duration_effect_type'!$C6</f>
-        <v>중독</v>
+        <v>101 중독</v>
       </c>
       <c r="Y5" s="4" t="str">
         <f>'[1]@persistence_type'!$A6</f>
@@ -5282,7 +5359,7 @@
       </c>
       <c r="AA5" s="4" t="str">
         <f>'[1]@persistence_type'!$C6</f>
-        <v>피격 횟수 제한</v>
+        <v>2 피격 횟수 제한</v>
       </c>
       <c r="AC5" s="4" t="str">
         <f>'[1]@projectile_type'!$A6</f>
@@ -5294,7 +5371,7 @@
       </c>
       <c r="AE5" s="4" t="str">
         <f>'[1]@projectile_type'!$C6</f>
-        <v>투사체를 타겟의 몸에 던진다</v>
+        <v>2 투사체를 타겟의 몸에 던진다</v>
       </c>
       <c r="AG5" s="4" t="e">
         <f>#REF!</f>
@@ -5318,7 +5395,7 @@
       </c>
       <c r="AM5" s="4" t="str">
         <f>'[1]@second_target_rule'!$C6</f>
-        <v>타겟 뒤로 지정 반경내에 감지되는 타겟 검사</v>
+        <v>1 타겟 뒤로 지정 반경내에 감지되는 타겟 검사</v>
       </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.3">
@@ -5332,7 +5409,7 @@
       </c>
       <c r="C6" s="4" t="str">
         <f>'[1]@target_rule'!$C7</f>
-        <v>자신을 제외한 아군 전체 선택</v>
+        <v>3 자신을 제외한 아군 전체 선택</v>
       </c>
       <c r="E6" s="4" t="str">
         <f>'[1]@stat'!$A7</f>
@@ -5344,7 +5421,7 @@
       </c>
       <c r="G6" s="4" t="str">
         <f>'[1]@stat'!$C7</f>
-        <v>방어력을 기준으로 계산을 하기 위한 수치</v>
+        <v>200 방어력을 기준으로 계산을 하기 위한 수치</v>
       </c>
       <c r="I6" s="4" t="str">
         <f>'[1]@effect'!$A7</f>
@@ -5356,7 +5433,7 @@
       </c>
       <c r="K6" s="4" t="str">
         <f>'[1]@effect'!$C7</f>
-        <v>대상의 현재 HP를 회복. 
+        <v>3 대상의 현재 HP를 회복. 
 MAX HP를 초과할 수 없다</v>
       </c>
       <c r="U6" s="4" t="str">
@@ -5369,7 +5446,7 @@
       </c>
       <c r="W6" s="4" t="str">
         <f>'[1]@duration_effect_type'!$C7</f>
-        <v>기절</v>
+        <v>102 기절</v>
       </c>
       <c r="Y6" s="4" t="str">
         <f>'[1]@persistence_type'!$A7</f>
@@ -5381,7 +5458,7 @@
       </c>
       <c r="AA6" s="4" t="str">
         <f>'[1]@persistence_type'!$C7</f>
-        <v>공격 횟수 제한</v>
+        <v>3 공격 횟수 제한</v>
       </c>
       <c r="AC6" s="4" t="str">
         <f>'[1]@projectile_type'!$A7</f>
@@ -5393,7 +5470,7 @@
       </c>
       <c r="AE6" s="4" t="str">
         <f>'[1]@projectile_type'!$C7</f>
-        <v>투사체를 타겟의 머리에 던진다</v>
+        <v>3 투사체를 타겟의 머리에 던진다</v>
       </c>
       <c r="AG6" s="4" t="e">
         <f>#REF!</f>
@@ -5419,7 +5496,7 @@
       </c>
       <c r="C7" s="4" t="str">
         <f>'[1]@target_rule'!$C8</f>
-        <v>자신을 제외한 가장 가까운 아군 선택</v>
+        <v>4 자신을 제외한 가장 가까운 아군 선택</v>
       </c>
       <c r="E7" s="4" t="str">
         <f>'[1]@stat'!$A8</f>
@@ -5431,7 +5508,7 @@
       </c>
       <c r="G7" s="4" t="str">
         <f>'[1]@stat'!$C8</f>
-        <v>최대 체력을 기준으로 계산을 하기 위한 수치</v>
+        <v>300 최대 체력을 기준으로 계산을 하기 위한 수치</v>
       </c>
       <c r="U7" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A8</f>
@@ -5443,7 +5520,7 @@
       </c>
       <c r="W7" s="4" t="str">
         <f>'[1]@duration_effect_type'!$C8</f>
-        <v>침묵</v>
+        <v>103 침묵</v>
       </c>
       <c r="AC7" s="4" t="str">
         <f>'[1]@projectile_type'!$A8</f>
@@ -5455,7 +5532,7 @@
       </c>
       <c r="AE7" s="4" t="str">
         <f>'[1]@projectile_type'!$C8</f>
-        <v>타겟의 발 밑에서 즉시 효과 발동</v>
+        <v>11 타겟의 발 밑에서 즉시 효과 발동</v>
       </c>
       <c r="AG7" s="4" t="e">
         <f>#REF!</f>
@@ -5481,7 +5558,7 @@
       </c>
       <c r="C8" s="4" t="str">
         <f>'[1]@target_rule'!$C9</f>
-        <v>자신을 제외한 가장 먼 아군 선택</v>
+        <v>5 자신을 제외한 가장 먼 아군 선택</v>
       </c>
       <c r="E8" s="4" t="str">
         <f>'[1]@stat'!$A9</f>
@@ -5493,7 +5570,7 @@
       </c>
       <c r="G8" s="4" t="str">
         <f>'[1]@stat'!$C9</f>
-        <v>현재 체력을 기준으로 계산을 하기 위한 수치</v>
+        <v>400 현재 체력을 기준으로 계산을 하기 위한 수치</v>
       </c>
       <c r="U8" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A9</f>
@@ -5505,7 +5582,7 @@
       </c>
       <c r="W8" s="4" t="str">
         <f>'[1]@duration_effect_type'!$C9</f>
-        <v>결박</v>
+        <v>104 결박</v>
       </c>
       <c r="AC8" s="4" t="str">
         <f>'[1]@projectile_type'!$A9</f>
@@ -5517,7 +5594,7 @@
       </c>
       <c r="AE8" s="4" t="str">
         <f>'[1]@projectile_type'!$C9</f>
-        <v>타겟의 몸에서 즉시 효과 발동</v>
+        <v>12 타겟의 몸에서 즉시 효과 발동</v>
       </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.3">
@@ -5531,7 +5608,7 @@
       </c>
       <c r="C9" s="4" t="str">
         <f>'[1]@target_rule'!$C10</f>
-        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
+        <v>6 가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
       </c>
       <c r="E9" s="4" t="str">
         <f>'[1]@stat'!$A10</f>
@@ -5543,7 +5620,7 @@
       </c>
       <c r="G9" s="4" t="str">
         <f>'[1]@stat'!$C10</f>
-        <v>크리티컬 확률을 기준으로 계산을 하기 위한 수치</v>
+        <v>500 크리티컬 확률을 기준으로 계산을 하기 위한 수치</v>
       </c>
       <c r="U9" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A10</f>
@@ -5555,7 +5632,7 @@
       </c>
       <c r="W9" s="4" t="str">
         <f>'[1]@duration_effect_type'!$C10</f>
-        <v>빙결</v>
+        <v>105 빙결</v>
       </c>
       <c r="AC9" s="4" t="str">
         <f>'[1]@projectile_type'!$A10</f>
@@ -5567,7 +5644,7 @@
       </c>
       <c r="AE9" s="4" t="str">
         <f>'[1]@projectile_type'!$C10</f>
-        <v>타겟의 머리에서 즉시 효과 발동</v>
+        <v>13 타겟의 머리에서 즉시 효과 발동</v>
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.3">
@@ -5581,7 +5658,7 @@
       </c>
       <c r="C10" s="4" t="str">
         <f>'[1]@target_rule'!$C11</f>
-        <v>가장 거리가 먼 적 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로)</v>
+        <v>7 가장 거리가 먼 적 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로)</v>
       </c>
       <c r="E10" s="4" t="str">
         <f>'[1]@stat'!$A11</f>
@@ -5593,7 +5670,7 @@
       </c>
       <c r="G10" s="4" t="str">
         <f>'[1]@stat'!$C11</f>
-        <v>크리티컬 파워를 기준으로 계산을 하기 위한 수치</v>
+        <v>600 크리티컬 파워를 기준으로 계산을 하기 위한 수치</v>
       </c>
       <c r="U10" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A11</f>
@@ -5605,7 +5682,7 @@
       </c>
       <c r="W10" s="4" t="str">
         <f>'[1]@duration_effect_type'!$C11</f>
-        <v>공격력 증가</v>
+        <v>106 공격력 증가</v>
       </c>
       <c r="AC10" s="4" t="str">
         <f>'[1]@projectile_type'!$A11</f>
@@ -5617,7 +5694,7 @@
       </c>
       <c r="AE10" s="4" t="str">
         <f>'[1]@projectile_type'!$C11</f>
-        <v>전체 선택(진영의 중앙)</v>
+        <v>21 전체 선택(진영의 중앙)</v>
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.3">
@@ -5631,7 +5708,7 @@
       </c>
       <c r="C11" s="4" t="str">
         <f>'[1]@target_rule'!$C12</f>
-        <v>가장 가까운 적 우선 선택(순번 컬럼 연동하여 순서대로) 후 일정 영역내의 뒤에있는 타겟의 추가 선택</v>
+        <v>8 가장 가까운 적 우선 선택(순번 컬럼 연동하여 순서대로) 후 일정 영역내의 뒤에있는 타겟의 추가 선택</v>
       </c>
       <c r="E11" s="4" t="str">
         <f>'[1]@stat'!$A12</f>
@@ -5643,7 +5720,7 @@
       </c>
       <c r="G11" s="4" t="str">
         <f>'[1]@stat'!$C12</f>
-        <v>명중률을 기준으로 계산을 하기 위한 수치</v>
+        <v>700 명중률을 기준으로 계산을 하기 위한 수치</v>
       </c>
       <c r="U11" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A12</f>
@@ -5655,7 +5732,7 @@
       </c>
       <c r="W11" s="4" t="str">
         <f>'[1]@duration_effect_type'!$C12</f>
-        <v>방어력 증가</v>
+        <v>107 방어력 증가</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.3">
@@ -5669,7 +5746,7 @@
       </c>
       <c r="C12" s="4" t="str">
         <f>'[1]@target_rule'!$C13</f>
-        <v>가장 거리가 먼 적 우선 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로) 후 일정 영역내의 앞에 있는 타겟 추가 선택</v>
+        <v>9 가장 거리가 먼 적 우선 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로) 후 일정 영역내의 앞에 있는 타겟 추가 선택</v>
       </c>
       <c r="E12" s="4" t="str">
         <f>'[1]@stat'!$A13</f>
@@ -5681,7 +5758,7 @@
       </c>
       <c r="G12" s="4" t="str">
         <f>'[1]@stat'!$C13</f>
-        <v>회피율을 기준으로 계산을 하기 위한 수치</v>
+        <v>800 회피율을 기준으로 계산을 하기 위한 수치</v>
       </c>
       <c r="U12" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A13</f>
@@ -5693,7 +5770,7 @@
       </c>
       <c r="W12" s="4" t="str">
         <f>'[1]@duration_effect_type'!$C13</f>
-        <v>공격력 감소</v>
+        <v>108 공격력 감소</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.3">
@@ -5707,7 +5784,7 @@
       </c>
       <c r="C13" s="4" t="str">
         <f>'[1]@target_rule'!$C14</f>
-        <v>가장 가까운 적 우선 선택(순번 컬럼 연동하여 순서대로) 후 일정 영역내의(주변) 타겟의 추가 선택</v>
+        <v>10 가장 가까운 적 우선 선택(순번 컬럼 연동하여 순서대로) 후 일정 영역내의(주변) 타겟의 추가 선택</v>
       </c>
       <c r="E13" s="4" t="str">
         <f>'[1]@stat'!$A14</f>
@@ -5719,7 +5796,7 @@
       </c>
       <c r="G13" s="4" t="str">
         <f>'[1]@stat'!$C14</f>
-        <v>피해량을 기준으로 계산을 하기 위한 수치</v>
+        <v>900 피해량을 기준으로 계산을 하기 위한 수치</v>
       </c>
       <c r="U13" s="4" t="str">
         <f>'[1]@duration_effect_type'!$A14</f>
@@ -5731,7 +5808,7 @@
       </c>
       <c r="W13" s="4" t="str">
         <f>'[1]@duration_effect_type'!$C14</f>
-        <v>방어력 감소</v>
+        <v>109 방어력 감소</v>
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.3">
@@ -5745,7 +5822,7 @@
       </c>
       <c r="C14" s="4" t="str">
         <f>'[1]@target_rule'!$C15</f>
-        <v>가장 거리가 먼 적 우선 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로) 후 일정 영역내의 (주변) 타겟 추가 선택</v>
+        <v>11 가장 거리가 먼 적 우선 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로) 후 일정 영역내의 (주변) 타겟 추가 선택</v>
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.3">
@@ -5759,7 +5836,7 @@
       </c>
       <c r="C15" s="4" t="str">
         <f>'[1]@target_rule'!$C16</f>
-        <v>남은 체력이 가장 낮은 타겟 선택</v>
+        <v>3001 남은 체력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.3">
@@ -5773,7 +5850,7 @@
       </c>
       <c r="C16" s="4" t="str">
         <f>'[1]@target_rule'!$C17</f>
-        <v>공격력이 가장 낮은 타겟 선택</v>
+        <v>3003 공격력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -5787,7 +5864,7 @@
       </c>
       <c r="C17" s="4" t="str">
         <f>'[1]@target_rule'!$C18</f>
-        <v>방어력이 가장 낮은 타겟 선택</v>
+        <v>3004 방어력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -5801,7 +5878,7 @@
       </c>
       <c r="C18" s="4" t="str">
         <f>'[1]@target_rule'!$C19</f>
-        <v>공격력이 가장 높은 타겟 선택</v>
+        <v>2003 공격력이 가장 높은 타겟 선택</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -5815,7 +5892,7 @@
       </c>
       <c r="C19" s="4" t="str">
         <f>'[1]@target_rule'!$C20</f>
-        <v>방어력이 가장 높은 타겟 선택</v>
+        <v>2004 방어력이 가장 높은 타겟 선택</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -5829,7 +5906,7 @@
       </c>
       <c r="C20" s="4" t="str">
         <f>'[1]@target_rule'!$C21</f>
-        <v>가장 가까운 상대 타겟 선택(화면상에서 적에게 접근하기 위한 용도)</v>
+        <v>9999 가장 가까운 상대 타겟 선택(화면상에서 적에게 접근하기 위한 용도)</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -5843,7 +5920,7 @@
       </c>
       <c r="C21" s="4" t="str">
         <f>'[1]@target_rule'!$C22</f>
-        <v>리더 선택</v>
+        <v>1001 리더 선택</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -5857,7 +5934,7 @@
       </c>
       <c r="C22" s="4" t="str">
         <f>'[1]@target_rule'!$C23</f>
-        <v>남은 체력이 가장 많은 타겟 선택</v>
+        <v>2001 남은 체력이 가장 많은 타겟 선택</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -5871,7 +5948,7 @@
       </c>
       <c r="C23" s="4" t="str">
         <f>'[1]@target_rule'!$C24</f>
-        <v>남은 체력 비율이 가장 높은 타겟 선택</v>
+        <v>2002 남은 체력 비율이 가장 높은 타겟 선택</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -5885,7 +5962,7 @@
       </c>
       <c r="C24" s="4" t="str">
         <f>'[1]@target_rule'!$C25</f>
-        <v>명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
+        <v>2006 명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -5899,7 +5976,7 @@
       </c>
       <c r="C25" s="4" t="str">
         <f>'[1]@target_rule'!$C26</f>
-        <v>회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
+        <v>2007 회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -5913,7 +5990,7 @@
       </c>
       <c r="C26" s="4" t="str">
         <f>'[1]@target_rule'!$C27</f>
-        <v>남은 체력이 가장 높은 인간 종족 선택</v>
+        <v>2008 남은 체력이 가장 높은 인간 종족 선택</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -5927,7 +6004,7 @@
       </c>
       <c r="C27" s="4" t="str">
         <f>'[1]@target_rule'!$C28</f>
-        <v>남은 체력이 가장 높은 엘프 종족 선택</v>
+        <v>2009 남은 체력이 가장 높은 엘프 종족 선택</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -5941,7 +6018,7 @@
       </c>
       <c r="C28" s="4" t="str">
         <f>'[1]@target_rule'!$C29</f>
-        <v>남은 체력이 가장 높은 수인 종족 선택</v>
+        <v>2010 남은 체력이 가장 높은 수인 종족 선택</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -5955,7 +6032,7 @@
       </c>
       <c r="C29" s="4" t="str">
         <f>'[1]@target_rule'!$C30</f>
-        <v>남은 체력이 가장 높은 안드로이드 선택</v>
+        <v>2011 남은 체력이 가장 높은 안드로이드 선택</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -5969,7 +6046,7 @@
       </c>
       <c r="C30" s="4" t="str">
         <f>'[1]@target_rule'!$C31</f>
-        <v>남은 체력이 가장 높은 악마 선택</v>
+        <v>2012 남은 체력이 가장 높은 악마 선택</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -5983,7 +6060,7 @@
       </c>
       <c r="C31" s="4" t="str">
         <f>'[1]@target_rule'!$C32</f>
-        <v>남은 체력이 가장 높은 천사 선택</v>
+        <v>2013 남은 체력이 가장 높은 천사 선택</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -5997,7 +6074,7 @@
       </c>
       <c r="C32" s="4" t="str">
         <f>'[1]@target_rule'!$C33</f>
-        <v>자신을 제외한 체력이 가장 높은 타겟 선택</v>
+        <v>2014 자신을 제외한 체력이 가장 높은 타겟 선택</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -6011,7 +6088,7 @@
       </c>
       <c r="C33" s="4" t="str">
         <f>'[1]@target_rule'!$C34</f>
-        <v>자신을 제외한 체력 비율이 가장 높은 타겟 선택</v>
+        <v>2015 자신을 제외한 체력 비율이 가장 높은 타겟 선택</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -6025,7 +6102,7 @@
       </c>
       <c r="C34" s="4" t="str">
         <f>'[1]@target_rule'!$C35</f>
-        <v>자신을 제외한 공격력이 가장 높은 타겟 선택</v>
+        <v>2016 자신을 제외한 공격력이 가장 높은 타겟 선택</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -6039,7 +6116,7 @@
       </c>
       <c r="C35" s="4" t="str">
         <f>'[1]@target_rule'!$C36</f>
-        <v>자신을 제외한 방어력이 가장 높은 타겟 선택</v>
+        <v>2017 자신을 제외한 방어력이 가장 높은 타겟 선택</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -6053,7 +6130,7 @@
       </c>
       <c r="C36" s="4" t="str">
         <f>'[1]@target_rule'!$C37</f>
-        <v>자신을 제외한 공속이 가장 높은 타겟 선택</v>
+        <v>2018 자신을 제외한 공속이 가장 높은 타겟 선택</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -6067,7 +6144,7 @@
       </c>
       <c r="C37" s="4" t="str">
         <f>'[1]@target_rule'!$C38</f>
-        <v>자신을 제외한 명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
+        <v>2019 자신을 제외한 명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -6081,7 +6158,7 @@
       </c>
       <c r="C38" s="4" t="str">
         <f>'[1]@target_rule'!$C39</f>
-        <v>자신을 제외한 회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
+        <v>2020 자신을 제외한 회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -6095,7 +6172,7 @@
       </c>
       <c r="C39" s="4" t="str">
         <f>'[1]@target_rule'!$C40</f>
-        <v>남은 체력 비율이 가장 낮은 타겟 선택</v>
+        <v>3002 남은 체력 비율이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -6109,7 +6186,7 @@
       </c>
       <c r="C40" s="4" t="str">
         <f>'[1]@target_rule'!$C41</f>
-        <v>속도게이지가 가장 낮은 타겟 선택</v>
+        <v>3005 속도게이지가 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -6123,7 +6200,7 @@
       </c>
       <c r="C41" s="4" t="str">
         <f>'[1]@target_rule'!$C42</f>
-        <v>명중률이 가장 낮은 타겟 선택</v>
+        <v>3006 명중률이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -6137,7 +6214,7 @@
       </c>
       <c r="C42" s="4" t="str">
         <f>'[1]@target_rule'!$C43</f>
-        <v>회피율이 가장 낮은 타겟 선택</v>
+        <v>3007 회피율이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -6151,7 +6228,7 @@
       </c>
       <c r="C43" s="4" t="str">
         <f>'[1]@target_rule'!$C44</f>
-        <v>남은 체력이 가장 낮은 인간 종족 선택</v>
+        <v>3008 남은 체력이 가장 낮은 인간 종족 선택</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -6165,7 +6242,7 @@
       </c>
       <c r="C44" s="4" t="str">
         <f>'[1]@target_rule'!$C45</f>
-        <v>남은 체력이 가장 낮은 엘프 종족 선택</v>
+        <v>3009 남은 체력이 가장 낮은 엘프 종족 선택</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -6179,7 +6256,7 @@
       </c>
       <c r="C45" s="4" t="str">
         <f>'[1]@target_rule'!$C46</f>
-        <v>남은 체력이 가장 낮은 수인 종족 선택</v>
+        <v>3010 남은 체력이 가장 낮은 수인 종족 선택</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -6193,7 +6270,7 @@
       </c>
       <c r="C46" s="4" t="str">
         <f>'[1]@target_rule'!$C47</f>
-        <v>남은 체력이 가장 낮은 안드로이드 선택</v>
+        <v>3011 남은 체력이 가장 낮은 안드로이드 선택</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -6207,7 +6284,7 @@
       </c>
       <c r="C47" s="4" t="str">
         <f>'[1]@target_rule'!$C48</f>
-        <v>남은 체력이 가장 낮은 악마 종족 선택</v>
+        <v>3012 남은 체력이 가장 낮은 악마 종족 선택</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -6221,7 +6298,7 @@
       </c>
       <c r="C48" s="4" t="str">
         <f>'[1]@target_rule'!$C49</f>
-        <v>남은 체력이 가장 낮은 천사 종족 선택</v>
+        <v>3013 남은 체력이 가장 낮은 천사 종족 선택</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -6235,7 +6312,7 @@
       </c>
       <c r="C49" s="4" t="str">
         <f>'[1]@target_rule'!$C50</f>
-        <v>자신을 제외한 남은 체력이 가장 낮은 타겟 선택</v>
+        <v>3014 자신을 제외한 남은 체력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -6249,7 +6326,7 @@
       </c>
       <c r="C50" s="4" t="str">
         <f>'[1]@target_rule'!$C51</f>
-        <v>자신을 제외한 남은 체력 비율이 가장 낮은 타겟 선택</v>
+        <v>3015 자신을 제외한 남은 체력 비율이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -6263,7 +6340,7 @@
       </c>
       <c r="C51" s="4" t="str">
         <f>'[1]@target_rule'!$C52</f>
-        <v>자신을 제외한 공격력이 가장 낮은 타겟 선택</v>
+        <v>3016 자신을 제외한 공격력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -6277,7 +6354,7 @@
       </c>
       <c r="C52" s="4" t="str">
         <f>'[1]@target_rule'!$C53</f>
-        <v>자신을 제외한 방어력이 가장 낮은 타겟 선택</v>
+        <v>3017 자신을 제외한 방어력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -6291,7 +6368,7 @@
       </c>
       <c r="C53" s="4" t="str">
         <f>'[1]@target_rule'!$C54</f>
-        <v>자신을 제외한 공속이 가장 낮은 타겟 선택</v>
+        <v>3018 자신을 제외한 공속이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -6305,7 +6382,7 @@
       </c>
       <c r="C54" s="4" t="str">
         <f>'[1]@target_rule'!$C55</f>
-        <v>자신을 제외한 명중률이 가장 낮은 타겟 선택</v>
+        <v>3019 자신을 제외한 명중률이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -6319,7 +6396,7 @@
       </c>
       <c r="C55" s="4" t="str">
         <f>'[1]@target_rule'!$C56</f>
-        <v>자신을 제외한 회피율이 가장 낮은 타겟 선택</v>
+        <v>3020 자신을 제외한 회피율이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -6333,7 +6410,7 @@
       </c>
       <c r="C56" s="4" t="str">
         <f>'[1]@target_rule'!$C57</f>
-        <v>자신을 포함한 남은 체력이 가장 낮은 타겟 선택</v>
+        <v>3021 자신을 포함한 남은 체력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -6347,7 +6424,7 @@
       </c>
       <c r="C57" s="4" t="str">
         <f>'[1]@target_rule'!$C58</f>
-        <v>자신을 포함한 남은 체력 비율이 가장 낮은 타겟 선택</v>
+        <v>3022 자신을 포함한 남은 체력 비율이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -6361,7 +6438,7 @@
       </c>
       <c r="C58" s="4" t="str">
         <f>'[1]@target_rule'!$C59</f>
-        <v>자신을 포함한 공격력이 가장 낮은 타겟 선택</v>
+        <v>3023 자신을 포함한 공격력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -6375,7 +6452,7 @@
       </c>
       <c r="C59" s="4" t="str">
         <f>'[1]@target_rule'!$C60</f>
-        <v>자신을 포함한 방어력이 가장 낮은 타겟 선택</v>
+        <v>3024 자신을 포함한 방어력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -6389,7 +6466,7 @@
       </c>
       <c r="C60" s="4" t="str">
         <f>'[1]@target_rule'!$C61</f>
-        <v>자신을 포함한 공속이 가장 낮은 타겟 선택</v>
+        <v>3025 자신을 포함한 공속이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -6403,7 +6480,7 @@
       </c>
       <c r="C61" s="4" t="str">
         <f>'[1]@target_rule'!$C62</f>
-        <v>자신을 포함한 명중률이 가장 낮은 타겟 선택</v>
+        <v>3026 자신을 포함한 명중률이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -6417,7 +6494,7 @@
       </c>
       <c r="C62" s="4" t="str">
         <f>'[1]@target_rule'!$C63</f>
-        <v>자신을 포함한 회피율이 가장 낮은 타겟 선택</v>
+        <v>3027 자신을 포함한 회피율이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -6431,7 +6508,7 @@
       </c>
       <c r="C63" s="4" t="str">
         <f>'[1]@target_rule'!$C64</f>
-        <v>자신보다 약한 속성 타겟 선택 (상성 시스템이 있을 경우)</v>
+        <v>4001 자신보다 약한 속성 타겟 선택 (상성 시스템이 있을 경우)</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -6445,7 +6522,7 @@
       </c>
       <c r="C64" s="4" t="str">
         <f>'[1]@target_rule'!$C65</f>
-        <v>자신보다 강한 속성 타겟 선택 (상성 시스템이 있을 경우)</v>
+        <v>4002 자신보다 강한 속성 타겟 선택 (상성 시스템이 있을 경우)</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -6459,7 +6536,7 @@
       </c>
       <c r="C65" s="4" t="str">
         <f>'[1]@target_rule'!$C66</f>
-        <v>버프 효과가 있는 타겟 선택</v>
+        <v>5001 버프 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -6473,7 +6550,7 @@
       </c>
       <c r="C66" s="4" t="str">
         <f>'[1]@target_rule'!$C67</f>
-        <v>버프 효과 중 공격력 증가 효과가 있는 타겟 선택</v>
+        <v>5002 버프 효과 중 공격력 증가 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -6487,7 +6564,7 @@
       </c>
       <c r="C67" s="4" t="str">
         <f>'[1]@target_rule'!$C68</f>
-        <v>버프 효과 중 방어력 증가 효과가 있는 타겟 선택</v>
+        <v>5003 버프 효과 중 방어력 증가 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -6501,7 +6578,7 @@
       </c>
       <c r="C68" s="4" t="str">
         <f>'[1]@target_rule'!$C69</f>
-        <v>버프 효과 중 공속 증가 효과가 있는 타겟 선택</v>
+        <v>5004 버프 효과 중 공속 증가 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -6515,7 +6592,7 @@
       </c>
       <c r="C69" s="4" t="str">
         <f>'[1]@target_rule'!$C70</f>
-        <v>버프 효과 중 회피율 증가 효과가 있는 타겟 선택</v>
+        <v>5005 버프 효과 중 회피율 증가 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -6529,7 +6606,7 @@
       </c>
       <c r="C70" s="4" t="str">
         <f>'[1]@target_rule'!$C71</f>
-        <v>버프 효과 중 치명타 확률 증가 효과가 있는 타겟 선택</v>
+        <v>5006 버프 효과 중 치명타 확률 증가 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -6543,7 +6620,7 @@
       </c>
       <c r="C71" s="4" t="str">
         <f>'[1]@target_rule'!$C72</f>
-        <v>버프 효과 중 치명타 피해량 증가 효과가 있는 타겟 선택</v>
+        <v>5007 버프 효과 중 치명타 피해량 증가 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -6557,7 +6634,7 @@
       </c>
       <c r="C72" s="4" t="str">
         <f>'[1]@target_rule'!$C73</f>
-        <v>디버프 효과가 있는 타겟 선택</v>
+        <v>6001 디버프 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -6571,7 +6648,7 @@
       </c>
       <c r="C73" s="4" t="str">
         <f>'[1]@target_rule'!$C74</f>
-        <v>디버프 효과 중 공격력 감소 효과가 있는 타겟 선택</v>
+        <v>6002 디버프 효과 중 공격력 감소 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -6585,7 +6662,7 @@
       </c>
       <c r="C74" s="4" t="str">
         <f>'[1]@target_rule'!$C75</f>
-        <v>디버프 효과 중 방어력 감소 효과가 있는 타겟 선택</v>
+        <v>6003 디버프 효과 중 방어력 감소 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -6599,7 +6676,7 @@
       </c>
       <c r="C75" s="4" t="str">
         <f>'[1]@target_rule'!$C76</f>
-        <v>디버프 효과 중 화상 효과가 있는 타겟 선택</v>
+        <v>6004 디버프 효과 중 화상 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -6613,7 +6690,7 @@
       </c>
       <c r="C76" s="4" t="str">
         <f>'[1]@target_rule'!$C77</f>
-        <v>디버프 효과 중 출혈 효과가 있는 타겟 선택</v>
+        <v>6005 디버프 효과 중 출혈 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -6627,7 +6704,7 @@
       </c>
       <c r="C77" s="4" t="str">
         <f>'[1]@target_rule'!$C78</f>
-        <v>디버프 효과 중 중독 효과가 있는 타겟 선택</v>
+        <v>6006 디버프 효과 중 중독 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -6641,7 +6718,7 @@
       </c>
       <c r="C78" s="4" t="str">
         <f>'[1]@target_rule'!$C79</f>
-        <v>디버프 효과 중 공속 감소 효과가 있는 타겟 선택</v>
+        <v>6007 디버프 효과 중 공속 감소 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -6655,7 +6732,7 @@
       </c>
       <c r="C79" s="4" t="str">
         <f>'[1]@target_rule'!$C80</f>
-        <v>디버프 효과 중 수면 효과가 있는 타겟 선택</v>
+        <v>6008 디버프 효과 중 수면 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -6669,7 +6746,7 @@
       </c>
       <c r="C80" s="4" t="str">
         <f>'[1]@target_rule'!$C81</f>
-        <v>디버프 효과 중 치명상 효과가 있는 타겟 선택</v>
+        <v>6009 디버프 효과 중 치명상 효과가 있는 타겟 선택</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -6683,7 +6760,7 @@
       </c>
       <c r="C81" s="4" t="str">
         <f>'[1]@target_rule'!$C82</f>
-        <v>디버프 효과 중 명중률 감소 효과가 있는 타겟 선택</v>
+        <v>6010 디버프 효과 중 명중률 감소 효과가 있는 타겟 선택</v>
       </c>
     </row>
   </sheetData>
@@ -6697,7 +6774,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6770,361 +6847,361 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="21" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="24">
+      <c r="A5" s="23">
         <v>100001</v>
       </c>
-      <c r="B5" s="39" t="str">
+      <c r="B5" s="38" t="str">
         <f>VLOOKUP(A5,pc_skill_data!$B:$C,2,)</f>
         <v>탱/일반/근접공격/데미지(공격력 100%)</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="39">
         <v>2</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="38">
         <v>1</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="G5" s="39"/>
-      <c r="H5" s="41" t="s">
+      <c r="G5" s="38"/>
+      <c r="H5" s="40" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="27">
+      <c r="A6" s="26">
         <v>100002</v>
       </c>
-      <c r="B6" s="20" t="str">
+      <c r="B6" s="19" t="str">
         <f>VLOOKUP(A6,pc_skill_data!$B:$C,2,)</f>
         <v>탱/스킬1/자신의 체력 회복(최대 체력 10%)</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="20">
         <v>2</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="19">
         <v>2</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="42" t="s">
+      <c r="G6" s="19"/>
+      <c r="H6" s="41" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="28">
+      <c r="A7" s="27">
         <v>100003</v>
       </c>
-      <c r="B7" s="43" t="str">
+      <c r="B7" s="42" t="str">
         <f>VLOOKUP(A7,pc_skill_data!$B:$C,2,)</f>
         <v>탱/스킬2/근접공격 (공격력 120%)</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D7" s="43">
         <v>2</v>
       </c>
-      <c r="E7" s="43">
+      <c r="E7" s="42">
         <v>3</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="45" t="s">
+      <c r="G7" s="42"/>
+      <c r="H7" s="44" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="24">
+      <c r="A8" s="23">
         <v>100101</v>
       </c>
-      <c r="B8" s="39" t="str">
+      <c r="B8" s="38" t="str">
         <f>VLOOKUP(A8,pc_skill_data!$B:$C,2,)</f>
         <v>근딜/일반 (공격력 100%)</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="40">
+      <c r="D8" s="39">
         <v>2</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="38">
         <v>1</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="G8" s="39"/>
-      <c r="H8" s="41" t="s">
+      <c r="G8" s="38"/>
+      <c r="H8" s="40" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="27">
+      <c r="A9" s="26">
         <v>100102</v>
       </c>
-      <c r="B9" s="20" t="str">
+      <c r="B9" s="19" t="str">
         <f>VLOOKUP(A9,pc_skill_data!$B:$C,2,)</f>
         <v>근딜/나/공격력 증가 버프 (20%)</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="20">
         <v>2</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="19">
         <v>2</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="42" t="s">
+      <c r="G9" s="19"/>
+      <c r="H9" s="41" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="28">
+      <c r="A10" s="27">
         <v>100103</v>
       </c>
-      <c r="B10" s="43" t="str">
+      <c r="B10" s="42" t="str">
         <f>VLOOKUP(A10,pc_skill_data!$B:$C,2,)</f>
         <v>근딜/근접공격/대미지(공격력 130%)</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="43">
         <v>2</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E10" s="42">
         <v>3</v>
       </c>
-      <c r="F10" s="43" t="s">
+      <c r="F10" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="G10" s="43"/>
-      <c r="H10" s="45" t="s">
+      <c r="G10" s="42"/>
+      <c r="H10" s="44" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="24">
+      <c r="A11" s="23">
         <v>100201</v>
       </c>
-      <c r="B11" s="39" t="str">
+      <c r="B11" s="38" t="str">
         <f>VLOOKUP(A11,pc_skill_data!$B:$C,2,)</f>
         <v>원딜/일반</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11" s="39">
         <v>2</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="38">
         <v>1</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="G11" s="39"/>
-      <c r="H11" s="41" t="s">
+      <c r="G11" s="38"/>
+      <c r="H11" s="40" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="27">
+      <c r="A12" s="26">
         <v>100202</v>
       </c>
-      <c r="B12" s="20" t="str">
+      <c r="B12" s="19" t="str">
         <f>VLOOKUP(A12,pc_skill_data!$B:$C,2,)</f>
         <v>원딜/스킬1/대미지 (스킬 대미지 120%)</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="20">
         <v>2</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="19">
         <v>2</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="42" t="s">
+      <c r="G12" s="19"/>
+      <c r="H12" s="41" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="28">
+      <c r="A13" s="27">
         <v>100203</v>
       </c>
-      <c r="B13" s="43" t="str">
+      <c r="B13" s="42" t="str">
         <f>VLOOKUP(A13,pc_skill_data!$B:$C,2,)</f>
         <v>원딜/스킬2/범위공격 (스킬 대미지 80%)</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="D13" s="44">
+      <c r="D13" s="43">
         <v>2</v>
       </c>
-      <c r="E13" s="43">
+      <c r="E13" s="42">
         <v>3</v>
       </c>
-      <c r="F13" s="43" t="s">
+      <c r="F13" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="G13" s="43"/>
-      <c r="H13" s="45" t="s">
+      <c r="G13" s="42"/>
+      <c r="H13" s="44" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="24">
+      <c r="A14" s="23">
         <v>100301</v>
       </c>
-      <c r="B14" s="39" t="str">
+      <c r="B14" s="38" t="str">
         <f>VLOOKUP(A14,pc_skill_data!$B:$C,2,)</f>
         <v>원서폿/일반</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="D14" s="40">
+      <c r="D14" s="39">
         <v>2</v>
       </c>
-      <c r="E14" s="39">
+      <c r="E14" s="38">
         <v>1</v>
       </c>
-      <c r="F14" s="39" t="s">
+      <c r="F14" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="G14" s="39"/>
-      <c r="H14" s="41" t="s">
+      <c r="G14" s="38"/>
+      <c r="H14" s="40" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="27">
+      <c r="A15" s="26">
         <v>100302</v>
       </c>
-      <c r="B15" s="20" t="str">
+      <c r="B15" s="19" t="str">
         <f>VLOOKUP(A15,pc_skill_data!$B:$C,2,)</f>
         <v>원서폿/스킬1/전방 방어력 감소(20%)</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="20">
         <v>2</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="19">
         <v>2</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="42" t="s">
+      <c r="G15" s="19"/>
+      <c r="H15" s="41" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="27">
+      <c r="A16" s="26">
         <v>100303</v>
       </c>
-      <c r="B16" s="50" t="str">
+      <c r="B16" s="49" t="str">
         <f>VLOOKUP(A16,pc_skill_data!$B:$C,2,)</f>
         <v>원서폿/스킬2/대미지 (공격력 120%)</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="D16" s="51">
+      <c r="D16" s="50">
         <v>2</v>
       </c>
-      <c r="E16" s="50">
+      <c r="E16" s="49">
         <v>3</v>
       </c>
-      <c r="F16" s="50" t="s">
+      <c r="F16" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="G16" s="50"/>
-      <c r="H16" s="52" t="s">
+      <c r="G16" s="49"/>
+      <c r="H16" s="51" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="31">
+      <c r="A17" s="30">
         <v>100401</v>
       </c>
-      <c r="B17" s="39" t="str">
+      <c r="B17" s="38" t="str">
         <f>VLOOKUP(A17,pc_skill_data!$B:$C,2,)</f>
         <v>원힐/일반</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="D17" s="40">
+      <c r="D17" s="39">
         <v>2</v>
       </c>
-      <c r="E17" s="39">
+      <c r="E17" s="38">
         <v>1</v>
       </c>
-      <c r="F17" s="39" t="s">
+      <c r="F17" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="G17" s="39"/>
-      <c r="H17" s="41" t="s">
+      <c r="G17" s="38"/>
+      <c r="H17" s="40" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="34">
+      <c r="A18" s="33">
         <v>100402</v>
       </c>
-      <c r="B18" s="20" t="str">
+      <c r="B18" s="19" t="str">
         <f>VLOOKUP(A18,pc_skill_data!$B:$C,2,)</f>
         <v>원힐/스킬1/체력이 가장 낮은 아군 회복(최대 체력 30%)</v>
       </c>
@@ -7137,69 +7214,69 @@
       <c r="E18" s="4">
         <v>2</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="19" t="s">
         <v>159</v>
       </c>
       <c r="G18" s="4"/>
-      <c r="H18" s="53" t="s">
+      <c r="H18" s="52" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="36">
+      <c r="A19" s="35">
         <v>100403</v>
       </c>
-      <c r="B19" s="43" t="str">
+      <c r="B19" s="42" t="str">
         <f>VLOOKUP(A19,pc_skill_data!$B:$C,2,)</f>
         <v>원힐/스킬2/대미지 (스킬 대미지 120%)</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="28">
         <v>2.5</v>
       </c>
-      <c r="E19" s="37">
+      <c r="E19" s="36">
         <v>3</v>
       </c>
-      <c r="F19" s="43" t="s">
+      <c r="F19" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="G19" s="37"/>
-      <c r="H19" s="54" t="s">
+      <c r="G19" s="36"/>
+      <c r="H19" s="53" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="31">
+      <c r="A20" s="30">
         <v>100501</v>
       </c>
-      <c r="B20" s="39" t="str">
+      <c r="B20" s="38" t="str">
         <f>VLOOKUP(A20,pc_skill_data!$B:$C,2,)</f>
         <v>원딜/일반</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="D20" s="40">
+      <c r="D20" s="39">
         <v>2</v>
       </c>
-      <c r="E20" s="39">
+      <c r="E20" s="38">
         <v>1</v>
       </c>
-      <c r="F20" s="39" t="s">
+      <c r="F20" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="G20" s="39"/>
-      <c r="H20" s="41" t="s">
+      <c r="G20" s="38"/>
+      <c r="H20" s="40" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="34">
+      <c r="A21" s="33">
         <v>100502</v>
       </c>
-      <c r="B21" s="20" t="str">
+      <c r="B21" s="19" t="str">
         <f>VLOOKUP(A21,pc_skill_data!$B:$C,2,)</f>
         <v>원딜/전방/공격력 감소(15%)</v>
       </c>
@@ -7212,36 +7289,36 @@
       <c r="E21" s="4">
         <v>2</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="19" t="s">
         <v>180</v>
       </c>
       <c r="G21" s="4"/>
-      <c r="H21" s="41" t="s">
+      <c r="H21" s="40" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="36">
+      <c r="A22" s="35">
         <v>100503</v>
       </c>
-      <c r="B22" s="43" t="str">
+      <c r="B22" s="42" t="str">
         <f>VLOOKUP(A22,pc_skill_data!$B:$C,2,)</f>
         <v>원딜/스킬2/대미지 (스킬 대미지 130%)</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="29">
+      <c r="D22" s="28">
         <v>2.5</v>
       </c>
-      <c r="E22" s="37">
+      <c r="E22" s="36">
         <v>3</v>
       </c>
-      <c r="F22" s="43" t="s">
+      <c r="F22" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="G22" s="37"/>
-      <c r="H22" s="54" t="s">
+      <c r="G22" s="36"/>
+      <c r="H22" s="53" t="s">
         <v>167</v>
       </c>
     </row>
@@ -7250,7 +7327,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4C786C54-CC5B-4545-99A0-6CDFA127AF9A}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$AH$3:$AH$7</xm:f>
@@ -7267,11 +7344,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00F7AA3-FB12-454D-93A6-31450B9003EC}">
   <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="W28" sqref="W28"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7397,248 +7474,248 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
+    <row r="3" spans="1:24" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="12" t="s">
+      <c r="G3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="P3" s="12" t="s">
+      <c r="O3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="Q3" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="R3" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="S3" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="T3" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="U3" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="V3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="W3" s="12" t="s">
+      <c r="W3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="X3" s="12" t="s">
+      <c r="X3" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="L4" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="22" t="s">
+      <c r="M4" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="N4" s="22" t="s">
+      <c r="N4" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="O4" s="22" t="s">
+      <c r="O4" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="P4" s="22" t="s">
+      <c r="P4" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="Q4" s="22" t="s">
+      <c r="Q4" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="R4" s="22" t="s">
+      <c r="R4" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="S4" s="22" t="s">
+      <c r="S4" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="T4" s="22" t="s">
+      <c r="T4" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="U4" s="22" t="s">
+      <c r="U4" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="V4" s="22" t="s">
+      <c r="V4" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="W4" s="22" t="s">
+      <c r="W4" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="X4" s="22" t="s">
+      <c r="X4" s="21" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31">
+      <c r="A5" s="30">
         <v>100001</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="24">
         <v>100001</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="63" t="s">
         <v>162</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="24">
         <v>1</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="24">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F5,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F5" s="59" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E5,'!참조_ENUM'!$B$3:$B$81,0))</f>
-        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
-      </c>
-      <c r="G5" s="25">
-        <v>0</v>
-      </c>
-      <c r="H5" s="25">
+      <c r="F5" s="58" t="s">
+        <v>188</v>
+      </c>
+      <c r="G5" s="24">
+        <v>0</v>
+      </c>
+      <c r="H5" s="24">
         <v>1</v>
       </c>
-      <c r="I5" s="25">
-        <v>0</v>
-      </c>
-      <c r="J5" s="25">
-        <v>0</v>
-      </c>
-      <c r="K5" s="26" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J5,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="L5" s="25">
-        <v>0</v>
-      </c>
-      <c r="M5" s="32">
-        <v>0</v>
-      </c>
-      <c r="N5" s="32" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M5,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="O5" s="32">
-        <v>0</v>
-      </c>
-      <c r="P5" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="25">
+      <c r="I5" s="24">
+        <v>0</v>
+      </c>
+      <c r="J5" s="24">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K5,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="L5" s="24">
+        <v>0</v>
+      </c>
+      <c r="M5" s="31">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N5,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="72" t="s">
+        <v>192</v>
+      </c>
+      <c r="O5" s="31">
+        <v>0</v>
+      </c>
+      <c r="P5" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="24">
         <v>100</v>
       </c>
-      <c r="R5" s="32">
+      <c r="R5" s="31">
         <v>100001</v>
       </c>
-      <c r="S5" s="32">
-        <v>0</v>
-      </c>
-      <c r="T5" s="32">
-        <v>0</v>
-      </c>
-      <c r="U5" s="32">
-        <v>0</v>
-      </c>
-      <c r="V5" s="32" t="s">
+      <c r="S5" s="31">
+        <v>0</v>
+      </c>
+      <c r="T5" s="31">
+        <v>0</v>
+      </c>
+      <c r="U5" s="31">
+        <v>0</v>
+      </c>
+      <c r="V5" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="W5" s="32"/>
-      <c r="X5" s="63">
+      <c r="W5" s="31"/>
+      <c r="X5" s="62">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="34">
+      <c r="A6" s="33">
         <v>100002</v>
       </c>
       <c r="B6" s="7">
         <v>100002</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="64" t="s">
         <v>163</v>
       </c>
       <c r="D6" s="7">
         <v>0</v>
       </c>
       <c r="E6" s="7">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F6,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>1</v>
       </c>
-      <c r="F6" s="60" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E6,'!참조_ENUM'!$B$3:$B$81,0))</f>
-        <v>자신 선택</v>
+      <c r="F6" s="59" t="s">
+        <v>189</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -7650,21 +7727,21 @@
         <v>0</v>
       </c>
       <c r="J6" s="7">
-        <v>0</v>
-      </c>
-      <c r="K6" s="19" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J6,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>NONE</v>
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K6,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>192</v>
       </c>
       <c r="L6" s="7">
         <v>0</v>
       </c>
       <c r="M6" s="4">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M6,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
-        <v>NONE</v>
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N6,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="73" t="s">
+        <v>192</v>
       </c>
       <c r="O6" s="4">
         <v>0</v>
@@ -7691,179 +7768,179 @@
         <v>119</v>
       </c>
       <c r="W6" s="4"/>
-      <c r="X6" s="53">
+      <c r="X6" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="36">
+      <c r="A7" s="35">
         <v>100003</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="28">
         <v>100003</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="28">
         <v>1</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="28">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F7,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F7" s="61" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E7,'!참조_ENUM'!$B$3:$B$81,0))</f>
-        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
-      </c>
-      <c r="G7" s="29">
-        <v>0</v>
-      </c>
-      <c r="H7" s="29">
+      <c r="F7" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="G7" s="28">
+        <v>0</v>
+      </c>
+      <c r="H7" s="28">
         <v>1</v>
       </c>
-      <c r="I7" s="29">
-        <v>0</v>
-      </c>
-      <c r="J7" s="29">
-        <v>0</v>
-      </c>
-      <c r="K7" s="30" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J7,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="L7" s="29">
-        <v>0</v>
-      </c>
-      <c r="M7" s="37">
-        <v>0</v>
-      </c>
-      <c r="N7" s="37" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M7,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="O7" s="37">
-        <v>0</v>
-      </c>
-      <c r="P7" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="29">
+      <c r="I7" s="28">
+        <v>0</v>
+      </c>
+      <c r="J7" s="28">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K7,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="L7" s="28">
+        <v>0</v>
+      </c>
+      <c r="M7" s="36">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N7,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="74" t="s">
+        <v>192</v>
+      </c>
+      <c r="O7" s="36">
+        <v>0</v>
+      </c>
+      <c r="P7" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="28">
         <v>100</v>
       </c>
-      <c r="R7" s="37">
+      <c r="R7" s="36">
         <v>100002</v>
       </c>
-      <c r="S7" s="37">
-        <v>0</v>
-      </c>
-      <c r="T7" s="37">
-        <v>0</v>
-      </c>
-      <c r="U7" s="37">
-        <v>0</v>
-      </c>
-      <c r="V7" s="37" t="s">
+      <c r="S7" s="36">
+        <v>0</v>
+      </c>
+      <c r="T7" s="36">
+        <v>0</v>
+      </c>
+      <c r="U7" s="36">
+        <v>0</v>
+      </c>
+      <c r="V7" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="W7" s="37"/>
-      <c r="X7" s="54">
+      <c r="W7" s="36"/>
+      <c r="X7" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31">
+      <c r="A8" s="30">
         <v>100101</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="24">
         <v>100101</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="63" t="s">
         <v>165</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="24">
         <v>1</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="24">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F8,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F8" s="59" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E8,'!참조_ENUM'!$B$3:$B$81,0))</f>
-        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
-      </c>
-      <c r="G8" s="25">
-        <v>0</v>
-      </c>
-      <c r="H8" s="25">
+      <c r="F8" s="58" t="s">
+        <v>188</v>
+      </c>
+      <c r="G8" s="24">
+        <v>0</v>
+      </c>
+      <c r="H8" s="24">
         <v>1</v>
       </c>
-      <c r="I8" s="25">
-        <v>0</v>
-      </c>
-      <c r="J8" s="25">
-        <v>0</v>
-      </c>
-      <c r="K8" s="26" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J8,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="L8" s="25">
-        <v>0</v>
-      </c>
-      <c r="M8" s="32">
-        <v>0</v>
-      </c>
-      <c r="N8" s="32" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M8,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="O8" s="32">
-        <v>0</v>
-      </c>
-      <c r="P8" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="25">
+      <c r="I8" s="24">
+        <v>0</v>
+      </c>
+      <c r="J8" s="24">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K8,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="L8" s="24">
+        <v>0</v>
+      </c>
+      <c r="M8" s="31">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N8,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="72" t="s">
+        <v>192</v>
+      </c>
+      <c r="O8" s="31">
+        <v>0</v>
+      </c>
+      <c r="P8" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="24">
         <v>100</v>
       </c>
-      <c r="R8" s="32">
+      <c r="R8" s="31">
         <v>100004</v>
       </c>
-      <c r="S8" s="32">
-        <v>0</v>
-      </c>
-      <c r="T8" s="32">
-        <v>0</v>
-      </c>
-      <c r="U8" s="32">
-        <v>0</v>
-      </c>
-      <c r="V8" s="32" t="s">
+      <c r="S8" s="31">
+        <v>0</v>
+      </c>
+      <c r="T8" s="31">
+        <v>0</v>
+      </c>
+      <c r="U8" s="31">
+        <v>0</v>
+      </c>
+      <c r="V8" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="W8" s="32"/>
-      <c r="X8" s="63">
+      <c r="W8" s="31"/>
+      <c r="X8" s="62">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="34">
+      <c r="A9" s="33">
         <v>100102</v>
       </c>
       <c r="B9" s="7">
         <v>100102</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="64" t="s">
         <v>169</v>
       </c>
       <c r="D9" s="7">
         <v>0</v>
       </c>
       <c r="E9" s="7">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F9,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>1</v>
       </c>
-      <c r="F9" s="60" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E9,'!참조_ENUM'!$B$3:$B$81,0))</f>
-        <v>자신 선택</v>
+      <c r="F9" s="59" t="s">
+        <v>189</v>
       </c>
       <c r="G9" s="7">
         <v>0</v>
@@ -7875,21 +7952,21 @@
         <v>0</v>
       </c>
       <c r="J9" s="7">
-        <v>0</v>
-      </c>
-      <c r="K9" s="19" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J9,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>NONE</v>
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K9,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>192</v>
       </c>
       <c r="L9" s="7">
         <v>0</v>
       </c>
       <c r="M9" s="4">
-        <v>0</v>
-      </c>
-      <c r="N9" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M9,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
-        <v>NONE</v>
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N9,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="73" t="s">
+        <v>192</v>
       </c>
       <c r="O9" s="4">
         <v>0</v>
@@ -7916,179 +7993,179 @@
         <v>119</v>
       </c>
       <c r="W9" s="4"/>
-      <c r="X9" s="53">
+      <c r="X9" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="36">
+      <c r="A10" s="35">
         <v>100103</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="28">
         <v>100103</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="28">
         <v>1</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="28">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F10,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F10" s="61" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E10,'!참조_ENUM'!$B$3:$B$81,0))</f>
-        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
-      </c>
-      <c r="G10" s="29">
-        <v>0</v>
-      </c>
-      <c r="H10" s="29">
+      <c r="F10" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="G10" s="28">
+        <v>0</v>
+      </c>
+      <c r="H10" s="28">
         <v>1</v>
       </c>
-      <c r="I10" s="29">
-        <v>0</v>
-      </c>
-      <c r="J10" s="29">
-        <v>0</v>
-      </c>
-      <c r="K10" s="30" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J10,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="L10" s="29">
-        <v>0</v>
-      </c>
-      <c r="M10" s="37">
-        <v>0</v>
-      </c>
-      <c r="N10" s="37" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M10,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="O10" s="37">
-        <v>0</v>
-      </c>
-      <c r="P10" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="29" t="s">
+      <c r="I10" s="28">
+        <v>0</v>
+      </c>
+      <c r="J10" s="28">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K10,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="L10" s="28">
+        <v>0</v>
+      </c>
+      <c r="M10" s="36">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N10,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="74" t="s">
+        <v>192</v>
+      </c>
+      <c r="O10" s="36">
+        <v>0</v>
+      </c>
+      <c r="P10" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="R10" s="37">
+      <c r="R10" s="36">
         <v>100006</v>
       </c>
-      <c r="S10" s="37">
-        <v>0</v>
-      </c>
-      <c r="T10" s="37">
-        <v>0</v>
-      </c>
-      <c r="U10" s="37">
-        <v>0</v>
-      </c>
-      <c r="V10" s="37" t="s">
+      <c r="S10" s="36">
+        <v>0</v>
+      </c>
+      <c r="T10" s="36">
+        <v>0</v>
+      </c>
+      <c r="U10" s="36">
+        <v>0</v>
+      </c>
+      <c r="V10" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="W10" s="37"/>
-      <c r="X10" s="54">
+      <c r="W10" s="36"/>
+      <c r="X10" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="31">
+      <c r="A11" s="30">
         <v>100201</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="24">
         <v>100201</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="24">
         <v>1</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="24">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F11,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F11" s="59" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E11,'!참조_ENUM'!$B$3:$B$81,0))</f>
-        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
-      </c>
-      <c r="G11" s="25">
-        <v>0</v>
-      </c>
-      <c r="H11" s="25">
+      <c r="F11" s="58" t="s">
+        <v>188</v>
+      </c>
+      <c r="G11" s="24">
+        <v>0</v>
+      </c>
+      <c r="H11" s="24">
         <v>1</v>
       </c>
-      <c r="I11" s="25">
-        <v>0</v>
-      </c>
-      <c r="J11" s="25">
-        <v>0</v>
-      </c>
-      <c r="K11" s="26" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J11,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="L11" s="25">
-        <v>0</v>
-      </c>
-      <c r="M11" s="32">
-        <v>0</v>
-      </c>
-      <c r="N11" s="32" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M11,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="O11" s="32">
-        <v>0</v>
-      </c>
-      <c r="P11" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="25">
+      <c r="I11" s="24">
+        <v>0</v>
+      </c>
+      <c r="J11" s="24">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K11,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="L11" s="24">
+        <v>0</v>
+      </c>
+      <c r="M11" s="31">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N11,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="72" t="s">
+        <v>192</v>
+      </c>
+      <c r="O11" s="31">
+        <v>0</v>
+      </c>
+      <c r="P11" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="24">
         <v>100</v>
       </c>
-      <c r="R11" s="32">
+      <c r="R11" s="31">
         <v>100007</v>
       </c>
-      <c r="S11" s="32">
-        <v>0</v>
-      </c>
-      <c r="T11" s="32">
-        <v>0</v>
-      </c>
-      <c r="U11" s="32">
-        <v>0</v>
-      </c>
-      <c r="V11" s="32" t="s">
+      <c r="S11" s="31">
+        <v>0</v>
+      </c>
+      <c r="T11" s="31">
+        <v>0</v>
+      </c>
+      <c r="U11" s="31">
+        <v>0</v>
+      </c>
+      <c r="V11" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="W11" s="32"/>
-      <c r="X11" s="63">
+      <c r="W11" s="31"/>
+      <c r="X11" s="62">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="34">
+      <c r="A12" s="33">
         <v>100202</v>
       </c>
       <c r="B12" s="7">
         <v>100202</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="64" t="s">
         <v>131</v>
       </c>
       <c r="D12" s="7">
         <v>1</v>
       </c>
       <c r="E12" s="7">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F12,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F12" s="60" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E12,'!참조_ENUM'!$B$3:$B$81,0))</f>
-        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
+      <c r="F12" s="59" t="s">
+        <v>188</v>
       </c>
       <c r="G12" s="7">
         <v>0</v>
@@ -8100,21 +8177,21 @@
         <v>0</v>
       </c>
       <c r="J12" s="7">
-        <v>0</v>
-      </c>
-      <c r="K12" s="19" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J12,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>NONE</v>
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K12,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="18" t="s">
+        <v>192</v>
       </c>
       <c r="L12" s="7">
         <v>0</v>
       </c>
       <c r="M12" s="4">
-        <v>0</v>
-      </c>
-      <c r="N12" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M12,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
-        <v>NONE</v>
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N12,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="73" t="s">
+        <v>192</v>
       </c>
       <c r="O12" s="4">
         <v>0</v>
@@ -8141,181 +8218,181 @@
         <v>88</v>
       </c>
       <c r="W12" s="4"/>
-      <c r="X12" s="53">
+      <c r="X12" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="36">
+      <c r="A13" s="35">
         <v>100203</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B13" s="28">
         <v>100203</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="28">
         <v>1</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="28">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F13,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>10</v>
       </c>
-      <c r="F13" s="61" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E13,'!참조_ENUM'!$B$3:$B$81,0))</f>
-        <v>가장 가까운 적 우선 선택(순번 컬럼 연동하여 순서대로) 후 일정 영역내의(주변) 타겟의 추가 선택</v>
-      </c>
-      <c r="G13" s="29">
-        <v>0</v>
-      </c>
-      <c r="H13" s="29">
+      <c r="F13" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="G13" s="28">
+        <v>0</v>
+      </c>
+      <c r="H13" s="28">
         <v>5</v>
       </c>
-      <c r="I13" s="29">
+      <c r="I13" s="28">
         <v>7</v>
       </c>
-      <c r="J13" s="29">
-        <v>0</v>
-      </c>
-      <c r="K13" s="30" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J13,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="L13" s="29">
-        <v>0</v>
-      </c>
-      <c r="M13" s="37">
-        <v>0</v>
-      </c>
-      <c r="N13" s="37" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M13,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="O13" s="37">
-        <v>0</v>
-      </c>
-      <c r="P13" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="29" t="s">
+      <c r="J13" s="28">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K13,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="L13" s="28">
+        <v>0</v>
+      </c>
+      <c r="M13" s="36">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N13,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="74" t="s">
+        <v>192</v>
+      </c>
+      <c r="O13" s="36">
+        <v>0</v>
+      </c>
+      <c r="P13" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="R13" s="37">
+      <c r="R13" s="36">
         <v>100009</v>
       </c>
-      <c r="S13" s="37">
-        <v>0</v>
-      </c>
-      <c r="T13" s="37">
-        <v>0</v>
-      </c>
-      <c r="U13" s="37">
-        <v>0</v>
-      </c>
-      <c r="V13" s="37" t="s">
+      <c r="S13" s="36">
+        <v>0</v>
+      </c>
+      <c r="T13" s="36">
+        <v>0</v>
+      </c>
+      <c r="U13" s="36">
+        <v>0</v>
+      </c>
+      <c r="V13" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="W13" s="37"/>
-      <c r="X13" s="54">
+      <c r="W13" s="36"/>
+      <c r="X13" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="31">
+      <c r="A14" s="30">
         <v>100301</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="24">
         <v>100301</v>
       </c>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="24">
         <v>1</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="24">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F14,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F14" s="59" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E14,'!참조_ENUM'!$B$3:$B$81,0))</f>
-        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
-      </c>
-      <c r="G14" s="25">
-        <v>0</v>
-      </c>
-      <c r="H14" s="25">
+      <c r="F14" s="58" t="s">
+        <v>188</v>
+      </c>
+      <c r="G14" s="24">
+        <v>0</v>
+      </c>
+      <c r="H14" s="24">
         <v>1</v>
       </c>
-      <c r="I14" s="25">
-        <v>0</v>
-      </c>
-      <c r="J14" s="25">
+      <c r="I14" s="24">
+        <v>0</v>
+      </c>
+      <c r="J14" s="24">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K14,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
-      <c r="K14" s="26" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J14,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>투사체를 타겟의 몸에 던진다</v>
-      </c>
-      <c r="L14" s="25">
-        <v>0</v>
-      </c>
-      <c r="M14" s="32">
-        <v>0</v>
-      </c>
-      <c r="N14" s="32" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M14,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="O14" s="32">
-        <v>0</v>
-      </c>
-      <c r="P14" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="25">
+      <c r="K14" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="L14" s="24">
+        <v>0</v>
+      </c>
+      <c r="M14" s="31">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N14,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="72" t="s">
+        <v>192</v>
+      </c>
+      <c r="O14" s="31">
+        <v>0</v>
+      </c>
+      <c r="P14" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="24">
         <v>100</v>
       </c>
-      <c r="R14" s="32">
+      <c r="R14" s="31">
         <v>100010</v>
       </c>
-      <c r="S14" s="32">
-        <v>0</v>
-      </c>
-      <c r="T14" s="32">
-        <v>0</v>
-      </c>
-      <c r="U14" s="32">
-        <v>0</v>
-      </c>
-      <c r="V14" s="32" t="s">
+      <c r="S14" s="31">
+        <v>0</v>
+      </c>
+      <c r="T14" s="31">
+        <v>0</v>
+      </c>
+      <c r="U14" s="31">
+        <v>0</v>
+      </c>
+      <c r="V14" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="W14" s="32" t="s">
+      <c r="W14" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="X14" s="63">
+      <c r="X14" s="62">
         <v>0.3</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="34">
+      <c r="A15" s="33">
         <v>100302</v>
       </c>
       <c r="B15" s="7">
         <v>100302</v>
       </c>
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="64" t="s">
         <v>175</v>
       </c>
       <c r="D15" s="7">
         <v>1</v>
       </c>
       <c r="E15" s="7">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F15,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F15" s="60" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E15,'!참조_ENUM'!$B$3:$B$81,0))</f>
-        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
+      <c r="F15" s="59" t="s">
+        <v>188</v>
       </c>
       <c r="G15" s="7">
         <v>0</v>
@@ -8327,21 +8404,21 @@
         <v>0</v>
       </c>
       <c r="J15" s="7">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K15,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
-      <c r="K15" s="19" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J15,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>투사체를 타겟의 몸에 던진다</v>
+      <c r="K15" s="18" t="s">
+        <v>193</v>
       </c>
       <c r="L15" s="7">
         <v>0</v>
       </c>
       <c r="M15" s="4">
-        <v>0</v>
-      </c>
-      <c r="N15" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M15,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
-        <v>NONE</v>
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N15,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="73" t="s">
+        <v>192</v>
       </c>
       <c r="O15" s="4">
         <v>0</v>
@@ -8370,183 +8447,183 @@
       <c r="W15" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="X15" s="53">
+      <c r="X15" s="52">
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="36">
+      <c r="A16" s="35">
         <v>100303</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B16" s="28">
         <v>100303</v>
       </c>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="65" t="s">
         <v>174</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="28">
         <v>1</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="28">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F16,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F16" s="61" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E16,'!참조_ENUM'!$B$3:$B$81,0))</f>
-        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
-      </c>
-      <c r="G16" s="29">
-        <v>0</v>
-      </c>
-      <c r="H16" s="29">
+      <c r="F16" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="G16" s="28">
+        <v>0</v>
+      </c>
+      <c r="H16" s="28">
         <v>1</v>
       </c>
-      <c r="I16" s="29">
-        <v>0</v>
-      </c>
-      <c r="J16" s="29">
+      <c r="I16" s="28">
+        <v>0</v>
+      </c>
+      <c r="J16" s="28">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K16,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
-      <c r="K16" s="30" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J16,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>투사체를 타겟의 몸에 던진다</v>
-      </c>
-      <c r="L16" s="29">
-        <v>0</v>
-      </c>
-      <c r="M16" s="37">
-        <v>0</v>
-      </c>
-      <c r="N16" s="37" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M16,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="O16" s="37">
-        <v>0</v>
-      </c>
-      <c r="P16" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="29" t="s">
+      <c r="K16" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="L16" s="28">
+        <v>0</v>
+      </c>
+      <c r="M16" s="36">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N16,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="74" t="s">
+        <v>192</v>
+      </c>
+      <c r="O16" s="36">
+        <v>0</v>
+      </c>
+      <c r="P16" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="R16" s="37">
+      <c r="R16" s="36">
         <v>100011</v>
       </c>
-      <c r="S16" s="37">
-        <v>0</v>
-      </c>
-      <c r="T16" s="37">
-        <v>0</v>
-      </c>
-      <c r="U16" s="37">
-        <v>0</v>
-      </c>
-      <c r="V16" s="37" t="s">
+      <c r="S16" s="36">
+        <v>0</v>
+      </c>
+      <c r="T16" s="36">
+        <v>0</v>
+      </c>
+      <c r="U16" s="36">
+        <v>0</v>
+      </c>
+      <c r="V16" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="W16" s="37" t="s">
+      <c r="W16" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="X16" s="54">
+      <c r="X16" s="53">
         <v>0.3</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="31">
+      <c r="A17" s="30">
         <v>100401</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="24">
         <v>100401</v>
       </c>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="24">
         <v>1</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="24">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F17,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F17" s="59" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E17,'!참조_ENUM'!$B$3:$B$81,0))</f>
-        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
-      </c>
-      <c r="G17" s="25">
-        <v>0</v>
-      </c>
-      <c r="H17" s="25">
+      <c r="F17" s="58" t="s">
+        <v>188</v>
+      </c>
+      <c r="G17" s="24">
+        <v>0</v>
+      </c>
+      <c r="H17" s="24">
         <v>1</v>
       </c>
-      <c r="I17" s="25">
-        <v>0</v>
-      </c>
-      <c r="J17" s="25">
+      <c r="I17" s="24">
+        <v>0</v>
+      </c>
+      <c r="J17" s="24">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K17,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
-      <c r="K17" s="26" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J17,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>투사체를 타겟의 몸에 던진다</v>
-      </c>
-      <c r="L17" s="25">
-        <v>0</v>
-      </c>
-      <c r="M17" s="32">
-        <v>0</v>
-      </c>
-      <c r="N17" s="32" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M17,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="O17" s="32">
-        <v>0</v>
-      </c>
-      <c r="P17" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="25">
+      <c r="K17" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="L17" s="24">
+        <v>0</v>
+      </c>
+      <c r="M17" s="31">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N17,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="72" t="s">
+        <v>192</v>
+      </c>
+      <c r="O17" s="31">
+        <v>0</v>
+      </c>
+      <c r="P17" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="24">
         <v>100</v>
       </c>
-      <c r="R17" s="32">
+      <c r="R17" s="31">
         <v>100012</v>
       </c>
-      <c r="S17" s="32">
-        <v>0</v>
-      </c>
-      <c r="T17" s="32">
-        <v>0</v>
-      </c>
-      <c r="U17" s="32">
-        <v>0</v>
-      </c>
-      <c r="V17" s="32" t="s">
+      <c r="S17" s="31">
+        <v>0</v>
+      </c>
+      <c r="T17" s="31">
+        <v>0</v>
+      </c>
+      <c r="U17" s="31">
+        <v>0</v>
+      </c>
+      <c r="V17" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="W17" s="32" t="s">
+      <c r="W17" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="X17" s="63">
+      <c r="X17" s="62">
         <v>0.3</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="34">
+      <c r="A18" s="33">
         <v>100402</v>
       </c>
       <c r="B18" s="7">
         <v>100402</v>
       </c>
-      <c r="C18" s="65" t="s">
+      <c r="C18" s="64" t="s">
         <v>176</v>
       </c>
       <c r="D18" s="7">
         <v>0</v>
       </c>
       <c r="E18" s="7">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F18,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>3002</v>
       </c>
-      <c r="F18" s="60" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E18,'!참조_ENUM'!$B$3:$B$81,0))</f>
-        <v>남은 체력 비율이 가장 낮은 타겟 선택</v>
+      <c r="F18" s="59" t="s">
+        <v>191</v>
       </c>
       <c r="G18" s="7">
         <v>0</v>
@@ -8558,21 +8635,21 @@
         <v>0</v>
       </c>
       <c r="J18" s="7">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K18,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
-      <c r="K18" s="19" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J18,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>투사체를 타겟의 몸에 던진다</v>
+      <c r="K18" s="18" t="s">
+        <v>193</v>
       </c>
       <c r="L18" s="7">
         <v>0</v>
       </c>
       <c r="M18" s="4">
-        <v>0</v>
-      </c>
-      <c r="N18" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M18,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
-        <v>NONE</v>
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N18,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="73" t="s">
+        <v>192</v>
       </c>
       <c r="O18" s="4">
         <v>0</v>
@@ -8601,166 +8678,166 @@
       <c r="W18" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="X18" s="53">
+      <c r="X18" s="52">
         <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="36">
+      <c r="A19" s="35">
         <v>100403</v>
       </c>
-      <c r="B19" s="29">
+      <c r="B19" s="28">
         <v>100403</v>
       </c>
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="28">
         <v>1</v>
       </c>
-      <c r="E19" s="29">
+      <c r="E19" s="28">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F19,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F19" s="61" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E19,'!참조_ENUM'!$B$3:$B$81,0))</f>
-        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
-      </c>
-      <c r="G19" s="29">
-        <v>0</v>
-      </c>
-      <c r="H19" s="29">
+      <c r="F19" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="G19" s="28">
+        <v>0</v>
+      </c>
+      <c r="H19" s="28">
         <v>1</v>
       </c>
-      <c r="I19" s="29">
-        <v>0</v>
-      </c>
-      <c r="J19" s="29">
+      <c r="I19" s="28">
+        <v>0</v>
+      </c>
+      <c r="J19" s="28">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K19,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
-      <c r="K19" s="30" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J19,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>투사체를 타겟의 몸에 던진다</v>
-      </c>
-      <c r="L19" s="29">
-        <v>0</v>
-      </c>
-      <c r="M19" s="37">
-        <v>0</v>
-      </c>
-      <c r="N19" s="37" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M19,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="O19" s="37">
-        <v>0</v>
-      </c>
-      <c r="P19" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="29">
+      <c r="K19" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="L19" s="28">
+        <v>0</v>
+      </c>
+      <c r="M19" s="36">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N19,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="74" t="s">
+        <v>192</v>
+      </c>
+      <c r="O19" s="36">
+        <v>0</v>
+      </c>
+      <c r="P19" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="28">
         <v>100</v>
       </c>
-      <c r="R19" s="37">
+      <c r="R19" s="36">
         <v>100014</v>
       </c>
-      <c r="S19" s="37">
-        <v>0</v>
-      </c>
-      <c r="T19" s="37">
-        <v>0</v>
-      </c>
-      <c r="U19" s="37">
-        <v>0</v>
-      </c>
-      <c r="V19" s="37" t="s">
+      <c r="S19" s="36">
+        <v>0</v>
+      </c>
+      <c r="T19" s="36">
+        <v>0</v>
+      </c>
+      <c r="U19" s="36">
+        <v>0</v>
+      </c>
+      <c r="V19" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="W19" s="37" t="s">
+      <c r="W19" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="X19" s="54">
+      <c r="X19" s="53">
         <v>0.3</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="31">
+      <c r="A20" s="30">
         <v>100501</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B20" s="24">
         <v>100501</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20" s="24">
         <v>1</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="24">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F20,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F20" s="59" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E20,'!참조_ENUM'!$B$3:$B$81,0))</f>
-        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
-      </c>
-      <c r="G20" s="25">
-        <v>0</v>
-      </c>
-      <c r="H20" s="25">
+      <c r="F20" s="58" t="s">
+        <v>188</v>
+      </c>
+      <c r="G20" s="24">
+        <v>0</v>
+      </c>
+      <c r="H20" s="24">
         <v>1</v>
       </c>
-      <c r="I20" s="25">
-        <v>0</v>
-      </c>
-      <c r="J20" s="25">
+      <c r="I20" s="24">
+        <v>0</v>
+      </c>
+      <c r="J20" s="24">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K20,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
-      <c r="K20" s="26" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J20,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>투사체를 타겟의 몸에 던진다</v>
-      </c>
-      <c r="L20" s="25">
-        <v>0</v>
-      </c>
-      <c r="M20" s="32">
-        <v>0</v>
-      </c>
-      <c r="N20" s="32" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M20,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="O20" s="32">
-        <v>0</v>
-      </c>
-      <c r="P20" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="25">
+      <c r="K20" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="L20" s="24">
+        <v>0</v>
+      </c>
+      <c r="M20" s="31">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N20,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="72" t="s">
+        <v>192</v>
+      </c>
+      <c r="O20" s="31">
+        <v>0</v>
+      </c>
+      <c r="P20" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="24">
         <v>100</v>
       </c>
-      <c r="R20" s="32">
+      <c r="R20" s="31">
         <v>100015</v>
       </c>
-      <c r="S20" s="32">
-        <v>0</v>
-      </c>
-      <c r="T20" s="32">
-        <v>0</v>
-      </c>
-      <c r="U20" s="32">
-        <v>0</v>
-      </c>
-      <c r="V20" s="32" t="s">
+      <c r="S20" s="31">
+        <v>0</v>
+      </c>
+      <c r="T20" s="31">
+        <v>0</v>
+      </c>
+      <c r="U20" s="31">
+        <v>0</v>
+      </c>
+      <c r="V20" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="W20" s="32" t="s">
+      <c r="W20" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="X20" s="63">
+      <c r="X20" s="62">
         <v>0.3</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="34">
+      <c r="A21" s="33">
         <v>100502</v>
       </c>
       <c r="B21" s="7">
@@ -8773,11 +8850,11 @@
         <v>1</v>
       </c>
       <c r="E21" s="7">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F21,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F21" s="60" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E21,'!참조_ENUM'!$B$3:$B$81,0))</f>
-        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
+      <c r="F21" s="59" t="s">
+        <v>188</v>
       </c>
       <c r="G21" s="7">
         <v>0</v>
@@ -8789,21 +8866,21 @@
         <v>0</v>
       </c>
       <c r="J21" s="7">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K21,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
-      <c r="K21" s="19" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J21,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>투사체를 타겟의 몸에 던진다</v>
+      <c r="K21" s="18" t="s">
+        <v>193</v>
       </c>
       <c r="L21" s="7">
         <v>0</v>
       </c>
       <c r="M21" s="4">
-        <v>0</v>
-      </c>
-      <c r="N21" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M21,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
-        <v>NONE</v>
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N21,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="73" t="s">
+        <v>192</v>
       </c>
       <c r="O21" s="4">
         <v>0</v>
@@ -8832,115 +8909,114 @@
       <c r="W21" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="X21" s="53">
+      <c r="X21" s="52">
         <v>0.3</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="36">
+      <c r="A22" s="35">
         <v>100503</v>
       </c>
-      <c r="B22" s="29">
+      <c r="B22" s="28">
         <v>100503</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="D22" s="29">
+      <c r="D22" s="28">
         <v>1</v>
       </c>
-      <c r="E22" s="29">
+      <c r="E22" s="28">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F22,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F22" s="61" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$81,MATCH(E22,'!참조_ENUM'!$B$3:$B$81,0))</f>
-        <v>가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</v>
-      </c>
-      <c r="G22" s="29">
-        <v>0</v>
-      </c>
-      <c r="H22" s="29">
+      <c r="F22" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="G22" s="28">
+        <v>0</v>
+      </c>
+      <c r="H22" s="28">
         <v>1</v>
       </c>
-      <c r="I22" s="29">
-        <v>0</v>
-      </c>
-      <c r="J22" s="29">
+      <c r="I22" s="28">
+        <v>0</v>
+      </c>
+      <c r="J22" s="28">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K22,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="K22" s="30" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(J22,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>타겟의 몸에서 즉시 효과 발동</v>
-      </c>
-      <c r="L22" s="29">
-        <v>0</v>
-      </c>
-      <c r="M22" s="37">
+      <c r="K22" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="L22" s="28">
+        <v>0</v>
+      </c>
+      <c r="M22" s="36">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N22,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>2</v>
       </c>
-      <c r="N22" s="37" t="str">
-        <f>INDEX('!참조_ENUM'!$AM$3:$AM$5,MATCH(M22,'!참조_ENUM'!$AL$3:$AL$5,0))</f>
-        <v>타겟 뒤로 지정 반경내에 감지되는 타겟 검사</v>
-      </c>
-      <c r="O22" s="37">
-        <v>0</v>
-      </c>
-      <c r="P22" s="37">
+      <c r="N22" s="74" t="s">
+        <v>195</v>
+      </c>
+      <c r="O22" s="36">
+        <v>0</v>
+      </c>
+      <c r="P22" s="36">
         <v>10</v>
       </c>
-      <c r="Q22" s="29" t="s">
+      <c r="Q22" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="R22" s="37">
+      <c r="R22" s="36">
         <v>100017</v>
       </c>
-      <c r="S22" s="37">
-        <v>0</v>
-      </c>
-      <c r="T22" s="37">
+      <c r="S22" s="36">
+        <v>0</v>
+      </c>
+      <c r="T22" s="36">
         <v>100018</v>
       </c>
-      <c r="U22" s="37">
-        <v>0</v>
-      </c>
-      <c r="V22" s="37" t="s">
+      <c r="U22" s="36">
+        <v>0</v>
+      </c>
+      <c r="V22" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="W22" s="37"/>
-      <c r="X22" s="54">
+      <c r="W22" s="36"/>
+      <c r="X22" s="53">
         <v>0.3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V5:V22" xr:uid="{2DD0F759-8109-4C06-B32A-4A939427AE80}">
+      <formula1>"hit,shoot,buff,debuff"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{110C5FF2-D44D-4540-8ADA-377E88D78987}">
-          <x14:formula1>
-            <xm:f>'!참조_ENUM'!$AL$3:$AL$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>M5:M22</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8A7FC9F6-0204-4C88-A1F3-F45CC3ECCE6D}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$N$3:$N$4</xm:f>
           </x14:formula1>
           <xm:sqref>D5:D22</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{31AC146F-178D-4A57-8E92-0A0AB3B1D27F}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3C5E7B1E-7CC4-44B0-8D75-0C9339872AAA}">
           <x14:formula1>
-            <xm:f>'!참조_ENUM'!$B$3:$B$81</xm:f>
+            <xm:f>'!참조_ENUM'!$C$3:$C$81</xm:f>
           </x14:formula1>
-          <xm:sqref>E5:E22</xm:sqref>
+          <xm:sqref>F5:F22</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E66F2791-2DBF-4E16-81C9-5CE282C2121D}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A47F3F8D-D410-4608-955D-92FAB6B7A6FE}">
           <x14:formula1>
-            <xm:f>'!참조_ENUM'!$AD$3:$AD$10</xm:f>
+            <xm:f>'!참조_ENUM'!$AE$3:$AE$10</xm:f>
           </x14:formula1>
-          <xm:sqref>J5:J22</xm:sqref>
+          <xm:sqref>K5:K22</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8953,7 +9029,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9017,149 +9093,149 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="11" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="L4" s="21" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="31">
+      <c r="A5" s="30">
         <v>100001</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="24">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C5,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C5" s="59" t="str">
-        <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B5,'!참조_ENUM'!$R$3:$R$5,0))</f>
-        <v>데미지를 준다</v>
-      </c>
-      <c r="D5" s="25">
+      <c r="C5" s="58" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" s="24">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E5,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E5" s="55" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D5,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>타겟의 몸에서 즉시 효과 발동</v>
-      </c>
-      <c r="F5" s="25">
-        <v>0</v>
-      </c>
-      <c r="G5" s="25">
+      <c r="E5" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="F5" s="24">
+        <v>0</v>
+      </c>
+      <c r="G5" s="24">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H5,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H5" s="59" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G5,'!참조_ENUM'!$F$3:$F$13,0))</f>
-        <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
-      </c>
-      <c r="I5" s="32">
-        <v>0</v>
-      </c>
-      <c r="J5" s="25">
+      <c r="H5" s="58" t="s">
+        <v>198</v>
+      </c>
+      <c r="I5" s="31">
+        <v>0</v>
+      </c>
+      <c r="J5" s="24">
         <v>1</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="K5" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="L5" s="33">
+      <c r="L5" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="34">
+      <c r="A6" s="33">
         <v>100002</v>
       </c>
       <c r="B6" s="7">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C6,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C6" s="60" t="str">
-        <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B6,'!참조_ENUM'!$R$3:$R$5,0))</f>
-        <v>데미지를 준다</v>
+      <c r="C6" s="59" t="s">
+        <v>196</v>
       </c>
       <c r="D6" s="7">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E6,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E6" s="56" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D6,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>타겟의 몸에서 즉시 효과 발동</v>
+      <c r="E6" s="55" t="s">
+        <v>194</v>
       </c>
       <c r="F6" s="7">
         <v>0</v>
       </c>
       <c r="G6" s="7">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H6,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H6" s="60" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G6,'!참조_ENUM'!$F$3:$F$13,0))</f>
-        <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
+      <c r="H6" s="59" t="s">
+        <v>198</v>
       </c>
       <c r="I6" s="4">
         <v>0</v>
@@ -9170,119 +9246,119 @@
       <c r="K6" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="L6" s="35">
+      <c r="L6" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="36">
+      <c r="A7" s="35">
         <v>100003</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="28">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C7,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>2</v>
       </c>
-      <c r="C7" s="61" t="str">
-        <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B7,'!참조_ENUM'!$R$3:$R$5,0))</f>
-        <v>체력 회복</v>
-      </c>
-      <c r="D7" s="29">
+      <c r="C7" s="60" t="s">
+        <v>197</v>
+      </c>
+      <c r="D7" s="28">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E7,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E7" s="57" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D7,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>타겟의 몸에서 즉시 효과 발동</v>
-      </c>
-      <c r="F7" s="29">
-        <v>0</v>
-      </c>
-      <c r="G7" s="29">
+      <c r="E7" s="56" t="s">
+        <v>194</v>
+      </c>
+      <c r="F7" s="28">
+        <v>0</v>
+      </c>
+      <c r="G7" s="28">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H7,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>300</v>
       </c>
-      <c r="H7" s="61" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G7,'!참조_ENUM'!$F$3:$F$13,0))</f>
-        <v>최대 체력을 기준으로 계산을 하기 위한 수치</v>
-      </c>
-      <c r="I7" s="37">
-        <v>0</v>
-      </c>
-      <c r="J7" s="29">
+      <c r="H7" s="60" t="s">
+        <v>199</v>
+      </c>
+      <c r="I7" s="36">
+        <v>0</v>
+      </c>
+      <c r="J7" s="28">
         <v>0.1</v>
       </c>
-      <c r="K7" s="37" t="s">
+      <c r="K7" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="L7" s="38">
+      <c r="L7" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="31">
+      <c r="A8" s="30">
         <v>100004</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="24">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C8,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C8" s="59" t="str">
-        <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B8,'!참조_ENUM'!$R$3:$R$5,0))</f>
-        <v>데미지를 준다</v>
-      </c>
-      <c r="D8" s="25">
+      <c r="C8" s="58" t="s">
+        <v>196</v>
+      </c>
+      <c r="D8" s="24">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E8,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E8" s="55" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D8,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>타겟의 몸에서 즉시 효과 발동</v>
-      </c>
-      <c r="F8" s="25">
-        <v>0</v>
-      </c>
-      <c r="G8" s="25">
+      <c r="E8" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="F8" s="24">
+        <v>0</v>
+      </c>
+      <c r="G8" s="24">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H8,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H8" s="59" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G8,'!참조_ENUM'!$F$3:$F$13,0))</f>
-        <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
-      </c>
-      <c r="I8" s="32">
-        <v>0</v>
-      </c>
-      <c r="J8" s="25">
+      <c r="H8" s="58" t="s">
+        <v>198</v>
+      </c>
+      <c r="I8" s="31">
+        <v>0</v>
+      </c>
+      <c r="J8" s="24">
         <v>1</v>
       </c>
-      <c r="K8" s="32" t="s">
+      <c r="K8" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="L8" s="33">
+      <c r="L8" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="34">
+      <c r="A9" s="33">
         <v>100005</v>
       </c>
       <c r="B9" s="7">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C9,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C9" s="60" t="str">
-        <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B9,'!참조_ENUM'!$R$3:$R$5,0))</f>
-        <v>데미지를 준다</v>
+      <c r="C9" s="59" t="s">
+        <v>196</v>
       </c>
       <c r="D9" s="7">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E9,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E9" s="56" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D9,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>타겟의 몸에서 즉시 효과 발동</v>
+      <c r="E9" s="55" t="s">
+        <v>194</v>
       </c>
       <c r="F9" s="7">
         <v>0</v>
       </c>
       <c r="G9" s="7">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H9,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H9" s="60" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G9,'!참조_ENUM'!$F$3:$F$13,0))</f>
-        <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
+      <c r="H9" s="59" t="s">
+        <v>198</v>
       </c>
       <c r="I9" s="4">
         <v>0</v>
@@ -9293,119 +9369,119 @@
       <c r="K9" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="L9" s="35">
+      <c r="L9" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="36">
+      <c r="A10" s="35">
         <v>100006</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="28">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C10,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C10" s="61" t="str">
-        <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B10,'!참조_ENUM'!$R$3:$R$5,0))</f>
-        <v>데미지를 준다</v>
-      </c>
-      <c r="D10" s="29">
+      <c r="C10" s="60" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" s="28">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E10,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E10" s="57" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D10,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>타겟의 몸에서 즉시 효과 발동</v>
-      </c>
-      <c r="F10" s="29">
-        <v>0</v>
-      </c>
-      <c r="G10" s="29">
+      <c r="E10" s="56" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" s="28">
+        <v>0</v>
+      </c>
+      <c r="G10" s="28">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H10,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H10" s="61" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G10,'!참조_ENUM'!$F$3:$F$13,0))</f>
-        <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
-      </c>
-      <c r="I10" s="37">
-        <v>0</v>
-      </c>
-      <c r="J10" s="29">
+      <c r="H10" s="60" t="s">
+        <v>198</v>
+      </c>
+      <c r="I10" s="36">
+        <v>0</v>
+      </c>
+      <c r="J10" s="28">
         <v>1.3</v>
       </c>
-      <c r="K10" s="37" t="s">
+      <c r="K10" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="L10" s="38">
+      <c r="L10" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="31">
+      <c r="A11" s="30">
         <v>100007</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="24">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C11,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C11" s="59" t="str">
-        <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B11,'!참조_ENUM'!$R$3:$R$5,0))</f>
-        <v>데미지를 준다</v>
-      </c>
-      <c r="D11" s="25">
+      <c r="C11" s="58" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" s="24">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E11,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E11" s="55" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D11,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>타겟의 몸에서 즉시 효과 발동</v>
-      </c>
-      <c r="F11" s="25">
-        <v>0</v>
-      </c>
-      <c r="G11" s="25">
+      <c r="E11" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="F11" s="24">
+        <v>0</v>
+      </c>
+      <c r="G11" s="24">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H11,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H11" s="59" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G11,'!참조_ENUM'!$F$3:$F$13,0))</f>
-        <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
-      </c>
-      <c r="I11" s="32">
-        <v>0</v>
-      </c>
-      <c r="J11" s="25">
+      <c r="H11" s="58" t="s">
+        <v>198</v>
+      </c>
+      <c r="I11" s="31">
+        <v>0</v>
+      </c>
+      <c r="J11" s="24">
         <v>1</v>
       </c>
-      <c r="K11" s="32" t="s">
+      <c r="K11" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="L11" s="33">
+      <c r="L11" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="34">
+      <c r="A12" s="33">
         <v>100008</v>
       </c>
       <c r="B12" s="7">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C12,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C12" s="60" t="str">
-        <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B12,'!참조_ENUM'!$R$3:$R$5,0))</f>
-        <v>데미지를 준다</v>
+      <c r="C12" s="59" t="s">
+        <v>196</v>
       </c>
       <c r="D12" s="7">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E12,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E12" s="56" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D12,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>타겟의 몸에서 즉시 효과 발동</v>
+      <c r="E12" s="55" t="s">
+        <v>194</v>
       </c>
       <c r="F12" s="7">
         <v>0</v>
       </c>
       <c r="G12" s="7">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H12,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H12" s="60" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G12,'!참조_ENUM'!$F$3:$F$13,0))</f>
-        <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
+      <c r="H12" s="59" t="s">
+        <v>198</v>
       </c>
       <c r="I12" s="4">
         <v>0</v>
@@ -9416,201 +9492,201 @@
       <c r="K12" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="L12" s="35">
+      <c r="L12" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="48">
+      <c r="A13" s="47">
         <v>100009</v>
       </c>
-      <c r="B13" s="46">
+      <c r="B13" s="45">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C13,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C13" s="62" t="str">
-        <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B13,'!참조_ENUM'!$R$3:$R$5,0))</f>
-        <v>데미지를 준다</v>
-      </c>
-      <c r="D13" s="46">
+      <c r="C13" s="61" t="s">
+        <v>196</v>
+      </c>
+      <c r="D13" s="45">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E13,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E13" s="58" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D13,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>타겟의 몸에서 즉시 효과 발동</v>
-      </c>
-      <c r="F13" s="46">
-        <v>0</v>
-      </c>
-      <c r="G13" s="46">
+      <c r="E13" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="F13" s="45">
+        <v>0</v>
+      </c>
+      <c r="G13" s="45">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H13,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H13" s="62" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G13,'!참조_ENUM'!$F$3:$F$13,0))</f>
-        <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
-      </c>
-      <c r="I13" s="47">
-        <v>0</v>
-      </c>
-      <c r="J13" s="46">
+      <c r="H13" s="61" t="s">
+        <v>198</v>
+      </c>
+      <c r="I13" s="46">
+        <v>0</v>
+      </c>
+      <c r="J13" s="45">
         <v>0.8</v>
       </c>
-      <c r="K13" s="47" t="s">
+      <c r="K13" s="46" t="s">
         <v>177</v>
       </c>
-      <c r="L13" s="49">
+      <c r="L13" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="31">
+      <c r="A14" s="30">
         <v>100010</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="24">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C14,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C14" s="59" t="str">
-        <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B14,'!참조_ENUM'!$R$3:$R$5,0))</f>
-        <v>데미지를 준다</v>
-      </c>
-      <c r="D14" s="25">
+      <c r="C14" s="58" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="24">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E14,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E14" s="55" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D14,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>타겟의 몸에서 즉시 효과 발동</v>
-      </c>
-      <c r="F14" s="25">
-        <v>0</v>
-      </c>
-      <c r="G14" s="25">
+      <c r="E14" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="F14" s="24">
+        <v>0</v>
+      </c>
+      <c r="G14" s="24">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H14,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H14" s="59" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G14,'!참조_ENUM'!$F$3:$F$13,0))</f>
-        <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
-      </c>
-      <c r="I14" s="32">
-        <v>0</v>
-      </c>
-      <c r="J14" s="25">
+      <c r="H14" s="58" t="s">
+        <v>198</v>
+      </c>
+      <c r="I14" s="31">
+        <v>0</v>
+      </c>
+      <c r="J14" s="24">
         <v>1</v>
       </c>
-      <c r="K14" s="32" t="s">
+      <c r="K14" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="L14" s="33">
+      <c r="L14" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="48">
+      <c r="A15" s="47">
         <v>100011</v>
       </c>
-      <c r="B15" s="46">
+      <c r="B15" s="45">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C15,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C15" s="62" t="str">
-        <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B15,'!참조_ENUM'!$R$3:$R$5,0))</f>
-        <v>데미지를 준다</v>
-      </c>
-      <c r="D15" s="46">
+      <c r="C15" s="61" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" s="45">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E15,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E15" s="58" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D15,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>타겟의 몸에서 즉시 효과 발동</v>
-      </c>
-      <c r="F15" s="46">
-        <v>0</v>
-      </c>
-      <c r="G15" s="46">
+      <c r="E15" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="F15" s="45">
+        <v>0</v>
+      </c>
+      <c r="G15" s="45">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H15,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H15" s="62" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G15,'!참조_ENUM'!$F$3:$F$13,0))</f>
-        <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
-      </c>
-      <c r="I15" s="47">
-        <v>0</v>
-      </c>
-      <c r="J15" s="46">
+      <c r="H15" s="61" t="s">
+        <v>198</v>
+      </c>
+      <c r="I15" s="46">
+        <v>0</v>
+      </c>
+      <c r="J15" s="45">
         <v>1.2</v>
       </c>
-      <c r="K15" s="47" t="s">
+      <c r="K15" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="L15" s="49">
+      <c r="L15" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="31">
+      <c r="A16" s="30">
         <v>100012</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="24">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C16,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C16" s="59" t="str">
-        <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B16,'!참조_ENUM'!$R$3:$R$5,0))</f>
-        <v>데미지를 준다</v>
-      </c>
-      <c r="D16" s="25">
+      <c r="C16" s="58" t="s">
+        <v>196</v>
+      </c>
+      <c r="D16" s="24">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E16,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E16" s="55" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D16,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>타겟의 몸에서 즉시 효과 발동</v>
-      </c>
-      <c r="F16" s="25">
-        <v>0</v>
-      </c>
-      <c r="G16" s="25">
+      <c r="E16" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="F16" s="24">
+        <v>0</v>
+      </c>
+      <c r="G16" s="24">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H16,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H16" s="59" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G16,'!참조_ENUM'!$F$3:$F$13,0))</f>
-        <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
-      </c>
-      <c r="I16" s="32">
-        <v>0</v>
-      </c>
-      <c r="J16" s="25">
+      <c r="H16" s="58" t="s">
+        <v>198</v>
+      </c>
+      <c r="I16" s="31">
+        <v>0</v>
+      </c>
+      <c r="J16" s="24">
         <v>1</v>
       </c>
-      <c r="K16" s="32" t="s">
+      <c r="K16" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="L16" s="33">
+      <c r="L16" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="34">
+      <c r="A17" s="33">
         <v>100013</v>
       </c>
       <c r="B17" s="7">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C17,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>2</v>
       </c>
-      <c r="C17" s="60" t="str">
-        <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B17,'!참조_ENUM'!$R$3:$R$5,0))</f>
-        <v>체력 회복</v>
+      <c r="C17" s="59" t="s">
+        <v>197</v>
       </c>
       <c r="D17" s="7">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E17,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E17" s="56" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D17,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>타겟의 몸에서 즉시 효과 발동</v>
+      <c r="E17" s="55" t="s">
+        <v>194</v>
       </c>
       <c r="F17" s="7">
         <v>0</v>
       </c>
       <c r="G17" s="7">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H17,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>300</v>
       </c>
-      <c r="H17" s="60" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G17,'!참조_ENUM'!$F$3:$F$13,0))</f>
-        <v>최대 체력을 기준으로 계산을 하기 위한 수치</v>
+      <c r="H17" s="59" t="s">
+        <v>199</v>
       </c>
       <c r="I17" s="4">
         <v>0</v>
@@ -9621,212 +9697,212 @@
       <c r="K17" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="L17" s="35">
+      <c r="L17" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="36">
+      <c r="A18" s="35">
         <v>100014</v>
       </c>
-      <c r="B18" s="29">
+      <c r="B18" s="28">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C18,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C18" s="61" t="str">
-        <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B18,'!참조_ENUM'!$R$3:$R$5,0))</f>
-        <v>데미지를 준다</v>
-      </c>
-      <c r="D18" s="29">
+      <c r="C18" s="60" t="s">
+        <v>196</v>
+      </c>
+      <c r="D18" s="28">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E18,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E18" s="57" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D18,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>타겟의 몸에서 즉시 효과 발동</v>
-      </c>
-      <c r="F18" s="29">
-        <v>0</v>
-      </c>
-      <c r="G18" s="29">
+      <c r="E18" s="56" t="s">
+        <v>194</v>
+      </c>
+      <c r="F18" s="28">
+        <v>0</v>
+      </c>
+      <c r="G18" s="28">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H18,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H18" s="61" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G18,'!참조_ENUM'!$F$3:$F$13,0))</f>
-        <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
-      </c>
-      <c r="I18" s="37">
-        <v>0</v>
-      </c>
-      <c r="J18" s="29">
+      <c r="H18" s="60" t="s">
+        <v>198</v>
+      </c>
+      <c r="I18" s="36">
+        <v>0</v>
+      </c>
+      <c r="J18" s="28">
         <v>1.2</v>
       </c>
-      <c r="K18" s="37" t="s">
+      <c r="K18" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="L18" s="38">
+      <c r="L18" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="67">
+      <c r="A19" s="66">
         <v>100015</v>
       </c>
-      <c r="B19" s="68">
+      <c r="B19" s="67">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C19,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C19" s="69" t="str">
-        <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B19,'!참조_ENUM'!$R$3:$R$5,0))</f>
-        <v>데미지를 준다</v>
-      </c>
-      <c r="D19" s="68">
+      <c r="C19" s="68" t="s">
+        <v>196</v>
+      </c>
+      <c r="D19" s="67">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E19,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E19" s="70" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D19,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>타겟의 몸에서 즉시 효과 발동</v>
-      </c>
-      <c r="F19" s="68">
-        <v>0</v>
-      </c>
-      <c r="G19" s="68">
+      <c r="E19" s="69" t="s">
+        <v>194</v>
+      </c>
+      <c r="F19" s="67">
+        <v>0</v>
+      </c>
+      <c r="G19" s="67">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H19,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H19" s="69" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G19,'!참조_ENUM'!$F$3:$F$13,0))</f>
-        <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
-      </c>
-      <c r="I19" s="71">
-        <v>0</v>
-      </c>
-      <c r="J19" s="68">
+      <c r="H19" s="68" t="s">
+        <v>198</v>
+      </c>
+      <c r="I19" s="70">
+        <v>0</v>
+      </c>
+      <c r="J19" s="67">
         <v>1</v>
       </c>
-      <c r="K19" s="71" t="s">
+      <c r="K19" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="L19" s="72">
+      <c r="L19" s="71">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="36">
+      <c r="A20" s="35">
         <v>100016</v>
       </c>
-      <c r="B20" s="29">
+      <c r="B20" s="28">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C20,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C20" s="61" t="str">
-        <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B20,'!참조_ENUM'!$R$3:$R$5,0))</f>
-        <v>데미지를 준다</v>
-      </c>
-      <c r="D20" s="29">
+      <c r="C20" s="60" t="s">
+        <v>196</v>
+      </c>
+      <c r="D20" s="28">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E20,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E20" s="57" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D20,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>타겟의 몸에서 즉시 효과 발동</v>
-      </c>
-      <c r="F20" s="29">
-        <v>0</v>
-      </c>
-      <c r="G20" s="29">
+      <c r="E20" s="56" t="s">
+        <v>194</v>
+      </c>
+      <c r="F20" s="28">
+        <v>0</v>
+      </c>
+      <c r="G20" s="28">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H20,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H20" s="61" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G20,'!참조_ENUM'!$F$3:$F$13,0))</f>
-        <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
-      </c>
-      <c r="I20" s="37">
-        <v>0</v>
-      </c>
-      <c r="J20" s="29">
+      <c r="H20" s="60" t="s">
+        <v>198</v>
+      </c>
+      <c r="I20" s="36">
+        <v>0</v>
+      </c>
+      <c r="J20" s="28">
         <v>1.2</v>
       </c>
-      <c r="K20" s="37" t="s">
+      <c r="K20" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="L20" s="38">
+      <c r="L20" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="36">
+      <c r="A21" s="35">
         <v>100017</v>
       </c>
-      <c r="B21" s="29">
+      <c r="B21" s="28">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C21,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C21" s="61" t="str">
-        <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B21,'!참조_ENUM'!$R$3:$R$5,0))</f>
-        <v>데미지를 준다</v>
-      </c>
-      <c r="D21" s="29">
+      <c r="C21" s="60" t="s">
+        <v>196</v>
+      </c>
+      <c r="D21" s="28">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E21,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E21" s="57" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D21,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>타겟의 몸에서 즉시 효과 발동</v>
-      </c>
-      <c r="F21" s="29">
-        <v>0</v>
-      </c>
-      <c r="G21" s="29">
+      <c r="E21" s="56" t="s">
+        <v>194</v>
+      </c>
+      <c r="F21" s="28">
+        <v>0</v>
+      </c>
+      <c r="G21" s="28">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H21,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H21" s="61" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G21,'!참조_ENUM'!$F$3:$F$13,0))</f>
-        <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
-      </c>
-      <c r="I21" s="37">
-        <v>0</v>
-      </c>
-      <c r="J21" s="29">
+      <c r="H21" s="60" t="s">
+        <v>198</v>
+      </c>
+      <c r="I21" s="36">
+        <v>0</v>
+      </c>
+      <c r="J21" s="28">
         <v>1.3</v>
       </c>
-      <c r="K21" s="37" t="s">
+      <c r="K21" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="L21" s="38">
+      <c r="L21" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="36">
+      <c r="A22" s="35">
         <v>100018</v>
       </c>
-      <c r="B22" s="29">
+      <c r="B22" s="28">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C22,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C22" s="61" t="str">
-        <f>INDEX('!참조_ENUM'!$S$3:$S$5,MATCH(B22,'!참조_ENUM'!$R$3:$R$5,0))</f>
-        <v>데미지를 준다</v>
-      </c>
-      <c r="D22" s="29">
+      <c r="C22" s="60" t="s">
+        <v>196</v>
+      </c>
+      <c r="D22" s="28">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E22,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E22" s="57" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(D22,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>타겟의 몸에서 즉시 효과 발동</v>
-      </c>
-      <c r="F22" s="29">
-        <v>0</v>
-      </c>
-      <c r="G22" s="29">
+      <c r="E22" s="56" t="s">
+        <v>194</v>
+      </c>
+      <c r="F22" s="28">
+        <v>0</v>
+      </c>
+      <c r="G22" s="28">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H22,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H22" s="61" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(G22,'!참조_ENUM'!$F$3:$F$13,0))</f>
-        <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
-      </c>
-      <c r="I22" s="37">
-        <v>0</v>
-      </c>
-      <c r="J22" s="29">
+      <c r="H22" s="60" t="s">
+        <v>198</v>
+      </c>
+      <c r="I22" s="36">
+        <v>0</v>
+      </c>
+      <c r="J22" s="28">
         <v>1.3</v>
       </c>
-      <c r="K22" s="37" t="s">
+      <c r="K22" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="L22" s="38">
+      <c r="L22" s="37">
         <v>1</v>
       </c>
     </row>
@@ -9836,23 +9912,23 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6384AA74-E6C7-4750-AA99-040E1E1DD581}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A18B30A2-C6FB-47B8-BED5-149002997F3A}">
           <x14:formula1>
-            <xm:f>'!참조_ENUM'!$F$3:$F$13</xm:f>
+            <xm:f>'!참조_ENUM'!$S$3:$S$5</xm:f>
           </x14:formula1>
-          <xm:sqref>G5:G22</xm:sqref>
+          <xm:sqref>C5:C22</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8C92E819-2566-4A2E-BB43-DD2CB1F67832}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{29D29330-6CAE-44AD-B56E-72E2FD569EFD}">
           <x14:formula1>
-            <xm:f>'!참조_ENUM'!$R$3:$R$5</xm:f>
+            <xm:f>'!참조_ENUM'!$AE$3:$AE$10</xm:f>
           </x14:formula1>
-          <xm:sqref>B5:B22</xm:sqref>
+          <xm:sqref>E5:E22</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{313F4E1E-DD72-4BA8-832D-BEE9A5897A8D}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B09C3E93-8AD6-415C-8AC6-F2BA65FB1FD4}">
           <x14:formula1>
-            <xm:f>'!참조_ENUM'!$AD$3:$AD$10</xm:f>
+            <xm:f>'!참조_ENUM'!$G$3:$G$13</xm:f>
           </x14:formula1>
-          <xm:sqref>D5:D22</xm:sqref>
+          <xm:sqref>H5:H22</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9864,8 +9940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E85B499-5762-4179-9193-75E156FB948B}">
   <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9954,72 +10030,72 @@
       <c r="T2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="U2" s="16" t="s">
+      <c r="U2" s="15" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="12" t="s">
+      <c r="G3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="11" t="s">
         <v>4</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="Q3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="R3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="S3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="T3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="17" t="s">
+      <c r="U3" s="16" t="s">
         <v>9</v>
       </c>
     </row>
@@ -10084,7 +10160,7 @@
       <c r="T4" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="U4" s="18" t="s">
+      <c r="U4" s="17" t="s">
         <v>115</v>
       </c>
     </row>
@@ -10093,18 +10169,18 @@
         <v>500001</v>
       </c>
       <c r="B5" s="7">
+        <f>INDEX('!참조_ENUM'!$V$3:$V$13,MATCH(C5,'!참조_ENUM'!$W$3:$W$13,0))</f>
         <v>1</v>
       </c>
-      <c r="C5" s="11" t="str">
-        <f>INDEX('!참조_ENUM'!$W$3:$W$13,MATCH(B5,'!참조_ENUM'!$V$3:$V$13,0))</f>
-        <v>피해 감소</v>
+      <c r="C5" s="59" t="s">
+        <v>200</v>
       </c>
       <c r="D5" s="4">
+        <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E5,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>2</v>
       </c>
-      <c r="E5" s="11" t="str">
-        <f>INDEX('!참조_ENUM'!$AA$3:$AA$6,MATCH(D5,'!참조_ENUM'!$Z$3:$Z$6,0))</f>
-        <v>피격 횟수 제한</v>
+      <c r="E5" s="59" t="s">
+        <v>206</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
@@ -10122,21 +10198,21 @@
         <v>0</v>
       </c>
       <c r="K5" s="7">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(L5,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="L5" s="7" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(K5,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>타겟의 몸에서 즉시 효과 발동</v>
+      <c r="L5" s="55" t="s">
+        <v>194</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(O5,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>900</v>
       </c>
-      <c r="O5" s="11" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(N5,'!참조_ENUM'!$F$3:$F$13,0))</f>
-        <v>피해량을 기준으로 계산을 하기 위한 수치</v>
+      <c r="O5" s="59" t="s">
+        <v>209</v>
       </c>
       <c r="P5" s="4">
         <v>0</v>
@@ -10162,18 +10238,18 @@
         <v>500002</v>
       </c>
       <c r="B6" s="7">
+        <f>INDEX('!참조_ENUM'!$V$3:$V$13,MATCH(C6,'!참조_ENUM'!$W$3:$W$13,0))</f>
         <v>106</v>
       </c>
-      <c r="C6" s="11" t="str">
-        <f>INDEX('!참조_ENUM'!$W$3:$W$13,MATCH(B6,'!참조_ENUM'!$V$3:$V$13,0))</f>
-        <v>공격력 증가</v>
+      <c r="C6" s="59" t="s">
+        <v>201</v>
       </c>
       <c r="D6" s="4">
+        <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E6,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
-      <c r="E6" s="11" t="str">
-        <f>INDEX('!참조_ENUM'!$AA$3:$AA$6,MATCH(D6,'!참조_ENUM'!$Z$3:$Z$6,0))</f>
-        <v>시간 지속</v>
+      <c r="E6" s="59" t="s">
+        <v>207</v>
       </c>
       <c r="F6" s="4">
         <v>5</v>
@@ -10191,21 +10267,21 @@
         <v>0</v>
       </c>
       <c r="K6" s="7">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(L6,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>11</v>
       </c>
-      <c r="L6" s="7" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(K6,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>타겟의 발 밑에서 즉시 효과 발동</v>
+      <c r="L6" s="55" t="s">
+        <v>208</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(O6,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="O6" s="11" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(N6,'!참조_ENUM'!$F$3:$F$13,0))</f>
-        <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
+      <c r="O6" s="59" t="s">
+        <v>198</v>
       </c>
       <c r="P6" s="4">
         <v>0</v>
@@ -10231,18 +10307,18 @@
         <v>500003</v>
       </c>
       <c r="B7" s="7">
+        <f>INDEX('!참조_ENUM'!$V$3:$V$13,MATCH(C7,'!참조_ENUM'!$W$3:$W$13,0))</f>
         <v>107</v>
       </c>
-      <c r="C7" s="11" t="str">
-        <f>INDEX('!참조_ENUM'!$W$3:$W$13,MATCH(B7,'!참조_ENUM'!$V$3:$V$13,0))</f>
-        <v>방어력 증가</v>
+      <c r="C7" s="59" t="s">
+        <v>202</v>
       </c>
       <c r="D7" s="4">
+        <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E7,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
-      <c r="E7" s="11" t="str">
-        <f>INDEX('!참조_ENUM'!$AA$3:$AA$6,MATCH(D7,'!참조_ENUM'!$Z$3:$Z$6,0))</f>
-        <v>시간 지속</v>
+      <c r="E7" s="59" t="s">
+        <v>207</v>
       </c>
       <c r="F7" s="4">
         <v>5</v>
@@ -10260,21 +10336,21 @@
         <v>0</v>
       </c>
       <c r="K7" s="7">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(L7,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>11</v>
       </c>
-      <c r="L7" s="7" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(K7,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>타겟의 발 밑에서 즉시 효과 발동</v>
+      <c r="L7" s="55" t="s">
+        <v>208</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(O7,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>200</v>
       </c>
-      <c r="O7" s="11" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(N7,'!참조_ENUM'!$F$3:$F$13,0))</f>
-        <v>방어력을 기준으로 계산을 하기 위한 수치</v>
+      <c r="O7" s="59" t="s">
+        <v>210</v>
       </c>
       <c r="P7" s="4">
         <v>0</v>
@@ -10300,18 +10376,18 @@
         <v>500004</v>
       </c>
       <c r="B8" s="7">
+        <f>INDEX('!참조_ENUM'!$V$3:$V$13,MATCH(C8,'!참조_ENUM'!$W$3:$W$13,0))</f>
         <v>106</v>
       </c>
-      <c r="C8" s="11" t="str">
-        <f>INDEX('!참조_ENUM'!$W$3:$W$13,MATCH(B8,'!참조_ENUM'!$V$3:$V$13,0))</f>
-        <v>공격력 증가</v>
+      <c r="C8" s="59" t="s">
+        <v>201</v>
       </c>
       <c r="D8" s="4">
+        <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E8,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
-      <c r="E8" s="11" t="str">
-        <f>INDEX('!참조_ENUM'!$AA$3:$AA$6,MATCH(D8,'!참조_ENUM'!$Z$3:$Z$6,0))</f>
-        <v>시간 지속</v>
+      <c r="E8" s="59" t="s">
+        <v>207</v>
       </c>
       <c r="F8" s="4">
         <v>5</v>
@@ -10329,21 +10405,21 @@
         <v>0</v>
       </c>
       <c r="K8" s="7">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(L8,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>11</v>
       </c>
-      <c r="L8" s="7" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(K8,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>타겟의 발 밑에서 즉시 효과 발동</v>
+      <c r="L8" s="55" t="s">
+        <v>208</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
       </c>
       <c r="N8" s="7">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(O8,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="O8" s="11" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(N8,'!참조_ENUM'!$F$3:$F$13,0))</f>
-        <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
+      <c r="O8" s="59" t="s">
+        <v>198</v>
       </c>
       <c r="P8" s="4">
         <v>0</v>
@@ -10369,18 +10445,18 @@
         <v>500005</v>
       </c>
       <c r="B9" s="7">
+        <f>INDEX('!참조_ENUM'!$V$3:$V$13,MATCH(C9,'!참조_ENUM'!$W$3:$W$13,0))</f>
         <v>108</v>
       </c>
-      <c r="C9" s="11" t="str">
-        <f>INDEX('!참조_ENUM'!$W$3:$W$13,MATCH(B9,'!참조_ENUM'!$V$3:$V$13,0))</f>
-        <v>공격력 감소</v>
+      <c r="C9" s="59" t="s">
+        <v>203</v>
       </c>
       <c r="D9" s="4">
+        <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E9,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
-      <c r="E9" s="11" t="str">
-        <f>INDEX('!참조_ENUM'!$AA$3:$AA$6,MATCH(D9,'!참조_ENUM'!$Z$3:$Z$6,0))</f>
-        <v>시간 지속</v>
+      <c r="E9" s="59" t="s">
+        <v>207</v>
       </c>
       <c r="F9" s="4">
         <v>5</v>
@@ -10398,21 +10474,21 @@
         <v>0</v>
       </c>
       <c r="K9" s="7">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(L9,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>11</v>
       </c>
-      <c r="L9" s="7" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(K9,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>타겟의 발 밑에서 즉시 효과 발동</v>
+      <c r="L9" s="55" t="s">
+        <v>208</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
       </c>
       <c r="N9" s="7">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(O9,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="O9" s="11" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(N9,'!참조_ENUM'!$F$3:$F$13,0))</f>
-        <v>공격력을 기준으로 배율 계산을 하기 위한 수치</v>
+      <c r="O9" s="59" t="s">
+        <v>198</v>
       </c>
       <c r="P9" s="4">
         <v>0</v>
@@ -10438,18 +10514,18 @@
         <v>500006</v>
       </c>
       <c r="B10" s="7">
+        <f>INDEX('!참조_ENUM'!$V$3:$V$13,MATCH(C10,'!참조_ENUM'!$W$3:$W$13,0))</f>
         <v>109</v>
       </c>
-      <c r="C10" s="11" t="str">
-        <f>INDEX('!참조_ENUM'!$W$3:$W$13,MATCH(B10,'!참조_ENUM'!$V$3:$V$13,0))</f>
-        <v>방어력 감소</v>
+      <c r="C10" s="59" t="s">
+        <v>204</v>
       </c>
       <c r="D10" s="4">
+        <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E10,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
-      <c r="E10" s="11" t="str">
-        <f>INDEX('!참조_ENUM'!$AA$3:$AA$6,MATCH(D10,'!참조_ENUM'!$Z$3:$Z$6,0))</f>
-        <v>시간 지속</v>
+      <c r="E10" s="59" t="s">
+        <v>207</v>
       </c>
       <c r="F10" s="4">
         <v>5</v>
@@ -10467,21 +10543,21 @@
         <v>0</v>
       </c>
       <c r="K10" s="7">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(L10,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>11</v>
       </c>
-      <c r="L10" s="7" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(K10,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>타겟의 발 밑에서 즉시 효과 발동</v>
+      <c r="L10" s="55" t="s">
+        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
       <c r="N10" s="7">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(O10,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>200</v>
       </c>
-      <c r="O10" s="11" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(N10,'!참조_ENUM'!$F$3:$F$13,0))</f>
-        <v>방어력을 기준으로 계산을 하기 위한 수치</v>
+      <c r="O10" s="59" t="s">
+        <v>210</v>
       </c>
       <c r="P10" s="4">
         <v>0</v>
@@ -10507,18 +10583,18 @@
         <v>500007</v>
       </c>
       <c r="B11" s="7">
+        <f>INDEX('!참조_ENUM'!$V$3:$V$13,MATCH(C11,'!참조_ENUM'!$W$3:$W$13,0))</f>
         <v>105</v>
       </c>
-      <c r="C11" s="11" t="str">
-        <f>INDEX('!참조_ENUM'!$W$3:$W$13,MATCH(B11,'!참조_ENUM'!$V$3:$V$13,0))</f>
-        <v>빙결</v>
+      <c r="C11" s="59" t="s">
+        <v>205</v>
       </c>
       <c r="D11" s="4">
+        <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E11,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
-      <c r="E11" s="11" t="str">
-        <f>INDEX('!참조_ENUM'!$AA$3:$AA$6,MATCH(D11,'!참조_ENUM'!$Z$3:$Z$6,0))</f>
-        <v>시간 지속</v>
+      <c r="E11" s="59" t="s">
+        <v>207</v>
       </c>
       <c r="F11" s="4">
         <v>3</v>
@@ -10536,21 +10612,21 @@
         <v>100007</v>
       </c>
       <c r="K11" s="7">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(L11,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>11</v>
       </c>
-      <c r="L11" s="7" t="str">
-        <f>INDEX('!참조_ENUM'!$AE$3:$AE$10,MATCH(K11,'!참조_ENUM'!$AD$3:$AD$10,0))</f>
-        <v>타겟의 발 밑에서 즉시 효과 발동</v>
+      <c r="L11" s="55" t="s">
+        <v>208</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="11" t="str">
-        <f>INDEX('!참조_ENUM'!$G$3:$G$13,MATCH(N11,'!참조_ENUM'!$F$3:$F$13,0))</f>
-        <v>NONE</v>
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(O11,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="59" t="s">
+        <v>192</v>
       </c>
       <c r="P11" s="4">
         <v>0</v>
@@ -10583,29 +10659,29 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D138F290-BC71-4153-8B06-C785077FE4B8}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6B324AAC-5A13-42AC-8334-D62D75A8A806}">
           <x14:formula1>
-            <xm:f>'!참조_ENUM'!$Z$3:$Z$6</xm:f>
+            <xm:f>'!참조_ENUM'!$W$3:$W$13</xm:f>
           </x14:formula1>
-          <xm:sqref>D5:D11</xm:sqref>
+          <xm:sqref>C5:C11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BADD3DF7-84B7-4DA0-ABC0-BBC36C154738}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{60431816-10C9-4AF1-A6F4-776406013C0B}">
           <x14:formula1>
-            <xm:f>'!참조_ENUM'!$F$3:$F$13</xm:f>
+            <xm:f>'!참조_ENUM'!$AA$3:$AA$6</xm:f>
           </x14:formula1>
-          <xm:sqref>N5:N11</xm:sqref>
+          <xm:sqref>E5:E11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FF72D07A-16DC-43C4-B0B9-3814909F4C5D}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00C8BE9C-E436-4DB9-BD86-B58B490A4DA2}">
           <x14:formula1>
-            <xm:f>'!참조_ENUM'!$AD$3:$AD$10</xm:f>
+            <xm:f>'!참조_ENUM'!$AE$3:$AE$10</xm:f>
           </x14:formula1>
-          <xm:sqref>K5:K11</xm:sqref>
+          <xm:sqref>L5:L11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4698ABB8-E6C1-495A-910B-F6779A72B140}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3C81CED5-F6F7-435B-B3F0-BE20EBA1B245}">
           <x14:formula1>
-            <xm:f>'!참조_ENUM'!$V$3:$V$13</xm:f>
+            <xm:f>'!참조_ENUM'!$G$3:$G$13</xm:f>
           </x14:formula1>
-          <xm:sqref>B5:B11</xm:sqref>
+          <xm:sqref>O5:O11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Android/ExcelData/PCSkillTable.xlsx
+++ b/Android/ExcelData/PCSkillTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4123D95-3CA0-4A53-9832-559B6F839886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C183DCB4-F246-4003-9A4C-D3555B270AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -594,7 +594,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W4" authorId="0" shapeId="0" xr:uid="{A402B58C-B420-4345-8EC5-0136DD80EAAE}">
+    <comment ref="Y4" authorId="0" shapeId="0" xr:uid="{A402B58C-B420-4345-8EC5-0136DD80EAAE}">
       <text>
         <r>
           <rPr>
@@ -1524,7 +1524,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="222">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1907,323 +1907,295 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>effect_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill 08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발사체 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이펙트 지속시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill 09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반복 일회성 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료 일회성 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반복 주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repeat_interval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repeat_pc_onetime_ids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finish_pc_onetime_ids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Normal_Melee_Impact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_NormalHeal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중첩 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_overlapable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Duration_DamageReduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Duration_Freeze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/Left/SkillEffect_Normal_Fireball</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_BuffLight</t>
+  </si>
+  <si>
+    <t>attack 01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack 02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원딜/일반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원서폿/일반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원힐/일반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill 12</t>
+  </si>
+  <si>
+    <t>skill 13</t>
+  </si>
+  <si>
+    <t>skill 14</t>
+  </si>
+  <si>
+    <t>skill 15</t>
+  </si>
+  <si>
+    <t>원딜/스킬1/대미지 (스킬 대미지 120%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원딜/스킬2/범위공격 (스킬 대미지 80%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원힐/스킬2/대미지 (스킬 대미지 120%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Duration_Attack_Up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Duration_Defense_Up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 타입</t>
+  </si>
+  <si>
+    <t>ENUM:SKILL_TYPE:NONE</t>
+  </si>
+  <si>
+    <t>Skill_Type</t>
+  </si>
+  <si>
+    <t>세컨 타겟 룰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENUM:SECOND_TARGET_RULE_TYPE:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>second_target_rule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세컨 타겟 룰(기획)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#second_target_rule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세컨 타겟 반경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>second_target_range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 세컨 타겟 카운트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_second_target_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Duration_Attack_Down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근접 전방 1명 공격 (1히트)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신의 공격력 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근접 전방 1명 공격 (2히트)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리 전방 1명 공격 (즉발형 1히트)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리 전방 1명 공격(즉발형 1히트)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리 전방 1명 공격(투사체형 1히트)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리 전방 1명의 방어력 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리 전방 적을 타겟하고 범위 데미지 (즉발형 6히트) - 주변 스플래쉬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리 전방 적을 타겟하고 범위 데미지 (투사체형 2히트) - 피격자 뒤로 스플래쉬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력이 가장 낮은 아군 체력 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_attack_2</t>
+  </si>
+  <si>
     <t>1_attack_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_attack_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect_path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill 08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발사체 속도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이펙트 지속시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect_duration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill 09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반복 일회성 효과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종료 일회성 효과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반복 주기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>repeat_interval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>repeat_pc_onetime_ids</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>finish_pc_onetime_ids</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill 11</t>
+  </si>
+  <si>
+    <t>근딜/일반 (공격력 100%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근딜/근접공격/대미지(공격력 130%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_attack_3</t>
+  </si>
+  <si>
+    <t>근딜/나/공격력 증가 버프 (20%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,15,15,15,15,25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/Left/SkillEffect_Pierce_Splash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타겟 범위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target_range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원서폿/스킬2/대미지 (공격력 120%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원서폿/스킬1/전방 방어력 감소(20%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원힐/스킬1/체력이 가장 낮은 아군 회복(최대 체력 30%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Normal_Melee_Impact</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_NormalHeal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중첩 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_overlapable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Duration_DamageReduce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Duration_Freeze</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/Left/SkillEffect_Normal_Fireball</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_BuffLight</t>
-  </si>
-  <si>
-    <t>attack 01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack 02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원딜/일반</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원서폿/일반</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원힐/일반</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill 12</t>
-  </si>
-  <si>
-    <t>skill 13</t>
-  </si>
-  <si>
-    <t>skill 14</t>
-  </si>
-  <si>
-    <t>skill 15</t>
-  </si>
-  <si>
-    <t>원딜/스킬1/대미지 (스킬 대미지 120%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원딜/스킬2/범위공격 (스킬 대미지 80%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원힐/스킬2/대미지 (스킬 대미지 120%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Duration_Attack_Up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Duration_Defense_Up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 타입</t>
-  </si>
-  <si>
-    <t>ENUM:SKILL_TYPE:NONE</t>
-  </si>
-  <si>
-    <t>Skill_Type</t>
-  </si>
-  <si>
-    <t>세컨 타겟 룰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENUM:SECOND_TARGET_RULE_TYPE:NONE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>second_target_rule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세컨 타겟 룰(기획)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#second_target_rule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세컨 타겟 반경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>second_target_range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대 세컨 타겟 카운트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_second_target_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Duration_Attack_Down</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자신의 체력 회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근접 전방 1명 공격 (1히트)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자신의 공격력 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근접 전방 1명 공격 (2히트)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원거리 전방 1명 공격 (즉발형 1히트)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원거리 전방 1명 공격(즉발형 1히트)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원거리 전방 1명 공격(투사체형 1히트)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원거리 전방 1명의 방어력 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원거리 전방 적을 타겟하고 범위 데미지 (즉발형 6히트) - 주변 스플래쉬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원거리 전방 적을 타겟하고 범위 데미지 (투사체형 2히트) - 피격자 뒤로 스플래쉬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력이 가장 낮은 아군 체력 회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_attack_2</t>
-  </si>
-  <si>
-    <t>1_attack_1</t>
-  </si>
-  <si>
-    <t>탱/일반/근접공격/데미지(공격력 100%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탱/스킬1/자신의 체력 회복(최대 체력 10%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탱/스킬2/근접공격 (공격력 120%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근딜/일반 (공격력 100%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근딜/근접공격/대미지(공격력 130%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_attack_3</t>
-  </si>
-  <si>
-    <t>1_attack_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근딜/나/공격력 증가 버프 (20%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15,15,15,15,15,25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/Left/SkillEffect_Pierce_Splash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타겟 범위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target_range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원서폿/스킬2/대미지 (공격력 120%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원서폿/스킬1/전방 방어력 감소(20%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원힐/스킬1/체력이 가장 낮은 아군 회복(최대 체력 30%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Normal_Melee_Impact</t>
   </si>
   <si>
     <t>debuff</t>
@@ -2332,6 +2304,69 @@
   </si>
   <si>
     <t>200 방어력을 기준으로 계산을 하기 위한 수치</t>
+  </si>
+  <si>
+    <t>00_common_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_skill_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_skill_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힐러/일반/원거리 공격/공격력 100%</t>
+  </si>
+  <si>
+    <t>힐러/스킬1/원거리 스킬/체력이 가장 낮은 아군 체력 회복(즉발형)</t>
+  </si>
+  <si>
+    <t>힐러/스킬2/원거리 스킬/전방의 적 1명 공격(발사체 발사)</t>
+  </si>
+  <si>
+    <t>원거리 전방 1명 공격 (1히트)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3001 남은 체력이 가장 낮은 타겟 선택</t>
+  </si>
+  <si>
+    <t>trigger_effect_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트리거 이펙트 프리팹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐스트 이펙트 프리팹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cast_effect_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoot</t>
+  </si>
+  <si>
+    <t>heal</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/Left/Lucia/SkillEffect_Lucia_Attack_01_Cast</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/Left/Lucia/SkillEffect_Lucia_Skill_01_Cast</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/Left/Lucia/SkillEffect_Lucia_Skill_02_Cast</t>
   </si>
 </sst>
 </file>
@@ -2978,7 +3013,6 @@
       <sheetName val="@npc"/>
       <sheetName val="@target_rule"/>
       <sheetName val="@character_sort"/>
-      <sheetName val="@stage_common"/>
       <sheetName val="@second_target_rule"/>
       <sheetName val="@effect"/>
       <sheetName val="@stat"/>
@@ -2993,13 +3027,45 @@
       <sheetName val="@inequality_type"/>
       <sheetName val="@skill_type"/>
       <sheetName val="@item_type"/>
+      <sheetName val="@Limit"/>
+      <sheetName val="@goods_type"/>
+      <sheetName val="@piece_type"/>
+      <sheetName val="@eqipment_type"/>
+      <sheetName val="@drop_type"/>
+      <sheetName val="@repeat_type"/>
+      <sheetName val="@charge_type"/>
+      <sheetName val="@stage_common"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TRIBE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>POSITION_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ROLE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>NPC_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="5">
         <row r="1">
           <cell r="A1" t="str">
@@ -3888,11 +3954,61 @@
         </row>
       </sheetData>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
+      <sheetData sheetId="7">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SECOND_TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>type</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>value</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>comment</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>AROUND_SPLASH</v>
+          </cell>
+          <cell r="B5">
+            <v>1</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>0 타겟을 중심으로 지정 반경내에 감지되는 타겟 검사</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>BACK_SPLASH</v>
+          </cell>
+          <cell r="B6">
+            <v>2</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>1 타겟 뒤로 지정 반경내에 감지되는 타겟 검사</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="8">
         <row r="1">
           <cell r="A1" t="str">
-            <v>SECOND_TARGET_RULE_TYPE</v>
+            <v>EFFECT_TYPE</v>
           </cell>
         </row>
         <row r="3">
@@ -3919,31 +4035,43 @@
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>AROUND_SPLASH</v>
+            <v>DAMAGE</v>
           </cell>
           <cell r="B5">
             <v>1</v>
           </cell>
           <cell r="C5" t="str">
-            <v>0 타겟을 중심으로 지정 반경내에 감지되는 타겟 검사</v>
+            <v>1 대미지 만큼 현재 체력 감소</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>BACK_SPLASH</v>
+            <v>NEXT_DAMAGE_REDUCT</v>
           </cell>
           <cell r="B6">
             <v>2</v>
           </cell>
           <cell r="C6" t="str">
-            <v>1 타겟 뒤로 지정 반경내에 감지되는 타겟 검사</v>
+            <v>2 다음 피해의 데미지를 감소</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>HP_RECOVERY</v>
+          </cell>
+          <cell r="B7">
+            <v>3</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>3 대상의 현재 HP를 회복. 
+MAX HP를 초과할 수 없다</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="9">
         <row r="1">
           <cell r="A1" t="str">
-            <v>EFFECT_TYPE</v>
+            <v>STAT_MULTIPLE_TYPE</v>
           </cell>
         </row>
         <row r="3">
@@ -3970,43 +4098,122 @@
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>DAMAGE</v>
+            <v>ATTACK_VALUE</v>
           </cell>
           <cell r="B5">
-            <v>1</v>
+            <v>100</v>
           </cell>
           <cell r="C5" t="str">
-            <v>1 대미지 만큼 현재 체력 감소</v>
+            <v>100 공격력을 기준으로 절대값 계산을 하기 위한 수치</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>NEXT_DAMAGE_REDUCT</v>
+            <v>ATTACK</v>
           </cell>
           <cell r="B6">
-            <v>2</v>
+            <v>101</v>
           </cell>
           <cell r="C6" t="str">
-            <v>2 다음 피해의 데미지를 감소</v>
+            <v>101 공격력을 기준으로 배율 계산을 하기 위한 수치</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>HP_RECOVERY</v>
+            <v>DEFENSE</v>
           </cell>
           <cell r="B7">
-            <v>3</v>
+            <v>200</v>
           </cell>
           <cell r="C7" t="str">
-            <v>3 대상의 현재 HP를 회복. 
-MAX HP를 초과할 수 없다</v>
+            <v>200 방어력을 기준으로 계산을 하기 위한 수치</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>MAX_LIFE</v>
+          </cell>
+          <cell r="B8">
+            <v>300</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>300 최대 체력을 기준으로 계산을 하기 위한 수치</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>LIFE</v>
+          </cell>
+          <cell r="B9">
+            <v>400</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>400 현재 체력을 기준으로 계산을 하기 위한 수치</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>CRITICAL_RATE</v>
+          </cell>
+          <cell r="B10">
+            <v>500</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>500 크리티컬 확률을 기준으로 계산을 하기 위한 수치</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>CRITICAL_POWER</v>
+          </cell>
+          <cell r="B11">
+            <v>600</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>600 크리티컬 파워를 기준으로 계산을 하기 위한 수치</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>ACCURACY</v>
+          </cell>
+          <cell r="B12">
+            <v>700</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>700 명중률을 기준으로 계산을 하기 위한 수치</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>EVASION</v>
+          </cell>
+          <cell r="B13">
+            <v>800</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>800 회피율을 기준으로 계산을 하기 위한 수치</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>DAMAGE</v>
+          </cell>
+          <cell r="B14">
+            <v>900</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>900 피해량을 기준으로 계산을 하기 위한 수치</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="10">
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13">
         <row r="1">
           <cell r="A1" t="str">
-            <v>STAT_MULTIPLE_TYPE</v>
+            <v>TARGET_TYPE</v>
           </cell>
         </row>
         <row r="3">
@@ -4022,133 +4229,31 @@
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v>NONE</v>
+            <v>MY_TEAM</v>
           </cell>
           <cell r="B4">
             <v>0</v>
           </cell>
           <cell r="C4" t="str">
-            <v>NONE</v>
+            <v>0 아군</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>ATTACK_VALUE</v>
+            <v>ENEMY_TEAM</v>
           </cell>
           <cell r="B5">
-            <v>100</v>
+            <v>1</v>
           </cell>
           <cell r="C5" t="str">
-            <v>100 공격력을 기준으로 절대값 계산을 하기 위한 수치</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>ATTACK</v>
-          </cell>
-          <cell r="B6">
-            <v>101</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>101 공격력을 기준으로 배율 계산을 하기 위한 수치</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>DEFENSE</v>
-          </cell>
-          <cell r="B7">
-            <v>200</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>200 방어력을 기준으로 계산을 하기 위한 수치</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>MAX_LIFE</v>
-          </cell>
-          <cell r="B8">
-            <v>300</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>300 최대 체력을 기준으로 계산을 하기 위한 수치</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>LIFE</v>
-          </cell>
-          <cell r="B9">
-            <v>400</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>400 현재 체력을 기준으로 계산을 하기 위한 수치</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>CRITICAL_RATE</v>
-          </cell>
-          <cell r="B10">
-            <v>500</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>500 크리티컬 확률을 기준으로 계산을 하기 위한 수치</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>CRITICAL_POWER</v>
-          </cell>
-          <cell r="B11">
-            <v>600</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>600 크리티컬 파워를 기준으로 계산을 하기 위한 수치</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>ACCURACY</v>
-          </cell>
-          <cell r="B12">
-            <v>700</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>700 명중률을 기준으로 계산을 하기 위한 수치</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>EVASION</v>
-          </cell>
-          <cell r="B13">
-            <v>800</v>
-          </cell>
-          <cell r="C13" t="str">
-            <v>800 회피율을 기준으로 계산을 하기 위한 수치</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>DAMAGE</v>
-          </cell>
-          <cell r="B14">
-            <v>900</v>
-          </cell>
-          <cell r="C14" t="str">
-            <v>900 피해량을 기준으로 계산을 하기 위한 수치</v>
+            <v>1 적군</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
       <sheetData sheetId="14">
         <row r="1">
           <cell r="A1" t="str">
-            <v>TARGET_TYPE</v>
+            <v>ONETIME_EFFECT_TYPE</v>
           </cell>
         </row>
         <row r="3">
@@ -4164,31 +4269,42 @@
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v>MY_TEAM</v>
+            <v>NONE</v>
           </cell>
           <cell r="B4">
             <v>0</v>
           </cell>
           <cell r="C4" t="str">
-            <v>0 아군</v>
+            <v>NONE</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>ENEMY_TEAM</v>
+            <v>DAMAGE</v>
           </cell>
           <cell r="B5">
             <v>1</v>
           </cell>
           <cell r="C5" t="str">
-            <v>1 적군</v>
+            <v>1 데미지를 준다</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>LIFE_RECOVERY</v>
+          </cell>
+          <cell r="B6">
+            <v>2</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>2 체력 회복</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="15">
         <row r="1">
           <cell r="A1" t="str">
-            <v>ONETIME_EFFECT_TYPE</v>
+            <v>DURATION_EFFECT_TYPE</v>
           </cell>
         </row>
         <row r="3">
@@ -4215,31 +4331,119 @@
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>DAMAGE</v>
+            <v>DAMAGE_REDUCE</v>
           </cell>
           <cell r="B5">
             <v>1</v>
           </cell>
           <cell r="C5" t="str">
-            <v>1 데미지를 준다</v>
+            <v>1 피해 감소</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>LIFE_RECOVERY</v>
+            <v>POISON</v>
           </cell>
           <cell r="B6">
-            <v>2</v>
+            <v>101</v>
           </cell>
           <cell r="C6" t="str">
-            <v>2 체력 회복</v>
+            <v>101 중독</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>STUN</v>
+          </cell>
+          <cell r="B7">
+            <v>102</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>102 기절</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>SILENCE</v>
+          </cell>
+          <cell r="B8">
+            <v>103</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>103 침묵</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>BIND</v>
+          </cell>
+          <cell r="B9">
+            <v>104</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>104 결박</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>FREEZE</v>
+          </cell>
+          <cell r="B10">
+            <v>105</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>105 빙결</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>ATK_UP</v>
+          </cell>
+          <cell r="B11">
+            <v>106</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>106 공격력 증가</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>DEF_UP</v>
+          </cell>
+          <cell r="B12">
+            <v>107</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>107 방어력 증가</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>ATK_DOWN</v>
+          </cell>
+          <cell r="B13">
+            <v>108</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>108 공격력 감소</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>DEF_DOWN</v>
+          </cell>
+          <cell r="B14">
+            <v>109</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>109 방어력 감소</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="16">
         <row r="1">
           <cell r="A1" t="str">
-            <v>DURATION_EFFECT_TYPE</v>
+            <v>PERSISTENCE_TYPE</v>
           </cell>
         </row>
         <row r="3">
@@ -4266,119 +4470,42 @@
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>DAMAGE_REDUCE</v>
+            <v>TIME</v>
           </cell>
           <cell r="B5">
             <v>1</v>
           </cell>
           <cell r="C5" t="str">
-            <v>1 피해 감소</v>
+            <v>1 시간 지속</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>POISON</v>
+            <v>HITTED</v>
           </cell>
           <cell r="B6">
-            <v>101</v>
+            <v>2</v>
           </cell>
           <cell r="C6" t="str">
-            <v>101 중독</v>
+            <v>2 피격 횟수 제한</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>STUN</v>
+            <v>ATTACK</v>
           </cell>
           <cell r="B7">
-            <v>102</v>
+            <v>3</v>
           </cell>
           <cell r="C7" t="str">
-            <v>102 기절</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>SILENCE</v>
-          </cell>
-          <cell r="B8">
-            <v>103</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>103 침묵</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>BIND</v>
-          </cell>
-          <cell r="B9">
-            <v>104</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>104 결박</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>FREEZE</v>
-          </cell>
-          <cell r="B10">
-            <v>105</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>105 빙결</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>ATK_UP</v>
-          </cell>
-          <cell r="B11">
-            <v>106</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>106 공격력 증가</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>DEF_UP</v>
-          </cell>
-          <cell r="B12">
-            <v>107</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>107 방어력 증가</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>ATK_DOWN</v>
-          </cell>
-          <cell r="B13">
-            <v>108</v>
-          </cell>
-          <cell r="C13" t="str">
-            <v>108 공격력 감소</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>DEF_DOWN</v>
-          </cell>
-          <cell r="B14">
-            <v>109</v>
-          </cell>
-          <cell r="C14" t="str">
-            <v>109 방어력 감소</v>
+            <v>3 공격 횟수 제한</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="17">
         <row r="1">
           <cell r="A1" t="str">
-            <v>PERSISTENCE_TYPE</v>
+            <v>PROJECTILE_TYPE</v>
           </cell>
         </row>
         <row r="3">
@@ -4405,68 +4532,6 @@
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>TIME</v>
-          </cell>
-          <cell r="B5">
-            <v>1</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>1 시간 지속</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>HITTED</v>
-          </cell>
-          <cell r="B6">
-            <v>2</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>2 피격 횟수 제한</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>ATTACK</v>
-          </cell>
-          <cell r="B7">
-            <v>3</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>3 공격 횟수 제한</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="18">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>PROJECTILE_TYPE</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>type</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>value</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>comment</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>NONE</v>
-          </cell>
-          <cell r="B4">
-            <v>0</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>NONE</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
             <v>THROW_FOOT</v>
           </cell>
           <cell r="B5">
@@ -4543,9 +4608,17 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
       <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6774,7 +6847,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B5" sqref="B5:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6808,7 +6881,7 @@
         <v>38</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>26</v>
@@ -6834,7 +6907,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>4</v>
@@ -6860,7 +6933,7 @@
         <v>49</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F4" s="21" t="s">
         <v>27</v>
@@ -6878,7 +6951,7 @@
       </c>
       <c r="B5" s="38" t="str">
         <f>VLOOKUP(A5,pc_skill_data!$B:$C,2,)</f>
-        <v>탱/일반/근접공격/데미지(공격력 100%)</v>
+        <v>힐러/일반/원거리 공격/공격력 100%</v>
       </c>
       <c r="C5" s="38" t="s">
         <v>19</v>
@@ -6890,11 +6963,11 @@
         <v>1</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="G5" s="38"/>
       <c r="H5" s="40" t="s">
-        <v>95</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -6903,7 +6976,7 @@
       </c>
       <c r="B6" s="19" t="str">
         <f>VLOOKUP(A6,pc_skill_data!$B:$C,2,)</f>
-        <v>탱/스킬1/자신의 체력 회복(최대 체력 10%)</v>
+        <v>힐러/스킬1/원거리 스킬/체력이 가장 낮은 아군 체력 회복(즉발형)</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>22</v>
@@ -6915,11 +6988,11 @@
         <v>2</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G6" s="19"/>
       <c r="H6" s="41" t="s">
-        <v>96</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6928,7 +7001,7 @@
       </c>
       <c r="B7" s="42" t="str">
         <f>VLOOKUP(A7,pc_skill_data!$B:$C,2,)</f>
-        <v>탱/스킬2/근접공격 (공격력 120%)</v>
+        <v>힐러/스킬2/원거리 스킬/전방의 적 1명 공격(발사체 발사)</v>
       </c>
       <c r="C7" s="42" t="s">
         <v>28</v>
@@ -6940,11 +7013,11 @@
         <v>3</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="G7" s="42"/>
       <c r="H7" s="44" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -6965,11 +7038,11 @@
         <v>1</v>
       </c>
       <c r="F8" s="38" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G8" s="38"/>
       <c r="H8" s="40" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -6990,11 +7063,11 @@
         <v>2</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="41" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -7006,7 +7079,7 @@
         <v>근딜/근접공격/대미지(공격력 130%)</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D10" s="43">
         <v>2</v>
@@ -7015,11 +7088,11 @@
         <v>3</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G10" s="42"/>
       <c r="H10" s="44" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -7031,7 +7104,7 @@
         <v>원딜/일반</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D11" s="39">
         <v>2</v>
@@ -7040,11 +7113,11 @@
         <v>1</v>
       </c>
       <c r="F11" s="38" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G11" s="38"/>
       <c r="H11" s="40" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -7056,7 +7129,7 @@
         <v>원딜/스킬1/대미지 (스킬 대미지 120%)</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D12" s="20">
         <v>2</v>
@@ -7065,11 +7138,11 @@
         <v>2</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="41" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -7081,7 +7154,7 @@
         <v>원딜/스킬2/범위공격 (스킬 대미지 80%)</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D13" s="43">
         <v>2</v>
@@ -7090,11 +7163,11 @@
         <v>3</v>
       </c>
       <c r="F13" s="42" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G13" s="42"/>
       <c r="H13" s="44" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -7106,7 +7179,7 @@
         <v>원서폿/일반</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D14" s="39">
         <v>2</v>
@@ -7115,11 +7188,11 @@
         <v>1</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G14" s="38"/>
       <c r="H14" s="40" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -7131,7 +7204,7 @@
         <v>원서폿/스킬1/전방 방어력 감소(20%)</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D15" s="20">
         <v>2</v>
@@ -7140,11 +7213,11 @@
         <v>2</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G15" s="19"/>
       <c r="H15" s="41" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -7156,7 +7229,7 @@
         <v>원서폿/스킬2/대미지 (공격력 120%)</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D16" s="50">
         <v>2</v>
@@ -7165,11 +7238,11 @@
         <v>3</v>
       </c>
       <c r="F16" s="49" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G16" s="49"/>
       <c r="H16" s="51" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -7181,7 +7254,7 @@
         <v>원힐/일반</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D17" s="39">
         <v>2</v>
@@ -7190,11 +7263,11 @@
         <v>1</v>
       </c>
       <c r="F17" s="38" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G17" s="38"/>
       <c r="H17" s="40" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -7206,7 +7279,7 @@
         <v>원힐/스킬1/체력이 가장 낮은 아군 회복(최대 체력 30%)</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D18" s="7">
         <v>2</v>
@@ -7215,11 +7288,11 @@
         <v>2</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="52" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -7231,7 +7304,7 @@
         <v>원힐/스킬2/대미지 (스킬 대미지 120%)</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D19" s="28">
         <v>2.5</v>
@@ -7240,11 +7313,11 @@
         <v>3</v>
       </c>
       <c r="F19" s="42" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G19" s="36"/>
       <c r="H19" s="53" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -7256,7 +7329,7 @@
         <v>원딜/일반</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D20" s="39">
         <v>2</v>
@@ -7265,11 +7338,11 @@
         <v>1</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G20" s="38"/>
       <c r="H20" s="40" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -7281,7 +7354,7 @@
         <v>원딜/전방/공격력 감소(15%)</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D21" s="7">
         <v>2</v>
@@ -7290,11 +7363,11 @@
         <v>2</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="40" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -7306,7 +7379,7 @@
         <v>원딜/스킬2/대미지 (스킬 대미지 130%)</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D22" s="28">
         <v>2.5</v>
@@ -7315,11 +7388,11 @@
         <v>3</v>
       </c>
       <c r="F22" s="42" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="G22" s="36"/>
       <c r="H22" s="53" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -7342,13 +7415,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00F7AA3-FB12-454D-93A6-31450B9003EC}">
-  <dimension ref="A1:X22"/>
+  <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="S5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7372,11 +7445,12 @@
     <col min="19" max="19" width="19.25" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="19.25" customWidth="1"/>
     <col min="22" max="22" width="10.875" customWidth="1"/>
-    <col min="23" max="23" width="69.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="36.75" customWidth="1"/>
     <col min="24" max="24" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="69.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -7400,7 +7474,7 @@
       <c r="T1" s="6"/>
       <c r="U1" s="6"/>
     </row>
-    <row r="2" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -7426,7 +7500,7 @@
         <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>90</v>
@@ -7435,19 +7509,19 @@
         <v>93</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>85</v>
@@ -7459,22 +7533,25 @@
         <v>71</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>86</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>89</v>
+        <v>214</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
@@ -7512,7 +7589,7 @@
         <v>8</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N3" s="11" t="s">
         <v>4</v>
@@ -7542,13 +7619,16 @@
         <v>4</v>
       </c>
       <c r="W3" s="11" t="s">
-        <v>4</v>
+        <v>215</v>
       </c>
       <c r="X3" s="11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y3" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
         <v>2</v>
       </c>
@@ -7574,7 +7654,7 @@
         <v>16</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="J4" s="21" t="s">
         <v>91</v>
@@ -7586,16 +7666,16 @@
         <v>41</v>
       </c>
       <c r="M4" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="N4" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="O4" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="P4" s="21" t="s">
         <v>143</v>
-      </c>
-      <c r="O4" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="P4" s="21" t="s">
-        <v>145</v>
       </c>
       <c r="Q4" s="21" t="s">
         <v>84</v>
@@ -7607,22 +7687,25 @@
         <v>74</v>
       </c>
       <c r="T4" s="21" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="U4" s="21" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="V4" s="21" t="s">
         <v>87</v>
       </c>
       <c r="W4" s="21" t="s">
-        <v>97</v>
+        <v>216</v>
       </c>
       <c r="X4" s="21" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+      <c r="Y4" s="21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30">
         <v>100001</v>
       </c>
@@ -7630,7 +7713,7 @@
         <v>100001</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D5" s="24">
         <v>1</v>
@@ -7640,7 +7723,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="58" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G5" s="24">
         <v>0</v>
@@ -7656,7 +7739,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="25" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="L5" s="24">
         <v>0</v>
@@ -7666,7 +7749,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="72" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="O5" s="31">
         <v>0</v>
@@ -7690,14 +7773,17 @@
         <v>0</v>
       </c>
       <c r="V5" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="W5" s="31"/>
+        <v>217</v>
+      </c>
+      <c r="W5" s="31" t="s">
+        <v>219</v>
+      </c>
       <c r="X5" s="62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Y5" s="31"/>
+    </row>
+    <row r="6" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="33">
         <v>100002</v>
       </c>
@@ -7705,17 +7791,17 @@
         <v>100002</v>
       </c>
       <c r="C6" s="64" t="s">
-        <v>163</v>
+        <v>208</v>
       </c>
       <c r="D6" s="7">
         <v>0</v>
       </c>
       <c r="E6" s="7">
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F6,'!참조_ENUM'!$C$3:$C$81,0))</f>
-        <v>1</v>
+        <v>3001</v>
       </c>
       <c r="F6" s="59" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -7731,7 +7817,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="L6" s="7">
         <v>0</v>
@@ -7741,7 +7827,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="73" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="O6" s="4">
         <v>0</v>
@@ -7765,14 +7851,17 @@
         <v>0</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="W6" s="4"/>
+        <v>218</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>220</v>
+      </c>
       <c r="X6" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2.5</v>
+      </c>
+      <c r="Y6" s="4"/>
+    </row>
+    <row r="7" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="35">
         <v>100003</v>
       </c>
@@ -7780,7 +7869,7 @@
         <v>100003</v>
       </c>
       <c r="C7" s="65" t="s">
-        <v>164</v>
+        <v>209</v>
       </c>
       <c r="D7" s="28">
         <v>1</v>
@@ -7790,7 +7879,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="60" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G7" s="28">
         <v>0</v>
@@ -7806,7 +7895,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="29" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="L7" s="28">
         <v>0</v>
@@ -7816,7 +7905,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="74" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="O7" s="36">
         <v>0</v>
@@ -7840,14 +7929,17 @@
         <v>0</v>
       </c>
       <c r="V7" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="W7" s="36"/>
+        <v>217</v>
+      </c>
+      <c r="W7" s="36" t="s">
+        <v>221</v>
+      </c>
       <c r="X7" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="36"/>
+    </row>
+    <row r="8" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30">
         <v>100101</v>
       </c>
@@ -7855,7 +7947,7 @@
         <v>100101</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D8" s="24">
         <v>1</v>
@@ -7865,7 +7957,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="58" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G8" s="24">
         <v>0</v>
@@ -7881,7 +7973,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="25" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="L8" s="24">
         <v>0</v>
@@ -7891,7 +7983,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="72" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="O8" s="31">
         <v>0</v>
@@ -7915,14 +8007,15 @@
         <v>0</v>
       </c>
       <c r="V8" s="31" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="W8" s="31"/>
       <c r="X8" s="62">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y8" s="31"/>
+    </row>
+    <row r="9" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="33">
         <v>100102</v>
       </c>
@@ -7930,7 +8023,7 @@
         <v>100102</v>
       </c>
       <c r="C9" s="64" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D9" s="7">
         <v>0</v>
@@ -7940,7 +8033,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="59" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G9" s="7">
         <v>0</v>
@@ -7956,7 +8049,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="L9" s="7">
         <v>0</v>
@@ -7966,7 +8059,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="73" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="O9" s="4">
         <v>0</v>
@@ -7990,14 +8083,15 @@
         <v>0</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="W9" s="4"/>
       <c r="X9" s="52">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y9" s="4"/>
+    </row>
+    <row r="10" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="35">
         <v>100103</v>
       </c>
@@ -8005,7 +8099,7 @@
         <v>100103</v>
       </c>
       <c r="C10" s="65" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D10" s="28">
         <v>1</v>
@@ -8015,7 +8109,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="60" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G10" s="28">
         <v>0</v>
@@ -8031,7 +8125,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="L10" s="28">
         <v>0</v>
@@ -8041,7 +8135,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="74" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="O10" s="36">
         <v>0</v>
@@ -8050,7 +8144,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="R10" s="36">
         <v>100006</v>
@@ -8065,14 +8159,15 @@
         <v>0</v>
       </c>
       <c r="V10" s="36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="W10" s="36"/>
       <c r="X10" s="53">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y10" s="36"/>
+    </row>
+    <row r="11" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="30">
         <v>100201</v>
       </c>
@@ -8080,7 +8175,7 @@
         <v>100201</v>
       </c>
       <c r="C11" s="63" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D11" s="24">
         <v>1</v>
@@ -8090,7 +8185,7 @@
         <v>6</v>
       </c>
       <c r="F11" s="58" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G11" s="24">
         <v>0</v>
@@ -8106,7 +8201,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="25" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="L11" s="24">
         <v>0</v>
@@ -8116,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="72" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="O11" s="31">
         <v>0</v>
@@ -8146,8 +8241,9 @@
       <c r="X11" s="62">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y11" s="31"/>
+    </row>
+    <row r="12" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33">
         <v>100202</v>
       </c>
@@ -8155,7 +8251,7 @@
         <v>100202</v>
       </c>
       <c r="C12" s="64" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D12" s="7">
         <v>1</v>
@@ -8165,7 +8261,7 @@
         <v>6</v>
       </c>
       <c r="F12" s="59" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G12" s="7">
         <v>0</v>
@@ -8181,7 +8277,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="L12" s="7">
         <v>0</v>
@@ -8191,7 +8287,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="73" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="O12" s="4">
         <v>0</v>
@@ -8221,8 +8317,9 @@
       <c r="X12" s="52">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y12" s="4"/>
+    </row>
+    <row r="13" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="35">
         <v>100203</v>
       </c>
@@ -8230,7 +8327,7 @@
         <v>100203</v>
       </c>
       <c r="C13" s="65" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D13" s="28">
         <v>1</v>
@@ -8240,7 +8337,7 @@
         <v>10</v>
       </c>
       <c r="F13" s="60" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="G13" s="28">
         <v>0</v>
@@ -8256,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="29" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="L13" s="28">
         <v>0</v>
@@ -8266,7 +8363,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="74" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="O13" s="36">
         <v>0</v>
@@ -8275,7 +8372,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="28" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="R13" s="36">
         <v>100009</v>
@@ -8296,8 +8393,9 @@
       <c r="X13" s="53">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y13" s="36"/>
+    </row>
+    <row r="14" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="30">
         <v>100301</v>
       </c>
@@ -8305,7 +8403,7 @@
         <v>100301</v>
       </c>
       <c r="C14" s="63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D14" s="24">
         <v>1</v>
@@ -8315,7 +8413,7 @@
         <v>6</v>
       </c>
       <c r="F14" s="58" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G14" s="24">
         <v>0</v>
@@ -8331,17 +8429,17 @@
         <v>2</v>
       </c>
       <c r="K14" s="25" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="L14" s="24">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M14" s="31">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N14,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>0</v>
       </c>
       <c r="N14" s="72" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="O14" s="31">
         <v>0</v>
@@ -8367,14 +8465,15 @@
       <c r="V14" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="W14" s="31" t="s">
-        <v>120</v>
-      </c>
+      <c r="W14" s="31"/>
       <c r="X14" s="62">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y14" s="31" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="33">
         <v>100302</v>
       </c>
@@ -8382,7 +8481,7 @@
         <v>100302</v>
       </c>
       <c r="C15" s="64" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D15" s="7">
         <v>1</v>
@@ -8392,7 +8491,7 @@
         <v>6</v>
       </c>
       <c r="F15" s="59" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G15" s="7">
         <v>0</v>
@@ -8408,17 +8507,17 @@
         <v>2</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="L15" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M15" s="4">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N15,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>0</v>
       </c>
       <c r="N15" s="73" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="O15" s="4">
         <v>0</v>
@@ -8442,16 +8541,17 @@
         <v>0</v>
       </c>
       <c r="V15" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="W15" s="4" t="s">
-        <v>121</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="W15" s="4"/>
       <c r="X15" s="52">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y15" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="35">
         <v>100303</v>
       </c>
@@ -8459,7 +8559,7 @@
         <v>100303</v>
       </c>
       <c r="C16" s="65" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D16" s="28">
         <v>1</v>
@@ -8469,7 +8569,7 @@
         <v>6</v>
       </c>
       <c r="F16" s="60" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G16" s="28">
         <v>0</v>
@@ -8485,17 +8585,17 @@
         <v>2</v>
       </c>
       <c r="K16" s="29" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="L16" s="28">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M16" s="36">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N16,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>0</v>
       </c>
       <c r="N16" s="74" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="O16" s="36">
         <v>0</v>
@@ -8504,7 +8604,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="R16" s="36">
         <v>100011</v>
@@ -8521,14 +8621,15 @@
       <c r="V16" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="W16" s="36" t="s">
-        <v>120</v>
-      </c>
+      <c r="W16" s="36"/>
       <c r="X16" s="53">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y16" s="36" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30">
         <v>100401</v>
       </c>
@@ -8536,7 +8637,7 @@
         <v>100401</v>
       </c>
       <c r="C17" s="63" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D17" s="24">
         <v>1</v>
@@ -8546,7 +8647,7 @@
         <v>6</v>
       </c>
       <c r="F17" s="58" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G17" s="24">
         <v>0</v>
@@ -8562,17 +8663,17 @@
         <v>2</v>
       </c>
       <c r="K17" s="25" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="L17" s="24">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M17" s="31">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N17,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>0</v>
       </c>
       <c r="N17" s="72" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="O17" s="31">
         <v>0</v>
@@ -8598,14 +8699,15 @@
       <c r="V17" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="W17" s="31" t="s">
-        <v>120</v>
-      </c>
+      <c r="W17" s="31"/>
       <c r="X17" s="62">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y17" s="31" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="33">
         <v>100402</v>
       </c>
@@ -8613,7 +8715,7 @@
         <v>100402</v>
       </c>
       <c r="C18" s="64" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D18" s="7">
         <v>0</v>
@@ -8623,7 +8725,7 @@
         <v>3002</v>
       </c>
       <c r="F18" s="59" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="G18" s="7">
         <v>0</v>
@@ -8639,17 +8741,17 @@
         <v>2</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="L18" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M18" s="4">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N18,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>0</v>
       </c>
       <c r="N18" s="73" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="O18" s="4">
         <v>0</v>
@@ -8673,16 +8775,17 @@
         <v>0</v>
       </c>
       <c r="V18" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="W18" s="4" t="s">
-        <v>121</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="W18" s="4"/>
       <c r="X18" s="52">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y18" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="35">
         <v>100403</v>
       </c>
@@ -8690,7 +8793,7 @@
         <v>100403</v>
       </c>
       <c r="C19" s="65" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D19" s="28">
         <v>1</v>
@@ -8700,7 +8803,7 @@
         <v>6</v>
       </c>
       <c r="F19" s="60" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G19" s="28">
         <v>0</v>
@@ -8716,17 +8819,17 @@
         <v>2</v>
       </c>
       <c r="K19" s="29" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="L19" s="28">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M19" s="36">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N19,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>0</v>
       </c>
       <c r="N19" s="74" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="O19" s="36">
         <v>0</v>
@@ -8752,14 +8855,15 @@
       <c r="V19" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="W19" s="36" t="s">
-        <v>120</v>
-      </c>
+      <c r="W19" s="36"/>
       <c r="X19" s="53">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y19" s="36" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="30">
         <v>100501</v>
       </c>
@@ -8767,7 +8871,7 @@
         <v>100501</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D20" s="24">
         <v>1</v>
@@ -8777,7 +8881,7 @@
         <v>6</v>
       </c>
       <c r="F20" s="58" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G20" s="24">
         <v>0</v>
@@ -8793,17 +8897,17 @@
         <v>2</v>
       </c>
       <c r="K20" s="25" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="L20" s="24">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M20" s="31">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N20,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>0</v>
       </c>
       <c r="N20" s="72" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="O20" s="31">
         <v>0</v>
@@ -8829,14 +8933,15 @@
       <c r="V20" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="W20" s="31" t="s">
-        <v>120</v>
-      </c>
+      <c r="W20" s="31"/>
       <c r="X20" s="62">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y20" s="31" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="33">
         <v>100502</v>
       </c>
@@ -8844,7 +8949,7 @@
         <v>100502</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D21" s="7">
         <v>1</v>
@@ -8854,7 +8959,7 @@
         <v>6</v>
       </c>
       <c r="F21" s="59" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G21" s="7">
         <v>0</v>
@@ -8870,17 +8975,17 @@
         <v>2</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="L21" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M21" s="4">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N21,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>0</v>
       </c>
       <c r="N21" s="73" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="O21" s="4">
         <v>0</v>
@@ -8904,16 +9009,17 @@
         <v>0</v>
       </c>
       <c r="V21" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="W21" s="4" t="s">
-        <v>121</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="W21" s="4"/>
       <c r="X21" s="52">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y21" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="35">
         <v>100503</v>
       </c>
@@ -8921,7 +9027,7 @@
         <v>100503</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D22" s="28">
         <v>1</v>
@@ -8931,7 +9037,7 @@
         <v>6</v>
       </c>
       <c r="F22" s="60" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G22" s="28">
         <v>0</v>
@@ -8947,17 +9053,17 @@
         <v>12</v>
       </c>
       <c r="K22" s="29" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="L22" s="28">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M22" s="36">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N22,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>2</v>
       </c>
       <c r="N22" s="74" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="O22" s="36">
         <v>0</v>
@@ -8966,7 +9072,7 @@
         <v>10</v>
       </c>
       <c r="Q22" s="28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="R22" s="36">
         <v>100017</v>
@@ -8987,12 +9093,13 @@
       <c r="X22" s="53">
         <v>0.3</v>
       </c>
+      <c r="Y22" s="36"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V5:V22" xr:uid="{2DD0F759-8109-4C06-B32A-4A939427AE80}">
-      <formula1>"hit,shoot,buff,debuff"</formula1>
+      <formula1>"hit,shoot,buff,debuff,heal"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9028,8 +9135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BD63B1-FF99-405E-A3D0-90C5E747D8DE}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9071,7 +9178,7 @@
         <v>93</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>31</v>
@@ -9089,7 +9196,7 @@
         <v>89</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -9162,10 +9269,10 @@
         <v>37</v>
       </c>
       <c r="K4" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L4" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -9177,14 +9284,14 @@
         <v>1</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D5" s="24">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E5,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E5" s="54" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F5" s="24">
         <v>0</v>
@@ -9194,7 +9301,7 @@
         <v>101</v>
       </c>
       <c r="H5" s="58" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="I5" s="31">
         <v>0</v>
@@ -9203,7 +9310,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="31" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L5" s="32">
         <v>1</v>
@@ -9218,14 +9325,14 @@
         <v>1</v>
       </c>
       <c r="C6" s="59" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D6" s="7">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E6,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F6" s="7">
         <v>0</v>
@@ -9235,7 +9342,7 @@
         <v>101</v>
       </c>
       <c r="H6" s="59" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="I6" s="4">
         <v>0</v>
@@ -9244,7 +9351,7 @@
         <v>1.2</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L6" s="34">
         <v>1</v>
@@ -9259,14 +9366,14 @@
         <v>2</v>
       </c>
       <c r="C7" s="60" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D7" s="28">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E7,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
       <c r="E7" s="56" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F7" s="28">
         <v>0</v>
@@ -9276,7 +9383,7 @@
         <v>300</v>
       </c>
       <c r="H7" s="60" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="I7" s="36">
         <v>0</v>
@@ -9285,7 +9392,7 @@
         <v>0.1</v>
       </c>
       <c r="K7" s="36" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L7" s="37">
         <v>1</v>
@@ -9300,14 +9407,14 @@
         <v>1</v>
       </c>
       <c r="C8" s="58" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D8" s="24">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E8,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
       <c r="E8" s="54" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F8" s="24">
         <v>0</v>
@@ -9317,7 +9424,7 @@
         <v>101</v>
       </c>
       <c r="H8" s="58" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="I8" s="31">
         <v>0</v>
@@ -9326,7 +9433,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="31" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L8" s="32">
         <v>1</v>
@@ -9341,14 +9448,14 @@
         <v>1</v>
       </c>
       <c r="C9" s="59" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D9" s="7">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E9,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
       <c r="E9" s="55" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F9" s="7">
         <v>0</v>
@@ -9358,7 +9465,7 @@
         <v>101</v>
       </c>
       <c r="H9" s="59" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="I9" s="4">
         <v>0</v>
@@ -9367,7 +9474,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L9" s="34">
         <v>1</v>
@@ -9382,14 +9489,14 @@
         <v>1</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D10" s="28">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E10,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
       <c r="E10" s="56" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F10" s="28">
         <v>0</v>
@@ -9399,7 +9506,7 @@
         <v>101</v>
       </c>
       <c r="H10" s="60" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="I10" s="36">
         <v>0</v>
@@ -9408,7 +9515,7 @@
         <v>1.3</v>
       </c>
       <c r="K10" s="36" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L10" s="37">
         <v>1</v>
@@ -9423,14 +9530,14 @@
         <v>1</v>
       </c>
       <c r="C11" s="58" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D11" s="24">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E11,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
       <c r="E11" s="54" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F11" s="24">
         <v>0</v>
@@ -9440,7 +9547,7 @@
         <v>101</v>
       </c>
       <c r="H11" s="58" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="I11" s="31">
         <v>0</v>
@@ -9449,7 +9556,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="31" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L11" s="32">
         <v>1</v>
@@ -9464,14 +9571,14 @@
         <v>1</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D12" s="7">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E12,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
       <c r="E12" s="55" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F12" s="7">
         <v>0</v>
@@ -9481,7 +9588,7 @@
         <v>101</v>
       </c>
       <c r="H12" s="59" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="I12" s="4">
         <v>0</v>
@@ -9490,7 +9597,7 @@
         <v>1.2</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L12" s="34">
         <v>1</v>
@@ -9505,14 +9612,14 @@
         <v>1</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D13" s="45">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E13,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
       <c r="E13" s="57" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F13" s="45">
         <v>0</v>
@@ -9522,7 +9629,7 @@
         <v>101</v>
       </c>
       <c r="H13" s="61" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="I13" s="46">
         <v>0</v>
@@ -9531,7 +9638,7 @@
         <v>0.8</v>
       </c>
       <c r="K13" s="46" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="L13" s="48">
         <v>1</v>
@@ -9546,14 +9653,14 @@
         <v>1</v>
       </c>
       <c r="C14" s="58" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D14" s="24">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E14,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
       <c r="E14" s="54" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F14" s="24">
         <v>0</v>
@@ -9563,7 +9670,7 @@
         <v>101</v>
       </c>
       <c r="H14" s="58" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="I14" s="31">
         <v>0</v>
@@ -9572,7 +9679,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="31" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L14" s="32">
         <v>1</v>
@@ -9587,14 +9694,14 @@
         <v>1</v>
       </c>
       <c r="C15" s="61" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D15" s="45">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E15,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
       <c r="E15" s="57" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F15" s="45">
         <v>0</v>
@@ -9604,7 +9711,7 @@
         <v>101</v>
       </c>
       <c r="H15" s="61" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="I15" s="46">
         <v>0</v>
@@ -9613,7 +9720,7 @@
         <v>1.2</v>
       </c>
       <c r="K15" s="46" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L15" s="48">
         <v>1</v>
@@ -9628,14 +9735,14 @@
         <v>1</v>
       </c>
       <c r="C16" s="58" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D16" s="24">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E16,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
       <c r="E16" s="54" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F16" s="24">
         <v>0</v>
@@ -9645,7 +9752,7 @@
         <v>101</v>
       </c>
       <c r="H16" s="58" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="I16" s="31">
         <v>0</v>
@@ -9654,7 +9761,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="31" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L16" s="32">
         <v>1</v>
@@ -9669,14 +9776,14 @@
         <v>2</v>
       </c>
       <c r="C17" s="59" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D17" s="7">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E17,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
       <c r="E17" s="55" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F17" s="7">
         <v>0</v>
@@ -9686,7 +9793,7 @@
         <v>300</v>
       </c>
       <c r="H17" s="59" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="I17" s="4">
         <v>0</v>
@@ -9695,7 +9802,7 @@
         <v>0.3</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L17" s="34">
         <v>1</v>
@@ -9710,14 +9817,14 @@
         <v>1</v>
       </c>
       <c r="C18" s="60" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D18" s="28">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E18,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
       <c r="E18" s="56" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F18" s="28">
         <v>0</v>
@@ -9727,7 +9834,7 @@
         <v>101</v>
       </c>
       <c r="H18" s="60" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="I18" s="36">
         <v>0</v>
@@ -9736,7 +9843,7 @@
         <v>1.2</v>
       </c>
       <c r="K18" s="36" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L18" s="37">
         <v>1</v>
@@ -9751,14 +9858,14 @@
         <v>1</v>
       </c>
       <c r="C19" s="68" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D19" s="67">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E19,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
       <c r="E19" s="69" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F19" s="67">
         <v>0</v>
@@ -9768,7 +9875,7 @@
         <v>101</v>
       </c>
       <c r="H19" s="68" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="I19" s="70">
         <v>0</v>
@@ -9777,7 +9884,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="70" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L19" s="71">
         <v>1</v>
@@ -9792,14 +9899,14 @@
         <v>1</v>
       </c>
       <c r="C20" s="60" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D20" s="28">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E20,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
       <c r="E20" s="56" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F20" s="28">
         <v>0</v>
@@ -9809,7 +9916,7 @@
         <v>101</v>
       </c>
       <c r="H20" s="60" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="I20" s="36">
         <v>0</v>
@@ -9818,7 +9925,7 @@
         <v>1.2</v>
       </c>
       <c r="K20" s="36" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L20" s="37">
         <v>1</v>
@@ -9833,14 +9940,14 @@
         <v>1</v>
       </c>
       <c r="C21" s="60" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D21" s="28">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E21,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
       <c r="E21" s="56" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F21" s="28">
         <v>0</v>
@@ -9850,7 +9957,7 @@
         <v>101</v>
       </c>
       <c r="H21" s="60" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="I21" s="36">
         <v>0</v>
@@ -9859,7 +9966,7 @@
         <v>1.3</v>
       </c>
       <c r="K21" s="36" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="L21" s="37">
         <v>1</v>
@@ -9874,14 +9981,14 @@
         <v>1</v>
       </c>
       <c r="C22" s="60" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D22" s="28">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E22,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
       <c r="E22" s="56" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F22" s="28">
         <v>0</v>
@@ -9891,7 +9998,7 @@
         <v>101</v>
       </c>
       <c r="H22" s="60" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="I22" s="36">
         <v>0</v>
@@ -9900,7 +10007,7 @@
         <v>1.3</v>
       </c>
       <c r="K22" s="36" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L22" s="37">
         <v>1</v>
@@ -9940,7 +10047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E85B499-5762-4179-9193-75E156FB948B}">
   <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -9992,13 +10099,13 @@
         <v>62</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>90</v>
@@ -10007,7 +10114,7 @@
         <v>93</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>31</v>
@@ -10028,10 +10135,10 @@
         <v>89</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="33" x14ac:dyDescent="0.3">
@@ -10122,13 +10229,13 @@
         <v>64</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>91</v>
@@ -10155,13 +10262,13 @@
         <v>83</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="U4" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -10173,14 +10280,14 @@
         <v>1</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D5" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E5,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>2</v>
       </c>
       <c r="E5" s="59" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
@@ -10202,7 +10309,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="55" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -10212,7 +10319,7 @@
         <v>900</v>
       </c>
       <c r="O5" s="59" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="P5" s="4">
         <v>0</v>
@@ -10224,7 +10331,7 @@
         <v>10000</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="T5" s="4">
         <v>0</v>
@@ -10242,14 +10349,14 @@
         <v>106</v>
       </c>
       <c r="C6" s="59" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D6" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E6,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
       <c r="E6" s="59" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F6" s="4">
         <v>5</v>
@@ -10271,7 +10378,7 @@
         <v>11</v>
       </c>
       <c r="L6" s="55" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -10281,7 +10388,7 @@
         <v>101</v>
       </c>
       <c r="O6" s="59" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="P6" s="4">
         <v>0</v>
@@ -10293,7 +10400,7 @@
         <v>10000</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="T6" s="4">
         <v>0</v>
@@ -10311,14 +10418,14 @@
         <v>107</v>
       </c>
       <c r="C7" s="59" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D7" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E7,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
       <c r="E7" s="59" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F7" s="4">
         <v>5</v>
@@ -10340,7 +10447,7 @@
         <v>11</v>
       </c>
       <c r="L7" s="55" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -10350,7 +10457,7 @@
         <v>200</v>
       </c>
       <c r="O7" s="59" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="P7" s="4">
         <v>0</v>
@@ -10362,7 +10469,7 @@
         <v>10000</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="T7" s="4">
         <v>0</v>
@@ -10380,14 +10487,14 @@
         <v>106</v>
       </c>
       <c r="C8" s="59" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D8" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E8,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
       <c r="E8" s="59" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F8" s="4">
         <v>5</v>
@@ -10409,7 +10516,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="55" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -10419,7 +10526,7 @@
         <v>101</v>
       </c>
       <c r="O8" s="59" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="P8" s="4">
         <v>0</v>
@@ -10431,7 +10538,7 @@
         <v>10000</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="T8" s="4">
         <v>0</v>
@@ -10449,14 +10556,14 @@
         <v>108</v>
       </c>
       <c r="C9" s="59" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D9" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E9,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
       <c r="E9" s="59" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F9" s="4">
         <v>5</v>
@@ -10478,7 +10585,7 @@
         <v>11</v>
       </c>
       <c r="L9" s="55" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -10488,7 +10595,7 @@
         <v>101</v>
       </c>
       <c r="O9" s="59" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="P9" s="4">
         <v>0</v>
@@ -10500,7 +10607,7 @@
         <v>5000</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="T9" s="4">
         <v>0</v>
@@ -10518,14 +10625,14 @@
         <v>109</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D10" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E10,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
       <c r="E10" s="59" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F10" s="4">
         <v>5</v>
@@ -10547,7 +10654,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="55" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -10557,7 +10664,7 @@
         <v>200</v>
       </c>
       <c r="O10" s="59" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="P10" s="4">
         <v>0</v>
@@ -10569,7 +10676,7 @@
         <v>5000</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="T10" s="4">
         <v>0</v>
@@ -10587,14 +10694,14 @@
         <v>105</v>
       </c>
       <c r="C11" s="59" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D11" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E11,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
       <c r="E11" s="59" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F11" s="4">
         <v>3</v>
@@ -10616,7 +10723,7 @@
         <v>11</v>
       </c>
       <c r="L11" s="55" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -10626,7 +10733,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="59" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="P11" s="4">
         <v>0</v>
@@ -10638,7 +10745,7 @@
         <v>3000</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="T11" s="4">
         <v>0</v>

--- a/Android/ExcelData/PCSkillTable.xlsx
+++ b/Android/ExcelData/PCSkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C183DCB4-F246-4003-9A4C-D3555B270AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1183AE0-815A-4C98-BC23-61A703454D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="39315" yWindow="3495" windowWidth="35370" windowHeight="15435" activeTab="3" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -594,7 +594,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y4" authorId="0" shapeId="0" xr:uid="{A402B58C-B420-4345-8EC5-0136DD80EAAE}">
+    <comment ref="W4" authorId="0" shapeId="0" xr:uid="{A402B58C-B420-4345-8EC5-0136DD80EAAE}">
       <text>
         <r>
           <rPr>
@@ -1524,7 +1524,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="228">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2342,7 +2342,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>캐스트 이펙트 프리팹</t>
+    <t>shoot</t>
+  </si>
+  <si>
+    <t>heal</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/Left/Lucia/SkillEffect_Lucia_Attack_01_Cast</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/Left/Lucia/SkillEffect_Lucia_Skill_01_Cast</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/Left/Lucia/SkillEffect_Lucia_Skill_02_Cast</t>
+  </si>
+  <si>
+    <t>캐스팅 이펙트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2354,19 +2369,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>shoot</t>
-  </si>
-  <si>
-    <t>heal</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/Left/Lucia/SkillEffect_Lucia_Attack_01_Cast</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/Left/Lucia/SkillEffect_Lucia_Skill_01_Cast</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/Left/Lucia/SkillEffect_Lucia_Skill_02_Cast</t>
+    <t>이펙트 지속시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/Left/Lucia/SkillEffect_Lucia_Attack_01_Hit</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/Left/Lucia/SkillEffect_Lucia_Skill_01_Heal</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/Left/Lucia/SkillEffect_Lucia_Skill_02_Hit</t>
   </si>
 </sst>
 </file>
@@ -2481,7 +2502,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -2529,19 +2550,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -2552,30 +2560,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -2756,7 +2740,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2829,6 +2813,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2838,26 +2825,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2865,121 +2858,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4618,7 +4554,7 @@
       <sheetData sheetId="25"/>
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
+      <sheetData sheetId="28" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6844,10 +6780,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D77A34-98F9-4133-B549-FB86B9DF331B}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B7"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6860,14 +6796,16 @@
     <col min="6" max="6" width="48.375" customWidth="1"/>
     <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.625" customWidth="1"/>
+    <col min="9" max="9" width="19.625" customWidth="1"/>
+    <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -6892,8 +6830,14 @@
       <c r="H2" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -6918,60 +6862,78 @@
       <c r="H3" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="21" t="s">
+      <c r="I3" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="23">
+      <c r="I4" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
         <v>100001</v>
       </c>
-      <c r="B5" s="38" t="str">
+      <c r="B5" s="19" t="str">
         <f>VLOOKUP(A5,pc_skill_data!$B:$C,2,)</f>
         <v>힐러/일반/원거리 공격/공격력 100%</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="20">
         <v>2</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="19">
         <v>1</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="40" t="s">
+      <c r="G5" s="19"/>
+      <c r="H5" s="19" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="26">
+      <c r="I5" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
         <v>100002</v>
       </c>
       <c r="B6" s="19" t="str">
@@ -6991,62 +6953,78 @@
         <v>156</v>
       </c>
       <c r="G6" s="19"/>
-      <c r="H6" s="41" t="s">
+      <c r="H6" s="19" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="27">
+      <c r="I6" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="J6" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
         <v>100003</v>
       </c>
-      <c r="B7" s="42" t="str">
+      <c r="B7" s="19" t="str">
         <f>VLOOKUP(A7,pc_skill_data!$B:$C,2,)</f>
         <v>힐러/스킬2/원거리 스킬/전방의 적 1명 공격(발사체 발사)</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="43">
+      <c r="D7" s="20">
         <v>2</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="19">
         <v>3</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="44" t="s">
+      <c r="G7" s="19"/>
+      <c r="H7" s="19" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="23">
+      <c r="I7" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="J7" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
         <v>100101</v>
       </c>
-      <c r="B8" s="38" t="str">
+      <c r="B8" s="19" t="str">
         <f>VLOOKUP(A8,pc_skill_data!$B:$C,2,)</f>
         <v>근딜/일반 (공격력 100%)</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="20">
         <v>2</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="19">
         <v>1</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="40" t="s">
+      <c r="G8" s="19"/>
+      <c r="H8" s="19" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="26">
+      <c r="I8" s="4"/>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
         <v>100102</v>
       </c>
       <c r="B9" s="19" t="str">
@@ -7066,62 +7044,74 @@
         <v>148</v>
       </c>
       <c r="G9" s="19"/>
-      <c r="H9" s="41" t="s">
+      <c r="H9" s="19" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="27">
+      <c r="I9" s="4"/>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
         <v>100103</v>
       </c>
-      <c r="B10" s="42" t="str">
+      <c r="B10" s="19" t="str">
         <f>VLOOKUP(A10,pc_skill_data!$B:$C,2,)</f>
         <v>근딜/근접공격/대미지(공격력 130%)</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="43">
+      <c r="D10" s="20">
         <v>2</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="19">
         <v>3</v>
       </c>
-      <c r="F10" s="42" t="s">
+      <c r="F10" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="G10" s="42"/>
-      <c r="H10" s="44" t="s">
+      <c r="G10" s="19"/>
+      <c r="H10" s="19" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="23">
+      <c r="I10" s="4"/>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
         <v>100201</v>
       </c>
-      <c r="B11" s="38" t="str">
+      <c r="B11" s="19" t="str">
         <f>VLOOKUP(A11,pc_skill_data!$B:$C,2,)</f>
         <v>원딜/일반</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="20">
         <v>2</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="19">
         <v>1</v>
       </c>
-      <c r="F11" s="38" t="s">
+      <c r="F11" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="G11" s="38"/>
-      <c r="H11" s="40" t="s">
+      <c r="G11" s="19"/>
+      <c r="H11" s="19" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="26">
+      <c r="I11" s="4"/>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
         <v>100202</v>
       </c>
       <c r="B12" s="19" t="str">
@@ -7141,62 +7131,74 @@
         <v>151</v>
       </c>
       <c r="G12" s="19"/>
-      <c r="H12" s="41" t="s">
+      <c r="H12" s="19" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="27">
+      <c r="I12" s="4"/>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
         <v>100203</v>
       </c>
-      <c r="B13" s="42" t="str">
+      <c r="B13" s="19" t="str">
         <f>VLOOKUP(A13,pc_skill_data!$B:$C,2,)</f>
         <v>원딜/스킬2/범위공격 (스킬 대미지 80%)</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="43">
+      <c r="D13" s="20">
         <v>2</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E13" s="19">
         <v>3</v>
       </c>
-      <c r="F13" s="42" t="s">
+      <c r="F13" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="G13" s="42"/>
-      <c r="H13" s="44" t="s">
+      <c r="G13" s="19"/>
+      <c r="H13" s="19" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="23">
+      <c r="I13" s="4"/>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
         <v>100301</v>
       </c>
-      <c r="B14" s="38" t="str">
+      <c r="B14" s="19" t="str">
         <f>VLOOKUP(A14,pc_skill_data!$B:$C,2,)</f>
         <v>원서폿/일반</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="39">
+      <c r="D14" s="20">
         <v>2</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="19">
         <v>1</v>
       </c>
-      <c r="F14" s="38" t="s">
+      <c r="F14" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="G14" s="38"/>
-      <c r="H14" s="40" t="s">
+      <c r="G14" s="19"/>
+      <c r="H14" s="19" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="26">
+      <c r="I14" s="4"/>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
         <v>100302</v>
       </c>
       <c r="B15" s="19" t="str">
@@ -7216,62 +7218,74 @@
         <v>153</v>
       </c>
       <c r="G15" s="19"/>
-      <c r="H15" s="41" t="s">
+      <c r="H15" s="19" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="26">
+      <c r="I15" s="4"/>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
         <v>100303</v>
       </c>
-      <c r="B16" s="49" t="str">
+      <c r="B16" s="19" t="str">
         <f>VLOOKUP(A16,pc_skill_data!$B:$C,2,)</f>
         <v>원서폿/스킬2/대미지 (공격력 120%)</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="D16" s="50">
+      <c r="D16" s="20">
         <v>2</v>
       </c>
-      <c r="E16" s="49">
+      <c r="E16" s="19">
         <v>3</v>
       </c>
-      <c r="F16" s="49" t="s">
+      <c r="F16" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="G16" s="49"/>
-      <c r="H16" s="51" t="s">
+      <c r="G16" s="19"/>
+      <c r="H16" s="19" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="30">
+      <c r="I16" s="4"/>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
         <v>100401</v>
       </c>
-      <c r="B17" s="38" t="str">
+      <c r="B17" s="19" t="str">
         <f>VLOOKUP(A17,pc_skill_data!$B:$C,2,)</f>
         <v>원힐/일반</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="D17" s="39">
+      <c r="D17" s="20">
         <v>2</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E17" s="19">
         <v>1</v>
       </c>
-      <c r="F17" s="38" t="s">
+      <c r="F17" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="G17" s="38"/>
-      <c r="H17" s="40" t="s">
+      <c r="G17" s="19"/>
+      <c r="H17" s="19" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="33">
+      <c r="I17" s="4"/>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
         <v>100402</v>
       </c>
       <c r="B18" s="19" t="str">
@@ -7291,62 +7305,74 @@
         <v>156</v>
       </c>
       <c r="G18" s="4"/>
-      <c r="H18" s="52" t="s">
+      <c r="H18" s="4" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="35">
+      <c r="I18" s="4"/>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
         <v>100403</v>
       </c>
-      <c r="B19" s="42" t="str">
+      <c r="B19" s="19" t="str">
         <f>VLOOKUP(A19,pc_skill_data!$B:$C,2,)</f>
         <v>원힐/스킬2/대미지 (스킬 대미지 120%)</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D19" s="28">
+      <c r="D19" s="7">
         <v>2.5</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="4">
         <v>3</v>
       </c>
-      <c r="F19" s="42" t="s">
+      <c r="F19" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="G19" s="36"/>
-      <c r="H19" s="53" t="s">
+      <c r="G19" s="4"/>
+      <c r="H19" s="4" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="30">
+      <c r="I19" s="4"/>
+      <c r="J19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
         <v>100501</v>
       </c>
-      <c r="B20" s="38" t="str">
+      <c r="B20" s="19" t="str">
         <f>VLOOKUP(A20,pc_skill_data!$B:$C,2,)</f>
         <v>원딜/일반</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="D20" s="39">
+      <c r="D20" s="20">
         <v>2</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E20" s="19">
         <v>1</v>
       </c>
-      <c r="F20" s="38" t="s">
+      <c r="F20" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="G20" s="38"/>
-      <c r="H20" s="40" t="s">
+      <c r="G20" s="19"/>
+      <c r="H20" s="19" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="33">
+      <c r="I20" s="4"/>
+      <c r="J20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
         <v>100502</v>
       </c>
       <c r="B21" s="19" t="str">
@@ -7366,33 +7392,41 @@
         <v>173</v>
       </c>
       <c r="G21" s="4"/>
-      <c r="H21" s="40" t="s">
+      <c r="H21" s="19" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="35">
+      <c r="I21" s="4"/>
+      <c r="J21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
         <v>100503</v>
       </c>
-      <c r="B22" s="42" t="str">
+      <c r="B22" s="19" t="str">
         <f>VLOOKUP(A22,pc_skill_data!$B:$C,2,)</f>
         <v>원딜/스킬2/대미지 (스킬 대미지 130%)</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D22" s="28">
+      <c r="D22" s="7">
         <v>2.5</v>
       </c>
-      <c r="E22" s="36">
+      <c r="E22" s="4">
         <v>3</v>
       </c>
-      <c r="F22" s="42" t="s">
+      <c r="F22" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="G22" s="36"/>
-      <c r="H22" s="53" t="s">
+      <c r="G22" s="4"/>
+      <c r="H22" s="4" t="s">
         <v>161</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7415,13 +7449,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00F7AA3-FB12-454D-93A6-31450B9003EC}">
-  <dimension ref="A1:Y22"/>
+  <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="S5" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="O5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="V17" sqref="V17"/>
+      <selection pane="bottomRight" activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7445,12 +7479,10 @@
     <col min="19" max="19" width="19.25" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="19.25" customWidth="1"/>
     <col min="22" max="22" width="10.875" customWidth="1"/>
-    <col min="23" max="23" width="36.75" customWidth="1"/>
-    <col min="24" max="24" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="69.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="69.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -7474,7 +7506,7 @@
       <c r="T1" s="6"/>
       <c r="U1" s="6"/>
     </row>
-    <row r="2" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -7542,16 +7574,10 @@
         <v>86</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y2" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
@@ -7619,16 +7645,10 @@
         <v>4</v>
       </c>
       <c r="W3" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="X3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y3" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
         <v>2</v>
       </c>
@@ -7696,101 +7716,89 @@
         <v>87</v>
       </c>
       <c r="W4" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="X4" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y4" s="21" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30">
+    <row r="5" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27">
         <v>100001</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="23">
         <v>100001</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="23">
         <v>1</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="23">
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F5,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F5" s="58" t="s">
+      <c r="F5" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="G5" s="24">
-        <v>0</v>
-      </c>
-      <c r="H5" s="24">
+      <c r="G5" s="23">
+        <v>0</v>
+      </c>
+      <c r="H5" s="23">
         <v>1</v>
       </c>
-      <c r="I5" s="24">
-        <v>0</v>
-      </c>
-      <c r="J5" s="24">
+      <c r="I5" s="23">
+        <v>0</v>
+      </c>
+      <c r="J5" s="23">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K5,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>0</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="L5" s="24">
-        <v>0</v>
-      </c>
-      <c r="M5" s="31">
+      <c r="L5" s="23">
+        <v>0</v>
+      </c>
+      <c r="M5" s="28">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N5,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>0</v>
       </c>
-      <c r="N5" s="72" t="s">
+      <c r="N5" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="O5" s="31">
-        <v>0</v>
-      </c>
-      <c r="P5" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="24">
+      <c r="O5" s="28">
+        <v>0</v>
+      </c>
+      <c r="P5" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="23">
         <v>100</v>
       </c>
-      <c r="R5" s="31">
+      <c r="R5" s="28">
         <v>100001</v>
       </c>
-      <c r="S5" s="31">
-        <v>0</v>
-      </c>
-      <c r="T5" s="31">
-        <v>0</v>
-      </c>
-      <c r="U5" s="31">
-        <v>0</v>
-      </c>
-      <c r="V5" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="W5" s="31" t="s">
-        <v>219</v>
-      </c>
-      <c r="X5" s="62">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Y5" s="31"/>
-    </row>
-    <row r="6" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33">
+      <c r="S5" s="28">
+        <v>0</v>
+      </c>
+      <c r="T5" s="28">
+        <v>0</v>
+      </c>
+      <c r="U5" s="28">
+        <v>0</v>
+      </c>
+      <c r="V5" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="W5" s="28"/>
+    </row>
+    <row r="6" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="30">
         <v>100002</v>
       </c>
       <c r="B6" s="7">
         <v>100002</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="48" t="s">
         <v>208</v>
       </c>
       <c r="D6" s="7">
@@ -7800,7 +7808,7 @@
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F6,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>3001</v>
       </c>
-      <c r="F6" s="59" t="s">
+      <c r="F6" s="44" t="s">
         <v>211</v>
       </c>
       <c r="G6" s="7">
@@ -7826,7 +7834,7 @@
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N6,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>0</v>
       </c>
-      <c r="N6" s="73" t="s">
+      <c r="N6" s="57" t="s">
         <v>185</v>
       </c>
       <c r="O6" s="4">
@@ -7839,190 +7847,174 @@
         <v>100</v>
       </c>
       <c r="R6" s="4">
+        <v>100002</v>
+      </c>
+      <c r="S6" s="4">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4">
+        <v>0</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="1:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="32">
         <v>100003</v>
       </c>
-      <c r="S6" s="4">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4">
-        <v>0</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="X6" s="52">
-        <v>2.5</v>
-      </c>
-      <c r="Y6" s="4"/>
-    </row>
-    <row r="7" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="35">
+      <c r="B7" s="25">
         <v>100003</v>
       </c>
-      <c r="B7" s="28">
-        <v>100003</v>
-      </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="49" t="s">
         <v>209</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="25">
         <v>1</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="25">
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F7,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F7" s="60" t="s">
+      <c r="F7" s="45" t="s">
         <v>181</v>
       </c>
-      <c r="G7" s="28">
-        <v>0</v>
-      </c>
-      <c r="H7" s="28">
+      <c r="G7" s="25">
+        <v>0</v>
+      </c>
+      <c r="H7" s="25">
         <v>1</v>
       </c>
-      <c r="I7" s="28">
-        <v>0</v>
-      </c>
-      <c r="J7" s="28">
+      <c r="I7" s="25">
+        <v>0</v>
+      </c>
+      <c r="J7" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K7,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>0</v>
       </c>
-      <c r="K7" s="29" t="s">
+      <c r="K7" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="L7" s="28">
-        <v>0</v>
-      </c>
-      <c r="M7" s="36">
+      <c r="L7" s="25">
+        <v>0</v>
+      </c>
+      <c r="M7" s="33">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N7,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>0</v>
       </c>
-      <c r="N7" s="74" t="s">
+      <c r="N7" s="58" t="s">
         <v>185</v>
       </c>
-      <c r="O7" s="36">
-        <v>0</v>
-      </c>
-      <c r="P7" s="36">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="28">
+      <c r="O7" s="33">
+        <v>0</v>
+      </c>
+      <c r="P7" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="25">
         <v>100</v>
       </c>
-      <c r="R7" s="36">
-        <v>100002</v>
-      </c>
-      <c r="S7" s="36">
-        <v>0</v>
-      </c>
-      <c r="T7" s="36">
-        <v>0</v>
-      </c>
-      <c r="U7" s="36">
-        <v>0</v>
-      </c>
-      <c r="V7" s="36" t="s">
-        <v>217</v>
-      </c>
-      <c r="W7" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="X7" s="53">
-        <v>2</v>
-      </c>
-      <c r="Y7" s="36"/>
-    </row>
-    <row r="8" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30">
+      <c r="R7" s="33">
+        <v>100003</v>
+      </c>
+      <c r="S7" s="33">
+        <v>0</v>
+      </c>
+      <c r="T7" s="33">
+        <v>0</v>
+      </c>
+      <c r="U7" s="33">
+        <v>0</v>
+      </c>
+      <c r="V7" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="W7" s="33"/>
+    </row>
+    <row r="8" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="27">
         <v>100101</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="23">
         <v>100101</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="23">
         <v>1</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="23">
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F8,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="G8" s="24">
-        <v>0</v>
-      </c>
-      <c r="H8" s="24">
+      <c r="G8" s="23">
+        <v>0</v>
+      </c>
+      <c r="H8" s="23">
         <v>1</v>
       </c>
-      <c r="I8" s="24">
-        <v>0</v>
-      </c>
-      <c r="J8" s="24">
+      <c r="I8" s="23">
+        <v>0</v>
+      </c>
+      <c r="J8" s="23">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K8,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>0</v>
       </c>
-      <c r="K8" s="25" t="s">
+      <c r="K8" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="L8" s="24">
-        <v>0</v>
-      </c>
-      <c r="M8" s="31">
+      <c r="L8" s="23">
+        <v>0</v>
+      </c>
+      <c r="M8" s="28">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N8,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>0</v>
       </c>
-      <c r="N8" s="72" t="s">
+      <c r="N8" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="O8" s="31">
-        <v>0</v>
-      </c>
-      <c r="P8" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="24">
+      <c r="O8" s="28">
+        <v>0</v>
+      </c>
+      <c r="P8" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="23">
         <v>100</v>
       </c>
-      <c r="R8" s="31">
+      <c r="R8" s="28">
         <v>100004</v>
       </c>
-      <c r="S8" s="31">
-        <v>0</v>
-      </c>
-      <c r="T8" s="31">
-        <v>0</v>
-      </c>
-      <c r="U8" s="31">
-        <v>0</v>
-      </c>
-      <c r="V8" s="31" t="s">
+      <c r="S8" s="28">
+        <v>0</v>
+      </c>
+      <c r="T8" s="28">
+        <v>0</v>
+      </c>
+      <c r="U8" s="28">
+        <v>0</v>
+      </c>
+      <c r="V8" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="W8" s="31"/>
-      <c r="X8" s="62">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="31"/>
-    </row>
-    <row r="9" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33">
+      <c r="W8" s="28"/>
+    </row>
+    <row r="9" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="30">
         <v>100102</v>
       </c>
       <c r="B9" s="7">
         <v>100102</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="48" t="s">
         <v>162</v>
       </c>
       <c r="D9" s="7">
@@ -8032,7 +8024,7 @@
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F9,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>1</v>
       </c>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="44" t="s">
         <v>182</v>
       </c>
       <c r="G9" s="7">
@@ -8058,7 +8050,7 @@
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N9,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>0</v>
       </c>
-      <c r="N9" s="73" t="s">
+      <c r="N9" s="57" t="s">
         <v>185</v>
       </c>
       <c r="O9" s="4">
@@ -8086,171 +8078,159 @@
         <v>117</v>
       </c>
       <c r="W9" s="4"/>
-      <c r="X9" s="52">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="4"/>
-    </row>
-    <row r="10" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="35">
+    </row>
+    <row r="10" spans="1:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="32">
         <v>100103</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="25">
         <v>100103</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="25">
         <v>1</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="25">
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F10,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F10" s="60" t="s">
+      <c r="F10" s="45" t="s">
         <v>181</v>
       </c>
-      <c r="G10" s="28">
-        <v>0</v>
-      </c>
-      <c r="H10" s="28">
+      <c r="G10" s="25">
+        <v>0</v>
+      </c>
+      <c r="H10" s="25">
         <v>1</v>
       </c>
-      <c r="I10" s="28">
-        <v>0</v>
-      </c>
-      <c r="J10" s="28">
+      <c r="I10" s="25">
+        <v>0</v>
+      </c>
+      <c r="J10" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K10,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>0</v>
       </c>
-      <c r="K10" s="29" t="s">
+      <c r="K10" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="L10" s="28">
-        <v>0</v>
-      </c>
-      <c r="M10" s="36">
+      <c r="L10" s="25">
+        <v>0</v>
+      </c>
+      <c r="M10" s="33">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N10,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>0</v>
       </c>
-      <c r="N10" s="74" t="s">
+      <c r="N10" s="58" t="s">
         <v>185</v>
       </c>
-      <c r="O10" s="36">
-        <v>0</v>
-      </c>
-      <c r="P10" s="36">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="28" t="s">
+      <c r="O10" s="33">
+        <v>0</v>
+      </c>
+      <c r="P10" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="R10" s="36">
+      <c r="R10" s="33">
         <v>100006</v>
       </c>
-      <c r="S10" s="36">
-        <v>0</v>
-      </c>
-      <c r="T10" s="36">
-        <v>0</v>
-      </c>
-      <c r="U10" s="36">
-        <v>0</v>
-      </c>
-      <c r="V10" s="36" t="s">
+      <c r="S10" s="33">
+        <v>0</v>
+      </c>
+      <c r="T10" s="33">
+        <v>0</v>
+      </c>
+      <c r="U10" s="33">
+        <v>0</v>
+      </c>
+      <c r="V10" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="W10" s="36"/>
-      <c r="X10" s="53">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="36"/>
-    </row>
-    <row r="11" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30">
+      <c r="W10" s="33"/>
+    </row>
+    <row r="11" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="27">
         <v>100201</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="23">
         <v>100201</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="23">
         <v>1</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="23">
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F11,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F11" s="58" t="s">
+      <c r="F11" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="G11" s="24">
-        <v>0</v>
-      </c>
-      <c r="H11" s="24">
+      <c r="G11" s="23">
+        <v>0</v>
+      </c>
+      <c r="H11" s="23">
         <v>1</v>
       </c>
-      <c r="I11" s="24">
-        <v>0</v>
-      </c>
-      <c r="J11" s="24">
+      <c r="I11" s="23">
+        <v>0</v>
+      </c>
+      <c r="J11" s="23">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K11,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>0</v>
       </c>
-      <c r="K11" s="25" t="s">
+      <c r="K11" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="L11" s="24">
-        <v>0</v>
-      </c>
-      <c r="M11" s="31">
+      <c r="L11" s="23">
+        <v>0</v>
+      </c>
+      <c r="M11" s="28">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N11,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>0</v>
       </c>
-      <c r="N11" s="72" t="s">
+      <c r="N11" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="O11" s="31">
-        <v>0</v>
-      </c>
-      <c r="P11" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="24">
+      <c r="O11" s="28">
+        <v>0</v>
+      </c>
+      <c r="P11" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="23">
         <v>100</v>
       </c>
-      <c r="R11" s="31">
+      <c r="R11" s="28">
         <v>100007</v>
       </c>
-      <c r="S11" s="31">
-        <v>0</v>
-      </c>
-      <c r="T11" s="31">
-        <v>0</v>
-      </c>
-      <c r="U11" s="31">
-        <v>0</v>
-      </c>
-      <c r="V11" s="31" t="s">
+      <c r="S11" s="28">
+        <v>0</v>
+      </c>
+      <c r="T11" s="28">
+        <v>0</v>
+      </c>
+      <c r="U11" s="28">
+        <v>0</v>
+      </c>
+      <c r="V11" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="W11" s="31"/>
-      <c r="X11" s="62">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="31"/>
-    </row>
-    <row r="12" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="33">
+      <c r="W11" s="28"/>
+    </row>
+    <row r="12" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="30">
         <v>100202</v>
       </c>
       <c r="B12" s="7">
         <v>100202</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="48" t="s">
         <v>129</v>
       </c>
       <c r="D12" s="7">
@@ -8260,7 +8240,7 @@
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F12,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F12" s="59" t="s">
+      <c r="F12" s="44" t="s">
         <v>181</v>
       </c>
       <c r="G12" s="7">
@@ -8286,7 +8266,7 @@
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N12,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>0</v>
       </c>
-      <c r="N12" s="73" t="s">
+      <c r="N12" s="57" t="s">
         <v>185</v>
       </c>
       <c r="O12" s="4">
@@ -8314,173 +8294,161 @@
         <v>88</v>
       </c>
       <c r="W12" s="4"/>
-      <c r="X12" s="52">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="4"/>
-    </row>
-    <row r="13" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="35">
+    </row>
+    <row r="13" spans="1:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="32">
         <v>100203</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="25">
         <v>100203</v>
       </c>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="25">
         <v>1</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="25">
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F13,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>10</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="G13" s="28">
-        <v>0</v>
-      </c>
-      <c r="H13" s="28">
+      <c r="G13" s="25">
+        <v>0</v>
+      </c>
+      <c r="H13" s="25">
         <v>5</v>
       </c>
-      <c r="I13" s="28">
+      <c r="I13" s="25">
         <v>7</v>
       </c>
-      <c r="J13" s="28">
+      <c r="J13" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K13,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>0</v>
       </c>
-      <c r="K13" s="29" t="s">
+      <c r="K13" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="L13" s="28">
-        <v>0</v>
-      </c>
-      <c r="M13" s="36">
+      <c r="L13" s="25">
+        <v>0</v>
+      </c>
+      <c r="M13" s="33">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N13,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>0</v>
       </c>
-      <c r="N13" s="74" t="s">
+      <c r="N13" s="58" t="s">
         <v>185</v>
       </c>
-      <c r="O13" s="36">
-        <v>0</v>
-      </c>
-      <c r="P13" s="36">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="28" t="s">
+      <c r="O13" s="33">
+        <v>0</v>
+      </c>
+      <c r="P13" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="R13" s="36">
+      <c r="R13" s="33">
         <v>100009</v>
       </c>
-      <c r="S13" s="36">
-        <v>0</v>
-      </c>
-      <c r="T13" s="36">
-        <v>0</v>
-      </c>
-      <c r="U13" s="36">
-        <v>0</v>
-      </c>
-      <c r="V13" s="36" t="s">
+      <c r="S13" s="33">
+        <v>0</v>
+      </c>
+      <c r="T13" s="33">
+        <v>0</v>
+      </c>
+      <c r="U13" s="33">
+        <v>0</v>
+      </c>
+      <c r="V13" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="W13" s="36"/>
-      <c r="X13" s="53">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="36"/>
-    </row>
-    <row r="14" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30">
+      <c r="W13" s="33"/>
+    </row>
+    <row r="14" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="27">
         <v>100301</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="23">
         <v>100301</v>
       </c>
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="23">
         <v>1</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="23">
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F14,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F14" s="58" t="s">
+      <c r="F14" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="G14" s="24">
-        <v>0</v>
-      </c>
-      <c r="H14" s="24">
+      <c r="G14" s="23">
+        <v>0</v>
+      </c>
+      <c r="H14" s="23">
         <v>1</v>
       </c>
-      <c r="I14" s="24">
-        <v>0</v>
-      </c>
-      <c r="J14" s="24">
+      <c r="I14" s="23">
+        <v>0</v>
+      </c>
+      <c r="J14" s="23">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K14,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
-      <c r="K14" s="25" t="s">
+      <c r="K14" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="L14" s="24">
+      <c r="L14" s="23">
         <v>20</v>
       </c>
-      <c r="M14" s="31">
+      <c r="M14" s="28">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N14,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>0</v>
       </c>
-      <c r="N14" s="72" t="s">
+      <c r="N14" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="O14" s="31">
-        <v>0</v>
-      </c>
-      <c r="P14" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="24">
+      <c r="O14" s="28">
+        <v>0</v>
+      </c>
+      <c r="P14" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="23">
         <v>100</v>
       </c>
-      <c r="R14" s="31">
+      <c r="R14" s="28">
         <v>100010</v>
       </c>
-      <c r="S14" s="31">
-        <v>0</v>
-      </c>
-      <c r="T14" s="31">
-        <v>0</v>
-      </c>
-      <c r="U14" s="31">
-        <v>0</v>
-      </c>
-      <c r="V14" s="31" t="s">
+      <c r="S14" s="28">
+        <v>0</v>
+      </c>
+      <c r="T14" s="28">
+        <v>0</v>
+      </c>
+      <c r="U14" s="28">
+        <v>0</v>
+      </c>
+      <c r="V14" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="W14" s="31"/>
-      <c r="X14" s="62">
-        <v>0.3</v>
-      </c>
-      <c r="Y14" s="31" t="s">
+      <c r="W14" s="28" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="33">
+    <row r="15" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="30">
         <v>100302</v>
       </c>
       <c r="B15" s="7">
         <v>100302</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="48" t="s">
         <v>168</v>
       </c>
       <c r="D15" s="7">
@@ -8490,7 +8458,7 @@
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F15,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F15" s="59" t="s">
+      <c r="F15" s="44" t="s">
         <v>181</v>
       </c>
       <c r="G15" s="7">
@@ -8516,7 +8484,7 @@
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N15,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>0</v>
       </c>
-      <c r="N15" s="73" t="s">
+      <c r="N15" s="57" t="s">
         <v>185</v>
       </c>
       <c r="O15" s="4">
@@ -8543,178 +8511,166 @@
       <c r="V15" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="W15" s="4"/>
-      <c r="X15" s="52">
-        <v>0.5</v>
-      </c>
-      <c r="Y15" s="4" t="s">
+      <c r="W15" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="35">
+    <row r="16" spans="1:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="32">
         <v>100303</v>
       </c>
-      <c r="B16" s="28">
+      <c r="B16" s="25">
         <v>100303</v>
       </c>
-      <c r="C16" s="65" t="s">
+      <c r="C16" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="25">
         <v>1</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="25">
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F16,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F16" s="60" t="s">
+      <c r="F16" s="45" t="s">
         <v>181</v>
       </c>
-      <c r="G16" s="28">
-        <v>0</v>
-      </c>
-      <c r="H16" s="28">
+      <c r="G16" s="25">
+        <v>0</v>
+      </c>
+      <c r="H16" s="25">
         <v>1</v>
       </c>
-      <c r="I16" s="28">
-        <v>0</v>
-      </c>
-      <c r="J16" s="28">
+      <c r="I16" s="25">
+        <v>0</v>
+      </c>
+      <c r="J16" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K16,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
-      <c r="K16" s="29" t="s">
+      <c r="K16" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="L16" s="28">
+      <c r="L16" s="25">
         <v>20</v>
       </c>
-      <c r="M16" s="36">
+      <c r="M16" s="33">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N16,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>0</v>
       </c>
-      <c r="N16" s="74" t="s">
+      <c r="N16" s="58" t="s">
         <v>185</v>
       </c>
-      <c r="O16" s="36">
-        <v>0</v>
-      </c>
-      <c r="P16" s="36">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="28" t="s">
+      <c r="O16" s="33">
+        <v>0</v>
+      </c>
+      <c r="P16" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="R16" s="36">
+      <c r="R16" s="33">
         <v>100011</v>
       </c>
-      <c r="S16" s="36">
-        <v>0</v>
-      </c>
-      <c r="T16" s="36">
-        <v>0</v>
-      </c>
-      <c r="U16" s="36">
-        <v>0</v>
-      </c>
-      <c r="V16" s="36" t="s">
+      <c r="S16" s="33">
+        <v>0</v>
+      </c>
+      <c r="T16" s="33">
+        <v>0</v>
+      </c>
+      <c r="U16" s="33">
+        <v>0</v>
+      </c>
+      <c r="V16" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="W16" s="36"/>
-      <c r="X16" s="53">
-        <v>0.3</v>
-      </c>
-      <c r="Y16" s="36" t="s">
+      <c r="W16" s="33" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30">
+    <row r="17" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="27">
         <v>100401</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="23">
         <v>100401</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="23">
         <v>1</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="23">
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F17,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F17" s="58" t="s">
+      <c r="F17" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="G17" s="24">
-        <v>0</v>
-      </c>
-      <c r="H17" s="24">
+      <c r="G17" s="23">
+        <v>0</v>
+      </c>
+      <c r="H17" s="23">
         <v>1</v>
       </c>
-      <c r="I17" s="24">
-        <v>0</v>
-      </c>
-      <c r="J17" s="24">
+      <c r="I17" s="23">
+        <v>0</v>
+      </c>
+      <c r="J17" s="23">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K17,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
-      <c r="K17" s="25" t="s">
+      <c r="K17" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="L17" s="24">
+      <c r="L17" s="23">
         <v>20</v>
       </c>
-      <c r="M17" s="31">
+      <c r="M17" s="28">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N17,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>0</v>
       </c>
-      <c r="N17" s="72" t="s">
+      <c r="N17" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="O17" s="31">
-        <v>0</v>
-      </c>
-      <c r="P17" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="24">
+      <c r="O17" s="28">
+        <v>0</v>
+      </c>
+      <c r="P17" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="23">
         <v>100</v>
       </c>
-      <c r="R17" s="31">
+      <c r="R17" s="28">
         <v>100012</v>
       </c>
-      <c r="S17" s="31">
-        <v>0</v>
-      </c>
-      <c r="T17" s="31">
-        <v>0</v>
-      </c>
-      <c r="U17" s="31">
-        <v>0</v>
-      </c>
-      <c r="V17" s="31" t="s">
+      <c r="S17" s="28">
+        <v>0</v>
+      </c>
+      <c r="T17" s="28">
+        <v>0</v>
+      </c>
+      <c r="U17" s="28">
+        <v>0</v>
+      </c>
+      <c r="V17" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="W17" s="31"/>
-      <c r="X17" s="62">
-        <v>0.3</v>
-      </c>
-      <c r="Y17" s="31" t="s">
+      <c r="W17" s="28" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="33">
+    <row r="18" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="30">
         <v>100402</v>
       </c>
       <c r="B18" s="7">
         <v>100402</v>
       </c>
-      <c r="C18" s="64" t="s">
+      <c r="C18" s="48" t="s">
         <v>169</v>
       </c>
       <c r="D18" s="7">
@@ -8724,7 +8680,7 @@
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F18,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>3002</v>
       </c>
-      <c r="F18" s="59" t="s">
+      <c r="F18" s="44" t="s">
         <v>184</v>
       </c>
       <c r="G18" s="7">
@@ -8750,7 +8706,7 @@
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N18,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>0</v>
       </c>
-      <c r="N18" s="73" t="s">
+      <c r="N18" s="57" t="s">
         <v>185</v>
       </c>
       <c r="O18" s="4">
@@ -8777,172 +8733,160 @@
       <c r="V18" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="W18" s="4"/>
-      <c r="X18" s="52">
-        <v>0.5</v>
-      </c>
-      <c r="Y18" s="4" t="s">
+      <c r="W18" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="35">
+    <row r="19" spans="1:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="32">
         <v>100403</v>
       </c>
-      <c r="B19" s="28">
+      <c r="B19" s="25">
         <v>100403</v>
       </c>
-      <c r="C19" s="65" t="s">
+      <c r="C19" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="D19" s="28">
+      <c r="D19" s="25">
         <v>1</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="25">
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F19,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F19" s="60" t="s">
+      <c r="F19" s="45" t="s">
         <v>181</v>
       </c>
-      <c r="G19" s="28">
-        <v>0</v>
-      </c>
-      <c r="H19" s="28">
+      <c r="G19" s="25">
+        <v>0</v>
+      </c>
+      <c r="H19" s="25">
         <v>1</v>
       </c>
-      <c r="I19" s="28">
-        <v>0</v>
-      </c>
-      <c r="J19" s="28">
+      <c r="I19" s="25">
+        <v>0</v>
+      </c>
+      <c r="J19" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K19,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
-      <c r="K19" s="29" t="s">
+      <c r="K19" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="L19" s="28">
+      <c r="L19" s="25">
         <v>20</v>
       </c>
-      <c r="M19" s="36">
+      <c r="M19" s="33">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N19,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>0</v>
       </c>
-      <c r="N19" s="74" t="s">
+      <c r="N19" s="58" t="s">
         <v>185</v>
       </c>
-      <c r="O19" s="36">
-        <v>0</v>
-      </c>
-      <c r="P19" s="36">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="28">
+      <c r="O19" s="33">
+        <v>0</v>
+      </c>
+      <c r="P19" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="25">
         <v>100</v>
       </c>
-      <c r="R19" s="36">
+      <c r="R19" s="33">
         <v>100014</v>
       </c>
-      <c r="S19" s="36">
-        <v>0</v>
-      </c>
-      <c r="T19" s="36">
-        <v>0</v>
-      </c>
-      <c r="U19" s="36">
-        <v>0</v>
-      </c>
-      <c r="V19" s="36" t="s">
+      <c r="S19" s="33">
+        <v>0</v>
+      </c>
+      <c r="T19" s="33">
+        <v>0</v>
+      </c>
+      <c r="U19" s="33">
+        <v>0</v>
+      </c>
+      <c r="V19" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="W19" s="36"/>
-      <c r="X19" s="53">
-        <v>0.3</v>
-      </c>
-      <c r="Y19" s="36" t="s">
+      <c r="W19" s="33" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30">
+    <row r="20" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="27">
         <v>100501</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B20" s="23">
         <v>100501</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D20" s="23">
         <v>1</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="23">
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F20,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F20" s="58" t="s">
+      <c r="F20" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="G20" s="24">
-        <v>0</v>
-      </c>
-      <c r="H20" s="24">
+      <c r="G20" s="23">
+        <v>0</v>
+      </c>
+      <c r="H20" s="23">
         <v>1</v>
       </c>
-      <c r="I20" s="24">
-        <v>0</v>
-      </c>
-      <c r="J20" s="24">
+      <c r="I20" s="23">
+        <v>0</v>
+      </c>
+      <c r="J20" s="23">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K20,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
-      <c r="K20" s="25" t="s">
+      <c r="K20" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="L20" s="24">
+      <c r="L20" s="23">
         <v>20</v>
       </c>
-      <c r="M20" s="31">
+      <c r="M20" s="28">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N20,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>0</v>
       </c>
-      <c r="N20" s="72" t="s">
+      <c r="N20" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="O20" s="31">
-        <v>0</v>
-      </c>
-      <c r="P20" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="24">
+      <c r="O20" s="28">
+        <v>0</v>
+      </c>
+      <c r="P20" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="23">
         <v>100</v>
       </c>
-      <c r="R20" s="31">
+      <c r="R20" s="28">
         <v>100015</v>
       </c>
-      <c r="S20" s="31">
-        <v>0</v>
-      </c>
-      <c r="T20" s="31">
-        <v>0</v>
-      </c>
-      <c r="U20" s="31">
-        <v>0</v>
-      </c>
-      <c r="V20" s="31" t="s">
+      <c r="S20" s="28">
+        <v>0</v>
+      </c>
+      <c r="T20" s="28">
+        <v>0</v>
+      </c>
+      <c r="U20" s="28">
+        <v>0</v>
+      </c>
+      <c r="V20" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="W20" s="31"/>
-      <c r="X20" s="62">
-        <v>0.3</v>
-      </c>
-      <c r="Y20" s="31" t="s">
+      <c r="W20" s="28" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="33">
+    <row r="21" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="30">
         <v>100502</v>
       </c>
       <c r="B21" s="7">
@@ -8958,7 +8902,7 @@
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F21,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F21" s="59" t="s">
+      <c r="F21" s="44" t="s">
         <v>181</v>
       </c>
       <c r="G21" s="7">
@@ -8984,7 +8928,7 @@
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N21,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>0</v>
       </c>
-      <c r="N21" s="73" t="s">
+      <c r="N21" s="57" t="s">
         <v>185</v>
       </c>
       <c r="O21" s="4">
@@ -9011,89 +8955,81 @@
       <c r="V21" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="W21" s="4"/>
-      <c r="X21" s="52">
-        <v>0.3</v>
-      </c>
-      <c r="Y21" s="4" t="s">
+      <c r="W21" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="35">
+    <row r="22" spans="1:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="32">
         <v>100503</v>
       </c>
-      <c r="B22" s="28">
+      <c r="B22" s="25">
         <v>100503</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="D22" s="28">
+      <c r="D22" s="25">
         <v>1</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E22" s="25">
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F22,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F22" s="60" t="s">
+      <c r="F22" s="45" t="s">
         <v>181</v>
       </c>
-      <c r="G22" s="28">
-        <v>0</v>
-      </c>
-      <c r="H22" s="28">
+      <c r="G22" s="25">
+        <v>0</v>
+      </c>
+      <c r="H22" s="25">
         <v>1</v>
       </c>
-      <c r="I22" s="28">
-        <v>0</v>
-      </c>
-      <c r="J22" s="28">
+      <c r="I22" s="25">
+        <v>0</v>
+      </c>
+      <c r="J22" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K22,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="K22" s="29" t="s">
+      <c r="K22" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="L22" s="28">
+      <c r="L22" s="25">
         <v>20</v>
       </c>
-      <c r="M22" s="36">
+      <c r="M22" s="33">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N22,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>2</v>
       </c>
-      <c r="N22" s="74" t="s">
+      <c r="N22" s="58" t="s">
         <v>188</v>
       </c>
-      <c r="O22" s="36">
-        <v>0</v>
-      </c>
-      <c r="P22" s="36">
+      <c r="O22" s="33">
+        <v>0</v>
+      </c>
+      <c r="P22" s="33">
         <v>10</v>
       </c>
-      <c r="Q22" s="28" t="s">
+      <c r="Q22" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="R22" s="36">
+      <c r="R22" s="33">
         <v>100017</v>
       </c>
-      <c r="S22" s="36">
-        <v>0</v>
-      </c>
-      <c r="T22" s="36">
+      <c r="S22" s="33">
+        <v>0</v>
+      </c>
+      <c r="T22" s="33">
         <v>100018</v>
       </c>
-      <c r="U22" s="36">
-        <v>0</v>
-      </c>
-      <c r="V22" s="36" t="s">
+      <c r="U22" s="33">
+        <v>0</v>
+      </c>
+      <c r="V22" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="W22" s="36"/>
-      <c r="X22" s="53">
-        <v>0.3</v>
-      </c>
-      <c r="Y22" s="36"/>
+      <c r="W22" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9135,14 +9071,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BD63B1-FF99-405E-A3D0-90C5E747D8DE}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="26.125" customWidth="1"/>
+    <col min="2" max="4" width="26.125" customWidth="1"/>
+    <col min="5" max="5" width="31.125" customWidth="1"/>
     <col min="6" max="6" width="16.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.375" customWidth="1"/>
     <col min="8" max="8" width="45.25" customWidth="1"/>
@@ -9276,185 +9213,185 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="30">
+      <c r="A5" s="27">
         <v>100001</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="23">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C5,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="23">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E5,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>2</v>
-      </c>
-      <c r="E5" s="54" t="s">
-        <v>186</v>
-      </c>
-      <c r="F5" s="24">
-        <v>0</v>
-      </c>
-      <c r="G5" s="24">
+        <v>12</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="F5" s="23">
+        <v>0</v>
+      </c>
+      <c r="G5" s="23">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H5,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H5" s="58" t="s">
+      <c r="H5" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="I5" s="31">
-        <v>0</v>
-      </c>
-      <c r="J5" s="24">
+      <c r="I5" s="28">
+        <v>0</v>
+      </c>
+      <c r="J5" s="23">
         <v>1</v>
       </c>
-      <c r="K5" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="L5" s="32">
+      <c r="K5" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="L5" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="33">
+      <c r="A6" s="30">
         <v>100002</v>
       </c>
       <c r="B6" s="7">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C6,'!참조_ENUM'!$S$3:$S$5,0))</f>
-        <v>1</v>
-      </c>
-      <c r="C6" s="59" t="s">
-        <v>189</v>
+        <v>2</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>190</v>
       </c>
       <c r="D6" s="7">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E6,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>2</v>
-      </c>
-      <c r="E6" s="55" t="s">
-        <v>186</v>
+        <v>12</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>187</v>
       </c>
       <c r="F6" s="7">
         <v>0</v>
       </c>
       <c r="G6" s="7">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H6,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>300</v>
+      </c>
+      <c r="H6" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="L6" s="31">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="32">
+        <v>100003</v>
+      </c>
+      <c r="B7" s="25">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C7,'!참조_ENUM'!$S$3:$S$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" s="25">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E7,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+        <v>11</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="F7" s="25">
+        <v>0</v>
+      </c>
+      <c r="G7" s="25">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H7,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H6" s="59" t="s">
+      <c r="H7" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7">
+      <c r="I7" s="33">
+        <v>0</v>
+      </c>
+      <c r="J7" s="25">
         <v>1.2</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="L6" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="35">
-        <v>100003</v>
-      </c>
-      <c r="B7" s="28">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C7,'!참조_ENUM'!$S$3:$S$5,0))</f>
-        <v>2</v>
-      </c>
-      <c r="C7" s="60" t="s">
-        <v>190</v>
-      </c>
-      <c r="D7" s="28">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E7,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>12</v>
-      </c>
-      <c r="E7" s="56" t="s">
-        <v>187</v>
-      </c>
-      <c r="F7" s="28">
-        <v>0</v>
-      </c>
-      <c r="G7" s="28">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H7,'!참조_ENUM'!$G$3:$G$13,0))</f>
-        <v>300</v>
-      </c>
-      <c r="H7" s="60" t="s">
-        <v>192</v>
-      </c>
-      <c r="I7" s="36">
-        <v>0</v>
-      </c>
-      <c r="J7" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="K7" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="L7" s="37">
-        <v>1</v>
+      <c r="K7" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="L7" s="34">
+        <v>1.3</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="30">
+      <c r="A8" s="50">
         <v>100004</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="51">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C8,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="52" t="s">
         <v>189</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="51">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E8,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E8" s="54" t="s">
+      <c r="E8" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="F8" s="24">
-        <v>0</v>
-      </c>
-      <c r="G8" s="24">
+      <c r="F8" s="51">
+        <v>0</v>
+      </c>
+      <c r="G8" s="51">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H8,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H8" s="58" t="s">
+      <c r="H8" s="52" t="s">
         <v>191</v>
       </c>
-      <c r="I8" s="31">
-        <v>0</v>
-      </c>
-      <c r="J8" s="24">
+      <c r="I8" s="54">
+        <v>0</v>
+      </c>
+      <c r="J8" s="51">
         <v>1</v>
       </c>
-      <c r="K8" s="31" t="s">
+      <c r="K8" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="L8" s="32">
+      <c r="L8" s="55">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="33">
+      <c r="A9" s="30">
         <v>100005</v>
       </c>
       <c r="B9" s="7">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C9,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="44" t="s">
         <v>189</v>
       </c>
       <c r="D9" s="7">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E9,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="40" t="s">
         <v>187</v>
       </c>
       <c r="F9" s="7">
@@ -9464,7 +9401,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H9,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H9" s="59" t="s">
+      <c r="H9" s="44" t="s">
         <v>191</v>
       </c>
       <c r="I9" s="4">
@@ -9476,108 +9413,108 @@
       <c r="K9" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="L9" s="34">
+      <c r="L9" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="35">
+      <c r="A10" s="32">
         <v>100006</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="25">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C10,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E10,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E10" s="56" t="s">
+      <c r="E10" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="F10" s="28">
-        <v>0</v>
-      </c>
-      <c r="G10" s="28">
+      <c r="F10" s="25">
+        <v>0</v>
+      </c>
+      <c r="G10" s="25">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H10,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H10" s="60" t="s">
+      <c r="H10" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="I10" s="36">
-        <v>0</v>
-      </c>
-      <c r="J10" s="28">
+      <c r="I10" s="33">
+        <v>0</v>
+      </c>
+      <c r="J10" s="25">
         <v>1.3</v>
       </c>
-      <c r="K10" s="36" t="s">
+      <c r="K10" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="L10" s="37">
+      <c r="L10" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="30">
+      <c r="A11" s="27">
         <v>100007</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="23">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C11,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="23">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E11,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="E11" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="F11" s="24">
-        <v>0</v>
-      </c>
-      <c r="G11" s="24">
+      <c r="F11" s="23">
+        <v>0</v>
+      </c>
+      <c r="G11" s="23">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H11,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H11" s="58" t="s">
+      <c r="H11" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="I11" s="31">
-        <v>0</v>
-      </c>
-      <c r="J11" s="24">
+      <c r="I11" s="28">
+        <v>0</v>
+      </c>
+      <c r="J11" s="23">
         <v>1</v>
       </c>
-      <c r="K11" s="31" t="s">
+      <c r="K11" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="L11" s="32">
+      <c r="L11" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="33">
+      <c r="A12" s="30">
         <v>100008</v>
       </c>
       <c r="B12" s="7">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C12,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="44" t="s">
         <v>189</v>
       </c>
       <c r="D12" s="7">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E12,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E12" s="40" t="s">
         <v>187</v>
       </c>
       <c r="F12" s="7">
@@ -9587,7 +9524,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H12,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H12" s="59" t="s">
+      <c r="H12" s="44" t="s">
         <v>191</v>
       </c>
       <c r="I12" s="4">
@@ -9599,190 +9536,190 @@
       <c r="K12" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="L12" s="34">
+      <c r="L12" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="47">
+      <c r="A13" s="37">
         <v>100009</v>
       </c>
-      <c r="B13" s="45">
+      <c r="B13" s="35">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C13,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="46" t="s">
         <v>189</v>
       </c>
-      <c r="D13" s="45">
+      <c r="D13" s="35">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E13,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E13" s="57" t="s">
+      <c r="E13" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="F13" s="45">
-        <v>0</v>
-      </c>
-      <c r="G13" s="45">
+      <c r="F13" s="35">
+        <v>0</v>
+      </c>
+      <c r="G13" s="35">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H13,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H13" s="61" t="s">
+      <c r="H13" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="I13" s="46">
-        <v>0</v>
-      </c>
-      <c r="J13" s="45">
+      <c r="I13" s="36">
+        <v>0</v>
+      </c>
+      <c r="J13" s="35">
         <v>0.8</v>
       </c>
-      <c r="K13" s="46" t="s">
+      <c r="K13" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="L13" s="48">
+      <c r="L13" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="30">
+      <c r="A14" s="27">
         <v>100010</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="23">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C14,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="23">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E14,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E14" s="54" t="s">
+      <c r="E14" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="F14" s="24">
-        <v>0</v>
-      </c>
-      <c r="G14" s="24">
+      <c r="F14" s="23">
+        <v>0</v>
+      </c>
+      <c r="G14" s="23">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H14,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H14" s="58" t="s">
+      <c r="H14" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="I14" s="31">
-        <v>0</v>
-      </c>
-      <c r="J14" s="24">
+      <c r="I14" s="28">
+        <v>0</v>
+      </c>
+      <c r="J14" s="23">
         <v>1</v>
       </c>
-      <c r="K14" s="31" t="s">
+      <c r="K14" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="L14" s="32">
+      <c r="L14" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="47">
+      <c r="A15" s="37">
         <v>100011</v>
       </c>
-      <c r="B15" s="45">
+      <c r="B15" s="35">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C15,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C15" s="61" t="s">
+      <c r="C15" s="46" t="s">
         <v>189</v>
       </c>
-      <c r="D15" s="45">
+      <c r="D15" s="35">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E15,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E15" s="57" t="s">
+      <c r="E15" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="F15" s="45">
-        <v>0</v>
-      </c>
-      <c r="G15" s="45">
+      <c r="F15" s="35">
+        <v>0</v>
+      </c>
+      <c r="G15" s="35">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H15,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H15" s="61" t="s">
+      <c r="H15" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="I15" s="46">
-        <v>0</v>
-      </c>
-      <c r="J15" s="45">
+      <c r="I15" s="36">
+        <v>0</v>
+      </c>
+      <c r="J15" s="35">
         <v>1.2</v>
       </c>
-      <c r="K15" s="46" t="s">
+      <c r="K15" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="L15" s="48">
+      <c r="L15" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="30">
+      <c r="A16" s="27">
         <v>100012</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="23">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C16,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C16" s="58" t="s">
+      <c r="C16" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="23">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E16,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E16" s="54" t="s">
+      <c r="E16" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="F16" s="24">
-        <v>0</v>
-      </c>
-      <c r="G16" s="24">
+      <c r="F16" s="23">
+        <v>0</v>
+      </c>
+      <c r="G16" s="23">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H16,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H16" s="58" t="s">
+      <c r="H16" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="I16" s="31">
-        <v>0</v>
-      </c>
-      <c r="J16" s="24">
+      <c r="I16" s="28">
+        <v>0</v>
+      </c>
+      <c r="J16" s="23">
         <v>1</v>
       </c>
-      <c r="K16" s="31" t="s">
+      <c r="K16" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="L16" s="32">
+      <c r="L16" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="33">
+      <c r="A17" s="30">
         <v>100013</v>
       </c>
       <c r="B17" s="7">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C17,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>2</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="44" t="s">
         <v>190</v>
       </c>
       <c r="D17" s="7">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E17,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E17" s="55" t="s">
+      <c r="E17" s="40" t="s">
         <v>187</v>
       </c>
       <c r="F17" s="7">
@@ -9792,7 +9729,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H17,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>300</v>
       </c>
-      <c r="H17" s="59" t="s">
+      <c r="H17" s="44" t="s">
         <v>192</v>
       </c>
       <c r="I17" s="4">
@@ -9804,212 +9741,212 @@
       <c r="K17" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="L17" s="34">
+      <c r="L17" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="35">
+      <c r="A18" s="32">
         <v>100014</v>
       </c>
-      <c r="B18" s="28">
+      <c r="B18" s="25">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C18,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E18,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E18" s="56" t="s">
+      <c r="E18" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="F18" s="28">
-        <v>0</v>
-      </c>
-      <c r="G18" s="28">
+      <c r="F18" s="25">
+        <v>0</v>
+      </c>
+      <c r="G18" s="25">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H18,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H18" s="60" t="s">
+      <c r="H18" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="I18" s="36">
-        <v>0</v>
-      </c>
-      <c r="J18" s="28">
+      <c r="I18" s="33">
+        <v>0</v>
+      </c>
+      <c r="J18" s="25">
         <v>1.2</v>
       </c>
-      <c r="K18" s="36" t="s">
+      <c r="K18" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="L18" s="37">
+      <c r="L18" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="66">
+      <c r="A19" s="50">
         <v>100015</v>
       </c>
-      <c r="B19" s="67">
+      <c r="B19" s="51">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C19,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C19" s="68" t="s">
+      <c r="C19" s="52" t="s">
         <v>189</v>
       </c>
-      <c r="D19" s="67">
+      <c r="D19" s="51">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E19,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E19" s="69" t="s">
+      <c r="E19" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="F19" s="67">
-        <v>0</v>
-      </c>
-      <c r="G19" s="67">
+      <c r="F19" s="51">
+        <v>0</v>
+      </c>
+      <c r="G19" s="51">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H19,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H19" s="68" t="s">
+      <c r="H19" s="52" t="s">
         <v>191</v>
       </c>
-      <c r="I19" s="70">
-        <v>0</v>
-      </c>
-      <c r="J19" s="67">
+      <c r="I19" s="54">
+        <v>0</v>
+      </c>
+      <c r="J19" s="51">
         <v>1</v>
       </c>
-      <c r="K19" s="70" t="s">
+      <c r="K19" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="L19" s="71">
+      <c r="L19" s="55">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="35">
+      <c r="A20" s="32">
         <v>100016</v>
       </c>
-      <c r="B20" s="28">
+      <c r="B20" s="25">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C20,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="D20" s="28">
+      <c r="D20" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E20,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E20" s="56" t="s">
+      <c r="E20" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="F20" s="28">
-        <v>0</v>
-      </c>
-      <c r="G20" s="28">
+      <c r="F20" s="25">
+        <v>0</v>
+      </c>
+      <c r="G20" s="25">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H20,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H20" s="60" t="s">
+      <c r="H20" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="I20" s="36">
-        <v>0</v>
-      </c>
-      <c r="J20" s="28">
+      <c r="I20" s="33">
+        <v>0</v>
+      </c>
+      <c r="J20" s="25">
         <v>1.2</v>
       </c>
-      <c r="K20" s="36" t="s">
+      <c r="K20" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="L20" s="37">
+      <c r="L20" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="35">
+      <c r="A21" s="32">
         <v>100017</v>
       </c>
-      <c r="B21" s="28">
+      <c r="B21" s="25">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C21,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="D21" s="28">
+      <c r="D21" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E21,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E21" s="56" t="s">
+      <c r="E21" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="F21" s="28">
-        <v>0</v>
-      </c>
-      <c r="G21" s="28">
+      <c r="F21" s="25">
+        <v>0</v>
+      </c>
+      <c r="G21" s="25">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H21,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H21" s="60" t="s">
+      <c r="H21" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="I21" s="36">
-        <v>0</v>
-      </c>
-      <c r="J21" s="28">
+      <c r="I21" s="33">
+        <v>0</v>
+      </c>
+      <c r="J21" s="25">
         <v>1.3</v>
       </c>
-      <c r="K21" s="36" t="s">
+      <c r="K21" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="L21" s="37">
+      <c r="L21" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="35">
+      <c r="A22" s="32">
         <v>100018</v>
       </c>
-      <c r="B22" s="28">
+      <c r="B22" s="25">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C22,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C22" s="60" t="s">
+      <c r="C22" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="D22" s="28">
+      <c r="D22" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E22,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E22" s="56" t="s">
+      <c r="E22" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="F22" s="28">
-        <v>0</v>
-      </c>
-      <c r="G22" s="28">
+      <c r="F22" s="25">
+        <v>0</v>
+      </c>
+      <c r="G22" s="25">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H22,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H22" s="60" t="s">
+      <c r="H22" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="I22" s="36">
-        <v>0</v>
-      </c>
-      <c r="J22" s="28">
+      <c r="I22" s="33">
+        <v>0</v>
+      </c>
+      <c r="J22" s="25">
         <v>1.3</v>
       </c>
-      <c r="K22" s="36" t="s">
+      <c r="K22" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="L22" s="37">
+      <c r="L22" s="34">
         <v>1</v>
       </c>
     </row>
@@ -10279,14 +10216,14 @@
         <f>INDEX('!참조_ENUM'!$V$3:$V$13,MATCH(C5,'!참조_ENUM'!$W$3:$W$13,0))</f>
         <v>1</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="44" t="s">
         <v>193</v>
       </c>
       <c r="D5" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E5,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>2</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="44" t="s">
         <v>199</v>
       </c>
       <c r="F5" s="4">
@@ -10308,7 +10245,7 @@
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(L5,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="L5" s="55" t="s">
+      <c r="L5" s="40" t="s">
         <v>187</v>
       </c>
       <c r="M5" s="7">
@@ -10318,7 +10255,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(O5,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>900</v>
       </c>
-      <c r="O5" s="59" t="s">
+      <c r="O5" s="44" t="s">
         <v>202</v>
       </c>
       <c r="P5" s="4">
@@ -10348,14 +10285,14 @@
         <f>INDEX('!참조_ENUM'!$V$3:$V$13,MATCH(C6,'!참조_ENUM'!$W$3:$W$13,0))</f>
         <v>106</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="44" t="s">
         <v>194</v>
       </c>
       <c r="D6" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E6,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="44" t="s">
         <v>200</v>
       </c>
       <c r="F6" s="4">
@@ -10377,7 +10314,7 @@
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(L6,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>11</v>
       </c>
-      <c r="L6" s="55" t="s">
+      <c r="L6" s="40" t="s">
         <v>201</v>
       </c>
       <c r="M6" s="7">
@@ -10387,7 +10324,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(O6,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="O6" s="59" t="s">
+      <c r="O6" s="44" t="s">
         <v>191</v>
       </c>
       <c r="P6" s="4">
@@ -10417,14 +10354,14 @@
         <f>INDEX('!참조_ENUM'!$V$3:$V$13,MATCH(C7,'!참조_ENUM'!$W$3:$W$13,0))</f>
         <v>107</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="44" t="s">
         <v>195</v>
       </c>
       <c r="D7" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E7,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="44" t="s">
         <v>200</v>
       </c>
       <c r="F7" s="4">
@@ -10446,7 +10383,7 @@
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(L7,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>11</v>
       </c>
-      <c r="L7" s="55" t="s">
+      <c r="L7" s="40" t="s">
         <v>201</v>
       </c>
       <c r="M7" s="7">
@@ -10456,7 +10393,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(O7,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>200</v>
       </c>
-      <c r="O7" s="59" t="s">
+      <c r="O7" s="44" t="s">
         <v>203</v>
       </c>
       <c r="P7" s="4">
@@ -10486,14 +10423,14 @@
         <f>INDEX('!참조_ENUM'!$V$3:$V$13,MATCH(C8,'!참조_ENUM'!$W$3:$W$13,0))</f>
         <v>106</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="44" t="s">
         <v>194</v>
       </c>
       <c r="D8" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E8,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="44" t="s">
         <v>200</v>
       </c>
       <c r="F8" s="4">
@@ -10515,7 +10452,7 @@
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(L8,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>11</v>
       </c>
-      <c r="L8" s="55" t="s">
+      <c r="L8" s="40" t="s">
         <v>201</v>
       </c>
       <c r="M8" s="7">
@@ -10525,7 +10462,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(O8,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="O8" s="59" t="s">
+      <c r="O8" s="44" t="s">
         <v>191</v>
       </c>
       <c r="P8" s="4">
@@ -10555,14 +10492,14 @@
         <f>INDEX('!참조_ENUM'!$V$3:$V$13,MATCH(C9,'!참조_ENUM'!$W$3:$W$13,0))</f>
         <v>108</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="44" t="s">
         <v>196</v>
       </c>
       <c r="D9" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E9,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="44" t="s">
         <v>200</v>
       </c>
       <c r="F9" s="4">
@@ -10584,7 +10521,7 @@
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(L9,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>11</v>
       </c>
-      <c r="L9" s="55" t="s">
+      <c r="L9" s="40" t="s">
         <v>201</v>
       </c>
       <c r="M9" s="7">
@@ -10594,7 +10531,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(O9,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="O9" s="59" t="s">
+      <c r="O9" s="44" t="s">
         <v>191</v>
       </c>
       <c r="P9" s="4">
@@ -10624,14 +10561,14 @@
         <f>INDEX('!참조_ENUM'!$V$3:$V$13,MATCH(C10,'!참조_ENUM'!$W$3:$W$13,0))</f>
         <v>109</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="44" t="s">
         <v>197</v>
       </c>
       <c r="D10" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E10,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
-      <c r="E10" s="59" t="s">
+      <c r="E10" s="44" t="s">
         <v>200</v>
       </c>
       <c r="F10" s="4">
@@ -10653,7 +10590,7 @@
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(L10,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>11</v>
       </c>
-      <c r="L10" s="55" t="s">
+      <c r="L10" s="40" t="s">
         <v>201</v>
       </c>
       <c r="M10" s="7">
@@ -10663,7 +10600,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(O10,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>200</v>
       </c>
-      <c r="O10" s="59" t="s">
+      <c r="O10" s="44" t="s">
         <v>203</v>
       </c>
       <c r="P10" s="4">
@@ -10693,14 +10630,14 @@
         <f>INDEX('!참조_ENUM'!$V$3:$V$13,MATCH(C11,'!참조_ENUM'!$W$3:$W$13,0))</f>
         <v>105</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="44" t="s">
         <v>198</v>
       </c>
       <c r="D11" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E11,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
-      <c r="E11" s="59" t="s">
+      <c r="E11" s="44" t="s">
         <v>200</v>
       </c>
       <c r="F11" s="4">
@@ -10722,7 +10659,7 @@
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(L11,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>11</v>
       </c>
-      <c r="L11" s="55" t="s">
+      <c r="L11" s="40" t="s">
         <v>201</v>
       </c>
       <c r="M11" s="7">
@@ -10732,7 +10669,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(O11,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>0</v>
       </c>
-      <c r="O11" s="59" t="s">
+      <c r="O11" s="44" t="s">
         <v>185</v>
       </c>
       <c r="P11" s="4">

--- a/Android/ExcelData/PCSkillTable.xlsx
+++ b/Android/ExcelData/PCSkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1183AE0-815A-4C98-BC23-61A703454D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23155AF8-57F6-4B1A-9513-F7F4D80AFA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39315" yWindow="3495" windowWidth="35370" windowHeight="15435" activeTab="3" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="1695" yWindow="1875" windowWidth="35370" windowHeight="15435" activeTab="1" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -2306,10 +2306,6 @@
     <t>200 방어력을 기준으로 계산을 하기 위한 수치</t>
   </si>
   <si>
-    <t>00_common_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>00_skill_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2388,6 +2384,10 @@
   </si>
   <si>
     <t>Assets/AssetResources/Prefabs/Effects/Skill/Left/Lucia/SkillEffect_Lucia_Skill_02_Hit</t>
+  </si>
+  <si>
+    <t>00_common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6782,8 +6782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D77A34-98F9-4133-B549-FB86B9DF331B}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6831,10 +6831,10 @@
         <v>80</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -6863,10 +6863,10 @@
         <v>4</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -6895,10 +6895,10 @@
         <v>81</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -6919,14 +6919,14 @@
         <v>1</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="19" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J5" s="4">
         <v>1.1000000000000001</v>
@@ -6954,10 +6954,10 @@
       </c>
       <c r="G6" s="19"/>
       <c r="H6" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J6" s="4">
         <v>2.5</v>
@@ -6981,14 +6981,14 @@
         <v>3</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G7" s="19"/>
       <c r="H7" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J7" s="4">
         <v>2</v>
@@ -7455,7 +7455,7 @@
       <pane xSplit="3" ySplit="4" topLeftCell="O5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="U14" sqref="U14"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7574,7 +7574,7 @@
         <v>86</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:23" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -7716,7 +7716,7 @@
         <v>87</v>
       </c>
       <c r="W4" s="21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -7727,7 +7727,7 @@
         <v>100001</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D5" s="23">
         <v>1</v>
@@ -7787,7 +7787,7 @@
         <v>0</v>
       </c>
       <c r="V5" s="28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W5" s="28"/>
     </row>
@@ -7799,7 +7799,7 @@
         <v>100002</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D6" s="7">
         <v>0</v>
@@ -7809,7 +7809,7 @@
         <v>3001</v>
       </c>
       <c r="F6" s="44" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -7859,7 +7859,7 @@
         <v>0</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="W6" s="4"/>
     </row>
@@ -7871,7 +7871,7 @@
         <v>100003</v>
       </c>
       <c r="C7" s="49" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D7" s="25">
         <v>1</v>
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="V7" s="33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W7" s="33"/>
     </row>
@@ -9071,8 +9071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BD63B1-FF99-405E-A3D0-90C5E747D8DE}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9247,7 +9247,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L5" s="29">
         <v>1</v>
@@ -9288,7 +9288,7 @@
         <v>0.1</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L6" s="31">
         <v>1.5</v>
@@ -9329,7 +9329,7 @@
         <v>1.2</v>
       </c>
       <c r="K7" s="33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L7" s="34">
         <v>1.3</v>

--- a/Android/ExcelData/PCSkillTable.xlsx
+++ b/Android/ExcelData/PCSkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23155AF8-57F6-4B1A-9513-F7F4D80AFA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E4809A-1491-4EC0-BE9D-CE0CCA3095FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1695" yWindow="1875" windowWidth="35370" windowHeight="15435" activeTab="1" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -594,7 +594,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W4" authorId="0" shapeId="0" xr:uid="{A402B58C-B420-4345-8EC5-0136DD80EAAE}">
+    <comment ref="Y4" authorId="0" shapeId="0" xr:uid="{A402B58C-B420-4345-8EC5-0136DD80EAAE}">
       <text>
         <r>
           <rPr>
@@ -1524,7 +1524,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="235">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2388,6 +2388,27 @@
   <si>
     <t>00_common</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투사체 시작 위치</t>
+  </si>
+  <si>
+    <t>투사체 시작 위치(기획)</t>
+  </si>
+  <si>
+    <t>ENUM:SD_BODY_TYPE:NONE</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>sd_body_type</t>
+  </si>
+  <si>
+    <t>#sd_body_type</t>
+  </si>
+  <si>
+    <t>몸(중앙)</t>
   </si>
 </sst>
 </file>
@@ -2970,38 +2991,14 @@
       <sheetName val="@drop_type"/>
       <sheetName val="@repeat_type"/>
       <sheetName val="@charge_type"/>
-      <sheetName val="@stage_common"/>
+      <sheetName val="@sd_body_type"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TRIBE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>POSITION_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ROLE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>NPC_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
       <sheetData sheetId="5">
         <row r="1">
           <cell r="A1" t="str">
@@ -4554,7 +4551,90 @@
       <sheetData sheetId="25"/>
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
-      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="28">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SD_BODY_TYPE</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>type</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>value</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>comment</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>HEAD</v>
+          </cell>
+          <cell r="B5">
+            <v>1</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>머리</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>BODY</v>
+          </cell>
+          <cell r="B6">
+            <v>2</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>몸(중앙)</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>FOOT</v>
+          </cell>
+          <cell r="B7">
+            <v>3</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>발끝(ROOT)</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>LEFT_HAND</v>
+          </cell>
+          <cell r="B8">
+            <v>4</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>왼손</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>RIGHT_HAND</v>
+          </cell>
+          <cell r="B9">
+            <v>5</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>오른손</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4857,10 +4937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCF2545-5B22-48B7-AA3A-4E88E574D583}">
-  <dimension ref="A1:AM81"/>
+  <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AQ8" sqref="AO2:AQ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4887,9 +4967,12 @@
     <col min="35" max="35" width="11.375" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="24.125" customWidth="1"/>
     <col min="39" max="39" width="48.375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.375" customWidth="1"/>
+    <col min="43" max="43" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'[1]@target_rule'!$A$1</f>
         <v>TARGET_RULE_TYPE</v>
@@ -4930,8 +5013,12 @@
         <f>'[1]@second_target_rule'!$A$1</f>
         <v>SECOND_TARGET_RULE_TYPE</v>
       </c>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AO1" t="str">
+        <f>'[1]@sd_body_type'!$A$1</f>
+        <v>SD_BODY_TYPE</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="str">
         <f>'[1]@target_rule'!$A3</f>
         <v>type</v>
@@ -5052,8 +5139,20 @@
         <f>'[1]@second_target_rule'!$C3</f>
         <v>comment</v>
       </c>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AO2" s="5" t="str">
+        <f>'[1]@sd_body_type'!$A3</f>
+        <v>type</v>
+      </c>
+      <c r="AP2" s="5" t="str">
+        <f>'[1]@sd_body_type'!$B3</f>
+        <v>value</v>
+      </c>
+      <c r="AQ2" s="1" t="str">
+        <f>'[1]@sd_body_type'!$C3</f>
+        <v>comment</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="str">
         <f>'[1]@target_rule'!$A4</f>
         <v>RANDOM</v>
@@ -5174,8 +5273,20 @@
         <f>'[1]@second_target_rule'!$C4</f>
         <v>NONE</v>
       </c>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AO3" s="4" t="str">
+        <f>'[1]@sd_body_type'!$A4</f>
+        <v>NONE</v>
+      </c>
+      <c r="AP3" s="4">
+        <f>'[1]@sd_body_type'!$B4</f>
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="4" t="str">
+        <f>'[1]@sd_body_type'!$C4</f>
+        <v>NONE</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="str">
         <f>'[1]@target_rule'!$A5</f>
         <v>SELF</v>
@@ -5296,8 +5407,20 @@
         <f>'[1]@second_target_rule'!$C5</f>
         <v>0 타겟을 중심으로 지정 반경내에 감지되는 타겟 검사</v>
       </c>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AO4" s="4" t="str">
+        <f>'[1]@sd_body_type'!$A5</f>
+        <v>HEAD</v>
+      </c>
+      <c r="AP4" s="4">
+        <f>'[1]@sd_body_type'!$B5</f>
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="4" t="str">
+        <f>'[1]@sd_body_type'!$C5</f>
+        <v>머리</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="str">
         <f>'[1]@target_rule'!$A6</f>
         <v>ALL</v>
@@ -5406,8 +5529,20 @@
         <f>'[1]@second_target_rule'!$C6</f>
         <v>1 타겟 뒤로 지정 반경내에 감지되는 타겟 검사</v>
       </c>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AO5" s="4" t="str">
+        <f>'[1]@sd_body_type'!$A6</f>
+        <v>BODY</v>
+      </c>
+      <c r="AP5" s="4">
+        <f>'[1]@sd_body_type'!$B6</f>
+        <v>2</v>
+      </c>
+      <c r="AQ5" s="4" t="str">
+        <f>'[1]@sd_body_type'!$C6</f>
+        <v>몸(중앙)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="str">
         <f>'[1]@target_rule'!$A7</f>
         <v>ALL_WITHOUT_ME</v>
@@ -5493,8 +5628,20 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AO6" s="4" t="str">
+        <f>'[1]@sd_body_type'!$A7</f>
+        <v>FOOT</v>
+      </c>
+      <c r="AP6" s="4">
+        <f>'[1]@sd_body_type'!$B7</f>
+        <v>3</v>
+      </c>
+      <c r="AQ6" s="4" t="str">
+        <f>'[1]@sd_body_type'!$C7</f>
+        <v>발끝(ROOT)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="str">
         <f>'[1]@target_rule'!$A8</f>
         <v>ALLY_WITHOUT_ME_NEAREST</v>
@@ -5555,8 +5702,20 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AO7" s="4" t="str">
+        <f>'[1]@sd_body_type'!$A8</f>
+        <v>LEFT_HAND</v>
+      </c>
+      <c r="AP7" s="4">
+        <f>'[1]@sd_body_type'!$B8</f>
+        <v>4</v>
+      </c>
+      <c r="AQ7" s="4" t="str">
+        <f>'[1]@sd_body_type'!$C8</f>
+        <v>왼손</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="str">
         <f>'[1]@target_rule'!$A9</f>
         <v>ALLY_WITHOUT_ME_FURTHEST</v>
@@ -5605,8 +5764,20 @@
         <f>'[1]@projectile_type'!$C9</f>
         <v>12 타겟의 몸에서 즉시 효과 발동</v>
       </c>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AO8" s="4" t="str">
+        <f>'[1]@sd_body_type'!$A9</f>
+        <v>RIGHT_HAND</v>
+      </c>
+      <c r="AP8" s="4">
+        <f>'[1]@sd_body_type'!$B9</f>
+        <v>5</v>
+      </c>
+      <c r="AQ8" s="4" t="str">
+        <f>'[1]@sd_body_type'!$C9</f>
+        <v>오른손</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="str">
         <f>'[1]@target_rule'!$A10</f>
         <v>NEAREST</v>
@@ -5656,7 +5827,7 @@
         <v>13 타겟의 머리에서 즉시 효과 발동</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="str">
         <f>'[1]@target_rule'!$A11</f>
         <v>FURTHEST</v>
@@ -5706,7 +5877,7 @@
         <v>21 전체 선택(진영의 중앙)</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="str">
         <f>'[1]@target_rule'!$A12</f>
         <v>NEAREST_ADD_BACK_RANGE</v>
@@ -5744,7 +5915,7 @@
         <v>107 방어력 증가</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="str">
         <f>'[1]@target_rule'!$A13</f>
         <v>FURTHEST_ADD_FRONT_RANGE</v>
@@ -5782,7 +5953,7 @@
         <v>108 공격력 감소</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="str">
         <f>'[1]@target_rule'!$A14</f>
         <v>NEAREST_ADD_ARROUND_RANGE</v>
@@ -5820,7 +5991,7 @@
         <v>109 방어력 감소</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="str">
         <f>'[1]@target_rule'!$A15</f>
         <v>FURTHEST_ADD_ARROUND_RANGE</v>
@@ -5834,7 +6005,7 @@
         <v>11 가장 거리가 먼 적 우선 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로) 후 일정 영역내의 (주변) 타겟 추가 선택</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="str">
         <f>'[1]@target_rule'!$A16</f>
         <v>LOWEST_LIFE_VALUE</v>
@@ -5848,7 +6019,7 @@
         <v>3001 남은 체력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="str">
         <f>'[1]@target_rule'!$A17</f>
         <v>LOWEST_ATTACK</v>
@@ -6782,7 +6953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D77A34-98F9-4133-B549-FB86B9DF331B}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -7449,13 +7620,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00F7AA3-FB12-454D-93A6-31450B9003EC}">
-  <dimension ref="A1:W22"/>
+  <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="O5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="X15" sqref="X15:X21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7478,11 +7649,11 @@
     <col min="18" max="18" width="19" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="19.25" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="19.25" customWidth="1"/>
-    <col min="22" max="22" width="10.875" customWidth="1"/>
-    <col min="23" max="23" width="69.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="10.875" customWidth="1"/>
+    <col min="25" max="25" width="69.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -7506,7 +7677,7 @@
       <c r="T1" s="6"/>
       <c r="U1" s="6"/>
     </row>
-    <row r="2" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -7574,10 +7745,16 @@
         <v>86</v>
       </c>
       <c r="W2" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
@@ -7645,10 +7822,16 @@
         <v>4</v>
       </c>
       <c r="W3" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="X3" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y3" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
         <v>2</v>
       </c>
@@ -7716,10 +7899,16 @@
         <v>87</v>
       </c>
       <c r="W4" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="X4" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y4" s="21" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27">
         <v>100001</v>
       </c>
@@ -7789,9 +7978,16 @@
       <c r="V5" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="28"/>
-    </row>
-    <row r="6" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W5" s="28">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X5,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y5" s="28"/>
+    </row>
+    <row r="6" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30">
         <v>100002</v>
       </c>
@@ -7861,9 +8057,16 @@
       <c r="V6" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="W6" s="4"/>
-    </row>
-    <row r="7" spans="1:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W6" s="4">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X6,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y6" s="4"/>
+    </row>
+    <row r="7" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="32">
         <v>100003</v>
       </c>
@@ -7933,9 +8136,16 @@
       <c r="V7" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="W7" s="33"/>
-    </row>
-    <row r="8" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W7" s="33">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X7,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
+        <v>0</v>
+      </c>
+      <c r="X7" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y7" s="33"/>
+    </row>
+    <row r="8" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="27">
         <v>100101</v>
       </c>
@@ -8005,9 +8215,16 @@
       <c r="V8" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="W8" s="28"/>
-    </row>
-    <row r="9" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W8" s="28">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X8,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
+        <v>0</v>
+      </c>
+      <c r="X8" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y8" s="28"/>
+    </row>
+    <row r="9" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30">
         <v>100102</v>
       </c>
@@ -8077,9 +8294,16 @@
       <c r="V9" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="W9" s="4"/>
-    </row>
-    <row r="10" spans="1:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W9" s="4">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X9,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
+        <v>0</v>
+      </c>
+      <c r="X9" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y9" s="4"/>
+    </row>
+    <row r="10" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="32">
         <v>100103</v>
       </c>
@@ -8149,9 +8373,16 @@
       <c r="V10" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="W10" s="33"/>
-    </row>
-    <row r="11" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W10" s="33">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X10,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
+        <v>0</v>
+      </c>
+      <c r="X10" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y10" s="33"/>
+    </row>
+    <row r="11" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27">
         <v>100201</v>
       </c>
@@ -8221,9 +8452,16 @@
       <c r="V11" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="W11" s="28"/>
-    </row>
-    <row r="12" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W11" s="28">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X11,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
+        <v>0</v>
+      </c>
+      <c r="X11" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y11" s="28"/>
+    </row>
+    <row r="12" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="30">
         <v>100202</v>
       </c>
@@ -8293,9 +8531,16 @@
       <c r="V12" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="W12" s="4"/>
-    </row>
-    <row r="13" spans="1:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W12" s="4">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X12,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
+        <v>0</v>
+      </c>
+      <c r="X12" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y12" s="4"/>
+    </row>
+    <row r="13" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="32">
         <v>100203</v>
       </c>
@@ -8365,9 +8610,16 @@
       <c r="V13" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="W13" s="33"/>
-    </row>
-    <row r="14" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W13" s="33">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X13,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
+        <v>0</v>
+      </c>
+      <c r="X13" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y13" s="33"/>
+    </row>
+    <row r="14" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="27">
         <v>100301</v>
       </c>
@@ -8437,11 +8689,18 @@
       <c r="V14" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="W14" s="28" t="s">
+      <c r="W14" s="28">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X14,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
+        <v>2</v>
+      </c>
+      <c r="X14" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y14" s="28" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="30">
         <v>100302</v>
       </c>
@@ -8511,11 +8770,18 @@
       <c r="V15" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="W15" s="4" t="s">
+      <c r="W15" s="4">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X15,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
+        <v>2</v>
+      </c>
+      <c r="X15" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y15" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="32">
         <v>100303</v>
       </c>
@@ -8585,11 +8851,18 @@
       <c r="V16" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="W16" s="33" t="s">
+      <c r="W16" s="33">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X16,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
+        <v>2</v>
+      </c>
+      <c r="X16" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y16" s="33" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="27">
         <v>100401</v>
       </c>
@@ -8659,11 +8932,18 @@
       <c r="V17" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="W17" s="28" t="s">
+      <c r="W17" s="28">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X17,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
+        <v>2</v>
+      </c>
+      <c r="X17" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y17" s="28" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="30">
         <v>100402</v>
       </c>
@@ -8733,11 +9013,18 @@
       <c r="V18" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="W18" s="4" t="s">
+      <c r="W18" s="4">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X18,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
+        <v>2</v>
+      </c>
+      <c r="X18" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y18" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="32">
         <v>100403</v>
       </c>
@@ -8807,11 +9094,18 @@
       <c r="V19" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="W19" s="33" t="s">
+      <c r="W19" s="33">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X19,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
+        <v>2</v>
+      </c>
+      <c r="X19" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y19" s="33" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="27">
         <v>100501</v>
       </c>
@@ -8881,11 +9175,18 @@
       <c r="V20" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="W20" s="28" t="s">
+      <c r="W20" s="28">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X20,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
+        <v>2</v>
+      </c>
+      <c r="X20" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y20" s="28" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="30">
         <v>100502</v>
       </c>
@@ -8955,11 +9256,18 @@
       <c r="V21" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="W21" s="4" t="s">
+      <c r="W21" s="4">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X21,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
+        <v>2</v>
+      </c>
+      <c r="X21" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y21" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="32">
         <v>100503</v>
       </c>
@@ -9029,7 +9337,14 @@
       <c r="V22" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="W22" s="33"/>
+      <c r="W22" s="33">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X22,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
+        <v>0</v>
+      </c>
+      <c r="X22" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y22" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9042,7 +9357,7 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8A7FC9F6-0204-4C88-A1F3-F45CC3ECCE6D}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$N$3:$N$4</xm:f>
@@ -9060,6 +9375,12 @@
             <xm:f>'!참조_ENUM'!$AE$3:$AE$10</xm:f>
           </x14:formula1>
           <xm:sqref>K5:K22</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CF316C48-BE21-47BC-9BEA-B8C7E392ED42}">
+          <x14:formula1>
+            <xm:f>'!참조_ENUM'!$AQ$3:$AQ$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>X5:X22</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Android/ExcelData/PCSkillTable.xlsx
+++ b/Android/ExcelData/PCSkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E4809A-1491-4EC0-BE9D-CE0CCA3095FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D76C0F-26CF-4ABB-997D-983DDBB57B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
@@ -594,7 +594,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y4" authorId="0" shapeId="0" xr:uid="{A402B58C-B420-4345-8EC5-0136DD80EAAE}">
+    <comment ref="W4" authorId="0" shapeId="0" xr:uid="{A402B58C-B420-4345-8EC5-0136DD80EAAE}">
       <text>
         <r>
           <rPr>
@@ -1524,7 +1524,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="228">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2388,27 +2388,6 @@
   <si>
     <t>00_common</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>투사체 시작 위치</t>
-  </si>
-  <si>
-    <t>투사체 시작 위치(기획)</t>
-  </si>
-  <si>
-    <t>ENUM:SD_BODY_TYPE:NONE</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>sd_body_type</t>
-  </si>
-  <si>
-    <t>#sd_body_type</t>
-  </si>
-  <si>
-    <t>몸(중앙)</t>
   </si>
 </sst>
 </file>
@@ -4551,90 +4530,7 @@
       <sheetData sheetId="25"/>
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
-      <sheetData sheetId="28">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>SD_BODY_TYPE</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>type</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>value</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>comment</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>NONE</v>
-          </cell>
-          <cell r="B4">
-            <v>0</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>NONE</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>HEAD</v>
-          </cell>
-          <cell r="B5">
-            <v>1</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>머리</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>BODY</v>
-          </cell>
-          <cell r="B6">
-            <v>2</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>몸(중앙)</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>FOOT</v>
-          </cell>
-          <cell r="B7">
-            <v>3</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>발끝(ROOT)</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>LEFT_HAND</v>
-          </cell>
-          <cell r="B8">
-            <v>4</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>왼손</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>RIGHT_HAND</v>
-          </cell>
-          <cell r="B9">
-            <v>5</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>오른손</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="28"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4937,10 +4833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCF2545-5B22-48B7-AA3A-4E88E574D583}">
-  <dimension ref="A1:AQ81"/>
+  <dimension ref="A1:AM81"/>
   <sheetViews>
     <sheetView topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AQ8" sqref="AO2:AQ8"/>
+      <selection activeCell="AO1" sqref="AO1:AQ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4967,12 +4863,9 @@
     <col min="35" max="35" width="11.375" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="24.125" customWidth="1"/>
     <col min="39" max="39" width="48.375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.375" customWidth="1"/>
-    <col min="43" max="43" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'[1]@target_rule'!$A$1</f>
         <v>TARGET_RULE_TYPE</v>
@@ -5013,12 +4906,8 @@
         <f>'[1]@second_target_rule'!$A$1</f>
         <v>SECOND_TARGET_RULE_TYPE</v>
       </c>
-      <c r="AO1" t="str">
-        <f>'[1]@sd_body_type'!$A$1</f>
-        <v>SD_BODY_TYPE</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="str">
         <f>'[1]@target_rule'!$A3</f>
         <v>type</v>
@@ -5139,20 +5028,8 @@
         <f>'[1]@second_target_rule'!$C3</f>
         <v>comment</v>
       </c>
-      <c r="AO2" s="5" t="str">
-        <f>'[1]@sd_body_type'!$A3</f>
-        <v>type</v>
-      </c>
-      <c r="AP2" s="5" t="str">
-        <f>'[1]@sd_body_type'!$B3</f>
-        <v>value</v>
-      </c>
-      <c r="AQ2" s="1" t="str">
-        <f>'[1]@sd_body_type'!$C3</f>
-        <v>comment</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="str">
         <f>'[1]@target_rule'!$A4</f>
         <v>RANDOM</v>
@@ -5273,20 +5150,8 @@
         <f>'[1]@second_target_rule'!$C4</f>
         <v>NONE</v>
       </c>
-      <c r="AO3" s="4" t="str">
-        <f>'[1]@sd_body_type'!$A4</f>
-        <v>NONE</v>
-      </c>
-      <c r="AP3" s="4">
-        <f>'[1]@sd_body_type'!$B4</f>
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="4" t="str">
-        <f>'[1]@sd_body_type'!$C4</f>
-        <v>NONE</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="str">
         <f>'[1]@target_rule'!$A5</f>
         <v>SELF</v>
@@ -5407,20 +5272,8 @@
         <f>'[1]@second_target_rule'!$C5</f>
         <v>0 타겟을 중심으로 지정 반경내에 감지되는 타겟 검사</v>
       </c>
-      <c r="AO4" s="4" t="str">
-        <f>'[1]@sd_body_type'!$A5</f>
-        <v>HEAD</v>
-      </c>
-      <c r="AP4" s="4">
-        <f>'[1]@sd_body_type'!$B5</f>
-        <v>1</v>
-      </c>
-      <c r="AQ4" s="4" t="str">
-        <f>'[1]@sd_body_type'!$C5</f>
-        <v>머리</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="str">
         <f>'[1]@target_rule'!$A6</f>
         <v>ALL</v>
@@ -5529,20 +5382,8 @@
         <f>'[1]@second_target_rule'!$C6</f>
         <v>1 타겟 뒤로 지정 반경내에 감지되는 타겟 검사</v>
       </c>
-      <c r="AO5" s="4" t="str">
-        <f>'[1]@sd_body_type'!$A6</f>
-        <v>BODY</v>
-      </c>
-      <c r="AP5" s="4">
-        <f>'[1]@sd_body_type'!$B6</f>
-        <v>2</v>
-      </c>
-      <c r="AQ5" s="4" t="str">
-        <f>'[1]@sd_body_type'!$C6</f>
-        <v>몸(중앙)</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="str">
         <f>'[1]@target_rule'!$A7</f>
         <v>ALL_WITHOUT_ME</v>
@@ -5628,20 +5469,8 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AO6" s="4" t="str">
-        <f>'[1]@sd_body_type'!$A7</f>
-        <v>FOOT</v>
-      </c>
-      <c r="AP6" s="4">
-        <f>'[1]@sd_body_type'!$B7</f>
-        <v>3</v>
-      </c>
-      <c r="AQ6" s="4" t="str">
-        <f>'[1]@sd_body_type'!$C7</f>
-        <v>발끝(ROOT)</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="str">
         <f>'[1]@target_rule'!$A8</f>
         <v>ALLY_WITHOUT_ME_NEAREST</v>
@@ -5702,20 +5531,8 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AO7" s="4" t="str">
-        <f>'[1]@sd_body_type'!$A8</f>
-        <v>LEFT_HAND</v>
-      </c>
-      <c r="AP7" s="4">
-        <f>'[1]@sd_body_type'!$B8</f>
-        <v>4</v>
-      </c>
-      <c r="AQ7" s="4" t="str">
-        <f>'[1]@sd_body_type'!$C8</f>
-        <v>왼손</v>
-      </c>
-    </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="str">
         <f>'[1]@target_rule'!$A9</f>
         <v>ALLY_WITHOUT_ME_FURTHEST</v>
@@ -5764,20 +5581,8 @@
         <f>'[1]@projectile_type'!$C9</f>
         <v>12 타겟의 몸에서 즉시 효과 발동</v>
       </c>
-      <c r="AO8" s="4" t="str">
-        <f>'[1]@sd_body_type'!$A9</f>
-        <v>RIGHT_HAND</v>
-      </c>
-      <c r="AP8" s="4">
-        <f>'[1]@sd_body_type'!$B9</f>
-        <v>5</v>
-      </c>
-      <c r="AQ8" s="4" t="str">
-        <f>'[1]@sd_body_type'!$C9</f>
-        <v>오른손</v>
-      </c>
-    </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="str">
         <f>'[1]@target_rule'!$A10</f>
         <v>NEAREST</v>
@@ -5827,7 +5632,7 @@
         <v>13 타겟의 머리에서 즉시 효과 발동</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="str">
         <f>'[1]@target_rule'!$A11</f>
         <v>FURTHEST</v>
@@ -5877,7 +5682,7 @@
         <v>21 전체 선택(진영의 중앙)</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="str">
         <f>'[1]@target_rule'!$A12</f>
         <v>NEAREST_ADD_BACK_RANGE</v>
@@ -5915,7 +5720,7 @@
         <v>107 방어력 증가</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="str">
         <f>'[1]@target_rule'!$A13</f>
         <v>FURTHEST_ADD_FRONT_RANGE</v>
@@ -5953,7 +5758,7 @@
         <v>108 공격력 감소</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="str">
         <f>'[1]@target_rule'!$A14</f>
         <v>NEAREST_ADD_ARROUND_RANGE</v>
@@ -5991,7 +5796,7 @@
         <v>109 방어력 감소</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="str">
         <f>'[1]@target_rule'!$A15</f>
         <v>FURTHEST_ADD_ARROUND_RANGE</v>
@@ -6005,7 +5810,7 @@
         <v>11 가장 거리가 먼 적 우선 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로) 후 일정 영역내의 (주변) 타겟 추가 선택</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="str">
         <f>'[1]@target_rule'!$A16</f>
         <v>LOWEST_LIFE_VALUE</v>
@@ -6019,7 +5824,7 @@
         <v>3001 남은 체력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="str">
         <f>'[1]@target_rule'!$A17</f>
         <v>LOWEST_ATTACK</v>
@@ -7620,13 +7425,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00F7AA3-FB12-454D-93A6-31450B9003EC}">
-  <dimension ref="A1:Y22"/>
+  <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="O5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="X15" sqref="X15:X21"/>
+      <selection pane="bottomRight" activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7649,11 +7454,11 @@
     <col min="18" max="18" width="19" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="19.25" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="19.25" customWidth="1"/>
-    <col min="22" max="24" width="10.875" customWidth="1"/>
-    <col min="25" max="25" width="69.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.875" customWidth="1"/>
+    <col min="23" max="23" width="69.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -7677,7 +7482,7 @@
       <c r="T1" s="6"/>
       <c r="U1" s="6"/>
     </row>
-    <row r="2" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -7745,16 +7550,10 @@
         <v>86</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="Y2" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
@@ -7822,16 +7621,10 @@
         <v>4</v>
       </c>
       <c r="W3" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="X3" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="Y3" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
         <v>2</v>
       </c>
@@ -7899,16 +7692,10 @@
         <v>87</v>
       </c>
       <c r="W4" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="X4" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="Y4" s="21" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27">
         <v>100001</v>
       </c>
@@ -7978,16 +7765,9 @@
       <c r="V5" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="28">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X5,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
-        <v>0</v>
-      </c>
-      <c r="X5" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="Y5" s="28"/>
-    </row>
-    <row r="6" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W5" s="28"/>
+    </row>
+    <row r="6" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30">
         <v>100002</v>
       </c>
@@ -8057,16 +7837,9 @@
       <c r="V6" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="W6" s="4">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X6,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
-        <v>0</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="Y6" s="4"/>
-    </row>
-    <row r="7" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="1:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="32">
         <v>100003</v>
       </c>
@@ -8136,16 +7909,9 @@
       <c r="V7" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="W7" s="33">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X7,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
-        <v>0</v>
-      </c>
-      <c r="X7" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="Y7" s="33"/>
-    </row>
-    <row r="8" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W7" s="33"/>
+    </row>
+    <row r="8" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="27">
         <v>100101</v>
       </c>
@@ -8215,16 +7981,9 @@
       <c r="V8" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="W8" s="28">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X8,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
-        <v>0</v>
-      </c>
-      <c r="X8" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="Y8" s="28"/>
-    </row>
-    <row r="9" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W8" s="28"/>
+    </row>
+    <row r="9" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30">
         <v>100102</v>
       </c>
@@ -8294,16 +8053,9 @@
       <c r="V9" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="W9" s="4">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X9,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
-        <v>0</v>
-      </c>
-      <c r="X9" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="Y9" s="4"/>
-    </row>
-    <row r="10" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W9" s="4"/>
+    </row>
+    <row r="10" spans="1:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="32">
         <v>100103</v>
       </c>
@@ -8373,16 +8125,9 @@
       <c r="V10" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="W10" s="33">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X10,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
-        <v>0</v>
-      </c>
-      <c r="X10" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="Y10" s="33"/>
-    </row>
-    <row r="11" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W10" s="33"/>
+    </row>
+    <row r="11" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27">
         <v>100201</v>
       </c>
@@ -8452,16 +8197,9 @@
       <c r="V11" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="W11" s="28">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X11,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
-        <v>0</v>
-      </c>
-      <c r="X11" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="Y11" s="28"/>
-    </row>
-    <row r="12" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W11" s="28"/>
+    </row>
+    <row r="12" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="30">
         <v>100202</v>
       </c>
@@ -8531,16 +8269,9 @@
       <c r="V12" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="W12" s="4">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X12,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
-        <v>0</v>
-      </c>
-      <c r="X12" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="Y12" s="4"/>
-    </row>
-    <row r="13" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W12" s="4"/>
+    </row>
+    <row r="13" spans="1:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="32">
         <v>100203</v>
       </c>
@@ -8610,16 +8341,9 @@
       <c r="V13" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="W13" s="33">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X13,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
-        <v>0</v>
-      </c>
-      <c r="X13" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="Y13" s="33"/>
-    </row>
-    <row r="14" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W13" s="33"/>
+    </row>
+    <row r="14" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="27">
         <v>100301</v>
       </c>
@@ -8689,18 +8413,11 @@
       <c r="V14" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="W14" s="28">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X14,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
-        <v>2</v>
-      </c>
-      <c r="X14" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="Y14" s="28" t="s">
+      <c r="W14" s="28" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="30">
         <v>100302</v>
       </c>
@@ -8770,18 +8487,11 @@
       <c r="V15" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="W15" s="4">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X15,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
-        <v>2</v>
-      </c>
-      <c r="X15" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="Y15" s="4" t="s">
+      <c r="W15" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="32">
         <v>100303</v>
       </c>
@@ -8851,18 +8561,11 @@
       <c r="V16" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="W16" s="33">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X16,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
-        <v>2</v>
-      </c>
-      <c r="X16" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="Y16" s="33" t="s">
+      <c r="W16" s="33" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="27">
         <v>100401</v>
       </c>
@@ -8932,18 +8635,11 @@
       <c r="V17" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="W17" s="28">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X17,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
-        <v>2</v>
-      </c>
-      <c r="X17" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="Y17" s="28" t="s">
+      <c r="W17" s="28" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="30">
         <v>100402</v>
       </c>
@@ -9013,18 +8709,11 @@
       <c r="V18" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="W18" s="4">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X18,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
-        <v>2</v>
-      </c>
-      <c r="X18" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="Y18" s="4" t="s">
+      <c r="W18" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="32">
         <v>100403</v>
       </c>
@@ -9094,18 +8783,11 @@
       <c r="V19" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="W19" s="33">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X19,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
-        <v>2</v>
-      </c>
-      <c r="X19" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="Y19" s="33" t="s">
+      <c r="W19" s="33" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="27">
         <v>100501</v>
       </c>
@@ -9175,18 +8857,11 @@
       <c r="V20" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="W20" s="28">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X20,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
-        <v>2</v>
-      </c>
-      <c r="X20" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="Y20" s="28" t="s">
+      <c r="W20" s="28" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="30">
         <v>100502</v>
       </c>
@@ -9256,18 +8931,11 @@
       <c r="V21" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="W21" s="4">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X21,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
-        <v>2</v>
-      </c>
-      <c r="X21" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="Y21" s="4" t="s">
+      <c r="W21" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="32">
         <v>100503</v>
       </c>
@@ -9337,14 +9005,7 @@
       <c r="V22" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="W22" s="33">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$8,MATCH(X22,'!참조_ENUM'!$AQ$3:$AQ$8,0))</f>
-        <v>0</v>
-      </c>
-      <c r="X22" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="Y22" s="33"/>
+      <c r="W22" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9357,7 +9018,7 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8A7FC9F6-0204-4C88-A1F3-F45CC3ECCE6D}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$N$3:$N$4</xm:f>
@@ -9375,12 +9036,6 @@
             <xm:f>'!참조_ENUM'!$AE$3:$AE$10</xm:f>
           </x14:formula1>
           <xm:sqref>K5:K22</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CF316C48-BE21-47BC-9BEA-B8C7E392ED42}">
-          <x14:formula1>
-            <xm:f>'!참조_ENUM'!$AQ$3:$AQ$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>X5:X22</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Android/ExcelData/PCSkillTable.xlsx
+++ b/Android/ExcelData/PCSkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D76C0F-26CF-4ABB-997D-983DDBB57B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5E5E8C-E57C-47EC-BCBF-EA9375CA5199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -216,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O4" authorId="0" shapeId="0" xr:uid="{93AC76E1-6E8A-4B72-B4BE-FD7A4A091CB9}">
+    <comment ref="Q4" authorId="0" shapeId="0" xr:uid="{93AC76E1-6E8A-4B72-B4BE-FD7A4A091CB9}">
       <text>
         <r>
           <rPr>
@@ -231,7 +231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q4" authorId="0" shapeId="0" xr:uid="{4E8A52B8-B210-4A7B-BC9C-F6B17053F781}">
+    <comment ref="S4" authorId="0" shapeId="0" xr:uid="{4E8A52B8-B210-4A7B-BC9C-F6B17053F781}">
       <text>
         <r>
           <rPr>
@@ -594,7 +594,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W4" authorId="0" shapeId="0" xr:uid="{A402B58C-B420-4345-8EC5-0136DD80EAAE}">
+    <comment ref="Y4" authorId="0" shapeId="0" xr:uid="{A402B58C-B420-4345-8EC5-0136DD80EAAE}">
       <text>
         <r>
           <rPr>
@@ -1524,7 +1524,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="236">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2388,13 +2388,43 @@
   <si>
     <t>00_common</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Icons/Icon_Skill_Dummy</t>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENUM:EFFECT_COUNT_TYPE:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이펙트 카운트 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이펙트 카운트 타입(기획)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_count_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#effect_count_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 타겟에 개별적으로 발현되는 이펙트</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2451,8 +2481,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2485,12 +2521,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2498,6 +2528,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2740,7 +2782,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2795,13 +2837,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2813,13 +2852,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2858,28 +2891,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2897,10 +2930,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
@@ -2909,13 +2942,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2971,6 +3049,7 @@
       <sheetName val="@repeat_type"/>
       <sheetName val="@charge_type"/>
       <sheetName val="@sd_body_type"/>
+      <sheetName val="@effect_count_type"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -4531,6 +4610,57 @@
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
+      <sheetData sheetId="29">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_COUNT_TYPE</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>type</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>value</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>comment</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>SINGLE_EFFECT</v>
+          </cell>
+          <cell r="B5">
+            <v>1</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>전체 공격 등 대표 이펙트 하나만 발현되는 이펙트</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>EACH_TARGET_EFFECT</v>
+          </cell>
+          <cell r="B6">
+            <v>2</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>각 타겟에 개별적으로 발현되는 이펙트</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4833,10 +4963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCF2545-5B22-48B7-AA3A-4E88E574D583}">
-  <dimension ref="A1:AM81"/>
+  <dimension ref="A1:AQ81"/>
   <sheetViews>
     <sheetView topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AO1" sqref="AO1:AQ1048576"/>
+      <selection activeCell="AO5" sqref="AO5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4863,9 +4993,11 @@
     <col min="35" max="35" width="11.375" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="24.125" customWidth="1"/>
     <col min="39" max="39" width="48.375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="47" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'[1]@target_rule'!$A$1</f>
         <v>TARGET_RULE_TYPE</v>
@@ -4906,8 +5038,12 @@
         <f>'[1]@second_target_rule'!$A$1</f>
         <v>SECOND_TARGET_RULE_TYPE</v>
       </c>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AO1" t="str">
+        <f>'[1]@effect_count_type'!$A$1</f>
+        <v>EFFECT_COUNT_TYPE</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="str">
         <f>'[1]@target_rule'!$A3</f>
         <v>type</v>
@@ -5028,8 +5164,20 @@
         <f>'[1]@second_target_rule'!$C3</f>
         <v>comment</v>
       </c>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AO2" s="5" t="str">
+        <f>'[1]@effect_count_type'!$A3</f>
+        <v>type</v>
+      </c>
+      <c r="AP2" s="5" t="str">
+        <f>'[1]@effect_count_type'!$B3</f>
+        <v>value</v>
+      </c>
+      <c r="AQ2" s="1" t="str">
+        <f>'[1]@effect_count_type'!$C3</f>
+        <v>comment</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="str">
         <f>'[1]@target_rule'!$A4</f>
         <v>RANDOM</v>
@@ -5150,8 +5298,20 @@
         <f>'[1]@second_target_rule'!$C4</f>
         <v>NONE</v>
       </c>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AO3" s="4" t="str">
+        <f>'[1]@effect_count_type'!$A4</f>
+        <v>NONE</v>
+      </c>
+      <c r="AP3" s="4">
+        <f>'[1]@effect_count_type'!$B4</f>
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="4" t="str">
+        <f>'[1]@effect_count_type'!$C4</f>
+        <v>NONE</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="str">
         <f>'[1]@target_rule'!$A5</f>
         <v>SELF</v>
@@ -5272,8 +5432,20 @@
         <f>'[1]@second_target_rule'!$C5</f>
         <v>0 타겟을 중심으로 지정 반경내에 감지되는 타겟 검사</v>
       </c>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AO4" s="4" t="str">
+        <f>'[1]@effect_count_type'!$A5</f>
+        <v>SINGLE_EFFECT</v>
+      </c>
+      <c r="AP4" s="4">
+        <f>'[1]@effect_count_type'!$B5</f>
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="4" t="str">
+        <f>'[1]@effect_count_type'!$C5</f>
+        <v>전체 공격 등 대표 이펙트 하나만 발현되는 이펙트</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="str">
         <f>'[1]@target_rule'!$A6</f>
         <v>ALL</v>
@@ -5382,8 +5554,20 @@
         <f>'[1]@second_target_rule'!$C6</f>
         <v>1 타겟 뒤로 지정 반경내에 감지되는 타겟 검사</v>
       </c>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AO5" s="4" t="str">
+        <f>'[1]@effect_count_type'!$A6</f>
+        <v>EACH_TARGET_EFFECT</v>
+      </c>
+      <c r="AP5" s="4">
+        <f>'[1]@effect_count_type'!$B6</f>
+        <v>2</v>
+      </c>
+      <c r="AQ5" s="4" t="str">
+        <f>'[1]@effect_count_type'!$C6</f>
+        <v>각 타겟에 개별적으로 발현되는 이펙트</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="str">
         <f>'[1]@target_rule'!$A7</f>
         <v>ALL_WITHOUT_ME</v>
@@ -5470,7 +5654,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="str">
         <f>'[1]@target_rule'!$A8</f>
         <v>ALLY_WITHOUT_ME_NEAREST</v>
@@ -5532,7 +5716,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="str">
         <f>'[1]@target_rule'!$A9</f>
         <v>ALLY_WITHOUT_ME_FURTHEST</v>
@@ -5582,7 +5766,7 @@
         <v>12 타겟의 몸에서 즉시 효과 발동</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="str">
         <f>'[1]@target_rule'!$A10</f>
         <v>NEAREST</v>
@@ -5632,7 +5816,7 @@
         <v>13 타겟의 머리에서 즉시 효과 발동</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="str">
         <f>'[1]@target_rule'!$A11</f>
         <v>FURTHEST</v>
@@ -5682,7 +5866,7 @@
         <v>21 전체 선택(진영의 중앙)</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="str">
         <f>'[1]@target_rule'!$A12</f>
         <v>NEAREST_ADD_BACK_RANGE</v>
@@ -5720,7 +5904,7 @@
         <v>107 방어력 증가</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="str">
         <f>'[1]@target_rule'!$A13</f>
         <v>FURTHEST_ADD_FRONT_RANGE</v>
@@ -5758,7 +5942,7 @@
         <v>108 공격력 감소</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="str">
         <f>'[1]@target_rule'!$A14</f>
         <v>NEAREST_ADD_ARROUND_RANGE</v>
@@ -5796,7 +5980,7 @@
         <v>109 방어력 감소</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="str">
         <f>'[1]@target_rule'!$A15</f>
         <v>FURTHEST_ADD_ARROUND_RANGE</v>
@@ -5810,7 +5994,7 @@
         <v>11 가장 거리가 먼 적 우선 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로) 후 일정 영역내의 (주변) 타겟 추가 선택</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="str">
         <f>'[1]@target_rule'!$A16</f>
         <v>LOWEST_LIFE_VALUE</v>
@@ -5824,7 +6008,7 @@
         <v>3001 남은 체력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="str">
         <f>'[1]@target_rule'!$A17</f>
         <v>LOWEST_ATTACK</v>
@@ -6759,7 +6943,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="G5" sqref="G5:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6881,24 +7065,26 @@
       <c r="A5" s="7">
         <v>100001</v>
       </c>
-      <c r="B5" s="19" t="str">
+      <c r="B5" s="18" t="str">
         <f>VLOOKUP(A5,pc_skill_data!$B:$C,2,)</f>
         <v>힐러/일반/원거리 공격/공격력 100%</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="19">
         <v>2</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="18">
         <v>1</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19" t="s">
+      <c r="G5" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="H5" s="18" t="s">
         <v>227</v>
       </c>
       <c r="I5" s="4" t="s">
@@ -6912,24 +7098,26 @@
       <c r="A6" s="7">
         <v>100002</v>
       </c>
-      <c r="B6" s="19" t="str">
+      <c r="B6" s="18" t="str">
         <f>VLOOKUP(A6,pc_skill_data!$B:$C,2,)</f>
         <v>힐러/스킬1/원거리 스킬/체력이 가장 낮은 아군 체력 회복(즉발형)</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="19">
         <v>2</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="18">
         <v>2</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19" t="s">
+      <c r="G6" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="H6" s="18" t="s">
         <v>204</v>
       </c>
       <c r="I6" s="4" t="s">
@@ -6943,24 +7131,26 @@
       <c r="A7" s="7">
         <v>100003</v>
       </c>
-      <c r="B7" s="19" t="str">
+      <c r="B7" s="18" t="str">
         <f>VLOOKUP(A7,pc_skill_data!$B:$C,2,)</f>
         <v>힐러/스킬2/원거리 스킬/전방의 적 1명 공격(발사체 발사)</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="19">
         <v>2</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="18">
         <v>3</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19" t="s">
+      <c r="G7" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="H7" s="18" t="s">
         <v>205</v>
       </c>
       <c r="I7" s="4" t="s">
@@ -6974,24 +7164,26 @@
       <c r="A8" s="7">
         <v>100101</v>
       </c>
-      <c r="B8" s="19" t="str">
+      <c r="B8" s="18" t="str">
         <f>VLOOKUP(A8,pc_skill_data!$B:$C,2,)</f>
         <v>근딜/일반 (공격력 100%)</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="19">
         <v>2</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="18">
         <v>1</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19" t="s">
+      <c r="G8" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="H8" s="18" t="s">
         <v>158</v>
       </c>
       <c r="I8" s="4"/>
@@ -7003,24 +7195,26 @@
       <c r="A9" s="7">
         <v>100102</v>
       </c>
-      <c r="B9" s="19" t="str">
+      <c r="B9" s="18" t="str">
         <f>VLOOKUP(A9,pc_skill_data!$B:$C,2,)</f>
         <v>근딜/나/공격력 증가 버프 (20%)</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="19">
         <v>2</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="18">
         <v>2</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19" t="s">
+      <c r="G9" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="H9" s="18" t="s">
         <v>157</v>
       </c>
       <c r="I9" s="4"/>
@@ -7032,24 +7226,26 @@
       <c r="A10" s="7">
         <v>100103</v>
       </c>
-      <c r="B10" s="19" t="str">
+      <c r="B10" s="18" t="str">
         <f>VLOOKUP(A10,pc_skill_data!$B:$C,2,)</f>
         <v>근딜/근접공격/대미지(공격력 130%)</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="19">
         <v>2</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="18">
         <v>3</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19" t="s">
+      <c r="G10" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="H10" s="18" t="s">
         <v>161</v>
       </c>
       <c r="I10" s="4"/>
@@ -7061,24 +7257,26 @@
       <c r="A11" s="7">
         <v>100201</v>
       </c>
-      <c r="B11" s="19" t="str">
+      <c r="B11" s="18" t="str">
         <f>VLOOKUP(A11,pc_skill_data!$B:$C,2,)</f>
         <v>원딜/일반</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="19">
         <v>2</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="18">
         <v>1</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19" t="s">
+      <c r="G11" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="H11" s="18" t="s">
         <v>158</v>
       </c>
       <c r="I11" s="4"/>
@@ -7090,24 +7288,26 @@
       <c r="A12" s="7">
         <v>100202</v>
       </c>
-      <c r="B12" s="19" t="str">
+      <c r="B12" s="18" t="str">
         <f>VLOOKUP(A12,pc_skill_data!$B:$C,2,)</f>
         <v>원딜/스킬1/대미지 (스킬 대미지 120%)</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="19">
         <v>2</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="18">
         <v>2</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19" t="s">
+      <c r="G12" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="H12" s="18" t="s">
         <v>157</v>
       </c>
       <c r="I12" s="4"/>
@@ -7119,24 +7319,26 @@
       <c r="A13" s="7">
         <v>100203</v>
       </c>
-      <c r="B13" s="19" t="str">
+      <c r="B13" s="18" t="str">
         <f>VLOOKUP(A13,pc_skill_data!$B:$C,2,)</f>
         <v>원딜/스킬2/범위공격 (스킬 대미지 80%)</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="19">
         <v>2</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="18">
         <v>3</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19" t="s">
+      <c r="G13" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="H13" s="18" t="s">
         <v>161</v>
       </c>
       <c r="I13" s="4"/>
@@ -7148,24 +7350,26 @@
       <c r="A14" s="7">
         <v>100301</v>
       </c>
-      <c r="B14" s="19" t="str">
+      <c r="B14" s="18" t="str">
         <f>VLOOKUP(A14,pc_skill_data!$B:$C,2,)</f>
         <v>원서폿/일반</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="19">
         <v>2</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="18">
         <v>1</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19" t="s">
+      <c r="G14" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="H14" s="18" t="s">
         <v>158</v>
       </c>
       <c r="I14" s="4"/>
@@ -7177,24 +7381,26 @@
       <c r="A15" s="7">
         <v>100302</v>
       </c>
-      <c r="B15" s="19" t="str">
+      <c r="B15" s="18" t="str">
         <f>VLOOKUP(A15,pc_skill_data!$B:$C,2,)</f>
         <v>원서폿/스킬1/전방 방어력 감소(20%)</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="19">
         <v>2</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="18">
         <v>2</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19" t="s">
+      <c r="G15" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="H15" s="18" t="s">
         <v>157</v>
       </c>
       <c r="I15" s="4"/>
@@ -7206,24 +7412,26 @@
       <c r="A16" s="7">
         <v>100303</v>
       </c>
-      <c r="B16" s="19" t="str">
+      <c r="B16" s="18" t="str">
         <f>VLOOKUP(A16,pc_skill_data!$B:$C,2,)</f>
         <v>원서폿/스킬2/대미지 (공격력 120%)</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="19">
         <v>2</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="18">
         <v>3</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19" t="s">
+      <c r="G16" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="H16" s="18" t="s">
         <v>161</v>
       </c>
       <c r="I16" s="4"/>
@@ -7235,24 +7443,26 @@
       <c r="A17" s="7">
         <v>100401</v>
       </c>
-      <c r="B17" s="19" t="str">
+      <c r="B17" s="18" t="str">
         <f>VLOOKUP(A17,pc_skill_data!$B:$C,2,)</f>
         <v>원힐/일반</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="19">
         <v>2</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="18">
         <v>1</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19" t="s">
+      <c r="G17" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="H17" s="18" t="s">
         <v>158</v>
       </c>
       <c r="I17" s="4"/>
@@ -7264,7 +7474,7 @@
       <c r="A18" s="7">
         <v>100402</v>
       </c>
-      <c r="B18" s="19" t="str">
+      <c r="B18" s="18" t="str">
         <f>VLOOKUP(A18,pc_skill_data!$B:$C,2,)</f>
         <v>원힐/스킬1/체력이 가장 낮은 아군 회복(최대 체력 30%)</v>
       </c>
@@ -7277,10 +7487,12 @@
       <c r="E18" s="4">
         <v>2</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="G18" s="4"/>
+      <c r="G18" s="56" t="s">
+        <v>228</v>
+      </c>
       <c r="H18" s="4" t="s">
         <v>157</v>
       </c>
@@ -7293,7 +7505,7 @@
       <c r="A19" s="7">
         <v>100403</v>
       </c>
-      <c r="B19" s="19" t="str">
+      <c r="B19" s="18" t="str">
         <f>VLOOKUP(A19,pc_skill_data!$B:$C,2,)</f>
         <v>원힐/스킬2/대미지 (스킬 대미지 120%)</v>
       </c>
@@ -7306,10 +7518,12 @@
       <c r="E19" s="4">
         <v>3</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="G19" s="4"/>
+      <c r="G19" s="56" t="s">
+        <v>228</v>
+      </c>
       <c r="H19" s="4" t="s">
         <v>161</v>
       </c>
@@ -7322,24 +7536,26 @@
       <c r="A20" s="7">
         <v>100501</v>
       </c>
-      <c r="B20" s="19" t="str">
+      <c r="B20" s="18" t="str">
         <f>VLOOKUP(A20,pc_skill_data!$B:$C,2,)</f>
         <v>원딜/일반</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="19">
         <v>2</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="18">
         <v>1</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19" t="s">
+      <c r="G20" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="H20" s="18" t="s">
         <v>158</v>
       </c>
       <c r="I20" s="4"/>
@@ -7351,7 +7567,7 @@
       <c r="A21" s="7">
         <v>100502</v>
       </c>
-      <c r="B21" s="19" t="str">
+      <c r="B21" s="18" t="str">
         <f>VLOOKUP(A21,pc_skill_data!$B:$C,2,)</f>
         <v>원딜/전방/공격력 감소(15%)</v>
       </c>
@@ -7364,11 +7580,13 @@
       <c r="E21" s="4">
         <v>2</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="19" t="s">
+      <c r="G21" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="H21" s="18" t="s">
         <v>157</v>
       </c>
       <c r="I21" s="4"/>
@@ -7380,7 +7598,7 @@
       <c r="A22" s="7">
         <v>100503</v>
       </c>
-      <c r="B22" s="19" t="str">
+      <c r="B22" s="18" t="str">
         <f>VLOOKUP(A22,pc_skill_data!$B:$C,2,)</f>
         <v>원딜/스킬2/대미지 (스킬 대미지 130%)</v>
       </c>
@@ -7393,10 +7611,12 @@
       <c r="E22" s="4">
         <v>3</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="G22" s="56" t="s">
+        <v>228</v>
+      </c>
       <c r="H22" s="4" t="s">
         <v>161</v>
       </c>
@@ -7425,13 +7645,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00F7AA3-FB12-454D-93A6-31450B9003EC}">
-  <dimension ref="A1:W22"/>
+  <dimension ref="A1:Y22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="O5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P36" sqref="P36"/>
+      <selection pane="bottomRight" activeCell="K5" sqref="K5:K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7444,21 +7664,23 @@
     <col min="6" max="6" width="59" style="9" customWidth="1"/>
     <col min="7" max="7" width="9.75" customWidth="1"/>
     <col min="8" max="9" width="9.125" customWidth="1"/>
-    <col min="10" max="10" width="17.875" customWidth="1"/>
-    <col min="11" max="11" width="28.125" customWidth="1"/>
-    <col min="12" max="12" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.375" customWidth="1"/>
-    <col min="14" max="14" width="22.375" customWidth="1"/>
-    <col min="15" max="16" width="16.375" customWidth="1"/>
-    <col min="17" max="17" width="18" customWidth="1"/>
-    <col min="18" max="18" width="19" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="19.25" customWidth="1"/>
-    <col min="22" max="22" width="10.875" customWidth="1"/>
-    <col min="23" max="23" width="69.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.375" customWidth="1"/>
+    <col min="11" max="11" width="18.625" customWidth="1"/>
+    <col min="12" max="12" width="17.875" style="64" customWidth="1"/>
+    <col min="13" max="13" width="28.125" style="64" customWidth="1"/>
+    <col min="14" max="14" width="16.375" style="64" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.375" customWidth="1"/>
+    <col min="16" max="16" width="22.375" customWidth="1"/>
+    <col min="17" max="18" width="16.375" customWidth="1"/>
+    <col min="19" max="19" width="18" customWidth="1"/>
+    <col min="20" max="20" width="19" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="19.25" customWidth="1"/>
+    <col min="24" max="24" width="10.875" customWidth="1"/>
+    <col min="25" max="25" width="69.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -7471,9 +7693,9 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
@@ -7481,8 +7703,10 @@
       <c r="S1" s="6"/>
       <c r="T1" s="6"/>
       <c r="U1" s="6"/>
-    </row>
-    <row r="2" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+    </row>
+    <row r="2" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -7511,49 +7735,55 @@
         <v>165</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="L2" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
@@ -7582,31 +7812,31 @@
         <v>8</v>
       </c>
       <c r="J3" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="L3" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="M3" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="N3" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="O3" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="P3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="P3" s="11" t="s">
+      <c r="Q3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="11" t="s">
         <v>8</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>72</v>
       </c>
       <c r="S3" s="11" t="s">
         <v>72</v>
@@ -7618,163 +7848,182 @@
         <v>72</v>
       </c>
       <c r="V3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="W3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="X3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="W3" s="11" t="s">
+      <c r="Y3" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="L4" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="M4" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="N4" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="21" t="s">
+      <c r="O4" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="P4" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="O4" s="21" t="s">
+      <c r="Q4" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="P4" s="21" t="s">
+      <c r="R4" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="Q4" s="21" t="s">
+      <c r="S4" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="R4" s="21" t="s">
+      <c r="T4" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="S4" s="21" t="s">
+      <c r="U4" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="T4" s="21" t="s">
+      <c r="V4" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="U4" s="21" t="s">
+      <c r="W4" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="V4" s="21" t="s">
+      <c r="X4" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="W4" s="21" t="s">
+      <c r="Y4" s="20" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27">
+    <row r="5" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="24">
         <v>100001</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="22">
         <v>100001</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="44" t="s">
         <v>206</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="22">
         <v>1</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="22">
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F5,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="G5" s="23">
-        <v>0</v>
-      </c>
-      <c r="H5" s="23">
+      <c r="G5" s="22">
+        <v>0</v>
+      </c>
+      <c r="H5" s="22">
         <v>1</v>
       </c>
-      <c r="I5" s="23">
-        <v>0</v>
-      </c>
-      <c r="J5" s="23">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K5,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="24" t="s">
+      <c r="I5" s="22">
+        <v>0</v>
+      </c>
+      <c r="J5" s="22">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K5,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="68" t="s">
         <v>185</v>
       </c>
-      <c r="L5" s="23">
-        <v>0</v>
-      </c>
-      <c r="M5" s="28">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N5,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="56" t="s">
+      <c r="L5" s="61">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M5,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="65" t="s">
         <v>185</v>
       </c>
-      <c r="O5" s="28">
-        <v>0</v>
-      </c>
-      <c r="P5" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="23">
+      <c r="N5" s="61">
+        <v>0</v>
+      </c>
+      <c r="O5" s="25">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P5,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q5" s="25">
+        <v>0</v>
+      </c>
+      <c r="R5" s="25">
+        <v>0</v>
+      </c>
+      <c r="S5" s="22">
         <v>100</v>
       </c>
-      <c r="R5" s="28">
+      <c r="T5" s="25">
         <v>100001</v>
       </c>
-      <c r="S5" s="28">
-        <v>0</v>
-      </c>
-      <c r="T5" s="28">
-        <v>0</v>
-      </c>
-      <c r="U5" s="28">
-        <v>0</v>
-      </c>
-      <c r="V5" s="28" t="s">
+      <c r="U5" s="25">
+        <v>0</v>
+      </c>
+      <c r="V5" s="25">
+        <v>0</v>
+      </c>
+      <c r="W5" s="25">
+        <v>0</v>
+      </c>
+      <c r="X5" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="28"/>
-    </row>
-    <row r="6" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30">
+      <c r="Y5" s="25"/>
+    </row>
+    <row r="6" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27">
         <v>100002</v>
       </c>
       <c r="B6" s="7">
         <v>100002</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="45" t="s">
         <v>207</v>
       </c>
       <c r="D6" s="7">
@@ -7784,7 +8033,7 @@
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F6,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>3001</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="41" t="s">
         <v>210</v>
       </c>
       <c r="G6" s="7">
@@ -7797,200 +8046,221 @@
         <v>0</v>
       </c>
       <c r="J6" s="7">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K6,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="18" t="s">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K6,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="69" t="s">
         <v>185</v>
       </c>
-      <c r="L6" s="7">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N6,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="57" t="s">
+      <c r="L6" s="62">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M6,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="66" t="s">
         <v>185</v>
       </c>
+      <c r="N6" s="62">
+        <v>0</v>
+      </c>
       <c r="O6" s="4">
-        <v>0</v>
-      </c>
-      <c r="P6" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="7">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P6,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4">
+        <v>0</v>
+      </c>
+      <c r="S6" s="7">
         <v>100</v>
       </c>
-      <c r="R6" s="4">
+      <c r="T6" s="4">
         <v>100002</v>
       </c>
-      <c r="S6" s="4">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4">
-        <v>0</v>
-      </c>
       <c r="U6" s="4">
         <v>0</v>
       </c>
-      <c r="V6" s="4" t="s">
+      <c r="V6" s="4">
+        <v>0</v>
+      </c>
+      <c r="W6" s="4">
+        <v>0</v>
+      </c>
+      <c r="X6" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="W6" s="4"/>
-    </row>
-    <row r="7" spans="1:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="32">
+      <c r="Y6" s="4"/>
+    </row>
+    <row r="7" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="29">
         <v>100003</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="23">
         <v>100003</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="46" t="s">
         <v>208</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="23">
         <v>1</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="23">
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F7,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="G7" s="25">
-        <v>0</v>
-      </c>
-      <c r="H7" s="25">
+      <c r="G7" s="23">
+        <v>0</v>
+      </c>
+      <c r="H7" s="23">
         <v>1</v>
       </c>
-      <c r="I7" s="25">
-        <v>0</v>
-      </c>
-      <c r="J7" s="25">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K7,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="26" t="s">
+      <c r="I7" s="23">
+        <v>0</v>
+      </c>
+      <c r="J7" s="23">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K7,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="70" t="s">
         <v>185</v>
       </c>
-      <c r="L7" s="25">
-        <v>0</v>
-      </c>
-      <c r="M7" s="33">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N7,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="58" t="s">
+      <c r="L7" s="63">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M7,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="67" t="s">
         <v>185</v>
       </c>
-      <c r="O7" s="33">
-        <v>0</v>
-      </c>
-      <c r="P7" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="25">
+      <c r="N7" s="63">
+        <v>0</v>
+      </c>
+      <c r="O7" s="30">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P7,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="55" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q7" s="30">
+        <v>0</v>
+      </c>
+      <c r="R7" s="30">
+        <v>0</v>
+      </c>
+      <c r="S7" s="23">
         <v>100</v>
       </c>
-      <c r="R7" s="33">
+      <c r="T7" s="30">
         <v>100003</v>
       </c>
-      <c r="S7" s="33">
-        <v>0</v>
-      </c>
-      <c r="T7" s="33">
-        <v>0</v>
-      </c>
-      <c r="U7" s="33">
-        <v>0</v>
-      </c>
-      <c r="V7" s="33" t="s">
+      <c r="U7" s="30">
+        <v>0</v>
+      </c>
+      <c r="V7" s="30">
+        <v>0</v>
+      </c>
+      <c r="W7" s="30">
+        <v>0</v>
+      </c>
+      <c r="X7" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="W7" s="33"/>
-    </row>
-    <row r="8" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27">
+      <c r="Y7" s="30"/>
+    </row>
+    <row r="8" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="24">
         <v>100101</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="22">
         <v>100101</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="22">
         <v>1</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="22">
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F8,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F8" s="43" t="s">
+      <c r="F8" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="G8" s="23">
-        <v>0</v>
-      </c>
-      <c r="H8" s="23">
+      <c r="G8" s="22">
+        <v>0</v>
+      </c>
+      <c r="H8" s="22">
         <v>1</v>
       </c>
-      <c r="I8" s="23">
-        <v>0</v>
-      </c>
-      <c r="J8" s="23">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K8,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="24" t="s">
+      <c r="I8" s="22">
+        <v>0</v>
+      </c>
+      <c r="J8" s="22">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K8,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="68" t="s">
         <v>185</v>
       </c>
-      <c r="L8" s="23">
-        <v>0</v>
-      </c>
-      <c r="M8" s="28">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N8,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="56" t="s">
+      <c r="L8" s="61">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M8,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="65" t="s">
         <v>185</v>
       </c>
-      <c r="O8" s="28">
-        <v>0</v>
-      </c>
-      <c r="P8" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="23">
+      <c r="N8" s="61">
+        <v>0</v>
+      </c>
+      <c r="O8" s="25">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P8,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q8" s="25">
+        <v>0</v>
+      </c>
+      <c r="R8" s="25">
+        <v>0</v>
+      </c>
+      <c r="S8" s="22">
         <v>100</v>
       </c>
-      <c r="R8" s="28">
+      <c r="T8" s="25">
         <v>100004</v>
       </c>
-      <c r="S8" s="28">
-        <v>0</v>
-      </c>
-      <c r="T8" s="28">
-        <v>0</v>
-      </c>
-      <c r="U8" s="28">
-        <v>0</v>
-      </c>
-      <c r="V8" s="28" t="s">
+      <c r="U8" s="25">
+        <v>0</v>
+      </c>
+      <c r="V8" s="25">
+        <v>0</v>
+      </c>
+      <c r="W8" s="25">
+        <v>0</v>
+      </c>
+      <c r="X8" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="W8" s="28"/>
-    </row>
-    <row r="9" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30">
+      <c r="Y8" s="25"/>
+    </row>
+    <row r="9" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="27">
         <v>100102</v>
       </c>
       <c r="B9" s="7">
         <v>100102</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="45" t="s">
         <v>162</v>
       </c>
       <c r="D9" s="7">
@@ -8000,7 +8270,7 @@
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F9,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>1</v>
       </c>
-      <c r="F9" s="44" t="s">
+      <c r="F9" s="41" t="s">
         <v>182</v>
       </c>
       <c r="G9" s="7">
@@ -8013,200 +8283,221 @@
         <v>0</v>
       </c>
       <c r="J9" s="7">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K9,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="18" t="s">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K9,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="69" t="s">
         <v>185</v>
       </c>
-      <c r="L9" s="7">
-        <v>0</v>
-      </c>
-      <c r="M9" s="4">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N9,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="57" t="s">
+      <c r="L9" s="62">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M9,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="66" t="s">
         <v>185</v>
       </c>
+      <c r="N9" s="62">
+        <v>0</v>
+      </c>
       <c r="O9" s="4">
-        <v>0</v>
-      </c>
-      <c r="P9" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="7">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P9,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>0</v>
+      </c>
+      <c r="R9" s="4">
+        <v>0</v>
+      </c>
+      <c r="S9" s="7">
         <v>100</v>
       </c>
-      <c r="R9" s="4">
-        <v>0</v>
-      </c>
-      <c r="S9" s="4">
+      <c r="T9" s="4">
+        <v>0</v>
+      </c>
+      <c r="U9" s="4">
         <v>500002</v>
       </c>
-      <c r="T9" s="4">
-        <v>0</v>
-      </c>
-      <c r="U9" s="4">
-        <v>0</v>
-      </c>
-      <c r="V9" s="4" t="s">
+      <c r="V9" s="4">
+        <v>0</v>
+      </c>
+      <c r="W9" s="4">
+        <v>0</v>
+      </c>
+      <c r="X9" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="W9" s="4"/>
-    </row>
-    <row r="10" spans="1:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="32">
+      <c r="Y9" s="4"/>
+    </row>
+    <row r="10" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="29">
         <v>100103</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="23">
         <v>100103</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="23">
         <v>1</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="23">
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F10,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F10" s="45" t="s">
+      <c r="F10" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="G10" s="25">
-        <v>0</v>
-      </c>
-      <c r="H10" s="25">
+      <c r="G10" s="23">
+        <v>0</v>
+      </c>
+      <c r="H10" s="23">
         <v>1</v>
       </c>
-      <c r="I10" s="25">
-        <v>0</v>
-      </c>
-      <c r="J10" s="25">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K10,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="26" t="s">
+      <c r="I10" s="23">
+        <v>0</v>
+      </c>
+      <c r="J10" s="23">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K10,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="70" t="s">
         <v>185</v>
       </c>
-      <c r="L10" s="25">
-        <v>0</v>
-      </c>
-      <c r="M10" s="33">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N10,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="58" t="s">
+      <c r="L10" s="63">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M10,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="67" t="s">
         <v>185</v>
       </c>
-      <c r="O10" s="33">
-        <v>0</v>
-      </c>
-      <c r="P10" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="25" t="s">
+      <c r="N10" s="63">
+        <v>0</v>
+      </c>
+      <c r="O10" s="30">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P10,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="55" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q10" s="30">
+        <v>0</v>
+      </c>
+      <c r="R10" s="30">
+        <v>0</v>
+      </c>
+      <c r="S10" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="R10" s="33">
+      <c r="T10" s="30">
         <v>100006</v>
       </c>
-      <c r="S10" s="33">
-        <v>0</v>
-      </c>
-      <c r="T10" s="33">
-        <v>0</v>
-      </c>
-      <c r="U10" s="33">
-        <v>0</v>
-      </c>
-      <c r="V10" s="33" t="s">
+      <c r="U10" s="30">
+        <v>0</v>
+      </c>
+      <c r="V10" s="30">
+        <v>0</v>
+      </c>
+      <c r="W10" s="30">
+        <v>0</v>
+      </c>
+      <c r="X10" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="W10" s="33"/>
-    </row>
-    <row r="11" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="27">
+      <c r="Y10" s="30"/>
+    </row>
+    <row r="11" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="24">
         <v>100201</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="22">
         <v>100201</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="22">
         <v>1</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="22">
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F11,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F11" s="43" t="s">
+      <c r="F11" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="G11" s="23">
-        <v>0</v>
-      </c>
-      <c r="H11" s="23">
+      <c r="G11" s="22">
+        <v>0</v>
+      </c>
+      <c r="H11" s="22">
         <v>1</v>
       </c>
-      <c r="I11" s="23">
-        <v>0</v>
-      </c>
-      <c r="J11" s="23">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K11,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="24" t="s">
+      <c r="I11" s="22">
+        <v>0</v>
+      </c>
+      <c r="J11" s="22">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K11,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="68" t="s">
         <v>185</v>
       </c>
-      <c r="L11" s="23">
-        <v>0</v>
-      </c>
-      <c r="M11" s="28">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N11,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="56" t="s">
+      <c r="L11" s="61">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M11,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="65" t="s">
         <v>185</v>
       </c>
-      <c r="O11" s="28">
-        <v>0</v>
-      </c>
-      <c r="P11" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="23">
+      <c r="N11" s="61">
+        <v>0</v>
+      </c>
+      <c r="O11" s="25">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P11,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q11" s="25">
+        <v>0</v>
+      </c>
+      <c r="R11" s="25">
+        <v>0</v>
+      </c>
+      <c r="S11" s="22">
         <v>100</v>
       </c>
-      <c r="R11" s="28">
+      <c r="T11" s="25">
         <v>100007</v>
       </c>
-      <c r="S11" s="28">
-        <v>0</v>
-      </c>
-      <c r="T11" s="28">
-        <v>0</v>
-      </c>
-      <c r="U11" s="28">
-        <v>0</v>
-      </c>
-      <c r="V11" s="28" t="s">
+      <c r="U11" s="25">
+        <v>0</v>
+      </c>
+      <c r="V11" s="25">
+        <v>0</v>
+      </c>
+      <c r="W11" s="25">
+        <v>0</v>
+      </c>
+      <c r="X11" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="W11" s="28"/>
-    </row>
-    <row r="12" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30">
+      <c r="Y11" s="25"/>
+    </row>
+    <row r="12" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="27">
         <v>100202</v>
       </c>
       <c r="B12" s="7">
         <v>100202</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="45" t="s">
         <v>129</v>
       </c>
       <c r="D12" s="7">
@@ -8216,7 +8507,7 @@
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F12,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F12" s="44" t="s">
+      <c r="F12" s="41" t="s">
         <v>181</v>
       </c>
       <c r="G12" s="7">
@@ -8229,202 +8520,223 @@
         <v>0</v>
       </c>
       <c r="J12" s="7">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K12,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="18" t="s">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K12,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="69" t="s">
         <v>185</v>
       </c>
-      <c r="L12" s="7">
-        <v>0</v>
-      </c>
-      <c r="M12" s="4">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N12,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="57" t="s">
+      <c r="L12" s="62">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M12,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="66" t="s">
         <v>185</v>
       </c>
+      <c r="N12" s="62">
+        <v>0</v>
+      </c>
       <c r="O12" s="4">
-        <v>0</v>
-      </c>
-      <c r="P12" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="7">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P12,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>0</v>
+      </c>
+      <c r="R12" s="4">
+        <v>0</v>
+      </c>
+      <c r="S12" s="7">
         <v>100</v>
       </c>
-      <c r="R12" s="4">
+      <c r="T12" s="4">
         <v>100008</v>
       </c>
-      <c r="S12" s="4">
-        <v>0</v>
-      </c>
-      <c r="T12" s="4">
-        <v>0</v>
-      </c>
       <c r="U12" s="4">
         <v>0</v>
       </c>
-      <c r="V12" s="4" t="s">
+      <c r="V12" s="4">
+        <v>0</v>
+      </c>
+      <c r="W12" s="4">
+        <v>0</v>
+      </c>
+      <c r="X12" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="W12" s="4"/>
-    </row>
-    <row r="13" spans="1:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="32">
+      <c r="Y12" s="4"/>
+    </row>
+    <row r="13" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="29">
         <v>100203</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="23">
         <v>100203</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="23">
         <v>1</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="23">
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F13,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>10</v>
       </c>
-      <c r="F13" s="45" t="s">
+      <c r="F13" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="G13" s="25">
-        <v>0</v>
-      </c>
-      <c r="H13" s="25">
+      <c r="G13" s="23">
+        <v>0</v>
+      </c>
+      <c r="H13" s="23">
         <v>5</v>
       </c>
-      <c r="I13" s="25">
+      <c r="I13" s="23">
         <v>7</v>
       </c>
-      <c r="J13" s="25">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K13,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="26" t="s">
+      <c r="J13" s="23">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K13,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="70" t="s">
         <v>185</v>
       </c>
-      <c r="L13" s="25">
-        <v>0</v>
-      </c>
-      <c r="M13" s="33">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N13,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="N13" s="58" t="s">
+      <c r="L13" s="63">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M13,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="67" t="s">
         <v>185</v>
       </c>
-      <c r="O13" s="33">
-        <v>0</v>
-      </c>
-      <c r="P13" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="25" t="s">
+      <c r="N13" s="63">
+        <v>0</v>
+      </c>
+      <c r="O13" s="30">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P13,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="55" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q13" s="30">
+        <v>0</v>
+      </c>
+      <c r="R13" s="30">
+        <v>0</v>
+      </c>
+      <c r="S13" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="R13" s="33">
+      <c r="T13" s="30">
         <v>100009</v>
       </c>
-      <c r="S13" s="33">
-        <v>0</v>
-      </c>
-      <c r="T13" s="33">
-        <v>0</v>
-      </c>
-      <c r="U13" s="33">
-        <v>0</v>
-      </c>
-      <c r="V13" s="33" t="s">
+      <c r="U13" s="30">
+        <v>0</v>
+      </c>
+      <c r="V13" s="30">
+        <v>0</v>
+      </c>
+      <c r="W13" s="30">
+        <v>0</v>
+      </c>
+      <c r="X13" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="W13" s="33"/>
-    </row>
-    <row r="14" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="27">
+      <c r="Y13" s="30"/>
+    </row>
+    <row r="14" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="24">
         <v>100301</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="22">
         <v>100301</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="22">
         <v>1</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="22">
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F14,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F14" s="43" t="s">
+      <c r="F14" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="G14" s="23">
-        <v>0</v>
-      </c>
-      <c r="H14" s="23">
+      <c r="G14" s="22">
+        <v>0</v>
+      </c>
+      <c r="H14" s="22">
         <v>1</v>
       </c>
-      <c r="I14" s="23">
-        <v>0</v>
-      </c>
-      <c r="J14" s="23">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K14,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+      <c r="I14" s="22">
+        <v>0</v>
+      </c>
+      <c r="J14" s="22">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K14,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K14" s="24" t="s">
+      <c r="K14" s="68" t="s">
+        <v>235</v>
+      </c>
+      <c r="L14" s="61">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M14,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+        <v>2</v>
+      </c>
+      <c r="M14" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="L14" s="23">
+      <c r="N14" s="61">
         <v>20</v>
       </c>
-      <c r="M14" s="28">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N14,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="N14" s="56" t="s">
+      <c r="O14" s="25">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P14,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="O14" s="28">
-        <v>0</v>
-      </c>
-      <c r="P14" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="23">
+      <c r="Q14" s="25">
+        <v>0</v>
+      </c>
+      <c r="R14" s="25">
+        <v>0</v>
+      </c>
+      <c r="S14" s="22">
         <v>100</v>
       </c>
-      <c r="R14" s="28">
+      <c r="T14" s="25">
         <v>100010</v>
       </c>
-      <c r="S14" s="28">
-        <v>0</v>
-      </c>
-      <c r="T14" s="28">
-        <v>0</v>
-      </c>
-      <c r="U14" s="28">
-        <v>0</v>
-      </c>
-      <c r="V14" s="28" t="s">
+      <c r="U14" s="25">
+        <v>0</v>
+      </c>
+      <c r="V14" s="25">
+        <v>0</v>
+      </c>
+      <c r="W14" s="25">
+        <v>0</v>
+      </c>
+      <c r="X14" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="W14" s="28" t="s">
+      <c r="Y14" s="25" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30">
+    <row r="15" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="27">
         <v>100302</v>
       </c>
       <c r="B15" s="7">
         <v>100302</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="45" t="s">
         <v>168</v>
       </c>
       <c r="D15" s="7">
@@ -8434,7 +8746,7 @@
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F15,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F15" s="44" t="s">
+      <c r="F15" s="41" t="s">
         <v>181</v>
       </c>
       <c r="G15" s="7">
@@ -8447,206 +8759,227 @@
         <v>0</v>
       </c>
       <c r="J15" s="7">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K15,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K15,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K15" s="18" t="s">
+      <c r="K15" s="69" t="s">
+        <v>235</v>
+      </c>
+      <c r="L15" s="62">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M15,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+        <v>2</v>
+      </c>
+      <c r="M15" s="66" t="s">
         <v>186</v>
       </c>
-      <c r="L15" s="7">
+      <c r="N15" s="62">
         <v>20</v>
       </c>
-      <c r="M15" s="4">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N15,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="N15" s="57" t="s">
+      <c r="O15" s="4">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P15,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="O15" s="4">
-        <v>0</v>
-      </c>
-      <c r="P15" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="7">
+      <c r="Q15" s="4">
+        <v>0</v>
+      </c>
+      <c r="R15" s="4">
+        <v>0</v>
+      </c>
+      <c r="S15" s="7">
         <v>100</v>
       </c>
-      <c r="R15" s="4">
-        <v>0</v>
-      </c>
-      <c r="S15" s="4">
+      <c r="T15" s="4">
+        <v>0</v>
+      </c>
+      <c r="U15" s="4">
         <v>500006</v>
       </c>
-      <c r="T15" s="4">
-        <v>0</v>
-      </c>
-      <c r="U15" s="4">
-        <v>0</v>
-      </c>
-      <c r="V15" s="4" t="s">
+      <c r="V15" s="4">
+        <v>0</v>
+      </c>
+      <c r="W15" s="4">
+        <v>0</v>
+      </c>
+      <c r="X15" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="W15" s="4" t="s">
+      <c r="Y15" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="32">
+    <row r="16" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="29">
         <v>100303</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="23">
         <v>100303</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="23">
         <v>1</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="23">
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F16,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F16" s="45" t="s">
+      <c r="F16" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="G16" s="25">
-        <v>0</v>
-      </c>
-      <c r="H16" s="25">
+      <c r="G16" s="23">
+        <v>0</v>
+      </c>
+      <c r="H16" s="23">
         <v>1</v>
       </c>
-      <c r="I16" s="25">
-        <v>0</v>
-      </c>
-      <c r="J16" s="25">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K16,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+      <c r="I16" s="23">
+        <v>0</v>
+      </c>
+      <c r="J16" s="23">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K16,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K16" s="26" t="s">
+      <c r="K16" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="L16" s="63">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M16,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+        <v>2</v>
+      </c>
+      <c r="M16" s="67" t="s">
         <v>186</v>
       </c>
-      <c r="L16" s="25">
+      <c r="N16" s="63">
         <v>20</v>
       </c>
-      <c r="M16" s="33">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N16,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="58" t="s">
+      <c r="O16" s="30">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P16,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="O16" s="33">
-        <v>0</v>
-      </c>
-      <c r="P16" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="25" t="s">
+      <c r="Q16" s="30">
+        <v>0</v>
+      </c>
+      <c r="R16" s="30">
+        <v>0</v>
+      </c>
+      <c r="S16" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="R16" s="33">
+      <c r="T16" s="30">
         <v>100011</v>
       </c>
-      <c r="S16" s="33">
-        <v>0</v>
-      </c>
-      <c r="T16" s="33">
-        <v>0</v>
-      </c>
-      <c r="U16" s="33">
-        <v>0</v>
-      </c>
-      <c r="V16" s="33" t="s">
+      <c r="U16" s="30">
+        <v>0</v>
+      </c>
+      <c r="V16" s="30">
+        <v>0</v>
+      </c>
+      <c r="W16" s="30">
+        <v>0</v>
+      </c>
+      <c r="X16" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="W16" s="33" t="s">
+      <c r="Y16" s="30" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="27">
+    <row r="17" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="24">
         <v>100401</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="22">
         <v>100401</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="22">
         <v>1</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="22">
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F17,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F17" s="43" t="s">
+      <c r="F17" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="G17" s="23">
-        <v>0</v>
-      </c>
-      <c r="H17" s="23">
+      <c r="G17" s="22">
+        <v>0</v>
+      </c>
+      <c r="H17" s="22">
         <v>1</v>
       </c>
-      <c r="I17" s="23">
-        <v>0</v>
-      </c>
-      <c r="J17" s="23">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K17,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+      <c r="I17" s="22">
+        <v>0</v>
+      </c>
+      <c r="J17" s="22">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K17,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K17" s="24" t="s">
+      <c r="K17" s="68" t="s">
+        <v>235</v>
+      </c>
+      <c r="L17" s="61">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M17,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+        <v>2</v>
+      </c>
+      <c r="M17" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="L17" s="23">
+      <c r="N17" s="61">
         <v>20</v>
       </c>
-      <c r="M17" s="28">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N17,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="N17" s="56" t="s">
+      <c r="O17" s="25">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P17,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="O17" s="28">
-        <v>0</v>
-      </c>
-      <c r="P17" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="23">
+      <c r="Q17" s="25">
+        <v>0</v>
+      </c>
+      <c r="R17" s="25">
+        <v>0</v>
+      </c>
+      <c r="S17" s="22">
         <v>100</v>
       </c>
-      <c r="R17" s="28">
+      <c r="T17" s="25">
         <v>100012</v>
       </c>
-      <c r="S17" s="28">
-        <v>0</v>
-      </c>
-      <c r="T17" s="28">
-        <v>0</v>
-      </c>
-      <c r="U17" s="28">
-        <v>0</v>
-      </c>
-      <c r="V17" s="28" t="s">
+      <c r="U17" s="25">
+        <v>0</v>
+      </c>
+      <c r="V17" s="25">
+        <v>0</v>
+      </c>
+      <c r="W17" s="25">
+        <v>0</v>
+      </c>
+      <c r="X17" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="W17" s="28" t="s">
+      <c r="Y17" s="25" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30">
+    <row r="18" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="27">
         <v>100402</v>
       </c>
       <c r="B18" s="7">
         <v>100402</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="45" t="s">
         <v>169</v>
       </c>
       <c r="D18" s="7">
@@ -8656,7 +8989,7 @@
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F18,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>3002</v>
       </c>
-      <c r="F18" s="44" t="s">
+      <c r="F18" s="41" t="s">
         <v>184</v>
       </c>
       <c r="G18" s="7">
@@ -8669,200 +9002,221 @@
         <v>0</v>
       </c>
       <c r="J18" s="7">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K18,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K18,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K18" s="18" t="s">
+      <c r="K18" s="69" t="s">
+        <v>235</v>
+      </c>
+      <c r="L18" s="62">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M18,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+        <v>2</v>
+      </c>
+      <c r="M18" s="66" t="s">
         <v>186</v>
       </c>
-      <c r="L18" s="7">
+      <c r="N18" s="62">
         <v>20</v>
       </c>
-      <c r="M18" s="4">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N18,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="N18" s="57" t="s">
+      <c r="O18" s="4">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P18,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="O18" s="4">
-        <v>0</v>
-      </c>
-      <c r="P18" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="7">
+      <c r="Q18" s="4">
+        <v>0</v>
+      </c>
+      <c r="R18" s="4">
+        <v>0</v>
+      </c>
+      <c r="S18" s="7">
         <v>100</v>
       </c>
-      <c r="R18" s="4">
+      <c r="T18" s="4">
         <v>100013</v>
       </c>
-      <c r="S18" s="4">
-        <v>0</v>
-      </c>
-      <c r="T18" s="4">
-        <v>0</v>
-      </c>
       <c r="U18" s="4">
         <v>0</v>
       </c>
-      <c r="V18" s="4" t="s">
+      <c r="V18" s="4">
+        <v>0</v>
+      </c>
+      <c r="W18" s="4">
+        <v>0</v>
+      </c>
+      <c r="X18" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="W18" s="4" t="s">
+      <c r="Y18" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="32">
+    <row r="19" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="29">
         <v>100403</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="23">
         <v>100403</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="23">
         <v>1</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="23">
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F19,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F19" s="45" t="s">
+      <c r="F19" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="G19" s="25">
-        <v>0</v>
-      </c>
-      <c r="H19" s="25">
+      <c r="G19" s="23">
+        <v>0</v>
+      </c>
+      <c r="H19" s="23">
         <v>1</v>
       </c>
-      <c r="I19" s="25">
-        <v>0</v>
-      </c>
-      <c r="J19" s="25">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K19,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+      <c r="I19" s="23">
+        <v>0</v>
+      </c>
+      <c r="J19" s="23">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K19,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K19" s="26" t="s">
+      <c r="K19" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="L19" s="63">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M19,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+        <v>2</v>
+      </c>
+      <c r="M19" s="67" t="s">
         <v>186</v>
       </c>
-      <c r="L19" s="25">
+      <c r="N19" s="63">
         <v>20</v>
       </c>
-      <c r="M19" s="33">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N19,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="58" t="s">
+      <c r="O19" s="30">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P19,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="O19" s="33">
-        <v>0</v>
-      </c>
-      <c r="P19" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="25">
+      <c r="Q19" s="30">
+        <v>0</v>
+      </c>
+      <c r="R19" s="30">
+        <v>0</v>
+      </c>
+      <c r="S19" s="23">
         <v>100</v>
       </c>
-      <c r="R19" s="33">
+      <c r="T19" s="30">
         <v>100014</v>
       </c>
-      <c r="S19" s="33">
-        <v>0</v>
-      </c>
-      <c r="T19" s="33">
-        <v>0</v>
-      </c>
-      <c r="U19" s="33">
-        <v>0</v>
-      </c>
-      <c r="V19" s="33" t="s">
+      <c r="U19" s="30">
+        <v>0</v>
+      </c>
+      <c r="V19" s="30">
+        <v>0</v>
+      </c>
+      <c r="W19" s="30">
+        <v>0</v>
+      </c>
+      <c r="X19" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="W19" s="33" t="s">
+      <c r="Y19" s="30" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="27">
+    <row r="20" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="24">
         <v>100501</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B20" s="22">
         <v>100501</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="22">
         <v>1</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="22">
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F20,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F20" s="43" t="s">
+      <c r="F20" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="G20" s="23">
-        <v>0</v>
-      </c>
-      <c r="H20" s="23">
+      <c r="G20" s="22">
+        <v>0</v>
+      </c>
+      <c r="H20" s="22">
         <v>1</v>
       </c>
-      <c r="I20" s="23">
-        <v>0</v>
-      </c>
-      <c r="J20" s="23">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K20,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+      <c r="I20" s="22">
+        <v>0</v>
+      </c>
+      <c r="J20" s="22">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K20,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K20" s="24" t="s">
+      <c r="K20" s="68" t="s">
+        <v>235</v>
+      </c>
+      <c r="L20" s="61">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M20,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+        <v>2</v>
+      </c>
+      <c r="M20" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="L20" s="23">
+      <c r="N20" s="61">
         <v>20</v>
       </c>
-      <c r="M20" s="28">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N20,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="N20" s="56" t="s">
+      <c r="O20" s="25">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P20,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="O20" s="28">
-        <v>0</v>
-      </c>
-      <c r="P20" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="23">
+      <c r="Q20" s="25">
+        <v>0</v>
+      </c>
+      <c r="R20" s="25">
+        <v>0</v>
+      </c>
+      <c r="S20" s="22">
         <v>100</v>
       </c>
-      <c r="R20" s="28">
+      <c r="T20" s="25">
         <v>100015</v>
       </c>
-      <c r="S20" s="28">
-        <v>0</v>
-      </c>
-      <c r="T20" s="28">
-        <v>0</v>
-      </c>
-      <c r="U20" s="28">
-        <v>0</v>
-      </c>
-      <c r="V20" s="28" t="s">
+      <c r="U20" s="25">
+        <v>0</v>
+      </c>
+      <c r="V20" s="25">
+        <v>0</v>
+      </c>
+      <c r="W20" s="25">
+        <v>0</v>
+      </c>
+      <c r="X20" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="W20" s="28" t="s">
+      <c r="Y20" s="25" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30">
+    <row r="21" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="27">
         <v>100502</v>
       </c>
       <c r="B21" s="7">
@@ -8878,7 +9232,7 @@
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F21,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="41" t="s">
         <v>181</v>
       </c>
       <c r="G21" s="7">
@@ -8891,126 +9245,140 @@
         <v>0</v>
       </c>
       <c r="J21" s="7">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K21,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K21,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K21" s="18" t="s">
+      <c r="K21" s="69" t="s">
+        <v>235</v>
+      </c>
+      <c r="L21" s="62">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M21,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+        <v>2</v>
+      </c>
+      <c r="M21" s="66" t="s">
         <v>186</v>
       </c>
-      <c r="L21" s="7">
+      <c r="N21" s="62">
         <v>20</v>
       </c>
-      <c r="M21" s="4">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N21,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="N21" s="57" t="s">
+      <c r="O21" s="4">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P21,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="O21" s="4">
-        <v>0</v>
-      </c>
-      <c r="P21" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="7">
+      <c r="Q21" s="4">
+        <v>0</v>
+      </c>
+      <c r="R21" s="4">
+        <v>0</v>
+      </c>
+      <c r="S21" s="7">
         <v>100</v>
       </c>
-      <c r="R21" s="4">
-        <v>0</v>
-      </c>
-      <c r="S21" s="4">
+      <c r="T21" s="4">
+        <v>0</v>
+      </c>
+      <c r="U21" s="4">
         <v>500005</v>
       </c>
-      <c r="T21" s="4">
-        <v>0</v>
-      </c>
-      <c r="U21" s="4">
-        <v>0</v>
-      </c>
-      <c r="V21" s="4" t="s">
+      <c r="V21" s="4">
+        <v>0</v>
+      </c>
+      <c r="W21" s="4">
+        <v>0</v>
+      </c>
+      <c r="X21" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="W21" s="4" t="s">
+      <c r="Y21" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="32">
+    <row r="22" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="29">
         <v>100503</v>
       </c>
-      <c r="B22" s="25">
+      <c r="B22" s="23">
         <v>100503</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D22" s="23">
         <v>1</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E22" s="23">
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F22,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F22" s="45" t="s">
+      <c r="F22" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="G22" s="25">
-        <v>0</v>
-      </c>
-      <c r="H22" s="25">
+      <c r="G22" s="23">
+        <v>0</v>
+      </c>
+      <c r="H22" s="23">
         <v>1</v>
       </c>
-      <c r="I22" s="25">
-        <v>0</v>
-      </c>
-      <c r="J22" s="25">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(K22,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
+      <c r="I22" s="23">
+        <v>0</v>
+      </c>
+      <c r="J22" s="23">
+        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K22,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="K22" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="L22" s="63">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M22,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="K22" s="26" t="s">
+      <c r="M22" s="67" t="s">
         <v>187</v>
       </c>
-      <c r="L22" s="25">
+      <c r="N22" s="63">
         <v>20</v>
       </c>
-      <c r="M22" s="33">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(N22,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+      <c r="O22" s="30">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P22,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>2</v>
       </c>
-      <c r="N22" s="58" t="s">
+      <c r="P22" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="O22" s="33">
-        <v>0</v>
-      </c>
-      <c r="P22" s="33">
+      <c r="Q22" s="30">
+        <v>0</v>
+      </c>
+      <c r="R22" s="30">
         <v>10</v>
       </c>
-      <c r="Q22" s="25" t="s">
+      <c r="S22" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="R22" s="33">
+      <c r="T22" s="30">
         <v>100017</v>
       </c>
-      <c r="S22" s="33">
-        <v>0</v>
-      </c>
-      <c r="T22" s="33">
+      <c r="U22" s="30">
+        <v>0</v>
+      </c>
+      <c r="V22" s="30">
         <v>100018</v>
       </c>
-      <c r="U22" s="33">
-        <v>0</v>
-      </c>
-      <c r="V22" s="33" t="s">
+      <c r="W22" s="30">
+        <v>0</v>
+      </c>
+      <c r="X22" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="W22" s="33"/>
+      <c r="Y22" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V5:V22" xr:uid="{2DD0F759-8109-4C06-B32A-4A939427AE80}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X5:X22" xr:uid="{2DD0F759-8109-4C06-B32A-4A939427AE80}">
       <formula1>"hit,shoot,buff,debuff,heal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9018,7 +9386,7 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8A7FC9F6-0204-4C88-A1F3-F45CC3ECCE6D}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$N$3:$N$4</xm:f>
@@ -9034,6 +9402,12 @@
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A47F3F8D-D410-4608-955D-92FAB6B7A6FE}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$AE$3:$AE$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>M5:M22</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CCA26A4F-AAA4-42EE-83AD-525EA6D6296B}">
+          <x14:formula1>
+            <xm:f>'!참조_ENUM'!$AQ$3:$AQ$5</xm:f>
           </x14:formula1>
           <xm:sqref>K5:K22</xm:sqref>
         </x14:dataValidation>
@@ -9151,100 +9525,100 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="L4" s="20" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="27">
+      <c r="A5" s="24">
         <v>100001</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="22">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C5,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="22">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E5,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="F5" s="23">
-        <v>0</v>
-      </c>
-      <c r="G5" s="23">
+      <c r="F5" s="22">
+        <v>0</v>
+      </c>
+      <c r="G5" s="22">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H5,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H5" s="43" t="s">
+      <c r="H5" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="I5" s="28">
-        <v>0</v>
-      </c>
-      <c r="J5" s="23">
+      <c r="I5" s="25">
+        <v>0</v>
+      </c>
+      <c r="J5" s="22">
         <v>1</v>
       </c>
-      <c r="K5" s="28" t="s">
+      <c r="K5" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="L5" s="29">
+      <c r="L5" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="30">
+      <c r="A6" s="27">
         <v>100002</v>
       </c>
       <c r="B6" s="7">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C6,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>2</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="41" t="s">
         <v>190</v>
       </c>
       <c r="D6" s="7">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E6,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="37" t="s">
         <v>187</v>
       </c>
       <c r="F6" s="7">
@@ -9254,7 +9628,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H6,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>300</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="41" t="s">
         <v>192</v>
       </c>
       <c r="I6" s="4">
@@ -9266,108 +9640,108 @@
       <c r="K6" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="L6" s="31">
+      <c r="L6" s="28">
         <v>1.5</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="32">
+      <c r="A7" s="29">
         <v>100003</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="23">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C7,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="23">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E7,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>11</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="F7" s="25">
-        <v>0</v>
-      </c>
-      <c r="G7" s="25">
+      <c r="F7" s="23">
+        <v>0</v>
+      </c>
+      <c r="G7" s="23">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H7,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H7" s="45" t="s">
+      <c r="H7" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="I7" s="33">
-        <v>0</v>
-      </c>
-      <c r="J7" s="25">
+      <c r="I7" s="30">
+        <v>0</v>
+      </c>
+      <c r="J7" s="23">
         <v>1.2</v>
       </c>
-      <c r="K7" s="33" t="s">
+      <c r="K7" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="L7" s="34">
+      <c r="L7" s="31">
         <v>1.3</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="50">
+      <c r="A8" s="47">
         <v>100004</v>
       </c>
-      <c r="B8" s="51">
+      <c r="B8" s="48">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C8,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="49" t="s">
         <v>189</v>
       </c>
-      <c r="D8" s="51">
+      <c r="D8" s="48">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E8,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="F8" s="51">
-        <v>0</v>
-      </c>
-      <c r="G8" s="51">
+      <c r="F8" s="48">
+        <v>0</v>
+      </c>
+      <c r="G8" s="48">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H8,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H8" s="52" t="s">
+      <c r="H8" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="I8" s="54">
-        <v>0</v>
-      </c>
-      <c r="J8" s="51">
+      <c r="I8" s="51">
+        <v>0</v>
+      </c>
+      <c r="J8" s="48">
         <v>1</v>
       </c>
-      <c r="K8" s="54" t="s">
+      <c r="K8" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="L8" s="55">
+      <c r="L8" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="30">
+      <c r="A9" s="27">
         <v>100005</v>
       </c>
       <c r="B9" s="7">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C9,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="41" t="s">
         <v>189</v>
       </c>
       <c r="D9" s="7">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E9,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="37" t="s">
         <v>187</v>
       </c>
       <c r="F9" s="7">
@@ -9377,7 +9751,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H9,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H9" s="44" t="s">
+      <c r="H9" s="41" t="s">
         <v>191</v>
       </c>
       <c r="I9" s="4">
@@ -9389,108 +9763,108 @@
       <c r="K9" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="L9" s="31">
+      <c r="L9" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="32">
+      <c r="A10" s="29">
         <v>100006</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="23">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C10,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="23">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E10,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="F10" s="25">
-        <v>0</v>
-      </c>
-      <c r="G10" s="25">
+      <c r="F10" s="23">
+        <v>0</v>
+      </c>
+      <c r="G10" s="23">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H10,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H10" s="45" t="s">
+      <c r="H10" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="I10" s="33">
-        <v>0</v>
-      </c>
-      <c r="J10" s="25">
+      <c r="I10" s="30">
+        <v>0</v>
+      </c>
+      <c r="J10" s="23">
         <v>1.3</v>
       </c>
-      <c r="K10" s="33" t="s">
+      <c r="K10" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="L10" s="34">
+      <c r="L10" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="27">
+      <c r="A11" s="24">
         <v>100007</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="22">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C11,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="22">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E11,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="F11" s="23">
-        <v>0</v>
-      </c>
-      <c r="G11" s="23">
+      <c r="F11" s="22">
+        <v>0</v>
+      </c>
+      <c r="G11" s="22">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H11,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H11" s="43" t="s">
+      <c r="H11" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="I11" s="28">
-        <v>0</v>
-      </c>
-      <c r="J11" s="23">
+      <c r="I11" s="25">
+        <v>0</v>
+      </c>
+      <c r="J11" s="22">
         <v>1</v>
       </c>
-      <c r="K11" s="28" t="s">
+      <c r="K11" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="L11" s="29">
+      <c r="L11" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="30">
+      <c r="A12" s="27">
         <v>100008</v>
       </c>
       <c r="B12" s="7">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C12,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="41" t="s">
         <v>189</v>
       </c>
       <c r="D12" s="7">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E12,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="37" t="s">
         <v>187</v>
       </c>
       <c r="F12" s="7">
@@ -9500,7 +9874,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H12,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H12" s="44" t="s">
+      <c r="H12" s="41" t="s">
         <v>191</v>
       </c>
       <c r="I12" s="4">
@@ -9512,190 +9886,190 @@
       <c r="K12" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="L12" s="31">
+      <c r="L12" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="37">
+      <c r="A13" s="34">
         <v>100009</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="32">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C13,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="32">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E13,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="F13" s="35">
-        <v>0</v>
-      </c>
-      <c r="G13" s="35">
+      <c r="F13" s="32">
+        <v>0</v>
+      </c>
+      <c r="G13" s="32">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H13,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H13" s="46" t="s">
+      <c r="H13" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="I13" s="36">
-        <v>0</v>
-      </c>
-      <c r="J13" s="35">
+      <c r="I13" s="33">
+        <v>0</v>
+      </c>
+      <c r="J13" s="32">
         <v>0.8</v>
       </c>
-      <c r="K13" s="36" t="s">
+      <c r="K13" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="L13" s="38">
+      <c r="L13" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="27">
+      <c r="A14" s="24">
         <v>100010</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="22">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C14,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="22">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E14,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="F14" s="23">
-        <v>0</v>
-      </c>
-      <c r="G14" s="23">
+      <c r="F14" s="22">
+        <v>0</v>
+      </c>
+      <c r="G14" s="22">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H14,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H14" s="43" t="s">
+      <c r="H14" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="I14" s="28">
-        <v>0</v>
-      </c>
-      <c r="J14" s="23">
+      <c r="I14" s="25">
+        <v>0</v>
+      </c>
+      <c r="J14" s="22">
         <v>1</v>
       </c>
-      <c r="K14" s="28" t="s">
+      <c r="K14" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="L14" s="29">
+      <c r="L14" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="37">
+      <c r="A15" s="34">
         <v>100011</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="32">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C15,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="32">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E15,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="F15" s="35">
-        <v>0</v>
-      </c>
-      <c r="G15" s="35">
+      <c r="F15" s="32">
+        <v>0</v>
+      </c>
+      <c r="G15" s="32">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H15,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H15" s="46" t="s">
+      <c r="H15" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="I15" s="36">
-        <v>0</v>
-      </c>
-      <c r="J15" s="35">
+      <c r="I15" s="33">
+        <v>0</v>
+      </c>
+      <c r="J15" s="32">
         <v>1.2</v>
       </c>
-      <c r="K15" s="36" t="s">
+      <c r="K15" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="L15" s="38">
+      <c r="L15" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="27">
+      <c r="A16" s="24">
         <v>100012</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="22">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C16,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="22">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E16,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="F16" s="23">
-        <v>0</v>
-      </c>
-      <c r="G16" s="23">
+      <c r="F16" s="22">
+        <v>0</v>
+      </c>
+      <c r="G16" s="22">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H16,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H16" s="43" t="s">
+      <c r="H16" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="I16" s="28">
-        <v>0</v>
-      </c>
-      <c r="J16" s="23">
+      <c r="I16" s="25">
+        <v>0</v>
+      </c>
+      <c r="J16" s="22">
         <v>1</v>
       </c>
-      <c r="K16" s="28" t="s">
+      <c r="K16" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="L16" s="29">
+      <c r="L16" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="30">
+      <c r="A17" s="27">
         <v>100013</v>
       </c>
       <c r="B17" s="7">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C17,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>2</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="41" t="s">
         <v>190</v>
       </c>
       <c r="D17" s="7">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E17,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E17" s="40" t="s">
+      <c r="E17" s="37" t="s">
         <v>187</v>
       </c>
       <c r="F17" s="7">
@@ -9705,7 +10079,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H17,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>300</v>
       </c>
-      <c r="H17" s="44" t="s">
+      <c r="H17" s="41" t="s">
         <v>192</v>
       </c>
       <c r="I17" s="4">
@@ -9717,212 +10091,212 @@
       <c r="K17" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="L17" s="31">
+      <c r="L17" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="32">
+      <c r="A18" s="29">
         <v>100014</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="23">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C18,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="23">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E18,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="F18" s="25">
-        <v>0</v>
-      </c>
-      <c r="G18" s="25">
+      <c r="F18" s="23">
+        <v>0</v>
+      </c>
+      <c r="G18" s="23">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H18,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H18" s="45" t="s">
+      <c r="H18" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="I18" s="33">
-        <v>0</v>
-      </c>
-      <c r="J18" s="25">
+      <c r="I18" s="30">
+        <v>0</v>
+      </c>
+      <c r="J18" s="23">
         <v>1.2</v>
       </c>
-      <c r="K18" s="33" t="s">
+      <c r="K18" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="L18" s="34">
+      <c r="L18" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="50">
+      <c r="A19" s="47">
         <v>100015</v>
       </c>
-      <c r="B19" s="51">
+      <c r="B19" s="48">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C19,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C19" s="52" t="s">
+      <c r="C19" s="49" t="s">
         <v>189</v>
       </c>
-      <c r="D19" s="51">
+      <c r="D19" s="48">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E19,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E19" s="53" t="s">
+      <c r="E19" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="F19" s="51">
-        <v>0</v>
-      </c>
-      <c r="G19" s="51">
+      <c r="F19" s="48">
+        <v>0</v>
+      </c>
+      <c r="G19" s="48">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H19,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H19" s="52" t="s">
+      <c r="H19" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="I19" s="54">
-        <v>0</v>
-      </c>
-      <c r="J19" s="51">
+      <c r="I19" s="51">
+        <v>0</v>
+      </c>
+      <c r="J19" s="48">
         <v>1</v>
       </c>
-      <c r="K19" s="54" t="s">
+      <c r="K19" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="L19" s="55">
+      <c r="L19" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="32">
+      <c r="A20" s="29">
         <v>100016</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B20" s="23">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C20,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20" s="23">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E20,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E20" s="41" t="s">
+      <c r="E20" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="F20" s="25">
-        <v>0</v>
-      </c>
-      <c r="G20" s="25">
+      <c r="F20" s="23">
+        <v>0</v>
+      </c>
+      <c r="G20" s="23">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H20,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H20" s="45" t="s">
+      <c r="H20" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="I20" s="33">
-        <v>0</v>
-      </c>
-      <c r="J20" s="25">
+      <c r="I20" s="30">
+        <v>0</v>
+      </c>
+      <c r="J20" s="23">
         <v>1.2</v>
       </c>
-      <c r="K20" s="33" t="s">
+      <c r="K20" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="L20" s="34">
+      <c r="L20" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="32">
+      <c r="A21" s="29">
         <v>100017</v>
       </c>
-      <c r="B21" s="25">
+      <c r="B21" s="23">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C21,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="23">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E21,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E21" s="41" t="s">
+      <c r="E21" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="F21" s="25">
-        <v>0</v>
-      </c>
-      <c r="G21" s="25">
+      <c r="F21" s="23">
+        <v>0</v>
+      </c>
+      <c r="G21" s="23">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H21,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H21" s="45" t="s">
+      <c r="H21" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="I21" s="33">
-        <v>0</v>
-      </c>
-      <c r="J21" s="25">
+      <c r="I21" s="30">
+        <v>0</v>
+      </c>
+      <c r="J21" s="23">
         <v>1.3</v>
       </c>
-      <c r="K21" s="33" t="s">
+      <c r="K21" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="L21" s="34">
+      <c r="L21" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="32">
+      <c r="A22" s="29">
         <v>100018</v>
       </c>
-      <c r="B22" s="25">
+      <c r="B22" s="23">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C22,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D22" s="23">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E22,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E22" s="41" t="s">
+      <c r="E22" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="F22" s="25">
-        <v>0</v>
-      </c>
-      <c r="G22" s="25">
+      <c r="F22" s="23">
+        <v>0</v>
+      </c>
+      <c r="G22" s="23">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H22,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H22" s="45" t="s">
+      <c r="H22" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="I22" s="33">
-        <v>0</v>
-      </c>
-      <c r="J22" s="25">
+      <c r="I22" s="30">
+        <v>0</v>
+      </c>
+      <c r="J22" s="23">
         <v>1.3</v>
       </c>
-      <c r="K22" s="33" t="s">
+      <c r="K22" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="L22" s="34">
+      <c r="L22" s="31">
         <v>1</v>
       </c>
     </row>
@@ -10192,14 +10566,14 @@
         <f>INDEX('!참조_ENUM'!$V$3:$V$13,MATCH(C5,'!참조_ENUM'!$W$3:$W$13,0))</f>
         <v>1</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="41" t="s">
         <v>193</v>
       </c>
       <c r="D5" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E5,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>2</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="41" t="s">
         <v>199</v>
       </c>
       <c r="F5" s="4">
@@ -10221,7 +10595,7 @@
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(L5,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="L5" s="40" t="s">
+      <c r="L5" s="37" t="s">
         <v>187</v>
       </c>
       <c r="M5" s="7">
@@ -10231,7 +10605,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(O5,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>900</v>
       </c>
-      <c r="O5" s="44" t="s">
+      <c r="O5" s="41" t="s">
         <v>202</v>
       </c>
       <c r="P5" s="4">
@@ -10261,14 +10635,14 @@
         <f>INDEX('!참조_ENUM'!$V$3:$V$13,MATCH(C6,'!참조_ENUM'!$W$3:$W$13,0))</f>
         <v>106</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="41" t="s">
         <v>194</v>
       </c>
       <c r="D6" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E6,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="41" t="s">
         <v>200</v>
       </c>
       <c r="F6" s="4">
@@ -10290,7 +10664,7 @@
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(L6,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>11</v>
       </c>
-      <c r="L6" s="40" t="s">
+      <c r="L6" s="37" t="s">
         <v>201</v>
       </c>
       <c r="M6" s="7">
@@ -10300,7 +10674,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(O6,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="O6" s="44" t="s">
+      <c r="O6" s="41" t="s">
         <v>191</v>
       </c>
       <c r="P6" s="4">
@@ -10330,14 +10704,14 @@
         <f>INDEX('!참조_ENUM'!$V$3:$V$13,MATCH(C7,'!참조_ENUM'!$W$3:$W$13,0))</f>
         <v>107</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="41" t="s">
         <v>195</v>
       </c>
       <c r="D7" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E7,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="41" t="s">
         <v>200</v>
       </c>
       <c r="F7" s="4">
@@ -10359,7 +10733,7 @@
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(L7,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>11</v>
       </c>
-      <c r="L7" s="40" t="s">
+      <c r="L7" s="37" t="s">
         <v>201</v>
       </c>
       <c r="M7" s="7">
@@ -10369,7 +10743,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(O7,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>200</v>
       </c>
-      <c r="O7" s="44" t="s">
+      <c r="O7" s="41" t="s">
         <v>203</v>
       </c>
       <c r="P7" s="4">
@@ -10399,14 +10773,14 @@
         <f>INDEX('!참조_ENUM'!$V$3:$V$13,MATCH(C8,'!참조_ENUM'!$W$3:$W$13,0))</f>
         <v>106</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="41" t="s">
         <v>194</v>
       </c>
       <c r="D8" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E8,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="41" t="s">
         <v>200</v>
       </c>
       <c r="F8" s="4">
@@ -10428,7 +10802,7 @@
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(L8,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>11</v>
       </c>
-      <c r="L8" s="40" t="s">
+      <c r="L8" s="37" t="s">
         <v>201</v>
       </c>
       <c r="M8" s="7">
@@ -10438,7 +10812,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(O8,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="O8" s="44" t="s">
+      <c r="O8" s="41" t="s">
         <v>191</v>
       </c>
       <c r="P8" s="4">
@@ -10468,14 +10842,14 @@
         <f>INDEX('!참조_ENUM'!$V$3:$V$13,MATCH(C9,'!참조_ENUM'!$W$3:$W$13,0))</f>
         <v>108</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="41" t="s">
         <v>196</v>
       </c>
       <c r="D9" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E9,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="41" t="s">
         <v>200</v>
       </c>
       <c r="F9" s="4">
@@ -10497,7 +10871,7 @@
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(L9,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>11</v>
       </c>
-      <c r="L9" s="40" t="s">
+      <c r="L9" s="37" t="s">
         <v>201</v>
       </c>
       <c r="M9" s="7">
@@ -10507,7 +10881,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(O9,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="O9" s="44" t="s">
+      <c r="O9" s="41" t="s">
         <v>191</v>
       </c>
       <c r="P9" s="4">
@@ -10537,14 +10911,14 @@
         <f>INDEX('!참조_ENUM'!$V$3:$V$13,MATCH(C10,'!참조_ENUM'!$W$3:$W$13,0))</f>
         <v>109</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="41" t="s">
         <v>197</v>
       </c>
       <c r="D10" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E10,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="41" t="s">
         <v>200</v>
       </c>
       <c r="F10" s="4">
@@ -10566,7 +10940,7 @@
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(L10,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>11</v>
       </c>
-      <c r="L10" s="40" t="s">
+      <c r="L10" s="37" t="s">
         <v>201</v>
       </c>
       <c r="M10" s="7">
@@ -10576,7 +10950,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(O10,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>200</v>
       </c>
-      <c r="O10" s="44" t="s">
+      <c r="O10" s="41" t="s">
         <v>203</v>
       </c>
       <c r="P10" s="4">
@@ -10606,14 +10980,14 @@
         <f>INDEX('!참조_ENUM'!$V$3:$V$13,MATCH(C11,'!참조_ENUM'!$W$3:$W$13,0))</f>
         <v>105</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="41" t="s">
         <v>198</v>
       </c>
       <c r="D11" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E11,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="41" t="s">
         <v>200</v>
       </c>
       <c r="F11" s="4">
@@ -10635,7 +11009,7 @@
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(L11,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>11</v>
       </c>
-      <c r="L11" s="40" t="s">
+      <c r="L11" s="37" t="s">
         <v>201</v>
       </c>
       <c r="M11" s="7">
@@ -10645,7 +11019,7 @@
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(O11,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>0</v>
       </c>
-      <c r="O11" s="44" t="s">
+      <c r="O11" s="41" t="s">
         <v>185</v>
       </c>
       <c r="P11" s="4">

--- a/Android/ExcelData/PCSkillTable.xlsx
+++ b/Android/ExcelData/PCSkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5E5E8C-E57C-47EC-BCBF-EA9375CA5199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF507FD3-1995-4CD0-A0F3-624A15C20CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -2488,7 +2488,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2540,6 +2540,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2782,7 +2788,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2861,13 +2867,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2876,9 +2876,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2886,21 +2883,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2933,14 +2915,8 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2978,22 +2954,73 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3050,13 +3077,38 @@
       <sheetName val="@charge_type"/>
       <sheetName val="@sd_body_type"/>
       <sheetName val="@effect_count_type"/>
+      <sheetName val="@stage_common"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TRIBE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>POSITION_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ROLE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>NPC_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="5">
         <row r="1">
           <cell r="A1" t="str">
@@ -4661,6 +4713,7 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="30" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6943,7 +6996,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G22"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7081,7 +7134,7 @@
       <c r="F5" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="46" t="s">
         <v>228</v>
       </c>
       <c r="H5" s="18" t="s">
@@ -7114,7 +7167,7 @@
       <c r="F6" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="G6" s="56" t="s">
+      <c r="G6" s="46" t="s">
         <v>228</v>
       </c>
       <c r="H6" s="18" t="s">
@@ -7147,7 +7200,7 @@
       <c r="F7" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="G7" s="56" t="s">
+      <c r="G7" s="46" t="s">
         <v>228</v>
       </c>
       <c r="H7" s="18" t="s">
@@ -7180,7 +7233,7 @@
       <c r="F8" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="G8" s="56" t="s">
+      <c r="G8" s="46" t="s">
         <v>228</v>
       </c>
       <c r="H8" s="18" t="s">
@@ -7211,7 +7264,7 @@
       <c r="F9" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="G9" s="56" t="s">
+      <c r="G9" s="46" t="s">
         <v>228</v>
       </c>
       <c r="H9" s="18" t="s">
@@ -7242,7 +7295,7 @@
       <c r="F10" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="G10" s="56" t="s">
+      <c r="G10" s="46" t="s">
         <v>228</v>
       </c>
       <c r="H10" s="18" t="s">
@@ -7273,7 +7326,7 @@
       <c r="F11" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="G11" s="56" t="s">
+      <c r="G11" s="46" t="s">
         <v>228</v>
       </c>
       <c r="H11" s="18" t="s">
@@ -7304,7 +7357,7 @@
       <c r="F12" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="G12" s="56" t="s">
+      <c r="G12" s="46" t="s">
         <v>228</v>
       </c>
       <c r="H12" s="18" t="s">
@@ -7335,7 +7388,7 @@
       <c r="F13" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="G13" s="56" t="s">
+      <c r="G13" s="46" t="s">
         <v>228</v>
       </c>
       <c r="H13" s="18" t="s">
@@ -7366,7 +7419,7 @@
       <c r="F14" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="G14" s="56" t="s">
+      <c r="G14" s="46" t="s">
         <v>228</v>
       </c>
       <c r="H14" s="18" t="s">
@@ -7397,7 +7450,7 @@
       <c r="F15" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="G15" s="56" t="s">
+      <c r="G15" s="46" t="s">
         <v>228</v>
       </c>
       <c r="H15" s="18" t="s">
@@ -7428,7 +7481,7 @@
       <c r="F16" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="G16" s="56" t="s">
+      <c r="G16" s="46" t="s">
         <v>228</v>
       </c>
       <c r="H16" s="18" t="s">
@@ -7459,7 +7512,7 @@
       <c r="F17" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="G17" s="56" t="s">
+      <c r="G17" s="46" t="s">
         <v>228</v>
       </c>
       <c r="H17" s="18" t="s">
@@ -7490,7 +7543,7 @@
       <c r="F18" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="G18" s="56" t="s">
+      <c r="G18" s="46" t="s">
         <v>228</v>
       </c>
       <c r="H18" s="4" t="s">
@@ -7521,7 +7574,7 @@
       <c r="F19" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="G19" s="56" t="s">
+      <c r="G19" s="46" t="s">
         <v>228</v>
       </c>
       <c r="H19" s="4" t="s">
@@ -7552,7 +7605,7 @@
       <c r="F20" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="G20" s="56" t="s">
+      <c r="G20" s="46" t="s">
         <v>228</v>
       </c>
       <c r="H20" s="18" t="s">
@@ -7583,7 +7636,7 @@
       <c r="F21" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="G21" s="56" t="s">
+      <c r="G21" s="46" t="s">
         <v>228</v>
       </c>
       <c r="H21" s="18" t="s">
@@ -7614,7 +7667,7 @@
       <c r="F22" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="G22" s="56" t="s">
+      <c r="G22" s="46" t="s">
         <v>228</v>
       </c>
       <c r="H22" s="4" t="s">
@@ -7647,11 +7700,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00F7AA3-FB12-454D-93A6-31450B9003EC}">
   <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="O5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K5" sqref="K5:K22"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7666,9 +7719,9 @@
     <col min="8" max="9" width="9.125" customWidth="1"/>
     <col min="10" max="10" width="13.375" customWidth="1"/>
     <col min="11" max="11" width="18.625" customWidth="1"/>
-    <col min="12" max="12" width="17.875" style="64" customWidth="1"/>
-    <col min="13" max="13" width="28.125" style="64" customWidth="1"/>
-    <col min="14" max="14" width="16.375" style="64" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.875" style="54" customWidth="1"/>
+    <col min="13" max="13" width="28.125" style="54" customWidth="1"/>
+    <col min="14" max="14" width="16.375" style="54" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.375" customWidth="1"/>
     <col min="16" max="16" width="22.375" customWidth="1"/>
     <col min="17" max="18" width="16.375" customWidth="1"/>
@@ -7693,9 +7746,9 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
@@ -7740,13 +7793,13 @@
       <c r="K2" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="L2" s="58" t="s">
+      <c r="L2" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="M2" s="58" t="s">
+      <c r="M2" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="N2" s="58" t="s">
+      <c r="N2" s="48" t="s">
         <v>97</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -7817,13 +7870,13 @@
       <c r="K3" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="L3" s="59" t="s">
+      <c r="L3" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="M3" s="59" t="s">
+      <c r="M3" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="59" t="s">
+      <c r="N3" s="49" t="s">
         <v>8</v>
       </c>
       <c r="O3" s="11" t="s">
@@ -7894,13 +7947,13 @@
       <c r="K4" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="L4" s="60" t="s">
+      <c r="L4" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="M4" s="60" t="s">
+      <c r="M4" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="N4" s="60" t="s">
+      <c r="N4" s="50" t="s">
         <v>41</v>
       </c>
       <c r="O4" s="20" t="s">
@@ -7944,7 +7997,7 @@
       <c r="B5" s="22">
         <v>100001</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="36" t="s">
         <v>206</v>
       </c>
       <c r="D5" s="22">
@@ -7954,7 +8007,7 @@
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F5,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="32" t="s">
         <v>181</v>
       </c>
       <c r="G5" s="22">
@@ -7970,24 +8023,24 @@
         <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K5,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>0</v>
       </c>
-      <c r="K5" s="68" t="s">
+      <c r="K5" s="58" t="s">
         <v>185</v>
       </c>
-      <c r="L5" s="61">
+      <c r="L5" s="51">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M5,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>0</v>
       </c>
-      <c r="M5" s="65" t="s">
+      <c r="M5" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="N5" s="61">
+      <c r="N5" s="51">
         <v>0</v>
       </c>
       <c r="O5" s="25">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P5,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>0</v>
       </c>
-      <c r="P5" s="53" t="s">
+      <c r="P5" s="43" t="s">
         <v>185</v>
       </c>
       <c r="Q5" s="25">
@@ -8017,13 +8070,13 @@
       <c r="Y5" s="25"/>
     </row>
     <row r="6" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27">
+      <c r="A6" s="26">
         <v>100002</v>
       </c>
       <c r="B6" s="7">
         <v>100002</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="37" t="s">
         <v>207</v>
       </c>
       <c r="D6" s="7">
@@ -8033,7 +8086,7 @@
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F6,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>3001</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="33" t="s">
         <v>210</v>
       </c>
       <c r="G6" s="7">
@@ -8049,24 +8102,24 @@
         <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K6,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>0</v>
       </c>
-      <c r="K6" s="69" t="s">
+      <c r="K6" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="L6" s="62">
+      <c r="L6" s="52">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M6,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>0</v>
       </c>
-      <c r="M6" s="66" t="s">
+      <c r="M6" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="N6" s="62">
+      <c r="N6" s="52">
         <v>0</v>
       </c>
       <c r="O6" s="4">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P6,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>0</v>
       </c>
-      <c r="P6" s="54" t="s">
+      <c r="P6" s="44" t="s">
         <v>185</v>
       </c>
       <c r="Q6" s="4">
@@ -8096,13 +8149,13 @@
       <c r="Y6" s="4"/>
     </row>
     <row r="7" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="29">
+      <c r="A7" s="27">
         <v>100003</v>
       </c>
       <c r="B7" s="23">
         <v>100003</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="38" t="s">
         <v>208</v>
       </c>
       <c r="D7" s="23">
@@ -8112,7 +8165,7 @@
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F7,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="34" t="s">
         <v>181</v>
       </c>
       <c r="G7" s="23">
@@ -8128,51 +8181,51 @@
         <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K7,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>0</v>
       </c>
-      <c r="K7" s="70" t="s">
+      <c r="K7" s="60" t="s">
         <v>185</v>
       </c>
-      <c r="L7" s="63">
+      <c r="L7" s="53">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M7,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>0</v>
       </c>
-      <c r="M7" s="67" t="s">
+      <c r="M7" s="57" t="s">
         <v>185</v>
       </c>
-      <c r="N7" s="63">
-        <v>0</v>
-      </c>
-      <c r="O7" s="30">
+      <c r="N7" s="53">
+        <v>0</v>
+      </c>
+      <c r="O7" s="28">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P7,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>0</v>
       </c>
-      <c r="P7" s="55" t="s">
+      <c r="P7" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="Q7" s="30">
-        <v>0</v>
-      </c>
-      <c r="R7" s="30">
+      <c r="Q7" s="28">
+        <v>0</v>
+      </c>
+      <c r="R7" s="28">
         <v>0</v>
       </c>
       <c r="S7" s="23">
         <v>100</v>
       </c>
-      <c r="T7" s="30">
+      <c r="T7" s="28">
         <v>100003</v>
       </c>
-      <c r="U7" s="30">
-        <v>0</v>
-      </c>
-      <c r="V7" s="30">
-        <v>0</v>
-      </c>
-      <c r="W7" s="30">
-        <v>0</v>
-      </c>
-      <c r="X7" s="30" t="s">
+      <c r="U7" s="28">
+        <v>0</v>
+      </c>
+      <c r="V7" s="28">
+        <v>0</v>
+      </c>
+      <c r="W7" s="28">
+        <v>0</v>
+      </c>
+      <c r="X7" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="Y7" s="30"/>
+      <c r="Y7" s="28"/>
     </row>
     <row r="8" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24">
@@ -8181,7 +8234,7 @@
       <c r="B8" s="22">
         <v>100101</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="36" t="s">
         <v>159</v>
       </c>
       <c r="D8" s="22">
@@ -8191,7 +8244,7 @@
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F8,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="32" t="s">
         <v>181</v>
       </c>
       <c r="G8" s="22">
@@ -8207,24 +8260,24 @@
         <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K8,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>0</v>
       </c>
-      <c r="K8" s="68" t="s">
+      <c r="K8" s="58" t="s">
         <v>185</v>
       </c>
-      <c r="L8" s="61">
+      <c r="L8" s="51">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M8,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>0</v>
       </c>
-      <c r="M8" s="65" t="s">
+      <c r="M8" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="N8" s="61">
+      <c r="N8" s="51">
         <v>0</v>
       </c>
       <c r="O8" s="25">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P8,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>0</v>
       </c>
-      <c r="P8" s="53" t="s">
+      <c r="P8" s="43" t="s">
         <v>185</v>
       </c>
       <c r="Q8" s="25">
@@ -8254,13 +8307,13 @@
       <c r="Y8" s="25"/>
     </row>
     <row r="9" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27">
+      <c r="A9" s="26">
         <v>100102</v>
       </c>
       <c r="B9" s="7">
         <v>100102</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="37" t="s">
         <v>162</v>
       </c>
       <c r="D9" s="7">
@@ -8270,7 +8323,7 @@
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F9,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>1</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="33" t="s">
         <v>182</v>
       </c>
       <c r="G9" s="7">
@@ -8286,24 +8339,24 @@
         <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K9,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>0</v>
       </c>
-      <c r="K9" s="69" t="s">
+      <c r="K9" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="L9" s="62">
+      <c r="L9" s="52">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M9,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>0</v>
       </c>
-      <c r="M9" s="66" t="s">
+      <c r="M9" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="N9" s="62">
+      <c r="N9" s="52">
         <v>0</v>
       </c>
       <c r="O9" s="4">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P9,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>0</v>
       </c>
-      <c r="P9" s="54" t="s">
+      <c r="P9" s="44" t="s">
         <v>185</v>
       </c>
       <c r="Q9" s="4">
@@ -8333,13 +8386,13 @@
       <c r="Y9" s="4"/>
     </row>
     <row r="10" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="29">
+      <c r="A10" s="27">
         <v>100103</v>
       </c>
       <c r="B10" s="23">
         <v>100103</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="38" t="s">
         <v>160</v>
       </c>
       <c r="D10" s="23">
@@ -8349,7 +8402,7 @@
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F10,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F10" s="42" t="s">
+      <c r="F10" s="34" t="s">
         <v>181</v>
       </c>
       <c r="G10" s="23">
@@ -8365,51 +8418,51 @@
         <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K10,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>0</v>
       </c>
-      <c r="K10" s="70" t="s">
+      <c r="K10" s="60" t="s">
         <v>185</v>
       </c>
-      <c r="L10" s="63">
+      <c r="L10" s="53">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M10,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>0</v>
       </c>
-      <c r="M10" s="67" t="s">
+      <c r="M10" s="57" t="s">
         <v>185</v>
       </c>
-      <c r="N10" s="63">
-        <v>0</v>
-      </c>
-      <c r="O10" s="30">
+      <c r="N10" s="53">
+        <v>0</v>
+      </c>
+      <c r="O10" s="28">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P10,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>0</v>
       </c>
-      <c r="P10" s="55" t="s">
+      <c r="P10" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="Q10" s="30">
-        <v>0</v>
-      </c>
-      <c r="R10" s="30">
+      <c r="Q10" s="28">
+        <v>0</v>
+      </c>
+      <c r="R10" s="28">
         <v>0</v>
       </c>
       <c r="S10" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="T10" s="30">
+      <c r="T10" s="28">
         <v>100006</v>
       </c>
-      <c r="U10" s="30">
-        <v>0</v>
-      </c>
-      <c r="V10" s="30">
-        <v>0</v>
-      </c>
-      <c r="W10" s="30">
-        <v>0</v>
-      </c>
-      <c r="X10" s="30" t="s">
+      <c r="U10" s="28">
+        <v>0</v>
+      </c>
+      <c r="V10" s="28">
+        <v>0</v>
+      </c>
+      <c r="W10" s="28">
+        <v>0</v>
+      </c>
+      <c r="X10" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="Y10" s="30"/>
+      <c r="Y10" s="28"/>
     </row>
     <row r="11" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
@@ -8418,7 +8471,7 @@
       <c r="B11" s="22">
         <v>100201</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="36" t="s">
         <v>122</v>
       </c>
       <c r="D11" s="22">
@@ -8428,7 +8481,7 @@
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F11,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="32" t="s">
         <v>181</v>
       </c>
       <c r="G11" s="22">
@@ -8444,24 +8497,24 @@
         <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K11,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>0</v>
       </c>
-      <c r="K11" s="68" t="s">
+      <c r="K11" s="58" t="s">
         <v>185</v>
       </c>
-      <c r="L11" s="61">
+      <c r="L11" s="51">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M11,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>0</v>
       </c>
-      <c r="M11" s="65" t="s">
+      <c r="M11" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="N11" s="61">
+      <c r="N11" s="51">
         <v>0</v>
       </c>
       <c r="O11" s="25">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P11,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>0</v>
       </c>
-      <c r="P11" s="53" t="s">
+      <c r="P11" s="43" t="s">
         <v>185</v>
       </c>
       <c r="Q11" s="25">
@@ -8491,13 +8544,13 @@
       <c r="Y11" s="25"/>
     </row>
     <row r="12" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27">
+      <c r="A12" s="26">
         <v>100202</v>
       </c>
       <c r="B12" s="7">
         <v>100202</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="37" t="s">
         <v>129</v>
       </c>
       <c r="D12" s="7">
@@ -8507,7 +8560,7 @@
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F12,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F12" s="41" t="s">
+      <c r="F12" s="33" t="s">
         <v>181</v>
       </c>
       <c r="G12" s="7">
@@ -8523,24 +8576,24 @@
         <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K12,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>0</v>
       </c>
-      <c r="K12" s="69" t="s">
+      <c r="K12" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="L12" s="62">
+      <c r="L12" s="52">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M12,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>0</v>
       </c>
-      <c r="M12" s="66" t="s">
+      <c r="M12" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="N12" s="62">
+      <c r="N12" s="52">
         <v>0</v>
       </c>
       <c r="O12" s="4">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P12,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>0</v>
       </c>
-      <c r="P12" s="54" t="s">
+      <c r="P12" s="44" t="s">
         <v>185</v>
       </c>
       <c r="Q12" s="4">
@@ -8570,13 +8623,13 @@
       <c r="Y12" s="4"/>
     </row>
     <row r="13" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="29">
+      <c r="A13" s="27">
         <v>100203</v>
       </c>
       <c r="B13" s="23">
         <v>100203</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="38" t="s">
         <v>130</v>
       </c>
       <c r="D13" s="23">
@@ -8586,7 +8639,7 @@
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F13,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>10</v>
       </c>
-      <c r="F13" s="42" t="s">
+      <c r="F13" s="34" t="s">
         <v>183</v>
       </c>
       <c r="G13" s="23">
@@ -8602,51 +8655,51 @@
         <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K13,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>0</v>
       </c>
-      <c r="K13" s="70" t="s">
+      <c r="K13" s="60" t="s">
         <v>185</v>
       </c>
-      <c r="L13" s="63">
+      <c r="L13" s="53">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M13,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>0</v>
       </c>
-      <c r="M13" s="67" t="s">
+      <c r="M13" s="57" t="s">
         <v>185</v>
       </c>
-      <c r="N13" s="63">
-        <v>0</v>
-      </c>
-      <c r="O13" s="30">
+      <c r="N13" s="53">
+        <v>0</v>
+      </c>
+      <c r="O13" s="28">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P13,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>0</v>
       </c>
-      <c r="P13" s="55" t="s">
+      <c r="P13" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="Q13" s="30">
-        <v>0</v>
-      </c>
-      <c r="R13" s="30">
+      <c r="Q13" s="28">
+        <v>0</v>
+      </c>
+      <c r="R13" s="28">
         <v>0</v>
       </c>
       <c r="S13" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="T13" s="30">
+      <c r="T13" s="28">
         <v>100009</v>
       </c>
-      <c r="U13" s="30">
-        <v>0</v>
-      </c>
-      <c r="V13" s="30">
-        <v>0</v>
-      </c>
-      <c r="W13" s="30">
-        <v>0</v>
-      </c>
-      <c r="X13" s="30" t="s">
+      <c r="U13" s="28">
+        <v>0</v>
+      </c>
+      <c r="V13" s="28">
+        <v>0</v>
+      </c>
+      <c r="W13" s="28">
+        <v>0</v>
+      </c>
+      <c r="X13" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="Y13" s="30"/>
+      <c r="Y13" s="28"/>
     </row>
     <row r="14" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
@@ -8655,7 +8708,7 @@
       <c r="B14" s="22">
         <v>100301</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="36" t="s">
         <v>123</v>
       </c>
       <c r="D14" s="22">
@@ -8665,7 +8718,7 @@
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F14,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F14" s="40" t="s">
+      <c r="F14" s="32" t="s">
         <v>181</v>
       </c>
       <c r="G14" s="22">
@@ -8681,24 +8734,24 @@
         <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K14,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K14" s="68" t="s">
+      <c r="K14" s="58" t="s">
         <v>235</v>
       </c>
-      <c r="L14" s="61">
+      <c r="L14" s="51">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M14,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
-      <c r="M14" s="65" t="s">
+      <c r="M14" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="N14" s="61">
+      <c r="N14" s="51">
         <v>20</v>
       </c>
       <c r="O14" s="25">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P14,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>0</v>
       </c>
-      <c r="P14" s="53" t="s">
+      <c r="P14" s="43" t="s">
         <v>185</v>
       </c>
       <c r="Q14" s="25">
@@ -8730,13 +8783,13 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27">
+      <c r="A15" s="26">
         <v>100302</v>
       </c>
       <c r="B15" s="7">
         <v>100302</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="37" t="s">
         <v>168</v>
       </c>
       <c r="D15" s="7">
@@ -8746,7 +8799,7 @@
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F15,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F15" s="41" t="s">
+      <c r="F15" s="33" t="s">
         <v>181</v>
       </c>
       <c r="G15" s="7">
@@ -8762,24 +8815,24 @@
         <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K15,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K15" s="69" t="s">
+      <c r="K15" s="59" t="s">
         <v>235</v>
       </c>
-      <c r="L15" s="62">
+      <c r="L15" s="52">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M15,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
-      <c r="M15" s="66" t="s">
+      <c r="M15" s="56" t="s">
         <v>186</v>
       </c>
-      <c r="N15" s="62">
+      <c r="N15" s="52">
         <v>20</v>
       </c>
       <c r="O15" s="4">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P15,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>0</v>
       </c>
-      <c r="P15" s="54" t="s">
+      <c r="P15" s="44" t="s">
         <v>185</v>
       </c>
       <c r="Q15" s="4">
@@ -8811,13 +8864,13 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="29">
+      <c r="A16" s="27">
         <v>100303</v>
       </c>
       <c r="B16" s="23">
         <v>100303</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="38" t="s">
         <v>167</v>
       </c>
       <c r="D16" s="23">
@@ -8827,7 +8880,7 @@
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F16,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F16" s="42" t="s">
+      <c r="F16" s="34" t="s">
         <v>181</v>
       </c>
       <c r="G16" s="23">
@@ -8843,51 +8896,51 @@
         <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K16,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K16" s="70" t="s">
+      <c r="K16" s="60" t="s">
         <v>235</v>
       </c>
-      <c r="L16" s="63">
+      <c r="L16" s="53">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M16,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
-      <c r="M16" s="67" t="s">
+      <c r="M16" s="57" t="s">
         <v>186</v>
       </c>
-      <c r="N16" s="63">
+      <c r="N16" s="53">
         <v>20</v>
       </c>
-      <c r="O16" s="30">
+      <c r="O16" s="28">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P16,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>0</v>
       </c>
-      <c r="P16" s="55" t="s">
+      <c r="P16" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="Q16" s="30">
-        <v>0</v>
-      </c>
-      <c r="R16" s="30">
+      <c r="Q16" s="28">
+        <v>0</v>
+      </c>
+      <c r="R16" s="28">
         <v>0</v>
       </c>
       <c r="S16" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="T16" s="30">
+      <c r="T16" s="28">
         <v>100011</v>
       </c>
-      <c r="U16" s="30">
-        <v>0</v>
-      </c>
-      <c r="V16" s="30">
-        <v>0</v>
-      </c>
-      <c r="W16" s="30">
-        <v>0</v>
-      </c>
-      <c r="X16" s="30" t="s">
+      <c r="U16" s="28">
+        <v>0</v>
+      </c>
+      <c r="V16" s="28">
+        <v>0</v>
+      </c>
+      <c r="W16" s="28">
+        <v>0</v>
+      </c>
+      <c r="X16" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="Y16" s="30" t="s">
+      <c r="Y16" s="28" t="s">
         <v>118</v>
       </c>
     </row>
@@ -8898,7 +8951,7 @@
       <c r="B17" s="22">
         <v>100401</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="36" t="s">
         <v>124</v>
       </c>
       <c r="D17" s="22">
@@ -8908,7 +8961,7 @@
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F17,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F17" s="40" t="s">
+      <c r="F17" s="32" t="s">
         <v>181</v>
       </c>
       <c r="G17" s="22">
@@ -8924,24 +8977,24 @@
         <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K17,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K17" s="68" t="s">
+      <c r="K17" s="58" t="s">
         <v>235</v>
       </c>
-      <c r="L17" s="61">
+      <c r="L17" s="51">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M17,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
-      <c r="M17" s="65" t="s">
+      <c r="M17" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="N17" s="61">
+      <c r="N17" s="51">
         <v>20</v>
       </c>
       <c r="O17" s="25">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P17,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>0</v>
       </c>
-      <c r="P17" s="53" t="s">
+      <c r="P17" s="43" t="s">
         <v>185</v>
       </c>
       <c r="Q17" s="25">
@@ -8973,13 +9026,13 @@
       </c>
     </row>
     <row r="18" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27">
+      <c r="A18" s="26">
         <v>100402</v>
       </c>
       <c r="B18" s="7">
         <v>100402</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="37" t="s">
         <v>169</v>
       </c>
       <c r="D18" s="7">
@@ -8989,7 +9042,7 @@
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F18,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>3002</v>
       </c>
-      <c r="F18" s="41" t="s">
+      <c r="F18" s="33" t="s">
         <v>184</v>
       </c>
       <c r="G18" s="7">
@@ -9005,24 +9058,24 @@
         <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K18,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K18" s="69" t="s">
+      <c r="K18" s="59" t="s">
         <v>235</v>
       </c>
-      <c r="L18" s="62">
+      <c r="L18" s="52">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M18,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
-      <c r="M18" s="66" t="s">
+      <c r="M18" s="56" t="s">
         <v>186</v>
       </c>
-      <c r="N18" s="62">
+      <c r="N18" s="52">
         <v>20</v>
       </c>
       <c r="O18" s="4">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P18,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>0</v>
       </c>
-      <c r="P18" s="54" t="s">
+      <c r="P18" s="44" t="s">
         <v>185</v>
       </c>
       <c r="Q18" s="4">
@@ -9054,13 +9107,13 @@
       </c>
     </row>
     <row r="19" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="29">
+      <c r="A19" s="27">
         <v>100403</v>
       </c>
       <c r="B19" s="23">
         <v>100403</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="38" t="s">
         <v>131</v>
       </c>
       <c r="D19" s="23">
@@ -9070,7 +9123,7 @@
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F19,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F19" s="42" t="s">
+      <c r="F19" s="34" t="s">
         <v>181</v>
       </c>
       <c r="G19" s="23">
@@ -9086,51 +9139,51 @@
         <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K19,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K19" s="70" t="s">
+      <c r="K19" s="60" t="s">
         <v>235</v>
       </c>
-      <c r="L19" s="63">
+      <c r="L19" s="53">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M19,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
-      <c r="M19" s="67" t="s">
+      <c r="M19" s="57" t="s">
         <v>186</v>
       </c>
-      <c r="N19" s="63">
+      <c r="N19" s="53">
         <v>20</v>
       </c>
-      <c r="O19" s="30">
+      <c r="O19" s="28">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P19,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>0</v>
       </c>
-      <c r="P19" s="55" t="s">
+      <c r="P19" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="Q19" s="30">
-        <v>0</v>
-      </c>
-      <c r="R19" s="30">
+      <c r="Q19" s="28">
+        <v>0</v>
+      </c>
+      <c r="R19" s="28">
         <v>0</v>
       </c>
       <c r="S19" s="23">
         <v>100</v>
       </c>
-      <c r="T19" s="30">
+      <c r="T19" s="28">
         <v>100014</v>
       </c>
-      <c r="U19" s="30">
-        <v>0</v>
-      </c>
-      <c r="V19" s="30">
-        <v>0</v>
-      </c>
-      <c r="W19" s="30">
-        <v>0</v>
-      </c>
-      <c r="X19" s="30" t="s">
+      <c r="U19" s="28">
+        <v>0</v>
+      </c>
+      <c r="V19" s="28">
+        <v>0</v>
+      </c>
+      <c r="W19" s="28">
+        <v>0</v>
+      </c>
+      <c r="X19" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="Y19" s="30" t="s">
+      <c r="Y19" s="28" t="s">
         <v>118</v>
       </c>
     </row>
@@ -9151,7 +9204,7 @@
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F20,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F20" s="40" t="s">
+      <c r="F20" s="32" t="s">
         <v>181</v>
       </c>
       <c r="G20" s="22">
@@ -9167,24 +9220,24 @@
         <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K20,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K20" s="68" t="s">
+      <c r="K20" s="58" t="s">
         <v>235</v>
       </c>
-      <c r="L20" s="61">
+      <c r="L20" s="51">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M20,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
-      <c r="M20" s="65" t="s">
+      <c r="M20" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="N20" s="61">
+      <c r="N20" s="51">
         <v>20</v>
       </c>
       <c r="O20" s="25">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P20,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>0</v>
       </c>
-      <c r="P20" s="53" t="s">
+      <c r="P20" s="43" t="s">
         <v>185</v>
       </c>
       <c r="Q20" s="25">
@@ -9216,7 +9269,7 @@
       </c>
     </row>
     <row r="21" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="27">
+      <c r="A21" s="26">
         <v>100502</v>
       </c>
       <c r="B21" s="7">
@@ -9232,7 +9285,7 @@
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F21,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F21" s="41" t="s">
+      <c r="F21" s="33" t="s">
         <v>181</v>
       </c>
       <c r="G21" s="7">
@@ -9248,24 +9301,24 @@
         <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K21,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K21" s="69" t="s">
+      <c r="K21" s="59" t="s">
         <v>235</v>
       </c>
-      <c r="L21" s="62">
+      <c r="L21" s="52">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M21,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>2</v>
       </c>
-      <c r="M21" s="66" t="s">
+      <c r="M21" s="56" t="s">
         <v>186</v>
       </c>
-      <c r="N21" s="62">
+      <c r="N21" s="52">
         <v>20</v>
       </c>
       <c r="O21" s="4">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P21,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>0</v>
       </c>
-      <c r="P21" s="54" t="s">
+      <c r="P21" s="44" t="s">
         <v>185</v>
       </c>
       <c r="Q21" s="4">
@@ -9297,7 +9350,7 @@
       </c>
     </row>
     <row r="22" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="29">
+      <c r="A22" s="27">
         <v>100503</v>
       </c>
       <c r="B22" s="23">
@@ -9313,7 +9366,7 @@
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F22,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F22" s="42" t="s">
+      <c r="F22" s="34" t="s">
         <v>181</v>
       </c>
       <c r="G22" s="23">
@@ -9329,51 +9382,51 @@
         <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K22,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K22" s="70" t="s">
+      <c r="K22" s="60" t="s">
         <v>235</v>
       </c>
-      <c r="L22" s="63">
+      <c r="L22" s="53">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M22,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="M22" s="67" t="s">
+      <c r="M22" s="57" t="s">
         <v>187</v>
       </c>
-      <c r="N22" s="63">
+      <c r="N22" s="53">
         <v>20</v>
       </c>
-      <c r="O22" s="30">
+      <c r="O22" s="28">
         <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P22,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
         <v>2</v>
       </c>
-      <c r="P22" s="55" t="s">
+      <c r="P22" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="Q22" s="30">
-        <v>0</v>
-      </c>
-      <c r="R22" s="30">
+      <c r="Q22" s="28">
+        <v>0</v>
+      </c>
+      <c r="R22" s="28">
         <v>10</v>
       </c>
       <c r="S22" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="T22" s="30">
+      <c r="T22" s="28">
         <v>100017</v>
       </c>
-      <c r="U22" s="30">
-        <v>0</v>
-      </c>
-      <c r="V22" s="30">
+      <c r="U22" s="28">
+        <v>0</v>
+      </c>
+      <c r="V22" s="28">
         <v>100018</v>
       </c>
-      <c r="W22" s="30">
-        <v>0</v>
-      </c>
-      <c r="X22" s="30" t="s">
+      <c r="W22" s="28">
+        <v>0</v>
+      </c>
+      <c r="X22" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="Y22" s="30"/>
+      <c r="Y22" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9422,20 +9475,21 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="26.125" customWidth="1"/>
-    <col min="5" max="5" width="31.125" customWidth="1"/>
-    <col min="6" max="6" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="26.125" customWidth="1"/>
+    <col min="4" max="4" width="26.125" style="61" customWidth="1"/>
+    <col min="5" max="5" width="31.125" style="61" customWidth="1"/>
+    <col min="6" max="6" width="16.375" style="61" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.375" customWidth="1"/>
     <col min="8" max="8" width="45.25" customWidth="1"/>
     <col min="9" max="9" width="7.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="67.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.125" style="61" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -9444,9 +9498,9 @@
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -9458,13 +9512,13 @@
       <c r="C2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="62" t="s">
         <v>97</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -9482,7 +9536,7 @@
       <c r="K2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="62" t="s">
         <v>98</v>
       </c>
     </row>
@@ -9496,13 +9550,13 @@
       <c r="C3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="63" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="11" t="s">
@@ -9520,7 +9574,7 @@
       <c r="K3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="63" t="s">
         <v>8</v>
       </c>
     </row>
@@ -9534,13 +9588,13 @@
       <c r="C4" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="64" t="s">
         <v>41</v>
       </c>
       <c r="G4" s="20" t="s">
@@ -9558,7 +9612,7 @@
       <c r="K4" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="64" t="s">
         <v>99</v>
       </c>
     </row>
@@ -9570,24 +9624,24 @@
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C5,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="71">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E5,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="71" t="s">
         <v>187</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="71">
         <v>0</v>
       </c>
       <c r="G5" s="22">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H5,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H5" s="40" t="s">
+      <c r="H5" s="32" t="s">
         <v>191</v>
       </c>
       <c r="I5" s="25">
@@ -9599,36 +9653,36 @@
       <c r="K5" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="L5" s="26">
+      <c r="L5" s="65">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="27">
+      <c r="A6" s="26">
         <v>100002</v>
       </c>
       <c r="B6" s="7">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C6,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>2</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="72">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E6,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="72" t="s">
         <v>187</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="72">
         <v>0</v>
       </c>
       <c r="G6" s="7">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H6,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>300</v>
       </c>
-      <c r="H6" s="41" t="s">
+      <c r="H6" s="33" t="s">
         <v>192</v>
       </c>
       <c r="I6" s="4">
@@ -9640,118 +9694,118 @@
       <c r="K6" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="L6" s="28">
+      <c r="L6" s="66">
         <v>1.5</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="29">
+      <c r="A7" s="27">
         <v>100003</v>
       </c>
       <c r="B7" s="23">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C7,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="73">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E7,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>11</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="73" t="s">
         <v>201</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="73">
         <v>0</v>
       </c>
       <c r="G7" s="23">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H7,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H7" s="42" t="s">
+      <c r="H7" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="28">
         <v>0</v>
       </c>
       <c r="J7" s="23">
         <v>1.2</v>
       </c>
-      <c r="K7" s="30" t="s">
+      <c r="K7" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="L7" s="31">
+      <c r="L7" s="67">
         <v>1.3</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="47">
+      <c r="A8" s="39">
         <v>100004</v>
       </c>
-      <c r="B8" s="48">
+      <c r="B8" s="40">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C8,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="D8" s="48">
+      <c r="D8" s="74">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E8,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="74" t="s">
         <v>187</v>
       </c>
-      <c r="F8" s="48">
-        <v>0</v>
-      </c>
-      <c r="G8" s="48">
+      <c r="F8" s="74">
+        <v>0</v>
+      </c>
+      <c r="G8" s="40">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H8,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H8" s="49" t="s">
+      <c r="H8" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="I8" s="51">
-        <v>0</v>
-      </c>
-      <c r="J8" s="48">
+      <c r="I8" s="42">
+        <v>0</v>
+      </c>
+      <c r="J8" s="40">
         <v>1</v>
       </c>
-      <c r="K8" s="51" t="s">
+      <c r="K8" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="L8" s="52">
+      <c r="L8" s="68">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="27">
+      <c r="A9" s="26">
         <v>100005</v>
       </c>
       <c r="B9" s="7">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C9,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="72">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E9,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="72" t="s">
         <v>187</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="72">
         <v>0</v>
       </c>
       <c r="G9" s="7">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H9,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H9" s="41" t="s">
+      <c r="H9" s="33" t="s">
         <v>191</v>
       </c>
       <c r="I9" s="4">
@@ -9763,48 +9817,48 @@
       <c r="K9" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="L9" s="28">
+      <c r="L9" s="66">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="29">
+      <c r="A10" s="27">
         <v>100006</v>
       </c>
       <c r="B10" s="23">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C10,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="73">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E10,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="73" t="s">
         <v>187</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="73">
         <v>0</v>
       </c>
       <c r="G10" s="23">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H10,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H10" s="42" t="s">
+      <c r="H10" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="I10" s="30">
+      <c r="I10" s="28">
         <v>0</v>
       </c>
       <c r="J10" s="23">
         <v>1.3</v>
       </c>
-      <c r="K10" s="30" t="s">
+      <c r="K10" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="L10" s="31">
+      <c r="L10" s="67">
         <v>1</v>
       </c>
     </row>
@@ -9816,24 +9870,24 @@
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C11,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="71">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E11,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="71" t="s">
         <v>187</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="71">
         <v>0</v>
       </c>
       <c r="G11" s="22">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H11,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H11" s="40" t="s">
+      <c r="H11" s="32" t="s">
         <v>191</v>
       </c>
       <c r="I11" s="25">
@@ -9845,36 +9899,36 @@
       <c r="K11" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="L11" s="26">
+      <c r="L11" s="65">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="27">
+      <c r="A12" s="26">
         <v>100008</v>
       </c>
       <c r="B12" s="7">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C12,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="72">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E12,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="72" t="s">
         <v>187</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="72">
         <v>0</v>
       </c>
       <c r="G12" s="7">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H12,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H12" s="41" t="s">
+      <c r="H12" s="33" t="s">
         <v>191</v>
       </c>
       <c r="I12" s="4">
@@ -9886,48 +9940,48 @@
       <c r="K12" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="L12" s="28">
+      <c r="L12" s="66">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="34">
+      <c r="A13" s="31">
         <v>100009</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="29">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C13,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="75">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E13,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="75" t="s">
         <v>187</v>
       </c>
-      <c r="F13" s="32">
-        <v>0</v>
-      </c>
-      <c r="G13" s="32">
+      <c r="F13" s="75">
+        <v>0</v>
+      </c>
+      <c r="G13" s="29">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H13,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H13" s="43" t="s">
+      <c r="H13" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="I13" s="33">
-        <v>0</v>
-      </c>
-      <c r="J13" s="32">
+      <c r="I13" s="30">
+        <v>0</v>
+      </c>
+      <c r="J13" s="29">
         <v>0.8</v>
       </c>
-      <c r="K13" s="33" t="s">
+      <c r="K13" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="L13" s="35">
+      <c r="L13" s="69">
         <v>1</v>
       </c>
     </row>
@@ -9939,24 +9993,24 @@
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C14,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="71">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E14,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="71" t="s">
         <v>187</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="71">
         <v>0</v>
       </c>
       <c r="G14" s="22">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H14,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H14" s="40" t="s">
+      <c r="H14" s="32" t="s">
         <v>191</v>
       </c>
       <c r="I14" s="25">
@@ -9968,48 +10022,48 @@
       <c r="K14" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="L14" s="26">
+      <c r="L14" s="65">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="34">
+      <c r="A15" s="31">
         <v>100011</v>
       </c>
-      <c r="B15" s="32">
+      <c r="B15" s="29">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C15,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="75">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E15,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="75" t="s">
         <v>187</v>
       </c>
-      <c r="F15" s="32">
-        <v>0</v>
-      </c>
-      <c r="G15" s="32">
+      <c r="F15" s="75">
+        <v>0</v>
+      </c>
+      <c r="G15" s="29">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H15,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H15" s="43" t="s">
+      <c r="H15" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="I15" s="33">
-        <v>0</v>
-      </c>
-      <c r="J15" s="32">
+      <c r="I15" s="30">
+        <v>0</v>
+      </c>
+      <c r="J15" s="29">
         <v>1.2</v>
       </c>
-      <c r="K15" s="33" t="s">
+      <c r="K15" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="L15" s="35">
+      <c r="L15" s="69">
         <v>1</v>
       </c>
     </row>
@@ -10021,24 +10075,24 @@
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C16,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="71">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E16,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E16" s="36" t="s">
+      <c r="E16" s="71" t="s">
         <v>187</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="71">
         <v>0</v>
       </c>
       <c r="G16" s="22">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H16,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H16" s="40" t="s">
+      <c r="H16" s="32" t="s">
         <v>191</v>
       </c>
       <c r="I16" s="25">
@@ -10050,36 +10104,36 @@
       <c r="K16" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="L16" s="26">
+      <c r="L16" s="65">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="27">
+      <c r="A17" s="26">
         <v>100013</v>
       </c>
       <c r="B17" s="7">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C17,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>2</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="72">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E17,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="E17" s="72" t="s">
         <v>187</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="72">
         <v>0</v>
       </c>
       <c r="G17" s="7">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H17,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>300</v>
       </c>
-      <c r="H17" s="41" t="s">
+      <c r="H17" s="33" t="s">
         <v>192</v>
       </c>
       <c r="I17" s="4">
@@ -10091,212 +10145,212 @@
       <c r="K17" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="L17" s="28">
+      <c r="L17" s="66">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="29">
+      <c r="A18" s="27">
         <v>100014</v>
       </c>
       <c r="B18" s="23">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C18,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="73">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E18,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="73" t="s">
         <v>187</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="73">
         <v>0</v>
       </c>
       <c r="G18" s="23">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H18,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H18" s="42" t="s">
+      <c r="H18" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="I18" s="30">
+      <c r="I18" s="28">
         <v>0</v>
       </c>
       <c r="J18" s="23">
         <v>1.2</v>
       </c>
-      <c r="K18" s="30" t="s">
+      <c r="K18" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="L18" s="31">
+      <c r="L18" s="67">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="47">
+      <c r="A19" s="39">
         <v>100015</v>
       </c>
-      <c r="B19" s="48">
+      <c r="B19" s="40">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C19,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="D19" s="48">
+      <c r="D19" s="74">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E19,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E19" s="50" t="s">
+      <c r="E19" s="74" t="s">
         <v>187</v>
       </c>
-      <c r="F19" s="48">
-        <v>0</v>
-      </c>
-      <c r="G19" s="48">
+      <c r="F19" s="74">
+        <v>0</v>
+      </c>
+      <c r="G19" s="40">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H19,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H19" s="49" t="s">
+      <c r="H19" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="I19" s="51">
-        <v>0</v>
-      </c>
-      <c r="J19" s="48">
+      <c r="I19" s="42">
+        <v>0</v>
+      </c>
+      <c r="J19" s="40">
         <v>1</v>
       </c>
-      <c r="K19" s="51" t="s">
+      <c r="K19" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="L19" s="52">
+      <c r="L19" s="68">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="29">
+      <c r="A20" s="27">
         <v>100016</v>
       </c>
       <c r="B20" s="23">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C20,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="73">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E20,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E20" s="38" t="s">
+      <c r="E20" s="73" t="s">
         <v>187</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="73">
         <v>0</v>
       </c>
       <c r="G20" s="23">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H20,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H20" s="42" t="s">
+      <c r="H20" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="I20" s="30">
+      <c r="I20" s="28">
         <v>0</v>
       </c>
       <c r="J20" s="23">
         <v>1.2</v>
       </c>
-      <c r="K20" s="30" t="s">
+      <c r="K20" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="L20" s="31">
+      <c r="L20" s="67">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="29">
+      <c r="A21" s="27">
         <v>100017</v>
       </c>
       <c r="B21" s="23">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C21,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="73">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E21,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E21" s="38" t="s">
+      <c r="E21" s="73" t="s">
         <v>187</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="73">
         <v>0</v>
       </c>
       <c r="G21" s="23">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H21,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H21" s="42" t="s">
+      <c r="H21" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="I21" s="30">
+      <c r="I21" s="28">
         <v>0</v>
       </c>
       <c r="J21" s="23">
         <v>1.3</v>
       </c>
-      <c r="K21" s="30" t="s">
+      <c r="K21" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="L21" s="31">
+      <c r="L21" s="67">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="29">
+      <c r="A22" s="27">
         <v>100018</v>
       </c>
       <c r="B22" s="23">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C22,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="73">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E22,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="E22" s="38" t="s">
+      <c r="E22" s="73" t="s">
         <v>187</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="73">
         <v>0</v>
       </c>
       <c r="G22" s="23">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H22,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="H22" s="42" t="s">
+      <c r="H22" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="I22" s="30">
+      <c r="I22" s="28">
         <v>0</v>
       </c>
       <c r="J22" s="23">
         <v>1.3</v>
       </c>
-      <c r="K22" s="30" t="s">
+      <c r="K22" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="L22" s="31">
+      <c r="L22" s="67">
         <v>1</v>
       </c>
     </row>
@@ -10334,8 +10388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E85B499-5762-4179-9193-75E156FB948B}">
   <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10347,13 +10401,13 @@
     <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9.875" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="16.875" customWidth="1"/>
-    <col min="11" max="11" width="23.75" customWidth="1"/>
-    <col min="12" max="12" width="28" customWidth="1"/>
-    <col min="13" max="13" width="12.25" customWidth="1"/>
+    <col min="11" max="11" width="23.75" style="61" customWidth="1"/>
+    <col min="12" max="12" width="28" style="61" customWidth="1"/>
+    <col min="13" max="13" width="12.25" style="61" customWidth="1"/>
     <col min="14" max="14" width="21" customWidth="1"/>
     <col min="15" max="15" width="43.75" customWidth="1"/>
     <col min="19" max="19" width="78.875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.125" style="61" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
@@ -10394,13 +10448,13 @@
       <c r="J2" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="62" t="s">
         <v>97</v>
       </c>
       <c r="N2" s="1" t="s">
@@ -10421,7 +10475,7 @@
       <c r="S2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" s="62" t="s">
         <v>98</v>
       </c>
       <c r="U2" s="15" t="s">
@@ -10459,13 +10513,13 @@
       <c r="J3" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="63" t="s">
         <v>8</v>
       </c>
       <c r="N3" s="11" t="s">
@@ -10486,7 +10540,7 @@
       <c r="S3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="11" t="s">
+      <c r="T3" s="63" t="s">
         <v>8</v>
       </c>
       <c r="U3" s="16" t="s">
@@ -10524,13 +10578,13 @@
       <c r="J4" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="76" t="s">
         <v>41</v>
       </c>
       <c r="N4" s="3" t="s">
@@ -10551,7 +10605,7 @@
       <c r="S4" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" s="76" t="s">
         <v>99</v>
       </c>
       <c r="U4" s="17" t="s">
@@ -10566,14 +10620,14 @@
         <f>INDEX('!참조_ENUM'!$V$3:$V$13,MATCH(C5,'!참조_ENUM'!$W$3:$W$13,0))</f>
         <v>1</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="33" t="s">
         <v>193</v>
       </c>
       <c r="D5" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E5,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>2</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="33" t="s">
         <v>199</v>
       </c>
       <c r="F5" s="4">
@@ -10591,21 +10645,21 @@
       <c r="J5" s="4">
         <v>0</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="72">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(L5,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>12</v>
       </c>
-      <c r="L5" s="37" t="s">
+      <c r="L5" s="72" t="s">
         <v>187</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="72">
         <v>0</v>
       </c>
       <c r="N5" s="7">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(O5,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>900</v>
       </c>
-      <c r="O5" s="41" t="s">
+      <c r="O5" s="33" t="s">
         <v>202</v>
       </c>
       <c r="P5" s="4">
@@ -10620,7 +10674,7 @@
       <c r="S5" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="77">
         <v>0</v>
       </c>
       <c r="U5" s="4" t="b">
@@ -10635,14 +10689,14 @@
         <f>INDEX('!참조_ENUM'!$V$3:$V$13,MATCH(C6,'!참조_ENUM'!$W$3:$W$13,0))</f>
         <v>106</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="33" t="s">
         <v>194</v>
       </c>
       <c r="D6" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E6,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="33" t="s">
         <v>200</v>
       </c>
       <c r="F6" s="4">
@@ -10660,21 +10714,21 @@
       <c r="J6" s="4">
         <v>0</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="72">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(L6,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>11</v>
       </c>
-      <c r="L6" s="37" t="s">
+      <c r="L6" s="72" t="s">
         <v>201</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="72">
         <v>0</v>
       </c>
       <c r="N6" s="7">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(O6,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="O6" s="41" t="s">
+      <c r="O6" s="33" t="s">
         <v>191</v>
       </c>
       <c r="P6" s="4">
@@ -10689,7 +10743,7 @@
       <c r="S6" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="77">
         <v>0</v>
       </c>
       <c r="U6" s="4" t="b">
@@ -10704,14 +10758,14 @@
         <f>INDEX('!참조_ENUM'!$V$3:$V$13,MATCH(C7,'!참조_ENUM'!$W$3:$W$13,0))</f>
         <v>107</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="33" t="s">
         <v>195</v>
       </c>
       <c r="D7" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E7,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="33" t="s">
         <v>200</v>
       </c>
       <c r="F7" s="4">
@@ -10729,21 +10783,21 @@
       <c r="J7" s="4">
         <v>0</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="72">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(L7,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>11</v>
       </c>
-      <c r="L7" s="37" t="s">
+      <c r="L7" s="72" t="s">
         <v>201</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="72">
         <v>0</v>
       </c>
       <c r="N7" s="7">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(O7,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>200</v>
       </c>
-      <c r="O7" s="41" t="s">
+      <c r="O7" s="33" t="s">
         <v>203</v>
       </c>
       <c r="P7" s="4">
@@ -10758,7 +10812,7 @@
       <c r="S7" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="77">
         <v>0</v>
       </c>
       <c r="U7" s="4" t="b">
@@ -10773,14 +10827,14 @@
         <f>INDEX('!참조_ENUM'!$V$3:$V$13,MATCH(C8,'!참조_ENUM'!$W$3:$W$13,0))</f>
         <v>106</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="33" t="s">
         <v>194</v>
       </c>
       <c r="D8" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E8,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="33" t="s">
         <v>200</v>
       </c>
       <c r="F8" s="4">
@@ -10798,21 +10852,21 @@
       <c r="J8" s="4">
         <v>0</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="72">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(L8,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>11</v>
       </c>
-      <c r="L8" s="37" t="s">
+      <c r="L8" s="72" t="s">
         <v>201</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="72">
         <v>0</v>
       </c>
       <c r="N8" s="7">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(O8,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="O8" s="41" t="s">
+      <c r="O8" s="33" t="s">
         <v>191</v>
       </c>
       <c r="P8" s="4">
@@ -10827,7 +10881,7 @@
       <c r="S8" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="77">
         <v>0</v>
       </c>
       <c r="U8" s="4" t="b">
@@ -10842,14 +10896,14 @@
         <f>INDEX('!참조_ENUM'!$V$3:$V$13,MATCH(C9,'!참조_ENUM'!$W$3:$W$13,0))</f>
         <v>108</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="33" t="s">
         <v>196</v>
       </c>
       <c r="D9" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E9,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="33" t="s">
         <v>200</v>
       </c>
       <c r="F9" s="4">
@@ -10867,21 +10921,21 @@
       <c r="J9" s="4">
         <v>0</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="72">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(L9,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>11</v>
       </c>
-      <c r="L9" s="37" t="s">
+      <c r="L9" s="72" t="s">
         <v>201</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="72">
         <v>0</v>
       </c>
       <c r="N9" s="7">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(O9,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="O9" s="41" t="s">
+      <c r="O9" s="33" t="s">
         <v>191</v>
       </c>
       <c r="P9" s="4">
@@ -10896,7 +10950,7 @@
       <c r="S9" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="77">
         <v>0</v>
       </c>
       <c r="U9" s="4" t="b">
@@ -10911,14 +10965,14 @@
         <f>INDEX('!참조_ENUM'!$V$3:$V$13,MATCH(C10,'!참조_ENUM'!$W$3:$W$13,0))</f>
         <v>109</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="33" t="s">
         <v>197</v>
       </c>
       <c r="D10" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E10,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="33" t="s">
         <v>200</v>
       </c>
       <c r="F10" s="4">
@@ -10936,21 +10990,21 @@
       <c r="J10" s="4">
         <v>0</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="72">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(L10,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>11</v>
       </c>
-      <c r="L10" s="37" t="s">
+      <c r="L10" s="72" t="s">
         <v>201</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="72">
         <v>0</v>
       </c>
       <c r="N10" s="7">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(O10,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>200</v>
       </c>
-      <c r="O10" s="41" t="s">
+      <c r="O10" s="33" t="s">
         <v>203</v>
       </c>
       <c r="P10" s="4">
@@ -10965,7 +11019,7 @@
       <c r="S10" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10" s="77">
         <v>0</v>
       </c>
       <c r="U10" s="4" t="b">
@@ -10980,14 +11034,14 @@
         <f>INDEX('!참조_ENUM'!$V$3:$V$13,MATCH(C11,'!참조_ENUM'!$W$3:$W$13,0))</f>
         <v>105</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="33" t="s">
         <v>198</v>
       </c>
       <c r="D11" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E11,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="33" t="s">
         <v>200</v>
       </c>
       <c r="F11" s="4">
@@ -11005,21 +11059,21 @@
       <c r="J11" s="4">
         <v>100007</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="72">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(L11,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
         <v>11</v>
       </c>
-      <c r="L11" s="37" t="s">
+      <c r="L11" s="72" t="s">
         <v>201</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="72">
         <v>0</v>
       </c>
       <c r="N11" s="7">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(O11,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>0</v>
       </c>
-      <c r="O11" s="41" t="s">
+      <c r="O11" s="33" t="s">
         <v>185</v>
       </c>
       <c r="P11" s="4">
@@ -11034,7 +11088,7 @@
       <c r="S11" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="T11" s="4">
+      <c r="T11" s="77">
         <v>0</v>
       </c>
       <c r="U11" s="4" t="b">

--- a/Android/ExcelData/PCSkillTable.xlsx
+++ b/Android/ExcelData/PCSkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF507FD3-1995-4CD0-A0F3-624A15C20CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BE1B34-2433-4FA7-99D3-282885890380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -216,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q4" authorId="0" shapeId="0" xr:uid="{93AC76E1-6E8A-4B72-B4BE-FD7A4A091CB9}">
+    <comment ref="N4" authorId="0" shapeId="0" xr:uid="{93AC76E1-6E8A-4B72-B4BE-FD7A4A091CB9}">
       <text>
         <r>
           <rPr>
@@ -231,7 +231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S4" authorId="0" shapeId="0" xr:uid="{4E8A52B8-B210-4A7B-BC9C-F6B17053F781}">
+    <comment ref="P4" authorId="0" shapeId="0" xr:uid="{4E8A52B8-B210-4A7B-BC9C-F6B17053F781}">
       <text>
         <r>
           <rPr>
@@ -594,7 +594,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y4" authorId="0" shapeId="0" xr:uid="{A402B58C-B420-4345-8EC5-0136DD80EAAE}">
+    <comment ref="V4" authorId="0" shapeId="0" xr:uid="{A402B58C-B420-4345-8EC5-0136DD80EAAE}">
       <text>
         <r>
           <rPr>
@@ -1224,7 +1224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R4" authorId="0" shapeId="0" xr:uid="{21A184EF-7568-4CAF-9B6B-8C10F756A742}">
+    <comment ref="O4" authorId="0" shapeId="0" xr:uid="{21A184EF-7568-4CAF-9B6B-8C10F756A742}">
       <text>
         <r>
           <rPr>
@@ -1331,191 +1331,6 @@
             <family val="2"/>
           </rPr>
           <t>.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T4" authorId="0" shapeId="0" xr:uid="{BB3D3201-3C5F-42EE-B957-FA35BD4F8FFB}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이펙트</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>지속</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">시간
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">0 : loop
-0 </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>보다</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>클</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>경우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>해당</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>시간만큼만</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>유지</t>
         </r>
       </text>
     </comment>
@@ -1524,7 +1339,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="225">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1691,10 +1506,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>projectile_speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>절대값</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1887,26 +1698,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>발사체 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>projectile_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#projectile_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발사체 타입(기획)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENUM:PROJECTILE_TYPE:NONE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>effect_path</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1915,7 +1706,432 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>발사체 속도</t>
+    <t>50,50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill 09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반복 일회성 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료 일회성 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반복 주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repeat_interval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repeat_pc_onetime_ids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finish_pc_onetime_ids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Normal_Melee_Impact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_NormalHeal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중첩 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_overlapable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Duration_DamageReduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Duration_Freeze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/Left/SkillEffect_Normal_Fireball</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_BuffLight</t>
+  </si>
+  <si>
+    <t>attack 01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack 02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원딜/일반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원서폿/일반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원힐/일반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill 12</t>
+  </si>
+  <si>
+    <t>skill 13</t>
+  </si>
+  <si>
+    <t>skill 14</t>
+  </si>
+  <si>
+    <t>skill 15</t>
+  </si>
+  <si>
+    <t>원딜/스킬1/대미지 (스킬 대미지 120%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원딜/스킬2/범위공격 (스킬 대미지 80%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원힐/스킬2/대미지 (스킬 대미지 120%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Duration_Attack_Up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Duration_Defense_Up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 타입</t>
+  </si>
+  <si>
+    <t>ENUM:SKILL_TYPE:NONE</t>
+  </si>
+  <si>
+    <t>Skill_Type</t>
+  </si>
+  <si>
+    <t>세컨 타겟 룰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENUM:SECOND_TARGET_RULE_TYPE:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>second_target_rule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세컨 타겟 룰(기획)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#second_target_rule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세컨 타겟 반경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>second_target_range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 세컨 타겟 카운트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_second_target_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Duration_Attack_Down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근접 전방 1명 공격 (1히트)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신의 공격력 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근접 전방 1명 공격 (2히트)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리 전방 1명 공격 (즉발형 1히트)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리 전방 1명 공격(즉발형 1히트)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리 전방 1명 공격(투사체형 1히트)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리 전방 1명의 방어력 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리 전방 적을 타겟하고 범위 데미지 (즉발형 6히트) - 주변 스플래쉬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리 전방 적을 타겟하고 범위 데미지 (투사체형 2히트) - 피격자 뒤로 스플래쉬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력이 가장 낮은 아군 체력 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_attack_2</t>
+  </si>
+  <si>
+    <t>1_attack_1</t>
+  </si>
+  <si>
+    <t>근딜/일반 (공격력 100%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근딜/근접공격/대미지(공격력 130%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_attack_3</t>
+  </si>
+  <si>
+    <t>근딜/나/공격력 증가 버프 (20%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,15,15,15,15,25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/Left/SkillEffect_Pierce_Splash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타겟 범위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target_range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원서폿/스킬2/대미지 (공격력 120%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원서폿/스킬1/전방 방어력 감소(20%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원힐/스킬1/체력이 가장 낮은 아군 회복(최대 체력 30%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Normal_Melee_Impact</t>
+  </si>
+  <si>
+    <t>debuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Duration_Defence_Down</t>
+  </si>
+  <si>
+    <t>원거리 전방 1명의 공격력 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">원거리 전방 적 타겟 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원딜/스킬2/대미지 (스킬 대미지 130%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원딜/전방/공격력 감소(15%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세컨 타겟용 일회성 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>second_target_onetime_effect_ids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세컨 타겟용 지속성 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>second_target_duration_effect_ids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</t>
+  </si>
+  <si>
+    <t>1 자신 선택</t>
+  </si>
+  <si>
+    <t>10 가장 가까운 적 우선 선택(순번 컬럼 연동하여 순서대로) 후 일정 영역내의(주변) 타겟의 추가 선택</t>
+  </si>
+  <si>
+    <t>3002 남은 체력 비율이 가장 낮은 타겟 선택</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>1 타겟 뒤로 지정 반경내에 감지되는 타겟 검사</t>
+  </si>
+  <si>
+    <t>1 데미지를 준다</t>
+  </si>
+  <si>
+    <t>2 체력 회복</t>
+  </si>
+  <si>
+    <t>101 공격력을 기준으로 배율 계산을 하기 위한 수치</t>
+  </si>
+  <si>
+    <t>300 최대 체력을 기준으로 계산을 하기 위한 수치</t>
+  </si>
+  <si>
+    <t>1 피해 감소</t>
+  </si>
+  <si>
+    <t>106 공격력 증가</t>
+  </si>
+  <si>
+    <t>107 방어력 증가</t>
+  </si>
+  <si>
+    <t>108 공격력 감소</t>
+  </si>
+  <si>
+    <t>109 방어력 감소</t>
+  </si>
+  <si>
+    <t>105 빙결</t>
+  </si>
+  <si>
+    <t>2 피격 횟수 제한</t>
+  </si>
+  <si>
+    <t>1 시간 지속</t>
+  </si>
+  <si>
+    <t>900 피해량을 기준으로 계산을 하기 위한 수치</t>
+  </si>
+  <si>
+    <t>200 방어력을 기준으로 계산을 하기 위한 수치</t>
+  </si>
+  <si>
+    <t>00_skill_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_skill_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힐러/일반/원거리 공격/공격력 100%</t>
+  </si>
+  <si>
+    <t>힐러/스킬1/원거리 스킬/체력이 가장 낮은 아군 체력 회복(즉발형)</t>
+  </si>
+  <si>
+    <t>힐러/스킬2/원거리 스킬/전방의 적 1명 공격(발사체 발사)</t>
+  </si>
+  <si>
+    <t>원거리 전방 1명 공격 (1히트)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3001 남은 체력이 가장 낮은 타겟 선택</t>
+  </si>
+  <si>
+    <t>trigger_effect_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트리거 이펙트 프리팹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoot</t>
+  </si>
+  <si>
+    <t>heal</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/Left/Lucia/SkillEffect_Lucia_Attack_01_Cast</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/Left/Lucia/SkillEffect_Lucia_Skill_01_Cast</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/Left/Lucia/SkillEffect_Lucia_Skill_02_Cast</t>
+  </si>
+  <si>
+    <t>캐스팅 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cast_effect_path</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1923,480 +2139,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>effect_duration</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>50,50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill 09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반복 일회성 효과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종료 일회성 효과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반복 주기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>repeat_interval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>repeat_pc_onetime_ids</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>finish_pc_onetime_ids</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill 11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Normal_Melee_Impact</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_NormalHeal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중첩 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_overlapable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Duration_DamageReduce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Duration_Freeze</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/Left/SkillEffect_Normal_Fireball</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_BuffLight</t>
-  </si>
-  <si>
-    <t>attack 01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack 02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원딜/일반</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원서폿/일반</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원힐/일반</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill 12</t>
-  </si>
-  <si>
-    <t>skill 13</t>
-  </si>
-  <si>
-    <t>skill 14</t>
-  </si>
-  <si>
-    <t>skill 15</t>
-  </si>
-  <si>
-    <t>원딜/스킬1/대미지 (스킬 대미지 120%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원딜/스킬2/범위공격 (스킬 대미지 80%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원힐/스킬2/대미지 (스킬 대미지 120%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Duration_Attack_Up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Duration_Defense_Up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 타입</t>
-  </si>
-  <si>
-    <t>ENUM:SKILL_TYPE:NONE</t>
-  </si>
-  <si>
-    <t>Skill_Type</t>
-  </si>
-  <si>
-    <t>세컨 타겟 룰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENUM:SECOND_TARGET_RULE_TYPE:NONE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>second_target_rule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세컨 타겟 룰(기획)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#second_target_rule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세컨 타겟 반경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>second_target_range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대 세컨 타겟 카운트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_second_target_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Duration_Attack_Down</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근접 전방 1명 공격 (1히트)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자신의 공격력 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근접 전방 1명 공격 (2히트)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원거리 전방 1명 공격 (즉발형 1히트)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원거리 전방 1명 공격(즉발형 1히트)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원거리 전방 1명 공격(투사체형 1히트)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원거리 전방 1명의 방어력 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원거리 전방 적을 타겟하고 범위 데미지 (즉발형 6히트) - 주변 스플래쉬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원거리 전방 적을 타겟하고 범위 데미지 (투사체형 2히트) - 피격자 뒤로 스플래쉬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력이 가장 낮은 아군 체력 회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_attack_2</t>
-  </si>
-  <si>
-    <t>1_attack_1</t>
-  </si>
-  <si>
-    <t>근딜/일반 (공격력 100%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근딜/근접공격/대미지(공격력 130%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_attack_3</t>
-  </si>
-  <si>
-    <t>근딜/나/공격력 증가 버프 (20%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15,15,15,15,15,25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/Left/SkillEffect_Pierce_Splash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타겟 범위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target_range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원서폿/스킬2/대미지 (공격력 120%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원서폿/스킬1/전방 방어력 감소(20%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원힐/스킬1/체력이 가장 낮은 아군 회복(최대 체력 30%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Normal_Melee_Impact</t>
-  </si>
-  <si>
-    <t>debuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/SkillEffect_Duration_Defence_Down</t>
-  </si>
-  <si>
-    <t>원거리 전방 1명의 공격력 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">원거리 전방 적 타겟 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원딜/스킬2/대미지 (스킬 대미지 130%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원딜/전방/공격력 감소(15%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세컨 타겟용 일회성 효과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>second_target_onetime_effect_ids</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세컨 타겟용 지속성 효과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>second_target_duration_effect_ids</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6 가장 가까운 적 선택 (순번 컬럼을 연동하여 앞에서부터의 순서대로)</t>
-  </si>
-  <si>
-    <t>1 자신 선택</t>
-  </si>
-  <si>
-    <t>10 가장 가까운 적 우선 선택(순번 컬럼 연동하여 순서대로) 후 일정 영역내의(주변) 타겟의 추가 선택</t>
-  </si>
-  <si>
-    <t>3002 남은 체력 비율이 가장 낮은 타겟 선택</t>
-  </si>
-  <si>
-    <t>NONE</t>
-  </si>
-  <si>
-    <t>2 투사체를 타겟의 몸에 던진다</t>
-  </si>
-  <si>
-    <t>12 타겟의 몸에서 즉시 효과 발동</t>
-  </si>
-  <si>
-    <t>1 타겟 뒤로 지정 반경내에 감지되는 타겟 검사</t>
-  </si>
-  <si>
-    <t>1 데미지를 준다</t>
-  </si>
-  <si>
-    <t>2 체력 회복</t>
-  </si>
-  <si>
-    <t>101 공격력을 기준으로 배율 계산을 하기 위한 수치</t>
-  </si>
-  <si>
-    <t>300 최대 체력을 기준으로 계산을 하기 위한 수치</t>
-  </si>
-  <si>
-    <t>1 피해 감소</t>
-  </si>
-  <si>
-    <t>106 공격력 증가</t>
-  </si>
-  <si>
-    <t>107 방어력 증가</t>
-  </si>
-  <si>
-    <t>108 공격력 감소</t>
-  </si>
-  <si>
-    <t>109 방어력 감소</t>
-  </si>
-  <si>
-    <t>105 빙결</t>
-  </si>
-  <si>
-    <t>2 피격 횟수 제한</t>
-  </si>
-  <si>
-    <t>1 시간 지속</t>
-  </si>
-  <si>
-    <t>11 타겟의 발 밑에서 즉시 효과 발동</t>
-  </si>
-  <si>
-    <t>900 피해량을 기준으로 계산을 하기 위한 수치</t>
-  </si>
-  <si>
-    <t>200 방어력을 기준으로 계산을 하기 위한 수치</t>
-  </si>
-  <si>
-    <t>00_skill_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_skill_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>힐러/일반/원거리 공격/공격력 100%</t>
-  </si>
-  <si>
-    <t>힐러/스킬1/원거리 스킬/체력이 가장 낮은 아군 체력 회복(즉발형)</t>
-  </si>
-  <si>
-    <t>힐러/스킬2/원거리 스킬/전방의 적 1명 공격(발사체 발사)</t>
-  </si>
-  <si>
-    <t>원거리 전방 1명 공격 (1히트)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3001 남은 체력이 가장 낮은 타겟 선택</t>
-  </si>
-  <si>
-    <t>trigger_effect_path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>트리거 이펙트 프리팹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shoot</t>
-  </si>
-  <si>
-    <t>heal</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/Left/Lucia/SkillEffect_Lucia_Attack_01_Cast</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/Left/Lucia/SkillEffect_Lucia_Skill_01_Cast</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/Left/Lucia/SkillEffect_Lucia_Skill_02_Cast</t>
-  </si>
-  <si>
-    <t>캐스팅 이펙트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/Left/Lucia/SkillEffect_Lucia_Attack_01_Hit</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/Left/Lucia/SkillEffect_Lucia_Skill_01_Heal</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/Left/Lucia/SkillEffect_Lucia_Skill_02_Hit</t>
+  </si>
+  <si>
+    <t>00_common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Textures/Icons/Icon_Skill_Dummy</t>
   </si>
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cast_effect_path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이펙트 지속시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>double</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect_duration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/Left/Lucia/SkillEffect_Lucia_Attack_01_Hit</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/Left/Lucia/SkillEffect_Lucia_Skill_01_Heal</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Effects/Skill/Left/Lucia/SkillEffect_Lucia_Skill_02_Hit</t>
-  </si>
-  <si>
-    <t>00_common</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Textures/Icons/Icon_Skill_Dummy</t>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ENUM:EFFECT_COUNT_TYPE:NONE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2418,6 +2188,9 @@
   </si>
   <si>
     <t>각 타겟에 개별적으로 발현되는 이펙트</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Effects/Skill/Left/SkillEffect_Parabola_Fireball</t>
   </si>
 </sst>
 </file>
@@ -2488,7 +2261,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2537,20 +2310,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -2643,40 +2404,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -2703,38 +2434,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -2769,26 +2472,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2867,10 +2557,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
@@ -2882,7 +2572,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2906,16 +2596,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
@@ -2930,39 +2620,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2970,57 +2627,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6996,7 +6602,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="A8" sqref="A8:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7015,7 +6621,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -7032,7 +6638,7 @@
         <v>38</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>26</v>
@@ -7041,13 +6647,13 @@
         <v>25</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -7064,7 +6670,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>4</v>
@@ -7076,10 +6682,10 @@
         <v>4</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -7093,10 +6699,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>27</v>
@@ -7105,13 +6711,13 @@
         <v>24</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -7132,16 +6738,16 @@
         <v>1</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="J5" s="4">
         <v>1.1000000000000001</v>
@@ -7165,16 +6771,16 @@
         <v>2</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="G6" s="46" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="H6" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>204</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>216</v>
       </c>
       <c r="J6" s="4">
         <v>2.5</v>
@@ -7198,16 +6804,16 @@
         <v>3</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="G7" s="46" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="H7" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>217</v>
       </c>
       <c r="J7" s="4">
         <v>2</v>
@@ -7231,13 +6837,13 @@
         <v>1</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="G8" s="46" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4">
@@ -7262,13 +6868,13 @@
         <v>2</v>
       </c>
       <c r="F9" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="G9" s="46" t="s">
+        <v>216</v>
+      </c>
+      <c r="H9" s="18" t="s">
         <v>148</v>
-      </c>
-      <c r="G9" s="46" t="s">
-        <v>228</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>157</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4">
@@ -7284,7 +6890,7 @@
         <v>근딜/근접공격/대미지(공격력 130%)</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D10" s="19">
         <v>2</v>
@@ -7293,13 +6899,13 @@
         <v>3</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G10" s="46" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4">
@@ -7315,7 +6921,7 @@
         <v>원딜/일반</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D11" s="19">
         <v>2</v>
@@ -7324,13 +6930,13 @@
         <v>1</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="G11" s="46" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4">
@@ -7346,7 +6952,7 @@
         <v>원딜/스킬1/대미지 (스킬 대미지 120%)</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D12" s="19">
         <v>2</v>
@@ -7355,13 +6961,13 @@
         <v>2</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="G12" s="46" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4">
@@ -7377,7 +6983,7 @@
         <v>원딜/스킬2/범위공격 (스킬 대미지 80%)</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D13" s="19">
         <v>2</v>
@@ -7386,13 +6992,13 @@
         <v>3</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="G13" s="46" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4">
@@ -7408,7 +7014,7 @@
         <v>원서폿/일반</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D14" s="19">
         <v>2</v>
@@ -7417,13 +7023,13 @@
         <v>1</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="G14" s="46" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4">
@@ -7439,7 +7045,7 @@
         <v>원서폿/스킬1/전방 방어력 감소(20%)</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D15" s="19">
         <v>2</v>
@@ -7448,13 +7054,13 @@
         <v>2</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="G15" s="46" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4">
@@ -7470,7 +7076,7 @@
         <v>원서폿/스킬2/대미지 (공격력 120%)</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D16" s="19">
         <v>2</v>
@@ -7479,13 +7085,13 @@
         <v>3</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="G16" s="46" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4">
@@ -7501,7 +7107,7 @@
         <v>원힐/일반</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D17" s="19">
         <v>2</v>
@@ -7510,13 +7116,13 @@
         <v>1</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="G17" s="46" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4">
@@ -7532,7 +7138,7 @@
         <v>원힐/스킬1/체력이 가장 낮은 아군 회복(최대 체력 30%)</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D18" s="7">
         <v>2</v>
@@ -7541,13 +7147,13 @@
         <v>2</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="G18" s="46" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4">
@@ -7563,7 +7169,7 @@
         <v>원힐/스킬2/대미지 (스킬 대미지 120%)</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D19" s="7">
         <v>2.5</v>
@@ -7572,13 +7178,13 @@
         <v>3</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="G19" s="46" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4">
@@ -7594,7 +7200,7 @@
         <v>원딜/일반</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D20" s="19">
         <v>2</v>
@@ -7603,13 +7209,13 @@
         <v>1</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="G20" s="46" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4">
@@ -7625,7 +7231,7 @@
         <v>원딜/전방/공격력 감소(15%)</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D21" s="7">
         <v>2</v>
@@ -7634,13 +7240,13 @@
         <v>2</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="G21" s="46" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4">
@@ -7656,7 +7262,7 @@
         <v>원딜/스킬2/대미지 (스킬 대미지 130%)</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D22" s="7">
         <v>2.5</v>
@@ -7665,13 +7271,13 @@
         <v>3</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="G22" s="46" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4">
@@ -7698,13 +7304,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00F7AA3-FB12-454D-93A6-31450B9003EC}">
-  <dimension ref="A1:Y22"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="O5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7719,23 +7325,20 @@
     <col min="8" max="9" width="9.125" customWidth="1"/>
     <col min="10" max="10" width="13.375" customWidth="1"/>
     <col min="11" max="11" width="18.625" customWidth="1"/>
-    <col min="12" max="12" width="17.875" style="54" customWidth="1"/>
-    <col min="13" max="13" width="28.125" style="54" customWidth="1"/>
-    <col min="14" max="14" width="16.375" style="54" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.375" customWidth="1"/>
-    <col min="16" max="16" width="22.375" customWidth="1"/>
-    <col min="17" max="18" width="16.375" customWidth="1"/>
-    <col min="19" max="19" width="18" customWidth="1"/>
-    <col min="20" max="20" width="19" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="19.25" customWidth="1"/>
-    <col min="24" max="24" width="10.875" customWidth="1"/>
-    <col min="25" max="25" width="69.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.375" customWidth="1"/>
+    <col min="13" max="13" width="22.375" customWidth="1"/>
+    <col min="14" max="15" width="16.375" customWidth="1"/>
+    <col min="16" max="16" width="18" customWidth="1"/>
+    <col min="17" max="17" width="19" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="19.25" customWidth="1"/>
+    <col min="21" max="21" width="10.875" customWidth="1"/>
+    <col min="22" max="22" width="69.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -7746,20 +7349,17 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
       <c r="S1" s="6"/>
       <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-    </row>
-    <row r="2" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -7770,7 +7370,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
@@ -7785,58 +7385,49 @@
         <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="L2" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="M2" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="N2" s="48" t="s">
-        <v>97</v>
+        <v>220</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>144</v>
+        <v>69</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>142</v>
+        <v>70</v>
       </c>
       <c r="S2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="V2" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
@@ -7847,7 +7438,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>13</v>
@@ -7865,55 +7456,46 @@
         <v>8</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="L3" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="M3" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="M3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="49" t="s">
+      <c r="N3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="11" t="s">
-        <v>138</v>
-      </c>
       <c r="P3" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="U3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="T3" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>72</v>
-      </c>
       <c r="V3" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="W3" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="X3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="Y3" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:22" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
         <v>2</v>
       </c>
@@ -7924,7 +7506,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>14</v>
@@ -7939,58 +7521,49 @@
         <v>16</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="L4" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="M4" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="N4" s="50" t="s">
-        <v>41</v>
+        <v>222</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>136</v>
       </c>
       <c r="O4" s="20" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="P4" s="20" t="s">
-        <v>141</v>
+        <v>83</v>
       </c>
       <c r="Q4" s="20" t="s">
-        <v>145</v>
+        <v>72</v>
       </c>
       <c r="R4" s="20" t="s">
-        <v>143</v>
+        <v>73</v>
       </c>
       <c r="S4" s="20" t="s">
-        <v>84</v>
+        <v>169</v>
       </c>
       <c r="T4" s="20" t="s">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="U4" s="20" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="V4" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="W4" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="X4" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y4" s="20" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24">
         <v>100001</v>
       </c>
@@ -7998,7 +7571,7 @@
         <v>100001</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="D5" s="22">
         <v>1</v>
@@ -8008,7 +7581,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="G5" s="22">
         <v>0</v>
@@ -8023,53 +7596,43 @@
         <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K5,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>0</v>
       </c>
-      <c r="K5" s="58" t="s">
-        <v>185</v>
-      </c>
-      <c r="L5" s="51">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M5,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="55" t="s">
-        <v>185</v>
-      </c>
-      <c r="N5" s="51">
+      <c r="K5" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="L5" s="25">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M5,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="N5" s="25">
         <v>0</v>
       </c>
       <c r="O5" s="25">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P5,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="P5" s="43" t="s">
-        <v>185</v>
+        <v>0</v>
+      </c>
+      <c r="P5" s="22">
+        <v>100</v>
       </c>
       <c r="Q5" s="25">
-        <v>0</v>
+        <v>100001</v>
       </c>
       <c r="R5" s="25">
         <v>0</v>
       </c>
-      <c r="S5" s="22">
-        <v>100</v>
+      <c r="S5" s="25">
+        <v>0</v>
       </c>
       <c r="T5" s="25">
-        <v>100001</v>
-      </c>
-      <c r="U5" s="25">
-        <v>0</v>
-      </c>
-      <c r="V5" s="25">
-        <v>0</v>
-      </c>
-      <c r="W5" s="25">
-        <v>0</v>
-      </c>
-      <c r="X5" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y5" s="25"/>
-    </row>
-    <row r="6" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="U5" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="V5" s="25"/>
+    </row>
+    <row r="6" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26">
         <v>100002</v>
       </c>
@@ -8077,7 +7640,7 @@
         <v>100002</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="D6" s="7">
         <v>0</v>
@@ -8087,7 +7650,7 @@
         <v>3001</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -8102,53 +7665,43 @@
         <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K6,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>0</v>
       </c>
-      <c r="K6" s="59" t="s">
-        <v>185</v>
-      </c>
-      <c r="L6" s="52">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M6,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="56" t="s">
-        <v>185</v>
-      </c>
-      <c r="N6" s="52">
+      <c r="K6" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="L6" s="4">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M6,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="N6" s="4">
         <v>0</v>
       </c>
       <c r="O6" s="4">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P6,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="44" t="s">
-        <v>185</v>
+        <v>0</v>
+      </c>
+      <c r="P6" s="7">
+        <v>100</v>
       </c>
       <c r="Q6" s="4">
-        <v>0</v>
+        <v>100002</v>
       </c>
       <c r="R6" s="4">
         <v>0</v>
       </c>
-      <c r="S6" s="7">
-        <v>100</v>
+      <c r="S6" s="4">
+        <v>0</v>
       </c>
       <c r="T6" s="4">
-        <v>100002</v>
-      </c>
-      <c r="U6" s="4">
-        <v>0</v>
-      </c>
-      <c r="V6" s="4">
-        <v>0</v>
-      </c>
-      <c r="W6" s="4">
-        <v>0</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="Y6" s="4"/>
-    </row>
-    <row r="7" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="V6" s="4"/>
+    </row>
+    <row r="7" spans="1:22" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="27">
         <v>100003</v>
       </c>
@@ -8156,7 +7709,7 @@
         <v>100003</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="D7" s="23">
         <v>1</v>
@@ -8166,7 +7719,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="G7" s="23">
         <v>0</v>
@@ -8181,53 +7734,43 @@
         <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K7,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>0</v>
       </c>
-      <c r="K7" s="60" t="s">
-        <v>185</v>
-      </c>
-      <c r="L7" s="53">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M7,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="57" t="s">
-        <v>185</v>
-      </c>
-      <c r="N7" s="53">
+      <c r="K7" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="L7" s="28">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M7,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="N7" s="28">
         <v>0</v>
       </c>
       <c r="O7" s="28">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P7,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="45" t="s">
-        <v>185</v>
+        <v>0</v>
+      </c>
+      <c r="P7" s="23">
+        <v>100</v>
       </c>
       <c r="Q7" s="28">
-        <v>0</v>
+        <v>100003</v>
       </c>
       <c r="R7" s="28">
         <v>0</v>
       </c>
-      <c r="S7" s="23">
-        <v>100</v>
+      <c r="S7" s="28">
+        <v>0</v>
       </c>
       <c r="T7" s="28">
-        <v>100003</v>
-      </c>
-      <c r="U7" s="28">
-        <v>0</v>
-      </c>
-      <c r="V7" s="28">
-        <v>0</v>
-      </c>
-      <c r="W7" s="28">
-        <v>0</v>
-      </c>
-      <c r="X7" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y7" s="28"/>
-    </row>
-    <row r="8" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="U7" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="V7" s="28"/>
+    </row>
+    <row r="8" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24">
         <v>100101</v>
       </c>
@@ -8235,7 +7778,7 @@
         <v>100101</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D8" s="22">
         <v>1</v>
@@ -8245,7 +7788,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="G8" s="22">
         <v>0</v>
@@ -8260,53 +7803,43 @@
         <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K8,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>0</v>
       </c>
-      <c r="K8" s="58" t="s">
-        <v>185</v>
-      </c>
-      <c r="L8" s="51">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M8,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="55" t="s">
-        <v>185</v>
-      </c>
-      <c r="N8" s="51">
+      <c r="K8" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="L8" s="25">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M8,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="N8" s="25">
         <v>0</v>
       </c>
       <c r="O8" s="25">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P8,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="P8" s="43" t="s">
-        <v>185</v>
+        <v>0</v>
+      </c>
+      <c r="P8" s="22">
+        <v>100</v>
       </c>
       <c r="Q8" s="25">
-        <v>0</v>
+        <v>100004</v>
       </c>
       <c r="R8" s="25">
         <v>0</v>
       </c>
-      <c r="S8" s="22">
-        <v>100</v>
+      <c r="S8" s="25">
+        <v>0</v>
       </c>
       <c r="T8" s="25">
-        <v>100004</v>
-      </c>
-      <c r="U8" s="25">
-        <v>0</v>
-      </c>
-      <c r="V8" s="25">
-        <v>0</v>
-      </c>
-      <c r="W8" s="25">
-        <v>0</v>
-      </c>
-      <c r="X8" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y8" s="25"/>
-    </row>
-    <row r="9" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="V8" s="25"/>
+    </row>
+    <row r="9" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="26">
         <v>100102</v>
       </c>
@@ -8314,7 +7847,7 @@
         <v>100102</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D9" s="7">
         <v>0</v>
@@ -8324,7 +7857,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="G9" s="7">
         <v>0</v>
@@ -8339,53 +7872,43 @@
         <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K9,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>0</v>
       </c>
-      <c r="K9" s="59" t="s">
-        <v>185</v>
-      </c>
-      <c r="L9" s="52">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M9,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="56" t="s">
-        <v>185</v>
-      </c>
-      <c r="N9" s="52">
+      <c r="K9" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="L9" s="4">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M9,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="N9" s="4">
         <v>0</v>
       </c>
       <c r="O9" s="4">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P9,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="P9" s="44" t="s">
-        <v>185</v>
+        <v>0</v>
+      </c>
+      <c r="P9" s="7">
+        <v>100</v>
       </c>
       <c r="Q9" s="4">
         <v>0</v>
       </c>
       <c r="R9" s="4">
-        <v>0</v>
-      </c>
-      <c r="S9" s="7">
-        <v>100</v>
+        <v>500002</v>
+      </c>
+      <c r="S9" s="4">
+        <v>0</v>
       </c>
       <c r="T9" s="4">
         <v>0</v>
       </c>
-      <c r="U9" s="4">
-        <v>500002</v>
-      </c>
-      <c r="V9" s="4">
-        <v>0</v>
-      </c>
-      <c r="W9" s="4">
-        <v>0</v>
-      </c>
-      <c r="X9" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y9" s="4"/>
-    </row>
-    <row r="10" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U9" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="V9" s="4"/>
+    </row>
+    <row r="10" spans="1:22" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="27">
         <v>100103</v>
       </c>
@@ -8393,7 +7916,7 @@
         <v>100103</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D10" s="23">
         <v>1</v>
@@ -8403,7 +7926,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="G10" s="23">
         <v>0</v>
@@ -8418,53 +7941,43 @@
         <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K10,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>0</v>
       </c>
-      <c r="K10" s="60" t="s">
-        <v>185</v>
-      </c>
-      <c r="L10" s="53">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M10,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="57" t="s">
-        <v>185</v>
-      </c>
-      <c r="N10" s="53">
+      <c r="K10" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="L10" s="28">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M10,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="N10" s="28">
         <v>0</v>
       </c>
       <c r="O10" s="28">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P10,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="P10" s="45" t="s">
-        <v>185</v>
+        <v>0</v>
+      </c>
+      <c r="P10" s="23" t="s">
+        <v>91</v>
       </c>
       <c r="Q10" s="28">
-        <v>0</v>
+        <v>100006</v>
       </c>
       <c r="R10" s="28">
         <v>0</v>
       </c>
-      <c r="S10" s="23" t="s">
-        <v>100</v>
+      <c r="S10" s="28">
+        <v>0</v>
       </c>
       <c r="T10" s="28">
-        <v>100006</v>
-      </c>
-      <c r="U10" s="28">
-        <v>0</v>
-      </c>
-      <c r="V10" s="28">
-        <v>0</v>
-      </c>
-      <c r="W10" s="28">
-        <v>0</v>
-      </c>
-      <c r="X10" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y10" s="28"/>
-    </row>
-    <row r="11" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="V10" s="28"/>
+    </row>
+    <row r="11" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>100201</v>
       </c>
@@ -8472,7 +7985,7 @@
         <v>100201</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D11" s="22">
         <v>1</v>
@@ -8482,7 +7995,7 @@
         <v>6</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="G11" s="22">
         <v>0</v>
@@ -8497,53 +8010,43 @@
         <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K11,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>0</v>
       </c>
-      <c r="K11" s="58" t="s">
-        <v>185</v>
-      </c>
-      <c r="L11" s="51">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M11,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="55" t="s">
-        <v>185</v>
-      </c>
-      <c r="N11" s="51">
+      <c r="K11" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="L11" s="25">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M11,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="N11" s="25">
         <v>0</v>
       </c>
       <c r="O11" s="25">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P11,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="P11" s="43" t="s">
-        <v>185</v>
+        <v>0</v>
+      </c>
+      <c r="P11" s="22">
+        <v>100</v>
       </c>
       <c r="Q11" s="25">
-        <v>0</v>
+        <v>100007</v>
       </c>
       <c r="R11" s="25">
         <v>0</v>
       </c>
-      <c r="S11" s="22">
-        <v>100</v>
+      <c r="S11" s="25">
+        <v>0</v>
       </c>
       <c r="T11" s="25">
-        <v>100007</v>
-      </c>
-      <c r="U11" s="25">
-        <v>0</v>
-      </c>
-      <c r="V11" s="25">
-        <v>0</v>
-      </c>
-      <c r="W11" s="25">
-        <v>0</v>
-      </c>
-      <c r="X11" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y11" s="25"/>
-    </row>
-    <row r="12" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="U11" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="V11" s="25"/>
+    </row>
+    <row r="12" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="26">
         <v>100202</v>
       </c>
@@ -8551,7 +8054,7 @@
         <v>100202</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D12" s="7">
         <v>1</v>
@@ -8561,7 +8064,7 @@
         <v>6</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="G12" s="7">
         <v>0</v>
@@ -8576,53 +8079,43 @@
         <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K12,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>0</v>
       </c>
-      <c r="K12" s="59" t="s">
-        <v>185</v>
-      </c>
-      <c r="L12" s="52">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M12,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="56" t="s">
-        <v>185</v>
-      </c>
-      <c r="N12" s="52">
+      <c r="K12" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="L12" s="4">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M12,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="N12" s="4">
         <v>0</v>
       </c>
       <c r="O12" s="4">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P12,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="P12" s="44" t="s">
-        <v>185</v>
+        <v>0</v>
+      </c>
+      <c r="P12" s="7">
+        <v>100</v>
       </c>
       <c r="Q12" s="4">
-        <v>0</v>
+        <v>100008</v>
       </c>
       <c r="R12" s="4">
         <v>0</v>
       </c>
-      <c r="S12" s="7">
-        <v>100</v>
+      <c r="S12" s="4">
+        <v>0</v>
       </c>
       <c r="T12" s="4">
-        <v>100008</v>
-      </c>
-      <c r="U12" s="4">
-        <v>0</v>
-      </c>
-      <c r="V12" s="4">
-        <v>0</v>
-      </c>
-      <c r="W12" s="4">
-        <v>0</v>
-      </c>
-      <c r="X12" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y12" s="4"/>
-    </row>
-    <row r="13" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="V12" s="4"/>
+    </row>
+    <row r="13" spans="1:22" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="27">
         <v>100203</v>
       </c>
@@ -8630,7 +8123,7 @@
         <v>100203</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D13" s="23">
         <v>1</v>
@@ -8640,7 +8133,7 @@
         <v>10</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="G13" s="23">
         <v>0</v>
@@ -8655,53 +8148,43 @@
         <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K13,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>0</v>
       </c>
-      <c r="K13" s="60" t="s">
-        <v>185</v>
-      </c>
-      <c r="L13" s="53">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M13,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="57" t="s">
-        <v>185</v>
-      </c>
-      <c r="N13" s="53">
+      <c r="K13" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="L13" s="28">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M13,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="N13" s="28">
         <v>0</v>
       </c>
       <c r="O13" s="28">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P13,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="P13" s="45" t="s">
-        <v>185</v>
+        <v>0</v>
+      </c>
+      <c r="P13" s="23" t="s">
+        <v>154</v>
       </c>
       <c r="Q13" s="28">
-        <v>0</v>
+        <v>100009</v>
       </c>
       <c r="R13" s="28">
         <v>0</v>
       </c>
-      <c r="S13" s="23" t="s">
-        <v>163</v>
+      <c r="S13" s="28">
+        <v>0</v>
       </c>
       <c r="T13" s="28">
-        <v>100009</v>
-      </c>
-      <c r="U13" s="28">
-        <v>0</v>
-      </c>
-      <c r="V13" s="28">
-        <v>0</v>
-      </c>
-      <c r="W13" s="28">
-        <v>0</v>
-      </c>
-      <c r="X13" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y13" s="28"/>
-    </row>
-    <row r="14" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="V13" s="28"/>
+    </row>
+    <row r="14" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <v>100301</v>
       </c>
@@ -8709,7 +8192,7 @@
         <v>100301</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D14" s="22">
         <v>1</v>
@@ -8719,7 +8202,7 @@
         <v>6</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="G14" s="22">
         <v>0</v>
@@ -8734,55 +8217,45 @@
         <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K14,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K14" s="58" t="s">
-        <v>235</v>
-      </c>
-      <c r="L14" s="51">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M14,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>2</v>
-      </c>
-      <c r="M14" s="55" t="s">
-        <v>186</v>
-      </c>
-      <c r="N14" s="51">
-        <v>20</v>
+      <c r="K14" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="L14" s="25">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M14,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="N14" s="25">
+        <v>0</v>
       </c>
       <c r="O14" s="25">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P14,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="P14" s="43" t="s">
-        <v>185</v>
+        <v>0</v>
+      </c>
+      <c r="P14" s="22">
+        <v>100</v>
       </c>
       <c r="Q14" s="25">
-        <v>0</v>
+        <v>100010</v>
       </c>
       <c r="R14" s="25">
         <v>0</v>
       </c>
-      <c r="S14" s="22">
-        <v>100</v>
+      <c r="S14" s="25">
+        <v>0</v>
       </c>
       <c r="T14" s="25">
-        <v>100010</v>
-      </c>
-      <c r="U14" s="25">
-        <v>0</v>
-      </c>
-      <c r="V14" s="25">
-        <v>0</v>
-      </c>
-      <c r="W14" s="25">
-        <v>0</v>
-      </c>
-      <c r="X14" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y14" s="25" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="V14" s="25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="26">
         <v>100302</v>
       </c>
@@ -8790,7 +8263,7 @@
         <v>100302</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D15" s="7">
         <v>1</v>
@@ -8800,7 +8273,7 @@
         <v>6</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="G15" s="7">
         <v>0</v>
@@ -8815,55 +8288,45 @@
         <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K15,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K15" s="59" t="s">
-        <v>235</v>
-      </c>
-      <c r="L15" s="52">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M15,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>2</v>
-      </c>
-      <c r="M15" s="56" t="s">
-        <v>186</v>
-      </c>
-      <c r="N15" s="52">
-        <v>20</v>
+      <c r="K15" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="L15" s="4">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M15,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0</v>
       </c>
       <c r="O15" s="4">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P15,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="P15" s="44" t="s">
-        <v>185</v>
+        <v>0</v>
+      </c>
+      <c r="P15" s="7">
+        <v>100</v>
       </c>
       <c r="Q15" s="4">
         <v>0</v>
       </c>
       <c r="R15" s="4">
-        <v>0</v>
-      </c>
-      <c r="S15" s="7">
-        <v>100</v>
+        <v>500006</v>
+      </c>
+      <c r="S15" s="4">
+        <v>0</v>
       </c>
       <c r="T15" s="4">
         <v>0</v>
       </c>
-      <c r="U15" s="4">
-        <v>500006</v>
-      </c>
-      <c r="V15" s="4">
-        <v>0</v>
-      </c>
-      <c r="W15" s="4">
-        <v>0</v>
-      </c>
-      <c r="X15" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="Y15" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U15" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="27">
         <v>100303</v>
       </c>
@@ -8871,7 +8334,7 @@
         <v>100303</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D16" s="23">
         <v>1</v>
@@ -8881,7 +8344,7 @@
         <v>6</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="G16" s="23">
         <v>0</v>
@@ -8896,55 +8359,45 @@
         <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K16,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K16" s="60" t="s">
-        <v>235</v>
-      </c>
-      <c r="L16" s="53">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M16,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>2</v>
-      </c>
-      <c r="M16" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="N16" s="53">
-        <v>20</v>
+      <c r="K16" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="L16" s="28">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M16,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="N16" s="28">
+        <v>0</v>
       </c>
       <c r="O16" s="28">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P16,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="P16" s="45" t="s">
-        <v>185</v>
+        <v>0</v>
+      </c>
+      <c r="P16" s="23" t="s">
+        <v>91</v>
       </c>
       <c r="Q16" s="28">
-        <v>0</v>
+        <v>100011</v>
       </c>
       <c r="R16" s="28">
         <v>0</v>
       </c>
-      <c r="S16" s="23" t="s">
-        <v>100</v>
+      <c r="S16" s="28">
+        <v>0</v>
       </c>
       <c r="T16" s="28">
-        <v>100011</v>
-      </c>
-      <c r="U16" s="28">
-        <v>0</v>
-      </c>
-      <c r="V16" s="28">
-        <v>0</v>
-      </c>
-      <c r="W16" s="28">
-        <v>0</v>
-      </c>
-      <c r="X16" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y16" s="28" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="U16" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="V16" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <v>100401</v>
       </c>
@@ -8952,7 +8405,7 @@
         <v>100401</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D17" s="22">
         <v>1</v>
@@ -8962,7 +8415,7 @@
         <v>6</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="G17" s="22">
         <v>0</v>
@@ -8977,55 +8430,45 @@
         <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K17,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K17" s="58" t="s">
-        <v>235</v>
-      </c>
-      <c r="L17" s="51">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M17,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>2</v>
-      </c>
-      <c r="M17" s="55" t="s">
-        <v>186</v>
-      </c>
-      <c r="N17" s="51">
-        <v>20</v>
+      <c r="K17" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="L17" s="25">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M17,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="N17" s="25">
+        <v>0</v>
       </c>
       <c r="O17" s="25">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P17,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="P17" s="43" t="s">
-        <v>185</v>
+        <v>0</v>
+      </c>
+      <c r="P17" s="22">
+        <v>100</v>
       </c>
       <c r="Q17" s="25">
-        <v>0</v>
+        <v>100012</v>
       </c>
       <c r="R17" s="25">
         <v>0</v>
       </c>
-      <c r="S17" s="22">
-        <v>100</v>
+      <c r="S17" s="25">
+        <v>0</v>
       </c>
       <c r="T17" s="25">
-        <v>100012</v>
-      </c>
-      <c r="U17" s="25">
-        <v>0</v>
-      </c>
-      <c r="V17" s="25">
-        <v>0</v>
-      </c>
-      <c r="W17" s="25">
-        <v>0</v>
-      </c>
-      <c r="X17" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y17" s="25" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="V17" s="25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="26">
         <v>100402</v>
       </c>
@@ -9033,7 +8476,7 @@
         <v>100402</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D18" s="7">
         <v>0</v>
@@ -9043,7 +8486,7 @@
         <v>3002</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="G18" s="7">
         <v>0</v>
@@ -9058,55 +8501,45 @@
         <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K18,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K18" s="59" t="s">
-        <v>235</v>
-      </c>
-      <c r="L18" s="52">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M18,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>2</v>
-      </c>
-      <c r="M18" s="56" t="s">
-        <v>186</v>
-      </c>
-      <c r="N18" s="52">
-        <v>20</v>
+      <c r="K18" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="L18" s="4">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M18,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0</v>
       </c>
       <c r="O18" s="4">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P18,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="P18" s="44" t="s">
-        <v>185</v>
+        <v>0</v>
+      </c>
+      <c r="P18" s="7">
+        <v>100</v>
       </c>
       <c r="Q18" s="4">
-        <v>0</v>
+        <v>100013</v>
       </c>
       <c r="R18" s="4">
         <v>0</v>
       </c>
-      <c r="S18" s="7">
-        <v>100</v>
+      <c r="S18" s="4">
+        <v>0</v>
       </c>
       <c r="T18" s="4">
-        <v>100013</v>
-      </c>
-      <c r="U18" s="4">
-        <v>0</v>
-      </c>
-      <c r="V18" s="4">
-        <v>0</v>
-      </c>
-      <c r="W18" s="4">
-        <v>0</v>
-      </c>
-      <c r="X18" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y18" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="V18" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="27">
         <v>100403</v>
       </c>
@@ -9114,7 +8547,7 @@
         <v>100403</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D19" s="23">
         <v>1</v>
@@ -9124,7 +8557,7 @@
         <v>6</v>
       </c>
       <c r="F19" s="34" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="G19" s="23">
         <v>0</v>
@@ -9139,55 +8572,45 @@
         <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K19,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K19" s="60" t="s">
-        <v>235</v>
-      </c>
-      <c r="L19" s="53">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M19,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>2</v>
-      </c>
-      <c r="M19" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="N19" s="53">
-        <v>20</v>
+      <c r="K19" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="L19" s="28">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M19,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="N19" s="28">
+        <v>0</v>
       </c>
       <c r="O19" s="28">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P19,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="P19" s="45" t="s">
-        <v>185</v>
+        <v>0</v>
+      </c>
+      <c r="P19" s="23">
+        <v>100</v>
       </c>
       <c r="Q19" s="28">
-        <v>0</v>
+        <v>100014</v>
       </c>
       <c r="R19" s="28">
         <v>0</v>
       </c>
-      <c r="S19" s="23">
-        <v>100</v>
+      <c r="S19" s="28">
+        <v>0</v>
       </c>
       <c r="T19" s="28">
-        <v>100014</v>
-      </c>
-      <c r="U19" s="28">
-        <v>0</v>
-      </c>
-      <c r="V19" s="28">
-        <v>0</v>
-      </c>
-      <c r="W19" s="28">
-        <v>0</v>
-      </c>
-      <c r="X19" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y19" s="28" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="U19" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="V19" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="24">
         <v>100501</v>
       </c>
@@ -9195,7 +8618,7 @@
         <v>100501</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D20" s="22">
         <v>1</v>
@@ -9205,7 +8628,7 @@
         <v>6</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="G20" s="22">
         <v>0</v>
@@ -9220,55 +8643,45 @@
         <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K20,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K20" s="58" t="s">
-        <v>235</v>
-      </c>
-      <c r="L20" s="51">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M20,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>2</v>
-      </c>
-      <c r="M20" s="55" t="s">
-        <v>186</v>
-      </c>
-      <c r="N20" s="51">
-        <v>20</v>
+      <c r="K20" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="L20" s="25">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M20,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="N20" s="25">
+        <v>0</v>
       </c>
       <c r="O20" s="25">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P20,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="P20" s="43" t="s">
-        <v>185</v>
+        <v>0</v>
+      </c>
+      <c r="P20" s="22">
+        <v>100</v>
       </c>
       <c r="Q20" s="25">
-        <v>0</v>
+        <v>100015</v>
       </c>
       <c r="R20" s="25">
         <v>0</v>
       </c>
-      <c r="S20" s="22">
-        <v>100</v>
+      <c r="S20" s="25">
+        <v>0</v>
       </c>
       <c r="T20" s="25">
-        <v>100015</v>
-      </c>
-      <c r="U20" s="25">
-        <v>0</v>
-      </c>
-      <c r="V20" s="25">
-        <v>0</v>
-      </c>
-      <c r="W20" s="25">
-        <v>0</v>
-      </c>
-      <c r="X20" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y20" s="25" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="V20" s="25" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="26">
         <v>100502</v>
       </c>
@@ -9276,7 +8689,7 @@
         <v>100502</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D21" s="7">
         <v>1</v>
@@ -9286,7 +8699,7 @@
         <v>6</v>
       </c>
       <c r="F21" s="33" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="G21" s="7">
         <v>0</v>
@@ -9301,55 +8714,45 @@
         <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K21,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K21" s="59" t="s">
-        <v>235</v>
-      </c>
-      <c r="L21" s="52">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M21,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>2</v>
-      </c>
-      <c r="M21" s="56" t="s">
-        <v>186</v>
-      </c>
-      <c r="N21" s="52">
-        <v>20</v>
+      <c r="K21" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="L21" s="4">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M21,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0</v>
       </c>
       <c r="O21" s="4">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P21,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="P21" s="44" t="s">
-        <v>185</v>
+        <v>0</v>
+      </c>
+      <c r="P21" s="7">
+        <v>100</v>
       </c>
       <c r="Q21" s="4">
         <v>0</v>
       </c>
       <c r="R21" s="4">
-        <v>0</v>
-      </c>
-      <c r="S21" s="7">
-        <v>100</v>
+        <v>500005</v>
+      </c>
+      <c r="S21" s="4">
+        <v>0</v>
       </c>
       <c r="T21" s="4">
         <v>0</v>
       </c>
-      <c r="U21" s="4">
-        <v>500005</v>
-      </c>
-      <c r="V21" s="4">
-        <v>0</v>
-      </c>
-      <c r="W21" s="4">
-        <v>0</v>
-      </c>
-      <c r="X21" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="Y21" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U21" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="V21" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="27">
         <v>100503</v>
       </c>
@@ -9357,7 +8760,7 @@
         <v>100503</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D22" s="23">
         <v>1</v>
@@ -9367,7 +8770,7 @@
         <v>6</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="G22" s="23">
         <v>0</v>
@@ -9382,56 +8785,46 @@
         <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K22,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K22" s="60" t="s">
-        <v>235</v>
-      </c>
-      <c r="L22" s="53">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(M22,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>12</v>
-      </c>
-      <c r="M22" s="57" t="s">
-        <v>187</v>
-      </c>
-      <c r="N22" s="53">
-        <v>20</v>
+      <c r="K22" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="L22" s="28">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M22,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="M22" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="N22" s="28">
+        <v>0</v>
       </c>
       <c r="O22" s="28">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(P22,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
-        <v>2</v>
-      </c>
-      <c r="P22" s="45" t="s">
-        <v>188</v>
+        <v>10</v>
+      </c>
+      <c r="P22" s="23" t="s">
+        <v>91</v>
       </c>
       <c r="Q22" s="28">
-        <v>0</v>
+        <v>100017</v>
       </c>
       <c r="R22" s="28">
-        <v>10</v>
-      </c>
-      <c r="S22" s="23" t="s">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="S22" s="28">
+        <v>100018</v>
       </c>
       <c r="T22" s="28">
-        <v>100017</v>
-      </c>
-      <c r="U22" s="28">
-        <v>0</v>
-      </c>
-      <c r="V22" s="28">
-        <v>100018</v>
-      </c>
-      <c r="W22" s="28">
-        <v>0</v>
-      </c>
-      <c r="X22" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y22" s="28"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="V22" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X5:X22" xr:uid="{2DD0F759-8109-4C06-B32A-4A939427AE80}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U5:U22" xr:uid="{2DD0F759-8109-4C06-B32A-4A939427AE80}">
       <formula1>"hit,shoot,buff,debuff,heal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9439,7 +8832,7 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8A7FC9F6-0204-4C88-A1F3-F45CC3ECCE6D}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$N$3:$N$4</xm:f>
@@ -9451,12 +8844,6 @@
             <xm:f>'!참조_ENUM'!$C$3:$C$81</xm:f>
           </x14:formula1>
           <xm:sqref>F5:F22</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A47F3F8D-D410-4608-955D-92FAB6B7A6FE}">
-          <x14:formula1>
-            <xm:f>'!참조_ENUM'!$AE$3:$AE$10</xm:f>
-          </x14:formula1>
-          <xm:sqref>M5:M22</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CCA26A4F-AAA4-42EE-83AD-525EA6D6296B}">
           <x14:formula1>
@@ -9472,151 +8859,108 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BD63B1-FF99-405E-A3D0-90C5E747D8DE}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="26.125" customWidth="1"/>
-    <col min="4" max="4" width="26.125" style="61" customWidth="1"/>
-    <col min="5" max="5" width="31.125" style="61" customWidth="1"/>
-    <col min="6" max="6" width="16.375" style="61" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.375" customWidth="1"/>
-    <col min="8" max="8" width="45.25" customWidth="1"/>
-    <col min="9" max="9" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="67.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.375" customWidth="1"/>
+    <col min="5" max="5" width="45.25" customWidth="1"/>
+    <col min="6" max="6" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="67.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>76</v>
-      </c>
-      <c r="D2" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" s="62" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="62" t="s">
-        <v>97</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L2" s="62" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>77</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="63" t="s">
+      <c r="D3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="63" t="s">
+      <c r="F3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>8</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>32</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="63" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="64" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="F4" s="64" t="s">
-        <v>41</v>
+      <c r="D4" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>42</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="L4" s="64" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="24">
         <v>100001</v>
       </c>
@@ -9625,39 +8969,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="D5" s="71">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E5,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>12</v>
-      </c>
-      <c r="E5" s="71" t="s">
-        <v>187</v>
-      </c>
-      <c r="F5" s="71">
+        <v>178</v>
+      </c>
+      <c r="D5" s="22">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E5,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>101</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="F5" s="25">
         <v>0</v>
       </c>
       <c r="G5" s="22">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H5,'!참조_ENUM'!$G$3:$G$13,0))</f>
-        <v>101</v>
-      </c>
-      <c r="H5" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="I5" s="25">
-        <v>0</v>
-      </c>
-      <c r="J5" s="22">
         <v>1</v>
       </c>
-      <c r="K5" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="L5" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H5" s="25" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="26">
         <v>100002</v>
       </c>
@@ -9666,39 +8997,26 @@
         <v>2</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="D6" s="72">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E6,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>12</v>
-      </c>
-      <c r="E6" s="72" t="s">
-        <v>187</v>
-      </c>
-      <c r="F6" s="72">
+        <v>179</v>
+      </c>
+      <c r="D6" s="7">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E6,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>300</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="F6" s="4">
         <v>0</v>
       </c>
       <c r="G6" s="7">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H6,'!참조_ENUM'!$G$3:$G$13,0))</f>
-        <v>300</v>
-      </c>
-      <c r="H6" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7">
         <v>0.1</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="L6" s="66">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H6" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="27">
         <v>100003</v>
       </c>
@@ -9707,39 +9025,26 @@
         <v>1</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="D7" s="73">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E7,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>11</v>
-      </c>
-      <c r="E7" s="73" t="s">
-        <v>201</v>
-      </c>
-      <c r="F7" s="73">
+        <v>178</v>
+      </c>
+      <c r="D7" s="23">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E7,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>101</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="F7" s="28">
         <v>0</v>
       </c>
       <c r="G7" s="23">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H7,'!참조_ENUM'!$G$3:$G$13,0))</f>
-        <v>101</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="I7" s="28">
-        <v>0</v>
-      </c>
-      <c r="J7" s="23">
         <v>1.2</v>
       </c>
-      <c r="K7" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="L7" s="67">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H7" s="28" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="39">
         <v>100004</v>
       </c>
@@ -9748,39 +9053,26 @@
         <v>1</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="D8" s="74">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E8,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>12</v>
-      </c>
-      <c r="E8" s="74" t="s">
-        <v>187</v>
-      </c>
-      <c r="F8" s="74">
+        <v>178</v>
+      </c>
+      <c r="D8" s="40">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E8,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>101</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="F8" s="42">
         <v>0</v>
       </c>
       <c r="G8" s="40">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H8,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>1</v>
+      </c>
+      <c r="H8" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="H8" s="41" t="s">
-        <v>191</v>
-      </c>
-      <c r="I8" s="42">
-        <v>0</v>
-      </c>
-      <c r="J8" s="40">
-        <v>1</v>
-      </c>
-      <c r="K8" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="L8" s="68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="26">
         <v>100005</v>
       </c>
@@ -9789,39 +9081,26 @@
         <v>1</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="D9" s="72">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E9,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>12</v>
-      </c>
-      <c r="E9" s="72" t="s">
-        <v>187</v>
-      </c>
-      <c r="F9" s="72">
+        <v>178</v>
+      </c>
+      <c r="D9" s="7">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E9,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>101</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="F9" s="4">
         <v>0</v>
       </c>
       <c r="G9" s="7">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H9,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="H9" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="L9" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="27">
         <v>100006</v>
       </c>
@@ -9830,39 +9109,26 @@
         <v>1</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="D10" s="73">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E10,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>12</v>
-      </c>
-      <c r="E10" s="73" t="s">
-        <v>187</v>
-      </c>
-      <c r="F10" s="73">
+        <v>178</v>
+      </c>
+      <c r="D10" s="23">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E10,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>101</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" s="28">
         <v>0</v>
       </c>
       <c r="G10" s="23">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H10,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>1.3</v>
+      </c>
+      <c r="H10" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="H10" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="I10" s="28">
-        <v>0</v>
-      </c>
-      <c r="J10" s="23">
-        <v>1.3</v>
-      </c>
-      <c r="K10" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="L10" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>100007</v>
       </c>
@@ -9871,39 +9137,26 @@
         <v>1</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="D11" s="71">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E11,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>12</v>
-      </c>
-      <c r="E11" s="71" t="s">
-        <v>187</v>
-      </c>
-      <c r="F11" s="71">
+        <v>178</v>
+      </c>
+      <c r="D11" s="22">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E11,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>101</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="F11" s="25">
         <v>0</v>
       </c>
       <c r="G11" s="22">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H11,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>1</v>
+      </c>
+      <c r="H11" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="H11" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="I11" s="25">
-        <v>0</v>
-      </c>
-      <c r="J11" s="22">
-        <v>1</v>
-      </c>
-      <c r="K11" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="L11" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="26">
         <v>100008</v>
       </c>
@@ -9912,39 +9165,26 @@
         <v>1</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="D12" s="72">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E12,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>12</v>
-      </c>
-      <c r="E12" s="72" t="s">
-        <v>187</v>
-      </c>
-      <c r="F12" s="72">
+        <v>178</v>
+      </c>
+      <c r="D12" s="7">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E12,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>101</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="F12" s="4">
         <v>0</v>
       </c>
       <c r="G12" s="7">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H12,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>1.2</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="H12" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7">
-        <v>1.2</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="L12" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="31">
         <v>100009</v>
       </c>
@@ -9953,39 +9193,26 @@
         <v>1</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="D13" s="75">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E13,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>12</v>
-      </c>
-      <c r="E13" s="75" t="s">
-        <v>187</v>
-      </c>
-      <c r="F13" s="75">
+        <v>178</v>
+      </c>
+      <c r="D13" s="29">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E13,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>101</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="F13" s="30">
         <v>0</v>
       </c>
       <c r="G13" s="29">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H13,'!참조_ENUM'!$G$3:$G$13,0))</f>
-        <v>101</v>
-      </c>
-      <c r="H13" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="I13" s="30">
-        <v>0</v>
-      </c>
-      <c r="J13" s="29">
         <v>0.8</v>
       </c>
-      <c r="K13" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="L13" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H13" s="30" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <v>100010</v>
       </c>
@@ -9994,39 +9221,26 @@
         <v>1</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="D14" s="71">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E14,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>12</v>
-      </c>
-      <c r="E14" s="71" t="s">
-        <v>187</v>
-      </c>
-      <c r="F14" s="71">
+        <v>178</v>
+      </c>
+      <c r="D14" s="22">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E14,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>101</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14" s="25">
         <v>0</v>
       </c>
       <c r="G14" s="22">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H14,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>1</v>
+      </c>
+      <c r="H14" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="H14" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="I14" s="25">
-        <v>0</v>
-      </c>
-      <c r="J14" s="22">
-        <v>1</v>
-      </c>
-      <c r="K14" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="L14" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="31">
         <v>100011</v>
       </c>
@@ -10035,39 +9249,26 @@
         <v>1</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="D15" s="75">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E15,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>12</v>
-      </c>
-      <c r="E15" s="75" t="s">
-        <v>187</v>
-      </c>
-      <c r="F15" s="75">
+        <v>178</v>
+      </c>
+      <c r="D15" s="29">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E15,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>101</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="F15" s="30">
         <v>0</v>
       </c>
       <c r="G15" s="29">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H15,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>1.2</v>
+      </c>
+      <c r="H15" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="H15" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="I15" s="30">
-        <v>0</v>
-      </c>
-      <c r="J15" s="29">
-        <v>1.2</v>
-      </c>
-      <c r="K15" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="L15" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
         <v>100012</v>
       </c>
@@ -10076,39 +9277,26 @@
         <v>1</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="D16" s="71">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E16,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>12</v>
-      </c>
-      <c r="E16" s="71" t="s">
-        <v>187</v>
-      </c>
-      <c r="F16" s="71">
+        <v>178</v>
+      </c>
+      <c r="D16" s="22">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E16,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>101</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" s="25">
         <v>0</v>
       </c>
       <c r="G16" s="22">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H16,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>1</v>
+      </c>
+      <c r="H16" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="H16" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="I16" s="25">
-        <v>0</v>
-      </c>
-      <c r="J16" s="22">
-        <v>1</v>
-      </c>
-      <c r="K16" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="L16" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="26">
         <v>100013</v>
       </c>
@@ -10117,39 +9305,26 @@
         <v>2</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="D17" s="72">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E17,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>12</v>
-      </c>
-      <c r="E17" s="72" t="s">
-        <v>187</v>
-      </c>
-      <c r="F17" s="72">
+        <v>179</v>
+      </c>
+      <c r="D17" s="7">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E17,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>300</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="F17" s="4">
         <v>0</v>
       </c>
       <c r="G17" s="7">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H17,'!참조_ENUM'!$G$3:$G$13,0))</f>
-        <v>300</v>
-      </c>
-      <c r="H17" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="I17" s="4">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7">
         <v>0.3</v>
       </c>
-      <c r="K17" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="L17" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H17" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="27">
         <v>100014</v>
       </c>
@@ -10158,39 +9333,26 @@
         <v>1</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="D18" s="73">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E18,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>12</v>
-      </c>
-      <c r="E18" s="73" t="s">
-        <v>187</v>
-      </c>
-      <c r="F18" s="73">
+        <v>178</v>
+      </c>
+      <c r="D18" s="23">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E18,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>101</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="F18" s="28">
         <v>0</v>
       </c>
       <c r="G18" s="23">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H18,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>1.2</v>
+      </c>
+      <c r="H18" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="H18" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="I18" s="28">
-        <v>0</v>
-      </c>
-      <c r="J18" s="23">
-        <v>1.2</v>
-      </c>
-      <c r="K18" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="L18" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="39">
         <v>100015</v>
       </c>
@@ -10199,39 +9361,26 @@
         <v>1</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="D19" s="74">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E19,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>12</v>
-      </c>
-      <c r="E19" s="74" t="s">
-        <v>187</v>
-      </c>
-      <c r="F19" s="74">
+        <v>178</v>
+      </c>
+      <c r="D19" s="40">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E19,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>101</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="F19" s="42">
         <v>0</v>
       </c>
       <c r="G19" s="40">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H19,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>1</v>
+      </c>
+      <c r="H19" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="H19" s="41" t="s">
-        <v>191</v>
-      </c>
-      <c r="I19" s="42">
-        <v>0</v>
-      </c>
-      <c r="J19" s="40">
-        <v>1</v>
-      </c>
-      <c r="K19" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="27">
         <v>100016</v>
       </c>
@@ -10240,39 +9389,26 @@
         <v>1</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="D20" s="73">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E20,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>12</v>
-      </c>
-      <c r="E20" s="73" t="s">
-        <v>187</v>
-      </c>
-      <c r="F20" s="73">
+        <v>178</v>
+      </c>
+      <c r="D20" s="23">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E20,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>101</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="F20" s="28">
         <v>0</v>
       </c>
       <c r="G20" s="23">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H20,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>1.2</v>
+      </c>
+      <c r="H20" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="H20" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="I20" s="28">
-        <v>0</v>
-      </c>
-      <c r="J20" s="23">
-        <v>1.2</v>
-      </c>
-      <c r="K20" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="L20" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="27">
         <v>100017</v>
       </c>
@@ -10281,39 +9417,26 @@
         <v>1</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="D21" s="73">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E21,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>12</v>
-      </c>
-      <c r="E21" s="73" t="s">
-        <v>187</v>
-      </c>
-      <c r="F21" s="73">
+        <v>178</v>
+      </c>
+      <c r="D21" s="23">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E21,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>101</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="F21" s="28">
         <v>0</v>
       </c>
       <c r="G21" s="23">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H21,'!참조_ENUM'!$G$3:$G$13,0))</f>
-        <v>101</v>
-      </c>
-      <c r="H21" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="I21" s="28">
-        <v>0</v>
-      </c>
-      <c r="J21" s="23">
         <v>1.3</v>
       </c>
-      <c r="K21" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="L21" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H21" s="28" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="27">
         <v>100018</v>
       </c>
@@ -10322,36 +9445,23 @@
         <v>1</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="D22" s="73">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(E22,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>12</v>
-      </c>
-      <c r="E22" s="73" t="s">
-        <v>187</v>
-      </c>
-      <c r="F22" s="73">
+        <v>178</v>
+      </c>
+      <c r="D22" s="23">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E22,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>101</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="F22" s="28">
         <v>0</v>
       </c>
       <c r="G22" s="23">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(H22,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>1.3</v>
+      </c>
+      <c r="H22" s="28" t="s">
         <v>101</v>
-      </c>
-      <c r="H22" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="I22" s="28">
-        <v>0</v>
-      </c>
-      <c r="J22" s="23">
-        <v>1.3</v>
-      </c>
-      <c r="K22" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="L22" s="67">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10359,24 +9469,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A18B30A2-C6FB-47B8-BED5-149002997F3A}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$S$3:$S$5</xm:f>
           </x14:formula1>
           <xm:sqref>C5:C22</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{29D29330-6CAE-44AD-B56E-72E2FD569EFD}">
-          <x14:formula1>
-            <xm:f>'!참조_ENUM'!$AE$3:$AE$10</xm:f>
-          </x14:formula1>
-          <xm:sqref>E5:E22</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B09C3E93-8AD6-415C-8AC6-F2BA65FB1FD4}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$G$3:$G$13</xm:f>
           </x14:formula1>
-          <xm:sqref>H5:H22</xm:sqref>
+          <xm:sqref>E5:E22</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -10386,10 +9490,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E85B499-5762-4179-9193-75E156FB948B}">
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10401,99 +9505,83 @@
     <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9.875" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="16.875" customWidth="1"/>
-    <col min="11" max="11" width="23.75" style="61" customWidth="1"/>
-    <col min="12" max="12" width="28" style="61" customWidth="1"/>
-    <col min="13" max="13" width="12.25" style="61" customWidth="1"/>
-    <col min="14" max="14" width="21" customWidth="1"/>
-    <col min="15" max="15" width="43.75" customWidth="1"/>
-    <col min="19" max="19" width="78.875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.125" style="61" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21" customWidth="1"/>
+    <col min="12" max="12" width="43.75" customWidth="1"/>
+    <col min="16" max="16" width="78.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>66</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K2" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="L2" s="62" t="s">
-        <v>93</v>
-      </c>
-      <c r="M2" s="62" t="s">
-        <v>97</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="T2" s="62" t="s">
-        <v>98</v>
-      </c>
-      <c r="U2" s="15" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>67</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>4</v>
@@ -10505,114 +9593,90 @@
         <v>0</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>8</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="K3" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="L3" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="63" t="s">
+      <c r="M3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="11" t="s">
-        <v>32</v>
-      </c>
       <c r="O3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="T3" s="63" t="s">
-        <v>8</v>
-      </c>
-      <c r="U3" s="16" t="s">
+      <c r="Q3" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="K4" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="L4" s="76" t="s">
-        <v>92</v>
-      </c>
-      <c r="M4" s="76" t="s">
-        <v>41</v>
+        <v>98</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="T4" s="76" t="s">
-        <v>99</v>
-      </c>
-      <c r="U4" s="17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="Q4" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>500001</v>
       </c>
@@ -10621,14 +9685,14 @@
         <v>1</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D5" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E5,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>2</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
@@ -10645,43 +9709,30 @@
       <c r="J5" s="4">
         <v>0</v>
       </c>
-      <c r="K5" s="72">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(L5,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>12</v>
-      </c>
-      <c r="L5" s="72" t="s">
-        <v>187</v>
-      </c>
-      <c r="M5" s="72">
+      <c r="K5" s="7">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(L5,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>900</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="M5" s="4">
         <v>0</v>
       </c>
       <c r="N5" s="7">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(O5,'!참조_ENUM'!$G$3:$G$13,0))</f>
-        <v>900</v>
-      </c>
-      <c r="O5" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="P5" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="7">
         <v>0.5</v>
       </c>
-      <c r="R5" s="4">
+      <c r="O5" s="4">
         <v>10000</v>
       </c>
-      <c r="S5" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="T5" s="77">
-        <v>0</v>
-      </c>
-      <c r="U5" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="P5" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q5" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>500002</v>
       </c>
@@ -10690,14 +9741,14 @@
         <v>106</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D6" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E6,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="F6" s="4">
         <v>5</v>
@@ -10714,43 +9765,30 @@
       <c r="J6" s="4">
         <v>0</v>
       </c>
-      <c r="K6" s="72">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(L6,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>11</v>
-      </c>
-      <c r="L6" s="72" t="s">
-        <v>201</v>
-      </c>
-      <c r="M6" s="72">
+      <c r="K6" s="7">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(L6,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>101</v>
+      </c>
+      <c r="L6" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="M6" s="4">
         <v>0</v>
       </c>
       <c r="N6" s="7">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(O6,'!참조_ENUM'!$G$3:$G$13,0))</f>
-        <v>101</v>
-      </c>
-      <c r="O6" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="P6" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="7">
         <v>0.2</v>
       </c>
-      <c r="R6" s="4">
+      <c r="O6" s="4">
         <v>10000</v>
       </c>
-      <c r="S6" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="T6" s="77">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4" t="b">
+      <c r="P6" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q6" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>500003</v>
       </c>
@@ -10759,14 +9797,14 @@
         <v>107</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D7" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E7,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="F7" s="4">
         <v>5</v>
@@ -10783,43 +9821,30 @@
       <c r="J7" s="4">
         <v>0</v>
       </c>
-      <c r="K7" s="72">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(L7,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>11</v>
-      </c>
-      <c r="L7" s="72" t="s">
-        <v>201</v>
-      </c>
-      <c r="M7" s="72">
+      <c r="K7" s="7">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(L7,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>200</v>
+      </c>
+      <c r="L7" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="M7" s="4">
         <v>0</v>
       </c>
       <c r="N7" s="7">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(O7,'!참조_ENUM'!$G$3:$G$13,0))</f>
-        <v>200</v>
-      </c>
-      <c r="O7" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="P7" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="7">
         <v>0.1</v>
       </c>
-      <c r="R7" s="4">
+      <c r="O7" s="4">
         <v>10000</v>
       </c>
-      <c r="S7" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="T7" s="77">
-        <v>0</v>
-      </c>
-      <c r="U7" s="4" t="b">
+      <c r="P7" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q7" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>500004</v>
       </c>
@@ -10828,14 +9853,14 @@
         <v>106</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D8" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E8,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="F8" s="4">
         <v>5</v>
@@ -10852,43 +9877,30 @@
       <c r="J8" s="4">
         <v>0</v>
       </c>
-      <c r="K8" s="72">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(L8,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>11</v>
-      </c>
-      <c r="L8" s="72" t="s">
-        <v>201</v>
-      </c>
-      <c r="M8" s="72">
+      <c r="K8" s="7">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(L8,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>101</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="M8" s="4">
         <v>0</v>
       </c>
       <c r="N8" s="7">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(O8,'!참조_ENUM'!$G$3:$G$13,0))</f>
-        <v>101</v>
-      </c>
-      <c r="O8" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="P8" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="7">
         <v>0.1</v>
       </c>
-      <c r="R8" s="4">
+      <c r="O8" s="4">
         <v>10000</v>
       </c>
-      <c r="S8" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="T8" s="77">
-        <v>0</v>
-      </c>
-      <c r="U8" s="4" t="b">
+      <c r="P8" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q8" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>500005</v>
       </c>
@@ -10897,14 +9909,14 @@
         <v>108</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D9" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E9,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="F9" s="4">
         <v>5</v>
@@ -10921,43 +9933,30 @@
       <c r="J9" s="4">
         <v>0</v>
       </c>
-      <c r="K9" s="72">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(L9,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>11</v>
-      </c>
-      <c r="L9" s="72" t="s">
-        <v>201</v>
-      </c>
-      <c r="M9" s="72">
+      <c r="K9" s="7">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(L9,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>101</v>
+      </c>
+      <c r="L9" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="M9" s="4">
         <v>0</v>
       </c>
       <c r="N9" s="7">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(O9,'!참조_ENUM'!$G$3:$G$13,0))</f>
-        <v>101</v>
-      </c>
-      <c r="O9" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="P9" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="7">
         <v>0.15</v>
       </c>
-      <c r="R9" s="4">
+      <c r="O9" s="4">
         <v>5000</v>
       </c>
-      <c r="S9" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="T9" s="77">
-        <v>0</v>
-      </c>
-      <c r="U9" s="4" t="b">
+      <c r="P9" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q9" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>500006</v>
       </c>
@@ -10966,14 +9965,14 @@
         <v>109</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D10" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E10,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="F10" s="4">
         <v>5</v>
@@ -10990,43 +9989,30 @@
       <c r="J10" s="4">
         <v>0</v>
       </c>
-      <c r="K10" s="72">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(L10,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>11</v>
-      </c>
-      <c r="L10" s="72" t="s">
-        <v>201</v>
-      </c>
-      <c r="M10" s="72">
+      <c r="K10" s="7">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(L10,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>200</v>
+      </c>
+      <c r="L10" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="M10" s="4">
         <v>0</v>
       </c>
       <c r="N10" s="7">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(O10,'!참조_ENUM'!$G$3:$G$13,0))</f>
-        <v>200</v>
-      </c>
-      <c r="O10" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="P10" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="7">
         <v>0.2</v>
       </c>
-      <c r="R10" s="4">
+      <c r="O10" s="4">
         <v>5000</v>
       </c>
-      <c r="S10" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="T10" s="77">
-        <v>0</v>
-      </c>
-      <c r="U10" s="4" t="b">
+      <c r="P10" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q10" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>500007</v>
       </c>
@@ -11035,14 +10021,14 @@
         <v>105</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="D11" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E11,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="F11" s="4">
         <v>3</v>
@@ -11059,46 +10045,33 @@
       <c r="J11" s="4">
         <v>100007</v>
       </c>
-      <c r="K11" s="72">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$10,MATCH(L11,'!참조_ENUM'!$AE$3:$AE$10,0))</f>
-        <v>11</v>
-      </c>
-      <c r="L11" s="72" t="s">
-        <v>201</v>
-      </c>
-      <c r="M11" s="72">
+      <c r="K11" s="7">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(L11,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="M11" s="4">
         <v>0</v>
       </c>
       <c r="N11" s="7">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(O11,'!참조_ENUM'!$G$3:$G$13,0))</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="P11" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="7">
-        <v>0</v>
-      </c>
-      <c r="R11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
         <v>3000</v>
       </c>
-      <c r="S11" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="T11" s="77">
-        <v>0</v>
-      </c>
-      <c r="U11" s="4" t="b">
+      <c r="P11" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q11" s="4" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U5:U11" xr:uid="{07BC0E4E-0AB0-4FFB-BDF5-D6D183214701}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q5:Q11" xr:uid="{07BC0E4E-0AB0-4FFB-BDF5-D6D183214701}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11106,7 +10079,7 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6B324AAC-5A13-42AC-8334-D62D75A8A806}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$W$3:$W$13</xm:f>
@@ -11119,17 +10092,11 @@
           </x14:formula1>
           <xm:sqref>E5:E11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00C8BE9C-E436-4DB9-BD86-B58B490A4DA2}">
-          <x14:formula1>
-            <xm:f>'!참조_ENUM'!$AE$3:$AE$10</xm:f>
-          </x14:formula1>
-          <xm:sqref>L5:L11</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3C81CED5-F6F7-435B-B3F0-BE20EBA1B245}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$G$3:$G$13</xm:f>
           </x14:formula1>
-          <xm:sqref>O5:O11</xm:sqref>
+          <xm:sqref>L5:L11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Android/ExcelData/PCSkillTable.xlsx
+++ b/Android/ExcelData/PCSkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BE1B34-2433-4FA7-99D3-282885890380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEBE58E-A208-42AB-AAC7-5758491AFB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -2683,38 +2683,13 @@
       <sheetName val="@charge_type"/>
       <sheetName val="@sd_body_type"/>
       <sheetName val="@effect_count_type"/>
-      <sheetName val="@stage_common"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TRIBE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>POSITION_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ROLE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>NPC_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
       <sheetData sheetId="5">
         <row r="1">
           <cell r="A1" t="str">
@@ -4151,112 +4126,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="17">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>PROJECTILE_TYPE</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>type</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>value</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>comment</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>NONE</v>
-          </cell>
-          <cell r="B4">
-            <v>0</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>NONE</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>THROW_FOOT</v>
-          </cell>
-          <cell r="B5">
-            <v>1</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>1 투사체를 타겟의 발 밑에 던진다</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>THROW_BODY</v>
-          </cell>
-          <cell r="B6">
-            <v>2</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>2 투사체를 타겟의 몸에 던진다</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>THROW_HEAD</v>
-          </cell>
-          <cell r="B7">
-            <v>3</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>3 투사체를 타겟의 머리에 던진다</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>INSTANT_TARGET_FOOT</v>
-          </cell>
-          <cell r="B8">
-            <v>11</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>11 타겟의 발 밑에서 즉시 효과 발동</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>INSTANT_TARGET_BODY</v>
-          </cell>
-          <cell r="B9">
-            <v>12</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>12 타겟의 몸에서 즉시 효과 발동</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>INSTANT_TARGET_HEAD</v>
-          </cell>
-          <cell r="B10">
-            <v>13</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>13 타겟의 머리에서 즉시 효과 발동</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>ALL_ROUND</v>
-          </cell>
-          <cell r="B11">
-            <v>21</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>21 전체 선택(진영의 중앙)</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
@@ -4319,7 +4189,6 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="30" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4622,10 +4491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCF2545-5B22-48B7-AA3A-4E88E574D583}">
-  <dimension ref="A1:AQ81"/>
+  <dimension ref="A1:AI81"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AO5" sqref="AO5"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AF20" sqref="AF20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4645,18 +4514,13 @@
     <col min="21" max="21" width="24" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="39.375" customWidth="1"/>
     <col min="27" max="27" width="21.875" customWidth="1"/>
-    <col min="29" max="29" width="28.625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="38" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="24.125" customWidth="1"/>
-    <col min="39" max="39" width="48.375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="47" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="24.125" customWidth="1"/>
+    <col min="31" max="31" width="48.375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="47" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'[1]@target_rule'!$A$1</f>
         <v>TARGET_RULE_TYPE</v>
@@ -4686,23 +4550,15 @@
         <v>PERSISTENCE_TYPE</v>
       </c>
       <c r="AC1" t="str">
-        <f>'[1]@projectile_type'!$A$1</f>
-        <v>PROJECTILE_TYPE</v>
-      </c>
-      <c r="AG1" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AK1" t="str">
         <f>'[1]@second_target_rule'!$A$1</f>
         <v>SECOND_TARGET_RULE_TYPE</v>
       </c>
-      <c r="AO1" t="str">
+      <c r="AG1" t="str">
         <f>'[1]@effect_count_type'!$A$1</f>
         <v>EFFECT_COUNT_TYPE</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="str">
         <f>'[1]@target_rule'!$A3</f>
         <v>type</v>
@@ -4788,55 +4644,31 @@
         <v>comment</v>
       </c>
       <c r="AC2" s="5" t="str">
-        <f>'[1]@projectile_type'!$A3</f>
-        <v>type</v>
-      </c>
-      <c r="AD2" s="5" t="str">
-        <f>'[1]@projectile_type'!$B3</f>
-        <v>value</v>
-      </c>
-      <c r="AE2" s="1" t="str">
-        <f>'[1]@projectile_type'!$C3</f>
-        <v>comment</v>
-      </c>
-      <c r="AG2" s="5" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AH2" s="5" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI2" s="1" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AK2" s="5" t="str">
         <f>'[1]@second_target_rule'!$A3</f>
         <v>type</v>
       </c>
-      <c r="AL2" s="5" t="str">
+      <c r="AD2" s="5" t="str">
         <f>'[1]@second_target_rule'!$B3</f>
         <v>value</v>
       </c>
-      <c r="AM2" s="1" t="str">
+      <c r="AE2" s="1" t="str">
         <f>'[1]@second_target_rule'!$C3</f>
         <v>comment</v>
       </c>
-      <c r="AO2" s="5" t="str">
+      <c r="AG2" s="5" t="str">
         <f>'[1]@effect_count_type'!$A3</f>
         <v>type</v>
       </c>
-      <c r="AP2" s="5" t="str">
+      <c r="AH2" s="5" t="str">
         <f>'[1]@effect_count_type'!$B3</f>
         <v>value</v>
       </c>
-      <c r="AQ2" s="1" t="str">
+      <c r="AI2" s="1" t="str">
         <f>'[1]@effect_count_type'!$C3</f>
         <v>comment</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="str">
         <f>'[1]@target_rule'!$A4</f>
         <v>RANDOM</v>
@@ -4922,55 +4754,31 @@
         <v>NONE</v>
       </c>
       <c r="AC3" s="4" t="str">
-        <f>'[1]@projectile_type'!$A4</f>
-        <v>NONE</v>
-      </c>
-      <c r="AD3" s="4">
-        <f>'[1]@projectile_type'!$B4</f>
-        <v>0</v>
-      </c>
-      <c r="AE3" s="4" t="str">
-        <f>'[1]@projectile_type'!$C4</f>
-        <v>NONE</v>
-      </c>
-      <c r="AG3" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AH3" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI3" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AK3" s="4" t="str">
         <f>'[1]@second_target_rule'!$A4</f>
         <v>NONE</v>
       </c>
-      <c r="AL3" s="4">
+      <c r="AD3" s="4">
         <f>'[1]@second_target_rule'!$B4</f>
         <v>0</v>
       </c>
-      <c r="AM3" s="4" t="str">
+      <c r="AE3" s="4" t="str">
         <f>'[1]@second_target_rule'!$C4</f>
         <v>NONE</v>
       </c>
-      <c r="AO3" s="4" t="str">
+      <c r="AG3" s="4" t="str">
         <f>'[1]@effect_count_type'!$A4</f>
         <v>NONE</v>
       </c>
-      <c r="AP3" s="4">
+      <c r="AH3" s="4">
         <f>'[1]@effect_count_type'!$B4</f>
         <v>0</v>
       </c>
-      <c r="AQ3" s="4" t="str">
+      <c r="AI3" s="4" t="str">
         <f>'[1]@effect_count_type'!$C4</f>
         <v>NONE</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="str">
         <f>'[1]@target_rule'!$A5</f>
         <v>SELF</v>
@@ -5056,55 +4864,31 @@
         <v>1 시간 지속</v>
       </c>
       <c r="AC4" s="4" t="str">
-        <f>'[1]@projectile_type'!$A5</f>
-        <v>THROW_FOOT</v>
-      </c>
-      <c r="AD4" s="4">
-        <f>'[1]@projectile_type'!$B5</f>
-        <v>1</v>
-      </c>
-      <c r="AE4" s="4" t="str">
-        <f>'[1]@projectile_type'!$C5</f>
-        <v>1 투사체를 타겟의 발 밑에 던진다</v>
-      </c>
-      <c r="AG4" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AH4" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI4" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AK4" s="4" t="str">
         <f>'[1]@second_target_rule'!$A5</f>
         <v>AROUND_SPLASH</v>
       </c>
-      <c r="AL4" s="4">
+      <c r="AD4" s="4">
         <f>'[1]@second_target_rule'!$B5</f>
         <v>1</v>
       </c>
-      <c r="AM4" s="4" t="str">
+      <c r="AE4" s="4" t="str">
         <f>'[1]@second_target_rule'!$C5</f>
         <v>0 타겟을 중심으로 지정 반경내에 감지되는 타겟 검사</v>
       </c>
-      <c r="AO4" s="4" t="str">
+      <c r="AG4" s="4" t="str">
         <f>'[1]@effect_count_type'!$A5</f>
         <v>SINGLE_EFFECT</v>
       </c>
-      <c r="AP4" s="4">
+      <c r="AH4" s="4">
         <f>'[1]@effect_count_type'!$B5</f>
         <v>1</v>
       </c>
-      <c r="AQ4" s="4" t="str">
+      <c r="AI4" s="4" t="str">
         <f>'[1]@effect_count_type'!$C5</f>
         <v>전체 공격 등 대표 이펙트 하나만 발현되는 이펙트</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="str">
         <f>'[1]@target_rule'!$A6</f>
         <v>ALL</v>
@@ -5178,55 +4962,31 @@
         <v>2 피격 횟수 제한</v>
       </c>
       <c r="AC5" s="4" t="str">
-        <f>'[1]@projectile_type'!$A6</f>
-        <v>THROW_BODY</v>
-      </c>
-      <c r="AD5" s="4">
-        <f>'[1]@projectile_type'!$B6</f>
-        <v>2</v>
-      </c>
-      <c r="AE5" s="4" t="str">
-        <f>'[1]@projectile_type'!$C6</f>
-        <v>2 투사체를 타겟의 몸에 던진다</v>
-      </c>
-      <c r="AG5" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AH5" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI5" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AK5" s="4" t="str">
         <f>'[1]@second_target_rule'!$A6</f>
         <v>BACK_SPLASH</v>
       </c>
-      <c r="AL5" s="4">
+      <c r="AD5" s="4">
         <f>'[1]@second_target_rule'!$B6</f>
         <v>2</v>
       </c>
-      <c r="AM5" s="4" t="str">
+      <c r="AE5" s="4" t="str">
         <f>'[1]@second_target_rule'!$C6</f>
         <v>1 타겟 뒤로 지정 반경내에 감지되는 타겟 검사</v>
       </c>
-      <c r="AO5" s="4" t="str">
+      <c r="AG5" s="4" t="str">
         <f>'[1]@effect_count_type'!$A6</f>
         <v>EACH_TARGET_EFFECT</v>
       </c>
-      <c r="AP5" s="4">
+      <c r="AH5" s="4">
         <f>'[1]@effect_count_type'!$B6</f>
         <v>2</v>
       </c>
-      <c r="AQ5" s="4" t="str">
+      <c r="AI5" s="4" t="str">
         <f>'[1]@effect_count_type'!$C6</f>
         <v>각 타겟에 개별적으로 발현되는 이펙트</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="str">
         <f>'[1]@target_rule'!$A7</f>
         <v>ALL_WITHOUT_ME</v>
@@ -5288,32 +5048,8 @@
         <f>'[1]@persistence_type'!$C7</f>
         <v>3 공격 횟수 제한</v>
       </c>
-      <c r="AC6" s="4" t="str">
-        <f>'[1]@projectile_type'!$A7</f>
-        <v>THROW_HEAD</v>
-      </c>
-      <c r="AD6" s="4">
-        <f>'[1]@projectile_type'!$B7</f>
-        <v>3</v>
-      </c>
-      <c r="AE6" s="4" t="str">
-        <f>'[1]@projectile_type'!$C7</f>
-        <v>3 투사체를 타겟의 머리에 던진다</v>
-      </c>
-      <c r="AG6" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AH6" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI6" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="str">
         <f>'[1]@target_rule'!$A8</f>
         <v>ALLY_WITHOUT_ME_NEAREST</v>
@@ -5350,32 +5086,8 @@
         <f>'[1]@duration_effect_type'!$C8</f>
         <v>103 침묵</v>
       </c>
-      <c r="AC7" s="4" t="str">
-        <f>'[1]@projectile_type'!$A8</f>
-        <v>INSTANT_TARGET_FOOT</v>
-      </c>
-      <c r="AD7" s="4">
-        <f>'[1]@projectile_type'!$B8</f>
-        <v>11</v>
-      </c>
-      <c r="AE7" s="4" t="str">
-        <f>'[1]@projectile_type'!$C8</f>
-        <v>11 타겟의 발 밑에서 즉시 효과 발동</v>
-      </c>
-      <c r="AG7" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AH7" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI7" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="str">
         <f>'[1]@target_rule'!$A9</f>
         <v>ALLY_WITHOUT_ME_FURTHEST</v>
@@ -5412,20 +5124,8 @@
         <f>'[1]@duration_effect_type'!$C9</f>
         <v>104 결박</v>
       </c>
-      <c r="AC8" s="4" t="str">
-        <f>'[1]@projectile_type'!$A9</f>
-        <v>INSTANT_TARGET_BODY</v>
-      </c>
-      <c r="AD8" s="4">
-        <f>'[1]@projectile_type'!$B9</f>
-        <v>12</v>
-      </c>
-      <c r="AE8" s="4" t="str">
-        <f>'[1]@projectile_type'!$C9</f>
-        <v>12 타겟의 몸에서 즉시 효과 발동</v>
-      </c>
-    </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="str">
         <f>'[1]@target_rule'!$A10</f>
         <v>NEAREST</v>
@@ -5462,20 +5162,8 @@
         <f>'[1]@duration_effect_type'!$C10</f>
         <v>105 빙결</v>
       </c>
-      <c r="AC9" s="4" t="str">
-        <f>'[1]@projectile_type'!$A10</f>
-        <v>INSTANT_TARGET_HEAD</v>
-      </c>
-      <c r="AD9" s="4">
-        <f>'[1]@projectile_type'!$B10</f>
-        <v>13</v>
-      </c>
-      <c r="AE9" s="4" t="str">
-        <f>'[1]@projectile_type'!$C10</f>
-        <v>13 타겟의 머리에서 즉시 효과 발동</v>
-      </c>
-    </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="str">
         <f>'[1]@target_rule'!$A11</f>
         <v>FURTHEST</v>
@@ -5512,20 +5200,8 @@
         <f>'[1]@duration_effect_type'!$C11</f>
         <v>106 공격력 증가</v>
       </c>
-      <c r="AC10" s="4" t="str">
-        <f>'[1]@projectile_type'!$A11</f>
-        <v>ALL_ROUND</v>
-      </c>
-      <c r="AD10" s="4">
-        <f>'[1]@projectile_type'!$B11</f>
-        <v>21</v>
-      </c>
-      <c r="AE10" s="4" t="str">
-        <f>'[1]@projectile_type'!$C11</f>
-        <v>21 전체 선택(진영의 중앙)</v>
-      </c>
-    </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="str">
         <f>'[1]@target_rule'!$A12</f>
         <v>NEAREST_ADD_BACK_RANGE</v>
@@ -5563,7 +5239,7 @@
         <v>107 방어력 증가</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="str">
         <f>'[1]@target_rule'!$A13</f>
         <v>FURTHEST_ADD_FRONT_RANGE</v>
@@ -5601,7 +5277,7 @@
         <v>108 공격력 감소</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="str">
         <f>'[1]@target_rule'!$A14</f>
         <v>NEAREST_ADD_ARROUND_RANGE</v>
@@ -5639,7 +5315,7 @@
         <v>109 방어력 감소</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="str">
         <f>'[1]@target_rule'!$A15</f>
         <v>FURTHEST_ADD_ARROUND_RANGE</v>
@@ -5653,7 +5329,7 @@
         <v>11 가장 거리가 먼 적 우선 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로) 후 일정 영역내의 (주변) 타겟 추가 선택</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="str">
         <f>'[1]@target_rule'!$A16</f>
         <v>LOWEST_LIFE_VALUE</v>
@@ -5667,7 +5343,7 @@
         <v>3001 남은 체력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="str">
         <f>'[1]@target_rule'!$A17</f>
         <v>LOWEST_ATTACK</v>
@@ -7292,7 +6968,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4C786C54-CC5B-4545-99A0-6CDFA127AF9A}">
           <x14:formula1>
-            <xm:f>'!참조_ENUM'!$AH$3:$AH$7</xm:f>
+            <xm:f>'!참조_ENUM'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>E5</xm:sqref>
         </x14:dataValidation>
@@ -7593,14 +7269,14 @@
         <v>0</v>
       </c>
       <c r="J5" s="22">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K5,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K5,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
         <v>0</v>
       </c>
       <c r="K5" s="47" t="s">
         <v>176</v>
       </c>
       <c r="L5" s="25">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M5,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M5,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
       <c r="M5" s="43" t="s">
@@ -7662,14 +7338,14 @@
         <v>0</v>
       </c>
       <c r="J6" s="7">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K6,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K6,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
         <v>0</v>
       </c>
       <c r="K6" s="48" t="s">
         <v>176</v>
       </c>
       <c r="L6" s="4">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M6,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M6,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
       <c r="M6" s="44" t="s">
@@ -7731,14 +7407,14 @@
         <v>0</v>
       </c>
       <c r="J7" s="23">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K7,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K7,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
         <v>0</v>
       </c>
       <c r="K7" s="49" t="s">
         <v>176</v>
       </c>
       <c r="L7" s="28">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M7,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M7,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
       <c r="M7" s="45" t="s">
@@ -7800,14 +7476,14 @@
         <v>0</v>
       </c>
       <c r="J8" s="22">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K8,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K8,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
         <v>0</v>
       </c>
       <c r="K8" s="47" t="s">
         <v>176</v>
       </c>
       <c r="L8" s="25">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M8,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M8,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
       <c r="M8" s="43" t="s">
@@ -7869,14 +7545,14 @@
         <v>0</v>
       </c>
       <c r="J9" s="7">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K9,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K9,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
         <v>0</v>
       </c>
       <c r="K9" s="48" t="s">
         <v>176</v>
       </c>
       <c r="L9" s="4">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M9,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M9,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
       <c r="M9" s="44" t="s">
@@ -7938,14 +7614,14 @@
         <v>0</v>
       </c>
       <c r="J10" s="23">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K10,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K10,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
         <v>0</v>
       </c>
       <c r="K10" s="49" t="s">
         <v>176</v>
       </c>
       <c r="L10" s="28">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M10,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M10,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
       <c r="M10" s="45" t="s">
@@ -8007,14 +7683,14 @@
         <v>0</v>
       </c>
       <c r="J11" s="22">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K11,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K11,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
         <v>0</v>
       </c>
       <c r="K11" s="47" t="s">
         <v>176</v>
       </c>
       <c r="L11" s="25">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M11,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M11,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
       <c r="M11" s="43" t="s">
@@ -8076,14 +7752,14 @@
         <v>0</v>
       </c>
       <c r="J12" s="7">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K12,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K12,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
         <v>0</v>
       </c>
       <c r="K12" s="48" t="s">
         <v>176</v>
       </c>
       <c r="L12" s="4">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M12,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M12,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
       <c r="M12" s="44" t="s">
@@ -8145,14 +7821,14 @@
         <v>7</v>
       </c>
       <c r="J13" s="23">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K13,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K13,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
         <v>0</v>
       </c>
       <c r="K13" s="49" t="s">
         <v>176</v>
       </c>
       <c r="L13" s="28">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M13,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M13,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
       <c r="M13" s="45" t="s">
@@ -8214,14 +7890,14 @@
         <v>0</v>
       </c>
       <c r="J14" s="22">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K14,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K14,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
         <v>2</v>
       </c>
       <c r="K14" s="47" t="s">
         <v>223</v>
       </c>
       <c r="L14" s="25">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M14,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M14,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
       <c r="M14" s="43" t="s">
@@ -8285,14 +7961,14 @@
         <v>0</v>
       </c>
       <c r="J15" s="7">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K15,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K15,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
         <v>2</v>
       </c>
       <c r="K15" s="48" t="s">
         <v>223</v>
       </c>
       <c r="L15" s="4">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M15,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M15,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
       <c r="M15" s="44" t="s">
@@ -8356,14 +8032,14 @@
         <v>0</v>
       </c>
       <c r="J16" s="23">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K16,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K16,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
         <v>2</v>
       </c>
       <c r="K16" s="49" t="s">
         <v>223</v>
       </c>
       <c r="L16" s="28">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M16,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M16,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
       <c r="M16" s="45" t="s">
@@ -8427,14 +8103,14 @@
         <v>0</v>
       </c>
       <c r="J17" s="22">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K17,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K17,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
         <v>2</v>
       </c>
       <c r="K17" s="47" t="s">
         <v>223</v>
       </c>
       <c r="L17" s="25">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M17,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M17,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
       <c r="M17" s="43" t="s">
@@ -8498,14 +8174,14 @@
         <v>0</v>
       </c>
       <c r="J18" s="7">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K18,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K18,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
         <v>2</v>
       </c>
       <c r="K18" s="48" t="s">
         <v>223</v>
       </c>
       <c r="L18" s="4">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M18,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M18,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
       <c r="M18" s="44" t="s">
@@ -8569,14 +8245,14 @@
         <v>0</v>
       </c>
       <c r="J19" s="23">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K19,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K19,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
         <v>2</v>
       </c>
       <c r="K19" s="49" t="s">
         <v>223</v>
       </c>
       <c r="L19" s="28">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M19,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M19,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
       <c r="M19" s="45" t="s">
@@ -8640,14 +8316,14 @@
         <v>0</v>
       </c>
       <c r="J20" s="22">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K20,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K20,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
         <v>2</v>
       </c>
       <c r="K20" s="47" t="s">
         <v>223</v>
       </c>
       <c r="L20" s="25">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M20,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M20,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
       <c r="M20" s="43" t="s">
@@ -8711,14 +8387,14 @@
         <v>0</v>
       </c>
       <c r="J21" s="7">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K21,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K21,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
         <v>2</v>
       </c>
       <c r="K21" s="48" t="s">
         <v>223</v>
       </c>
       <c r="L21" s="4">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M21,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M21,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
       <c r="M21" s="44" t="s">
@@ -8782,14 +8458,14 @@
         <v>0</v>
       </c>
       <c r="J22" s="23">
-        <f>INDEX('!참조_ENUM'!$AP$3:$AP$5,MATCH(K22,'!참조_ENUM'!$AQ$3:$AQ$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K22,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
         <v>2</v>
       </c>
       <c r="K22" s="49" t="s">
         <v>223</v>
       </c>
       <c r="L22" s="28">
-        <f>INDEX('!참조_ENUM'!$AL$3:$AL$5,MATCH(M22,'!참조_ENUM'!$AM$3:$AM$5,0))</f>
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M22,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>2</v>
       </c>
       <c r="M22" s="45" t="s">
@@ -8847,7 +8523,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CCA26A4F-AAA4-42EE-83AD-525EA6D6296B}">
           <x14:formula1>
-            <xm:f>'!참조_ENUM'!$AQ$3:$AQ$5</xm:f>
+            <xm:f>'!참조_ENUM'!$AI$3:$AI$5</xm:f>
           </x14:formula1>
           <xm:sqref>K5:K22</xm:sqref>
         </x14:dataValidation>
@@ -9492,7 +9168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E85B499-5762-4179-9193-75E156FB948B}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>

--- a/Android/ExcelData/PCSkillTable.xlsx
+++ b/Android/ExcelData/PCSkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEBE58E-A208-42AB-AAC7-5758491AFB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC7DE9C-BBED-45B2-BF7A-46A5D3E738CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -1339,7 +1339,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="238">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1842,9 +1842,6 @@
     <t>ENUM:SKILL_TYPE:NONE</t>
   </si>
   <si>
-    <t>Skill_Type</t>
-  </si>
-  <si>
     <t>세컨 타겟 룰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2031,9 +2028,6 @@
     <t>NONE</t>
   </si>
   <si>
-    <t>1 타겟 뒤로 지정 반경내에 감지되는 타겟 검사</t>
-  </si>
-  <si>
     <t>1 데미지를 준다</t>
   </si>
   <si>
@@ -2191,6 +2185,60 @@
   </si>
   <si>
     <t>Assets/AssetResources/Prefabs/Effects/Skill/Left/SkillEffect_Parabola_Fireball</t>
+  </si>
+  <si>
+    <t>힐러/궁극기/원거리 스킬/전체 체력 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>special skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 타입(기획)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#skill_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 일반 공격</t>
+  </si>
+  <si>
+    <t>2 스킬 공격 1</t>
+  </si>
+  <si>
+    <t>3 스킬 공격 2</t>
+  </si>
+  <si>
+    <t>4 궁극기</t>
+  </si>
+  <si>
+    <t>아군 전체 체력 회복 (1히트)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_ultimate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힐러/궁극기/원거리 스킬/아군 전체 체력 회복(즉발형)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 전체 선택</t>
+  </si>
+  <si>
+    <t>2 타겟 뒤로 지정 반경내에 감지되는 타겟 검사</t>
   </si>
 </sst>
 </file>
@@ -2311,7 +2359,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -2472,13 +2520,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2629,6 +2688,27 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2681,7 +2761,7 @@
       <sheetName val="@drop_type"/>
       <sheetName val="@repeat_type"/>
       <sheetName val="@charge_type"/>
-      <sheetName val="@sd_body_type"/>
+      <sheetName val="@reward_type"/>
       <sheetName val="@effect_count_type"/>
     </sheetNames>
     <sheetDataSet>
@@ -3614,7 +3694,7 @@
             <v>1</v>
           </cell>
           <cell r="C5" t="str">
-            <v>0 타겟을 중심으로 지정 반경내에 감지되는 타겟 검사</v>
+            <v>1 타겟을 중심으로 지정 반경내에 감지되는 타겟 검사</v>
           </cell>
         </row>
         <row r="6">
@@ -3625,7 +3705,7 @@
             <v>2</v>
           </cell>
           <cell r="C6" t="str">
-            <v>1 타겟 뒤로 지정 반경내에 감지되는 타겟 검사</v>
+            <v>2 타겟 뒤로 지정 반경내에 감지되는 타겟 검사</v>
           </cell>
         </row>
       </sheetData>
@@ -4128,7 +4208,79 @@
       </sheetData>
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
+      <sheetData sheetId="19">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SKILL_TYPE</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>type</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>value</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>comment</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>NORMAL_ATTACK</v>
+          </cell>
+          <cell r="B5">
+            <v>1</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>1 일반 공격</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>SKILL_01</v>
+          </cell>
+          <cell r="B6">
+            <v>2</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>2 스킬 공격 1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>SKILL_02</v>
+          </cell>
+          <cell r="B7">
+            <v>3</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>3 스킬 공격 2</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>SPECIAL_SKILL</v>
+          </cell>
+          <cell r="B8">
+            <v>4</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>4 궁극기</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="20"/>
       <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
@@ -4491,10 +4643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCF2545-5B22-48B7-AA3A-4E88E574D583}">
-  <dimension ref="A1:AI81"/>
+  <dimension ref="A1:AM81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AF20" sqref="AF20"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AE4" sqref="AE4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4518,9 +4670,12 @@
     <col min="31" max="31" width="48.375" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="21.75" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="47" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'[1]@target_rule'!$A$1</f>
         <v>TARGET_RULE_TYPE</v>
@@ -4557,8 +4712,12 @@
         <f>'[1]@effect_count_type'!$A$1</f>
         <v>EFFECT_COUNT_TYPE</v>
       </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AK1" t="str">
+        <f>'[1]@skill_type'!$A$1</f>
+        <v>SKILL_TYPE</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="str">
         <f>'[1]@target_rule'!$A3</f>
         <v>type</v>
@@ -4667,8 +4826,20 @@
         <f>'[1]@effect_count_type'!$C3</f>
         <v>comment</v>
       </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AK2" s="5" t="str">
+        <f>'[1]@skill_type'!$A3</f>
+        <v>type</v>
+      </c>
+      <c r="AL2" s="5" t="str">
+        <f>'[1]@skill_type'!$B3</f>
+        <v>value</v>
+      </c>
+      <c r="AM2" s="1" t="str">
+        <f>'[1]@skill_type'!$C3</f>
+        <v>comment</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="str">
         <f>'[1]@target_rule'!$A4</f>
         <v>RANDOM</v>
@@ -4777,8 +4948,20 @@
         <f>'[1]@effect_count_type'!$C4</f>
         <v>NONE</v>
       </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AK3" s="4" t="str">
+        <f>'[1]@skill_type'!$A4</f>
+        <v>NONE</v>
+      </c>
+      <c r="AL3" s="4">
+        <f>'[1]@skill_type'!$B4</f>
+        <v>0</v>
+      </c>
+      <c r="AM3" s="4" t="str">
+        <f>'[1]@skill_type'!$C4</f>
+        <v>NONE</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="str">
         <f>'[1]@target_rule'!$A5</f>
         <v>SELF</v>
@@ -4873,7 +5056,7 @@
       </c>
       <c r="AE4" s="4" t="str">
         <f>'[1]@second_target_rule'!$C5</f>
-        <v>0 타겟을 중심으로 지정 반경내에 감지되는 타겟 검사</v>
+        <v>1 타겟을 중심으로 지정 반경내에 감지되는 타겟 검사</v>
       </c>
       <c r="AG4" s="4" t="str">
         <f>'[1]@effect_count_type'!$A5</f>
@@ -4887,8 +5070,20 @@
         <f>'[1]@effect_count_type'!$C5</f>
         <v>전체 공격 등 대표 이펙트 하나만 발현되는 이펙트</v>
       </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AK4" s="4" t="str">
+        <f>'[1]@skill_type'!$A5</f>
+        <v>NORMAL_ATTACK</v>
+      </c>
+      <c r="AL4" s="4">
+        <f>'[1]@skill_type'!$B5</f>
+        <v>1</v>
+      </c>
+      <c r="AM4" s="4" t="str">
+        <f>'[1]@skill_type'!$C5</f>
+        <v>1 일반 공격</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="str">
         <f>'[1]@target_rule'!$A6</f>
         <v>ALL</v>
@@ -4971,7 +5166,7 @@
       </c>
       <c r="AE5" s="4" t="str">
         <f>'[1]@second_target_rule'!$C6</f>
-        <v>1 타겟 뒤로 지정 반경내에 감지되는 타겟 검사</v>
+        <v>2 타겟 뒤로 지정 반경내에 감지되는 타겟 검사</v>
       </c>
       <c r="AG5" s="4" t="str">
         <f>'[1]@effect_count_type'!$A6</f>
@@ -4985,8 +5180,20 @@
         <f>'[1]@effect_count_type'!$C6</f>
         <v>각 타겟에 개별적으로 발현되는 이펙트</v>
       </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AK5" s="4" t="str">
+        <f>'[1]@skill_type'!$A6</f>
+        <v>SKILL_01</v>
+      </c>
+      <c r="AL5" s="4">
+        <f>'[1]@skill_type'!$B6</f>
+        <v>2</v>
+      </c>
+      <c r="AM5" s="4" t="str">
+        <f>'[1]@skill_type'!$C6</f>
+        <v>2 스킬 공격 1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="str">
         <f>'[1]@target_rule'!$A7</f>
         <v>ALL_WITHOUT_ME</v>
@@ -5048,8 +5255,20 @@
         <f>'[1]@persistence_type'!$C7</f>
         <v>3 공격 횟수 제한</v>
       </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AK6" s="4" t="str">
+        <f>'[1]@skill_type'!$A7</f>
+        <v>SKILL_02</v>
+      </c>
+      <c r="AL6" s="4">
+        <f>'[1]@skill_type'!$B7</f>
+        <v>3</v>
+      </c>
+      <c r="AM6" s="4" t="str">
+        <f>'[1]@skill_type'!$C7</f>
+        <v>3 스킬 공격 2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="str">
         <f>'[1]@target_rule'!$A8</f>
         <v>ALLY_WITHOUT_ME_NEAREST</v>
@@ -5086,8 +5305,20 @@
         <f>'[1]@duration_effect_type'!$C8</f>
         <v>103 침묵</v>
       </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AK7" s="4" t="str">
+        <f>'[1]@skill_type'!$A8</f>
+        <v>SPECIAL_SKILL</v>
+      </c>
+      <c r="AL7" s="4">
+        <f>'[1]@skill_type'!$B8</f>
+        <v>4</v>
+      </c>
+      <c r="AM7" s="4" t="str">
+        <f>'[1]@skill_type'!$C8</f>
+        <v>4 궁극기</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="str">
         <f>'[1]@target_rule'!$A9</f>
         <v>ALLY_WITHOUT_ME_FURTHEST</v>
@@ -5125,7 +5356,7 @@
         <v>104 결박</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="str">
         <f>'[1]@target_rule'!$A10</f>
         <v>NEAREST</v>
@@ -5163,7 +5394,7 @@
         <v>105 빙결</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="str">
         <f>'[1]@target_rule'!$A11</f>
         <v>FURTHEST</v>
@@ -5201,7 +5432,7 @@
         <v>106 공격력 증가</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="str">
         <f>'[1]@target_rule'!$A12</f>
         <v>NEAREST_ADD_BACK_RANGE</v>
@@ -5239,7 +5470,7 @@
         <v>107 방어력 증가</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="str">
         <f>'[1]@target_rule'!$A13</f>
         <v>FURTHEST_ADD_FRONT_RANGE</v>
@@ -5277,7 +5508,7 @@
         <v>108 공격력 감소</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="str">
         <f>'[1]@target_rule'!$A14</f>
         <v>NEAREST_ADD_ARROUND_RANGE</v>
@@ -5315,7 +5546,7 @@
         <v>109 방어력 감소</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="str">
         <f>'[1]@target_rule'!$A15</f>
         <v>FURTHEST_ADD_ARROUND_RANGE</v>
@@ -5329,7 +5560,7 @@
         <v>11 가장 거리가 먼 적 우선 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로) 후 일정 영역내의 (주변) 타겟 추가 선택</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="str">
         <f>'[1]@target_rule'!$A16</f>
         <v>LOWEST_LIFE_VALUE</v>
@@ -5343,7 +5574,7 @@
         <v>3001 남은 체력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="str">
         <f>'[1]@target_rule'!$A17</f>
         <v>LOWEST_ATTACK</v>
@@ -6275,10 +6506,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D77A34-98F9-4133-B549-FB86B9DF331B}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6288,19 +6519,20 @@
     <col min="3" max="3" width="16.75" customWidth="1"/>
     <col min="4" max="4" width="14.625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="48.375" customWidth="1"/>
-    <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.625" customWidth="1"/>
-    <col min="9" max="9" width="19.625" customWidth="1"/>
-    <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.375" customWidth="1"/>
+    <col min="8" max="8" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.625" customWidth="1"/>
+    <col min="10" max="10" width="19.625" customWidth="1"/>
+    <col min="11" max="11" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -6316,23 +6548,26 @@
       <c r="E2" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -6349,7 +6584,7 @@
         <v>126</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>4</v>
+        <v>226</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>4</v>
@@ -6358,13 +6593,16 @@
         <v>4</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>207</v>
+        <v>4</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -6378,25 +6616,28 @@
         <v>48</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>127</v>
+        <v>228</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="J4" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>100001</v>
       </c>
@@ -6411,25 +6652,29 @@
         <v>2</v>
       </c>
       <c r="E5" s="18">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$7,MATCH(F5,'!참조_ENUM'!$AM$3:$AM$7,0))</f>
         <v>1</v>
       </c>
-      <c r="F5" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="G5" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="J5" s="4">
+      <c r="F5" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="H5" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="K5" s="4">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>100002</v>
       </c>
@@ -6444,25 +6689,29 @@
         <v>2</v>
       </c>
       <c r="E6" s="18">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$7,MATCH(F6,'!참조_ENUM'!$AM$3:$AM$7,0))</f>
         <v>2</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="G6" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="J6" s="4">
+      <c r="F6" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="H6" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="K6" s="4">
         <v>2.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>100003</v>
       </c>
@@ -6477,486 +6726,584 @@
         <v>2</v>
       </c>
       <c r="E7" s="18">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$7,MATCH(F7,'!참조_ENUM'!$AM$3:$AM$7,0))</f>
         <v>3</v>
       </c>
-      <c r="F7" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="G7" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="J7" s="4">
+      <c r="F7" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="H7" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="K7" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
+        <v>100004</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="D8" s="19">
+        <v>15</v>
+      </c>
+      <c r="E8" s="18">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$7,MATCH(F8,'!참조_ENUM'!$AM$3:$AM$7,0))</f>
+        <v>4</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>232</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="H8" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
         <v>100101</v>
-      </c>
-      <c r="B8" s="18" t="str">
-        <f>VLOOKUP(A8,pc_skill_data!$B:$C,2,)</f>
-        <v>근딜/일반 (공격력 100%)</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="19">
-        <v>2</v>
-      </c>
-      <c r="E8" s="18">
-        <v>1</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="G8" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
-        <v>100102</v>
       </c>
       <c r="B9" s="18" t="str">
         <f>VLOOKUP(A9,pc_skill_data!$B:$C,2,)</f>
-        <v>근딜/나/공격력 증가 버프 (20%)</v>
+        <v>근딜/일반 (공격력 100%)</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="19">
         <v>2</v>
       </c>
       <c r="E9" s="18">
-        <v>2</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="G9" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="H9" s="18" t="s">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$7,MATCH(F9,'!참조_ENUM'!$AM$3:$AM$7,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="H9" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="I9" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J9" s="4"/>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
-        <v>100103</v>
+        <v>100102</v>
       </c>
       <c r="B10" s="18" t="str">
         <f>VLOOKUP(A10,pc_skill_data!$B:$C,2,)</f>
-        <v>근딜/근접공격/대미지(공격력 130%)</v>
+        <v>근딜/나/공격력 증가 버프 (20%)</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="D10" s="19">
         <v>2</v>
       </c>
       <c r="E10" s="18">
-        <v>3</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="G10" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$7,MATCH(F10,'!참조_ENUM'!$AM$3:$AM$7,0))</f>
+        <v>2</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H10" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
-        <v>100201</v>
+        <v>100103</v>
       </c>
       <c r="B11" s="18" t="str">
         <f>VLOOKUP(A11,pc_skill_data!$B:$C,2,)</f>
-        <v>원딜/일반</v>
+        <v>근딜/근접공격/대미지(공격력 130%)</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D11" s="19">
         <v>2</v>
       </c>
       <c r="E11" s="18">
-        <v>1</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="G11" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$7,MATCH(F11,'!참조_ENUM'!$AM$3:$AM$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="H11" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
-        <v>100202</v>
+        <v>100201</v>
       </c>
       <c r="B12" s="18" t="str">
         <f>VLOOKUP(A12,pc_skill_data!$B:$C,2,)</f>
-        <v>원딜/스킬1/대미지 (스킬 대미지 120%)</v>
+        <v>원딜/일반</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D12" s="19">
         <v>2</v>
       </c>
       <c r="E12" s="18">
-        <v>2</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="G12" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="H12" s="18" t="s">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$7,MATCH(F12,'!참조_ENUM'!$AM$3:$AM$7,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="H12" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="I12" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J12" s="4"/>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
-        <v>100203</v>
+        <v>100202</v>
       </c>
       <c r="B13" s="18" t="str">
         <f>VLOOKUP(A13,pc_skill_data!$B:$C,2,)</f>
-        <v>원딜/스킬2/범위공격 (스킬 대미지 80%)</v>
+        <v>원딜/스킬1/대미지 (스킬 대미지 120%)</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D13" s="19">
         <v>2</v>
       </c>
       <c r="E13" s="18">
-        <v>3</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="G13" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$7,MATCH(F13,'!참조_ENUM'!$AM$3:$AM$7,0))</f>
+        <v>2</v>
+      </c>
+      <c r="F13" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="H13" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
-        <v>100301</v>
+        <v>100203</v>
       </c>
       <c r="B14" s="18" t="str">
         <f>VLOOKUP(A14,pc_skill_data!$B:$C,2,)</f>
-        <v>원서폿/일반</v>
+        <v>원딜/스킬2/범위공격 (스킬 대미지 80%)</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="D14" s="19">
         <v>2</v>
       </c>
       <c r="E14" s="18">
-        <v>1</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="G14" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$7,MATCH(F14,'!참조_ENUM'!$AM$3:$AM$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="F14" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="H14" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
-        <v>100302</v>
+        <v>100301</v>
       </c>
       <c r="B15" s="18" t="str">
         <f>VLOOKUP(A15,pc_skill_data!$B:$C,2,)</f>
-        <v>원서폿/스킬1/전방 방어력 감소(20%)</v>
+        <v>원서폿/일반</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D15" s="19">
         <v>2</v>
       </c>
       <c r="E15" s="18">
-        <v>2</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="G15" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="H15" s="18" t="s">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$7,MATCH(F15,'!참조_ENUM'!$AM$3:$AM$7,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F15" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="H15" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="I15" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J15" s="4"/>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
-        <v>100303</v>
+        <v>100302</v>
       </c>
       <c r="B16" s="18" t="str">
         <f>VLOOKUP(A16,pc_skill_data!$B:$C,2,)</f>
-        <v>원서폿/스킬2/대미지 (공격력 120%)</v>
+        <v>원서폿/스킬1/전방 방어력 감소(20%)</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D16" s="19">
         <v>2</v>
       </c>
       <c r="E16" s="18">
-        <v>3</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="G16" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$7,MATCH(F16,'!참조_ENUM'!$AM$3:$AM$7,0))</f>
+        <v>2</v>
+      </c>
+      <c r="F16" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="H16" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
-        <v>100401</v>
+        <v>100303</v>
       </c>
       <c r="B17" s="18" t="str">
         <f>VLOOKUP(A17,pc_skill_data!$B:$C,2,)</f>
-        <v>원힐/일반</v>
+        <v>원서폿/스킬2/대미지 (공격력 120%)</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D17" s="19">
         <v>2</v>
       </c>
       <c r="E17" s="18">
-        <v>1</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="G17" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$7,MATCH(F17,'!참조_ENUM'!$AM$3:$AM$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="F17" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="H17" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
-        <v>100402</v>
+        <v>100401</v>
       </c>
       <c r="B18" s="18" t="str">
         <f>VLOOKUP(A18,pc_skill_data!$B:$C,2,)</f>
-        <v>원힐/스킬1/체력이 가장 낮은 아군 회복(최대 체력 30%)</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D18" s="7">
+        <v>원힐/일반</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="19">
         <v>2</v>
       </c>
-      <c r="E18" s="4">
-        <v>2</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="G18" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="H18" s="4" t="s">
+      <c r="E18" s="18">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$7,MATCH(F18,'!참조_ENUM'!$AM$3:$AM$7,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F18" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="H18" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="I18" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J18" s="4"/>
+      <c r="K18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
-        <v>100403</v>
+        <v>100402</v>
       </c>
       <c r="B19" s="18" t="str">
         <f>VLOOKUP(A19,pc_skill_data!$B:$C,2,)</f>
-        <v>원힐/스킬2/대미지 (스킬 대미지 120%)</v>
+        <v>원힐/스킬1/체력이 가장 낮은 아군 회복(최대 체력 30%)</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D19" s="7">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="E19" s="4">
-        <v>3</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="G19" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$7,MATCH(F19,'!참조_ENUM'!$AM$3:$AM$7,0))</f>
+        <v>2</v>
+      </c>
+      <c r="F19" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="H19" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
-        <v>100501</v>
+        <v>100403</v>
       </c>
       <c r="B20" s="18" t="str">
         <f>VLOOKUP(A20,pc_skill_data!$B:$C,2,)</f>
-        <v>원딜/일반</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="D20" s="19">
-        <v>2</v>
-      </c>
-      <c r="E20" s="18">
-        <v>1</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="G20" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+        <v>원힐/스킬2/대미지 (스킬 대미지 120%)</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="E20" s="4">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$7,MATCH(F20,'!참조_ENUM'!$AM$3:$AM$7,0))</f>
+        <v>3</v>
+      </c>
+      <c r="F20" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="H20" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
-        <v>100502</v>
+        <v>100501</v>
       </c>
       <c r="B21" s="18" t="str">
         <f>VLOOKUP(A21,pc_skill_data!$B:$C,2,)</f>
-        <v>원딜/전방/공격력 감소(15%)</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D21" s="7">
+        <v>원딜/일반</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="19">
         <v>2</v>
       </c>
-      <c r="E21" s="4">
-        <v>2</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="G21" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="H21" s="18" t="s">
+      <c r="E21" s="18">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$7,MATCH(F21,'!참조_ENUM'!$AM$3:$AM$7,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F21" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="H21" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="I21" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J21" s="4"/>
+      <c r="K21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
-        <v>100503</v>
+        <v>100502</v>
       </c>
       <c r="B22" s="18" t="str">
         <f>VLOOKUP(A22,pc_skill_data!$B:$C,2,)</f>
+        <v>원딜/전방/공격력 감소(15%)</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="7">
+        <v>2</v>
+      </c>
+      <c r="E22" s="4">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$7,MATCH(F22,'!참조_ENUM'!$AM$3:$AM$7,0))</f>
+        <v>2</v>
+      </c>
+      <c r="F22" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="H22" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <v>100503</v>
+      </c>
+      <c r="B23" s="18" t="str">
+        <f>VLOOKUP(A23,pc_skill_data!$B:$C,2,)</f>
         <v>원딜/스킬2/대미지 (스킬 대미지 130%)</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D23" s="7">
         <v>2.5</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E23" s="4">
+        <f>INDEX('!참조_ENUM'!$AL$3:$AL$7,MATCH(F23,'!참조_ENUM'!$AM$3:$AM$7,0))</f>
         <v>3</v>
       </c>
-      <c r="F22" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="G22" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4">
+      <c r="F23" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="H23" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4">
         <v>0</v>
       </c>
     </row>
@@ -6966,11 +7313,11 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4C786C54-CC5B-4545-99A0-6CDFA127AF9A}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4E1AC946-CEC8-4716-82EA-A74E57476F48}">
           <x14:formula1>
-            <xm:f>'!참조_ENUM'!#REF!</xm:f>
+            <xm:f>'!참조_ENUM'!$AM$3:$AM$7</xm:f>
           </x14:formula1>
-          <xm:sqref>E5</xm:sqref>
+          <xm:sqref>F5:F23</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6980,13 +7327,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00F7AA3-FB12-454D-93A6-31450B9003EC}">
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L1" sqref="L1:N1048576"/>
+      <selection pane="bottomRight" activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7061,25 +7408,25 @@
         <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>84</v>
@@ -7091,16 +7438,16 @@
         <v>70</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>85</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -7132,13 +7479,13 @@
         <v>8</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M3" s="11" t="s">
         <v>4</v>
@@ -7197,25 +7544,25 @@
         <v>16</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L4" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M4" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N4" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O4" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P4" s="20" t="s">
         <v>83</v>
@@ -7227,16 +7574,16 @@
         <v>73</v>
       </c>
       <c r="S4" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T4" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="U4" s="20" t="s">
         <v>86</v>
       </c>
       <c r="V4" s="20" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -7247,7 +7594,7 @@
         <v>100001</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D5" s="22">
         <v>1</v>
@@ -7257,7 +7604,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G5" s="22">
         <v>0</v>
@@ -7273,14 +7620,14 @@
         <v>0</v>
       </c>
       <c r="K5" s="47" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L5" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M5,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
       <c r="M5" s="43" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N5" s="25">
         <v>0</v>
@@ -7304,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="U5" s="25" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="V5" s="25"/>
     </row>
@@ -7316,7 +7663,7 @@
         <v>100002</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D6" s="7">
         <v>0</v>
@@ -7326,7 +7673,7 @@
         <v>3001</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -7342,14 +7689,14 @@
         <v>0</v>
       </c>
       <c r="K6" s="48" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L6" s="4">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M6,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
       <c r="M6" s="44" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N6" s="4">
         <v>0</v>
@@ -7373,7 +7720,7 @@
         <v>0</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="V6" s="4"/>
     </row>
@@ -7385,7 +7732,7 @@
         <v>100003</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D7" s="23">
         <v>1</v>
@@ -7395,7 +7742,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G7" s="23">
         <v>0</v>
@@ -7411,14 +7758,14 @@
         <v>0</v>
       </c>
       <c r="K7" s="49" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L7" s="28">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M7,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
       <c r="M7" s="45" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N7" s="28">
         <v>0</v>
@@ -7442,1065 +7789,1131 @@
         <v>0</v>
       </c>
       <c r="U7" s="28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="V7" s="28"/>
     </row>
-    <row r="8" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24">
+    <row r="8" spans="1:22" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="50">
+        <v>100004</v>
+      </c>
+      <c r="B8" s="51">
+        <v>100004</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>235</v>
+      </c>
+      <c r="D8" s="51">
+        <v>0</v>
+      </c>
+      <c r="E8" s="51">
+        <v>3001</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>236</v>
+      </c>
+      <c r="G8" s="51">
+        <v>0</v>
+      </c>
+      <c r="H8" s="51">
+        <v>5</v>
+      </c>
+      <c r="I8" s="51">
+        <v>0</v>
+      </c>
+      <c r="J8" s="51">
+        <v>0</v>
+      </c>
+      <c r="K8" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="L8" s="55">
+        <v>0</v>
+      </c>
+      <c r="M8" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="N8" s="55">
+        <v>0</v>
+      </c>
+      <c r="O8" s="55">
+        <v>0</v>
+      </c>
+      <c r="P8" s="51">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="55">
+        <v>100102</v>
+      </c>
+      <c r="R8" s="55">
+        <v>0</v>
+      </c>
+      <c r="S8" s="55">
+        <v>0</v>
+      </c>
+      <c r="T8" s="55">
+        <v>0</v>
+      </c>
+      <c r="U8" s="55" t="s">
+        <v>200</v>
+      </c>
+      <c r="V8" s="55"/>
+    </row>
+    <row r="9" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="24">
         <v>100101</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B9" s="22">
         <v>100101</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C9" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="22">
+        <v>1</v>
+      </c>
+      <c r="E9" s="22">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F9,'!참조_ENUM'!$C$3:$C$81,0))</f>
+        <v>6</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="G9" s="22">
+        <v>0</v>
+      </c>
+      <c r="H9" s="22">
+        <v>1</v>
+      </c>
+      <c r="I9" s="22">
+        <v>0</v>
+      </c>
+      <c r="J9" s="22">
+        <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K9,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="L9" s="25">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M9,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="N9" s="25">
+        <v>0</v>
+      </c>
+      <c r="O9" s="25">
+        <v>0</v>
+      </c>
+      <c r="P9" s="22">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="25">
+        <v>100004</v>
+      </c>
+      <c r="R9" s="25">
+        <v>0</v>
+      </c>
+      <c r="S9" s="25">
+        <v>0</v>
+      </c>
+      <c r="T9" s="25">
+        <v>0</v>
+      </c>
+      <c r="U9" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="V9" s="25"/>
+    </row>
+    <row r="10" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="26">
+        <v>100102</v>
+      </c>
+      <c r="B10" s="7">
+        <v>100102</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F10,'!참조_ENUM'!$C$3:$C$81,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
+        <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K10,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="L10" s="4">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M10,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="7">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0</v>
+      </c>
+      <c r="R10" s="4">
+        <v>500002</v>
+      </c>
+      <c r="S10" s="4">
+        <v>0</v>
+      </c>
+      <c r="T10" s="4">
+        <v>0</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="V10" s="4"/>
+    </row>
+    <row r="11" spans="1:22" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="27">
+        <v>100103</v>
+      </c>
+      <c r="B11" s="23">
+        <v>100103</v>
+      </c>
+      <c r="C11" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D11" s="23">
         <v>1</v>
       </c>
-      <c r="E8" s="22">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F8,'!참조_ENUM'!$C$3:$C$81,0))</f>
-        <v>6</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="G8" s="22">
-        <v>0</v>
-      </c>
-      <c r="H8" s="22">
-        <v>1</v>
-      </c>
-      <c r="I8" s="22">
-        <v>0</v>
-      </c>
-      <c r="J8" s="22">
-        <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K8,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="47" t="s">
-        <v>176</v>
-      </c>
-      <c r="L8" s="25">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M8,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="N8" s="25">
-        <v>0</v>
-      </c>
-      <c r="O8" s="25">
-        <v>0</v>
-      </c>
-      <c r="P8" s="22">
-        <v>100</v>
-      </c>
-      <c r="Q8" s="25">
-        <v>100004</v>
-      </c>
-      <c r="R8" s="25">
-        <v>0</v>
-      </c>
-      <c r="S8" s="25">
-        <v>0</v>
-      </c>
-      <c r="T8" s="25">
-        <v>0</v>
-      </c>
-      <c r="U8" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="V8" s="25"/>
-    </row>
-    <row r="9" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26">
-        <v>100102</v>
-      </c>
-      <c r="B9" s="7">
-        <v>100102</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0</v>
-      </c>
-      <c r="E9" s="7">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F9,'!참조_ENUM'!$C$3:$C$81,0))</f>
-        <v>1</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7">
-        <v>1</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7">
-        <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K9,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="48" t="s">
-        <v>176</v>
-      </c>
-      <c r="L9" s="4">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M9,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="44" t="s">
-        <v>176</v>
-      </c>
-      <c r="N9" s="4">
-        <v>0</v>
-      </c>
-      <c r="O9" s="4">
-        <v>0</v>
-      </c>
-      <c r="P9" s="7">
-        <v>100</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>0</v>
-      </c>
-      <c r="R9" s="4">
-        <v>500002</v>
-      </c>
-      <c r="S9" s="4">
-        <v>0</v>
-      </c>
-      <c r="T9" s="4">
-        <v>0</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="V9" s="4"/>
-    </row>
-    <row r="10" spans="1:22" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="27">
-        <v>100103</v>
-      </c>
-      <c r="B10" s="23">
-        <v>100103</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="D10" s="23">
-        <v>1</v>
-      </c>
-      <c r="E10" s="23">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F10,'!참조_ENUM'!$C$3:$C$81,0))</f>
-        <v>6</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="G10" s="23">
-        <v>0</v>
-      </c>
-      <c r="H10" s="23">
-        <v>1</v>
-      </c>
-      <c r="I10" s="23">
-        <v>0</v>
-      </c>
-      <c r="J10" s="23">
-        <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K10,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="L10" s="28">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M10,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="N10" s="28">
-        <v>0</v>
-      </c>
-      <c r="O10" s="28">
-        <v>0</v>
-      </c>
-      <c r="P10" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q10" s="28">
-        <v>100006</v>
-      </c>
-      <c r="R10" s="28">
-        <v>0</v>
-      </c>
-      <c r="S10" s="28">
-        <v>0</v>
-      </c>
-      <c r="T10" s="28">
-        <v>0</v>
-      </c>
-      <c r="U10" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="V10" s="28"/>
-    </row>
-    <row r="11" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="24">
-        <v>100201</v>
-      </c>
-      <c r="B11" s="22">
-        <v>100201</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="D11" s="22">
-        <v>1</v>
-      </c>
-      <c r="E11" s="22">
+      <c r="E11" s="23">
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F11,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F11" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="G11" s="22">
-        <v>0</v>
-      </c>
-      <c r="H11" s="22">
+      <c r="F11" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="G11" s="23">
+        <v>0</v>
+      </c>
+      <c r="H11" s="23">
         <v>1</v>
       </c>
-      <c r="I11" s="22">
-        <v>0</v>
-      </c>
-      <c r="J11" s="22">
+      <c r="I11" s="23">
+        <v>0</v>
+      </c>
+      <c r="J11" s="23">
         <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K11,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
         <v>0</v>
       </c>
-      <c r="K11" s="47" t="s">
-        <v>176</v>
-      </c>
-      <c r="L11" s="25">
+      <c r="K11" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="L11" s="28">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M11,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
-      <c r="M11" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="N11" s="25">
-        <v>0</v>
-      </c>
-      <c r="O11" s="25">
-        <v>0</v>
-      </c>
-      <c r="P11" s="22">
-        <v>100</v>
-      </c>
-      <c r="Q11" s="25">
-        <v>100007</v>
-      </c>
-      <c r="R11" s="25">
-        <v>0</v>
-      </c>
-      <c r="S11" s="25">
-        <v>0</v>
-      </c>
-      <c r="T11" s="25">
-        <v>0</v>
-      </c>
-      <c r="U11" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="V11" s="25"/>
+      <c r="M11" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="N11" s="28">
+        <v>0</v>
+      </c>
+      <c r="O11" s="28">
+        <v>0</v>
+      </c>
+      <c r="P11" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q11" s="28">
+        <v>100006</v>
+      </c>
+      <c r="R11" s="28">
+        <v>0</v>
+      </c>
+      <c r="S11" s="28">
+        <v>0</v>
+      </c>
+      <c r="T11" s="28">
+        <v>0</v>
+      </c>
+      <c r="U11" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="V11" s="28"/>
     </row>
     <row r="12" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="26">
-        <v>100202</v>
-      </c>
-      <c r="B12" s="7">
-        <v>100202</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" s="7">
+      <c r="A12" s="24">
+        <v>100201</v>
+      </c>
+      <c r="B12" s="22">
+        <v>100201</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="22">
         <v>1</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="22">
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F12,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F12" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="G12" s="7">
-        <v>0</v>
-      </c>
-      <c r="H12" s="7">
+      <c r="F12" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="G12" s="22">
+        <v>0</v>
+      </c>
+      <c r="H12" s="22">
         <v>1</v>
       </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7">
+      <c r="I12" s="22">
+        <v>0</v>
+      </c>
+      <c r="J12" s="22">
         <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K12,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
         <v>0</v>
       </c>
-      <c r="K12" s="48" t="s">
-        <v>176</v>
-      </c>
-      <c r="L12" s="4">
+      <c r="K12" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="L12" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M12,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
-      <c r="M12" s="44" t="s">
-        <v>176</v>
-      </c>
-      <c r="N12" s="4">
-        <v>0</v>
-      </c>
-      <c r="O12" s="4">
-        <v>0</v>
-      </c>
-      <c r="P12" s="7">
+      <c r="M12" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="N12" s="25">
+        <v>0</v>
+      </c>
+      <c r="O12" s="25">
+        <v>0</v>
+      </c>
+      <c r="P12" s="22">
         <v>100</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="25">
+        <v>100007</v>
+      </c>
+      <c r="R12" s="25">
+        <v>0</v>
+      </c>
+      <c r="S12" s="25">
+        <v>0</v>
+      </c>
+      <c r="T12" s="25">
+        <v>0</v>
+      </c>
+      <c r="U12" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="V12" s="25"/>
+    </row>
+    <row r="13" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="26">
+        <v>100202</v>
+      </c>
+      <c r="B13" s="7">
+        <v>100202</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F13,'!참조_ENUM'!$C$3:$C$81,0))</f>
+        <v>6</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K13,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="L13" s="4">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M13,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+      <c r="P13" s="7">
+        <v>100</v>
+      </c>
+      <c r="Q13" s="4">
         <v>100008</v>
       </c>
-      <c r="R12" s="4">
-        <v>0</v>
-      </c>
-      <c r="S12" s="4">
-        <v>0</v>
-      </c>
-      <c r="T12" s="4">
-        <v>0</v>
-      </c>
-      <c r="U12" s="4" t="s">
+      <c r="R13" s="4">
+        <v>0</v>
+      </c>
+      <c r="S13" s="4">
+        <v>0</v>
+      </c>
+      <c r="T13" s="4">
+        <v>0</v>
+      </c>
+      <c r="U13" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="V12" s="4"/>
-    </row>
-    <row r="13" spans="1:22" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="27">
+      <c r="V13" s="4"/>
+    </row>
+    <row r="14" spans="1:22" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="27">
         <v>100203</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B14" s="23">
         <v>100203</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C14" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D14" s="23">
         <v>1</v>
       </c>
-      <c r="E13" s="23">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F13,'!참조_ENUM'!$C$3:$C$81,0))</f>
+      <c r="E14" s="23">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F14,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>10</v>
       </c>
-      <c r="F13" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="G13" s="23">
-        <v>0</v>
-      </c>
-      <c r="H13" s="23">
+      <c r="F14" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="G14" s="23">
+        <v>0</v>
+      </c>
+      <c r="H14" s="23">
         <v>5</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I14" s="23">
         <v>7</v>
       </c>
-      <c r="J13" s="23">
-        <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K13,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="L13" s="28">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M13,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="N13" s="28">
-        <v>0</v>
-      </c>
-      <c r="O13" s="28">
-        <v>0</v>
-      </c>
-      <c r="P13" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q13" s="28">
+      <c r="J14" s="23">
+        <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K14,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="L14" s="28">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M14,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="N14" s="28">
+        <v>0</v>
+      </c>
+      <c r="O14" s="28">
+        <v>0</v>
+      </c>
+      <c r="P14" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q14" s="28">
         <v>100009</v>
       </c>
-      <c r="R13" s="28">
-        <v>0</v>
-      </c>
-      <c r="S13" s="28">
-        <v>0</v>
-      </c>
-      <c r="T13" s="28">
-        <v>0</v>
-      </c>
-      <c r="U13" s="28" t="s">
+      <c r="R14" s="28">
+        <v>0</v>
+      </c>
+      <c r="S14" s="28">
+        <v>0</v>
+      </c>
+      <c r="T14" s="28">
+        <v>0</v>
+      </c>
+      <c r="U14" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="V13" s="28"/>
-    </row>
-    <row r="14" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="24">
+      <c r="V14" s="28"/>
+    </row>
+    <row r="15" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="24">
         <v>100301</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B15" s="22">
         <v>100301</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C15" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D15" s="22">
         <v>1</v>
       </c>
-      <c r="E14" s="22">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F14,'!참조_ENUM'!$C$3:$C$81,0))</f>
-        <v>6</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="G14" s="22">
-        <v>0</v>
-      </c>
-      <c r="H14" s="22">
-        <v>1</v>
-      </c>
-      <c r="I14" s="22">
-        <v>0</v>
-      </c>
-      <c r="J14" s="22">
-        <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K14,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
-        <v>2</v>
-      </c>
-      <c r="K14" s="47" t="s">
-        <v>223</v>
-      </c>
-      <c r="L14" s="25">
-        <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M14,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="N14" s="25">
-        <v>0</v>
-      </c>
-      <c r="O14" s="25">
-        <v>0</v>
-      </c>
-      <c r="P14" s="22">
-        <v>100</v>
-      </c>
-      <c r="Q14" s="25">
-        <v>100010</v>
-      </c>
-      <c r="R14" s="25">
-        <v>0</v>
-      </c>
-      <c r="S14" s="25">
-        <v>0</v>
-      </c>
-      <c r="T14" s="25">
-        <v>0</v>
-      </c>
-      <c r="U14" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="V14" s="25" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="26">
-        <v>100302</v>
-      </c>
-      <c r="B15" s="7">
-        <v>100302</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="7">
+      <c r="E15" s="22">
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F15,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F15" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="G15" s="7">
-        <v>0</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="F15" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="G15" s="22">
+        <v>0</v>
+      </c>
+      <c r="H15" s="22">
         <v>1</v>
       </c>
-      <c r="I15" s="7">
-        <v>0</v>
-      </c>
-      <c r="J15" s="7">
+      <c r="I15" s="22">
+        <v>0</v>
+      </c>
+      <c r="J15" s="22">
         <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K15,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K15" s="48" t="s">
-        <v>223</v>
-      </c>
-      <c r="L15" s="4">
+      <c r="K15" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="L15" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M15,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
-      <c r="M15" s="44" t="s">
-        <v>176</v>
-      </c>
-      <c r="N15" s="4">
-        <v>0</v>
-      </c>
-      <c r="O15" s="4">
-        <v>0</v>
-      </c>
-      <c r="P15" s="7">
+      <c r="M15" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="N15" s="25">
+        <v>0</v>
+      </c>
+      <c r="O15" s="25">
+        <v>0</v>
+      </c>
+      <c r="P15" s="22">
         <v>100</v>
       </c>
-      <c r="Q15" s="4">
-        <v>0</v>
-      </c>
-      <c r="R15" s="4">
-        <v>500006</v>
-      </c>
-      <c r="S15" s="4">
-        <v>0</v>
-      </c>
-      <c r="T15" s="4">
-        <v>0</v>
-      </c>
-      <c r="U15" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="V15" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="27">
-        <v>100303</v>
-      </c>
-      <c r="B16" s="23">
-        <v>100303</v>
-      </c>
-      <c r="C16" s="38" t="s">
+      <c r="Q15" s="25">
+        <v>100010</v>
+      </c>
+      <c r="R15" s="25">
+        <v>0</v>
+      </c>
+      <c r="S15" s="25">
+        <v>0</v>
+      </c>
+      <c r="T15" s="25">
+        <v>0</v>
+      </c>
+      <c r="U15" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="V15" s="25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="26">
+        <v>100302</v>
+      </c>
+      <c r="B16" s="7">
+        <v>100302</v>
+      </c>
+      <c r="C16" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="7">
         <v>1</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="7">
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F16,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F16" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="G16" s="23">
-        <v>0</v>
-      </c>
-      <c r="H16" s="23">
+      <c r="F16" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
         <v>1</v>
       </c>
-      <c r="I16" s="23">
-        <v>0</v>
-      </c>
-      <c r="J16" s="23">
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
         <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K16,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K16" s="49" t="s">
-        <v>223</v>
-      </c>
-      <c r="L16" s="28">
+      <c r="K16" s="48" t="s">
+        <v>221</v>
+      </c>
+      <c r="L16" s="4">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M16,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
-      <c r="M16" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="N16" s="28">
-        <v>0</v>
-      </c>
-      <c r="O16" s="28">
-        <v>0</v>
-      </c>
-      <c r="P16" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q16" s="28">
-        <v>100011</v>
-      </c>
-      <c r="R16" s="28">
-        <v>0</v>
-      </c>
-      <c r="S16" s="28">
-        <v>0</v>
-      </c>
-      <c r="T16" s="28">
-        <v>0</v>
-      </c>
-      <c r="U16" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="V16" s="28" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="24">
-        <v>100401</v>
-      </c>
-      <c r="B17" s="22">
-        <v>100401</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="D17" s="22">
+      <c r="M16" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0</v>
+      </c>
+      <c r="P16" s="7">
+        <v>100</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>0</v>
+      </c>
+      <c r="R16" s="4">
+        <v>500006</v>
+      </c>
+      <c r="S16" s="4">
+        <v>0</v>
+      </c>
+      <c r="T16" s="4">
+        <v>0</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="V16" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="27">
+        <v>100303</v>
+      </c>
+      <c r="B17" s="23">
+        <v>100303</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" s="23">
         <v>1</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="23">
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F17,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F17" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="G17" s="22">
-        <v>0</v>
-      </c>
-      <c r="H17" s="22">
+      <c r="F17" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="G17" s="23">
+        <v>0</v>
+      </c>
+      <c r="H17" s="23">
         <v>1</v>
       </c>
-      <c r="I17" s="22">
-        <v>0</v>
-      </c>
-      <c r="J17" s="22">
+      <c r="I17" s="23">
+        <v>0</v>
+      </c>
+      <c r="J17" s="23">
         <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K17,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K17" s="47" t="s">
-        <v>223</v>
-      </c>
-      <c r="L17" s="25">
+      <c r="K17" s="49" t="s">
+        <v>221</v>
+      </c>
+      <c r="L17" s="28">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M17,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
-      <c r="M17" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="N17" s="25">
-        <v>0</v>
-      </c>
-      <c r="O17" s="25">
-        <v>0</v>
-      </c>
-      <c r="P17" s="22">
-        <v>100</v>
-      </c>
-      <c r="Q17" s="25">
-        <v>100012</v>
-      </c>
-      <c r="R17" s="25">
-        <v>0</v>
-      </c>
-      <c r="S17" s="25">
-        <v>0</v>
-      </c>
-      <c r="T17" s="25">
-        <v>0</v>
-      </c>
-      <c r="U17" s="25" t="s">
+      <c r="M17" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="N17" s="28">
+        <v>0</v>
+      </c>
+      <c r="O17" s="28">
+        <v>0</v>
+      </c>
+      <c r="P17" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q17" s="28">
+        <v>100011</v>
+      </c>
+      <c r="R17" s="28">
+        <v>0</v>
+      </c>
+      <c r="S17" s="28">
+        <v>0</v>
+      </c>
+      <c r="T17" s="28">
+        <v>0</v>
+      </c>
+      <c r="U17" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="V17" s="25" t="s">
+      <c r="V17" s="28" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26">
-        <v>100402</v>
-      </c>
-      <c r="B18" s="7">
-        <v>100402</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="D18" s="7">
-        <v>0</v>
-      </c>
-      <c r="E18" s="7">
+      <c r="A18" s="24">
+        <v>100401</v>
+      </c>
+      <c r="B18" s="22">
+        <v>100401</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="22">
+        <v>1</v>
+      </c>
+      <c r="E18" s="22">
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F18,'!참조_ENUM'!$C$3:$C$81,0))</f>
-        <v>3002</v>
-      </c>
-      <c r="F18" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="G18" s="7">
-        <v>0</v>
-      </c>
-      <c r="H18" s="7">
+        <v>6</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="G18" s="22">
+        <v>0</v>
+      </c>
+      <c r="H18" s="22">
         <v>1</v>
       </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7">
+      <c r="I18" s="22">
+        <v>0</v>
+      </c>
+      <c r="J18" s="22">
         <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K18,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K18" s="48" t="s">
-        <v>223</v>
-      </c>
-      <c r="L18" s="4">
+      <c r="K18" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="L18" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M18,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
-      <c r="M18" s="44" t="s">
-        <v>176</v>
-      </c>
-      <c r="N18" s="4">
-        <v>0</v>
-      </c>
-      <c r="O18" s="4">
-        <v>0</v>
-      </c>
-      <c r="P18" s="7">
+      <c r="M18" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="N18" s="25">
+        <v>0</v>
+      </c>
+      <c r="O18" s="25">
+        <v>0</v>
+      </c>
+      <c r="P18" s="22">
         <v>100</v>
       </c>
-      <c r="Q18" s="4">
-        <v>100013</v>
-      </c>
-      <c r="R18" s="4">
-        <v>0</v>
-      </c>
-      <c r="S18" s="4">
-        <v>0</v>
-      </c>
-      <c r="T18" s="4">
-        <v>0</v>
-      </c>
-      <c r="U18" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="V18" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="27">
-        <v>100403</v>
-      </c>
-      <c r="B19" s="23">
-        <v>100403</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="D19" s="23">
+      <c r="Q18" s="25">
+        <v>100012</v>
+      </c>
+      <c r="R18" s="25">
+        <v>0</v>
+      </c>
+      <c r="S18" s="25">
+        <v>0</v>
+      </c>
+      <c r="T18" s="25">
+        <v>0</v>
+      </c>
+      <c r="U18" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="V18" s="25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="26">
+        <v>100402</v>
+      </c>
+      <c r="B19" s="7">
+        <v>100402</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F19,'!참조_ENUM'!$C$3:$C$81,0))</f>
+        <v>3002</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0</v>
+      </c>
+      <c r="H19" s="7">
         <v>1</v>
       </c>
-      <c r="E19" s="23">
-        <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F19,'!참조_ENUM'!$C$3:$C$81,0))</f>
-        <v>6</v>
-      </c>
-      <c r="F19" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="G19" s="23">
-        <v>0</v>
-      </c>
-      <c r="H19" s="23">
-        <v>1</v>
-      </c>
-      <c r="I19" s="23">
-        <v>0</v>
-      </c>
-      <c r="J19" s="23">
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7">
         <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K19,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K19" s="49" t="s">
-        <v>223</v>
-      </c>
-      <c r="L19" s="28">
+      <c r="K19" s="48" t="s">
+        <v>221</v>
+      </c>
+      <c r="L19" s="4">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M19,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
-      <c r="M19" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="N19" s="28">
-        <v>0</v>
-      </c>
-      <c r="O19" s="28">
-        <v>0</v>
-      </c>
-      <c r="P19" s="23">
+      <c r="M19" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0</v>
+      </c>
+      <c r="P19" s="7">
         <v>100</v>
       </c>
-      <c r="Q19" s="28">
-        <v>100014</v>
-      </c>
-      <c r="R19" s="28">
-        <v>0</v>
-      </c>
-      <c r="S19" s="28">
-        <v>0</v>
-      </c>
-      <c r="T19" s="28">
-        <v>0</v>
-      </c>
-      <c r="U19" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="V19" s="28" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="24">
-        <v>100501</v>
-      </c>
-      <c r="B20" s="22">
-        <v>100501</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="D20" s="22">
+      <c r="Q19" s="4">
+        <v>100013</v>
+      </c>
+      <c r="R19" s="4">
+        <v>0</v>
+      </c>
+      <c r="S19" s="4">
+        <v>0</v>
+      </c>
+      <c r="T19" s="4">
+        <v>0</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="V19" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="27">
+        <v>100403</v>
+      </c>
+      <c r="B20" s="23">
+        <v>100403</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="23">
         <v>1</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="23">
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F20,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F20" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="G20" s="22">
-        <v>0</v>
-      </c>
-      <c r="H20" s="22">
+      <c r="F20" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="G20" s="23">
+        <v>0</v>
+      </c>
+      <c r="H20" s="23">
         <v>1</v>
       </c>
-      <c r="I20" s="22">
-        <v>0</v>
-      </c>
-      <c r="J20" s="22">
+      <c r="I20" s="23">
+        <v>0</v>
+      </c>
+      <c r="J20" s="23">
         <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K20,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K20" s="47" t="s">
-        <v>223</v>
-      </c>
-      <c r="L20" s="25">
+      <c r="K20" s="49" t="s">
+        <v>221</v>
+      </c>
+      <c r="L20" s="28">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M20,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
-      <c r="M20" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="N20" s="25">
-        <v>0</v>
-      </c>
-      <c r="O20" s="25">
-        <v>0</v>
-      </c>
-      <c r="P20" s="22">
+      <c r="M20" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="N20" s="28">
+        <v>0</v>
+      </c>
+      <c r="O20" s="28">
+        <v>0</v>
+      </c>
+      <c r="P20" s="23">
         <v>100</v>
       </c>
-      <c r="Q20" s="25">
-        <v>100015</v>
-      </c>
-      <c r="R20" s="25">
-        <v>0</v>
-      </c>
-      <c r="S20" s="25">
-        <v>0</v>
-      </c>
-      <c r="T20" s="25">
-        <v>0</v>
-      </c>
-      <c r="U20" s="25" t="s">
+      <c r="Q20" s="28">
+        <v>100014</v>
+      </c>
+      <c r="R20" s="28">
+        <v>0</v>
+      </c>
+      <c r="S20" s="28">
+        <v>0</v>
+      </c>
+      <c r="T20" s="28">
+        <v>0</v>
+      </c>
+      <c r="U20" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="V20" s="25" t="s">
-        <v>224</v>
+      <c r="V20" s="28" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="26">
-        <v>100502</v>
-      </c>
-      <c r="B21" s="7">
-        <v>100502</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="D21" s="7">
+      <c r="A21" s="24">
+        <v>100501</v>
+      </c>
+      <c r="B21" s="22">
+        <v>100501</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="22">
         <v>1</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="22">
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F21,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F21" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="G21" s="7">
-        <v>0</v>
-      </c>
-      <c r="H21" s="7">
+      <c r="F21" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="G21" s="22">
+        <v>0</v>
+      </c>
+      <c r="H21" s="22">
         <v>1</v>
       </c>
-      <c r="I21" s="7">
-        <v>0</v>
-      </c>
-      <c r="J21" s="7">
+      <c r="I21" s="22">
+        <v>0</v>
+      </c>
+      <c r="J21" s="22">
         <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K21,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K21" s="48" t="s">
-        <v>223</v>
-      </c>
-      <c r="L21" s="4">
+      <c r="K21" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="L21" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M21,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
-      <c r="M21" s="44" t="s">
-        <v>176</v>
-      </c>
-      <c r="N21" s="4">
-        <v>0</v>
-      </c>
-      <c r="O21" s="4">
-        <v>0</v>
-      </c>
-      <c r="P21" s="7">
+      <c r="M21" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="N21" s="25">
+        <v>0</v>
+      </c>
+      <c r="O21" s="25">
+        <v>0</v>
+      </c>
+      <c r="P21" s="22">
         <v>100</v>
       </c>
-      <c r="Q21" s="4">
-        <v>0</v>
-      </c>
-      <c r="R21" s="4">
-        <v>500005</v>
-      </c>
-      <c r="S21" s="4">
-        <v>0</v>
-      </c>
-      <c r="T21" s="4">
-        <v>0</v>
-      </c>
-      <c r="U21" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="V21" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="27">
-        <v>100503</v>
-      </c>
-      <c r="B22" s="23">
-        <v>100503</v>
-      </c>
-      <c r="C22" s="23" t="s">
+      <c r="Q21" s="25">
+        <v>100015</v>
+      </c>
+      <c r="R21" s="25">
+        <v>0</v>
+      </c>
+      <c r="S21" s="25">
+        <v>0</v>
+      </c>
+      <c r="T21" s="25">
+        <v>0</v>
+      </c>
+      <c r="U21" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="V21" s="25" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="26">
+        <v>100502</v>
+      </c>
+      <c r="B22" s="7">
+        <v>100502</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="7">
         <v>1</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="7">
         <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F22,'!참조_ENUM'!$C$3:$C$81,0))</f>
         <v>6</v>
       </c>
-      <c r="F22" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="G22" s="23">
-        <v>0</v>
-      </c>
-      <c r="H22" s="23">
+      <c r="F22" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0</v>
+      </c>
+      <c r="H22" s="7">
         <v>1</v>
       </c>
-      <c r="I22" s="23">
-        <v>0</v>
-      </c>
-      <c r="J22" s="23">
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7">
         <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K22,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
         <v>2</v>
       </c>
-      <c r="K22" s="49" t="s">
-        <v>223</v>
-      </c>
-      <c r="L22" s="28">
+      <c r="K22" s="48" t="s">
+        <v>221</v>
+      </c>
+      <c r="L22" s="4">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M22,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0</v>
+      </c>
+      <c r="P22" s="7">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>0</v>
+      </c>
+      <c r="R22" s="4">
+        <v>500005</v>
+      </c>
+      <c r="S22" s="4">
+        <v>0</v>
+      </c>
+      <c r="T22" s="4">
+        <v>0</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="V22" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="27">
+        <v>100503</v>
+      </c>
+      <c r="B23" s="23">
+        <v>100503</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="D23" s="23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="23">
+        <f>INDEX('!참조_ENUM'!$B$3:$B$81,MATCH(F23,'!참조_ENUM'!$C$3:$C$81,0))</f>
+        <v>6</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="G23" s="23">
+        <v>0</v>
+      </c>
+      <c r="H23" s="23">
+        <v>1</v>
+      </c>
+      <c r="I23" s="23">
+        <v>0</v>
+      </c>
+      <c r="J23" s="23">
+        <f>INDEX('!참조_ENUM'!$AH$3:$AH$5,MATCH(K23,'!참조_ENUM'!$AI$3:$AI$5,0))</f>
         <v>2</v>
       </c>
-      <c r="M22" s="45" t="s">
-        <v>177</v>
-      </c>
-      <c r="N22" s="28">
-        <v>0</v>
-      </c>
-      <c r="O22" s="28">
+      <c r="K23" s="49" t="s">
+        <v>221</v>
+      </c>
+      <c r="L23" s="28">
+        <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M23,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="M23" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="N23" s="28">
+        <v>0</v>
+      </c>
+      <c r="O23" s="28">
         <v>10</v>
       </c>
-      <c r="P22" s="23" t="s">
+      <c r="P23" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="Q22" s="28">
+      <c r="Q23" s="28">
         <v>100017</v>
       </c>
-      <c r="R22" s="28">
-        <v>0</v>
-      </c>
-      <c r="S22" s="28">
+      <c r="R23" s="28">
+        <v>0</v>
+      </c>
+      <c r="S23" s="28">
         <v>100018</v>
       </c>
-      <c r="T22" s="28">
-        <v>0</v>
-      </c>
-      <c r="U22" s="28" t="s">
+      <c r="T23" s="28">
+        <v>0</v>
+      </c>
+      <c r="U23" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="V22" s="28"/>
+      <c r="V23" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U5:U22" xr:uid="{2DD0F759-8109-4C06-B32A-4A939427AE80}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U5:U23" xr:uid="{2DD0F759-8109-4C06-B32A-4A939427AE80}">
       <formula1>"hit,shoot,buff,debuff,heal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8508,24 +8921,30 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8A7FC9F6-0204-4C88-A1F3-F45CC3ECCE6D}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$N$3:$N$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D5:D22</xm:sqref>
+          <xm:sqref>D5:D23</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3C5E7B1E-7CC4-44B0-8D75-0C9339872AAA}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$C$3:$C$81</xm:f>
           </x14:formula1>
-          <xm:sqref>F5:F22</xm:sqref>
+          <xm:sqref>F5:F23</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CCA26A4F-AAA4-42EE-83AD-525EA6D6296B}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$AI$3:$AI$5</xm:f>
           </x14:formula1>
-          <xm:sqref>K5:K22</xm:sqref>
+          <xm:sqref>K5:K23</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FDB6A3EA-EAEE-457D-B407-66804FFC466E}">
+          <x14:formula1>
+            <xm:f>'!참조_ENUM'!$AE$3:$AE$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>M5:M23</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8535,10 +8954,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BD63B1-FF99-405E-A3D0-90C5E747D8DE}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8645,14 +9064,14 @@
         <v>1</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D5" s="22">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E5,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F5" s="25">
         <v>0</v>
@@ -8661,7 +9080,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -8673,14 +9092,14 @@
         <v>2</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D6" s="7">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E6,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>300</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
@@ -8689,7 +9108,7 @@
         <v>0.1</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -8701,14 +9120,14 @@
         <v>1</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D7" s="23">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E7,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F7" s="28">
         <v>0</v>
@@ -8717,418 +9136,418 @@
         <v>1.2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="39">
+      <c r="A8" s="26">
+        <v>100102</v>
+      </c>
+      <c r="B8" s="7">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C8,'!참조_ENUM'!$S$3:$S$5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" s="7">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E8,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>300</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="39">
         <v>100004</v>
       </c>
-      <c r="B8" s="40">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C8,'!참조_ENUM'!$S$3:$S$5,0))</f>
-        <v>1</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>178</v>
-      </c>
-      <c r="D8" s="40">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E8,'!참조_ENUM'!$G$3:$G$13,0))</f>
-        <v>101</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="F8" s="42">
-        <v>0</v>
-      </c>
-      <c r="G8" s="40">
-        <v>1</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="26">
-        <v>100005</v>
-      </c>
-      <c r="B9" s="7">
+      <c r="B9" s="40">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C9,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C9" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="D9" s="7">
+      <c r="C9" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9" s="40">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E9,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="E9" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H9" s="4" t="s">
+      <c r="E9" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="F9" s="42">
+        <v>0</v>
+      </c>
+      <c r="G9" s="40">
+        <v>1</v>
+      </c>
+      <c r="H9" s="42" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="27">
-        <v>100006</v>
-      </c>
-      <c r="B10" s="23">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="26">
+        <v>100005</v>
+      </c>
+      <c r="B10" s="7">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C10,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C10" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="D10" s="23">
+      <c r="C10" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10" s="7">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E10,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="E10" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="F10" s="28">
-        <v>0</v>
-      </c>
-      <c r="G10" s="23">
-        <v>1.3</v>
-      </c>
-      <c r="H10" s="28" t="s">
+      <c r="E10" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="24">
-        <v>100007</v>
-      </c>
-      <c r="B11" s="22">
+    <row r="11" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="27">
+        <v>100006</v>
+      </c>
+      <c r="B11" s="23">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C11,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C11" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="D11" s="22">
+      <c r="C11" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D11" s="23">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E11,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="E11" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="F11" s="25">
-        <v>0</v>
-      </c>
-      <c r="G11" s="22">
-        <v>1</v>
-      </c>
-      <c r="H11" s="25" t="s">
+      <c r="E11" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="F11" s="28">
+        <v>0</v>
+      </c>
+      <c r="G11" s="23">
+        <v>1.3</v>
+      </c>
+      <c r="H11" s="28" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="26">
-        <v>100008</v>
-      </c>
-      <c r="B12" s="7">
+      <c r="A12" s="24">
+        <v>100007</v>
+      </c>
+      <c r="B12" s="22">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C12,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C12" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="D12" s="7">
+      <c r="C12" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" s="22">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E12,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="E12" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0</v>
-      </c>
-      <c r="G12" s="7">
-        <v>1.2</v>
-      </c>
-      <c r="H12" s="4" t="s">
+      <c r="E12" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="F12" s="25">
+        <v>0</v>
+      </c>
+      <c r="G12" s="22">
+        <v>1</v>
+      </c>
+      <c r="H12" s="25" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="31">
-        <v>100009</v>
-      </c>
-      <c r="B13" s="29">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="26">
+        <v>100008</v>
+      </c>
+      <c r="B13" s="7">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C13,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C13" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="D13" s="29">
+      <c r="C13" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" s="7">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E13,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="E13" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="F13" s="30">
-        <v>0</v>
-      </c>
-      <c r="G13" s="29">
-        <v>0.8</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="24">
-        <v>100010</v>
-      </c>
-      <c r="B14" s="22">
+      <c r="E13" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="31">
+        <v>100009</v>
+      </c>
+      <c r="B14" s="29">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C14,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C14" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="D14" s="22">
+      <c r="C14" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14" s="29">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E14,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="E14" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="F14" s="25">
-        <v>0</v>
-      </c>
-      <c r="G14" s="22">
-        <v>1</v>
-      </c>
-      <c r="H14" s="25" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="31">
-        <v>100011</v>
-      </c>
-      <c r="B15" s="29">
+      <c r="E14" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="F14" s="30">
+        <v>0</v>
+      </c>
+      <c r="G14" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="24">
+        <v>100010</v>
+      </c>
+      <c r="B15" s="22">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C15,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C15" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="D15" s="29">
+      <c r="C15" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" s="22">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E15,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="E15" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="F15" s="30">
-        <v>0</v>
-      </c>
-      <c r="G15" s="29">
-        <v>1.2</v>
-      </c>
-      <c r="H15" s="30" t="s">
+      <c r="E15" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="F15" s="25">
+        <v>0</v>
+      </c>
+      <c r="G15" s="22">
+        <v>1</v>
+      </c>
+      <c r="H15" s="25" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="24">
-        <v>100012</v>
-      </c>
-      <c r="B16" s="22">
+    <row r="16" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="31">
+        <v>100011</v>
+      </c>
+      <c r="B16" s="29">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C16,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C16" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="D16" s="22">
+      <c r="C16" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="29">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E16,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="E16" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="F16" s="25">
-        <v>0</v>
-      </c>
-      <c r="G16" s="22">
+      <c r="E16" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="30">
+        <v>0</v>
+      </c>
+      <c r="G16" s="29">
+        <v>1.2</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="24">
+        <v>100012</v>
+      </c>
+      <c r="B17" s="22">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C17,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="C17" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="D17" s="22">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E17,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="26">
+      <c r="E17" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="F17" s="25">
+        <v>0</v>
+      </c>
+      <c r="G17" s="22">
+        <v>1</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="26">
         <v>100013</v>
       </c>
-      <c r="B17" s="7">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C17,'!참조_ENUM'!$S$3:$S$5,0))</f>
+      <c r="B18" s="7">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C18,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>2</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C18" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" s="7">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E18,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>300</v>
+      </c>
+      <c r="E18" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="D17" s="7">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E17,'!참조_ENUM'!$G$3:$G$13,0))</f>
-        <v>300</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0</v>
-      </c>
-      <c r="G17" s="7">
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7">
         <v>0.3</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="27">
+    <row r="19" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="27">
         <v>100014</v>
       </c>
-      <c r="B18" s="23">
-        <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C18,'!참조_ENUM'!$S$3:$S$5,0))</f>
-        <v>1</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="D18" s="23">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E18,'!참조_ENUM'!$G$3:$G$13,0))</f>
-        <v>101</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="F18" s="28">
-        <v>0</v>
-      </c>
-      <c r="G18" s="23">
-        <v>1.2</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="39">
-        <v>100015</v>
-      </c>
-      <c r="B19" s="40">
+      <c r="B19" s="23">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C19,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C19" s="41" t="s">
-        <v>178</v>
-      </c>
-      <c r="D19" s="40">
+      <c r="C19" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D19" s="23">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E19,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="E19" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="F19" s="42">
-        <v>0</v>
-      </c>
-      <c r="G19" s="40">
-        <v>1</v>
-      </c>
-      <c r="H19" s="42" t="s">
+      <c r="E19" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="F19" s="28">
+        <v>0</v>
+      </c>
+      <c r="G19" s="23">
+        <v>1.2</v>
+      </c>
+      <c r="H19" s="28" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="27">
-        <v>100016</v>
-      </c>
-      <c r="B20" s="23">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="39">
+        <v>100015</v>
+      </c>
+      <c r="B20" s="40">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C20,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
-      <c r="C20" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="D20" s="23">
+      <c r="C20" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="D20" s="40">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E20,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
-      <c r="E20" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="F20" s="28">
-        <v>0</v>
-      </c>
-      <c r="G20" s="23">
-        <v>1.2</v>
-      </c>
-      <c r="H20" s="28" t="s">
+      <c r="E20" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="F20" s="42">
+        <v>0</v>
+      </c>
+      <c r="G20" s="40">
+        <v>1</v>
+      </c>
+      <c r="H20" s="42" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="27">
-        <v>100017</v>
+        <v>100016</v>
       </c>
       <c r="B21" s="23">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C21,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D21" s="23">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E21,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F21" s="28">
         <v>0</v>
       </c>
       <c r="G21" s="23">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>155</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="27">
-        <v>100018</v>
+        <v>100017</v>
       </c>
       <c r="B22" s="23">
         <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C22,'!참조_ENUM'!$S$3:$S$5,0))</f>
         <v>1</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D22" s="23">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E22,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F22" s="28">
         <v>0</v>
@@ -9137,6 +9556,34 @@
         <v>1.3</v>
       </c>
       <c r="H22" s="28" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="27">
+        <v>100018</v>
+      </c>
+      <c r="B23" s="23">
+        <f>INDEX('!참조_ENUM'!$R$3:$R$5,MATCH(C23,'!참조_ENUM'!$S$3:$S$5,0))</f>
+        <v>1</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D23" s="23">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E23,'!참조_ENUM'!$G$3:$G$13,0))</f>
+        <v>101</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="F23" s="28">
+        <v>0</v>
+      </c>
+      <c r="G23" s="23">
+        <v>1.3</v>
+      </c>
+      <c r="H23" s="28" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9150,13 +9597,13 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$S$3:$S$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C5:C22</xm:sqref>
+          <xm:sqref>C5:C23</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B09C3E93-8AD6-415C-8AC6-F2BA65FB1FD4}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$G$3:$G$13</xm:f>
           </x14:formula1>
-          <xm:sqref>E5:E22</xm:sqref>
+          <xm:sqref>E5:E23</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9361,14 +9808,14 @@
         <v>1</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D5" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E5,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>2</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
@@ -9390,7 +9837,7 @@
         <v>900</v>
       </c>
       <c r="L5" s="33" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M5" s="4">
         <v>0</v>
@@ -9417,14 +9864,14 @@
         <v>106</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D6" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E6,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F6" s="4">
         <v>5</v>
@@ -9446,7 +9893,7 @@
         <v>101</v>
       </c>
       <c r="L6" s="33" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M6" s="4">
         <v>0</v>
@@ -9473,14 +9920,14 @@
         <v>107</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D7" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E7,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F7" s="4">
         <v>5</v>
@@ -9502,7 +9949,7 @@
         <v>200</v>
       </c>
       <c r="L7" s="33" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M7" s="4">
         <v>0</v>
@@ -9529,14 +9976,14 @@
         <v>106</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D8" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E8,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F8" s="4">
         <v>5</v>
@@ -9558,7 +10005,7 @@
         <v>101</v>
       </c>
       <c r="L8" s="33" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M8" s="4">
         <v>0</v>
@@ -9585,14 +10032,14 @@
         <v>108</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D9" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E9,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F9" s="4">
         <v>5</v>
@@ -9614,7 +10061,7 @@
         <v>101</v>
       </c>
       <c r="L9" s="33" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M9" s="4">
         <v>0</v>
@@ -9626,7 +10073,7 @@
         <v>5000</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q9" s="4" t="b">
         <v>1</v>
@@ -9641,14 +10088,14 @@
         <v>109</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D10" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E10,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F10" s="4">
         <v>5</v>
@@ -9670,7 +10117,7 @@
         <v>200</v>
       </c>
       <c r="L10" s="33" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M10" s="4">
         <v>0</v>
@@ -9682,7 +10129,7 @@
         <v>5000</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q10" s="4" t="b">
         <v>1</v>
@@ -9697,14 +10144,14 @@
         <v>105</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D11" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E11,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F11" s="4">
         <v>3</v>
@@ -9726,7 +10173,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M11" s="4">
         <v>0</v>

--- a/Android/ExcelData/PCSkillTable.xlsx
+++ b/Android/ExcelData/PCSkillTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC7DE9C-BBED-45B2-BF7A-46A5D3E738CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F53EA7-7486-466A-B700-D1F469E6E02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="11895" yWindow="1155" windowWidth="25215" windowHeight="19980" activeTab="2" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -1928,21 +1928,9 @@
     <t>1_attack_1</t>
   </si>
   <si>
-    <t>근딜/일반 (공격력 100%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근딜/근접공격/대미지(공격력 130%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1_attack_3</t>
   </si>
   <si>
-    <t>근딜/나/공격력 증가 버프 (20%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>15,15,15,15,15,25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2078,15 +2066,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>힐러/일반/원거리 공격/공격력 100%</t>
-  </si>
-  <si>
-    <t>힐러/스킬1/원거리 스킬/체력이 가장 낮은 아군 체력 회복(즉발형)</t>
-  </si>
-  <si>
-    <t>힐러/스킬2/원거리 스킬/전방의 적 1명 공격(발사체 발사)</t>
-  </si>
-  <si>
     <t>원거리 전방 1명 공격 (1히트)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2231,14 +2210,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>힐러/궁극기/원거리 스킬/아군 전체 체력 회복(즉발형)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2 전체 선택</t>
   </si>
   <si>
     <t>2 타겟 뒤로 지정 반경내에 감지되는 타겟 검사</t>
+  </si>
+  <si>
+    <t>루시아/일반/원거리 공격/공격력 100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루시아/스킬1/원거리 스킬/체력이 가장 낮은 아군 체력 회복(즉발형)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루시아/스킬2/원거리 스킬/전방의 적 1명 공격(발사체 발사)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루시아/궁극기/원거리 스킬/아군 전체 체력 회복(즉발형)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라일라/일반 (공격력 100%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라일라/스킬 1/범위 대미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라일라/스킬 2/ 전체 대미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2765,11 +2768,35 @@
       <sheetName val="@effect_count_type"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TRIBE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>POSITION_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ROLE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>NPC_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="5">
         <row r="1">
           <cell r="A1" t="str">
@@ -6508,14 +6535,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D77A34-98F9-4133-B549-FB86B9DF331B}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" customWidth="1"/>
     <col min="4" max="4" width="14.625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.875" style="6" customWidth="1"/>
@@ -6549,7 +6576,7 @@
         <v>125</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>26</v>
@@ -6561,10 +6588,10 @@
         <v>79</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -6584,7 +6611,7 @@
         <v>126</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>4</v>
@@ -6596,10 +6623,10 @@
         <v>4</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -6616,10 +6643,10 @@
         <v>48</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>27</v>
@@ -6631,10 +6658,10 @@
         <v>80</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -6643,7 +6670,7 @@
       </c>
       <c r="B5" s="18" t="str">
         <f>VLOOKUP(A5,pc_skill_data!$B:$C,2,)</f>
-        <v>힐러/일반/원거리 공격/공격력 100%</v>
+        <v>루시아/일반/원거리 공격/공격력 100%</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>19</v>
@@ -6656,19 +6683,19 @@
         <v>1</v>
       </c>
       <c r="F5" s="48" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G5" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="H5" s="46" t="s">
+        <v>208</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="H5" s="46" t="s">
-        <v>214</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>201</v>
       </c>
       <c r="K5" s="4">
         <v>1.1000000000000001</v>
@@ -6680,7 +6707,7 @@
       </c>
       <c r="B6" s="18" t="str">
         <f>VLOOKUP(A6,pc_skill_data!$B:$C,2,)</f>
-        <v>힐러/스킬1/원거리 스킬/체력이 가장 낮은 아군 체력 회복(즉발형)</v>
+        <v>루시아/스킬1/원거리 스킬/체력이 가장 낮은 아군 체력 회복(즉발형)</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>22</v>
@@ -6693,19 +6720,19 @@
         <v>2</v>
       </c>
       <c r="F6" s="48" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G6" s="18" t="s">
         <v>146</v>
       </c>
       <c r="H6" s="46" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="K6" s="4">
         <v>2.5</v>
@@ -6717,7 +6744,7 @@
       </c>
       <c r="B7" s="18" t="str">
         <f>VLOOKUP(A7,pc_skill_data!$B:$C,2,)</f>
-        <v>힐러/스킬2/원거리 스킬/전방의 적 1명 공격(발사체 발사)</v>
+        <v>루시아/스킬2/원거리 스킬/전방의 적 1명 공격(발사체 발사)</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>28</v>
@@ -6730,19 +6757,19 @@
         <v>3</v>
       </c>
       <c r="F7" s="48" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="H7" s="46" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="K7" s="4">
         <v>2</v>
@@ -6753,10 +6780,10 @@
         <v>100004</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D8" s="19">
         <v>15</v>
@@ -6766,16 +6793,16 @@
         <v>4</v>
       </c>
       <c r="F8" s="48" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H8" s="46" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4">
@@ -6788,7 +6815,7 @@
       </c>
       <c r="B9" s="18" t="str">
         <f>VLOOKUP(A9,pc_skill_data!$B:$C,2,)</f>
-        <v>근딜/일반 (공격력 100%)</v>
+        <v>라일라/일반 (공격력 100%)</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>29</v>
@@ -6801,13 +6828,13 @@
         <v>1</v>
       </c>
       <c r="F9" s="48" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G9" s="18" t="s">
         <v>137</v>
       </c>
       <c r="H9" s="46" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="I9" s="18" t="s">
         <v>148</v>
@@ -6823,7 +6850,7 @@
       </c>
       <c r="B10" s="18" t="str">
         <f>VLOOKUP(A10,pc_skill_data!$B:$C,2,)</f>
-        <v>근딜/나/공격력 증가 버프 (20%)</v>
+        <v>라일라/스킬 1/범위 대미지</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>30</v>
@@ -6836,13 +6863,13 @@
         <v>2</v>
       </c>
       <c r="F10" s="48" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>138</v>
       </c>
       <c r="H10" s="46" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="I10" s="18" t="s">
         <v>147</v>
@@ -6858,7 +6885,7 @@
       </c>
       <c r="B11" s="18" t="str">
         <f>VLOOKUP(A11,pc_skill_data!$B:$C,2,)</f>
-        <v>근딜/근접공격/대미지(공격력 130%)</v>
+        <v>라일라/스킬 2/ 전체 대미지</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>90</v>
@@ -6871,16 +6898,16 @@
         <v>3</v>
       </c>
       <c r="F11" s="48" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="G11" s="18" t="s">
         <v>139</v>
       </c>
       <c r="H11" s="46" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4">
@@ -6906,13 +6933,13 @@
         <v>1</v>
       </c>
       <c r="F12" s="48" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G12" s="18" t="s">
         <v>140</v>
       </c>
       <c r="H12" s="46" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="I12" s="18" t="s">
         <v>148</v>
@@ -6941,13 +6968,13 @@
         <v>2</v>
       </c>
       <c r="F13" s="48" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G13" s="18" t="s">
         <v>141</v>
       </c>
       <c r="H13" s="46" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="I13" s="18" t="s">
         <v>147</v>
@@ -6976,16 +7003,16 @@
         <v>3</v>
       </c>
       <c r="F14" s="48" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="G14" s="18" t="s">
         <v>144</v>
       </c>
       <c r="H14" s="46" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4">
@@ -7011,13 +7038,13 @@
         <v>1</v>
       </c>
       <c r="F15" s="48" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G15" s="18" t="s">
         <v>142</v>
       </c>
       <c r="H15" s="46" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="I15" s="18" t="s">
         <v>148</v>
@@ -7046,13 +7073,13 @@
         <v>2</v>
       </c>
       <c r="F16" s="48" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G16" s="18" t="s">
         <v>143</v>
       </c>
       <c r="H16" s="46" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="I16" s="18" t="s">
         <v>147</v>
@@ -7081,16 +7108,16 @@
         <v>3</v>
       </c>
       <c r="F17" s="48" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="G17" s="18" t="s">
         <v>145</v>
       </c>
       <c r="H17" s="46" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4">
@@ -7116,13 +7143,13 @@
         <v>1</v>
       </c>
       <c r="F18" s="48" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G18" s="18" t="s">
         <v>141</v>
       </c>
       <c r="H18" s="46" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="I18" s="18" t="s">
         <v>148</v>
@@ -7151,13 +7178,13 @@
         <v>2</v>
       </c>
       <c r="F19" s="48" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G19" s="18" t="s">
         <v>146</v>
       </c>
       <c r="H19" s="46" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>147</v>
@@ -7186,16 +7213,16 @@
         <v>3</v>
       </c>
       <c r="F20" s="48" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="G20" s="18" t="s">
         <v>141</v>
       </c>
       <c r="H20" s="46" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4">
@@ -7221,13 +7248,13 @@
         <v>1</v>
       </c>
       <c r="F21" s="48" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G21" s="18" t="s">
         <v>141</v>
       </c>
       <c r="H21" s="46" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="I21" s="18" t="s">
         <v>148</v>
@@ -7256,13 +7283,13 @@
         <v>2</v>
       </c>
       <c r="F22" s="48" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H22" s="46" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="I22" s="18" t="s">
         <v>147</v>
@@ -7291,16 +7318,16 @@
         <v>3</v>
       </c>
       <c r="F23" s="48" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H23" s="46" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4">
@@ -7329,18 +7356,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00F7AA3-FB12-454D-93A6-31450B9003EC}">
   <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q9" sqref="Q9"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.75" customWidth="1"/>
+    <col min="3" max="3" width="61.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.625" customWidth="1"/>
     <col min="5" max="5" width="18.875" customWidth="1"/>
     <col min="6" max="6" width="59" style="9" customWidth="1"/>
@@ -7408,13 +7435,13 @@
         <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>127</v>
@@ -7438,16 +7465,16 @@
         <v>70</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>85</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -7479,10 +7506,10 @@
         <v>8</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="L3" s="11" t="s">
         <v>128</v>
@@ -7544,13 +7571,13 @@
         <v>16</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="L4" s="20" t="s">
         <v>129</v>
@@ -7574,16 +7601,16 @@
         <v>73</v>
       </c>
       <c r="S4" s="20" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="T4" s="20" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="U4" s="20" t="s">
         <v>86</v>
       </c>
       <c r="V4" s="20" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -7594,7 +7621,7 @@
         <v>100001</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>192</v>
+        <v>231</v>
       </c>
       <c r="D5" s="22">
         <v>1</v>
@@ -7604,7 +7631,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G5" s="22">
         <v>0</v>
@@ -7620,14 +7647,14 @@
         <v>0</v>
       </c>
       <c r="K5" s="47" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L5" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M5,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
       <c r="M5" s="43" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="N5" s="25">
         <v>0</v>
@@ -7651,7 +7678,7 @@
         <v>0</v>
       </c>
       <c r="U5" s="25" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="V5" s="25"/>
     </row>
@@ -7663,7 +7690,7 @@
         <v>100002</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>193</v>
+        <v>232</v>
       </c>
       <c r="D6" s="7">
         <v>0</v>
@@ -7673,7 +7700,7 @@
         <v>3001</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -7689,14 +7716,14 @@
         <v>0</v>
       </c>
       <c r="K6" s="48" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L6" s="4">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M6,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
       <c r="M6" s="44" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="N6" s="4">
         <v>0</v>
@@ -7720,7 +7747,7 @@
         <v>0</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="V6" s="4"/>
     </row>
@@ -7732,7 +7759,7 @@
         <v>100003</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>194</v>
+        <v>233</v>
       </c>
       <c r="D7" s="23">
         <v>1</v>
@@ -7742,7 +7769,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G7" s="23">
         <v>0</v>
@@ -7758,14 +7785,14 @@
         <v>0</v>
       </c>
       <c r="K7" s="49" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L7" s="28">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M7,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
       <c r="M7" s="45" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="N7" s="28">
         <v>0</v>
@@ -7789,7 +7816,7 @@
         <v>0</v>
       </c>
       <c r="U7" s="28" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="V7" s="28"/>
     </row>
@@ -7801,7 +7828,7 @@
         <v>100004</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D8" s="51">
         <v>0</v>
@@ -7810,7 +7837,7 @@
         <v>3001</v>
       </c>
       <c r="F8" s="53" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="G8" s="51">
         <v>0</v>
@@ -7825,13 +7852,13 @@
         <v>0</v>
       </c>
       <c r="K8" s="54" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L8" s="55">
         <v>0</v>
       </c>
       <c r="M8" s="56" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="N8" s="55">
         <v>0</v>
@@ -7855,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="U8" s="55" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="V8" s="55"/>
     </row>
@@ -7867,7 +7894,7 @@
         <v>100101</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>149</v>
+        <v>235</v>
       </c>
       <c r="D9" s="22">
         <v>1</v>
@@ -7877,7 +7904,7 @@
         <v>6</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G9" s="22">
         <v>0</v>
@@ -7893,14 +7920,14 @@
         <v>0</v>
       </c>
       <c r="K9" s="47" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L9" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M9,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
       <c r="M9" s="43" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="N9" s="25">
         <v>0</v>
@@ -7936,7 +7963,7 @@
         <v>100102</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>152</v>
+        <v>236</v>
       </c>
       <c r="D10" s="7">
         <v>0</v>
@@ -7946,7 +7973,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G10" s="7">
         <v>0</v>
@@ -7962,14 +7989,14 @@
         <v>0</v>
       </c>
       <c r="K10" s="48" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L10" s="4">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M10,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
       <c r="M10" s="44" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="N10" s="4">
         <v>0</v>
@@ -8005,7 +8032,7 @@
         <v>100103</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>150</v>
+        <v>237</v>
       </c>
       <c r="D11" s="23">
         <v>1</v>
@@ -8015,7 +8042,7 @@
         <v>6</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G11" s="23">
         <v>0</v>
@@ -8031,14 +8058,14 @@
         <v>0</v>
       </c>
       <c r="K11" s="49" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L11" s="28">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M11,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
       <c r="M11" s="45" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="N11" s="28">
         <v>0</v>
@@ -8084,7 +8111,7 @@
         <v>6</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G12" s="22">
         <v>0</v>
@@ -8100,14 +8127,14 @@
         <v>0</v>
       </c>
       <c r="K12" s="47" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L12" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M12,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
       <c r="M12" s="43" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="N12" s="25">
         <v>0</v>
@@ -8153,7 +8180,7 @@
         <v>6</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G13" s="7">
         <v>0</v>
@@ -8169,14 +8196,14 @@
         <v>0</v>
       </c>
       <c r="K13" s="48" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L13" s="4">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M13,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
       <c r="M13" s="44" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="N13" s="4">
         <v>0</v>
@@ -8222,7 +8249,7 @@
         <v>10</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G14" s="23">
         <v>0</v>
@@ -8238,14 +8265,14 @@
         <v>0</v>
       </c>
       <c r="K14" s="49" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L14" s="28">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M14,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
       <c r="M14" s="45" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="N14" s="28">
         <v>0</v>
@@ -8254,7 +8281,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="23" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Q14" s="28">
         <v>100009</v>
@@ -8291,7 +8318,7 @@
         <v>6</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G15" s="22">
         <v>0</v>
@@ -8307,14 +8334,14 @@
         <v>2</v>
       </c>
       <c r="K15" s="47" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="L15" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M15,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
       <c r="M15" s="43" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="N15" s="25">
         <v>0</v>
@@ -8352,7 +8379,7 @@
         <v>100302</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D16" s="7">
         <v>1</v>
@@ -8362,7 +8389,7 @@
         <v>6</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G16" s="7">
         <v>0</v>
@@ -8378,14 +8405,14 @@
         <v>2</v>
       </c>
       <c r="K16" s="48" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="L16" s="4">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M16,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
       <c r="M16" s="44" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="N16" s="4">
         <v>0</v>
@@ -8409,7 +8436,7 @@
         <v>0</v>
       </c>
       <c r="U16" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="V16" s="4" t="s">
         <v>110</v>
@@ -8423,7 +8450,7 @@
         <v>100303</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D17" s="23">
         <v>1</v>
@@ -8433,7 +8460,7 @@
         <v>6</v>
       </c>
       <c r="F17" s="34" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G17" s="23">
         <v>0</v>
@@ -8449,14 +8476,14 @@
         <v>2</v>
       </c>
       <c r="K17" s="49" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="L17" s="28">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M17,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
       <c r="M17" s="45" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="N17" s="28">
         <v>0</v>
@@ -8504,7 +8531,7 @@
         <v>6</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G18" s="22">
         <v>0</v>
@@ -8520,14 +8547,14 @@
         <v>2</v>
       </c>
       <c r="K18" s="47" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="L18" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M18,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
       <c r="M18" s="43" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="N18" s="25">
         <v>0</v>
@@ -8565,7 +8592,7 @@
         <v>100402</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D19" s="7">
         <v>0</v>
@@ -8575,7 +8602,7 @@
         <v>3002</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G19" s="7">
         <v>0</v>
@@ -8591,14 +8618,14 @@
         <v>2</v>
       </c>
       <c r="K19" s="48" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="L19" s="4">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M19,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
       <c r="M19" s="44" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="N19" s="4">
         <v>0</v>
@@ -8646,7 +8673,7 @@
         <v>6</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G20" s="23">
         <v>0</v>
@@ -8662,14 +8689,14 @@
         <v>2</v>
       </c>
       <c r="K20" s="49" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="L20" s="28">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M20,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
       <c r="M20" s="45" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="N20" s="28">
         <v>0</v>
@@ -8717,7 +8744,7 @@
         <v>6</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G21" s="22">
         <v>0</v>
@@ -8733,14 +8760,14 @@
         <v>2</v>
       </c>
       <c r="K21" s="47" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="L21" s="25">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M21,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
       <c r="M21" s="43" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="N21" s="25">
         <v>0</v>
@@ -8767,7 +8794,7 @@
         <v>87</v>
       </c>
       <c r="V21" s="25" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -8778,7 +8805,7 @@
         <v>100502</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D22" s="7">
         <v>1</v>
@@ -8788,7 +8815,7 @@
         <v>6</v>
       </c>
       <c r="F22" s="33" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G22" s="7">
         <v>0</v>
@@ -8804,14 +8831,14 @@
         <v>2</v>
       </c>
       <c r="K22" s="48" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="L22" s="4">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M22,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>0</v>
       </c>
       <c r="M22" s="44" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="N22" s="4">
         <v>0</v>
@@ -8835,7 +8862,7 @@
         <v>0</v>
       </c>
       <c r="U22" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="V22" s="4" t="s">
         <v>110</v>
@@ -8849,7 +8876,7 @@
         <v>100503</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D23" s="23">
         <v>1</v>
@@ -8859,7 +8886,7 @@
         <v>6</v>
       </c>
       <c r="F23" s="34" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G23" s="23">
         <v>0</v>
@@ -8875,14 +8902,14 @@
         <v>2</v>
       </c>
       <c r="K23" s="49" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="L23" s="28">
         <f>INDEX('!참조_ENUM'!$AD$3:$AD$5,MATCH(M23,'!참조_ENUM'!$AE$3:$AE$5,0))</f>
         <v>2</v>
       </c>
       <c r="M23" s="45" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="N23" s="28">
         <v>0</v>
@@ -9064,14 +9091,14 @@
         <v>1</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D5" s="22">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E5,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F5" s="25">
         <v>0</v>
@@ -9080,7 +9107,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -9092,14 +9119,14 @@
         <v>2</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D6" s="7">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E6,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>300</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
@@ -9108,7 +9135,7 @@
         <v>0.1</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -9120,14 +9147,14 @@
         <v>1</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D7" s="23">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E7,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F7" s="28">
         <v>0</v>
@@ -9136,7 +9163,7 @@
         <v>1.2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -9148,14 +9175,14 @@
         <v>2</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D8" s="7">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E8,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>300</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F8" s="4">
         <v>0</v>
@@ -9164,7 +9191,7 @@
         <v>0.2</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -9176,14 +9203,14 @@
         <v>1</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D9" s="40">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E9,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F9" s="42">
         <v>0</v>
@@ -9204,14 +9231,14 @@
         <v>1</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D10" s="7">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E10,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F10" s="4">
         <v>0</v>
@@ -9232,14 +9259,14 @@
         <v>1</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D11" s="23">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E11,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F11" s="28">
         <v>0</v>
@@ -9260,14 +9287,14 @@
         <v>1</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D12" s="22">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E12,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F12" s="25">
         <v>0</v>
@@ -9288,14 +9315,14 @@
         <v>1</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D13" s="7">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E13,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F13" s="4">
         <v>0</v>
@@ -9316,14 +9343,14 @@
         <v>1</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D14" s="29">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E14,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F14" s="30">
         <v>0</v>
@@ -9332,7 +9359,7 @@
         <v>0.8</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -9344,14 +9371,14 @@
         <v>1</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D15" s="22">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E15,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F15" s="25">
         <v>0</v>
@@ -9372,14 +9399,14 @@
         <v>1</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D16" s="29">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E16,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F16" s="30">
         <v>0</v>
@@ -9400,14 +9427,14 @@
         <v>1</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D17" s="22">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E17,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F17" s="25">
         <v>0</v>
@@ -9428,14 +9455,14 @@
         <v>2</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D18" s="7">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E18,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>300</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F18" s="4">
         <v>0</v>
@@ -9456,14 +9483,14 @@
         <v>1</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D19" s="23">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E19,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F19" s="28">
         <v>0</v>
@@ -9484,14 +9511,14 @@
         <v>1</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D20" s="40">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E20,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F20" s="42">
         <v>0</v>
@@ -9512,14 +9539,14 @@
         <v>1</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D21" s="23">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E21,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F21" s="28">
         <v>0</v>
@@ -9540,14 +9567,14 @@
         <v>1</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D22" s="23">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E22,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F22" s="28">
         <v>0</v>
@@ -9556,7 +9583,7 @@
         <v>1.3</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -9568,14 +9595,14 @@
         <v>1</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D23" s="23">
         <f>INDEX('!참조_ENUM'!$F$3:$F$13,MATCH(E23,'!참조_ENUM'!$G$3:$G$13,0))</f>
         <v>101</v>
       </c>
       <c r="E23" s="34" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F23" s="28">
         <v>0</v>
@@ -9808,14 +9835,14 @@
         <v>1</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D5" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E5,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>2</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
@@ -9837,7 +9864,7 @@
         <v>900</v>
       </c>
       <c r="L5" s="33" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M5" s="4">
         <v>0</v>
@@ -9864,14 +9891,14 @@
         <v>106</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D6" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E6,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F6" s="4">
         <v>5</v>
@@ -9893,7 +9920,7 @@
         <v>101</v>
       </c>
       <c r="L6" s="33" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M6" s="4">
         <v>0</v>
@@ -9920,14 +9947,14 @@
         <v>107</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D7" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E7,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F7" s="4">
         <v>5</v>
@@ -9949,7 +9976,7 @@
         <v>200</v>
       </c>
       <c r="L7" s="33" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M7" s="4">
         <v>0</v>
@@ -9976,14 +10003,14 @@
         <v>106</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D8" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E8,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F8" s="4">
         <v>5</v>
@@ -10005,7 +10032,7 @@
         <v>101</v>
       </c>
       <c r="L8" s="33" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M8" s="4">
         <v>0</v>
@@ -10032,14 +10059,14 @@
         <v>108</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D9" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E9,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F9" s="4">
         <v>5</v>
@@ -10061,7 +10088,7 @@
         <v>101</v>
       </c>
       <c r="L9" s="33" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M9" s="4">
         <v>0</v>
@@ -10088,14 +10115,14 @@
         <v>109</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D10" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E10,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F10" s="4">
         <v>5</v>
@@ -10117,7 +10144,7 @@
         <v>200</v>
       </c>
       <c r="L10" s="33" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M10" s="4">
         <v>0</v>
@@ -10129,7 +10156,7 @@
         <v>5000</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="Q10" s="4" t="b">
         <v>1</v>
@@ -10144,14 +10171,14 @@
         <v>105</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D11" s="4">
         <f>INDEX('!참조_ENUM'!$Z$3:$Z$6,MATCH(E11,'!참조_ENUM'!$AA$3:$AA$6,0))</f>
         <v>1</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F11" s="4">
         <v>3</v>
@@ -10173,7 +10200,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="33" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M11" s="4">
         <v>0</v>

--- a/Android/ExcelData/PCSkillTable.xlsx
+++ b/Android/ExcelData/PCSkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F53EA7-7486-466A-B700-D1F469E6E02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4891111C-1292-488C-BE67-7BC0D3078FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11895" yWindow="1155" windowWidth="25215" windowHeight="19980" activeTab="2" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
+    <workbookView xWindow="3165" yWindow="660" windowWidth="32580" windowHeight="19980" activeTab="4" xr2:uid="{F10D6BEE-81F3-4849-8F4E-7B94272BEF78}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="1" r:id="rId1"/>
@@ -1339,7 +1339,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="239">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2242,6 +2242,9 @@
   <si>
     <t>라일라/스킬 2/ 전체 대미지</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110 공격력 방어력 스탯 교환</t>
   </si>
 </sst>
 </file>
@@ -2768,35 +2771,11 @@
       <sheetName val="@effect_count_type"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TRIBE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>POSITION_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ROLE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>NPC_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
       <sheetData sheetId="5">
         <row r="1">
           <cell r="A1" t="str">
@@ -2933,17 +2912,6 @@
           </cell>
           <cell r="C14" t="str">
             <v>10 가장 가까운 적 우선 선택(순번 컬럼 연동하여 순서대로) 후 일정 영역내의(주변) 타겟의 추가 선택</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>FURTHEST_ADD_ARROUND_RANGE</v>
-          </cell>
-          <cell r="B15">
-            <v>11</v>
-          </cell>
-          <cell r="C15" t="str">
-            <v>11 가장 거리가 먼 적 우선 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로) 후 일정 영역내의 (주변) 타겟 추가 선택</v>
           </cell>
         </row>
         <row r="16">
@@ -4168,6 +4136,17 @@
           </cell>
           <cell r="C14" t="str">
             <v>109 방어력 감소</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>EXCHANGE_ATK_DEF</v>
+          </cell>
+          <cell r="B15">
+            <v>110</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>110 공격력 방어력 스탯 교환</v>
           </cell>
         </row>
       </sheetData>
@@ -4670,10 +4649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCF2545-5B22-48B7-AA3A-4E88E574D583}">
-  <dimension ref="A1:AM81"/>
+  <dimension ref="A1:AM80"/>
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AE4" sqref="AE4"/>
+      <selection activeCell="U14" sqref="U14:W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5575,952 +5554,950 @@
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="str">
-        <f>'[1]@target_rule'!$A15</f>
-        <v>FURTHEST_ADD_ARROUND_RANGE</v>
+        <f>'[1]@target_rule'!$A16</f>
+        <v>LOWEST_LIFE_VALUE</v>
       </c>
       <c r="B14" s="4">
-        <f>'[1]@target_rule'!$B15</f>
-        <v>11</v>
+        <f>'[1]@target_rule'!$B16</f>
+        <v>3001</v>
       </c>
       <c r="C14" s="4" t="str">
-        <f>'[1]@target_rule'!$C15</f>
-        <v>11 가장 거리가 먼 적 우선 선택 (순번 컬럼을 연동하여 뒤에서부터의 순서대로) 후 일정 영역내의 (주변) 타겟 추가 선택</v>
+        <f>'[1]@target_rule'!$C16</f>
+        <v>3001 남은 체력이 가장 낮은 타겟 선택</v>
+      </c>
+      <c r="U14" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$A15</f>
+        <v>EXCHANGE_ATK_DEF</v>
+      </c>
+      <c r="V14" s="4">
+        <f>'[1]@duration_effect_type'!$B15</f>
+        <v>110</v>
+      </c>
+      <c r="W14" s="4" t="str">
+        <f>'[1]@duration_effect_type'!$C15</f>
+        <v>110 공격력 방어력 스탯 교환</v>
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="str">
-        <f>'[1]@target_rule'!$A16</f>
-        <v>LOWEST_LIFE_VALUE</v>
+        <f>'[1]@target_rule'!$A17</f>
+        <v>LOWEST_ATTACK</v>
       </c>
       <c r="B15" s="4">
-        <f>'[1]@target_rule'!$B16</f>
-        <v>3001</v>
+        <f>'[1]@target_rule'!$B17</f>
+        <v>3003</v>
       </c>
       <c r="C15" s="4" t="str">
-        <f>'[1]@target_rule'!$C16</f>
-        <v>3001 남은 체력이 가장 낮은 타겟 선택</v>
+        <f>'[1]@target_rule'!$C17</f>
+        <v>3003 공격력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="str">
-        <f>'[1]@target_rule'!$A17</f>
-        <v>LOWEST_ATTACK</v>
+        <f>'[1]@target_rule'!$A18</f>
+        <v>LOWEST_DEFENSE</v>
       </c>
       <c r="B16" s="4">
-        <f>'[1]@target_rule'!$B17</f>
-        <v>3003</v>
+        <f>'[1]@target_rule'!$B18</f>
+        <v>3004</v>
       </c>
       <c r="C16" s="4" t="str">
-        <f>'[1]@target_rule'!$C17</f>
-        <v>3003 공격력이 가장 낮은 타겟 선택</v>
+        <f>'[1]@target_rule'!$C18</f>
+        <v>3004 방어력이 가장 낮은 타겟 선택</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="str">
-        <f>'[1]@target_rule'!$A18</f>
-        <v>LOWEST_DEFENSE</v>
+        <f>'[1]@target_rule'!$A19</f>
+        <v>HIGHEST_ATTACK</v>
       </c>
       <c r="B17" s="4">
-        <f>'[1]@target_rule'!$B18</f>
-        <v>3004</v>
+        <f>'[1]@target_rule'!$B19</f>
+        <v>2003</v>
       </c>
       <c r="C17" s="4" t="str">
-        <f>'[1]@target_rule'!$C18</f>
-        <v>3004 방어력이 가장 낮은 타겟 선택</v>
+        <f>'[1]@target_rule'!$C19</f>
+        <v>2003 공격력이 가장 높은 타겟 선택</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="str">
-        <f>'[1]@target_rule'!$A19</f>
-        <v>HIGHEST_ATTACK</v>
+        <f>'[1]@target_rule'!$A20</f>
+        <v>HIGHEST_DEFENSE</v>
       </c>
       <c r="B18" s="4">
-        <f>'[1]@target_rule'!$B19</f>
-        <v>2003</v>
+        <f>'[1]@target_rule'!$B20</f>
+        <v>2004</v>
       </c>
       <c r="C18" s="4" t="str">
-        <f>'[1]@target_rule'!$C19</f>
-        <v>2003 공격력이 가장 높은 타겟 선택</v>
+        <f>'[1]@target_rule'!$C20</f>
+        <v>2004 방어력이 가장 높은 타겟 선택</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="str">
-        <f>'[1]@target_rule'!$A20</f>
-        <v>HIGHEST_DEFENSE</v>
+        <f>'[1]@target_rule'!$A21</f>
+        <v>APPROACH</v>
       </c>
       <c r="B19" s="4">
-        <f>'[1]@target_rule'!$B20</f>
-        <v>2004</v>
+        <f>'[1]@target_rule'!$B21</f>
+        <v>9999</v>
       </c>
       <c r="C19" s="4" t="str">
-        <f>'[1]@target_rule'!$C20</f>
-        <v>2004 방어력이 가장 높은 타겟 선택</v>
+        <f>'[1]@target_rule'!$C21</f>
+        <v>9999 가장 가까운 상대 타겟 선택(화면상에서 적에게 접근하기 위한 용도)</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="str">
-        <f>'[1]@target_rule'!$A21</f>
-        <v>APPROACH</v>
+        <f>'[1]@target_rule'!$A22</f>
+        <v>LEADER_HIGH_PRIORITY</v>
       </c>
       <c r="B20" s="4">
-        <f>'[1]@target_rule'!$B21</f>
-        <v>9999</v>
+        <f>'[1]@target_rule'!$B22</f>
+        <v>1001</v>
       </c>
       <c r="C20" s="4" t="str">
-        <f>'[1]@target_rule'!$C21</f>
-        <v>9999 가장 가까운 상대 타겟 선택(화면상에서 적에게 접근하기 위한 용도)</v>
+        <f>'[1]@target_rule'!$C22</f>
+        <v>1001 리더 선택</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="str">
-        <f>'[1]@target_rule'!$A22</f>
-        <v>LEADER_HIGH_PRIORITY</v>
+        <f>'[1]@target_rule'!$A23</f>
+        <v>HIGHEST_LIFE_VALUE</v>
       </c>
       <c r="B21" s="4">
-        <f>'[1]@target_rule'!$B22</f>
-        <v>1001</v>
+        <f>'[1]@target_rule'!$B23</f>
+        <v>2001</v>
       </c>
       <c r="C21" s="4" t="str">
-        <f>'[1]@target_rule'!$C22</f>
-        <v>1001 리더 선택</v>
+        <f>'[1]@target_rule'!$C23</f>
+        <v>2001 남은 체력이 가장 많은 타겟 선택</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="str">
-        <f>'[1]@target_rule'!$A23</f>
-        <v>HIGHEST_LIFE_VALUE</v>
+        <f>'[1]@target_rule'!$A24</f>
+        <v>HIGHEST_LIFE_RATE</v>
       </c>
       <c r="B22" s="4">
-        <f>'[1]@target_rule'!$B23</f>
-        <v>2001</v>
+        <f>'[1]@target_rule'!$B24</f>
+        <v>2002</v>
       </c>
       <c r="C22" s="4" t="str">
-        <f>'[1]@target_rule'!$C23</f>
-        <v>2001 남은 체력이 가장 많은 타겟 선택</v>
+        <f>'[1]@target_rule'!$C24</f>
+        <v>2002 남은 체력 비율이 가장 높은 타겟 선택</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="str">
-        <f>'[1]@target_rule'!$A24</f>
-        <v>HIGHEST_LIFE_RATE</v>
+        <f>'[1]@target_rule'!$A25</f>
+        <v>HIGHEST_ACCURACY</v>
       </c>
       <c r="B23" s="4">
-        <f>'[1]@target_rule'!$B24</f>
-        <v>2002</v>
+        <f>'[1]@target_rule'!$B25</f>
+        <v>2006</v>
       </c>
       <c r="C23" s="4" t="str">
-        <f>'[1]@target_rule'!$C24</f>
-        <v>2002 남은 체력 비율이 가장 높은 타겟 선택</v>
+        <f>'[1]@target_rule'!$C25</f>
+        <v>2006 명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="str">
-        <f>'[1]@target_rule'!$A25</f>
-        <v>HIGHEST_ACCURACY</v>
+        <f>'[1]@target_rule'!$A26</f>
+        <v>HIGHEST_EVASION</v>
       </c>
       <c r="B24" s="4">
-        <f>'[1]@target_rule'!$B25</f>
-        <v>2006</v>
+        <f>'[1]@target_rule'!$B26</f>
+        <v>2007</v>
       </c>
       <c r="C24" s="4" t="str">
-        <f>'[1]@target_rule'!$C25</f>
-        <v>2006 명중률이 가장 높은 타겟 선택 (명중률 속성이 있다면)</v>
+        <f>'[1]@target_rule'!$C26</f>
+        <v>2007 회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="str">
-        <f>'[1]@target_rule'!$A26</f>
-        <v>HIGHEST_EVASION</v>
+        <f>'[1]@target_rule'!$A27</f>
+        <v>HIGHEST_LIFE_VALUE_HUMAN</v>
       </c>
       <c r="B25" s="4">
-        <f>'[1]@target_rule'!$B26</f>
-        <v>2007</v>
+        <f>'[1]@target_rule'!$B27</f>
+        <v>2008</v>
       </c>
       <c r="C25" s="4" t="str">
-        <f>'[1]@target_rule'!$C26</f>
-        <v>2007 회피율이 가장 높은 타겟 선택 (회피율 속성이 있다면)</v>
+        <f>'[1]@target_rule'!$C27</f>
+        <v>2008 남은 체력이 가장 높은 인간 종족 선택</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="str">
-        <f>'[1]@target_rule'!$A27</f>
-        <v>HIGHEST_LIFE_VALUE_HUMAN</v>
+        <f>'[1]@target_rule'!$A28</f>
+        <v>HIGHEST_LIFE_VALUE_ELF</v>
       </c>
       <c r="B26" s="4">
-        <f>'[1]@target_rule'!$B27</f>
-        <v>2008</v>
+        <f>'[1]@target_rule'!$B28</f>
+        <v>2009</v>
       </c>
       <c r="C26" s="4" t="str">
-        <f>'[1]@target_rule'!$C27</f>
-        <v>2008 남은 체력이 가장 높은 인간 종족 선택</v>
+        <f>'[1]@target_rule'!$C28</f>
+        <v>2009 남은 체력이 가장 높은 엘프 종족 선택</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="str">
-        <f>'[1]@target_rule'!$A28</f>
-        <v>HIGHEST_LIFE_VALUE_ELF</v>
+        <f>'[1]@target_rule'!$A29</f>
+        <v>HIGHEST_LIFE_VALUE_WEREBEAST</v>
       </c>
       <c r="B27" s="4">
-        <f>'[1]@target_rule'!$B28</f>
-        <v>2009</v>
+        <f>'[1]@target_rule'!$B29</f>
+        <v>2010</v>
       </c>
       <c r="C27" s="4" t="str">
-        <f>'[1]@target_rule'!$C28</f>
-        <v>2009 남은 체력이 가장 높은 엘프 종족 선택</v>
+        <f>'[1]@target_rule'!$C29</f>
+        <v>2010 남은 체력이 가장 높은 수인 종족 선택</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="str">
-        <f>'[1]@target_rule'!$A29</f>
-        <v>HIGHEST_LIFE_VALUE_WEREBEAST</v>
+        <f>'[1]@target_rule'!$A30</f>
+        <v>HIGHEST_LIFE_VALUE_ANDROID</v>
       </c>
       <c r="B28" s="4">
- 